--- a/data/02_intermediate/cleaned_Pit_Baccardi_songs.xlsx
+++ b/data/02_intermediate/cleaned_Pit_Baccardi_songs.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te chienter J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Voici le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Ton esprit mes mots vont teinter Sachez, fâché 1998 Mobebissi M.Y.S.T.I.K Mystik exactamente Le bled on fume la chose pire qu'un bedo blindé Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Même si je dérange, matramemch, on s'arrange, j'te connais Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe M.Y.S.T.I.K. Mystik exactamenté Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic You might also like Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, appelle-moi meilleur Épelle le B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Je ne suis pas fâché que machin ait pompé mon style J'suis pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser à ma gloire Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon juice la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des pédés qu'ils produisaient Donc en tant qu'anti-pédé, ton côlon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas de mon pedigree, je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Aux ghettos français ma voix traverse le ciel Preuve d'un monde de cruauté car j'viens mettre mon grain d'sel Par habitude de tout niquer car soldat universel 9-8, l'année de la cuite sur une mission j'opère Mafia K'1 Fry derrière, calibré c'est pépère Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente jusqu'à la mort Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le darwaw pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour la illasse-ca Écoute ce style, écoute ma voix, tu sais qui je suis n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups d'high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier Masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as dix secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de micmac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le dawa pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour le Secteur Ä Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Baccardi Pit pour Time Bomb black mafia Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Tu peux pas test avec la Mafia K'1 Fry Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide 113 Bobal, rue Case-Nègre place des Fêtes Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Je hisse le drapeau du S. A. tréma Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Première Classe, Djimi Findus dans la place Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe J'en place une pour Sayd, Express D et la Sexion Yeah, calmement, calmement Pour ma Première Classe Lentement mais sûrement6</t>
+          <t>Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te chienter J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Voici le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Ton esprit mes mots vont teinter Sachez, fâché 1998 Mobebissi M.Y.S.T.I.K Mystik exactamente Le bled on fume la chose pire qu'un bedo blindé Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Même si je dérange, matramemch, on s'arrange, j'te connais Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe M.Y.S.T.I.K. Mystik exactamenté Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, appelle-moi meilleur Épelle le B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Je ne suis pas fâché que machin ait pompé mon style J'suis pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser à ma gloire Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon juice la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des pédés qu'ils produisaient Donc en tant qu'anti-pédé, ton côlon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas de mon pedigree, je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Aux ghettos français ma voix traverse le ciel Preuve d'un monde de cruauté car j'viens mettre mon grain d'sel Par habitude de tout niquer car soldat universel 9-8, l'année de la cuite sur une mission j'opère Mafia K'1 Fry derrière, calibré c'est pépère Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente jusqu'à la mort Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le darwaw pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour la illasse-ca Écoute ce style, écoute ma voix, tu sais qui je suis n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups d'high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier Masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as dix secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de micmac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le dawa pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour le Secteur Ä Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Baccardi Pit pour Time Bomb black mafia Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Tu peux pas test avec la Mafia K'1 Fry Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide 113 Bobal, rue Case-Nègre place des Fêtes Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Je hisse le drapeau du S. A. tréma Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Première Classe, Djimi Findus dans la place Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe J'en place une pour Sayd, Express D et la Sexion Yeah, calmement, calmement Pour ma Première Classe Lentement mais sûrement6</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques You might also like Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
+          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah You might also like Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
+          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Je n'suis pas un C.O.N, N.O.N ce n'est pas la peine De penser c'la de moi, en effet c'n'est pas B.O.N Je vous avoue de vous à moi Pas de timinik ici, sinon je fais appel à mon Posse Tous pour un et un pour tous La devise des boss Pas de pitié pour ceux qui veulent jouer les sales gosses Beaucoup de gens veulent m'offenser Sous pretexte que nous n'avons pas les mêmes pensées Je balance un missile Scud sur leurs têtes Espèce de bête J'ai pas le temps de me prendre la tête avec toi Ou bien tes idées mal placées Sâche que nos pensées sont pas compatibles Eh yo Jedi, lève le doigt y a quoi ? S'présente devant toi pourquoi Seul toi négro le sait, que la force soit avec toi Il faut, car les bon mcs n'épargnent pas les Mogwaï sans flow, moi et ma clique c'est chaud Pit brûle l'instru pour le m.i.c il faut, la technique de mal-Ka sur le beat y a pas de dégât Fonce, gronde, les faux ma clique on défonce tous les don-bi Ecoute moi ce LP Pleure sur Paris fiston Vise ma clique marque un point frère Je casse les watt, je passe Passe le mic à Sim fait peur donc trace vite Vite comme K2000, Pit a plus de tour qu'un vinyle dans son sac, sur le freestyle You might also like Eh yo papy laisse, l'union fait la force Donc prêts on dresse les guignols avec adresse folle Simsky Jedi, les Mogwaï y en a ras le bol freestyle Ecoute ce qu'on dit Time bomb gronde t'es tombé d'dans fils Time bomb explose! Combien de blessés fils? 10 MC's pour le 9.6 Time bomb explose! Combien de blessés fils? Difficile à dire mais des têtes vont tomber... Attention mon garçon j'espère qu'ton mental est vrai Comme Krylon mon esprit spray dans l'underground je vais C'est funkalistik, t'as changé d'niveau négro, mon design est parti dans ton cerveau Il y a 6 millions de façons de perdre la vie, une pour m'obtenir Tu l'as trouvé dghee, c'est mon maxi Mars à la caisse, j'ai la voix le texte remède pour lutter contre ton stress, ma brigade encaisse 9.6, dans le rap mon style est né comme la 8.6, destiné pour brûler aux degrés Hé fils, les rappeurs restent stoïques diront pas que je suis vrai hein, j'ai mon identité 1.9.9.6, B.2.O.B.A.L.I fils Partenaires en vice, dans le bain depuis 86 Les années passent et je continue à semer la zizanie La haine a mis en moi la maladie envers mes ennemis Trop de bluff comme au cinéma La jalousie colle à la peau des miens comme de l'eczéma Mais est-ce moi, ou est-ce toi qui fait le faux qui guète le dos de l'autre ? Si mon flow te gêne, rien à foutre de toi Lunatic sur la Time bomb Les plaies se tracent et les têtes tombent, et les têtes tombent C'est les Lunatic connard écoute les bitchs crier Booba A.L.I, microphone premier Trier les bons sur Time Bomb, les faux sont mis d'côté C'est d'la bombe boy, peut pas boycotter Superstar comme Group home, nique le trom Claque une Mercedes injection, 16s, couleur chrome Bad boy qu'est ce qu'on dit quoi Quand y a les condés Shoot ! Car j'ai la migraine, dès qu'j'entends les sirènes gronder Route, trace la vite, ou tu pourrais perdre ta famille Camille, Sébastien, les gosses et ton chien Vanille Time bomb, Lunatic, nouveau dans les rangs, un nouveau clan Pas racistes, même si y a pas d'blanc Au fait, j'ai eu d'la peine d'apprendre T'étais pas au courant depuis l'temps, bref, tu sais maintenant Cassidy des X en piste, teste les mcs Qui s'disent préparés pour balancer des lyrics neuf pour 9.6 Dans l'brouillard de Paris on s'confond Ainsi s'fondent les X Pour guer-lar des funk feelings façon Master Flex c'est X Qui vous remercie, Paris s'consume mais ne consomme que du X-men J'consomme autant de vibes qu'un Boeing du kérosène Tout les chemins mènent au pays du Kung-fu aie, c'est là que jaillit l'autre X pour te shawayi Un peu d'Hifi beaucoup d'effet, en fret j'fais ma course J'te livre un colis de flow, mille rimes bien ficelées En 20 secondes chrono, tu redoutes ma troupe Hill-G, Cassidy à qui je casse-dédi Te casse tes dix doigts, si ta tass' te dit de pas pé-cho le maxi Et qu'tu l'écoutes goûte, au caoutchouc des semelles de mes Timberland boots Jedi, Kamal, Pit, Simsky les flipettes se taillent dès qu'ils en ont l'occasion J'suis le faux con, c'est toi le vrai, paye cash et sans délai Les faux descendez-les, bandez-les puis pendez-les T'es laid comme un Mogwaï, d'ici à Hawaii un gremlin Un gremlin jusqu'au Kremlin, Hill-G traque le bati boy J'ai pas besoin de gens sah ou presque pour que mon fric aie l'flow J'compresse plus de disques qu'Elvis Presley n'a de graisse Garçon Sans raison, jlâche des flacons dflocon dflow sur les faux 12 mois 4 saisons Tattaques ? ah ouais ? Ton flow cest des gouttes deau sur mon K-way</t>
+          <t>Je n'suis pas un C.O.N, N.O.N ce n'est pas la peine De penser c'la de moi, en effet c'n'est pas B.O.N Je vous avoue de vous à moi Pas de timinik ici, sinon je fais appel à mon Posse Tous pour un et un pour tous La devise des boss Pas de pitié pour ceux qui veulent jouer les sales gosses Beaucoup de gens veulent m'offenser Sous pretexte que nous n'avons pas les mêmes pensées Je balance un missile Scud sur leurs têtes Espèce de bête J'ai pas le temps de me prendre la tête avec toi Ou bien tes idées mal placées Sâche que nos pensées sont pas compatibles Eh yo Jedi, lève le doigt y a quoi ? S'présente devant toi pourquoi Seul toi négro le sait, que la force soit avec toi Il faut, car les bon mcs n'épargnent pas les Mogwaï sans flow, moi et ma clique c'est chaud Pit brûle l'instru pour le m.i.c il faut, la technique de mal-Ka sur le beat y a pas de dégât Fonce, gronde, les faux ma clique on défonce tous les don-bi Ecoute moi ce LP Pleure sur Paris fiston Vise ma clique marque un point frère Je casse les watt, je passe Passe le mic à Sim fait peur donc trace vite Vite comme K2000, Pit a plus de tour qu'un vinyle dans son sac, sur le freestyle Eh yo papy laisse, l'union fait la force Donc prêts on dresse les guignols avec adresse folle Simsky Jedi, les Mogwaï y en a ras le bol freestyle Ecoute ce qu'on dit Time bomb gronde t'es tombé d'dans fils Time bomb explose! Combien de blessés fils? 10 MC's pour le 9.6 Time bomb explose! Combien de blessés fils? Difficile à dire mais des têtes vont tomber... Attention mon garçon j'espère qu'ton mental est vrai Comme Krylon mon esprit spray dans l'underground je vais C'est funkalistik, t'as changé d'niveau négro, mon design est parti dans ton cerveau Il y a 6 millions de façons de perdre la vie, une pour m'obtenir Tu l'as trouvé dghee, c'est mon maxi Mars à la caisse, j'ai la voix le texte remède pour lutter contre ton stress, ma brigade encaisse 9.6, dans le rap mon style est né comme la 8.6, destiné pour brûler aux degrés Hé fils, les rappeurs restent stoïques diront pas que je suis vrai hein, j'ai mon identité 1.9.9.6, B.2.O.B.A.L.I fils Partenaires en vice, dans le bain depuis 86 Les années passent et je continue à semer la zizanie La haine a mis en moi la maladie envers mes ennemis Trop de bluff comme au cinéma La jalousie colle à la peau des miens comme de l'eczéma Mais est-ce moi, ou est-ce toi qui fait le faux qui guète le dos de l'autre ? Si mon flow te gêne, rien à foutre de toi Lunatic sur la Time bomb Les plaies se tracent et les têtes tombent, et les têtes tombent C'est les Lunatic connard écoute les bitchs crier Booba A.L.I, microphone premier Trier les bons sur Time Bomb, les faux sont mis d'côté C'est d'la bombe boy, peut pas boycotter Superstar comme Group home, nique le trom Claque une Mercedes injection, 16s, couleur chrome Bad boy qu'est ce qu'on dit quoi Quand y a les condés Shoot ! Car j'ai la migraine, dès qu'j'entends les sirènes gronder Route, trace la vite, ou tu pourrais perdre ta famille Camille, Sébastien, les gosses et ton chien Vanille Time bomb, Lunatic, nouveau dans les rangs, un nouveau clan Pas racistes, même si y a pas d'blanc Au fait, j'ai eu d'la peine d'apprendre T'étais pas au courant depuis l'temps, bref, tu sais maintenant Cassidy des X en piste, teste les mcs Qui s'disent préparés pour balancer des lyrics neuf pour 9.6 Dans l'brouillard de Paris on s'confond Ainsi s'fondent les X Pour guer-lar des funk feelings façon Master Flex c'est X Qui vous remercie, Paris s'consume mais ne consomme que du X-men J'consomme autant de vibes qu'un Boeing du kérosène Tout les chemins mènent au pays du Kung-fu aie, c'est là que jaillit l'autre X pour te shawayi Un peu d'Hifi beaucoup d'effet, en fret j'fais ma course J'te livre un colis de flow, mille rimes bien ficelées En 20 secondes chrono, tu redoutes ma troupe Hill-G, Cassidy à qui je casse-dédi Te casse tes dix doigts, si ta tass' te dit de pas pé-cho le maxi Et qu'tu l'écoutes goûte, au caoutchouc des semelles de mes Timberland boots Jedi, Kamal, Pit, Simsky les flipettes se taillent dès qu'ils en ont l'occasion J'suis le faux con, c'est toi le vrai, paye cash et sans délai Les faux descendez-les, bandez-les puis pendez-les T'es laid comme un Mogwaï, d'ici à Hawaii un gremlin Un gremlin jusqu'au Kremlin, Hill-G traque le bati boy J'ai pas besoin de gens sah ou presque pour que mon fric aie l'flow J'compresse plus de disques qu'Elvis Presley n'a de graisse Garçon Sans raison, jlâche des flacons dflocon dflow sur les faux 12 mois 4 saisons Tattaques ? ah ouais ? Ton flow cest des gouttes deau sur mon K-way</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>La pauvreté intellectuelle n'est pas l'privilège du Ghetto En matière de connaissances, chacun sa part du gâteau Démarche individuelle, désir de s'élever Soif de comprendre et d'apprendre sur le chemin de la vérité Ouais c'est sûr dans la vie, y'en a plusieurs des écoles Réfléchis si tu choisis celle du mensonge et du vol C'est pas être un bidon que d'ouvrir un bouquin Sur les chemins du savoir, tu réaliseras ton destin Jeune homme deviens c'que tu es, pas c'qu'ils veulent que tu sois Un habitué du drame avec une arme pour seul accessoire S'faire tuer à l'adolescence n'a rien d' funky Les vrais calibres sont la foi et la connaissance Ne jamais prostituer son âme, je cite Y'a pas d'couleur qui t'dévie d'la route de la réussite Faut savoir qui tu es, rester vissé Ne maudis pas l' trou où tu tombes mais c' qui t'y a poussé Prends mon couplet comme un message, sois attentif Puis éteins dans l'cendrier ton spliff J'suis pas venu, pour t'faire un speech, mais t'faire un peu gamberger Relève la tête, arrête de jouer la belle et toi la bête, car un jour tout s'arrête De nos jours ça va de plus en plus vite Trop d'frères et soeurs agissent dans l' vide, s'engrainent et s'incitent Pense un jour quand même, gros, à tourner la page Sur ton passé et à relever la tête pour ça y'a pas d'âge You might also like Pour toutes ces mères qui nous ont mis au monde Tous ces darons, les mains blessées par toutes ces années d'un travail immonde Tous leurs sacrifices qu'on est trop cons pour voir jeunes Est-ce qu'ils nous ont appris l' respect avec un gun ? Non ! Tu préfères être craint ou préfères être aimé A force de tester, si tu savais combien sont décédés Fais l'analyse de toi seul et de ton avenir Relève la tête et bats-toi pour le devenir Skarla, cesse de t'apitoyer sur ton sort Relève la tête, regarde, non ça c'est pas mort Dis-toi, celui qui veut s'en sort Sors du ghetto et de ses mauvais sorts Tu sais t'as l' choix, ta vie est c' que tu en fais Gâcher un avenir, à l'arrivée ça fait trop mal Man, mon message vient du cur Passe-le aux frères et surs, Blacko vient chanter J'viens redire c'que j'ai toujours dit, depuis déjà dix ans C'est Disiz alias Fifty CFA le tigen Sois libre ou meurs en essayant d' l'être J'glorifie les vrais, celui qui bute l'école j'suis avec toi t'inquiète J'ai traîné mes guêtres, fier d'être à la quête Du bien-être de nos êtres, je veux être A l'image de Malcolm, Martin ou Gandhi Pas de Tony, j'aime mes semblables et je l'redis A force de rien faire, la galère a touché tant d'frères Pourquoi pas avancer entre nous et monter des entreprises comme Tang frères On n'a rien eu comme héritage, juste des murs de béton Même après l'échec, jamais laisser béton Parti du bas faut viser l'haut, voilà à quoi nos efforts servent Jamais tomber en faillite comme Corsair Nos écrits ont un message C'est pour ça qu'on les partage Du même cru, du même vécu, jouer au-dessus, sortir d' la rue C'est la ruée, et on craint plus personne avec nos Ericson Nul n'est parfait c'est vrai, comme le respect à son parfum La force c'est l'intérieur pas juste le coup d' parpaing Les mêmes tensions nous animent, le même instinct animal Les mêmes embrouilles, le même refrain la vie est brutale La défense dans l'système ne s'écrit pas foncedé La force c'est faire obstacle, résister, croître et exceller Parce qu'on nous enlève la chance du départ Plus fort on veut croire On sait que l'on vient de loin Même s'ils prennent tes rêves pour leur pire cauchemar Garde en toi l'espoir on choisira nos chemins J'brise la glace, Elo vibe, le rap c'est l'message Donc j'lève mon poing pour les sages Ex-sale gosse, tourne la page, Africain dans l'âme Big up à tous les jeunes qui font des études et tafent Vaut mieux un bon CV qu'un gros gun, car l'gun s'enraye Alors qu'un bon métier te met sur de bons rails Évitez les problèmes les frères La force d'un homme c'est l' cerveau et pas l'révolver J'viens dire aux mômes qu'y a pas qu'le bussiness pour être dans l'élite Les types s'laissent mourir dans les maux, disant que le monde est stone J'ai peut-être que la maîtrise de rimes pas du genre lève tôt Mais aujourd'hui j'peux m'écarter quand se serre l'étau Juste dire, qu'ils vivent mieux, mais on n'a rien d'moins Faire tourner la machine, qu'ils voient cette mine d'or, que cache le ghetto Lève-toi, bats-toi ça reste l'hymne Arrêtons d'subir, nous sommes les futurs leaders Trop de départs, que Dieu bénisse les naissances Que les jeunes qui m'écoutent donnent à leur vie un vrai sens Africaine tragédie, le monde est resté stoïque L'oppresseur prend son temps pour établir notre vérité historique Même sans perche tendue Que les jeunes du ghetto relèvent la tête, c'est pas défendu Issu des quartiers t'as trop d'poids sur les épaules Garde bien les pieds sur terre et évite la taule Ghetto, enfants du Ghetto À vous est dédié ce morceau On vient d'en bas et on veut monter là-haut J'ai brisé mes chaînes et scié les barreaux Celui qui n'veut rien faire, trouvera toujours une excuse pour s'endormir Celui qui veut y arriver trouvera toujours un moyen pour s'en sortir J'suis pas du genre à être cool, avec un jeune irrespectueux Qui roule des mécaniques et pense que l'X c'est affectueux Jeune relève la tête, même ton cur est défectueux Des applaudissements quand tu sors du cardpla c'est ça qu'tu veux N'essaie pas d'aller plus vite que la musique Aie confiance, prends ton temps ça t'évitera la misère Des galères auxquelles, tu n' devrais même pas être confronté Relève la tête, c'est la meilleure façon d'remonter, yo ! Pousse le poste de l'auto à son maxi Que le monde entende le message d'un simple mort en sursis Seule notre fortune fait notre différence Dans l'fond on est les mêmes, pour un million d'raisons différentes J'suis venu dire qu'un homme, un vrai choisit toujours Et qu'il est prêt au pire quand c'est l'honneur de la famille qui se joue Que dès qu'un gosse se goure, dégun court à son secours Que 6 millions d'personnes vivent dans la pauvreté à ce jour Que les jeunes montent leur structure D'une signature, comme l'Africaine armure Si tu m'écoutes pas, tu vas foncer tout droit dans l'mur A coup sûr, c'est d'la prévention, attache ta ceinture Tu veux être le boss réussir, poursuis tes études Ça c'est d'la valeur sûre frère Fais bien tes calculs garde les pieds sur terre Dans tous les sens, cherche à toucher ta conscience Nos vies sur terre, brûlent dans l'feu de l'insouciance Toi le jeune du ghetto, relève la tête La rue fait mal tu le sais, elle t'a fait tomber bien des fois Tu vis des trucs de dingue Croque dans la vie à pleines dents, fais-le, étudie en solo Yo, j'veux des intellos Jeune prodige du ghetto ? jeune prodige du ghetto ! Je voudrais des gars opés pour science-po Au sommet, pour mon ghetto J'fais partie de ces jeunes perdus, que le monde bute à plate couture Que le monde torture à coup de bombes et d'coups durs Mais tu crois quoi ? Quand le mal te hante t'es mal Quand t'es seule et qu'tu l'comprends, tu te mens, t'es là, seule Face à toi-même, tu penses à ta mère, tu penses à ta foi Car t'es seule face à ta perte comme chaque soir Jeune fille, dépressive, trouve-toi une idée très précise Pour avancer quand les esprits se rétrécissent Reste digne mais teigneux Fais mieux, puis fais-le, trop d'âmes vénéneuses et d'esprits haineux Cette haine me désole elle nous fait stagner en D2 Trop d'esprits dégueus, mon seul vu c'est de voir le cessez l'feu On a la même chance qu'eux, sache-le On a pris tant de bleus, mais tant mieux, à force on défiera les envieux C'est quand tu veux, je me lève à chaque épreuve Et lorsque les coups pleuvent je ne puis m'empêcher de m'en remettre à Dieu C'est pour mes petits frères, cachés dans un coin en train d'boire En train d'croire que l'échec c'est plein d'arabes et plein d'noirs Préfère respecter les caïds que leurs darons Plus speed que Christine Aron, tout l'monde debout comme Nég marrons J'veux voir des skarlas juges, avocats ou docs Pour nous y'a pas qu'le ciné le foot le crime et le hip-hop J'me suis perdu sans réfléchir dans les sentiers Relever, pour honorer mon daron sur les chantiers Frangin, il faut monter ta garde rester un homme fort Frangin, t'instruire et ne pas toujours traîner dehors Frangin, pense aux plus jeunes qui te voient en modèle Relève donc la tête Sors tes griffes si tu montes, grand Sors les contrats, comprends vite Que c'est arrivé tout en haut qu'on t'pend Si t'as pas d'bon sens, fais-toi aider compense L'ascension sociale, nécessite une prise de conscience Et si tu déclines l'invite N'oublie pas d'ôter les épines, des roses cueillies bien vite Ici bas c'est l'principe, j'ai pas d'preuve mais j't'incite A pas croire que l'échec puisse faire partie d'un rite, parce que c'est pas vrai... OK, j'veux qu'les jeunes de tess relèvent la tête On n'est pas condamnés à l'échec C'n'est pas une fatalité, les jeunes de cité eux aussi peuvent y arriver Avec 2 fois plus de volonté on peut grimper et parvenir jusqu'au sommet2</t>
+          <t>La pauvreté intellectuelle n'est pas l'privilège du Ghetto En matière de connaissances, chacun sa part du gâteau Démarche individuelle, désir de s'élever Soif de comprendre et d'apprendre sur le chemin de la vérité Ouais c'est sûr dans la vie, y'en a plusieurs des écoles Réfléchis si tu choisis celle du mensonge et du vol C'est pas être un bidon que d'ouvrir un bouquin Sur les chemins du savoir, tu réaliseras ton destin Jeune homme deviens c'que tu es, pas c'qu'ils veulent que tu sois Un habitué du drame avec une arme pour seul accessoire S'faire tuer à l'adolescence n'a rien d' funky Les vrais calibres sont la foi et la connaissance Ne jamais prostituer son âme, je cite Y'a pas d'couleur qui t'dévie d'la route de la réussite Faut savoir qui tu es, rester vissé Ne maudis pas l' trou où tu tombes mais c' qui t'y a poussé Prends mon couplet comme un message, sois attentif Puis éteins dans l'cendrier ton spliff J'suis pas venu, pour t'faire un speech, mais t'faire un peu gamberger Relève la tête, arrête de jouer la belle et toi la bête, car un jour tout s'arrête De nos jours ça va de plus en plus vite Trop d'frères et soeurs agissent dans l' vide, s'engrainent et s'incitent Pense un jour quand même, gros, à tourner la page Sur ton passé et à relever la tête pour ça y'a pas d'âge Pour toutes ces mères qui nous ont mis au monde Tous ces darons, les mains blessées par toutes ces années d'un travail immonde Tous leurs sacrifices qu'on est trop cons pour voir jeunes Est-ce qu'ils nous ont appris l' respect avec un gun ? Non ! Tu préfères être craint ou préfères être aimé A force de tester, si tu savais combien sont décédés Fais l'analyse de toi seul et de ton avenir Relève la tête et bats-toi pour le devenir Skarla, cesse de t'apitoyer sur ton sort Relève la tête, regarde, non ça c'est pas mort Dis-toi, celui qui veut s'en sort Sors du ghetto et de ses mauvais sorts Tu sais t'as l' choix, ta vie est c' que tu en fais Gâcher un avenir, à l'arrivée ça fait trop mal Man, mon message vient du cur Passe-le aux frères et surs, Blacko vient chanter J'viens redire c'que j'ai toujours dit, depuis déjà dix ans C'est Disiz alias Fifty CFA le tigen Sois libre ou meurs en essayant d' l'être J'glorifie les vrais, celui qui bute l'école j'suis avec toi t'inquiète J'ai traîné mes guêtres, fier d'être à la quête Du bien-être de nos êtres, je veux être A l'image de Malcolm, Martin ou Gandhi Pas de Tony, j'aime mes semblables et je l'redis A force de rien faire, la galère a touché tant d'frères Pourquoi pas avancer entre nous et monter des entreprises comme Tang frères On n'a rien eu comme héritage, juste des murs de béton Même après l'échec, jamais laisser béton Parti du bas faut viser l'haut, voilà à quoi nos efforts servent Jamais tomber en faillite comme Corsair Nos écrits ont un message C'est pour ça qu'on les partage Du même cru, du même vécu, jouer au-dessus, sortir d' la rue C'est la ruée, et on craint plus personne avec nos Ericson Nul n'est parfait c'est vrai, comme le respect à son parfum La force c'est l'intérieur pas juste le coup d' parpaing Les mêmes tensions nous animent, le même instinct animal Les mêmes embrouilles, le même refrain la vie est brutale La défense dans l'système ne s'écrit pas foncedé La force c'est faire obstacle, résister, croître et exceller Parce qu'on nous enlève la chance du départ Plus fort on veut croire On sait que l'on vient de loin Même s'ils prennent tes rêves pour leur pire cauchemar Garde en toi l'espoir on choisira nos chemins J'brise la glace, Elo vibe, le rap c'est l'message Donc j'lève mon poing pour les sages Ex-sale gosse, tourne la page, Africain dans l'âme Big up à tous les jeunes qui font des études et tafent Vaut mieux un bon CV qu'un gros gun, car l'gun s'enraye Alors qu'un bon métier te met sur de bons rails Évitez les problèmes les frères La force d'un homme c'est l' cerveau et pas l'révolver J'viens dire aux mômes qu'y a pas qu'le bussiness pour être dans l'élite Les types s'laissent mourir dans les maux, disant que le monde est stone J'ai peut-être que la maîtrise de rimes pas du genre lève tôt Mais aujourd'hui j'peux m'écarter quand se serre l'étau Juste dire, qu'ils vivent mieux, mais on n'a rien d'moins Faire tourner la machine, qu'ils voient cette mine d'or, que cache le ghetto Lève-toi, bats-toi ça reste l'hymne Arrêtons d'subir, nous sommes les futurs leaders Trop de départs, que Dieu bénisse les naissances Que les jeunes qui m'écoutent donnent à leur vie un vrai sens Africaine tragédie, le monde est resté stoïque L'oppresseur prend son temps pour établir notre vérité historique Même sans perche tendue Que les jeunes du ghetto relèvent la tête, c'est pas défendu Issu des quartiers t'as trop d'poids sur les épaules Garde bien les pieds sur terre et évite la taule Ghetto, enfants du Ghetto À vous est dédié ce morceau On vient d'en bas et on veut monter là-haut J'ai brisé mes chaînes et scié les barreaux Celui qui n'veut rien faire, trouvera toujours une excuse pour s'endormir Celui qui veut y arriver trouvera toujours un moyen pour s'en sortir J'suis pas du genre à être cool, avec un jeune irrespectueux Qui roule des mécaniques et pense que l'X c'est affectueux Jeune relève la tête, même ton cur est défectueux Des applaudissements quand tu sors du cardpla c'est ça qu'tu veux N'essaie pas d'aller plus vite que la musique Aie confiance, prends ton temps ça t'évitera la misère Des galères auxquelles, tu n' devrais même pas être confronté Relève la tête, c'est la meilleure façon d'remonter, yo ! Pousse le poste de l'auto à son maxi Que le monde entende le message d'un simple mort en sursis Seule notre fortune fait notre différence Dans l'fond on est les mêmes, pour un million d'raisons différentes J'suis venu dire qu'un homme, un vrai choisit toujours Et qu'il est prêt au pire quand c'est l'honneur de la famille qui se joue Que dès qu'un gosse se goure, dégun court à son secours Que 6 millions d'personnes vivent dans la pauvreté à ce jour Que les jeunes montent leur structure D'une signature, comme l'Africaine armure Si tu m'écoutes pas, tu vas foncer tout droit dans l'mur A coup sûr, c'est d'la prévention, attache ta ceinture Tu veux être le boss réussir, poursuis tes études Ça c'est d'la valeur sûre frère Fais bien tes calculs garde les pieds sur terre Dans tous les sens, cherche à toucher ta conscience Nos vies sur terre, brûlent dans l'feu de l'insouciance Toi le jeune du ghetto, relève la tête La rue fait mal tu le sais, elle t'a fait tomber bien des fois Tu vis des trucs de dingue Croque dans la vie à pleines dents, fais-le, étudie en solo Yo, j'veux des intellos Jeune prodige du ghetto ? jeune prodige du ghetto ! Je voudrais des gars opés pour science-po Au sommet, pour mon ghetto J'fais partie de ces jeunes perdus, que le monde bute à plate couture Que le monde torture à coup de bombes et d'coups durs Mais tu crois quoi ? Quand le mal te hante t'es mal Quand t'es seule et qu'tu l'comprends, tu te mens, t'es là, seule Face à toi-même, tu penses à ta mère, tu penses à ta foi Car t'es seule face à ta perte comme chaque soir Jeune fille, dépressive, trouve-toi une idée très précise Pour avancer quand les esprits se rétrécissent Reste digne mais teigneux Fais mieux, puis fais-le, trop d'âmes vénéneuses et d'esprits haineux Cette haine me désole elle nous fait stagner en D2 Trop d'esprits dégueus, mon seul vu c'est de voir le cessez l'feu On a la même chance qu'eux, sache-le On a pris tant de bleus, mais tant mieux, à force on défiera les envieux C'est quand tu veux, je me lève à chaque épreuve Et lorsque les coups pleuvent je ne puis m'empêcher de m'en remettre à Dieu C'est pour mes petits frères, cachés dans un coin en train d'boire En train d'croire que l'échec c'est plein d'arabes et plein d'noirs Préfère respecter les caïds que leurs darons Plus speed que Christine Aron, tout l'monde debout comme Nég marrons J'veux voir des skarlas juges, avocats ou docs Pour nous y'a pas qu'le ciné le foot le crime et le hip-hop J'me suis perdu sans réfléchir dans les sentiers Relever, pour honorer mon daron sur les chantiers Frangin, il faut monter ta garde rester un homme fort Frangin, t'instruire et ne pas toujours traîner dehors Frangin, pense aux plus jeunes qui te voient en modèle Relève donc la tête Sors tes griffes si tu montes, grand Sors les contrats, comprends vite Que c'est arrivé tout en haut qu'on t'pend Si t'as pas d'bon sens, fais-toi aider compense L'ascension sociale, nécessite une prise de conscience Et si tu déclines l'invite N'oublie pas d'ôter les épines, des roses cueillies bien vite Ici bas c'est l'principe, j'ai pas d'preuve mais j't'incite A pas croire que l'échec puisse faire partie d'un rite, parce que c'est pas vrai... OK, j'veux qu'les jeunes de tess relèvent la tête On n'est pas condamnés à l'échec C'n'est pas une fatalité, les jeunes de cité eux aussi peuvent y arriver Avec 2 fois plus de volonté on peut grimper et parvenir jusqu'au sommet2</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon chéri embrasse ton père, embrasse moi Mon cur se lace, enlace moi une dernière fois Hélas, celui que tu aimes part, comme d'hab Quelle ironie du sort, je sors par la petite porte Mon petit, porte ce mot d'amour à ta mère 24 heures à vivre c'est court, merde C'est que je veux que tu te rappelles ces matins Où on matait Aladdin sur le sofa tous les deux J'ai voulu pour toi ce que j'ai pas eu Sans parler de luxe, le minimum, je sais pas J'ai à peine vu ta sur, c'est pas juste Tu leur diras que 'pa est parti au ciel trop tôt Je te laisses que ça ces deux, trois disques et quelques photos Moi, je veux pas que tu penses des il m'a jamais dit je t'aime Je te le dis à chaque mot de ce poème pour que tu te souviennes Et si je pouvais, je t'écrirais des lettres pour que tu comprennes Chaque jour combien t'aimais papa, comme si j'étais là Bébé, ferme la porte après ma dernière voix A ce moment précis, ma vie est déjà derrière moi Mais qui veut me nettoyer du terrain ? C'est la seule raison qui m'aide à me lever le matin Mon but, prendre le butin, faire bouger les putains Plus que 24 heures à vivre, le temps avant j'en bute un Dans ce putain de pays faut que je meurt sur une scène sûrement Situation extrême, je t'embrasse m'man, garde le sourire aux lèvres J'ai un froissement au cur mais faut que j'y aille Sur moi on porte des jugements sans remord C'est juré, maintenant je représente jusqu'à ma mort Dédié pour FF à l'instant même, cette sensation unique me gêne Mais je vous aime tous autant que vous êtes Sans mon quartier en tête, j'en serais pas là Alors je la ferme pas, je le vante Même s'ils sont pas là, plus rien à faire j'hésite pas You might also like Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Né le 7-2, pour s'qui reste, j'reste un envieux Matricule Free, pas beaucoup d'temps, ça urge J moins 1, première chose qui m'passe par la tête Braquer une banque, l'instinct de dernière minute Trop un rêve d'enfant qui s'réalise, partir sans valise Avec mes potes, yacht, défilé d'keh avec des spots Hella, cuit, tant qu'à faire blinder la famille Pour eux, studio plein, Miami Cela dit j'reste conscient, c'que j'dis ça a plus d'importance Le temps avance et rien ne va plus Le Diable au dessus d'ma tête danse J'attends, sentence, vengeance, avance Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirais à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fais pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Il nous reste plus que 24 à vivre Je te livre mes derniers actes Tuer ce type qui voulait que je finisse ma vie en taule J'irais dans ce camp de skins foutre mon rap Ce morceau, Pit, Freeman, Oxmo et Luciano Le Rat Le gong sonne, il me reste peu de temps Que je voulais passer en love avec maman Ou en gova avec mes potes de Place où de Première Classe J'ai peur de me casser sans dire au revoir à mes reufs et cette 'tasse Putain, il me reste dix minutes pour dire à Matt et Houmi De garder Mars et Keuss, construire à 4 toute la relève Le beat est lourd soit, de Time Bomb, superstars sans costards Disque d'or en survêt' Nike3</t>
+          <t>Mon chéri embrasse ton père, embrasse moi Mon cur se lace, enlace moi une dernière fois Hélas, celui que tu aimes part, comme d'hab Quelle ironie du sort, je sors par la petite porte Mon petit, porte ce mot d'amour à ta mère 24 heures à vivre c'est court, merde C'est que je veux que tu te rappelles ces matins Où on matait Aladdin sur le sofa tous les deux J'ai voulu pour toi ce que j'ai pas eu Sans parler de luxe, le minimum, je sais pas J'ai à peine vu ta sur, c'est pas juste Tu leur diras que 'pa est parti au ciel trop tôt Je te laisses que ça ces deux, trois disques et quelques photos Moi, je veux pas que tu penses des il m'a jamais dit je t'aime Je te le dis à chaque mot de ce poème pour que tu te souviennes Et si je pouvais, je t'écrirais des lettres pour que tu comprennes Chaque jour combien t'aimais papa, comme si j'étais là Bébé, ferme la porte après ma dernière voix A ce moment précis, ma vie est déjà derrière moi Mais qui veut me nettoyer du terrain ? C'est la seule raison qui m'aide à me lever le matin Mon but, prendre le butin, faire bouger les putains Plus que 24 heures à vivre, le temps avant j'en bute un Dans ce putain de pays faut que je meurt sur une scène sûrement Situation extrême, je t'embrasse m'man, garde le sourire aux lèvres J'ai un froissement au cur mais faut que j'y aille Sur moi on porte des jugements sans remord C'est juré, maintenant je représente jusqu'à ma mort Dédié pour FF à l'instant même, cette sensation unique me gêne Mais je vous aime tous autant que vous êtes Sans mon quartier en tête, j'en serais pas là Alors je la ferme pas, je le vante Même s'ils sont pas là, plus rien à faire j'hésite pas Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Né le 7-2, pour s'qui reste, j'reste un envieux Matricule Free, pas beaucoup d'temps, ça urge J moins 1, première chose qui m'passe par la tête Braquer une banque, l'instinct de dernière minute Trop un rêve d'enfant qui s'réalise, partir sans valise Avec mes potes, yacht, défilé d'keh avec des spots Hella, cuit, tant qu'à faire blinder la famille Pour eux, studio plein, Miami Cela dit j'reste conscient, c'que j'dis ça a plus d'importance Le temps avance et rien ne va plus Le Diable au dessus d'ma tête danse J'attends, sentence, vengeance, avance Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirais à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fais pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Il nous reste plus que 24 à vivre Je te livre mes derniers actes Tuer ce type qui voulait que je finisse ma vie en taule J'irais dans ce camp de skins foutre mon rap Ce morceau, Pit, Freeman, Oxmo et Luciano Le Rat Le gong sonne, il me reste peu de temps Que je voulais passer en love avec maman Ou en gova avec mes potes de Place où de Première Classe J'ai peur de me casser sans dire au revoir à mes reufs et cette 'tasse Putain, il me reste dix minutes pour dire à Matt et Houmi De garder Mars et Keuss, construire à 4 toute la relève Le beat est lourd soit, de Time Bomb, superstars sans costards Disque d'or en survêt' Nike3</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Uh, uh, uh, uh, uh, j'suis tellement de la rue, p't-être J'crois que j'ai accouché par une bouche dégout Issu de l'accouplement de ma mère Cléoplâtre et de mon père Pierre Tous, tous connaissent ma face, pas voulu que j'traîne avec son fils Maintenant les bouches et les yeux s'plissent car j'passe à la télé Mais mes complices restent les mêmes postés Dans le hall, spliffs, tu disais pas please quand tu passais Ton regard hostile - hostile - touche à mon stylo-bille Ma rancune s'éparpilla, j't'écris dans le passé Et même si j'becte, dans les grands restos j'reste ghetto Trique, trique de bandits, les flics dans le vif, fric très tôt Lève ta main, combien t'as vécu de perquises ? À tous les frères que la vie a tourné vers l'biz T'as beau acheter tous mes disques J'reste celui qui fume des joints d'shit tout en bas de chez toi Course de fuite aux banlieues parisiennes Quartiers nords de Marseille, fort de France ou Bagdad, alias bagatelle Tas d'liasses à tous les as et les gangsters J'porte des Clarks, c'est Freeman, ça couv' en poster Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande You might also like On se fait à mesure que le temps avance On se remémore le passé LAmérique c'est loin, en plus pour ceux qui la mérite c'est plein Cousin, certains craignent la vérité, ça c'est certain La sincérité c'est rare, sauf dans les locaux le soir Avec les torchés qui tournent forcés, ceux que la guigne a bercé Corsé le vécu, putain ça finit par percer, si t'en shootes un, tu finis cercler Impossible de céder, impossible de s'éterniser Ceux qui bloquent, ceux-là jouent le rôle de la risée Chez nous, ceux-là qui nous pompent, ceux-là qui nous trompent A genoux, jamais on s'est mis aux jnouns tu te trompes Depuis quinze ans j'affronte des murs de bronze en fonte Ce serait bête que je lâche mon hip-hop avant que je monte L'année 9 et 8, la bénédiction du HH confirme, il y aura une suite Nous commanditons la réussite Sur feuille de quoi on traite, de qui on hérite Notre vie se mérite ici, y'a pas d'oubli Mes textes mélancoliques, man j'suis pas l'alcoolique Si mes lettres etaient buvables j'aurai des litres Pour un sacré paquet de pitres, j'veux pas de titre De toute façon, trop des miens disparaissent tôt, trop tôt garçon La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande On se fait à mesure que le temps avance On se remémore le passé En 95, j'comptais que par 12 et 25, quelle bande de savonnettes A labri des yeux des parents qui me savent honnête Manger à la belle chez la bete, pas de star, anti-shtar, toujours j'pars Comme ski tout ce que je sais, c'est la rue qui me l'enseigne Mais c'est ma ruse, c'est abandonner mon fils devant 2 skins Un mec sans pit, ça rime à rien, mesquine Si cent sous ça pète, sans souci c'est Pit Texto, comme tu le savais, texte low, sexe, violent, en gros textes crus Aurais-tu cru que j'étais radin et con, j'l'ai toujours été mec J'vois pas pourquoi la gloire me ferait changer J'me moque de leur coque en stocke du Merco SLK A ma dispo parce que j'ai vendu le million J'suis aussi bien dans le 205 de mon pote Willy Dire que mon style a changé là je dis non Je sais d'où je viens, là où je vais, qui j'dois voir quand je reviens Mon passé reste présent pour mon futur T'es devenu bizarre, c'est ce que me dise mes soss' Que je ne suis plus avec eux dans le blizzard Mais les mecs obligés de prendre ce vol j'vous prends à l'escale C'est juste un autre itinéraire pour me faire du blé Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande... Éternel ex, parle au passé Je représente pour tous les mecs de ma rue C'est comme les miens, j'peux pas les trahir2</t>
+          <t>Uh, uh, uh, uh, uh, j'suis tellement de la rue, p't-être J'crois que j'ai accouché par une bouche dégout Issu de l'accouplement de ma mère Cléoplâtre et de mon père Pierre Tous, tous connaissent ma face, pas voulu que j'traîne avec son fils Maintenant les bouches et les yeux s'plissent car j'passe à la télé Mais mes complices restent les mêmes postés Dans le hall, spliffs, tu disais pas please quand tu passais Ton regard hostile - hostile - touche à mon stylo-bille Ma rancune s'éparpilla, j't'écris dans le passé Et même si j'becte, dans les grands restos j'reste ghetto Trique, trique de bandits, les flics dans le vif, fric très tôt Lève ta main, combien t'as vécu de perquises ? À tous les frères que la vie a tourné vers l'biz T'as beau acheter tous mes disques J'reste celui qui fume des joints d'shit tout en bas de chez toi Course de fuite aux banlieues parisiennes Quartiers nords de Marseille, fort de France ou Bagdad, alias bagatelle Tas d'liasses à tous les as et les gangsters J'porte des Clarks, c'est Freeman, ça couv' en poster Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande On se fait à mesure que le temps avance On se remémore le passé LAmérique c'est loin, en plus pour ceux qui la mérite c'est plein Cousin, certains craignent la vérité, ça c'est certain La sincérité c'est rare, sauf dans les locaux le soir Avec les torchés qui tournent forcés, ceux que la guigne a bercé Corsé le vécu, putain ça finit par percer, si t'en shootes un, tu finis cercler Impossible de céder, impossible de s'éterniser Ceux qui bloquent, ceux-là jouent le rôle de la risée Chez nous, ceux-là qui nous pompent, ceux-là qui nous trompent A genoux, jamais on s'est mis aux jnouns tu te trompes Depuis quinze ans j'affronte des murs de bronze en fonte Ce serait bête que je lâche mon hip-hop avant que je monte L'année 9 et 8, la bénédiction du HH confirme, il y aura une suite Nous commanditons la réussite Sur feuille de quoi on traite, de qui on hérite Notre vie se mérite ici, y'a pas d'oubli Mes textes mélancoliques, man j'suis pas l'alcoolique Si mes lettres etaient buvables j'aurai des litres Pour un sacré paquet de pitres, j'veux pas de titre De toute façon, trop des miens disparaissent tôt, trop tôt garçon La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande On se fait à mesure que le temps avance On se remémore le passé En 95, j'comptais que par 12 et 25, quelle bande de savonnettes A labri des yeux des parents qui me savent honnête Manger à la belle chez la bete, pas de star, anti-shtar, toujours j'pars Comme ski tout ce que je sais, c'est la rue qui me l'enseigne Mais c'est ma ruse, c'est abandonner mon fils devant 2 skins Un mec sans pit, ça rime à rien, mesquine Si cent sous ça pète, sans souci c'est Pit Texto, comme tu le savais, texte low, sexe, violent, en gros textes crus Aurais-tu cru que j'étais radin et con, j'l'ai toujours été mec J'vois pas pourquoi la gloire me ferait changer J'me moque de leur coque en stocke du Merco SLK A ma dispo parce que j'ai vendu le million J'suis aussi bien dans le 205 de mon pote Willy Dire que mon style a changé là je dis non Je sais d'où je viens, là où je vais, qui j'dois voir quand je reviens Mon passé reste présent pour mon futur T'es devenu bizarre, c'est ce que me dise mes soss' Que je ne suis plus avec eux dans le blizzard Mais les mecs obligés de prendre ce vol j'vous prends à l'escale C'est juste un autre itinéraire pour me faire du blé Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande... Éternel ex, parle au passé Je représente pour tous les mecs de ma rue C'est comme les miens, j'peux pas les trahir2</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Discographie - Dosseh Album Studio - 20161104 Dosseh - Yuri - 20180706 Dosseh - VIDALOA - 20190412 Dosseh - VIDALOA 4.5 - 20220930 Dosseh - Trop tôt pour mourir EP - 20220128 Dosseh - Yuri Negrowski Mixtape - 20041029 Dosseh - Bolide Vol. 1 - 20081118 Dosseh - Bolide Vol. 2 - 20110117 Dosseh DJ Medi Med - Desperadoss - 20110729 Dosseh DJ Moon - Summer Crack, Vol. 1 - 20120722 Dosseh DJ Skut - Summer Crack, Vol. 2 - 20150316 Dosseh - Perestroïka - 20150731 Dosseh - Summer Crack, Vol. 3 - 20190712 Dosseh - Summer Crack 4 Soundtrack - 20130624 Dosseh - Karma Autre - 20141118 Dosseh - YuriNegrowski Hors-Série You might also likeSingle - 20060306 Dosseh - Banlieusard de province - 20061003 Dosseh - La mort pour seule limit - 20070117 Dosseh - 16 mesures d haine - 20070206 Dosseh - Chienne de vie - 20070312 Dosseh - Ennemi - 20071126 Dosseh - Je suis - 20071129 Dosseh - Parce que - 20080531 Dosseh - Prototype - 20081118 Dosseh - Pharaonique - 20090117 Dosseh - Aigle royal - 20090421 Dosseh - Frères d'armes - 20090615 Dosseh - Jour de paye - 20090629 Dosseh - Non stop - 20100413 Dosseh - Freestyle Desperadoss Part. 1 - 20100528 Dosseh - Freestyle Desperadoss Part. 2 - 20100613 Dosseh - Pour ma voyoucratie Remix insolent - 20100703 Dosseh - Matrix - 20100723 Dosseh - Tu connais nos codes - 20101123 Dosseh - Freestyle Desperadoss Part. 3 - 20110103 Dosseh - Full Contact - 20110224 Dosseh - Desperadoss - 20110806 Dosseh - Nique-toi, paye-moi - 20120309 Dosseh - OK - 20120509 Dosseh - Casque intégral - 20120706 Dosseh - Summer Crack Intro - 20120720 Dosseh - Mon gang - 20130518 Dosseh - BM Audi Merco Benz - 20130527 Dosseh - Gangnam Style Trap Remix - 20130616 Dosseh - IGO - 20130621 Dosseh - La boum 3 - 20130704 Dosseh - Booskarma - 20130708 Dosseh - Holy Water Freestyle - 20130819 Dosseh - Promesses - 20131103 Dosseh - Adios - 20131127 Dosseh - Yin Yang - 20140311 Dosseh - Freestyle Parlez-vous Cefran - 20140611 Dosseh - En balle Freestyle - 20140806 Dosseh - La dose Freestyle - 20141009 Dosseh - Illuminati - 20141018 Dosseh - YuriNegrowski 1 - 20141018 Dosseh - YuriNegrowski 2 - 20141018 Dosseh - YuriNegrowski 3 - 20141023 Dosseh - Boyscout - 20141110 Dosseh - Faut qu'ça chie YuriNegrowski 4 - 20141208 Dosseh - Le coup du patron - 20150116 Dosseh - Le dehors - 20150217 Dosseh - Bouteilles et glocks - 20150224 Dosseh - Nirvana YuriNegrowski 5 - 20150304 Dosseh - Hors-Série YuriNegrowski 6 - 20150312 Dosseh - 30 millions d'ennemis YuriNegrowski 7 - 20150406 Dosseh - Que d'la D YuriNegrowski 8 - 20150430 Dosseh - Bando - 20150430 Dosseh - Scarla - 20150702 Dosseh - Été au tieks - 20150711 Dosseh - Brolyk - 20150718 Dosseh - Booska Summer Crack - 20150730 Dosseh - Oublier - 20151231 Dosseh - Je suis Yuri YuriNegrowski 9 - 20160613 Dosseh - Milliers d'euros - 20160704 Dosseh - T'as pas compris - 20160909 Dosseh - Afrikan History X - 20160916 Dosseh - Là-haut - 20160923 Dosseh - Freestyle BarbaRossa1 - 20160930 Dosseh - Myah Bay - 20160930 Dosseh - Abel Caïn - 20161024 Dosseh - Infréquentables - 20161121 Dosseh - Putain d'époque - 20170106 Dosseh - Solo - 20170206 Dosseh - J'suis qu'un Loa YuriNegrowski 10 - 20170303 Dosseh - Bad and Boujee Remix - 20170721 Dosseh - PDCV Pas dans cette vie - 20180112 Dosseh - Tout est neuf - 20180216 Dosseh - KFC - 20180316 Dosseh - Papillon - 20180511 Dosseh - Habitué - 20180705 Dosseh - VLT - 20180720 Dosseh - MQTB - 20181116 Dosseh - À chaque jour... - 20190201 Dosseh - Superhéro - 20190321 Dosseh - Habitué Italian Remix - 20190329 Dosseh - Flux - 20190412 Dosseh - Le bruit du silence - 20190419 Dosseh - OKLM Freestyle - 20190607 Dosseh - Boîte à Shoes - 20190614 Dosseh - MQTB Version solo - 20190628 Dosseh - Les histoires - 20190628 Dosseh - L'odeur du charbon - 20190807 Dosseh - Canal - 20190823 Dosseh - Thaïlande - 20200221 Dosseh - L'odeur du charbon Remix - 20200503 Dosseh - Milli' - 20200902 Dosseh - A45 - 20200924 Dosseh - Place de l'Étoile - 20201216 Dosseh - Famiglia è Grande - 20210302 Dosseh - Cardio - 20210408 Dosseh - Doaveli 1 - 20210415 Dosseh - La vie d'avant - 20210502 Dosseh - Doaveli 2 - 20220629 Dosseh - A.K.A - 20220719 Dosseh - RS-28 - 20220804 Dosseh - Amsterdam - 20220915 Dosseh - Branché - 20220919 Dosseh - PERIODT - 20221007 Dosseh - Mode S - 20230113 Dosseh - Haï Featuring - 20040514 Sinik - Urbaine poésie - 20040630 K.Ommando Toxik - C'est le trio - 20041116 Pit Baccardi - Le son de la street - 20050517 Pit Baccardi - C'est dead ! - 20051219 Noyau Dur - Le son des loups - 20070116 Pit Baccardi - Come Back Remix - 20070315 Heckel Geckel - On ne sait pas abandonner - 20070417 Smoker - Geez Up - 20080404 Futur Proche - Va leur dire - 20090922 Alain 2 L'Ombre - Qui veut la peau d'Alain 2 L'Ombre - 20100301 Seth Gueko - C'est la merde - 20101018 Nakk Mendosa - J'suis un lion - 20101122 Booba - 45 Scientific - 20101201 Escobar Macson - Tout le monde d'accord - 20101213 Ol' Kainry - Clac clac - 20110409 Lalcko - Tradition du combat - 20110516 Still Fresh - Mise en garde - 20111021 28 Zaheef - État brut - 20120319 Nakk Mendosa - La sentence Remix - 20120503 Smoker - Zbeul dans ta soirée - 20120618 Niro - Dans ton kwaah Remix - 20120625 Kennedy - Blue Magic - 20121019 Pit Baccardi - Les frères flingueurs - 20130422 Ghetto Fabulous Gang - Expandables - 20130617 Sofiane - Boxe avec les mots Remix - 20131118 Ppros - Calité - 20131220 Joke - Miley - 20131222 wagg - All I Gotta Say - 20140629 Rock Blood - Panamera - 20140915 Bassirou - Le score - 20150130 Boysaf - Y'a du bizz dans mon block - 20181115 Titai - BET Cypher 2018 4 - 20190125 Seth Gueko - Barry White Trash - 20190208 NAAR - Kssiri - 20190215 T.Killa - Marécage - 20190301 Jorja Smith - Blue Lights French Remix - 20190426 Toma - Hypersensible - 20191004 Lefa - Spécial - 20191108 TY1 - C'EST LA VIE - 20191129 Dinos - Taciturne - 20191213 IZI - Cometa - 20200131 Mister V - Gang - 20200403 Twinsmatic - TRAP - 20200424 McKoy - Matchu Pitchu - 20200821 Sizlac - 45 - 20200911 KPoint - Choix de vie - 20201005 Popey - Imbécile - 20201112 TLZ Clan - C'est nous - 20201218 Negrito - Puh puh - 20210217 Jack Many - Ooooh...! - 20211001 Malik Montana - Click Clack Bang - 20220616 The New Orleans - Quatro Cinco - 20220617 The New Orleans - Les coups</t>
+          <t>Discographie - Dosseh Album Studio - 20161104 Dosseh - Yuri - 20180706 Dosseh - VIDALOA - 20190412 Dosseh - VIDALOA 4.5 - 20220930 Dosseh - Trop tôt pour mourir EP - 20220128 Dosseh - Yuri Negrowski Mixtape - 20041029 Dosseh - Bolide Vol. 1 - 20081118 Dosseh - Bolide Vol. 2 - 20110117 Dosseh DJ Medi Med - Desperadoss - 20110729 Dosseh DJ Moon - Summer Crack, Vol. 1 - 20120722 Dosseh DJ Skut - Summer Crack, Vol. 2 - 20150316 Dosseh - Perestroïka - 20150731 Dosseh - Summer Crack, Vol. 3 - 20190712 Dosseh - Summer Crack 4 Soundtrack - 20130624 Dosseh - Karma Autre - 20141118 Dosseh - YuriNegrowski Hors-Série Single - 20060306 Dosseh - Banlieusard de province - 20061003 Dosseh - La mort pour seule limit - 20070117 Dosseh - 16 mesures d haine - 20070206 Dosseh - Chienne de vie - 20070312 Dosseh - Ennemi - 20071126 Dosseh - Je suis - 20071129 Dosseh - Parce que - 20080531 Dosseh - Prototype - 20081118 Dosseh - Pharaonique - 20090117 Dosseh - Aigle royal - 20090421 Dosseh - Frères d'armes - 20090615 Dosseh - Jour de paye - 20090629 Dosseh - Non stop - 20100413 Dosseh - Freestyle Desperadoss Part. 1 - 20100528 Dosseh - Freestyle Desperadoss Part. 2 - 20100613 Dosseh - Pour ma voyoucratie Remix insolent - 20100703 Dosseh - Matrix - 20100723 Dosseh - Tu connais nos codes - 20101123 Dosseh - Freestyle Desperadoss Part. 3 - 20110103 Dosseh - Full Contact - 20110224 Dosseh - Desperadoss - 20110806 Dosseh - Nique-toi, paye-moi - 20120309 Dosseh - OK - 20120509 Dosseh - Casque intégral - 20120706 Dosseh - Summer Crack Intro - 20120720 Dosseh - Mon gang - 20130518 Dosseh - BM Audi Merco Benz - 20130527 Dosseh - Gangnam Style Trap Remix - 20130616 Dosseh - IGO - 20130621 Dosseh - La boum 3 - 20130704 Dosseh - Booskarma - 20130708 Dosseh - Holy Water Freestyle - 20130819 Dosseh - Promesses - 20131103 Dosseh - Adios - 20131127 Dosseh - Yin Yang - 20140311 Dosseh - Freestyle Parlez-vous Cefran - 20140611 Dosseh - En balle Freestyle - 20140806 Dosseh - La dose Freestyle - 20141009 Dosseh - Illuminati - 20141018 Dosseh - YuriNegrowski 1 - 20141018 Dosseh - YuriNegrowski 2 - 20141018 Dosseh - YuriNegrowski 3 - 20141023 Dosseh - Boyscout - 20141110 Dosseh - Faut qu'ça chie YuriNegrowski 4 - 20141208 Dosseh - Le coup du patron - 20150116 Dosseh - Le dehors - 20150217 Dosseh - Bouteilles et glocks - 20150224 Dosseh - Nirvana YuriNegrowski 5 - 20150304 Dosseh - Hors-Série YuriNegrowski 6 - 20150312 Dosseh - 30 millions d'ennemis YuriNegrowski 7 - 20150406 Dosseh - Que d'la D YuriNegrowski 8 - 20150430 Dosseh - Bando - 20150430 Dosseh - Scarla - 20150702 Dosseh - Été au tieks - 20150711 Dosseh - Brolyk - 20150718 Dosseh - Booska Summer Crack - 20150730 Dosseh - Oublier - 20151231 Dosseh - Je suis Yuri YuriNegrowski 9 - 20160613 Dosseh - Milliers d'euros - 20160704 Dosseh - T'as pas compris - 20160909 Dosseh - Afrikan History X - 20160916 Dosseh - Là-haut - 20160923 Dosseh - Freestyle BarbaRossa1 - 20160930 Dosseh - Myah Bay - 20160930 Dosseh - Abel Caïn - 20161024 Dosseh - Infréquentables - 20161121 Dosseh - Putain d'époque - 20170106 Dosseh - Solo - 20170206 Dosseh - J'suis qu'un Loa YuriNegrowski 10 - 20170303 Dosseh - Bad and Boujee Remix - 20170721 Dosseh - PDCV Pas dans cette vie - 20180112 Dosseh - Tout est neuf - 20180216 Dosseh - KFC - 20180316 Dosseh - Papillon - 20180511 Dosseh - Habitué - 20180705 Dosseh - VLT - 20180720 Dosseh - MQTB - 20181116 Dosseh - À chaque jour... - 20190201 Dosseh - Superhéro - 20190321 Dosseh - Habitué Italian Remix - 20190329 Dosseh - Flux - 20190412 Dosseh - Le bruit du silence - 20190419 Dosseh - OKLM Freestyle - 20190607 Dosseh - Boîte à Shoes - 20190614 Dosseh - MQTB Version solo - 20190628 Dosseh - Les histoires - 20190628 Dosseh - L'odeur du charbon - 20190807 Dosseh - Canal - 20190823 Dosseh - Thaïlande - 20200221 Dosseh - L'odeur du charbon Remix - 20200503 Dosseh - Milli' - 20200902 Dosseh - A45 - 20200924 Dosseh - Place de l'Étoile - 20201216 Dosseh - Famiglia è Grande - 20210302 Dosseh - Cardio - 20210408 Dosseh - Doaveli 1 - 20210415 Dosseh - La vie d'avant - 20210502 Dosseh - Doaveli 2 - 20220629 Dosseh - A.K.A - 20220719 Dosseh - RS-28 - 20220804 Dosseh - Amsterdam - 20220915 Dosseh - Branché - 20220919 Dosseh - PERIODT - 20221007 Dosseh - Mode S - 20230113 Dosseh - Haï Featuring - 20040514 Sinik - Urbaine poésie - 20040630 K.Ommando Toxik - C'est le trio - 20041116 Pit Baccardi - Le son de la street - 20050517 Pit Baccardi - C'est dead ! - 20051219 Noyau Dur - Le son des loups - 20070116 Pit Baccardi - Come Back Remix - 20070315 Heckel Geckel - On ne sait pas abandonner - 20070417 Smoker - Geez Up - 20080404 Futur Proche - Va leur dire - 20090922 Alain 2 L'Ombre - Qui veut la peau d'Alain 2 L'Ombre - 20100301 Seth Gueko - C'est la merde - 20101018 Nakk Mendosa - J'suis un lion - 20101122 Booba - 45 Scientific - 20101201 Escobar Macson - Tout le monde d'accord - 20101213 Ol' Kainry - Clac clac - 20110409 Lalcko - Tradition du combat - 20110516 Still Fresh - Mise en garde - 20111021 28 Zaheef - État brut - 20120319 Nakk Mendosa - La sentence Remix - 20120503 Smoker - Zbeul dans ta soirée - 20120618 Niro - Dans ton kwaah Remix - 20120625 Kennedy - Blue Magic - 20121019 Pit Baccardi - Les frères flingueurs - 20130422 Ghetto Fabulous Gang - Expandables - 20130617 Sofiane - Boxe avec les mots Remix - 20131118 Ppros - Calité - 20131220 Joke - Miley - 20131222 wagg - All I Gotta Say - 20140629 Rock Blood - Panamera - 20140915 Bassirou - Le score - 20150130 Boysaf - Y'a du bizz dans mon block - 20181115 Titai - BET Cypher 2018 4 - 20190125 Seth Gueko - Barry White Trash - 20190208 NAAR - Kssiri - 20190215 T.Killa - Marécage - 20190301 Jorja Smith - Blue Lights French Remix - 20190426 Toma - Hypersensible - 20191004 Lefa - Spécial - 20191108 TY1 - C'EST LA VIE - 20191129 Dinos - Taciturne - 20191213 IZI - Cometa - 20200131 Mister V - Gang - 20200403 Twinsmatic - TRAP - 20200424 McKoy - Matchu Pitchu - 20200821 Sizlac - 45 - 20200911 KPoint - Choix de vie - 20201005 Popey - Imbécile - 20201112 TLZ Clan - C'est nous - 20201218 Negrito - Puh puh - 20210217 Jack Many - Ooooh...! - 20211001 Malik Montana - Click Clack Bang - 20220616 The New Orleans - Quatro Cinco - 20220617 The New Orleans - Les coups</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C'est Rémy, ouais Woo! Il m'reste plus que 24 heures à vivre, j'me regarde dans mon miroir Les heures passent, les minutes tombent et les secondes, j'les vois même pas Bwah! J'pense à mes frères à Fleury, eux ça parle en années Il m'reste un peu moins de 23h, j'vais voir mes gars puis ma re-mè Lui dire tout c'que j'ai pas su dire, que d'la rue on a pas pu fuir Ah ouais J'suis parti voir mon père mais il a pas voulu m'ouvrir 21h il m'reste, j'ai plus d'coco donc j'en remets Y avait du monde à la pompe il reste que 20h, sa mère Putain! J'croise Lounès et Rim-Ka, j'checke de l'épaule mon gars Be-Squa On va graille avec Biggie, c'est moi qui régale pour une fois Il est 22h, j'passe voir So-John et le Zeur, y a Mohand à la planque donc j'pose mon dernier 12 mesures Il était une fois l'histoire de ma vie, 24h à vivre Quand y rest'ra quelques secondes, p'tet que j'sauterai dans l'vide Pourquoi pas, 2h pour tout essayer, j'monte sur scène avec Oxmo, Jazzy et Demi pour mon dernier couplet Non mais qui veut m'nettoyer du terrain, c'est la seule raison qui m'aide à chercher le butin Finis ma journée dans l'speed, dernier taffe sur c'spliff Envoie d'la bande tout d'suite, à c't'heure y a rien d'toxique La fumée sort d'l'usine, le temps d'une dernière zone On dit que l'argent facile rapporte mieux qu'Amazon Il me reste 24h à vivre donc j'irai voir maman Lui dire je t'aime simplement pour savourer ce moment Lentement, sûrement, discret, c'est la marque Vu que l'horloge tourne, j'donne tout, c'est pas grave Matricule D-E-M-I, je reste dangereux vu qu'le temps passe trop vite quoi Je reste dans l'jeu, ha You might also like Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand.. J'espérais une tendre mort mais j'ai déjà tant d'remords J'serai bientôt plus d'ce monde, 24h c'est une seconde Ouais, le compte à rebours passe si vite, j'attends la visite De la faucheuse avec une arme lourde J'ai un problème avec la mort, surtout la mienne Comment veux-tu que j'trouve la paix sous la terre, où ça mène tout ça C'est un énorme bordel, j'ai même pas préparé un ou deux albums post-mortem J'regrette déjà nos fous-rires et d'avoir vécu comme une chauve-souris Du mal à vivre chaque jour comme le dernier jusqu'à aujourd'hui J'dis je t'aime à ceux attristés par mon déclin, avant de faire mes débuts en tant que défunt Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirai à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fait pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Hein.. Il nous reste plus que 24h à vivre, j'te livre mes derniers actes Tuer c'type qui voulait que j'finisse ma vie en taule J'irai dans ce banc de Skins foutre mon rap, ce type Pit Graine Caf Ox, Rémy et Jazzy Bazz, le gong sonne, il m'reste peu d'temps qu'j'venais passer en love avec maman Ou en gova avec mes potes de Place ou Première Classe, j'ai peur de m'casser sans dire au revoir à mes reufs et cette 'tasse Putain, il m'reste 10 minutes pour dire à Matt et Houmi d'garder Mars et Keuss, d'construire à 4 la relève Le beat est lourd, soit de Time Bomb Superstar sans costard, disque d'or en survet' Nike 2018, collaboration historique Demi Portion, Jazzy Bazz C'est Rémy, Baccardi Maître Fader, Prince Charles Alexander Mars, Seck, Rick, aw... Aw... Haha</t>
+          <t>C'est Rémy, ouais Woo! Il m'reste plus que 24 heures à vivre, j'me regarde dans mon miroir Les heures passent, les minutes tombent et les secondes, j'les vois même pas Bwah! J'pense à mes frères à Fleury, eux ça parle en années Il m'reste un peu moins de 23h, j'vais voir mes gars puis ma re-mè Lui dire tout c'que j'ai pas su dire, que d'la rue on a pas pu fuir Ah ouais J'suis parti voir mon père mais il a pas voulu m'ouvrir 21h il m'reste, j'ai plus d'coco donc j'en remets Y avait du monde à la pompe il reste que 20h, sa mère Putain! J'croise Lounès et Rim-Ka, j'checke de l'épaule mon gars Be-Squa On va graille avec Biggie, c'est moi qui régale pour une fois Il est 22h, j'passe voir So-John et le Zeur, y a Mohand à la planque donc j'pose mon dernier 12 mesures Il était une fois l'histoire de ma vie, 24h à vivre Quand y rest'ra quelques secondes, p'tet que j'sauterai dans l'vide Pourquoi pas, 2h pour tout essayer, j'monte sur scène avec Oxmo, Jazzy et Demi pour mon dernier couplet Non mais qui veut m'nettoyer du terrain, c'est la seule raison qui m'aide à chercher le butin Finis ma journée dans l'speed, dernier taffe sur c'spliff Envoie d'la bande tout d'suite, à c't'heure y a rien d'toxique La fumée sort d'l'usine, le temps d'une dernière zone On dit que l'argent facile rapporte mieux qu'Amazon Il me reste 24h à vivre donc j'irai voir maman Lui dire je t'aime simplement pour savourer ce moment Lentement, sûrement, discret, c'est la marque Vu que l'horloge tourne, j'donne tout, c'est pas grave Matricule D-E-M-I, je reste dangereux vu qu'le temps passe trop vite quoi Je reste dans l'jeu, ha Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand.. J'espérais une tendre mort mais j'ai déjà tant d'remords J'serai bientôt plus d'ce monde, 24h c'est une seconde Ouais, le compte à rebours passe si vite, j'attends la visite De la faucheuse avec une arme lourde J'ai un problème avec la mort, surtout la mienne Comment veux-tu que j'trouve la paix sous la terre, où ça mène tout ça C'est un énorme bordel, j'ai même pas préparé un ou deux albums post-mortem J'regrette déjà nos fous-rires et d'avoir vécu comme une chauve-souris Du mal à vivre chaque jour comme le dernier jusqu'à aujourd'hui J'dis je t'aime à ceux attristés par mon déclin, avant de faire mes débuts en tant que défunt Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirai à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fait pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Hein.. Il nous reste plus que 24h à vivre, j'te livre mes derniers actes Tuer c'type qui voulait que j'finisse ma vie en taule J'irai dans ce banc de Skins foutre mon rap, ce type Pit Graine Caf Ox, Rémy et Jazzy Bazz, le gong sonne, il m'reste peu d'temps qu'j'venais passer en love avec maman Ou en gova avec mes potes de Place ou Première Classe, j'ai peur de m'casser sans dire au revoir à mes reufs et cette 'tasse Putain, il m'reste 10 minutes pour dire à Matt et Houmi d'garder Mars et Keuss, d'construire à 4 la relève Le beat est lourd, soit de Time Bomb Superstar sans costard, disque d'or en survet' Nike 2018, collaboration historique Demi Portion, Jazzy Bazz C'est Rémy, Baccardi Maître Fader, Prince Charles Alexander Mars, Seck, Rick, aw... Aw... Haha</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Baccardi ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cest B.A.2.C.A.R.D.I. Baccardi Brave artiste charmeur chic, ambianceur rare dit irrésistible Baccardi Pit, jépelle et pose le P Cette première lettre comme une putain dpression Persiste et précise comme une patate sans raison et poursuis Introduis le I Comme insolent comme une insulte infâme Comme une injure envers ta femme Incrédule, instable Minstalle mon issue les charts Mon style de chtarbé jrappe pour les couche-tard J'deviens intouchable quand jmets les barres sur les T Comme TNT ou tas dnègres terrorisés Traîne dans les taudis où on macclame quand tu crois que jai tout dit Quand cest terne, jalterne les thèmes et les termes Jenterre les tourments Les traîtres sprosternent et le peuple crie damn ! Dun trait jtermine terre à terre simple comme mes rimes Plait comme les samples je suis le preums donne le ton et taime 1, 2 1, 2, 3 et Baccardi Ma ligne directrice You might also like Borsalino ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cette putain première lettre cest Lcomme libre J'me livre jt' épelle mon blaze L, ivre sur Un beat à C.H.I.L.L, jte livre la vérité telle quelle Faut msuivre L pour livre jai trop besoin dlove Comme LL, comme large joffre lyrics lourds Pêle-mêle, mâche le message comme Melle Mel et Master Flash, te mêle pas lion Ou jm en mêle, jai cputain dextra terrestre flow Et cest d'Mars quon m'envoie les e-mails L précédant le I, I pour imminent danger Imagine ccon dimpact éclater la console et l'ingé Cest comme mater dans lcanon dun calibre chargé cest mon putain d'nom Et cmorceau un hymne pour les enragés N succédant au I, haine des nantis L.I.N.O. anti-shtar pour qui blasphème Et l'dernier c'est le O pour originaux, organes vocaux On met la barre haut et lbordel dans les putains d'locaux 1, 2 1, 2, 3 et Borsalino Ma ligne directrice AKH ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Avec perte et fracas, entre le A, ardent au combat comme à Ramallah Cest ça, déchire-la comme 8 off Agallah Au mic ça blague pas, dès la 1ère barre, mate cest AK' Tu voulais ma voix ? La voilà ! Jsuis juste un Abdallah 5 phalanges, langue en magma Signe Alpha, kappa, héta, droit sapé class, comme un soir Dgala ne reste pas là, essaies donc dme mettre à plat Rejoins vala hala, ton cas sgaspille en palabres Mi baraka, mi taf, mi caracal Technique sale, un favela dCaracas Là un stylo bille sarbacane, HIP-HOP Sinatra Mes sons claquent des baraques des bourgeois au Sonacotra Frappent comme la Haganah Le substrat, cest lflow pas lHavana La vanité crée des Mc éphémères sur lmacadam comme un mandala Fâché, ancien comme un Falashas Un pacha jcrois pas, jmacharne parka et Superga dans les crachats 1, 2 1, 2, 3 et 'AKH'' Ma ligne directrice Catastrohff ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? R.O.H.2F Rimeur, Original, Hardcore, Flow, Fluide, j'défonce comme la weed R.O.H.2F la rage oppressante dun homme trop fier pour crier au scours Une bête féroce, une tête de gentil pour celui qui s'goure Mon art, le risque, de bon cur on assume nos lyrics S'exercent au stand de tir pour être précis dans les rixes J'ai des mains on dirait des pieds, c't'extraordinaire L'tour du monde en montgolfière, j't'en met plein la vue J'suis une roue arrière O comme opé, optimiste, optimum Nique les opportuniste quand jécris jpense aux ptits mômes Jmâche pas les mots, je les hache cru tel un boucher Jbouge pour largent parce que l'argent mfait bouger H comme mon prénom Housni, soldat tah la Bosnie Fait chialer les femmes comme Cheb Hasni Pour Adeline Aïcha et Awa J'veux une meuf qu'a la foi, qu'a pas ken beaucoup d'fois, ma foi ! Ewa 1, 2 1, 2, 3 et Monsieur Rohff Ma ligne directrice</t>
+          <t>Baccardi ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cest B.A.2.C.A.R.D.I. Baccardi Brave artiste charmeur chic, ambianceur rare dit irrésistible Baccardi Pit, jépelle et pose le P Cette première lettre comme une putain dpression Persiste et précise comme une patate sans raison et poursuis Introduis le I Comme insolent comme une insulte infâme Comme une injure envers ta femme Incrédule, instable Minstalle mon issue les charts Mon style de chtarbé jrappe pour les couche-tard J'deviens intouchable quand jmets les barres sur les T Comme TNT ou tas dnègres terrorisés Traîne dans les taudis où on macclame quand tu crois que jai tout dit Quand cest terne, jalterne les thèmes et les termes Jenterre les tourments Les traîtres sprosternent et le peuple crie damn ! Dun trait jtermine terre à terre simple comme mes rimes Plait comme les samples je suis le preums donne le ton et taime 1, 2 1, 2, 3 et Baccardi Ma ligne directrice Borsalino ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cette putain première lettre cest Lcomme libre J'me livre jt' épelle mon blaze L, ivre sur Un beat à C.H.I.L.L, jte livre la vérité telle quelle Faut msuivre L pour livre jai trop besoin dlove Comme LL, comme large joffre lyrics lourds Pêle-mêle, mâche le message comme Melle Mel et Master Flash, te mêle pas lion Ou jm en mêle, jai cputain dextra terrestre flow Et cest d'Mars quon m'envoie les e-mails L précédant le I, I pour imminent danger Imagine ccon dimpact éclater la console et l'ingé Cest comme mater dans lcanon dun calibre chargé cest mon putain d'nom Et cmorceau un hymne pour les enragés N succédant au I, haine des nantis L.I.N.O. anti-shtar pour qui blasphème Et l'dernier c'est le O pour originaux, organes vocaux On met la barre haut et lbordel dans les putains d'locaux 1, 2 1, 2, 3 et Borsalino Ma ligne directrice AKH ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Avec perte et fracas, entre le A, ardent au combat comme à Ramallah Cest ça, déchire-la comme 8 off Agallah Au mic ça blague pas, dès la 1ère barre, mate cest AK' Tu voulais ma voix ? La voilà ! Jsuis juste un Abdallah 5 phalanges, langue en magma Signe Alpha, kappa, héta, droit sapé class, comme un soir Dgala ne reste pas là, essaies donc dme mettre à plat Rejoins vala hala, ton cas sgaspille en palabres Mi baraka, mi taf, mi caracal Technique sale, un favela dCaracas Là un stylo bille sarbacane, HIP-HOP Sinatra Mes sons claquent des baraques des bourgeois au Sonacotra Frappent comme la Haganah Le substrat, cest lflow pas lHavana La vanité crée des Mc éphémères sur lmacadam comme un mandala Fâché, ancien comme un Falashas Un pacha jcrois pas, jmacharne parka et Superga dans les crachats 1, 2 1, 2, 3 et 'AKH'' Ma ligne directrice Catastrohff ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? R.O.H.2F Rimeur, Original, Hardcore, Flow, Fluide, j'défonce comme la weed R.O.H.2F la rage oppressante dun homme trop fier pour crier au scours Une bête féroce, une tête de gentil pour celui qui s'goure Mon art, le risque, de bon cur on assume nos lyrics S'exercent au stand de tir pour être précis dans les rixes J'ai des mains on dirait des pieds, c't'extraordinaire L'tour du monde en montgolfière, j't'en met plein la vue J'suis une roue arrière O comme opé, optimiste, optimum Nique les opportuniste quand jécris jpense aux ptits mômes Jmâche pas les mots, je les hache cru tel un boucher Jbouge pour largent parce que l'argent mfait bouger H comme mon prénom Housni, soldat tah la Bosnie Fait chialer les femmes comme Cheb Hasni Pour Adeline Aïcha et Awa J'veux une meuf qu'a la foi, qu'a pas ken beaucoup d'fois, ma foi ! Ewa 1, 2 1, 2, 3 et Monsieur Rohff Ma ligne directrice</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Elle et moi c'est barge Elle ma passé les bracelets C'est bas résille et barillets, mon ange a un cur de démon Mon complice et moi sommes Un peu pervers On s'unit dans les faits divers En plein été, à nous les rodéos Les courses-poursuites, les nuits dans les motels Toi et moi, explosif cocktail Tu maimes dans l'risque, j't'aime dans l'vif de l'action Ton odeur m'enivre Quand on s'livre à des actes sur lbalcon, boum On dynamite le monde et on prend les sous On est des fous on est des fous On a mis le monde à genoux À genoux seulement pour prier lciel Notre monde est rouge, sans arc-en-ciel On peut toucher le nirvana, la vie de rêve XXX de plus belle De plus belle pour défier l'enfer Nos ailes dange sont brisées, on a choisi d'croiser l'fer À nous deux la nuit s'enflamme jusquau lever du jourDealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour You might also like Pas d'larmes, chez nous y a l'drame dans l'âme Le charme dans une arme, bang bang bang Passe-moi le flingue, chéri Que je rallume les feux de l'enfer J'suis ce vandale que tu as aimé J'ai épousé l'arme, tu m'as béni on a un pacte sans acte écrit Bye-bye Ha ha ha L'amour, c'est la peur d'être seul, l'envie d'être deux, le risque d'être trois Toi plus moi, la mort contre tous À quatre on débarque, à cinq on braque Six on risque les assises pour ce petit coup à six chiffres La mort nous colle à la peau Le Glock collé dans la paume Desperados Au nom du fric, du flingue, on n'est plus sains d'esprit À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour Vas-y tire, tire Accros de bang bang, prêts pour l'big bang On aime le big boum quand on braque une banque Clic clac c'est l'bruit du coffre, à nous le bling-bling Truc de dingues, bye-bye la misère Bienvenue aux terreurs Vulgaires, le shérif chope un ulcère On a but clair, s'en mettre plein les poches Et prendre un bon bol d'air, OK Jamais de coup d'poker Si c'est l'cas, chérie j'suis ton joker On est pauvres sur terre, on sera riches en enfer À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drame à la mort à l'amour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te jure, j'te lâche pas</t>
+          <t>Elle et moi c'est barge Elle ma passé les bracelets C'est bas résille et barillets, mon ange a un cur de démon Mon complice et moi sommes Un peu pervers On s'unit dans les faits divers En plein été, à nous les rodéos Les courses-poursuites, les nuits dans les motels Toi et moi, explosif cocktail Tu maimes dans l'risque, j't'aime dans l'vif de l'action Ton odeur m'enivre Quand on s'livre à des actes sur lbalcon, boum On dynamite le monde et on prend les sous On est des fous on est des fous On a mis le monde à genoux À genoux seulement pour prier lciel Notre monde est rouge, sans arc-en-ciel On peut toucher le nirvana, la vie de rêve XXX de plus belle De plus belle pour défier l'enfer Nos ailes dange sont brisées, on a choisi d'croiser l'fer À nous deux la nuit s'enflamme jusquau lever du jourDealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour Pas d'larmes, chez nous y a l'drame dans l'âme Le charme dans une arme, bang bang bang Passe-moi le flingue, chéri Que je rallume les feux de l'enfer J'suis ce vandale que tu as aimé J'ai épousé l'arme, tu m'as béni on a un pacte sans acte écrit Bye-bye Ha ha ha L'amour, c'est la peur d'être seul, l'envie d'être deux, le risque d'être trois Toi plus moi, la mort contre tous À quatre on débarque, à cinq on braque Six on risque les assises pour ce petit coup à six chiffres La mort nous colle à la peau Le Glock collé dans la paume Desperados Au nom du fric, du flingue, on n'est plus sains d'esprit À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour Vas-y tire, tire Accros de bang bang, prêts pour l'big bang On aime le big boum quand on braque une banque Clic clac c'est l'bruit du coffre, à nous le bling-bling Truc de dingues, bye-bye la misère Bienvenue aux terreurs Vulgaires, le shérif chope un ulcère On a but clair, s'en mettre plein les poches Et prendre un bon bol d'air, OK Jamais de coup d'poker Si c'est l'cas, chérie j'suis ton joker On est pauvres sur terre, on sera riches en enfer À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drame à la mort à l'amour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te jure, j'te lâche pas</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Je fête le disque d'or et la victoire de cette musique Qui vend même avec des discours durs On a eu droit au rap biz, rap tendance, rap violence Mais qu'on se dise ce truc à une histoire et qu'on dise On a de l'éphémère, dents en or et chaines qui brillent Si je te parle des vraies tendances c'est leur donner du crédit Regarde ils ont un arrière ce qui se passe était prédit Et dire qu'on était une génération sacrifiée Avoir un pige et bête sans doute c'est ça qu'ils kiffaient Capable du meilleur comme du pire mais pire On a prouvé qu'on est les meilleurs Je lève mon verre et signe de mon stylo bic Aux blacks, blancs, beurs qui ont fait de moi Baccardi au mic Je lève mon verre au S.A et aux autres cliques Le message devant l'ennemi jamais abdiqué Refrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Les portes de la vie s'ouvrent à ceux qui savent les pousser Ärsenik ont pété un carreau Baccardi est passé à travers les barreaux Avec les Nèg'Marrons en l'an 2000 on fait le bilan, calmement On a fait les choses, on a fait les choses On a su anticiper en posant la pierre On propose plus, ouais, on s'impose et impromptu Qu'ils essayent de causer, aujourd'hui on peut disposer C'est du bon cru pour les adeptes ouais, sans être trop cru pour les ados Au plus vite on retourne Lino au ghetto Plus la crème des médias veulent nous détruire On a de la force pour reconstruire La force vienne d'en-bas et on se mobilise Les jeunes derrière nous comme le peuple derrière Moïse Je suis peut-être là au moins dans le désespoir Mais je veux créer avec vous à nous la victoire You might also likeRefrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Le rap c'est l'histoire d'une génération qui Maintenant génère des sous mais avant tout fais péter le son La merde on l'a respirée ça nous a inspiré J'espère que les jeunes tiendront compte de notre expérience Je passe le flambeau aux MCs qui quadrillent le terrain Genre Marginal et l'Skadrille Grillez pas les étapes, on assure vos arrières Si tu captes pas le manège, tu vrilles On brille par notre élégance Il n'y a que des mots et des cris pour nos fans en abondance L'histoire nous appris à entrer l'histoire du rap Et cette victoire il fallait le vivre pour y croire Fallait le vivre pour y croire, à nous la victoire L'an 2000 et pour toujours, l'avenir nous appartient Refrain x4 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Plus de frontières, ni barrières, ni barreaux Pour tous les groupes de rap Plus de frontières, ni barrières, ni barreaux Pour les cités en France Plus de frontières, ni barrières, ni barreaux Pour la jeunesse en France Plus de frontières, ni barrières, ni barreaux Pour ceux qui ont espoir Plus de frontières, ni barrières, ni barreaux Pour ceux qui nous soutiennent Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux En l'an 2000, à nous la victoire</t>
+          <t>Je fête le disque d'or et la victoire de cette musique Qui vend même avec des discours durs On a eu droit au rap biz, rap tendance, rap violence Mais qu'on se dise ce truc à une histoire et qu'on dise On a de l'éphémère, dents en or et chaines qui brillent Si je te parle des vraies tendances c'est leur donner du crédit Regarde ils ont un arrière ce qui se passe était prédit Et dire qu'on était une génération sacrifiée Avoir un pige et bête sans doute c'est ça qu'ils kiffaient Capable du meilleur comme du pire mais pire On a prouvé qu'on est les meilleurs Je lève mon verre et signe de mon stylo bic Aux blacks, blancs, beurs qui ont fait de moi Baccardi au mic Je lève mon verre au S.A et aux autres cliques Le message devant l'ennemi jamais abdiqué Refrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Les portes de la vie s'ouvrent à ceux qui savent les pousser Ärsenik ont pété un carreau Baccardi est passé à travers les barreaux Avec les Nèg'Marrons en l'an 2000 on fait le bilan, calmement On a fait les choses, on a fait les choses On a su anticiper en posant la pierre On propose plus, ouais, on s'impose et impromptu Qu'ils essayent de causer, aujourd'hui on peut disposer C'est du bon cru pour les adeptes ouais, sans être trop cru pour les ados Au plus vite on retourne Lino au ghetto Plus la crème des médias veulent nous détruire On a de la force pour reconstruire La force vienne d'en-bas et on se mobilise Les jeunes derrière nous comme le peuple derrière Moïse Je suis peut-être là au moins dans le désespoir Mais je veux créer avec vous à nous la victoire Refrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Le rap c'est l'histoire d'une génération qui Maintenant génère des sous mais avant tout fais péter le son La merde on l'a respirée ça nous a inspiré J'espère que les jeunes tiendront compte de notre expérience Je passe le flambeau aux MCs qui quadrillent le terrain Genre Marginal et l'Skadrille Grillez pas les étapes, on assure vos arrières Si tu captes pas le manège, tu vrilles On brille par notre élégance Il n'y a que des mots et des cris pour nos fans en abondance L'histoire nous appris à entrer l'histoire du rap Et cette victoire il fallait le vivre pour y croire Fallait le vivre pour y croire, à nous la victoire L'an 2000 et pour toujours, l'avenir nous appartient Refrain x4 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Plus de frontières, ni barrières, ni barreaux Pour tous les groupes de rap Plus de frontières, ni barrières, ni barreaux Pour les cités en France Plus de frontières, ni barrières, ni barreaux Pour la jeunesse en France Plus de frontières, ni barrières, ni barreaux Pour ceux qui ont espoir Plus de frontières, ni barrières, ni barreaux Pour ceux qui nous soutiennent Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux En l'an 2000, à nous la victoire</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C'est Pit au mic Pourquoi tu ranges ta panoplie d'baggys, maintenant c'est bagouzes en or Plus de blouson Tommy, bienvenue chez Double Goose Vis à la bouffonerie, pour l'esprit caïd Arrête de jurer Walaye, cochon, tu manges bien du porc à l'Aïd Laïc à tes heures, au mic p't-être tu t'amuses mais J'ai pas besoin de mentir pour avoir un plan baise T'es plus blanc qu'un cachet d'aspirine Tu rimes contre Babylone, kifferais bien t'appeler Abdel Karim T'as pas d'go, t'es p't-être gay Avec tes Claudia Chiffon et Poubelle Naomi, invisible Stoppe ta tchatche, s'te plaît J'rencontre une meuf qui kiffe Baccardi Pit Qui m'dit qu'son mec lui a dit qu'on était potes, mate Un autre abruti qui veut prouver qu'il a des connexions dans l'milieu d'la chanson En deux-quatre-six j'le descends Tant pis pour lui, qu'il arrête de mentir mais pour Pit Ça fait une de plus dans sa collection Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style You might also like Non, rien à foutre des gens qui m'disent que j'ai pas l'style d'un reggaeman J'habite Ges-Gar, j'suis capverdien, non mec j'suis pas jamaican J'ai grandi dans l'bitume, plus ou moins dans la lère-ga J'écoute du rap, j'kiffe le rap mais j'ai choisi d'faire du ragga Ignares sont les gens qui te jugent par rapport à ton look Mets des grosses baskets, moi j'préfère mes classiques Reebok Tu confonds Ris-Pa et Jamaica T'aurais souhaité t'appeler Buju, Beenie Man ou bien Sizzla Mais ce n'est pas l'cas petit, arrête donc tes conneries Aucune originalité, aucun feeling, aucun stylee J'habite dans une té-ci, et toi t'envies ceci Mais y a pas d'place pour les bouffons, pas d'place pour les photocopies Eh, c'est dur à dire mais ça m'fait tiep À Paname y a vraiment trop d'squales et d'squalettes, hey Aucune identité, ça ne fait qu'imiter Mais cesse de vanter ma cité tu n'y as jamais mis les pieds Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Arrête tes conneries, laisse la place aux vrais MC Ils veulent nous imiter, ya yeah Tu regardes trop la TV, t'prends pour un squale de NYC Mais cesse de les imiter, ya yeah Trop de super-flûtes espérant serrer un tas de super-putes Tu dis partout qu'Pit et Jacky sont tes super-potes Tu pèses le CFA, te dévalues de minute en minute Arrête de mentir mec, tout ça faut qu'ça stoppe c'est vrai Tu as la réputation d'être un mytho c'est vrai Dès que tu papotes, c'est pour dire un pipeau, c'est vrai C'est vrai, en plus j'ai l'impression que t'aimes pas ta mère Ou ce serait p't-être que t'aimes Baccardi, tu n'jures que sur ça C'est Jacky et Pit Baccardi Dans Liaisons Dangereuses Time Bomb, Secteur Ä Pour une liaison dangereuse Y a danger, aucun plagiat n'est possible Sur c'projet, y a qu'des vrais, enfoiré Je sais qu't'as pigé Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Yeah yeah, calmement, calmement Secteur Ä, Time Bomb Dangereuse est la liaison Iso, Ghetch Pour tous les zoulous et toutes les zoulettes qui s'la pètent Tu peux pas foutre la merde chez nous Première Classe Calmement La rue case-nègres C'est Pit au mic</t>
+          <t>C'est Pit au mic Pourquoi tu ranges ta panoplie d'baggys, maintenant c'est bagouzes en or Plus de blouson Tommy, bienvenue chez Double Goose Vis à la bouffonerie, pour l'esprit caïd Arrête de jurer Walaye, cochon, tu manges bien du porc à l'Aïd Laïc à tes heures, au mic p't-être tu t'amuses mais J'ai pas besoin de mentir pour avoir un plan baise T'es plus blanc qu'un cachet d'aspirine Tu rimes contre Babylone, kifferais bien t'appeler Abdel Karim T'as pas d'go, t'es p't-être gay Avec tes Claudia Chiffon et Poubelle Naomi, invisible Stoppe ta tchatche, s'te plaît J'rencontre une meuf qui kiffe Baccardi Pit Qui m'dit qu'son mec lui a dit qu'on était potes, mate Un autre abruti qui veut prouver qu'il a des connexions dans l'milieu d'la chanson En deux-quatre-six j'le descends Tant pis pour lui, qu'il arrête de mentir mais pour Pit Ça fait une de plus dans sa collection Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Non, rien à foutre des gens qui m'disent que j'ai pas l'style d'un reggaeman J'habite Ges-Gar, j'suis capverdien, non mec j'suis pas jamaican J'ai grandi dans l'bitume, plus ou moins dans la lère-ga J'écoute du rap, j'kiffe le rap mais j'ai choisi d'faire du ragga Ignares sont les gens qui te jugent par rapport à ton look Mets des grosses baskets, moi j'préfère mes classiques Reebok Tu confonds Ris-Pa et Jamaica T'aurais souhaité t'appeler Buju, Beenie Man ou bien Sizzla Mais ce n'est pas l'cas petit, arrête donc tes conneries Aucune originalité, aucun feeling, aucun stylee J'habite dans une té-ci, et toi t'envies ceci Mais y a pas d'place pour les bouffons, pas d'place pour les photocopies Eh, c'est dur à dire mais ça m'fait tiep À Paname y a vraiment trop d'squales et d'squalettes, hey Aucune identité, ça ne fait qu'imiter Mais cesse de vanter ma cité tu n'y as jamais mis les pieds Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Arrête tes conneries, laisse la place aux vrais MC Ils veulent nous imiter, ya yeah Tu regardes trop la TV, t'prends pour un squale de NYC Mais cesse de les imiter, ya yeah Trop de super-flûtes espérant serrer un tas de super-putes Tu dis partout qu'Pit et Jacky sont tes super-potes Tu pèses le CFA, te dévalues de minute en minute Arrête de mentir mec, tout ça faut qu'ça stoppe c'est vrai Tu as la réputation d'être un mytho c'est vrai Dès que tu papotes, c'est pour dire un pipeau, c'est vrai C'est vrai, en plus j'ai l'impression que t'aimes pas ta mère Ou ce serait p't-être que t'aimes Baccardi, tu n'jures que sur ça C'est Jacky et Pit Baccardi Dans Liaisons Dangereuses Time Bomb, Secteur Ä Pour une liaison dangereuse Y a danger, aucun plagiat n'est possible Sur c'projet, y a qu'des vrais, enfoiré Je sais qu't'as pigé Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Yeah yeah, calmement, calmement Secteur Ä, Time Bomb Dangereuse est la liaison Iso, Ghetch Pour tous les zoulous et toutes les zoulettes qui s'la pètent Tu peux pas foutre la merde chez nous Première Classe Calmement La rue case-nègres C'est Pit au mic</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fini le temps où on vantait la vie et ses vertus Faudrait réveiller Montand, lui dire que Paris ne séveille plus Le macadam cherche des âmes à damner Et les cadavres sur pattes cherchent du crack à damer Une bicoque de bâtard, une vie de chiotte de lascar En rang, on tourne en rond comme des pilotes de Nascar Pas ni problèmes, pas ni bagarres Mais t'as des assoc' qui rêvent de te semer en route comme au Paris-Dakar La rue est traître comme un calibre à lheure des comptes Combien le réalise ou l'ont apprit à leurs dépends Au rythme de mes sons, les bandes se fond et se descendent En 30 secondes, des convoyeurs de fonds se défendent La rue une grande garce qui a trop baisé d'gars Tas beau aimer les 'tasses, tu la croises, tarrêtes pas, mets les gaz On est à bout, dollars et sexe engrossés Tu la boucle, te dépêches et donne la recette sans broncher Les criards se font crossés, les bitchs se font engrossées Tes erreurs se transforment en dossier, le maillot de la rue endossé Des thunes empochés rapidement sans bosser Un peu de pillave dans le gosier pour pioncer, tes fauché yeah Drôle dépoque, dur dêtre un lascar digne Je crois que je massagis, Pit Baccardi dans la gabardine Je menhardis, encaisse un bâtard de ma part Mes potes ne me parlent plus que de braquages et de placards Sur le terrain les petits, ils mangent tellement salement Tas même pas envie de venir prendre ta part du gâteau Ils bouffent avec les doigts, ils font tout, la C.C, la rabla Lhéro, le double zéro et la hagra Ça pue lincarcération, la longue peine Tas C.C, gare-la toi dans le fion, pas dans le zen Tas saisi, je passe une petite annonce à l'antenne Celui-ci il va finir pour long time à Nanterre Cest vrai, dégouter qu'on m'en demande Mais lhéro fait des heureux et des milliers de zéros sur les comptes en banque Me parle plus de la justice, vas-y je lencule Mes chances de men sortir sont restreintes, quasiment nulles Comprends pourquoi je rappe sale, je viens des quartiers sales Où on se fait respecter par la force ou par les armes Jai pas eu le choix moi, je refuse de faire partie des victimes Attitude warriors, si tu gazes on te nique, cest team-team Laisse-moi leur dire moi que je veux vivre libre mais sans ramper Nos mères versent des larmes de sang, on a des corps ensanglantés Depuis le départ, ça pue la fin tragique Désolé pour ceux que jai bé-bar, des fois c'est ça le trafic Hasba sur hasba, on te baise et on encaisse Bien sûr les flics enquêtent, y en a qui tombent et on encaisse De toutes façons cest comme ça depuis quon est nés mec on encaisse Mets-le toi en tête, cest hardcore la vie en tess Dans les quartiers cest de pire en pire, tout le monde se défonce Devant tout le monde, faut voir avec quelles substances ils se défoncent La tête dans la coke, le nez dans la coke Maintenant, ce sont les baltringues quont la cote À mon époque cétait en cachette, cest les tapettes qui sniffaient Si on savait, on te niquait, je sais même pas si tu survivais Mais cest la mode hein, ouais la mode hein Cette mode cest pas de chez nous, non ça vient des quartiers mondains Ce morceau cest pour les anciens comme Double Qui ont connu lépoque des Mac Douglas, celle des tags des coups de shlass À cette époque les valeurs cétait rage et courage Maintenant on trouve normal serrer la main des poucaves Jai limpression que la rue tourne à lenvers Maintenant pour être le best il faut flamber Les mecs montent et descendent à vitesse grand V Devenu dur de manger avec du shit, y a quà voir le prix dun 100 G Bah ouais ça sniffe et ça sniffe dur Vodka plus Redbull, voilà la mixture Les petits durs jouent les pitbulls Je parle plus au téléphone ça shlingue la shmiture On compte plus les sacrifiés sur lautel de la justice, foudroyés par des aveux Tauras beau leur cracher du fric, soudoyer les baveux Técopes dune peine de prison ferme Derrière des murs de prison ternes Cest triste mais cest ainsi, le royaume des petites donneuses La rue, la reine des michetonneuses Ce quel tas promis, cest clair tu lauras Mais à quel prix homi, pour ça il faudra faire ce qui faudra Il faudra tirer pour tuer Rares sont les voyous qui sinscrivent dans la durée Est-ce que tu vas trembler ? Est-ce que tu vas assurer ? Au moment de brrrrrraaaaah cracher la purée Eh ouais cest la rue, on tenvoie des meufs et on te plume Pour une dette impayée, un coup de travers, mec on te brûle Tas postulé pour le casting alors je te parle du rôle La rue, cest pas fumer 1 ou 2 joints en bas du hall non La rue cest traître La rue cest ton meilleur poto, qui te balance juste pour pouvoir payer ses dettes non Moi je te le dis davance Plus tu montes plus les quantités augmentent, ouais elles augmentent, faut suivre la cadence Faut en faire toujours plus car on en veut toujours plus Rares sont ceux qui en veulent tout court Niquer nos vies, on fait tout pour Oublie comme on nous a éduqués répute de cité oblige Et tous les jours nos parents subissent LÉtat essaye de leur faire comprendre quils nont pas fait leur taff Mais comment ces connards auraient agit à leur place Ils ont crée leurs cités, nous ont pris pour des cobayes Dans des tours de 15 étages, on vit ensemble On grandit ensemble, on meurt ensemble On pleure ensemble perdu on traîne en bande De la tristesse de la violence cest tout que je garde de mon enfance Je peins de la haine, dresse une fresque abstraite Loin des riches, loin de leurs vies presque parfaite Donne-moi le mic et laisse couler linstru, que je leur dise quils agissent Pensent et nous insultent à leurs guise Voilà ce que mes potos subissent Contrôle et humiliation, cest le nouveau supplice Des perquis', chez cinq frérots sur dix On a quitté lécole très tôt mais on a toujours droit aux interro surprises La gamelle à un goût de fruits de mer Parait-il impossible de fuir cette putain de vie de merde Ils tont capté, rattrapé par ton passé Comme beaucoup tas cru pouvoir tenir les murs de ton quartier À ce petit jeu comme toi, combien sont tombés ? Combien pensait se refaire parce quils avaient un plan B N'ont pas pu dire au revoir avant de partir Combien ont joués les chauds ? Combien se sont fait refroidir ? Combien ont cru pouvoir voler au-dessus des lois ? Combien se sont gavés et lont crié sur les toits ? Combien se sont fait lever par des amis à eux ? Combien se sont barrés pour ne pas payer ce quil devait ? Cest cette maudite life qui mattriste Combien ont terminé à lhôpital psychiatrique ? Combien ont fait pleurer leur mère ? Ignorer leur père ? On fait de la baraque familiale leur repère ? Combien, s'ils avaient continuer lécole Auraient été de très bons chefs dentreprise ou autre chose ? Combien ont quitter leur ZAC ? Combien pour la R.U.E ont niqué leur life ? Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car on mE.C.O.U.T.E Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car elle mE.C.O.U.T.E, elle mécoute grosYou might also like1</t>
+          <t>Fini le temps où on vantait la vie et ses vertus Faudrait réveiller Montand, lui dire que Paris ne séveille plus Le macadam cherche des âmes à damner Et les cadavres sur pattes cherchent du crack à damer Une bicoque de bâtard, une vie de chiotte de lascar En rang, on tourne en rond comme des pilotes de Nascar Pas ni problèmes, pas ni bagarres Mais t'as des assoc' qui rêvent de te semer en route comme au Paris-Dakar La rue est traître comme un calibre à lheure des comptes Combien le réalise ou l'ont apprit à leurs dépends Au rythme de mes sons, les bandes se fond et se descendent En 30 secondes, des convoyeurs de fonds se défendent La rue une grande garce qui a trop baisé d'gars Tas beau aimer les 'tasses, tu la croises, tarrêtes pas, mets les gaz On est à bout, dollars et sexe engrossés Tu la boucle, te dépêches et donne la recette sans broncher Les criards se font crossés, les bitchs se font engrossées Tes erreurs se transforment en dossier, le maillot de la rue endossé Des thunes empochés rapidement sans bosser Un peu de pillave dans le gosier pour pioncer, tes fauché yeah Drôle dépoque, dur dêtre un lascar digne Je crois que je massagis, Pit Baccardi dans la gabardine Je menhardis, encaisse un bâtard de ma part Mes potes ne me parlent plus que de braquages et de placards Sur le terrain les petits, ils mangent tellement salement Tas même pas envie de venir prendre ta part du gâteau Ils bouffent avec les doigts, ils font tout, la C.C, la rabla Lhéro, le double zéro et la hagra Ça pue lincarcération, la longue peine Tas C.C, gare-la toi dans le fion, pas dans le zen Tas saisi, je passe une petite annonce à l'antenne Celui-ci il va finir pour long time à Nanterre Cest vrai, dégouter qu'on m'en demande Mais lhéro fait des heureux et des milliers de zéros sur les comptes en banque Me parle plus de la justice, vas-y je lencule Mes chances de men sortir sont restreintes, quasiment nulles Comprends pourquoi je rappe sale, je viens des quartiers sales Où on se fait respecter par la force ou par les armes Jai pas eu le choix moi, je refuse de faire partie des victimes Attitude warriors, si tu gazes on te nique, cest team-team Laisse-moi leur dire moi que je veux vivre libre mais sans ramper Nos mères versent des larmes de sang, on a des corps ensanglantés Depuis le départ, ça pue la fin tragique Désolé pour ceux que jai bé-bar, des fois c'est ça le trafic Hasba sur hasba, on te baise et on encaisse Bien sûr les flics enquêtent, y en a qui tombent et on encaisse De toutes façons cest comme ça depuis quon est nés mec on encaisse Mets-le toi en tête, cest hardcore la vie en tess Dans les quartiers cest de pire en pire, tout le monde se défonce Devant tout le monde, faut voir avec quelles substances ils se défoncent La tête dans la coke, le nez dans la coke Maintenant, ce sont les baltringues quont la cote À mon époque cétait en cachette, cest les tapettes qui sniffaient Si on savait, on te niquait, je sais même pas si tu survivais Mais cest la mode hein, ouais la mode hein Cette mode cest pas de chez nous, non ça vient des quartiers mondains Ce morceau cest pour les anciens comme Double Qui ont connu lépoque des Mac Douglas, celle des tags des coups de shlass À cette époque les valeurs cétait rage et courage Maintenant on trouve normal serrer la main des poucaves Jai limpression que la rue tourne à lenvers Maintenant pour être le best il faut flamber Les mecs montent et descendent à vitesse grand V Devenu dur de manger avec du shit, y a quà voir le prix dun 100 G Bah ouais ça sniffe et ça sniffe dur Vodka plus Redbull, voilà la mixture Les petits durs jouent les pitbulls Je parle plus au téléphone ça shlingue la shmiture On compte plus les sacrifiés sur lautel de la justice, foudroyés par des aveux Tauras beau leur cracher du fric, soudoyer les baveux Técopes dune peine de prison ferme Derrière des murs de prison ternes Cest triste mais cest ainsi, le royaume des petites donneuses La rue, la reine des michetonneuses Ce quel tas promis, cest clair tu lauras Mais à quel prix homi, pour ça il faudra faire ce qui faudra Il faudra tirer pour tuer Rares sont les voyous qui sinscrivent dans la durée Est-ce que tu vas trembler ? Est-ce que tu vas assurer ? Au moment de brrrrrraaaaah cracher la purée Eh ouais cest la rue, on tenvoie des meufs et on te plume Pour une dette impayée, un coup de travers, mec on te brûle Tas postulé pour le casting alors je te parle du rôle La rue, cest pas fumer 1 ou 2 joints en bas du hall non La rue cest traître La rue cest ton meilleur poto, qui te balance juste pour pouvoir payer ses dettes non Moi je te le dis davance Plus tu montes plus les quantités augmentent, ouais elles augmentent, faut suivre la cadence Faut en faire toujours plus car on en veut toujours plus Rares sont ceux qui en veulent tout court Niquer nos vies, on fait tout pour Oublie comme on nous a éduqués répute de cité oblige Et tous les jours nos parents subissent LÉtat essaye de leur faire comprendre quils nont pas fait leur taff Mais comment ces connards auraient agit à leur place Ils ont crée leurs cités, nous ont pris pour des cobayes Dans des tours de 15 étages, on vit ensemble On grandit ensemble, on meurt ensemble On pleure ensemble perdu on traîne en bande De la tristesse de la violence cest tout que je garde de mon enfance Je peins de la haine, dresse une fresque abstraite Loin des riches, loin de leurs vies presque parfaite Donne-moi le mic et laisse couler linstru, que je leur dise quils agissent Pensent et nous insultent à leurs guise Voilà ce que mes potos subissent Contrôle et humiliation, cest le nouveau supplice Des perquis', chez cinq frérots sur dix On a quitté lécole très tôt mais on a toujours droit aux interro surprises La gamelle à un goût de fruits de mer Parait-il impossible de fuir cette putain de vie de merde Ils tont capté, rattrapé par ton passé Comme beaucoup tas cru pouvoir tenir les murs de ton quartier À ce petit jeu comme toi, combien sont tombés ? Combien pensait se refaire parce quils avaient un plan B N'ont pas pu dire au revoir avant de partir Combien ont joués les chauds ? Combien se sont fait refroidir ? Combien ont cru pouvoir voler au-dessus des lois ? Combien se sont gavés et lont crié sur les toits ? Combien se sont fait lever par des amis à eux ? Combien se sont barrés pour ne pas payer ce quil devait ? Cest cette maudite life qui mattriste Combien ont terminé à lhôpital psychiatrique ? Combien ont fait pleurer leur mère ? Ignorer leur père ? On fait de la baraque familiale leur repère ? Combien, s'ils avaient continuer lécole Auraient été de très bons chefs dentreprise ou autre chose ? Combien ont quitter leur ZAC ? Combien pour la R.U.E ont niqué leur life ? Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car on mE.C.O.U.T.E Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car elle mE.C.O.U.T.E, elle mécoute gros1</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hey Deux - double zéro - deux Le retour du Pit dans l'arène Marginal Sosa OK Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Ça fait chaud au cur de retrouver l'public Micmac de l'industrie, au mic c'est le même qui nique Rappeur unique dans son genre, vicelard J'rappe pour l'peuple et vise large Ma devise? Fidéliser les nôtres, faire danser les vôtres Passons l'message aux autres, implantons notre biz Tout vient d'là, la force et la rage Les mots bâtissent les churs et la rime c'est l'prestige Pendant qu'la presse s'fige sur nos perf', la rue juge nos écrits Quand on éclate, la terre vibre C'est la renaissance, je stoppe l'insensé C'est un braquage, s'abstenir âmes sensibles J'suis lancé, haut placé, les barricades J'ai l'élégance et la tchatche, tout Paris en parle Les anciens m'ont classé, Baccardi, palace du rap C'est ça la classe et tu l'sais You might also like Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! C'est moins lent, les mots moins longs, toujours mielleux J'répète, quand j'prends l'mic ça débielle J'enchaîne les rimes, minimise les drames Mon karma tellement fort fait d'moi c'mec éternel Le rap c'est l'sport, faut entretenir la forme Des mots tendres, j'ai pas peur moi d'faire plaisir aux femmes J'rappe pour tout public, faut pas qu'ils s'attendent à tout J'ai mon identité et développe mes atouts J'arrive pas à faire le mariolle comme certains J'ai pas l'diplôme de gangster comme d'autres Mais j'sais qu'il faut de tout pour faire un monde, c'est vrai Maintenant, dans l'rap on voit d'tout Bref, les polémiques je stoppe ça C'est l'brave artiste, le charmeur chic Ambianceur rare dit irrésistible Baccardi Pit, épelle mon nom Mais s'il vous plaît, avant d'm'apostropher, négro Quand j'rappe t'as peur Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Dans la rue s'trouvent tous mes détracteurs Ceux qui après l'premier album, peuvent bien s'rétracter Parfois l'ghetto pleure ses éléments perdus au front Trop show-biz ou obnubilés par l'franc J'ai la franchise de dire que quand l'fric frappe à ta porte T'as du mal à dire J'suis occupé, viens on remet ça à plus tard Mais l'truc c'est savoir rester intègre Et vivre à l'affût d'un éventuel échec Le rap c'est un cri d'guerre rempli d'haine XXX large Avec la rage dans les tripes, bien en chien dans une jungle C'est grave comment les mots démontrent Qu'avec, on démêle les corps de l'emprise du démon Ça devient comme la sape Tout l'monde est à l'affût du nouveau style, du nouveau rap barbare Même les bâtards critiquent, parlent dans leur barbe Camouflé XXX dare-dare, c'est boum Et qui aime me suive Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Tout l'monde Baccardi! Tout l'monde, tout l'monde Baccardi! J'entends pas, j'entends pas Baccardi! Tout l'monde avec moi Baccardi!</t>
+          <t>Hey Deux - double zéro - deux Le retour du Pit dans l'arène Marginal Sosa OK Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Ça fait chaud au cur de retrouver l'public Micmac de l'industrie, au mic c'est le même qui nique Rappeur unique dans son genre, vicelard J'rappe pour l'peuple et vise large Ma devise? Fidéliser les nôtres, faire danser les vôtres Passons l'message aux autres, implantons notre biz Tout vient d'là, la force et la rage Les mots bâtissent les churs et la rime c'est l'prestige Pendant qu'la presse s'fige sur nos perf', la rue juge nos écrits Quand on éclate, la terre vibre C'est la renaissance, je stoppe l'insensé C'est un braquage, s'abstenir âmes sensibles J'suis lancé, haut placé, les barricades J'ai l'élégance et la tchatche, tout Paris en parle Les anciens m'ont classé, Baccardi, palace du rap C'est ça la classe et tu l'sais Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! C'est moins lent, les mots moins longs, toujours mielleux J'répète, quand j'prends l'mic ça débielle J'enchaîne les rimes, minimise les drames Mon karma tellement fort fait d'moi c'mec éternel Le rap c'est l'sport, faut entretenir la forme Des mots tendres, j'ai pas peur moi d'faire plaisir aux femmes J'rappe pour tout public, faut pas qu'ils s'attendent à tout J'ai mon identité et développe mes atouts J'arrive pas à faire le mariolle comme certains J'ai pas l'diplôme de gangster comme d'autres Mais j'sais qu'il faut de tout pour faire un monde, c'est vrai Maintenant, dans l'rap on voit d'tout Bref, les polémiques je stoppe ça C'est l'brave artiste, le charmeur chic Ambianceur rare dit irrésistible Baccardi Pit, épelle mon nom Mais s'il vous plaît, avant d'm'apostropher, négro Quand j'rappe t'as peur Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Dans la rue s'trouvent tous mes détracteurs Ceux qui après l'premier album, peuvent bien s'rétracter Parfois l'ghetto pleure ses éléments perdus au front Trop show-biz ou obnubilés par l'franc J'ai la franchise de dire que quand l'fric frappe à ta porte T'as du mal à dire J'suis occupé, viens on remet ça à plus tard Mais l'truc c'est savoir rester intègre Et vivre à l'affût d'un éventuel échec Le rap c'est un cri d'guerre rempli d'haine XXX large Avec la rage dans les tripes, bien en chien dans une jungle C'est grave comment les mots démontrent Qu'avec, on démêle les corps de l'emprise du démon Ça devient comme la sape Tout l'monde est à l'affût du nouveau style, du nouveau rap barbare Même les bâtards critiquent, parlent dans leur barbe Camouflé XXX dare-dare, c'est boum Et qui aime me suive Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Tout l'monde Baccardi! Tout l'monde, tout l'monde Baccardi! J'entends pas, j'entends pas Baccardi! Tout l'monde avec moi Baccardi!</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>On n'est pas à la baisse, ni dans la dèche Mais on s'pose des questions, pourquoi ça tourne plus Parce qu'y a des bâtards qui nous font iech On m'lèche l'oreille avec le dernier 50 Cent Et là la vibe arrive, c'est toute la France qui va me check J'ai p't-être pas le déhanché des Harlem Shakers Mais sur mon épaule, le rap pose sa joue ouais Pour moi c'truc c'est un jeu, j'suis pas là pour m'la jouer Mais donner ma voix en plusieurs jets Et le cinq janvier j'reçois mon chèque J'place le rap à un autre stade, celui d'untouchable Ouais les gars je sens qu'c'est l'heure, au mic j'blesse Dans la rue j'ai fait c'qui fallait Dieu merci on m'a jamais passé les bracelets Pour les MC d'merde, j'vous l'ai dit, descendez-les J'fais écouter c'titre, mes négros disent c'est un single J'leur dis rien à foutre, pour moi ça roule tant que le public gueule Vas-y dis-le, crie-le, j'ai mis le truc avec la vibes signée Baccardi Nouveau millésime Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça You might also like Viens pas test, dis-moi qui n'acquiesce pas Ma manière de faire la fiesta T'inquiète, Baccardi dans les caisses Laisse, mami J'suis l'seul et unique à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangstas J'suis dans un game, j'suis là pour la gagne MC quatre-quatre j'vais des rues de Place des Fêtes à celle de Cannes J'reste black pourtant, j'mets p't-être du Prada Devant la grand-mère, c'est babouches, marcel avec un pagne Tu veux m'guez, laisse papa Paye ton loyer et tes impôts Baccardi Pite, c'est une taxe trop lourde Les bons comptes font les bons amis Et j'ai des bons amis qui attendent que l'on fasse les comptes Alors fais pas l'con, ta tête on décompte Y en a dans l'ombre qui écoutent pas l'rap et qui dansent au rythme du fusil à pompe Baccardi, celui qu'on aime et qu'on déteste Parce que j'appelle un Américain et qu'sur un titre j'le mets en guest Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça 2003, le rap est pris d'court mais n'est pas à terme Quand c'est terne, les thèmes et les termes, je les alterne Tu sens le karma ouais, toujours un seize sous mon K-Way Bouge ta graisse, que tu sois en Fendi ou en Rocawear J'suis un mec des blocs, j'respecte mon amour, ma famille et ma monnaie Le nom c'est Brown, le logo tu l'reconnais J'viens kill, j'suis pas d'calcul Tu m'entends dans les soirées de Lord Issa ou Cut Killer J'ai pas les paillettes mais je stresse le hip-hop Parce que j'brille trop et au microphone, j'suis trop fort mec C'que j'dis, j'le fais, c'que j'fais est dit V'là les faits, Family Brown, y a trop d'monde à plâtrer Viens pas m'cer-su, j'ai c'qu'il faut pour ça Et si j'croise ta fouf, t'as intérêt à t'faire du souci J'suis qu'au début d'ma carrière, j'vais en faire d'la caillasse Commence à m'haïr, j'maîtrise mon art J'suis le best Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça Men X Large à la prod C'est Pit au mic Ouais, troisième épisode Et tu l'sais 2003, 2004 Pour toi, toi et toi Men X Large à la prod Pit au mic, troisième épisode Première Classe Family Brown Et tu l'sais Ha ha</t>
+          <t>On n'est pas à la baisse, ni dans la dèche Mais on s'pose des questions, pourquoi ça tourne plus Parce qu'y a des bâtards qui nous font iech On m'lèche l'oreille avec le dernier 50 Cent Et là la vibe arrive, c'est toute la France qui va me check J'ai p't-être pas le déhanché des Harlem Shakers Mais sur mon épaule, le rap pose sa joue ouais Pour moi c'truc c'est un jeu, j'suis pas là pour m'la jouer Mais donner ma voix en plusieurs jets Et le cinq janvier j'reçois mon chèque J'place le rap à un autre stade, celui d'untouchable Ouais les gars je sens qu'c'est l'heure, au mic j'blesse Dans la rue j'ai fait c'qui fallait Dieu merci on m'a jamais passé les bracelets Pour les MC d'merde, j'vous l'ai dit, descendez-les J'fais écouter c'titre, mes négros disent c'est un single J'leur dis rien à foutre, pour moi ça roule tant que le public gueule Vas-y dis-le, crie-le, j'ai mis le truc avec la vibes signée Baccardi Nouveau millésime Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça Viens pas test, dis-moi qui n'acquiesce pas Ma manière de faire la fiesta T'inquiète, Baccardi dans les caisses Laisse, mami J'suis l'seul et unique à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangstas J'suis dans un game, j'suis là pour la gagne MC quatre-quatre j'vais des rues de Place des Fêtes à celle de Cannes J'reste black pourtant, j'mets p't-être du Prada Devant la grand-mère, c'est babouches, marcel avec un pagne Tu veux m'guez, laisse papa Paye ton loyer et tes impôts Baccardi Pite, c'est une taxe trop lourde Les bons comptes font les bons amis Et j'ai des bons amis qui attendent que l'on fasse les comptes Alors fais pas l'con, ta tête on décompte Y en a dans l'ombre qui écoutent pas l'rap et qui dansent au rythme du fusil à pompe Baccardi, celui qu'on aime et qu'on déteste Parce que j'appelle un Américain et qu'sur un titre j'le mets en guest Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça 2003, le rap est pris d'court mais n'est pas à terme Quand c'est terne, les thèmes et les termes, je les alterne Tu sens le karma ouais, toujours un seize sous mon K-Way Bouge ta graisse, que tu sois en Fendi ou en Rocawear J'suis un mec des blocs, j'respecte mon amour, ma famille et ma monnaie Le nom c'est Brown, le logo tu l'reconnais J'viens kill, j'suis pas d'calcul Tu m'entends dans les soirées de Lord Issa ou Cut Killer J'ai pas les paillettes mais je stresse le hip-hop Parce que j'brille trop et au microphone, j'suis trop fort mec C'que j'dis, j'le fais, c'que j'fais est dit V'là les faits, Family Brown, y a trop d'monde à plâtrer Viens pas m'cer-su, j'ai c'qu'il faut pour ça Et si j'croise ta fouf, t'as intérêt à t'faire du souci J'suis qu'au début d'ma carrière, j'vais en faire d'la caillasse Commence à m'haïr, j'maîtrise mon art J'suis le best Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça Men X Large à la prod C'est Pit au mic Ouais, troisième épisode Et tu l'sais 2003, 2004 Pour toi, toi et toi Men X Large à la prod Pit au mic, troisième épisode Première Classe Family Brown Et tu l'sais Ha ha</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oxmo Puccino Black Mafia Jamais été une grosse caille-ra, même si le placard m'a guetté Mon karma m'évite un Armageddon vers qui le ghetto t'guide J'exige le respect du père de mon père jusqu'à mon petit-fils Ma création, chaque mot cause mon édifice J'ai échoué tant d'fois quand j'essaie quelq' chose Cette chose dit d'moi Dis, t'oses encore bosser ? La couleur d'peau, une raison pour haïr l'autre Moi j'suis ma propre poutre, je m'soutiens seul rien à foutre J'viens du 19, j'ai toutes les rimes qui vont avec Chnouf, cut, zef, biftons, biz de me-ca veut que J'ai pas vécu tout ça jusqu'ici, afin qu'des p'tits s'réunissent Et pissent sur ma pipe, non merci Sur le trône DJ Poska, dans le rôle du DJ 7 oscars Sélectionnés par all star Ox Ils s'disent cool quand ils m'guettent comme sous hypnose J'doute que leur but soit autre chose que de nuire Une manière de dire Pourquoi t'es pas pire que nous ? Dire qu'on riait d'toi dans l'temps où t'étais gentil Pour vivre libre, j'ai besoin d'ennemis Pour gérer ma haine, je peux jurer que des mauvais amis ça aide Tu te dis prêt à mourir comme Biggie ? J'te donne le top départ, t'es mort j'ai l'art de mordre au mic J'suis Ox black mafioso, écoute ma philosophie Pige pourquoi j'suis triste, soliste À l'aise, à 1000m à l'Est du traître Porte-malheur comme le chiffre 13 You might also likePour toute la Face B, merci aux Vlavo, k-Se, Traoré, Issa J'viens du 19, Danube, Jacques Cartier, Demi-Lune Zoo, m'sieur le proviseur Baccardi Pit, Cassidy, Funky Maestro sur la 25e Sois 25 raisons d'arrêter de mixer Perchée sur des talons, les fesses ballons Torse bombé, mèches pony, bien huilée, gondolée dans l'dos Coin coin coin coin coin, les frères marchent comme des canards Portent les mêmes éléments, ça va d'la casquette aux panards Sebago, 501, cesse les blagues oh, coste-La T'es là, posté devant le Manapan hihihihihi Venu en RER, tu fais croire qu'tu viens du parking En fait je sais dans quel feuillage tu caches ta parka T'as raison, ça fait 10 balles en plus du Coca à la maison Des gâteaux ou même des mèches pony pour ta go La causette, pour zouker, ça parle 4x4 Susuki Tout ça pour mouiller la zezette À 3 plombes, panique, les filles tombent de leurs talons Se font marcher d'ssus à la vue du fusil à pompe Personne n'est touché, vu qu'le fusil vise la Lune Ça fait trop d'bruit et les keufs viennent et t'allument Ça fait des histoires dont ma plume s'amuse Mais rire du malheur des frères j'te jure qu'à force ça m'use</t>
+          <t>Oxmo Puccino Black Mafia Jamais été une grosse caille-ra, même si le placard m'a guetté Mon karma m'évite un Armageddon vers qui le ghetto t'guide J'exige le respect du père de mon père jusqu'à mon petit-fils Ma création, chaque mot cause mon édifice J'ai échoué tant d'fois quand j'essaie quelq' chose Cette chose dit d'moi Dis, t'oses encore bosser ? La couleur d'peau, une raison pour haïr l'autre Moi j'suis ma propre poutre, je m'soutiens seul rien à foutre J'viens du 19, j'ai toutes les rimes qui vont avec Chnouf, cut, zef, biftons, biz de me-ca veut que J'ai pas vécu tout ça jusqu'ici, afin qu'des p'tits s'réunissent Et pissent sur ma pipe, non merci Sur le trône DJ Poska, dans le rôle du DJ 7 oscars Sélectionnés par all star Ox Ils s'disent cool quand ils m'guettent comme sous hypnose J'doute que leur but soit autre chose que de nuire Une manière de dire Pourquoi t'es pas pire que nous ? Dire qu'on riait d'toi dans l'temps où t'étais gentil Pour vivre libre, j'ai besoin d'ennemis Pour gérer ma haine, je peux jurer que des mauvais amis ça aide Tu te dis prêt à mourir comme Biggie ? J'te donne le top départ, t'es mort j'ai l'art de mordre au mic J'suis Ox black mafioso, écoute ma philosophie Pige pourquoi j'suis triste, soliste À l'aise, à 1000m à l'Est du traître Porte-malheur comme le chiffre 13 Pour toute la Face B, merci aux Vlavo, k-Se, Traoré, Issa J'viens du 19, Danube, Jacques Cartier, Demi-Lune Zoo, m'sieur le proviseur Baccardi Pit, Cassidy, Funky Maestro sur la 25e Sois 25 raisons d'arrêter de mixer Perchée sur des talons, les fesses ballons Torse bombé, mèches pony, bien huilée, gondolée dans l'dos Coin coin coin coin coin, les frères marchent comme des canards Portent les mêmes éléments, ça va d'la casquette aux panards Sebago, 501, cesse les blagues oh, coste-La T'es là, posté devant le Manapan hihihihihi Venu en RER, tu fais croire qu'tu viens du parking En fait je sais dans quel feuillage tu caches ta parka T'as raison, ça fait 10 balles en plus du Coca à la maison Des gâteaux ou même des mèches pony pour ta go La causette, pour zouker, ça parle 4x4 Susuki Tout ça pour mouiller la zezette À 3 plombes, panique, les filles tombent de leurs talons Se font marcher d'ssus à la vue du fusil à pompe Personne n'est touché, vu qu'le fusil vise la Lune Ça fait trop d'bruit et les keufs viennent et t'allument Ça fait des histoires dont ma plume s'amuse Mais rire du malheur des frères j'te jure qu'à force ça m'use</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Verse 1 L'histoire m'a fait, faut que j'en fasse une histoire Histoire d'être juste l'historique d'une génération en quête d'histoire Je nais je pleure et tu ris J'pars j'en ris et tu pleures Pleure des larmes Gais et tueries seront tes albums que je ferai pour vous Ce rap est le plus beau jour de ma vie Vis-à-vis de ma mère, je m'éclate comme elle aurait Certainement eu envie Si je peux construire ton cur alors je ferais des villes Que tu me voles la vedette pas grave tu sais On a juste une vie Si c'est pas moi c'est toi, si c'est pas toi c'est lui Si c'est pas lui c'est eux c'est par le même chemin Qu'on ira tous aux cieux J'parle d'un rien qui dit tout et fait comprendre que La vie c'est un rien mais je te jure, rien ne vaut de la vivre Il a pris l'avion et il y a eu un crash Il a traversé et sur le sol une voiture l'a scotché Il faisait du footing et subitement son cur a lâché Il écrivait du rap maintenant son nom est conjugué au passé Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité You might also likeVerse 2 Pour qu'il y ait débat sur la mort Il faut un bon début et ce début Il est tellement loin T'as qu'à voir tout le monde qu'il y a déjà en bas On prend le train en route et on attend notre terminus Pourquoi se révolter contre le cycle terre Laisse-toi aller Je vends mon âme au rap Le rap donnera mon âme aux cieux Les dieux de l'Olympe m'accepteront-ils, si je me proclame messie? Rappeur marginal quand je regarde ce que j'ai à perdre à part ma vie Ce que j'ai à gagner c'est de l'argent et ses envies De l'amour aussi même si je n'ai pas de fric Et de la haine J'en suis victime si j'en ai trop de fric J'positive la chose, pose les larmes à côté Je suis dosé de vivre et que la joie de ma mort soit la cause Je suis venu être, pas pour paraître Vivre, disparaître Naître légende Jusqu'à ce que l'histoire du disque s'arrête Et aux absents je dédie cette mesure de silence Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité Verse 3 Vis, respire, si ça n'est pas de l'air pur ça Regarde-moi je suis jeune, je flambe toujours à jeun Y'a rien qui me gêne Rapper si on a la potion c'est qu'on parle à la vie Elle nous répond et tu nous envies Lorsque tu nous vois Mais elle a aussi frappé à la porte de chez nous Elle a pris quelqu'un d'autre en notre absence Si ça se trouve elle nous cherchait nous Je suis donc je le sais, je le sais et j'en sui Désormais, je sais sur Quel pied danser avant de rejoindre là-haut La décision de m'ôter la vie, je ne compte plus là-dessus En y repensant comment entre vie et mort j'ai pu être indécis Et j'osais crier, révolté quand on me traitait d'imbécile Si l'erreur est humaine, j'étais l'humaine erreur Je ne peux pas conclure ce texte autrement que Je veux vivre à mort Hook x 4 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité</t>
+          <t>Verse 1 L'histoire m'a fait, faut que j'en fasse une histoire Histoire d'être juste l'historique d'une génération en quête d'histoire Je nais je pleure et tu ris J'pars j'en ris et tu pleures Pleure des larmes Gais et tueries seront tes albums que je ferai pour vous Ce rap est le plus beau jour de ma vie Vis-à-vis de ma mère, je m'éclate comme elle aurait Certainement eu envie Si je peux construire ton cur alors je ferais des villes Que tu me voles la vedette pas grave tu sais On a juste une vie Si c'est pas moi c'est toi, si c'est pas toi c'est lui Si c'est pas lui c'est eux c'est par le même chemin Qu'on ira tous aux cieux J'parle d'un rien qui dit tout et fait comprendre que La vie c'est un rien mais je te jure, rien ne vaut de la vivre Il a pris l'avion et il y a eu un crash Il a traversé et sur le sol une voiture l'a scotché Il faisait du footing et subitement son cur a lâché Il écrivait du rap maintenant son nom est conjugué au passé Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité Verse 2 Pour qu'il y ait débat sur la mort Il faut un bon début et ce début Il est tellement loin T'as qu'à voir tout le monde qu'il y a déjà en bas On prend le train en route et on attend notre terminus Pourquoi se révolter contre le cycle terre Laisse-toi aller Je vends mon âme au rap Le rap donnera mon âme aux cieux Les dieux de l'Olympe m'accepteront-ils, si je me proclame messie? Rappeur marginal quand je regarde ce que j'ai à perdre à part ma vie Ce que j'ai à gagner c'est de l'argent et ses envies De l'amour aussi même si je n'ai pas de fric Et de la haine J'en suis victime si j'en ai trop de fric J'positive la chose, pose les larmes à côté Je suis dosé de vivre et que la joie de ma mort soit la cause Je suis venu être, pas pour paraître Vivre, disparaître Naître légende Jusqu'à ce que l'histoire du disque s'arrête Et aux absents je dédie cette mesure de silence Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité Verse 3 Vis, respire, si ça n'est pas de l'air pur ça Regarde-moi je suis jeune, je flambe toujours à jeun Y'a rien qui me gêne Rapper si on a la potion c'est qu'on parle à la vie Elle nous répond et tu nous envies Lorsque tu nous vois Mais elle a aussi frappé à la porte de chez nous Elle a pris quelqu'un d'autre en notre absence Si ça se trouve elle nous cherchait nous Je suis donc je le sais, je le sais et j'en sui Désormais, je sais sur Quel pied danser avant de rejoindre là-haut La décision de m'ôter la vie, je ne compte plus là-dessus En y repensant comment entre vie et mort j'ai pu être indécis Et j'osais crier, révolté quand on me traitait d'imbécile Si l'erreur est humaine, j'étais l'humaine erreur Je ne peux pas conclure ce texte autrement que Je veux vivre à mort Hook x 4 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Ici cest dancefloor, pas bain dsang Mais dis-moi tas quel son dans ta caisse, moi jaime les beaux samples De janvier à décembre Jaime que la foule scande, nos refrains en blessent tant Parce que le manque de billes ici commence à être vexant Joublie le stress DJ et les Lévi-Strauss laissent voir des cuisses XXX si y a matière explosive Excuse-moi mec, on na pas le même standing Moi jarrive en jet et repars en hélico, cest une image Jai lflow aérien, bourricot y a trop d'mythos Jai fait bouffer par la racine le coquelicot MC, jsuis au rap parce qu'y a plus d'mystique Comme enterré vif, lâchant des rimes fantômes sur beat MC grizzly, jdébarque, tu fais grise mine Les MC sont verts de peur comme des XXX Disent Pit, on capte rien, tu rappes trop speed Jleur dis les mecs, cest vous qui écoutez trop lentement Ça vient dchez nous You might also like Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça On a lgroove, du toupet Flow caviar pour les couplets Trop dfoufs dans la zik j'épouse Baccardi ex-loser devenu crooner, style chanteur de blues Pousse les watts, lève le doigt si tapprouves Y a du son, eh J'veux t'voir en feu, en short ou en bas résille Jbrûle les enceintes, rangez les Uzi Promis à la victoire comme Mohamed Dia Jveux pas dfusillade, juste des corps qui bougent Quand j'déboule, c'est la razzia Cest cqui précède l'enterrement Bienvenue dans lcercle de lambianceur number one Un style que jhérite des ancêtres Chez nous, cest plus quune clique, cest une secte Chef dorchestre, jplane mais n'touche pas à la marijuana Le hip-hop sempare du pays de Marianne Cest la paria génération dans lPAF Dans les charts cest XXX ça vient dchez nous Pour vous avec la rue cest lmariage mais Dans mon style, jsuis lpatriarche Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Les gens des autres cliques sont dans un traumatisme Ils demandent où Première Classe a trouvé cet artiste Si tu vois mon CV, tu vois qucest un bad trip Mais venir sur mes plates-bandes, descendez la piste J'viens noircir la France avec mes rimes crades Ma dégaine, mon gros pif, mon égo de Black Jferai danser les gens en plus de bonder les salles Il est là lchallenge, aujourdhui cest money time Hey, venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste Venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste et tu l'sais Amuse-toi, amuse-toi Eh, amuse-toi, amuse-toi Baccardi Pit Amuse-toi, amuse-toi Et tu lsais Première Classe, hein hein Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça</t>
+          <t>Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Ici cest dancefloor, pas bain dsang Mais dis-moi tas quel son dans ta caisse, moi jaime les beaux samples De janvier à décembre Jaime que la foule scande, nos refrains en blessent tant Parce que le manque de billes ici commence à être vexant Joublie le stress DJ et les Lévi-Strauss laissent voir des cuisses XXX si y a matière explosive Excuse-moi mec, on na pas le même standing Moi jarrive en jet et repars en hélico, cest une image Jai lflow aérien, bourricot y a trop d'mythos Jai fait bouffer par la racine le coquelicot MC, jsuis au rap parce qu'y a plus d'mystique Comme enterré vif, lâchant des rimes fantômes sur beat MC grizzly, jdébarque, tu fais grise mine Les MC sont verts de peur comme des XXX Disent Pit, on capte rien, tu rappes trop speed Jleur dis les mecs, cest vous qui écoutez trop lentement Ça vient dchez nous Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça On a lgroove, du toupet Flow caviar pour les couplets Trop dfoufs dans la zik j'épouse Baccardi ex-loser devenu crooner, style chanteur de blues Pousse les watts, lève le doigt si tapprouves Y a du son, eh J'veux t'voir en feu, en short ou en bas résille Jbrûle les enceintes, rangez les Uzi Promis à la victoire comme Mohamed Dia Jveux pas dfusillade, juste des corps qui bougent Quand j'déboule, c'est la razzia Cest cqui précède l'enterrement Bienvenue dans lcercle de lambianceur number one Un style que jhérite des ancêtres Chez nous, cest plus quune clique, cest une secte Chef dorchestre, jplane mais n'touche pas à la marijuana Le hip-hop sempare du pays de Marianne Cest la paria génération dans lPAF Dans les charts cest XXX ça vient dchez nous Pour vous avec la rue cest lmariage mais Dans mon style, jsuis lpatriarche Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Les gens des autres cliques sont dans un traumatisme Ils demandent où Première Classe a trouvé cet artiste Si tu vois mon CV, tu vois qucest un bad trip Mais venir sur mes plates-bandes, descendez la piste J'viens noircir la France avec mes rimes crades Ma dégaine, mon gros pif, mon égo de Black Jferai danser les gens en plus de bonder les salles Il est là lchallenge, aujourdhui cest money time Hey, venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste Venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste et tu l'sais Amuse-toi, amuse-toi Eh, amuse-toi, amuse-toi Baccardi Pit Amuse-toi, amuse-toi Et tu lsais Première Classe, hein hein Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hey ! Calmement Éloigne les personnes sensibles et les cardiaques V'là commando Première Classe au complet Pit Baccardi, Ben-J, Jacky Ce soir c'est plus fort que vous Y'a pas plus fort que nous C'est plus fort que moi comme cette loi qui indexe mes paroles Me taxe et m'impute sur mes textes j'te jure c'est pas d'l'intox C'est pour l'amour du disque, vu qu'dans nos textes on prend des risques Et par amour du risque, à nos idéaux on s'fixe Et on s'passe de tous commentaires Merde si tu pense le contraire Ouais j'ai tort si je m'enterre Alors dis moi comment m'taire ? J'ai l'sens du recul Y'a d'la censure dans tous les sens Ils nous bâillonnent à mon sens Alors Ben-J qu'est-ce qu't'en penses ? Les mecs j'tout f'rais cause pour ma cause C'est bien trop fort j'accepte Le refus d'me taire quand les miens souffrent Pendant qu'la loi fait la fête Tête brûlée à l'herbe, je, j'raille Quand ils manient le mal pour la maille J'rapplique fous la merde Pas d'détails J'suis de loin la loi, la loi est loi d'aller dans mon sens J'suis plus droit qu'un homme droit, là est la preuve non sens Je l'ouvre sous peine de recrudescence de sentences C'est plus fort comme un militant condamné à la naissance You might also like C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi Pendant qu'des gangs bandent sur leurs blazes S'branlent sur des trucs nazes Défendent une authenticité Mais n'sont que des pions à la base Dans c'biz, et ça vient proclamer son indépendance en soldant on assure le règne pour notre descendance Dans 10 ans j'veux pas qu'les gens snobent, disant c'mec touche le SMIC Donc aujourd'hui j'me place, matte mon business et ma tactique C'est plus fort que mois déterminé à être déterminant Peut importe les moyens on élimine les obstacles en les franchissant On s'affranchit sans fléchir, multiplie nos efforts Faire du fric et des francs frère en clair faire fort Première Classe travaille dur et transpire comme au sport Pour être big et non small, j'lève mon majeur aux majors La majeur partie d'mes sous dans c'biz m'avait prévenu Y'a d'propos le fric c'est leur boeuf pour la bienvenue Quand l'échec est mal vu, du chéri tu passes au mal vie En choisissant l'indépendance, je sais qu'j'ai bien vu C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi J'ai grandi à Ges-gar Dans les cités dortoirs Vadrouillant sur l'bitume Comme un chien sur l'trottoir Depuis les choses ont changé On nous dit qu'on a changé Faut pas s'mentir On veut tous pourvoir manger Pour s'en sortir Même absent j'veux être de ceux toujours présents Je sais d'où je viens, où je vais, qui je suis bon sang Hey c'est plus fort que moi Je suis fier de l'endroit Où j'ai fait mes premiers pas Où j'ai connu mes peines et mes joies C'est la cohue des caïds J'emmène les brebis et les goinfres de mon frère De Bakary à Saïd Un bloc sans fondation comme un zoulou sans nation Moi sans ma tess C'est comme une boule en moins dans mon caleçon Même si on m'traite de traître je traite des faits Et fous l'feu et quand on m'demande je dis Représente que Place des Fêtes Au fait les mecs, j'suis pas en délit d'fuite Le cur y est toujours, je vous dédie cet album c'est Pit C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est beaucoup plus fort que moi Ce soir j'ai décidé de causer pertes et fracas J'maîtrise la discipline de semer tous tes tracas Ôte-toi de mon passage cela vaut mieux pour toi Pit, Ben-J, cky-Ja à trois n'plaisantent pas Ouais C'est plus fort que toi d'avouer qu'y'a pas plus fort que moi Tu t'prends pour un boss même sur basse j'te mets des baffes Et t'montre que t'es un MC bof, bref t'es un bluff ambulant Et comme on dit chez nous fiu tu fais du vent Si, si c'est lui l'homme Jacky vient semer la zizanie Cisaille mon ennemi et enjaille mes amis On vous déclare la guerre sans sortir l'artillerie Vu l'effectif qu'on a 3 soldats ça suffit Un p'tit cisaille en à 6 sous gros son Des bandes on perd pas nos couilles on t'baisera quand même quitte à S'faire du tigre, bigre, espiègle, vibreur de nègre Des sphères aux basses pègres, on emmerde les non-intègres C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi x2</t>
+          <t>Hey ! Calmement Éloigne les personnes sensibles et les cardiaques V'là commando Première Classe au complet Pit Baccardi, Ben-J, Jacky Ce soir c'est plus fort que vous Y'a pas plus fort que nous C'est plus fort que moi comme cette loi qui indexe mes paroles Me taxe et m'impute sur mes textes j'te jure c'est pas d'l'intox C'est pour l'amour du disque, vu qu'dans nos textes on prend des risques Et par amour du risque, à nos idéaux on s'fixe Et on s'passe de tous commentaires Merde si tu pense le contraire Ouais j'ai tort si je m'enterre Alors dis moi comment m'taire ? J'ai l'sens du recul Y'a d'la censure dans tous les sens Ils nous bâillonnent à mon sens Alors Ben-J qu'est-ce qu't'en penses ? Les mecs j'tout f'rais cause pour ma cause C'est bien trop fort j'accepte Le refus d'me taire quand les miens souffrent Pendant qu'la loi fait la fête Tête brûlée à l'herbe, je, j'raille Quand ils manient le mal pour la maille J'rapplique fous la merde Pas d'détails J'suis de loin la loi, la loi est loi d'aller dans mon sens J'suis plus droit qu'un homme droit, là est la preuve non sens Je l'ouvre sous peine de recrudescence de sentences C'est plus fort comme un militant condamné à la naissance C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi Pendant qu'des gangs bandent sur leurs blazes S'branlent sur des trucs nazes Défendent une authenticité Mais n'sont que des pions à la base Dans c'biz, et ça vient proclamer son indépendance en soldant on assure le règne pour notre descendance Dans 10 ans j'veux pas qu'les gens snobent, disant c'mec touche le SMIC Donc aujourd'hui j'me place, matte mon business et ma tactique C'est plus fort que mois déterminé à être déterminant Peut importe les moyens on élimine les obstacles en les franchissant On s'affranchit sans fléchir, multiplie nos efforts Faire du fric et des francs frère en clair faire fort Première Classe travaille dur et transpire comme au sport Pour être big et non small, j'lève mon majeur aux majors La majeur partie d'mes sous dans c'biz m'avait prévenu Y'a d'propos le fric c'est leur boeuf pour la bienvenue Quand l'échec est mal vu, du chéri tu passes au mal vie En choisissant l'indépendance, je sais qu'j'ai bien vu C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi J'ai grandi à Ges-gar Dans les cités dortoirs Vadrouillant sur l'bitume Comme un chien sur l'trottoir Depuis les choses ont changé On nous dit qu'on a changé Faut pas s'mentir On veut tous pourvoir manger Pour s'en sortir Même absent j'veux être de ceux toujours présents Je sais d'où je viens, où je vais, qui je suis bon sang Hey c'est plus fort que moi Je suis fier de l'endroit Où j'ai fait mes premiers pas Où j'ai connu mes peines et mes joies C'est la cohue des caïds J'emmène les brebis et les goinfres de mon frère De Bakary à Saïd Un bloc sans fondation comme un zoulou sans nation Moi sans ma tess C'est comme une boule en moins dans mon caleçon Même si on m'traite de traître je traite des faits Et fous l'feu et quand on m'demande je dis Représente que Place des Fêtes Au fait les mecs, j'suis pas en délit d'fuite Le cur y est toujours, je vous dédie cet album c'est Pit C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est beaucoup plus fort que moi Ce soir j'ai décidé de causer pertes et fracas J'maîtrise la discipline de semer tous tes tracas Ôte-toi de mon passage cela vaut mieux pour toi Pit, Ben-J, cky-Ja à trois n'plaisantent pas Ouais C'est plus fort que toi d'avouer qu'y'a pas plus fort que moi Tu t'prends pour un boss même sur basse j'te mets des baffes Et t'montre que t'es un MC bof, bref t'es un bluff ambulant Et comme on dit chez nous fiu tu fais du vent Si, si c'est lui l'homme Jacky vient semer la zizanie Cisaille mon ennemi et enjaille mes amis On vous déclare la guerre sans sortir l'artillerie Vu l'effectif qu'on a 3 soldats ça suffit Un p'tit cisaille en à 6 sous gros son Des bandes on perd pas nos couilles on t'baisera quand même quitte à S'faire du tigre, bigre, espiègle, vibreur de nègre Des sphères aux basses pègres, on emmerde les non-intègres C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi x2</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2006 remix Hit Partners, Men X Large Et tu l'sais Fais péter l'son, papi c'est Gen, j'viens faire le million tu l'sais C'est le nouveau projet de Men X Large, fais pas l'con Tu connais l'truc, lève les mains en l'air quand mon flow bounce Oh, oh oh C'est Hit Partners Sur ce putain d'son Je pose mon flow sur le beat C'est G.E.N. au contrôle Sur ce putain d'son J'te donne mes phases Copie si tu veux, c'est du hip-hop soul Sur ce putain d'son Attache ta ceinture Pour un décollage immédiat Sur ce putain d'son Street-tape promo, Hit Partners, la cible de tous les médias You might also like Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Dans l'milieu, j'fais la diff', j'suis la miss qui s'immisce pour le biff Demande donc à mes complices La nouvelle génération Moi j't'explique, quand je kicke, je m'applique Quand la zik sent l'Afrique et sonne comme l'Amérique tu l'sais Ma génération Sont tous des wacks'n'b Ma génération N'ont toujours pas compris Ma génération Oh, quelle tragédie Où sont les vrais, ceux qui s'la donnaient, je le reconnais Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais ouais ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Un, deux, ça c'est pour le flow MC qui vaut des milliards, j'suis unique, à mort les clones J'reste l'icône, roule avec le top J'ai baisé l'instru, Gen pose un flow aiguisé Déguisés, y a trop de chanteurs qui l'sont Elle va les épuiser, abusé, la miss a trop d'maîtrise Une chanteuse parmi des millions, un diamant sur le sillon Un volcan dans l'océan Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Sur ce putain d'son Sur ce putain d'son, yeah, c'est la miss Sur ce putain d'son Un diamant sur le sillon, un volcan dans l'océan Sur ce putain d'son Tu l'sais, hein, hein, sur ce putain d'son Sur ce putain d'son Baccardi Pit, Gen Renard, et tu l'sais C'est l'remix 2006, Baccardi Pit, Première Classe Hit Partners, Men X Large J'suis l'seul à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangsta</t>
+          <t>2006 remix Hit Partners, Men X Large Et tu l'sais Fais péter l'son, papi c'est Gen, j'viens faire le million tu l'sais C'est le nouveau projet de Men X Large, fais pas l'con Tu connais l'truc, lève les mains en l'air quand mon flow bounce Oh, oh oh C'est Hit Partners Sur ce putain d'son Je pose mon flow sur le beat C'est G.E.N. au contrôle Sur ce putain d'son J'te donne mes phases Copie si tu veux, c'est du hip-hop soul Sur ce putain d'son Attache ta ceinture Pour un décollage immédiat Sur ce putain d'son Street-tape promo, Hit Partners, la cible de tous les médias Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Dans l'milieu, j'fais la diff', j'suis la miss qui s'immisce pour le biff Demande donc à mes complices La nouvelle génération Moi j't'explique, quand je kicke, je m'applique Quand la zik sent l'Afrique et sonne comme l'Amérique tu l'sais Ma génération Sont tous des wacks'n'b Ma génération N'ont toujours pas compris Ma génération Oh, quelle tragédie Où sont les vrais, ceux qui s'la donnaient, je le reconnais Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais ouais ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Un, deux, ça c'est pour le flow MC qui vaut des milliards, j'suis unique, à mort les clones J'reste l'icône, roule avec le top J'ai baisé l'instru, Gen pose un flow aiguisé Déguisés, y a trop de chanteurs qui l'sont Elle va les épuiser, abusé, la miss a trop d'maîtrise Une chanteuse parmi des millions, un diamant sur le sillon Un volcan dans l'océan Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Sur ce putain d'son Sur ce putain d'son, yeah, c'est la miss Sur ce putain d'son Un diamant sur le sillon, un volcan dans l'océan Sur ce putain d'son Tu l'sais, hein, hein, sur ce putain d'son Sur ce putain d'son Baccardi Pit, Gen Renard, et tu l'sais C'est l'remix 2006, Baccardi Pit, Première Classe Hit Partners, Men X Large J'suis l'seul à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangsta</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yo Pit, j'fais tellement tourner dmeufs Qu'on m'dit darrêter mon cinéma La bouzni aux mèches rousses Qu'j'ai pisté en loucedé, kiffe sur moi J'ai joué les lovers, tu sais comment j'suis sournois Pardi elle est d'jà r'parti dans la partie Comme si j'avais promis lparadis Vu son putain dtar-pé, j'vais pas râler mardi Pour elle ça va pas tarder, enfin cest c'qu'elle m'a dit Say yo my man Ah ouai cette meuf là, elle jouera dmes boules comme des dés Pit marque son territoire, caresse ctte meuf là pour moi, Hill Tu vois la bell bamboula, elle a un joli boul hein ? J'crois qu'on tient le bon bout, la belle poule J'lance un poulain, moi j'suis trop l'macro, l'ancien Jamais en chien d'gos, regarde le siège arrière d'ma Lancia Ch'vaux sous l'capot, excités comme des étalons, des pur-sangs Si on ken pas suce, ce s'ra toujours ça Défais mon fute, ma ture-cein Tu fais la go dure, j'espère au moins que t'as des purs seins Sous ta combinaison en cuir fin Check, elles m'appellent Hill yo Si t'es dans Time Bomb pour les gos c'est facile yo You might also like Je fais le mal comme x personne ne peut le faire C'est caille-ra jusqu'au Dim, tu m'connais Ouai je tchatche, j'suis perforant, en plus j'suis super fort en rap J'suis performant, j'fais des perfs, c'ness-bi c'est mon taf J'déconne 10 fois moins qu'avant J't'étonne dis-moi fils, comment il m'semble que tu m'jalouses En loucedé je fais mon business Des mcs bidons qui stressent, parlent sur nous mais laisse papy Le Pit ne blague pas sur la 7K Avec mon pote Puccino, on représente la Time Bomb clique On me nomme O.X.M.O., classé X tel les men Élément mal aimant, antipathique, flippe ta race Bad jusqu'à l'os, bosse pour être le boss des mcs T'opposer si t'as osé, j'vise Quand j'prends le mic j'assure un max avec un minimum On dit qu'ton mac sent pas bon Mini, t'es qu'un p'tit bonhomme Nommé Oxmo, l'intestable au plus haut poste Je veux dominer, black sans cheveux gominés au top J'ai d'la matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Minute mec, il semble que tu sois médisant envers mon crew Mes 10 ans d'avance entre mon leust et le tien Quoi ? Ils parlent sur le crew ? Quand j'lève mon gun au top comme Tom Cruise Ils parlent de paix et s'la jouent zulu Mais où vas-tu toi ? J'te tue moi Lève tes fesses, tu pues toi Je sens aux alentours une sale odeur de putain S'il t'reste une bombe rajoute le time, voici l'nom d'ma clique Les autres crew on les renverse comme les états en Afrique x2 Round 1, quand je prends le mic Trop d'mcs tout d'un coup on le trac Tu chômes ducon, tu trouves cheum qu'on t'explose en rime Qu'on ait plus de leust que toi, c'est du Time Bomb Forcé d'évacuer la salle, c'est comme de l'explosif Trop d'souffle, trop d'mcs souffrent Grossiste en rap, tu veux des mots ? J'te sers en kilos Oxmo et Pit, dealers de mots, maîtrisent leur biz Écoute bien, j'leur dis 2 mots à tous ces jaloux Je pisse sur leurs têtes rouées de coups Je m'en fous de c'qu'ils pensent Pot d'Häagen-Dazs de rimes, ice creaminel, Miles Davis Ils font qu'incester tes vices espèce de fils de que dalle Fais gaffe à ta gueule, j'ferme pas ma gueule Dans mon posse Time Bomb on parle pas pour rien Nous sommes les fines gueules Nous sommes plus fous qu'les gees, donne-moi des bisous Ton gars il joue à quoi ? J'ai plus de bijoux qu'lui, moi je brille x2</t>
+          <t>Yo Pit, j'fais tellement tourner dmeufs Qu'on m'dit darrêter mon cinéma La bouzni aux mèches rousses Qu'j'ai pisté en loucedé, kiffe sur moi J'ai joué les lovers, tu sais comment j'suis sournois Pardi elle est d'jà r'parti dans la partie Comme si j'avais promis lparadis Vu son putain dtar-pé, j'vais pas râler mardi Pour elle ça va pas tarder, enfin cest c'qu'elle m'a dit Say yo my man Ah ouai cette meuf là, elle jouera dmes boules comme des dés Pit marque son territoire, caresse ctte meuf là pour moi, Hill Tu vois la bell bamboula, elle a un joli boul hein ? J'crois qu'on tient le bon bout, la belle poule J'lance un poulain, moi j'suis trop l'macro, l'ancien Jamais en chien d'gos, regarde le siège arrière d'ma Lancia Ch'vaux sous l'capot, excités comme des étalons, des pur-sangs Si on ken pas suce, ce s'ra toujours ça Défais mon fute, ma ture-cein Tu fais la go dure, j'espère au moins que t'as des purs seins Sous ta combinaison en cuir fin Check, elles m'appellent Hill yo Si t'es dans Time Bomb pour les gos c'est facile yo Je fais le mal comme x personne ne peut le faire C'est caille-ra jusqu'au Dim, tu m'connais Ouai je tchatche, j'suis perforant, en plus j'suis super fort en rap J'suis performant, j'fais des perfs, c'ness-bi c'est mon taf J'déconne 10 fois moins qu'avant J't'étonne dis-moi fils, comment il m'semble que tu m'jalouses En loucedé je fais mon business Des mcs bidons qui stressent, parlent sur nous mais laisse papy Le Pit ne blague pas sur la 7K Avec mon pote Puccino, on représente la Time Bomb clique On me nomme O.X.M.O., classé X tel les men Élément mal aimant, antipathique, flippe ta race Bad jusqu'à l'os, bosse pour être le boss des mcs T'opposer si t'as osé, j'vise Quand j'prends le mic j'assure un max avec un minimum On dit qu'ton mac sent pas bon Mini, t'es qu'un p'tit bonhomme Nommé Oxmo, l'intestable au plus haut poste Je veux dominer, black sans cheveux gominés au top J'ai d'la matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Minute mec, il semble que tu sois médisant envers mon crew Mes 10 ans d'avance entre mon leust et le tien Quoi ? Ils parlent sur le crew ? Quand j'lève mon gun au top comme Tom Cruise Ils parlent de paix et s'la jouent zulu Mais où vas-tu toi ? J'te tue moi Lève tes fesses, tu pues toi Je sens aux alentours une sale odeur de putain S'il t'reste une bombe rajoute le time, voici l'nom d'ma clique Les autres crew on les renverse comme les états en Afrique x2 Round 1, quand je prends le mic Trop d'mcs tout d'un coup on le trac Tu chômes ducon, tu trouves cheum qu'on t'explose en rime Qu'on ait plus de leust que toi, c'est du Time Bomb Forcé d'évacuer la salle, c'est comme de l'explosif Trop d'souffle, trop d'mcs souffrent Grossiste en rap, tu veux des mots ? J'te sers en kilos Oxmo et Pit, dealers de mots, maîtrisent leur biz Écoute bien, j'leur dis 2 mots à tous ces jaloux Je pisse sur leurs têtes rouées de coups Je m'en fous de c'qu'ils pensent Pot d'Häagen-Dazs de rimes, ice creaminel, Miles Davis Ils font qu'incester tes vices espèce de fils de que dalle Fais gaffe à ta gueule, j'ferme pas ma gueule Dans mon posse Time Bomb on parle pas pour rien Nous sommes les fines gueules Nous sommes plus fous qu'les gees, donne-moi des bisous Ton gars il joue à quoi ? J'ai plus de bijoux qu'lui, moi je brille x2</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eh yo, Inter You're crazy for this one, hombre geah You're crazy for this one, I told you Trust me, trust me, trust me yeah , Dosseh, Le Moine, Max, Amougou FBI, FC, la famille Baccardi La famille au pays, Mvog-Ada et tu l'sais Nkolndongo, JPP, Bastos, Elig-Essono on est là - Hé, LAL - Ouais, Pit ? - On va leur show qu'on est les plus forts, man - Gars, le poisson pourrit par la tête - Imbattables jusqu'à la mort - On va leur show, on va leur show - Tu peux pas test' - Tu n'peux pas test', ah-han - Un lion ne meurt pas, il dort, haha, empire - C'est le sang à l'il, César Charp Si on s'connecte comme Okocha et Amokachi Wallaye, ça devient technique, l'rap français en train d'agoniser Il est en train de reboire ce qu'il avait déjà pissé oh la la Ça devient comme l'histoire de cette fille qui a eu un bébé au lycée Tout l'monde pensait que c'était d'ma faute parce que j'étais Le premier à la frapper comme Sunday Oliseh SSS sale, sage, sauvage, j'reste Un d'ces négros du ghetto, j'regarde tous les regards J'montre mes montres et les autres pompent mes pompes Peut-être que t'aimes mon flow sûrement parce que t'es à l'aise dans l'eau Comme ceux qui ont grandi dans le pays d'Bongo Laisse, mes autres ex, c'est des Z Et ont d'quoi t'mettre la vie sens dessus dessous, ouais Nos ennemis sont tendres comme les madésus, fuck les sushis Mes négros parlent nouchi, s'habillent en Gucci Écoutent les dernières sélections d'boucheries Mélange pas des goûts d'chicos et le bullshit J'suis avec une sista qui parle lari, j'la laisse choisir tout dans la boutique OK, miss, prends, prends c'que tu veux Mec, on bosse, faux papiers, faux chèques, faux airs d'boss J'viens juste d'être éjecté d'la chaise électrique comme Drou Ma mère continue d'trouver qu'j'suis beau comme tout oh la la Toujours en place, j'viens d'une des races les plus craintes Dans les corps à corps, dans les affaires 15 millions d'habitants, quart-de-finaliste de la Coupe du monde 4 Coupes d'Afrique, haaa, négro, les Camer' yeah Demande à Cédric, petit frère, on fabrique On frappe comme les prises électriques On prend l'argent à chaque sortie comme le périphérique han Paris, London, Oslo, ma diaspora prend de l'ampleur slow-slow Interpol a peur et est en stress oh la la Comme un jour de l'an où personne n'a l'heure La police d'Europe nous meurt, déterminés, on reste Je chante pour quand on pleure, pour ces nuits où tu peux compter qu'sur ton cur J'en aurais buté pour devenir un MC réputé La rue m'a appelé LAL, El Commandante Pit m'a dit Tu sais, l'argent, c'est que dalle que dalle J'lui ai répondu Normal, on a le mental You might also like C'est pour mon pays, c'est pour tous ceux qui veulent nous shoots On rebondira toujours comme des balles de foot Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted J'demande pas, j'me permets, voilà ma différence J'fais des crimes sous X, mon rapport avec le rap est pornographique Quand j'débarque, c'est pour tout baiser yeah Comme une rumeur, Baccardi, c'est énigmatique D'la génération classique genre Illmatic Dans mon sang, un mélange de vert, de rouge, de jaune Ma merde n'est pas faite pour les WC mais la couche d'ozone Moi, j'aime le rap charismatique comme LAL KO sont ses détracteurs après son mic-check, le renoi fait M.A.L Appelle-moi euro, j'fuck le dollar, j'suis toujours au-dessus Mes dos sont bloqués en Suisse ou dans une colombo À la rime épicée, c'est pas la chaude pisse Mais mon rap qui t'fait crier quand tu vas pisser À la voix, tu sais qui c'est J'ai fondé empire après PC tu l'sais J'suis l'macaque venu dans l'hip-hop en charter sans récépissé J'ai récité des versets pour les mecs de cité Un des rares à avoir lu le certificat d'authenticité J'vis pas la misère, j'la fais, la merde, j'l'ai fructifiée T'y arrives pas ? C'est pour ça qu'ton style pue Qui c'est qui parle ? De moi, on veut s'débarrasser Rap cocaïne, haha, pour ça qu'j'suis toujours pisté M'attrister parce qu'on m'insulte ? non J'en vois pas la nécessité Bis c'est pour comprendre pourquoi j'suis sollicité ah-han L'histoire, j'la raconte pas, j'la fais Dans l'rap, j'ai du crédit, si t'es en galère, bipe-moi et j'te rappelle yeah Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Ce qui nous définit, primo, c'est le mental C'est pour ça qu'on nous appelle les indomptables Dans votre rap game, on devient incontournable On est l'aéroport, la piste de l'aéroport, là où tout l'monde atterrit Rien n'se passera sans nous, les Camer' What up? Haha, what up? Incontournables comme un ndjoka du Katios Big up</t>
+          <t>Eh yo, Inter You're crazy for this one, hombre geah You're crazy for this one, I told you Trust me, trust me, trust me yeah , Dosseh, Le Moine, Max, Amougou FBI, FC, la famille Baccardi La famille au pays, Mvog-Ada et tu l'sais Nkolndongo, JPP, Bastos, Elig-Essono on est là - Hé, LAL - Ouais, Pit ? - On va leur show qu'on est les plus forts, man - Gars, le poisson pourrit par la tête - Imbattables jusqu'à la mort - On va leur show, on va leur show - Tu peux pas test' - Tu n'peux pas test', ah-han - Un lion ne meurt pas, il dort, haha, empire - C'est le sang à l'il, César Charp Si on s'connecte comme Okocha et Amokachi Wallaye, ça devient technique, l'rap français en train d'agoniser Il est en train de reboire ce qu'il avait déjà pissé oh la la Ça devient comme l'histoire de cette fille qui a eu un bébé au lycée Tout l'monde pensait que c'était d'ma faute parce que j'étais Le premier à la frapper comme Sunday Oliseh SSS sale, sage, sauvage, j'reste Un d'ces négros du ghetto, j'regarde tous les regards J'montre mes montres et les autres pompent mes pompes Peut-être que t'aimes mon flow sûrement parce que t'es à l'aise dans l'eau Comme ceux qui ont grandi dans le pays d'Bongo Laisse, mes autres ex, c'est des Z Et ont d'quoi t'mettre la vie sens dessus dessous, ouais Nos ennemis sont tendres comme les madésus, fuck les sushis Mes négros parlent nouchi, s'habillent en Gucci Écoutent les dernières sélections d'boucheries Mélange pas des goûts d'chicos et le bullshit J'suis avec une sista qui parle lari, j'la laisse choisir tout dans la boutique OK, miss, prends, prends c'que tu veux Mec, on bosse, faux papiers, faux chèques, faux airs d'boss J'viens juste d'être éjecté d'la chaise électrique comme Drou Ma mère continue d'trouver qu'j'suis beau comme tout oh la la Toujours en place, j'viens d'une des races les plus craintes Dans les corps à corps, dans les affaires 15 millions d'habitants, quart-de-finaliste de la Coupe du monde 4 Coupes d'Afrique, haaa, négro, les Camer' yeah Demande à Cédric, petit frère, on fabrique On frappe comme les prises électriques On prend l'argent à chaque sortie comme le périphérique han Paris, London, Oslo, ma diaspora prend de l'ampleur slow-slow Interpol a peur et est en stress oh la la Comme un jour de l'an où personne n'a l'heure La police d'Europe nous meurt, déterminés, on reste Je chante pour quand on pleure, pour ces nuits où tu peux compter qu'sur ton cur J'en aurais buté pour devenir un MC réputé La rue m'a appelé LAL, El Commandante Pit m'a dit Tu sais, l'argent, c'est que dalle que dalle J'lui ai répondu Normal, on a le mental C'est pour mon pays, c'est pour tous ceux qui veulent nous shoots On rebondira toujours comme des balles de foot Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted J'demande pas, j'me permets, voilà ma différence J'fais des crimes sous X, mon rapport avec le rap est pornographique Quand j'débarque, c'est pour tout baiser yeah Comme une rumeur, Baccardi, c'est énigmatique D'la génération classique genre Illmatic Dans mon sang, un mélange de vert, de rouge, de jaune Ma merde n'est pas faite pour les WC mais la couche d'ozone Moi, j'aime le rap charismatique comme LAL KO sont ses détracteurs après son mic-check, le renoi fait M.A.L Appelle-moi euro, j'fuck le dollar, j'suis toujours au-dessus Mes dos sont bloqués en Suisse ou dans une colombo À la rime épicée, c'est pas la chaude pisse Mais mon rap qui t'fait crier quand tu vas pisser À la voix, tu sais qui c'est J'ai fondé empire après PC tu l'sais J'suis l'macaque venu dans l'hip-hop en charter sans récépissé J'ai récité des versets pour les mecs de cité Un des rares à avoir lu le certificat d'authenticité J'vis pas la misère, j'la fais, la merde, j'l'ai fructifiée T'y arrives pas ? C'est pour ça qu'ton style pue Qui c'est qui parle ? De moi, on veut s'débarrasser Rap cocaïne, haha, pour ça qu'j'suis toujours pisté M'attrister parce qu'on m'insulte ? non J'en vois pas la nécessité Bis c'est pour comprendre pourquoi j'suis sollicité ah-han L'histoire, j'la raconte pas, j'la fais Dans l'rap, j'ai du crédit, si t'es en galère, bipe-moi et j'te rappelle yeah Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Ce qui nous définit, primo, c'est le mental C'est pour ça qu'on nous appelle les indomptables Dans votre rap game, on devient incontournable On est l'aéroport, la piste de l'aéroport, là où tout l'monde atterrit Rien n'se passera sans nous, les Camer' What up? Haha, what up? Incontournables comme un ndjoka du Katios Big up</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pit au mic shh shh Ärsenik Tu l'sais It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time J'mets l'truc si haut que tous les BBoys au micro crient yo yo V'là qu'j'suis au retour en 88 Enfile tes lacets fluos et ton gros sweat Le beat tourne à la suite On s'nique les omoplates Electric boogie On les plies à l'eau plate Éclate le parquet, et dis On est beaucoup en teddy Les rares sous écrous veulent la jouer Rock Steady Trou on est tous unis dans la zone Moi c'est Turbo et toi c'est Ozone Le truc c'est paix, amour, unité Superstars aux pieds, on tricks en communauté On commet, on a la sueur et les break beats Rock spit, Lino, Calbo Bors, Pit How, quitte à s'tirer les locks vite, paw! On les intoxe comme au Roxy J'vais cartonner d'entrée Baccardi Pit j'aime représenter J'suis peut-être pas connu, jusqu'à London Mais j'suis connu comme Pit, au microphone Jadis l'affiche étais gratuite J'rappais avec des mecs sur la ligne 8, Starter, Bobby ensuite Nos héros étaient , Public Enemy, Rakim, et Run DMC You might also like It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Moi j'commence en comme a-ç Tchik tchik, tout passe Passe en face, j'pousse, l'as en preum's classe Place, écarte le cercle Ça va , les soupes au lait ou bien, vas-y coupez les Dah dah, ah donc C'était comme ça À l'époque quand on bougeait y'avait pas d'lope-sa Enchaine, ça casse, passe à l'autre vas-y brille maintenant Ya c'est naze bidon tema Seulement cou cou hou hou ha Tout en sueur T'étais content quand tu sortais Et qu't'avais sué d'la buée, d'la bave Grave des halls jusqu'aux caves, fumée d'bédave La concierge gueule la vieille poucave Maintenant c'est viole, cambriole, plus d'cabrioles La gnole c'est tout nombreux dans la fiole Malgré ça on est encore là pour broyer l'beat C'est Baccardi Pit, du un on revient, on fout la merde À mille à l'heure, mordu d'belles reprises nous voilà Old school, mais, toujours bien à l'aise J'rappe, c'est typiquement technique Pit, bloque là sur violent break beat Peace and love, dans le même esprit On s'pavane, black sais qu't'es rien sans bandana Le B, le A, deux C, A, R, D, I, le A tréma, le P, le C Ça c'est nous Ça c'est nous It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Déjà dancehall, avant l'époque Big Pop-pa Zoulou breakait ou the Rock Base Hop, rock, H, I, P, H, O, P, poche à mise sur l'côté On danse, ça s'clash, dispatche, pichenette t'es bouche bée Peter s'prend aux portes du Globo et Bataclan Trech boy et quin-reu arrivée en boîte en clan Des claques se perdent et à la Fontaine des Innocents Châtelet, Gare du Nord, on croisait des mecs en sang Micro test, han Reste à envoyer l'son Lino en guest, han La foule se manifeste Range ton canifeste Ouest avant qu' infestent Les villes, les rues, les ruelles comme dans la manif En test, ça part Les gosses braillent ce truc c'est tout c'qui nous reste ! Et j'veux ma part, ma veste, elle a trois bandes Mes pompes aussi, pompe le beat Didi J'hausse le ton, ambiance des pocees J'dépose mon rencard et mets mon cash, j'suis payé Sur l'beat j'suis ton-car avant qu'on vienne chopper yeah Ok ça tourne, vrille comme la toupie Affole toutes les groupies Invente de nouvelles phases Dans mon crew on manque pas d'toupet Heiiin ça vote pour griller nos plans Aaah sur Paname y'a plus un seul mur blanc C'est zing zang, zing sang sang Pour l'A,R,S,E,N,I,K et te pille à l'ancienne It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time</t>
+          <t>Pit au mic shh shh Ärsenik Tu l'sais It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time J'mets l'truc si haut que tous les BBoys au micro crient yo yo V'là qu'j'suis au retour en 88 Enfile tes lacets fluos et ton gros sweat Le beat tourne à la suite On s'nique les omoplates Electric boogie On les plies à l'eau plate Éclate le parquet, et dis On est beaucoup en teddy Les rares sous écrous veulent la jouer Rock Steady Trou on est tous unis dans la zone Moi c'est Turbo et toi c'est Ozone Le truc c'est paix, amour, unité Superstars aux pieds, on tricks en communauté On commet, on a la sueur et les break beats Rock spit, Lino, Calbo Bors, Pit How, quitte à s'tirer les locks vite, paw! On les intoxe comme au Roxy J'vais cartonner d'entrée Baccardi Pit j'aime représenter J'suis peut-être pas connu, jusqu'à London Mais j'suis connu comme Pit, au microphone Jadis l'affiche étais gratuite J'rappais avec des mecs sur la ligne 8, Starter, Bobby ensuite Nos héros étaient , Public Enemy, Rakim, et Run DMC It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Moi j'commence en comme a-ç Tchik tchik, tout passe Passe en face, j'pousse, l'as en preum's classe Place, écarte le cercle Ça va , les soupes au lait ou bien, vas-y coupez les Dah dah, ah donc C'était comme ça À l'époque quand on bougeait y'avait pas d'lope-sa Enchaine, ça casse, passe à l'autre vas-y brille maintenant Ya c'est naze bidon tema Seulement cou cou hou hou ha Tout en sueur T'étais content quand tu sortais Et qu't'avais sué d'la buée, d'la bave Grave des halls jusqu'aux caves, fumée d'bédave La concierge gueule la vieille poucave Maintenant c'est viole, cambriole, plus d'cabrioles La gnole c'est tout nombreux dans la fiole Malgré ça on est encore là pour broyer l'beat C'est Baccardi Pit, du un on revient, on fout la merde À mille à l'heure, mordu d'belles reprises nous voilà Old school, mais, toujours bien à l'aise J'rappe, c'est typiquement technique Pit, bloque là sur violent break beat Peace and love, dans le même esprit On s'pavane, black sais qu't'es rien sans bandana Le B, le A, deux C, A, R, D, I, le A tréma, le P, le C Ça c'est nous Ça c'est nous It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Déjà dancehall, avant l'époque Big Pop-pa Zoulou breakait ou the Rock Base Hop, rock, H, I, P, H, O, P, poche à mise sur l'côté On danse, ça s'clash, dispatche, pichenette t'es bouche bée Peter s'prend aux portes du Globo et Bataclan Trech boy et quin-reu arrivée en boîte en clan Des claques se perdent et à la Fontaine des Innocents Châtelet, Gare du Nord, on croisait des mecs en sang Micro test, han Reste à envoyer l'son Lino en guest, han La foule se manifeste Range ton canifeste Ouest avant qu' infestent Les villes, les rues, les ruelles comme dans la manif En test, ça part Les gosses braillent ce truc c'est tout c'qui nous reste ! Et j'veux ma part, ma veste, elle a trois bandes Mes pompes aussi, pompe le beat Didi J'hausse le ton, ambiance des pocees J'dépose mon rencard et mets mon cash, j'suis payé Sur l'beat j'suis ton-car avant qu'on vienne chopper yeah Ok ça tourne, vrille comme la toupie Affole toutes les groupies Invente de nouvelles phases Dans mon crew on manque pas d'toupet Heiiin ça vote pour griller nos plans Aaah sur Paname y'a plus un seul mur blanc C'est zing zang, zing sang sang Pour l'A,R,S,E,N,I,K et te pille à l'ancienne It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Interdiction formelle d'être âme sensible Une pit sensible c'est comme une femme sans faible, pour moi impossible Meurtre en milliers ça c'est fort possible d'être Font paraître ex-voto à mon effigie Avec mes textes, très tôt, on me prenait déjà pour un diable Putain, ramène ta clique pas grave C'que j'ai dans l'bloc, c'est pire J'en ai dans l'fut pour foutre le souk, j'ai tout dans le sac J'suis de PC, je pisse sur biz et Si t'as pas compris qu'j't'emmerde tu peux repisser J'étais classé six trois fois ça m'a pas empêché de finir numéro un Cette fois-ci, on constate que mes crimes c'est de sang-froid Qui est le prochain, que le ciel le bénisse Qu'il jouisse une dernière fois Si extravagant, j'en ferai un extravagin C'est de l'égotrip, pas de mégot j'trippe à jeun L'enjeu est de retourner le rap et d'activer les troupes, kiffe Pit au mic, tape-t-en cinq si ça t'excite Je sais que t'as la trique On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route You might also like Dans le' rap, c'est plus fort que moi, quand j'entends plus fort que moi Il faut que je fasse toujours plus fort pour qu'on mise le prix fort sur moi Quand je vois un mic j'le déchire, même les chieurs ont peur de moi Ils s'passent le mot, Il est trop fort j't'assure Je joue avec les M-O-T-S pour enlever les M-A-U-X en moi J'ai fait ma route avec O-X-M-O Essuie ta couille connard, t'as le calcif qui mouille On dirait un sale F, ma poule, j'peux dire que dans les Fnac ça s'grouille Ils disent Baccardi t'as pris la grosse tête Je leur dis Impossible, j'l'ai, depuis j'suis gosse j'me la pète Non, mais j'pète toujours, quand j'pète une go Mon attitude reste la même que toi pendant les cinq dernières secondes Tu me traites de chien, j'accepte, de bâtard, j'accepte Mais est-ce qu'en m'écoutant, t'appuies Eject ? Alors ta gueule On n'a pas deux chances, j'en ai eu qu'une j'ai su la saisir Faut qu'tu comptes avec moi qu'ça t'fasse plaisir ou pas On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route Anti anti-bamboula, crache sur les babs nantis qui nous boumelanent rac-ptou Tu veux savoir mon style de rap, j'rappe tout C'est Pit au risque de t'vexer, ou de copser ta go De crisper ta vie, d'baiser ta gueule, bref, homme de situation On m'a laissé commencer cru, obligé d'finir ainsi sinon c'est cuit Qui a eu l'idée de donner la parole à un Pit? J'suis ail et piment, cru et saignant, diable et seigneur Armé de lyrics qu'est-ce qu'y a maintenant je trouve ma aya technique Pique ou nique mon style, on reconnaitra toujours la signature de Pit au mic J'ai juste à apposer les mots juxtaposer les trucs à ma façon Fissa s'est fait, passe en gros dans le Groove Tu ne m'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront qu'c'est le truc tant attendu Tu n'm'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront que c'est le truc tant attendu J'm'étends plus sur l'étendue qu'a mon buzz étendu Possee Première Classe on s'rend compte qu'y a pas besoin de compte-rendu J'compte rendre du rap de Pit aux putes qui penseraient qu'j'me serais rendu Mais un grand service elles m'ont rendu Baccardi Pit, les rappeurs de Première Classe 99 compte avec moi S.O.L.O. Pit jusqu'à la mort Jusqu'à la mort Baccardi Pit, les rappeurs de Première Classe Compte avec moi que tu l'veuilles ou pas shoote toutes les têtes sur ma route</t>
+          <t>Interdiction formelle d'être âme sensible Une pit sensible c'est comme une femme sans faible, pour moi impossible Meurtre en milliers ça c'est fort possible d'être Font paraître ex-voto à mon effigie Avec mes textes, très tôt, on me prenait déjà pour un diable Putain, ramène ta clique pas grave C'que j'ai dans l'bloc, c'est pire J'en ai dans l'fut pour foutre le souk, j'ai tout dans le sac J'suis de PC, je pisse sur biz et Si t'as pas compris qu'j't'emmerde tu peux repisser J'étais classé six trois fois ça m'a pas empêché de finir numéro un Cette fois-ci, on constate que mes crimes c'est de sang-froid Qui est le prochain, que le ciel le bénisse Qu'il jouisse une dernière fois Si extravagant, j'en ferai un extravagin C'est de l'égotrip, pas de mégot j'trippe à jeun L'enjeu est de retourner le rap et d'activer les troupes, kiffe Pit au mic, tape-t-en cinq si ça t'excite Je sais que t'as la trique On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route Dans le' rap, c'est plus fort que moi, quand j'entends plus fort que moi Il faut que je fasse toujours plus fort pour qu'on mise le prix fort sur moi Quand je vois un mic j'le déchire, même les chieurs ont peur de moi Ils s'passent le mot, Il est trop fort j't'assure Je joue avec les M-O-T-S pour enlever les M-A-U-X en moi J'ai fait ma route avec O-X-M-O Essuie ta couille connard, t'as le calcif qui mouille On dirait un sale F, ma poule, j'peux dire que dans les Fnac ça s'grouille Ils disent Baccardi t'as pris la grosse tête Je leur dis Impossible, j'l'ai, depuis j'suis gosse j'me la pète Non, mais j'pète toujours, quand j'pète une go Mon attitude reste la même que toi pendant les cinq dernières secondes Tu me traites de chien, j'accepte, de bâtard, j'accepte Mais est-ce qu'en m'écoutant, t'appuies Eject ? Alors ta gueule On n'a pas deux chances, j'en ai eu qu'une j'ai su la saisir Faut qu'tu comptes avec moi qu'ça t'fasse plaisir ou pas On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route Anti anti-bamboula, crache sur les babs nantis qui nous boumelanent rac-ptou Tu veux savoir mon style de rap, j'rappe tout C'est Pit au risque de t'vexer, ou de copser ta go De crisper ta vie, d'baiser ta gueule, bref, homme de situation On m'a laissé commencer cru, obligé d'finir ainsi sinon c'est cuit Qui a eu l'idée de donner la parole à un Pit? J'suis ail et piment, cru et saignant, diable et seigneur Armé de lyrics qu'est-ce qu'y a maintenant je trouve ma aya technique Pique ou nique mon style, on reconnaitra toujours la signature de Pit au mic J'ai juste à apposer les mots juxtaposer les trucs à ma façon Fissa s'est fait, passe en gros dans le Groove Tu ne m'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront qu'c'est le truc tant attendu Tu n'm'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront que c'est le truc tant attendu J'm'étends plus sur l'étendue qu'a mon buzz étendu Possee Première Classe on s'rend compte qu'y a pas besoin de compte-rendu J'compte rendre du rap de Pit aux putes qui penseraient qu'j'me serais rendu Mais un grand service elles m'ont rendu Baccardi Pit, les rappeurs de Première Classe 99 compte avec moi S.O.L.O. Pit jusqu'à la mort Jusqu'à la mort Baccardi Pit, les rappeurs de Première Classe Compte avec moi que tu l'veuilles ou pas shoote toutes les têtes sur ma route</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hein, une pensée pour ma mère, Ibrahim Lo Reposez en paix, Elie Yaffa revient nous vite C'est Pit au mic Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Via Paris pour Marseille ciel des parcés C'est yam à Pit des parcelles Sel des terres pour moi de Sarcelles à Vitry On me connait juste sur Mix Tapes Quitter la rue pour cliquer le mic Les types se tapent pour me piquer mon dû Mon dieu, tu m'as fait orphelin, j'en morfle Je crains la mort, félin dans l'âme J'ai la hargne maintenant que je sais C'est ça qu'il faut pour grailler cracher Tout ce qu'on a dans le ventre Du moment que ça vient du cur Chaque jour je gaspille de l'encre On cri on se dispute, entre mecs ça se chipotte On discute pour rien parfois on chicotte A tout ça je dis stop Si j'me hisse au top c'est ce que j'vise J'avise aux loosers que le fric choppe Que les autres pochent et que le hip hop N'a pas le temps des retardataires Tu vois si j'ai tord ma mère tu m'observes de là-haut Baigner les traitres qui m'entourent Y'a tourment dans le rap aujourd'hui De Massilia à Paris, il y a masse quand il y a ma mafia You might also like Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Mon cul j'essaie mon cerveau Faux pas pour avoir servi du shit Je traîne des mois ça tire tous mes projets aux chiottes Non d'un chien j'ai pigé tard mieux que jamais Que l'art de manier la rime pourrait m'emmener loin car Dans ma vie j'ai jamais eu la hargne comme partenaire Je porte l'honneur de ma famille trahi par la plupart Telle est la dure loi à laquelle je me suis fait Je dois ma réussite à personne si ce n'est à moi SI je crois au rap aujourd'hui Maudits soient ceux qui mal y pensent Magie et miracle c'est comme les on dit jamais du concret Je suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui me verraient baver Je pisse sur love, y en a pas tant que tu paies pas Je le sais ça, je vie avec En ce qui me concerne je reste toujours fidèle aux miens mec Aujourd'hui ma zic c'est que du kif Et si Dieu le veut putain demain ce sera des plaques fils Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Essaie de piger L'alliance est vissée dans le vice Hisser vos bannières PM du move Move ces thèmes c'est fait pour ceux qu'on aime Le font les vrai la peine dans la haine Nos scènes brisent des chaines Mon rap est fait pour blesser Et laisser des séquelles De la maille c'est qu'elle Vie que j'ai, j'ai juste de quoi m'offrir un bicycle Je suis SOLO C'est hard mais j'y vais pas MOLO Baccardi Pit au mic c'est mielleux MOUILLE truc qui me fait craquer Un pur style venu de nul part qui m'hérisse les poils J'suis un squale T'es squale le podium en tant que one AKA le kamer et fils ça me rend fou Il faut que je me soigne Mes poignards sont dans mes textes Pas dans mes poignets Soigner les plaies qui m'handicapent J'essaie maintenant on me dit cap Sur autre chose fini la firme Je suis apte à toute échéance J'immortalise j'accrois mon écriture Je crois à cette vie après la mort Faut que je pète encore après que mon heure sonne J'affirme ce truc mais je te jure j'ai le trac Trinquer à la réussite d'un projet Chose que je vois d'autres faire Black Mafia, tu sais qu'il y a de quoi faire Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Dédicaces à tous les gars dans le studio Ricky le boss, Khéops, Def Bond aka 00 sex Malek, Freeman, Timebomb, Black Mafia OXMO, Jedi, X-Men, Tonton Mars, Ke-se, Lunatic Mathieu V, mon reuf, place des fêtes Tibo le patron, Yann, la liste est longue La liste est longue</t>
+          <t>Hein, une pensée pour ma mère, Ibrahim Lo Reposez en paix, Elie Yaffa revient nous vite C'est Pit au mic Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Via Paris pour Marseille ciel des parcés C'est yam à Pit des parcelles Sel des terres pour moi de Sarcelles à Vitry On me connait juste sur Mix Tapes Quitter la rue pour cliquer le mic Les types se tapent pour me piquer mon dû Mon dieu, tu m'as fait orphelin, j'en morfle Je crains la mort, félin dans l'âme J'ai la hargne maintenant que je sais C'est ça qu'il faut pour grailler cracher Tout ce qu'on a dans le ventre Du moment que ça vient du cur Chaque jour je gaspille de l'encre On cri on se dispute, entre mecs ça se chipotte On discute pour rien parfois on chicotte A tout ça je dis stop Si j'me hisse au top c'est ce que j'vise J'avise aux loosers que le fric choppe Que les autres pochent et que le hip hop N'a pas le temps des retardataires Tu vois si j'ai tord ma mère tu m'observes de là-haut Baigner les traitres qui m'entourent Y'a tourment dans le rap aujourd'hui De Massilia à Paris, il y a masse quand il y a ma mafia Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Mon cul j'essaie mon cerveau Faux pas pour avoir servi du shit Je traîne des mois ça tire tous mes projets aux chiottes Non d'un chien j'ai pigé tard mieux que jamais Que l'art de manier la rime pourrait m'emmener loin car Dans ma vie j'ai jamais eu la hargne comme partenaire Je porte l'honneur de ma famille trahi par la plupart Telle est la dure loi à laquelle je me suis fait Je dois ma réussite à personne si ce n'est à moi SI je crois au rap aujourd'hui Maudits soient ceux qui mal y pensent Magie et miracle c'est comme les on dit jamais du concret Je suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui me verraient baver Je pisse sur love, y en a pas tant que tu paies pas Je le sais ça, je vie avec En ce qui me concerne je reste toujours fidèle aux miens mec Aujourd'hui ma zic c'est que du kif Et si Dieu le veut putain demain ce sera des plaques fils Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Essaie de piger L'alliance est vissée dans le vice Hisser vos bannières PM du move Move ces thèmes c'est fait pour ceux qu'on aime Le font les vrai la peine dans la haine Nos scènes brisent des chaines Mon rap est fait pour blesser Et laisser des séquelles De la maille c'est qu'elle Vie que j'ai, j'ai juste de quoi m'offrir un bicycle Je suis SOLO C'est hard mais j'y vais pas MOLO Baccardi Pit au mic c'est mielleux MOUILLE truc qui me fait craquer Un pur style venu de nul part qui m'hérisse les poils J'suis un squale T'es squale le podium en tant que one AKA le kamer et fils ça me rend fou Il faut que je me soigne Mes poignards sont dans mes textes Pas dans mes poignets Soigner les plaies qui m'handicapent J'essaie maintenant on me dit cap Sur autre chose fini la firme Je suis apte à toute échéance J'immortalise j'accrois mon écriture Je crois à cette vie après la mort Faut que je pète encore après que mon heure sonne J'affirme ce truc mais je te jure j'ai le trac Trinquer à la réussite d'un projet Chose que je vois d'autres faire Black Mafia, tu sais qu'il y a de quoi faire Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Dédicaces à tous les gars dans le studio Ricky le boss, Khéops, Def Bond aka 00 sex Malek, Freeman, Timebomb, Black Mafia OXMO, Jedi, X-Men, Tonton Mars, Ke-se, Lunatic Mathieu V, mon reuf, place des fêtes Tibo le patron, Yann, la liste est longue La liste est longue</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Illicite projet Sur toi, ce son criminel je projette Hey, check check Medeline, XIXème Hey, hey Sur c'beat ça sent l'acide, quand j'l'ouvre ça fait bang bang négro Et m'voilà most wanted comme à Compton Du son d'champion à la Banton J'rappe comme j'cogne, vas-y abandonne T'aimes ou t'aimes pas, j'm'en tamponne gomm cogne, j'aime les grosses sommes Pures vibes bad boy, en chien d'rimes non, y a maldonne C'est tragique comme le crash d'un Boeing C'est dans la boîte et des fois que le diable me braque Et prenne mon âme XXX immortelle traque Toujours speed, génération frime Cool papa, le ghetto aime ça Quand la zik pue le crime et pour la danse macabre Un seize rimes signé Pit Baccar' quand la rime vire au barbare Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son You might also like Une ambiance lourde de rap douillé, pas douillet T'as compris, un truc pour couillus hey, dans c'beat ça bouillave Bousillés du cerveau, se reconnaîtront dans cette zik Au volant d'un bolide, trois-cent chevaux et plus J'rappe c'est bouillant Explique aux narcos que notre came se bicrave par voie spirituelle Et l'kilogramme par voie respiratoire Illicite jusqu'aux écrits Papa, j'crible la France de mon flow Molotov, des innocents prient J'ai rien à dire aux keufs, man, j'parle qu'en présence de mon avocat J'suis blindé, vous m'aurez pas Ce son c'est pour les mecs d'en-bas qui crient famine, qu'on représente pas L'amour est mort d'un attentat Micmac avec la BAC, man on joue toujours d'la batte, man J'suis bad, man, vrai charisme de black, man Baise l'instru, barbare et crossover Desert Storm, j'ai beau baisser les stores En deux-quatre rimes j'augmente les scores Sortez les cordes qu'on pende les porcs Comprends mes bad games, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son J'écris qu'dans l'incompris, décris les mots et crible la France Des contes de la crypte, mon hip-hop a un sale penchant pour le crime Quand j'castagne, j'ai la trique Toujours une pensée pour l'Afrique Clic clic c'est la mélodie glauque quand y a plus d'fric Il s'dit que Paris est tragique Que dans l'état d'esprit magique quand y a espoir grâce à la zik Que j'assiste au changement sur l'trône Va dire aux autorités que l'rap est de nouveau sur la piste Au mic j'dis que misère fait dire avec le sang J'le dis avec le mic et un lyrics à l'essence J'suis écouté quand récalcitrant est l'style Hostile, j'suis pépère, j'reste en studio, rien que j'assassine Ma vie c'est rap game et adrénaline Partenaire du vice, du diamant sur les bracelets Les bras se lèvent, mec j'suis harcelé Flow hustler Pour prendre le trône, les gars je sens qu'c'est l'heure Hey, changement d'beat Tu l'sais, criminel son, t'as vu Reste pas là mec Interdit aux âmes sensibles XIXème On noie l'poisson comme mon pote Ben Zina Quand débarque la cavalerie c'est la Berezina Anti bâtards et MC en bas résilles Buenos dias de la part du desperado J'veux des liasses, plus avoir les chtars à dos et mettre à l'aise la mille-af Ici on vit l'drame, on s'brise les côtes comme au pugilat J'veux voir les fiottes à terre dès que rugit l'arme Train de vie d'marginal, boy XXX et j'cane man Tu parles mal, signé Baccar' auteur du carnage</t>
+          <t>Illicite projet Sur toi, ce son criminel je projette Hey, check check Medeline, XIXème Hey, hey Sur c'beat ça sent l'acide, quand j'l'ouvre ça fait bang bang négro Et m'voilà most wanted comme à Compton Du son d'champion à la Banton J'rappe comme j'cogne, vas-y abandonne T'aimes ou t'aimes pas, j'm'en tamponne gomm cogne, j'aime les grosses sommes Pures vibes bad boy, en chien d'rimes non, y a maldonne C'est tragique comme le crash d'un Boeing C'est dans la boîte et des fois que le diable me braque Et prenne mon âme XXX immortelle traque Toujours speed, génération frime Cool papa, le ghetto aime ça Quand la zik pue le crime et pour la danse macabre Un seize rimes signé Pit Baccar' quand la rime vire au barbare Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Une ambiance lourde de rap douillé, pas douillet T'as compris, un truc pour couillus hey, dans c'beat ça bouillave Bousillés du cerveau, se reconnaîtront dans cette zik Au volant d'un bolide, trois-cent chevaux et plus J'rappe c'est bouillant Explique aux narcos que notre came se bicrave par voie spirituelle Et l'kilogramme par voie respiratoire Illicite jusqu'aux écrits Papa, j'crible la France de mon flow Molotov, des innocents prient J'ai rien à dire aux keufs, man, j'parle qu'en présence de mon avocat J'suis blindé, vous m'aurez pas Ce son c'est pour les mecs d'en-bas qui crient famine, qu'on représente pas L'amour est mort d'un attentat Micmac avec la BAC, man on joue toujours d'la batte, man J'suis bad, man, vrai charisme de black, man Baise l'instru, barbare et crossover Desert Storm, j'ai beau baisser les stores En deux-quatre rimes j'augmente les scores Sortez les cordes qu'on pende les porcs Comprends mes bad games, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son J'écris qu'dans l'incompris, décris les mots et crible la France Des contes de la crypte, mon hip-hop a un sale penchant pour le crime Quand j'castagne, j'ai la trique Toujours une pensée pour l'Afrique Clic clic c'est la mélodie glauque quand y a plus d'fric Il s'dit que Paris est tragique Que dans l'état d'esprit magique quand y a espoir grâce à la zik Que j'assiste au changement sur l'trône Va dire aux autorités que l'rap est de nouveau sur la piste Au mic j'dis que misère fait dire avec le sang J'le dis avec le mic et un lyrics à l'essence J'suis écouté quand récalcitrant est l'style Hostile, j'suis pépère, j'reste en studio, rien que j'assassine Ma vie c'est rap game et adrénaline Partenaire du vice, du diamant sur les bracelets Les bras se lèvent, mec j'suis harcelé Flow hustler Pour prendre le trône, les gars je sens qu'c'est l'heure Hey, changement d'beat Tu l'sais, criminel son, t'as vu Reste pas là mec Interdit aux âmes sensibles XIXème On noie l'poisson comme mon pote Ben Zina Quand débarque la cavalerie c'est la Berezina Anti bâtards et MC en bas résilles Buenos dias de la part du desperado J'veux des liasses, plus avoir les chtars à dos et mettre à l'aise la mille-af Ici on vit l'drame, on s'brise les côtes comme au pugilat J'veux voir les fiottes à terre dès que rugit l'arme Train de vie d'marginal, boy XXX et j'cane man Tu parles mal, signé Baccar' auteur du carnage</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mais mais mais mais mais t'entends pas ? D.O.N.T.C.H.A Hey, encore un soldat On met la pression garçon Laissez passer la machine de guerre J'veux ouvrir les grandes portes de la gloire, mais elles s'bloquent Et j'en ai marre d'rapper que pour seize blocks Si les accès autour à double tour se ferment J'frapperai dessus à coup de crâne Jusqu'à ce que l'fer me saigne Tu comprends mieux pourquoi j'ai cette sale attitude Ça fait longtemps que j'aurais déjà dû prendre un peu d'altitude J'ai tant de talent, plein d'textes dans l'pantalon D'accord, je suis polyvalent, mais je porterai jamais d'talons C'est bien beau, mais j'veux pas crever en tant qu'grande star Ni baisser le 501, pour être une de ces grandes stars Coincé en enfer, chez Lucifer en personne Pour en sortir j'ai gratté jusqu'à c'que mes vers sonnent Cramant l'cro-mi en style libre et en parlant d'crime J'ai lustré mon blase pour faire briller et mon pseudonyme J'suis appauvri en argent, mais milliardaire en rimes T.C.H.A., T.C.H.A You might also like Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Même si mon armure rouille, j'reste chevalier vaillant De mon sabre je règne, si on m'reille, c'est qu'j'ai été malveillant J'suis prêt à prendre le trône, par un coup d'état Et fait bien gaffe aux débris d'glaces après le coup d'éclat Sur ces pages avec mon sang, j'écris mes paragraphes Et c'est avec rage que j'plante le glaive pour moi et mon staff C'que j'crache viens d'l'estomac et du fond d'mes tripes J'ai une grande gueule j'l'assume car j'l'ai grosse dans l'fond de mon slip On m'a cru enterré, mais j'avais encore une main dehors qui bougeait Quand les asticots bouffaient mon corps J'suis revenu et tout a changé même les bons ont prit du bide À force de tourner en rond le rap français a pris des rides On m'a secoué moi le dragon dans son lagon Maintenant, j'cracherai jusqu'à c'que Paris sente le charbon Cette fois-ci, j'ai mis la bonne dose dans les coups de massue Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha C'est pour les belles chabbies, que j'fais du rap lover Et pour les bons systèmes bass dans les Range Rover J'ai fini d'dire qu'mes mots découpent comme un ciseau Qu'j'suis un schizo et quand je tape, il reste que six os J'dis plus qu'j'fais un tabac, que j'tue comme le tabac C'est naze de dire que ton style pue comme le groupe Abba Si t'as ce genre de phase, révise tes maquettes Jette ta cassette achete des rimes au super market J'ai pas besoin de l'dire, moi on sait qu'j'ai une longue bite Un style de maquereau et qu'tes femmes savent où j'habite Tu disais quoi ? Qu'tu tuais comme hiroshima ? Et qu'ton flow chant-mé pouvais débrider un Chinois ? Ça, c'est moi qui l'ai dit, et c'est au moins y a cinq années La phase est fanée, même pour un gosse de cinquième année Tu dis qu'tes mots sont rapides comme Speedy Gonzales C'est trop pourri ça ! Vas-y MC si tu poses ça-laisse Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha</t>
+          <t>Mais mais mais mais mais t'entends pas ? D.O.N.T.C.H.A Hey, encore un soldat On met la pression garçon Laissez passer la machine de guerre J'veux ouvrir les grandes portes de la gloire, mais elles s'bloquent Et j'en ai marre d'rapper que pour seize blocks Si les accès autour à double tour se ferment J'frapperai dessus à coup de crâne Jusqu'à ce que l'fer me saigne Tu comprends mieux pourquoi j'ai cette sale attitude Ça fait longtemps que j'aurais déjà dû prendre un peu d'altitude J'ai tant de talent, plein d'textes dans l'pantalon D'accord, je suis polyvalent, mais je porterai jamais d'talons C'est bien beau, mais j'veux pas crever en tant qu'grande star Ni baisser le 501, pour être une de ces grandes stars Coincé en enfer, chez Lucifer en personne Pour en sortir j'ai gratté jusqu'à c'que mes vers sonnent Cramant l'cro-mi en style libre et en parlant d'crime J'ai lustré mon blase pour faire briller et mon pseudonyme J'suis appauvri en argent, mais milliardaire en rimes T.C.H.A., T.C.H.A Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Même si mon armure rouille, j'reste chevalier vaillant De mon sabre je règne, si on m'reille, c'est qu'j'ai été malveillant J'suis prêt à prendre le trône, par un coup d'état Et fait bien gaffe aux débris d'glaces après le coup d'éclat Sur ces pages avec mon sang, j'écris mes paragraphes Et c'est avec rage que j'plante le glaive pour moi et mon staff C'que j'crache viens d'l'estomac et du fond d'mes tripes J'ai une grande gueule j'l'assume car j'l'ai grosse dans l'fond de mon slip On m'a cru enterré, mais j'avais encore une main dehors qui bougeait Quand les asticots bouffaient mon corps J'suis revenu et tout a changé même les bons ont prit du bide À force de tourner en rond le rap français a pris des rides On m'a secoué moi le dragon dans son lagon Maintenant, j'cracherai jusqu'à c'que Paris sente le charbon Cette fois-ci, j'ai mis la bonne dose dans les coups de massue Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha C'est pour les belles chabbies, que j'fais du rap lover Et pour les bons systèmes bass dans les Range Rover J'ai fini d'dire qu'mes mots découpent comme un ciseau Qu'j'suis un schizo et quand je tape, il reste que six os J'dis plus qu'j'fais un tabac, que j'tue comme le tabac C'est naze de dire que ton style pue comme le groupe Abba Si t'as ce genre de phase, révise tes maquettes Jette ta cassette achete des rimes au super market J'ai pas besoin de l'dire, moi on sait qu'j'ai une longue bite Un style de maquereau et qu'tes femmes savent où j'habite Tu disais quoi ? Qu'tu tuais comme hiroshima ? Et qu'ton flow chant-mé pouvais débrider un Chinois ? Ça, c'est moi qui l'ai dit, et c'est au moins y a cinq années La phase est fanée, même pour un gosse de cinquième année Tu dis qu'tes mots sont rapides comme Speedy Gonzales C'est trop pourri ça ! Vas-y MC si tu poses ça-laisse Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Baccardi, celui qu'on aime et qu'on déteste Là c'est Ben-J, Jacky et son ghetto guest stars Le bordel vient d'Ges-Gar, ouais j'aime ça Prouver que j'suis le best et que mon son boom dans les XXX Sur l'son des gunshots on danse la valse En place, l'équipe aux falzars remplis de vers sales Basta, c'est nous les mastas, on aime que ça castagne Au microphone, pas d'gangsta, ni d'wanksta C'est juste le Noyau Dur, baisse ta garde Tu morfles, ma rime est bestiale, check ça Y a pas d'rimes câlines, le mouvement chavire Les baltringues s'alignent, t'as pas idée fais pas l'caïd Les vrais j'les ai vus XXX Borsalino s'aligne à mes côtés Calbo localise les fiottes à faire baliser Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Hey, Brown dis-leur J'arrive avec mon commando Eh ouais j'me la raconte, y a du monde derrière mon dos C'est Baccardi, Neg' Marrons, Calbo et Lino T'entends pas? Trop d'pression dans ta sono Wally wally won ay Gunshot, tire pas sur nous, cause pas sur nous Ici c'est trop dangereux, méchant est mon crew Gunshot! J'aime quand ça clashe, j'aime pas les lâches J'aime le one on one au mic et qu'y ait du sang sur l'asphalte Gunshot! C'est trop hardcore, ça pue la mort C'est la guerre au microphone et c'est cool si tu t'en sors Gunshot! Une vraie boucherie, teste pas petit Viens pas dans la cour des grands, c'est par ici la sortie You might also like Donne-leur la putain d'zik et l'public respecte Basique, un beat un mic et j'pète Magique, prête l'oreille quand j'm'agite Crache le seille-o, on raye le son tragique, c'est l'Dur Noyau De quoi il s'agit, d'porter l'maillot et l'tremper Rappelle ton truc de beauf quand on revient moi et mon tord-boyaux Sans ramper, au mic boy opé, comme nos joyaux On brille, voyous on pille le biz C'est putain d'chars contre cailloux Stars des blocs, en vrai tout s'barre fillette Trop barbare, comme planquer la coke dans la layette Trip glauque faya et sur la bonne fréquence Mon hip-hop fait swinguer la délinquance Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Me v'là avec ma clique en tête d'affiche Seul joker à c't heure-ci, le rap biz est en panique Notre zik était en sursis, on acquiesce Noyau Dur réuni, casse des gueules Neg' Marrons, Ärsenik et Pit Baccardi et tu l'sais Le beat est lourd et les MC d'attaque, au mic on fracture On a des lyrics au kilo et ton hip-hop on capture Rap dur, quand le Noyau frappe on blesse et carbure Au flow qui groove au son de la batterie et d'une basse qui sature Tu croyais quoi? Toujours plus nombreux, sache que si guerre il y a Noyau Dur c'est dangereux pour toi et ta familia Méfie-toi Tu crois connaître la machine On sanctionne et les têtes tombent quand le bourreau assassine C'est ça l'rap sec et tout l'monde est là Sens le vent de la vengeance, MC fuis, la sortie demande-la Rendez les clés du mouvement et descends de là Au top j'vais mettre mon putain d'blaze haut comme celui de Mandela Les tes-traî, descendez-les, les envieux, bah pendez-les L'État essaie d'nous fuck mais l'poison, là répandez-le Sans délai le hip-hop on va modeler Et si ça jacte encore en traître chez les cons eh ben pendez-les Le Noyau Dur Ramène le rap haut, XXX la zik est condamnée On me dit Cal', emmène-la Dans ton secteur ou dans ton chaudron Sinon l'truc, on va l'paumer dans les baggys ou les bandanas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Noyau Dur pour les gangstas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Mon hip-hop fait swinguer la délinquance</t>
+          <t>Baccardi, celui qu'on aime et qu'on déteste Là c'est Ben-J, Jacky et son ghetto guest stars Le bordel vient d'Ges-Gar, ouais j'aime ça Prouver que j'suis le best et que mon son boom dans les XXX Sur l'son des gunshots on danse la valse En place, l'équipe aux falzars remplis de vers sales Basta, c'est nous les mastas, on aime que ça castagne Au microphone, pas d'gangsta, ni d'wanksta C'est juste le Noyau Dur, baisse ta garde Tu morfles, ma rime est bestiale, check ça Y a pas d'rimes câlines, le mouvement chavire Les baltringues s'alignent, t'as pas idée fais pas l'caïd Les vrais j'les ai vus XXX Borsalino s'aligne à mes côtés Calbo localise les fiottes à faire baliser Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Hey, Brown dis-leur J'arrive avec mon commando Eh ouais j'me la raconte, y a du monde derrière mon dos C'est Baccardi, Neg' Marrons, Calbo et Lino T'entends pas? Trop d'pression dans ta sono Wally wally won ay Gunshot, tire pas sur nous, cause pas sur nous Ici c'est trop dangereux, méchant est mon crew Gunshot! J'aime quand ça clashe, j'aime pas les lâches J'aime le one on one au mic et qu'y ait du sang sur l'asphalte Gunshot! C'est trop hardcore, ça pue la mort C'est la guerre au microphone et c'est cool si tu t'en sors Gunshot! Une vraie boucherie, teste pas petit Viens pas dans la cour des grands, c'est par ici la sortie Donne-leur la putain d'zik et l'public respecte Basique, un beat un mic et j'pète Magique, prête l'oreille quand j'm'agite Crache le seille-o, on raye le son tragique, c'est l'Dur Noyau De quoi il s'agit, d'porter l'maillot et l'tremper Rappelle ton truc de beauf quand on revient moi et mon tord-boyaux Sans ramper, au mic boy opé, comme nos joyaux On brille, voyous on pille le biz C'est putain d'chars contre cailloux Stars des blocs, en vrai tout s'barre fillette Trop barbare, comme planquer la coke dans la layette Trip glauque faya et sur la bonne fréquence Mon hip-hop fait swinguer la délinquance Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Me v'là avec ma clique en tête d'affiche Seul joker à c't heure-ci, le rap biz est en panique Notre zik était en sursis, on acquiesce Noyau Dur réuni, casse des gueules Neg' Marrons, Ärsenik et Pit Baccardi et tu l'sais Le beat est lourd et les MC d'attaque, au mic on fracture On a des lyrics au kilo et ton hip-hop on capture Rap dur, quand le Noyau frappe on blesse et carbure Au flow qui groove au son de la batterie et d'une basse qui sature Tu croyais quoi? Toujours plus nombreux, sache que si guerre il y a Noyau Dur c'est dangereux pour toi et ta familia Méfie-toi Tu crois connaître la machine On sanctionne et les têtes tombent quand le bourreau assassine C'est ça l'rap sec et tout l'monde est là Sens le vent de la vengeance, MC fuis, la sortie demande-la Rendez les clés du mouvement et descends de là Au top j'vais mettre mon putain d'blaze haut comme celui de Mandela Les tes-traî, descendez-les, les envieux, bah pendez-les L'État essaie d'nous fuck mais l'poison, là répandez-le Sans délai le hip-hop on va modeler Et si ça jacte encore en traître chez les cons eh ben pendez-les Le Noyau Dur Ramène le rap haut, XXX la zik est condamnée On me dit Cal', emmène-la Dans ton secteur ou dans ton chaudron Sinon l'truc, on va l'paumer dans les baggys ou les bandanas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Noyau Dur pour les gangstas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Mon hip-hop fait swinguer la délinquance</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte You might also like Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
+          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tu l'sais 2003, Don't Sleep Kayliah, Baccardi Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Pas là pour baiser l'État mais défoncer les charts Mes prouesses lyricales m'ont aidé à sortir de mon business illégal Des idées colossales, une carrière solo Mal vu par le mouvement hip-hop Parce que j'vis en marge avec mon CL j'fends la nuit À la rescousse d'une pouf' ou d'un pote en galère sur la A86 J'suis pas d'votre famille, la mienne s'appelle Brown Dans c'rap biz, j'ai que mon nom et de mon style j'suis l'père Ça jacte parce que j'rappe pour les femmes On m'dit Pit, dans quoi tu t'enfermes J'ai des comptes à rendre à personne sauf à ma mère J'suis pas là pour la forme, parce que dans l'fond On s'en fout d'l'homme et on retient l'âme, c'est c'qu'y a de plus profond J'ai rêvé d'une vie, aujourd'hui j'vis un rêve C'qui m'énerve dans c'mouvement c'est qu'on s'arrête sur des termes Underground, commercial J'ai dix piges de rap dans la bouteille C'qui m'a fait accrocher c'est une musique Alors lâche-moi la grappe, écoute mon son Sois hip-hop c'que tu veux négro, ça j'm'en fous Moi c'est Baccardi qui t'a fait pleurer sur des chansons J'veux croquer l'monde car j'l'ai été, sans sous You might also like Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris À l'assaut du son, sans souci J'rappe pour les surs, et si j'm'en sors XXX a grandi dans les sous-sols J'ai du plomb dans la bouche, y a trop d'morts à la suite Sans état d'âme, j'les kill à chaque lyrics Sensibles s'abstenir, j'te fais ça en seize Et j'viens décoincer c'rap biz et la musique française Baccardi, un nom déjà en place Tu sais où j'ai fait mes classes, mec J'suis un plasma, avec moi on voit large, j'aime quand ça brille Y a rien qui m'fait peur à part la vie et l'amour, alors Celui qui veut m'test aura son duel à mort Laissez-moi faire mon biz, ne m'classez pas dans vos coups d'cur J'continue d'faire mes disques, j'serai jamais hors-piste J'ai la zik dans l'sang, j'suis pas zoulou pour les sous Venez pas m'saoul', j'ai pas la haine, jusqu'ici tout va bien I don't sleep, comme mes potes de Marseille Baccardi la fin, c'est pas demain la veille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Nos curs Sont remplis de haine Ils se referment sur eux-mêmes On oublie les vraies valeurs Pourtant J'ai tant de choses à dire Que je ne peux retenir Comme quand j'étais petite fille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Les choses changent Les choses ne sont plus pareilles Don't Sleep Kayliah, Baccardi On est là 2003 Ouais, ouais Paris à Marseille Et tu l'sais Don't Sleep Première Classe Family Brown Kayliah</t>
+          <t>Tu l'sais 2003, Don't Sleep Kayliah, Baccardi Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Pas là pour baiser l'État mais défoncer les charts Mes prouesses lyricales m'ont aidé à sortir de mon business illégal Des idées colossales, une carrière solo Mal vu par le mouvement hip-hop Parce que j'vis en marge avec mon CL j'fends la nuit À la rescousse d'une pouf' ou d'un pote en galère sur la A86 J'suis pas d'votre famille, la mienne s'appelle Brown Dans c'rap biz, j'ai que mon nom et de mon style j'suis l'père Ça jacte parce que j'rappe pour les femmes On m'dit Pit, dans quoi tu t'enfermes J'ai des comptes à rendre à personne sauf à ma mère J'suis pas là pour la forme, parce que dans l'fond On s'en fout d'l'homme et on retient l'âme, c'est c'qu'y a de plus profond J'ai rêvé d'une vie, aujourd'hui j'vis un rêve C'qui m'énerve dans c'mouvement c'est qu'on s'arrête sur des termes Underground, commercial J'ai dix piges de rap dans la bouteille C'qui m'a fait accrocher c'est une musique Alors lâche-moi la grappe, écoute mon son Sois hip-hop c'que tu veux négro, ça j'm'en fous Moi c'est Baccardi qui t'a fait pleurer sur des chansons J'veux croquer l'monde car j'l'ai été, sans sous Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris À l'assaut du son, sans souci J'rappe pour les surs, et si j'm'en sors XXX a grandi dans les sous-sols J'ai du plomb dans la bouche, y a trop d'morts à la suite Sans état d'âme, j'les kill à chaque lyrics Sensibles s'abstenir, j'te fais ça en seize Et j'viens décoincer c'rap biz et la musique française Baccardi, un nom déjà en place Tu sais où j'ai fait mes classes, mec J'suis un plasma, avec moi on voit large, j'aime quand ça brille Y a rien qui m'fait peur à part la vie et l'amour, alors Celui qui veut m'test aura son duel à mort Laissez-moi faire mon biz, ne m'classez pas dans vos coups d'cur J'continue d'faire mes disques, j'serai jamais hors-piste J'ai la zik dans l'sang, j'suis pas zoulou pour les sous Venez pas m'saoul', j'ai pas la haine, jusqu'ici tout va bien I don't sleep, comme mes potes de Marseille Baccardi la fin, c'est pas demain la veille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Nos curs Sont remplis de haine Ils se referment sur eux-mêmes On oublie les vraies valeurs Pourtant J'ai tant de choses à dire Que je ne peux retenir Comme quand j'étais petite fille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Les choses changent Les choses ne sont plus pareilles Don't Sleep Kayliah, Baccardi On est là 2003 Ouais, ouais Paris à Marseille Et tu l'sais Don't Sleep Première Classe Family Brown Kayliah</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Y faut que je tabasse, hein ! Je fais mes vocalises, le son fracasse La basse focalise ton esprit, ça te tracasse Ma mafia attise les convoitises en face, tous les petits jeunes Qu'on voit tiz' de la 8.6 Comme Biggie dit tu peux râler no doubt, no diggity Je fais des dégâts la bague au doigt je suis un gars dégourdi Dit donc, tu sais déjà que je suis gaga devant des bigoudis Apte de rondondons pas de baggy jeans on me dit gars au bougon J'ai le béguin pour du rentre-dedans locks'd au cou à la Songoku Hey gars, bigo ton cops' ta go court chez moi telle une tox Boisson Coca pose son sac-à-dos, ses bretelles façon saccadé ça donne San Ku Kaï Sur son cocon puis elle part sans même un coucou Aight ?! Ngomané Awax Freestyle Effa, est-ce que tu connais ? Encore un camer', putain ! C'est Pit au Mic Je marine dans ce truc depuis que je suis gosse, coco T'as vu ton boss téco auprès des miss quand je kick au micro j'ai un dièse, poto Curieux de savoir qui rit de moi quand je tchatche Hache l'échine des traîtres machine à cracher le verbe C'est Pit, ma chère deux mots, ma soeur T'as le Dieu le plus bâtard, ici, quand il se fâche Grosse tête, gros nez, je sais, je suis moche Mais quand elle me bip, c'est pour me piper Je suis macro, trop d'MC accros de mes rimes Appelle-moi qui tu veux je suis dans le bungalow La gogo tient mon bangala Tu bandes à la sonorité de ma voix je mets James Bond à l'eau You might also like Je rigole, t'as vu rien de mauvais Mafia Trece, Pit freestyle spécial du style, àl Les caisses fracassent les charleys attaquent en douce La basse pousse le sample un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Hein ! Ca me déroute un brigadier dans la mafia A.k.a. Le Blackalauréat, c'est moi le K-Fear-a Ecoute ce qu'il dit dans son passage C'est toujours les mêmes propos puisque les brigands sont pas sages J'analyse comme un agrandissement Et partout ça s'enlise dans les arrondissements Y'a plus de leçons Y'a plus de pédagogie Y'a juste des coups de tessons dans l'estomac et des hémorragies Ouais, pour la Brigade, intervention L'échantillon de la 'Gade du 7.5 Quand je suis tressé comme la Mafia il faut que ça pète, zinc' Fredo Je fais peur au plus puriste sur le show futuriste Mon flow naturel complexe même les naturistes Tout ce que je èf c'est simple mais dicté par le BF Si la Gade-Bri, si ma plaque brille c'est pas grâce à l'EDF, non ! C'est grâce au corps à douze têtes Le Man Power Le Marché Noir Nouvelle génération de Black Power On me dit déjà mécontent les gens savent pas, je suis ravi au lit Des raclis en lot, le bide plein de ravioli c'est ça ! Rap violent, violeur d'instru vierges J'élargis les mesures, tu deviens violet hey, tu sniffes le cyanure ? Serge, dis-leur pas besoin de gamberger des heures quand on a de l'aura Sa langue aura de ma euq' ta go dans le sang, string angora Avant pour un slow langoureux c'était la garre-ba au Globo Maintenant c'est A-Speak tu perds tes globules Gobe mon leust fluide comme le Banga Kasimir, direct c'est quasiment du Gloubi-Boulga A-Speak, Mafia Trece DJ Effa Son futuriste Tu dis quoi, maintenant ? C'est qui le prochain ? Bon, t'as la pèche ? Vas-y Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon corps d'armée, avec moi Vous, pour combler mes joies Le microphone pour arme, sache que personne ne m'arrêtera Voici de quoi est fait mon composite Un condensé de rimes sensées cadence chez la Mafia Trece On cesse les parodies son futuriste te mène à l'agonie Projète mon dialecte recèle toutes les chroniques à mon sujet Hip Hop terroriste, j'ai assez d'ypérite verbal Qui ose me rip ? Dans la capitale l'ennemi capitule la pilule ne passe plus Même avec du pili-pili perdu tel le lilliputien Dans un monde qui n'est plus le sien de la concurrence, quoi ? J'en fais la risée, stylo aiguisé J'use de ma dextérité pour la neutraliser Sûr que je l'ai bien visé désormais elle est avisé S'il faut, combat révise tes alliés embuscade codifiée Prête pour la vendetta plus un pas ! Les bras en l'air ! Traqué mic en main, j'ai braqué Le Hip Hop va trinqué épaulé par mon corps d'armée Passe le mic en main à Yannick les païens sont en panique Microphone Check One-Two il marche bien Je me sers du microphone pour sortir de ma vie de chien Je veux pas partir en vrille comme tant de mes reuf' dans le rap je dois percer Je suis lassé de squatter les halls le soir, gars, je suis pressé De presser des centaines de disques, d'avoir du succès Voir la vie en rose, me fair de l'oz' De voir autre chose que mon tié-quar morose grâce à ma prose Je swing sur la basse, pour les MC, hélas Je sors de la pénombre, à présent je fais surface Mon but est fixé, mon ascension amorcée Rien ne pourra freiner l'ascension de mon crew Mafia Trece Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon Hip Hop Mon Hip Hop n'a jamais sévit hors de ma galaxie Le 7.7, Le Mée City Mon éternelle patrie Se corrompt Sous les halls des bât' Les cerveaux Du père des gangsters Qui préconise mon hardcore à leur petits frères Go, on me verra jamais faire le clown à la T.V Pour que mon produit Fasse partie des meilleures ventes au Top-Fifty Ce flow prouve que ma fraction est transcendante Al Primera, Mafia Trece Bop-bop ! Et les wacks décollent Mes rimes dégomment le numéro un des wacks modernes Qui voit tous les jours s'ajouter sur son compte tout plein de zéros Facile d'usurper sa réputation d'MC Dans un pays où le hardcore est reconnu que dans ses ghettos Je compte pas prêcher toute ma vie pour les cités, mon secteur Et laisser l'industrie du Hip Hop sous la main d'usurpateurs Al Primera, 7.7, Le Mée City Mon Hip Hop bop les faux rappeurs Bop bop les wacks</t>
+          <t>Y faut que je tabasse, hein ! Je fais mes vocalises, le son fracasse La basse focalise ton esprit, ça te tracasse Ma mafia attise les convoitises en face, tous les petits jeunes Qu'on voit tiz' de la 8.6 Comme Biggie dit tu peux râler no doubt, no diggity Je fais des dégâts la bague au doigt je suis un gars dégourdi Dit donc, tu sais déjà que je suis gaga devant des bigoudis Apte de rondondons pas de baggy jeans on me dit gars au bougon J'ai le béguin pour du rentre-dedans locks'd au cou à la Songoku Hey gars, bigo ton cops' ta go court chez moi telle une tox Boisson Coca pose son sac-à-dos, ses bretelles façon saccadé ça donne San Ku Kaï Sur son cocon puis elle part sans même un coucou Aight ?! Ngomané Awax Freestyle Effa, est-ce que tu connais ? Encore un camer', putain ! C'est Pit au Mic Je marine dans ce truc depuis que je suis gosse, coco T'as vu ton boss téco auprès des miss quand je kick au micro j'ai un dièse, poto Curieux de savoir qui rit de moi quand je tchatche Hache l'échine des traîtres machine à cracher le verbe C'est Pit, ma chère deux mots, ma soeur T'as le Dieu le plus bâtard, ici, quand il se fâche Grosse tête, gros nez, je sais, je suis moche Mais quand elle me bip, c'est pour me piper Je suis macro, trop d'MC accros de mes rimes Appelle-moi qui tu veux je suis dans le bungalow La gogo tient mon bangala Tu bandes à la sonorité de ma voix je mets James Bond à l'eau Je rigole, t'as vu rien de mauvais Mafia Trece, Pit freestyle spécial du style, àl Les caisses fracassent les charleys attaquent en douce La basse pousse le sample un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Hein ! Ca me déroute un brigadier dans la mafia A.k.a. Le Blackalauréat, c'est moi le K-Fear-a Ecoute ce qu'il dit dans son passage C'est toujours les mêmes propos puisque les brigands sont pas sages J'analyse comme un agrandissement Et partout ça s'enlise dans les arrondissements Y'a plus de leçons Y'a plus de pédagogie Y'a juste des coups de tessons dans l'estomac et des hémorragies Ouais, pour la Brigade, intervention L'échantillon de la 'Gade du 7.5 Quand je suis tressé comme la Mafia il faut que ça pète, zinc' Fredo Je fais peur au plus puriste sur le show futuriste Mon flow naturel complexe même les naturistes Tout ce que je èf c'est simple mais dicté par le BF Si la Gade-Bri, si ma plaque brille c'est pas grâce à l'EDF, non ! C'est grâce au corps à douze têtes Le Man Power Le Marché Noir Nouvelle génération de Black Power On me dit déjà mécontent les gens savent pas, je suis ravi au lit Des raclis en lot, le bide plein de ravioli c'est ça ! Rap violent, violeur d'instru vierges J'élargis les mesures, tu deviens violet hey, tu sniffes le cyanure ? Serge, dis-leur pas besoin de gamberger des heures quand on a de l'aura Sa langue aura de ma euq' ta go dans le sang, string angora Avant pour un slow langoureux c'était la garre-ba au Globo Maintenant c'est A-Speak tu perds tes globules Gobe mon leust fluide comme le Banga Kasimir, direct c'est quasiment du Gloubi-Boulga A-Speak, Mafia Trece DJ Effa Son futuriste Tu dis quoi, maintenant ? C'est qui le prochain ? Bon, t'as la pèche ? Vas-y Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon corps d'armée, avec moi Vous, pour combler mes joies Le microphone pour arme, sache que personne ne m'arrêtera Voici de quoi est fait mon composite Un condensé de rimes sensées cadence chez la Mafia Trece On cesse les parodies son futuriste te mène à l'agonie Projète mon dialecte recèle toutes les chroniques à mon sujet Hip Hop terroriste, j'ai assez d'ypérite verbal Qui ose me rip ? Dans la capitale l'ennemi capitule la pilule ne passe plus Même avec du pili-pili perdu tel le lilliputien Dans un monde qui n'est plus le sien de la concurrence, quoi ? J'en fais la risée, stylo aiguisé J'use de ma dextérité pour la neutraliser Sûr que je l'ai bien visé désormais elle est avisé S'il faut, combat révise tes alliés embuscade codifiée Prête pour la vendetta plus un pas ! Les bras en l'air ! Traqué mic en main, j'ai braqué Le Hip Hop va trinqué épaulé par mon corps d'armée Passe le mic en main à Yannick les païens sont en panique Microphone Check One-Two il marche bien Je me sers du microphone pour sortir de ma vie de chien Je veux pas partir en vrille comme tant de mes reuf' dans le rap je dois percer Je suis lassé de squatter les halls le soir, gars, je suis pressé De presser des centaines de disques, d'avoir du succès Voir la vie en rose, me fair de l'oz' De voir autre chose que mon tié-quar morose grâce à ma prose Je swing sur la basse, pour les MC, hélas Je sors de la pénombre, à présent je fais surface Mon but est fixé, mon ascension amorcée Rien ne pourra freiner l'ascension de mon crew Mafia Trece Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon Hip Hop Mon Hip Hop n'a jamais sévit hors de ma galaxie Le 7.7, Le Mée City Mon éternelle patrie Se corrompt Sous les halls des bât' Les cerveaux Du père des gangsters Qui préconise mon hardcore à leur petits frères Go, on me verra jamais faire le clown à la T.V Pour que mon produit Fasse partie des meilleures ventes au Top-Fifty Ce flow prouve que ma fraction est transcendante Al Primera, Mafia Trece Bop-bop ! Et les wacks décollent Mes rimes dégomment le numéro un des wacks modernes Qui voit tous les jours s'ajouter sur son compte tout plein de zéros Facile d'usurper sa réputation d'MC Dans un pays où le hardcore est reconnu que dans ses ghettos Je compte pas prêcher toute ma vie pour les cités, mon secteur Et laisser l'industrie du Hip Hop sous la main d'usurpateurs Al Primera, 7.7, Le Mée City Mon Hip Hop bop les faux rappeurs Bop bop les wacks</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Ils ont débarqué dans ma vie comme la lumière Aveuglé par la rage et le dégoût À deux doigts de tout laisser au large J'marchais seul sur un boulevard Une main s'tend, un mec me dit perds pas l'Nord J'vois l'monde s'écrouler autour d'moi Le déclin, une vie d'rêve au bout des lèvres Mais les larmes au bout du compte J'crois qu'j'suis né pour prouver La vie c'est une épreuve, j'espère m'en sortir bon élève Dieu m'guide, faudra attendre pour que j'crève On l'a chanté comme si c'était prémédité La bombe explose, largué avec les débris et les débats À moi s'impose une prise de conscience J'n'ai pas d'autre choix que d'prendre mon monde sur les épaules Là j'vis dans l'ennui, marche au clair de lune la nuit Parle avec les astres, l'envie d'vaincre me ronge Me nourris d'rage mais j'maigris J'passe des mixtapes qui claquent à rien, j'vis de clics Et mon ex-meuf est en cloque Tellement dans l'désarroi, j'en oublie qu'une femme porte ma chair Qui n'verra jamais l'jour, aujourd'hui j'en paye le prix Mon frère taffe et moi je chôme Je n'vis qu'pour la mélodie J'vais faire vibrer les villes même dans l'blizzard You might also like D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Et j'écris pour l'oubli, déblate mes vers sales Personne n'écoute mes versets et ça j'l'oublie pas Jusqu'à ce jour où j'croise cette clique de dingue Unis par la famille, la galère et la bringue C'est là qu'pour moi commence l'histoire et Tout l'passé disparaît Réaliser mon album et aujourd'hui, réapparais J'constate l'ampleur d'ma réussite J'suis une âme morte qui ressuscite J'la dois à cinq gars, N'Djigui, Patou, Jacky Ben-J et Mastermind Kenzy Familles N'Djigui, Ebongué, Ebella, Texeira, Loubayi Une chose est sûre, soyez fiers d'vos fils Que mon frère m'en soit témoin si j'suis là c'est grâce à eux Qu'ils aient la protection d'Dieu On construit des rêves, chaque jour on détruit des cauchemars Une brève nouvelle de mon cur J'vous aime comme mes frères et Shanice ma nièce J'vois la vie belle quand j'me plonge dans ses yeux d'velours J'vis à l'endroit, connaissant le revers d'la pièce Dormez en paix, j'serai toujours là à votre réveil Épilogue, j'viens chanter pour les miens La main sur l'cur, les yeux rivés vers le ciel Et si demain j'pars, que personne ne pleure Vous m'perdez pas, voyez en moi votre protecteur D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem</t>
+          <t>D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Ils ont débarqué dans ma vie comme la lumière Aveuglé par la rage et le dégoût À deux doigts de tout laisser au large J'marchais seul sur un boulevard Une main s'tend, un mec me dit perds pas l'Nord J'vois l'monde s'écrouler autour d'moi Le déclin, une vie d'rêve au bout des lèvres Mais les larmes au bout du compte J'crois qu'j'suis né pour prouver La vie c'est une épreuve, j'espère m'en sortir bon élève Dieu m'guide, faudra attendre pour que j'crève On l'a chanté comme si c'était prémédité La bombe explose, largué avec les débris et les débats À moi s'impose une prise de conscience J'n'ai pas d'autre choix que d'prendre mon monde sur les épaules Là j'vis dans l'ennui, marche au clair de lune la nuit Parle avec les astres, l'envie d'vaincre me ronge Me nourris d'rage mais j'maigris J'passe des mixtapes qui claquent à rien, j'vis de clics Et mon ex-meuf est en cloque Tellement dans l'désarroi, j'en oublie qu'une femme porte ma chair Qui n'verra jamais l'jour, aujourd'hui j'en paye le prix Mon frère taffe et moi je chôme Je n'vis qu'pour la mélodie J'vais faire vibrer les villes même dans l'blizzard D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Et j'écris pour l'oubli, déblate mes vers sales Personne n'écoute mes versets et ça j'l'oublie pas Jusqu'à ce jour où j'croise cette clique de dingue Unis par la famille, la galère et la bringue C'est là qu'pour moi commence l'histoire et Tout l'passé disparaît Réaliser mon album et aujourd'hui, réapparais J'constate l'ampleur d'ma réussite J'suis une âme morte qui ressuscite J'la dois à cinq gars, N'Djigui, Patou, Jacky Ben-J et Mastermind Kenzy Familles N'Djigui, Ebongué, Ebella, Texeira, Loubayi Une chose est sûre, soyez fiers d'vos fils Que mon frère m'en soit témoin si j'suis là c'est grâce à eux Qu'ils aient la protection d'Dieu On construit des rêves, chaque jour on détruit des cauchemars Une brève nouvelle de mon cur J'vous aime comme mes frères et Shanice ma nièce J'vois la vie belle quand j'me plonge dans ses yeux d'velours J'vis à l'endroit, connaissant le revers d'la pièce Dormez en paix, j'serai toujours là à votre réveil Épilogue, j'viens chanter pour les miens La main sur l'cur, les yeux rivés vers le ciel Et si demain j'pars, que personne ne pleure Vous m'perdez pas, voyez en moi votre protecteur D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Miskin King. Idyllique deal ! C'est pour negro qui n'ont pas dormi C'est pour negro qui n'ont pas compris . C'est pour negros qui ne sont pas t'es sbires Coup de tete. Bing, tu tombes dans les rings. Ça va pas je vois que t'as les yeux qui ce plissent A la Eastwood Clint, j'ai l'esprit de King, comme Dream mcClean je suis un cogneur type Mon flow sort du coffret, toi t'es démodé comme les groupes de dance Tu peux m'croiser en tournée j'ai pas d'vélo mais pourtant j'fais l'tour de France J'ai cherché ton blaze dans l'dico les seuls synonyme sont soucis crainte et peur Avec mon maillot à poids rouge, ta meuf m'a dit que j'suis l'meilleur grimpeur J'ai fini les Mario c'est pour ça qu'j'ai trop de level Ne me parles pas mal sinon t'auras des séquelles Tu sais que je fais la différence, je viens pas vous la mettre Désolé pour l'attente maintenant je viens changer le game Paris Sud Minute, c'est le nom d'l'album On cartonne, on t'assomme Les français ne font que pondre d'la daube Et ses négros sont d'accord Wilow et Sneaz, on ne parle à personne Sauf à ta pute de meuf quand on l'a textote Vous êtes Lilo Stitch, une bande de bestiole Tu fais du son médiocre pour ça qu'on t'affectionne You might also like Nouvelle époque, Wilow emblème d'une nouvelle école M'appelle me demande de kicker, j'lâche quelques mesures mon pote J'suis de passage, à Paname, je fais une escale Je retourne au pays préparer mon retour. Faire taire les messes basses Jamais reposé, toujours en guerre, en solo. Le rap doit se faire opérer A cheval sur le beat comme le mec de Corée. Vrai comme un frisson sur l'île de Gorée Mon phone sonne plus d'appels qu'un taxiphone FacebookTwitter sur BBM. Tous me demandent à quand l'album ? Ça charbonne, Akwa Palace ou Hilton Appelle-moi le taulier. Je gère des gros biz pendant que tu comptes tes petites sommes Malheureusement, nous n'avons pu avoir le couplet de Dombré Dans ce Rap Fr trop de cleptos. Pour pomper nos flows, faut qu'ils se lèvent tôt GADDAMN, The COOLEGE. Viens pas teste, ton style et tout lège Hassoul ! Trop de Ass Hole. Pas le temps de copiner donc je reste seul... Solodolo Hustle. So Solodolo Hustle ! Notre puissance c'est dans la Cuissance. Qu'on la puise négro dans tout les sens Pillow, Pillow ! Je donne ça Soin demande à Wilow Amsgood copilote. Fronçais c'est la prod qu'on pilote Passe moi un pilon que je Reload, Reload, Reload !1</t>
+          <t>Miskin King. Idyllique deal ! C'est pour negro qui n'ont pas dormi C'est pour negro qui n'ont pas compris . C'est pour negros qui ne sont pas t'es sbires Coup de tete. Bing, tu tombes dans les rings. Ça va pas je vois que t'as les yeux qui ce plissent A la Eastwood Clint, j'ai l'esprit de King, comme Dream mcClean je suis un cogneur type Mon flow sort du coffret, toi t'es démodé comme les groupes de dance Tu peux m'croiser en tournée j'ai pas d'vélo mais pourtant j'fais l'tour de France J'ai cherché ton blaze dans l'dico les seuls synonyme sont soucis crainte et peur Avec mon maillot à poids rouge, ta meuf m'a dit que j'suis l'meilleur grimpeur J'ai fini les Mario c'est pour ça qu'j'ai trop de level Ne me parles pas mal sinon t'auras des séquelles Tu sais que je fais la différence, je viens pas vous la mettre Désolé pour l'attente maintenant je viens changer le game Paris Sud Minute, c'est le nom d'l'album On cartonne, on t'assomme Les français ne font que pondre d'la daube Et ses négros sont d'accord Wilow et Sneaz, on ne parle à personne Sauf à ta pute de meuf quand on l'a textote Vous êtes Lilo Stitch, une bande de bestiole Tu fais du son médiocre pour ça qu'on t'affectionne Nouvelle époque, Wilow emblème d'une nouvelle école M'appelle me demande de kicker, j'lâche quelques mesures mon pote J'suis de passage, à Paname, je fais une escale Je retourne au pays préparer mon retour. Faire taire les messes basses Jamais reposé, toujours en guerre, en solo. Le rap doit se faire opérer A cheval sur le beat comme le mec de Corée. Vrai comme un frisson sur l'île de Gorée Mon phone sonne plus d'appels qu'un taxiphone FacebookTwitter sur BBM. Tous me demandent à quand l'album ? Ça charbonne, Akwa Palace ou Hilton Appelle-moi le taulier. Je gère des gros biz pendant que tu comptes tes petites sommes Malheureusement, nous n'avons pu avoir le couplet de Dombré Dans ce Rap Fr trop de cleptos. Pour pomper nos flows, faut qu'ils se lèvent tôt GADDAMN, The COOLEGE. Viens pas teste, ton style et tout lège Hassoul ! Trop de Ass Hole. Pas le temps de copiner donc je reste seul... Solodolo Hustle. So Solodolo Hustle ! Notre puissance c'est dans la Cuissance. Qu'on la puise négro dans tout les sens Pillow, Pillow ! Je donne ça Soin demande à Wilow Amsgood copilote. Fronçais c'est la prod qu'on pilote Passe moi un pilon que je Reload, Reload, Reload !1</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte You might also like Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
+          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yeah, Brasco La voix du sous-sol Bombattak 2 0 0 6 Empire C'est Pit au mic El Matador Original Bombattak Les pieds sur starting block, sanglante est l'époque Star ou pas star rien à foutre tu t'tais j'te fuck Poésie urbaine dans son côté glauque Aux portes d'Armageddon les faibles finiront en loques Le paradis c'est ce qu'on en fait l'enfer c'est ce que je fuis Vivre, c'est savoir qu'on a rien vécu J'ai la fibre artistique, celle du monde plutôt assassine Alors laisse moi rapper les passions sur ces notes de musique L'affrontement est quotidien d'ici à mon continent Et si je meurs au combat ma voie est XXX continue J'ose dur le vrai, et quand j'touche c'est magique Joies, révoltes et drames c'est ça qui nourrit ma zic Quand les portes du pénitencier s'ferment, à mes gars s'ouvre un autre monde Et quand je leur parle XXX Aussi à bout ils me disent morale du Viet-Cong alors qu'ils se détrompent On ne tue pas un éléphant en lui coupant la trompe Moi j'écris les cris internes S'ils veulent en faire c'est que la paix a fait son temps malgré les accords de l'OTAN Et quand mon stylo tremble c'est pour dire man Qu'ici bas on vit dans l'état d'urgence Visages meurtris triste déclinaison du bonheur En sursis la mort vient nous chercher dans les tours On brandit l'arme pour être paisible, détruire pour être crédible Trop bon, trop con y'a que toi qui le sais pas Y'a que toi qui le sais pas DJ Dimé Bombattak You might also like Brasco L'empire Bombattak J'voulais une vie de rêve sans réaliser les cauchemars J'ai connu l'argent sale à cause d'elle j'ai les poches noires Elle en fait des couches tard, des apprentis gangsters Plein d'oseille pendant que mon taff me paye en lance-pierre On se perd dans la drogue et l'alcool Mes petits frères braquent ta diligence comme les Daltons c'est hardcore La rue t'tues à p'tit feu ça blague pas Mate la génération dormir dehors sans matelas Y'a la télé-réalité près de chez moi c'est la folie Lascar Académie le gagnant finit à Fleury Putain je viens de loin et toi tu viens de quel coin ? J'ai fait comme toi quitté mon bled pour devenir quelqu'un Ici c'est une autre galère le mal n'a pas d'heure LÉtat n'a que de la gueule et sa justice n'a pas dils J'te parle de banlieue Nord, Sud, Est, Ouest Et Paris la nuit on fait ce qu'on peut même si c'est pas Miami Han Brasco, Matador, Baccardi Pit C'est Pit au mic J'dessine une fresque du monde enfin ce qu'il en reste Parce qu'ici c'est le non-sens qui nous tient en laisse J'combats contre rien, j'm'en bats la race moi j'vis J'aggripe le mic' et XXX Rien de pessimiste dans mes dires Réalise la vérité n'est pas que dans les livres La mort j'ai appris son vrai sens dans la vie Elevé aux drames mieux qu'ici dans l'environnement je survis On réagit dans le rouge, on rougit avec le groove Allez dire à l'homme que son déclin c'est dans sa manière de faire qu'il se trouve En ce moment les héros ne font plus recette, Belzébuth la schneck XXX Lis moi ses versets Judaïsme l'Islam, plus de guerre de religion Perception utopique de ce que devrait être le monde Seuls les morts connaissent la fin du combat Et là, entend juste le bruit des curs qui battent El Matador Brasco, Baccardi Pit Original Bombattak OK La vie attriste laisse des cicatrices, acteurs actrices actifs Environnement social ou politique nie la crise Souvent te tombent dessus les flics à 10 Ici le pire des coups s'imagine aller chercher la maille à Miami Comme Tommy Mani ici c'est hami L'amitié rallie car l'Etat nous l'a mise Verbal tsunami, faire la révolution tous unanimes Treillis kaki hardcore indicatif Ici la misère s'en bat les couilles que tu caprices Que des règlements de comptes, fusils à pompe, cagoules et Ducati Loin du système éducatif les juges en libre arbitre Les petits chouravent vite les jeunes ont vite gravi le béton vitamine En guise de bâton de dynamite, ambiance psychiatrique Papi faut la vie d'artiste toujours finaliste Black beurre comme la coupe d'Afrique Les pneus dans les virages crissent, chaînes qui brillent sous la chemise Classique comme Vivaldi, 2Pac ou BIG Info départ même pour les plus rapides La note est salée pour une délinquance dure à cuire On a viré le Titanic si notre avenir est dur à vivre El Matador Okay Original Bombattak Yeah Gringe C.H.I à la prod Okay eh yeah J'collectionne les péchés mortels, j'peux plus rétrograder en 4e Les ailes brûlées j'chui tombé de haut comme l'ange Gabriel Mélange de bien et de mal et j'fais d'une pierre deux coups Et mon plus grand méfait nage encore dans ma paire de couilles 'parait que ma jeunesse est musée de prétextes Un de plus à rouler des joints gros comme des fusées de détresse Désabusé depuis l'école Sale gosse salement éjaculé v'nu pomper sur ton spliff comme sur un puits de pétrole Lil dilaté j'décole et j'fuis le décor Écope d'une vie ratée bien loin des hommes et toutes leurs simagrées Moins perspicace, beaucoup de Whisky dans le bénitier J'traine où les fils de pute portent l'uniforme et le permis de chasse Et j'reste au front avant le rideau final J'écris des textes profonds sur mon lit d'hôpital Moi j'rêve d'une femme avec des couilles Capable d'élever la relève une fois ma putain de dépouille dans les flammes Yeah Gringe</t>
+          <t>Yeah, Brasco La voix du sous-sol Bombattak 2 0 0 6 Empire C'est Pit au mic El Matador Original Bombattak Les pieds sur starting block, sanglante est l'époque Star ou pas star rien à foutre tu t'tais j'te fuck Poésie urbaine dans son côté glauque Aux portes d'Armageddon les faibles finiront en loques Le paradis c'est ce qu'on en fait l'enfer c'est ce que je fuis Vivre, c'est savoir qu'on a rien vécu J'ai la fibre artistique, celle du monde plutôt assassine Alors laisse moi rapper les passions sur ces notes de musique L'affrontement est quotidien d'ici à mon continent Et si je meurs au combat ma voie est XXX continue J'ose dur le vrai, et quand j'touche c'est magique Joies, révoltes et drames c'est ça qui nourrit ma zic Quand les portes du pénitencier s'ferment, à mes gars s'ouvre un autre monde Et quand je leur parle XXX Aussi à bout ils me disent morale du Viet-Cong alors qu'ils se détrompent On ne tue pas un éléphant en lui coupant la trompe Moi j'écris les cris internes S'ils veulent en faire c'est que la paix a fait son temps malgré les accords de l'OTAN Et quand mon stylo tremble c'est pour dire man Qu'ici bas on vit dans l'état d'urgence Visages meurtris triste déclinaison du bonheur En sursis la mort vient nous chercher dans les tours On brandit l'arme pour être paisible, détruire pour être crédible Trop bon, trop con y'a que toi qui le sais pas Y'a que toi qui le sais pas DJ Dimé Bombattak Brasco L'empire Bombattak J'voulais une vie de rêve sans réaliser les cauchemars J'ai connu l'argent sale à cause d'elle j'ai les poches noires Elle en fait des couches tard, des apprentis gangsters Plein d'oseille pendant que mon taff me paye en lance-pierre On se perd dans la drogue et l'alcool Mes petits frères braquent ta diligence comme les Daltons c'est hardcore La rue t'tues à p'tit feu ça blague pas Mate la génération dormir dehors sans matelas Y'a la télé-réalité près de chez moi c'est la folie Lascar Académie le gagnant finit à Fleury Putain je viens de loin et toi tu viens de quel coin ? J'ai fait comme toi quitté mon bled pour devenir quelqu'un Ici c'est une autre galère le mal n'a pas d'heure LÉtat n'a que de la gueule et sa justice n'a pas dils J'te parle de banlieue Nord, Sud, Est, Ouest Et Paris la nuit on fait ce qu'on peut même si c'est pas Miami Han Brasco, Matador, Baccardi Pit C'est Pit au mic J'dessine une fresque du monde enfin ce qu'il en reste Parce qu'ici c'est le non-sens qui nous tient en laisse J'combats contre rien, j'm'en bats la race moi j'vis J'aggripe le mic' et XXX Rien de pessimiste dans mes dires Réalise la vérité n'est pas que dans les livres La mort j'ai appris son vrai sens dans la vie Elevé aux drames mieux qu'ici dans l'environnement je survis On réagit dans le rouge, on rougit avec le groove Allez dire à l'homme que son déclin c'est dans sa manière de faire qu'il se trouve En ce moment les héros ne font plus recette, Belzébuth la schneck XXX Lis moi ses versets Judaïsme l'Islam, plus de guerre de religion Perception utopique de ce que devrait être le monde Seuls les morts connaissent la fin du combat Et là, entend juste le bruit des curs qui battent El Matador Brasco, Baccardi Pit Original Bombattak OK La vie attriste laisse des cicatrices, acteurs actrices actifs Environnement social ou politique nie la crise Souvent te tombent dessus les flics à 10 Ici le pire des coups s'imagine aller chercher la maille à Miami Comme Tommy Mani ici c'est hami L'amitié rallie car l'Etat nous l'a mise Verbal tsunami, faire la révolution tous unanimes Treillis kaki hardcore indicatif Ici la misère s'en bat les couilles que tu caprices Que des règlements de comptes, fusils à pompe, cagoules et Ducati Loin du système éducatif les juges en libre arbitre Les petits chouravent vite les jeunes ont vite gravi le béton vitamine En guise de bâton de dynamite, ambiance psychiatrique Papi faut la vie d'artiste toujours finaliste Black beurre comme la coupe d'Afrique Les pneus dans les virages crissent, chaînes qui brillent sous la chemise Classique comme Vivaldi, 2Pac ou BIG Info départ même pour les plus rapides La note est salée pour une délinquance dure à cuire On a viré le Titanic si notre avenir est dur à vivre El Matador Okay Original Bombattak Yeah Gringe C.H.I à la prod Okay eh yeah J'collectionne les péchés mortels, j'peux plus rétrograder en 4e Les ailes brûlées j'chui tombé de haut comme l'ange Gabriel Mélange de bien et de mal et j'fais d'une pierre deux coups Et mon plus grand méfait nage encore dans ma paire de couilles 'parait que ma jeunesse est musée de prétextes Un de plus à rouler des joints gros comme des fusées de détresse Désabusé depuis l'école Sale gosse salement éjaculé v'nu pomper sur ton spliff comme sur un puits de pétrole Lil dilaté j'décole et j'fuis le décor Écope d'une vie ratée bien loin des hommes et toutes leurs simagrées Moins perspicace, beaucoup de Whisky dans le bénitier J'traine où les fils de pute portent l'uniforme et le permis de chasse Et j'reste au front avant le rideau final J'écris des textes profonds sur mon lit d'hôpital Moi j'rêve d'une femme avec des couilles Capable d'élever la relève une fois ma putain de dépouille dans les flammes Yeah Gringe</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Les poings se lèvent pendant que j'fais vibrer la dance-hall Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau J'vois la rue comme un champ de mines Des noirs et des beurs qui tombent et s'noient dans des bains de sang, la routine J'imagine la fin du film, des mères en sanglots, des émeutes dans tous les angles, je chante l'espoir sur la platine C'est la crise qui tue tant d'hommes Et les flics ont bousillé tant d'âmes, ce qui va se passer est classé hors norme Le ghetto veut vivre libre, on est mal barré Faudrait-il stopper avec cette utopie ? Moi j'y crois et je donne la force, un brin d'espoir dans un zeste de mélancolie J'suis un mec du peuple, j'connais les causes de ces voitures en feu Les raisons de ces émeutes, et de ces révoltes face aux agents, cette abondance d'illicite Et j'peux te dire que peu de dealers ou de braqueurs s'en félicitent C'est tout ce qu'il y a comme solution, on veut tous briller Negro, mais à quel prix? You might also like On m'a donné la parole, donc laissez-moi chanter M'exprimer au nom des enfants des cités La voix du ghetto j'me suis proclamé La voix d'un milieu défavorisé Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau Le mal de vivre reste permanent Trouver les résolutions devient imminent Et je m'demande encore combien de temps Avant que ne réagisse ce putain de gouvernement Ca crame et le feu ne fait que s'attiser Ca dégénère, vous étiez avisés A qui la faute si tout part en couilles? Vous ramasserez les corps au côté des douilles Que les pères et les mères du ghetto gardent espoir Jeunes prenons conscience qu'à nous sera la victoire On a assez souffert dans ces cités dortoirs L'heure de gloire est proche, bientôt la fin du cauchemar Le ghetto pleure mais il n'est jamais trop tard Dans les blocs ca fume et ca cogite les mecs se couchent tard Les flics circulent, les ombres s'effacent dans le blizzard Quand ca va péter, faudra pas dire c'est bizarre Ghetto, enfant du ghetto On vient tendre la perche à ceux qui veulent s'élancer Ghetto, enfant du ghetto On fait chanter, danser les désenchantés Le poids des mots brise les murs du son Pour une évasion de nos tours de bétons Des bas-fonds, des voix s'élèvent, des bras se lèvent, des poings se ferment À nous la victoire! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Les poings se lèvent pendant que j'fais vibrer la dance-hall Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau J'vois la rue comme un champ de mines Des noirs et des beurs qui tombent et s'noient dans des bains de sang, la routine J'imagine la fin du film, des mères en sanglots, des émeutes dans tous les angles, je chante l'espoir sur la platine C'est la crise qui tue tant d'hommes Et les flics ont bousillé tant d'âmes, ce qui va se passer est classé hors norme Le ghetto veut vivre libre, on est mal barré Faudrait-il stopper avec cette utopie ? Moi j'y crois et je donne la force, un brin d'espoir dans un zeste de mélancolie J'suis un mec du peuple, j'connais les causes de ces voitures en feu Les raisons de ces émeutes, et de ces révoltes face aux agents, cette abondance d'illicite Et j'peux te dire que peu de dealers ou de braqueurs s'en félicitent C'est tout ce qu'il y a comme solution, on veut tous briller Negro, mais à quel prix? On m'a donné la parole, donc laissez-moi chanter M'exprimer au nom des enfants des cités La voix du ghetto j'me suis proclamé La voix d'un milieu défavorisé Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau Le mal de vivre reste permanent Trouver les résolutions devient imminent Et je m'demande encore combien de temps Avant que ne réagisse ce putain de gouvernement Ca crame et le feu ne fait que s'attiser Ca dégénère, vous étiez avisés A qui la faute si tout part en couilles? Vous ramasserez les corps au côté des douilles Que les pères et les mères du ghetto gardent espoir Jeunes prenons conscience qu'à nous sera la victoire On a assez souffert dans ces cités dortoirs L'heure de gloire est proche, bientôt la fin du cauchemar Le ghetto pleure mais il n'est jamais trop tard Dans les blocs ca fume et ca cogite les mecs se couchent tard Les flics circulent, les ombres s'effacent dans le blizzard Quand ca va péter, faudra pas dire c'est bizarre Ghetto, enfant du ghetto On vient tendre la perche à ceux qui veulent s'élancer Ghetto, enfant du ghetto On fait chanter, danser les désenchantés Le poids des mots brise les murs du son Pour une évasion de nos tours de bétons Des bas-fonds, des voix s'élèvent, des bras se lèvent, des poings se ferment À nous la victoire! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C'est c'qu'on veut W.O.U.I.L.O Si on veut Avec Pit au M.I.C.R.O Un peu fou Ça sort de l'A.F.R.O.P.O.P Ok Ok C'est c'qu'on veut Si on veut Pit Baccardi Un peu fou On a du cran, malheureusement peu d'temps Comme à l'écran, l'équipe, nos dreams, ma bicrave Et au cas où la cagoule et les gants Dans mon camp, la graine de délinquant La victoire aime l'effort, éloquent Comme l'oseille emmerde vos morales et conseils J'viens gagner, laisser les miettes aux autres mauviettes qui s'plaignent Les fillettes ça reste dans les jupons, sur toute la chanson malhonnête Sur le chemin d'la réussite l'échec est l'meilleur guide Cette flamme m'habite, pour ça que j'brûle tout à chaque titre L'étau s'resserre, on fuit l'état chaotique On veut l'monde à nos pieds couz', quitte à l'prendre en otage Génération parias, fais ton Ave Maria, avec le biz c'est l'mariage La victoire est colorée dans l'pays d'Marianne On fuit la misère man, cette taspé est trop laide J'préfère mettre le prix et m'envoyer en l'air Madame Succès J'ai méprisé l'doute j'lui ai mis un schlass dans l'cou avant qu'il m'jette dans l'trou Cousin, ici on a envie d'tout You might also like C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Envie d'tout, d'm'imprégner partout, d'me faire connaître Et d'sortir de c'trou sans jamais être malhonnête Envie d'faire plaisir à la re-mè, d'voir rentrer la ille-ma Tel est le souhait de chaque être humain Si tu veux savoir celui de percer est le mien Développer mon savoir, pouvoir compter sur les siens J'flirte avec la réussite, regarde, j'l'ai dans mes mains Envie d'décrocher la Lune, envie d'ça depuis qu'j'suis gamin J'voudrais partir sur une île déserte au Soleil Le soir entendre le bruit des vagues qui viennent bercer mon sommeil Epanouir mes envies, là où l'on vit tout se monnaye oh! Les petits d'nos jours, à la bouche, n'ont que le mot seille-o Difficile dans ce cas d'réaliser tous ses rêves L'argent devient une guerre, moi j'suis pour qu'on marque une trêve J'aimerais graver mes désirs sur des milliers d'disques Mais j'oublie pas qu'dans mon quartier ça s'tape pour des billets d'dix C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Pas venu faire d'la figuration, ici que des premiers rôles La merde a un goût amer on en a trop graillé par dépit Pour ça qu'ça pue le souffre dans nos débits, on a les dents longues La langue qui pend, les yeux rouges sang Et quand on débarque c'est sauve qui peut Le temps s'arrête, nous on continue d'tourner Pirates des mots, pour exister obligés d'choquer l'monde Comme American Airlines et Tony, on veut tout nous Si jamais ça rate c'coup-ci, on a d'autres plans pour y retourner J'tiens à laisser mon empreinte, le sceau d'un passage Je sais beaucoup d'entre nous essaient de l'faire en n'étant pas sages C'que j'veux j'l'aurai, mais pour l'instant faut cravache C'est pas grave, j'atteindrai mon but avec plus de rage J'me sens comme un lion enfermé dans une cage Esprit d'un grand homme prisonnier dans l'corps d'un petit sage Avec l'envie d'tout, et ce en héritage La chaleur coule dans mon sang y a du métissage C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout</t>
+          <t>C'est c'qu'on veut W.O.U.I.L.O Si on veut Avec Pit au M.I.C.R.O Un peu fou Ça sort de l'A.F.R.O.P.O.P Ok Ok C'est c'qu'on veut Si on veut Pit Baccardi Un peu fou On a du cran, malheureusement peu d'temps Comme à l'écran, l'équipe, nos dreams, ma bicrave Et au cas où la cagoule et les gants Dans mon camp, la graine de délinquant La victoire aime l'effort, éloquent Comme l'oseille emmerde vos morales et conseils J'viens gagner, laisser les miettes aux autres mauviettes qui s'plaignent Les fillettes ça reste dans les jupons, sur toute la chanson malhonnête Sur le chemin d'la réussite l'échec est l'meilleur guide Cette flamme m'habite, pour ça que j'brûle tout à chaque titre L'étau s'resserre, on fuit l'état chaotique On veut l'monde à nos pieds couz', quitte à l'prendre en otage Génération parias, fais ton Ave Maria, avec le biz c'est l'mariage La victoire est colorée dans l'pays d'Marianne On fuit la misère man, cette taspé est trop laide J'préfère mettre le prix et m'envoyer en l'air Madame Succès J'ai méprisé l'doute j'lui ai mis un schlass dans l'cou avant qu'il m'jette dans l'trou Cousin, ici on a envie d'tout C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Envie d'tout, d'm'imprégner partout, d'me faire connaître Et d'sortir de c'trou sans jamais être malhonnête Envie d'faire plaisir à la re-mè, d'voir rentrer la ille-ma Tel est le souhait de chaque être humain Si tu veux savoir celui de percer est le mien Développer mon savoir, pouvoir compter sur les siens J'flirte avec la réussite, regarde, j'l'ai dans mes mains Envie d'décrocher la Lune, envie d'ça depuis qu'j'suis gamin J'voudrais partir sur une île déserte au Soleil Le soir entendre le bruit des vagues qui viennent bercer mon sommeil Epanouir mes envies, là où l'on vit tout se monnaye oh! Les petits d'nos jours, à la bouche, n'ont que le mot seille-o Difficile dans ce cas d'réaliser tous ses rêves L'argent devient une guerre, moi j'suis pour qu'on marque une trêve J'aimerais graver mes désirs sur des milliers d'disques Mais j'oublie pas qu'dans mon quartier ça s'tape pour des billets d'dix C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Pas venu faire d'la figuration, ici que des premiers rôles La merde a un goût amer on en a trop graillé par dépit Pour ça qu'ça pue le souffre dans nos débits, on a les dents longues La langue qui pend, les yeux rouges sang Et quand on débarque c'est sauve qui peut Le temps s'arrête, nous on continue d'tourner Pirates des mots, pour exister obligés d'choquer l'monde Comme American Airlines et Tony, on veut tout nous Si jamais ça rate c'coup-ci, on a d'autres plans pour y retourner J'tiens à laisser mon empreinte, le sceau d'un passage Je sais beaucoup d'entre nous essaient de l'faire en n'étant pas sages C'que j'veux j'l'aurai, mais pour l'instant faut cravache C'est pas grave, j'atteindrai mon but avec plus de rage J'me sens comme un lion enfermé dans une cage Esprit d'un grand homme prisonnier dans l'corps d'un petit sage Avec l'envie d'tout, et ce en héritage La chaleur coule dans mon sang y a du métissage C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même You might also like Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
+          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>J'suis fait, j'suis grillé, partout où j'vais oh, c'est l'groupe au treillis Trier ceux qui font crari, les faux ça vieillit Marie ma rime aux thunes, Paris m'arrive aux couilles J'en ai ras le cul, la foule des faux-culs m'envahit C'est cuit, j'ai niqué mon QI, niqué ma vie BEP vente, si j'm'en sors bien j'serais p't'être vendeur au 3 Suisses Mortel pour un nègre, sa mère j'préfère kiffer ma galère C'est tout ou rien perdre, j'crois qu'j'en ai pas l'air T'as l'air de dire qu'j'suis pessimiste, comme si j'étais au pénitencier Qui t'a dit qu'j'y étais pas, qu'est-ce que t'en sais ? Prison du cerveau, pour pas qu'il serve aux négros qui servent J'sais même plus, la dernière fois qu'on c'est revu J'en reveux, j'en reviens, du haut du spliff Mais j'nique mes neurones, et monsieur l'histoire du noir devient un gnome J'm'autodétruis, pourquoi ? Faut qu'j'me reprenne Faut qu'on m'apprenne à présent à pas trop traîner La graine de délinquant, ça pousse trop vite Un peu d'KPO-Fesse on retrouve que des macchabés Crime ou rap, les plus faciles moyens de grailler Ou rentrer du boulot baisé d'voir tous ses gosses brailler Encore si j'trouvais un taffe digne, j'pourrais m'y faire mais Pour l'instant c'que j'vois, c'est qu'les portes sont fermées Tu me diras Pourquoi autant de haine cousin ? Regarde autour de toi, ici tout est malsain Le mal s'installe à chaque coin de rue Loin des HLM du 16ème, mon 6ème sens me guide J'suis pas un vendu, je représente les gens du Nord-Sud-Est-Ouest, tant qu'ils restent vrais, nique le reste Tendue est l'ambiance, quand je pense qu'en France Certains donneraient cher pour nous voir pendus Comme les X-men j'ai la vision, oublie tes bijoux et ton vison Surveille ta maison, la plupart des frères perdent la raison Que vas tu faire ? Armageddon arrive, Armageddon arrive fils... You might also like Va chez le médecin, Booba t'a mis dans l'ma-co Cousin malsain, les mcs voici el maquereau Hors du commun, l'cro-ma du cro-mi Crois-moi, crois-y, re-noi moisi, v'là l'chef, le roi comme à Choisy OCB oh qu'c'est bon, roule un joko junky Pas d'boulettes sur mon coste-La, sur mon croco funky Bronche pas mon style fait mal, j'sais y dégage les bronches Rafraîchit comme Vicks, Lunatic pour le 96 Coupe les mcs en tranche, ouvre les portes Écarte les branches comme les chattes miaulent à notre approche Manche, une de perdue pour l'ennemi A nous la brioche, tu chipotes on t'chicote, on t'laisse des biscottes J'aimerais pas être flic, taffer dans l'trom ou aux PTT C'est bidon, c'est naze comme un drive-by en VTT Je suis plutôt M.I.C., genre de mc payé en rimes Fume la sensi dans des gares-ci Garçon, mauvais enfant, mauvaise graine J'm'appelle pas Mathieu pourtant j'ai toujours la haine J'suis toujours à mon poste comme vigipirate Armé d'un micro HF, je suis vigi' puis rap Frérot, t'es bientôt mort comme si t'avais le virus Tu flippes ta race, tu transpires de l'anus, tu saignes des sinus J'm'appelle pas Lunatic pour rien, j'ai plus la raison Évite d'partir en couille, comme j'évite d'aller en prison Fiston tu veux un piston pour faire du cash flow tranquille ? Gratte le papier, jusqu'à qu'tu chies des biftons Sans cash tu finis sous terre sans tes chicots Tristesse, pleurs, sermons, bouquets de coquelicots Nous sommes les mcs qui s'la donnent comme Ziko Lunatic et les tchagas mouillent sous leurs tricots Tricard, c'est comme à Châtelet y'a d'la chatte frère De la place carré jusque dans le RER J'actionne le gun puisqu'il fonctionne Bouge ou j'te sectionne, t'en prends 5 comme les Jackson Oxmo Puccino, mon voisin du 20 moins 1 Un brave gars, un cigare, la balle se prend La tristesse l'abat, le tabac se consume Et j'vois pas mes soucis dans la fumée J'pense à mes combats où j'ai perdu, ceux où j'ai vaincu Ou comment à 20 ans, en avoir 40 de vécu Champs-Elysées, je marche seul comme Jean-Jacques Car j'attends rien d'ces tas d'gens qui parlent d'oi-t en jactant La famille XXX On s'cogne comme un jeu d'billes, on s'nique même si un ... J'fais parti d'ces jeunes qui grandissent tout seuls Peu de fun, beaucoup de peine, gun, Le Pen, coup de gueule Certains craquent deviennent fous, d'autres braquent finissent au trou Quelque soit l'sens qu'on prend Je pense qu'on finit tous dans la même brouette J'parle pas que d'moi mais d'toi aussi, je sais qu'tu sais ici Tu choisis d'en rire devant tes potes, je sais qu'chez toi t'es die Sapristi, quel triste texte, j'essaie d'être gai mais j'écris c'que j'ai Oxmo Puccino Baccardi brise-curs Les chouchous disent que je suis perforant Elles m'appellent marteau-Piter J'suis pas l'as de trèfle ni le bourreau des curs J'suis le briscard, le jeune négro qu'tu peux pas tricard Ma vie le biz, le rap, les meufs Disons que j'aimerais avoir de l'or plein les dents, 24 carats, une Porsche Bé-flam au maximum, montrer que j'ai de la maille Mais laisse tomber, les projets qu'jai me permettront de kiffer plus Disque d'or, black star, Pit connexion Je veux qu'les putes XXX et Mars Vlavo Elle pourront dire v'là le veau Qui a grandi c'est devenu un buf membré comme un taureau J'croise les doigts espérant grailler grâce au rap Pour l'heure j'gratte le papier en attendant les biftons Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes, méfie 1, 2, Time Bomb, L.U.N.A.T.I.C., A.L.I., B.2.O.B.A., le Bridge Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes Méfie-toi de lui de moi, rab-za, re-noi dans ville Délinquance juvénile tirant dans le mille Les deals se font plus faciles, file vers un coin noir Va faire un tour, va voir comment est le cauchemar Top départ chrono, j'suis Ali le vicelard Je suis le plus gros salopard que l'histoire n'ai jamais pu voir Quoi ? Comment ça ? Ne me dit pas que le crime ne paie pas Dis-leur cousin1</t>
+          <t>J'suis fait, j'suis grillé, partout où j'vais oh, c'est l'groupe au treillis Trier ceux qui font crari, les faux ça vieillit Marie ma rime aux thunes, Paris m'arrive aux couilles J'en ai ras le cul, la foule des faux-culs m'envahit C'est cuit, j'ai niqué mon QI, niqué ma vie BEP vente, si j'm'en sors bien j'serais p't'être vendeur au 3 Suisses Mortel pour un nègre, sa mère j'préfère kiffer ma galère C'est tout ou rien perdre, j'crois qu'j'en ai pas l'air T'as l'air de dire qu'j'suis pessimiste, comme si j'étais au pénitencier Qui t'a dit qu'j'y étais pas, qu'est-ce que t'en sais ? Prison du cerveau, pour pas qu'il serve aux négros qui servent J'sais même plus, la dernière fois qu'on c'est revu J'en reveux, j'en reviens, du haut du spliff Mais j'nique mes neurones, et monsieur l'histoire du noir devient un gnome J'm'autodétruis, pourquoi ? Faut qu'j'me reprenne Faut qu'on m'apprenne à présent à pas trop traîner La graine de délinquant, ça pousse trop vite Un peu d'KPO-Fesse on retrouve que des macchabés Crime ou rap, les plus faciles moyens de grailler Ou rentrer du boulot baisé d'voir tous ses gosses brailler Encore si j'trouvais un taffe digne, j'pourrais m'y faire mais Pour l'instant c'que j'vois, c'est qu'les portes sont fermées Tu me diras Pourquoi autant de haine cousin ? Regarde autour de toi, ici tout est malsain Le mal s'installe à chaque coin de rue Loin des HLM du 16ème, mon 6ème sens me guide J'suis pas un vendu, je représente les gens du Nord-Sud-Est-Ouest, tant qu'ils restent vrais, nique le reste Tendue est l'ambiance, quand je pense qu'en France Certains donneraient cher pour nous voir pendus Comme les X-men j'ai la vision, oublie tes bijoux et ton vison Surveille ta maison, la plupart des frères perdent la raison Que vas tu faire ? Armageddon arrive, Armageddon arrive fils... Va chez le médecin, Booba t'a mis dans l'ma-co Cousin malsain, les mcs voici el maquereau Hors du commun, l'cro-ma du cro-mi Crois-moi, crois-y, re-noi moisi, v'là l'chef, le roi comme à Choisy OCB oh qu'c'est bon, roule un joko junky Pas d'boulettes sur mon coste-La, sur mon croco funky Bronche pas mon style fait mal, j'sais y dégage les bronches Rafraîchit comme Vicks, Lunatic pour le 96 Coupe les mcs en tranche, ouvre les portes Écarte les branches comme les chattes miaulent à notre approche Manche, une de perdue pour l'ennemi A nous la brioche, tu chipotes on t'chicote, on t'laisse des biscottes J'aimerais pas être flic, taffer dans l'trom ou aux PTT C'est bidon, c'est naze comme un drive-by en VTT Je suis plutôt M.I.C., genre de mc payé en rimes Fume la sensi dans des gares-ci Garçon, mauvais enfant, mauvaise graine J'm'appelle pas Mathieu pourtant j'ai toujours la haine J'suis toujours à mon poste comme vigipirate Armé d'un micro HF, je suis vigi' puis rap Frérot, t'es bientôt mort comme si t'avais le virus Tu flippes ta race, tu transpires de l'anus, tu saignes des sinus J'm'appelle pas Lunatic pour rien, j'ai plus la raison Évite d'partir en couille, comme j'évite d'aller en prison Fiston tu veux un piston pour faire du cash flow tranquille ? Gratte le papier, jusqu'à qu'tu chies des biftons Sans cash tu finis sous terre sans tes chicots Tristesse, pleurs, sermons, bouquets de coquelicots Nous sommes les mcs qui s'la donnent comme Ziko Lunatic et les tchagas mouillent sous leurs tricots Tricard, c'est comme à Châtelet y'a d'la chatte frère De la place carré jusque dans le RER J'actionne le gun puisqu'il fonctionne Bouge ou j'te sectionne, t'en prends 5 comme les Jackson Oxmo Puccino, mon voisin du 20 moins 1 Un brave gars, un cigare, la balle se prend La tristesse l'abat, le tabac se consume Et j'vois pas mes soucis dans la fumée J'pense à mes combats où j'ai perdu, ceux où j'ai vaincu Ou comment à 20 ans, en avoir 40 de vécu Champs-Elysées, je marche seul comme Jean-Jacques Car j'attends rien d'ces tas d'gens qui parlent d'oi-t en jactant La famille XXX On s'cogne comme un jeu d'billes, on s'nique même si un ... J'fais parti d'ces jeunes qui grandissent tout seuls Peu de fun, beaucoup de peine, gun, Le Pen, coup de gueule Certains craquent deviennent fous, d'autres braquent finissent au trou Quelque soit l'sens qu'on prend Je pense qu'on finit tous dans la même brouette J'parle pas que d'moi mais d'toi aussi, je sais qu'tu sais ici Tu choisis d'en rire devant tes potes, je sais qu'chez toi t'es die Sapristi, quel triste texte, j'essaie d'être gai mais j'écris c'que j'ai Oxmo Puccino Baccardi brise-curs Les chouchous disent que je suis perforant Elles m'appellent marteau-Piter J'suis pas l'as de trèfle ni le bourreau des curs J'suis le briscard, le jeune négro qu'tu peux pas tricard Ma vie le biz, le rap, les meufs Disons que j'aimerais avoir de l'or plein les dents, 24 carats, une Porsche Bé-flam au maximum, montrer que j'ai de la maille Mais laisse tomber, les projets qu'jai me permettront de kiffer plus Disque d'or, black star, Pit connexion Je veux qu'les putes XXX et Mars Vlavo Elle pourront dire v'là le veau Qui a grandi c'est devenu un buf membré comme un taureau J'croise les doigts espérant grailler grâce au rap Pour l'heure j'gratte le papier en attendant les biftons Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes, méfie 1, 2, Time Bomb, L.U.N.A.T.I.C., A.L.I., B.2.O.B.A., le Bridge Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes Méfie-toi de lui de moi, rab-za, re-noi dans ville Délinquance juvénile tirant dans le mille Les deals se font plus faciles, file vers un coin noir Va faire un tour, va voir comment est le cauchemar Top départ chrono, j'suis Ali le vicelard Je suis le plus gros salopard que l'histoire n'ai jamais pu voir Quoi ? Comment ça ? Ne me dit pas que le crime ne paie pas Dis-leur cousin1</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mama c'est dans mon bled, le vrai makossa Massez vos zgegs pendant qu'les gos demandent un mac Où ça ? Avec Poska ici venu de loin Peace à 360 degrés ou de force fissa En plus ça rime avec bonheur, si t'as les cuisses à l'air Honneur au camer donneur l'élite, aka marteau Piter C'est l'amertume au sein des aut' team, de rêve la mienne Tune pour nous, Time Bomb digne d'être au top Car mon scret est sacré, tape m'n 5 J'crée avec les miens, t'aurais jamais cru, un truc trop synchro Agrée à l'institut de haute rapologie, l'I.H.R. ça déchiR Bientôt en rap rapologie A.I.R. chaud, M.I.C.R.O. branché J'passe le mic à Cassidy des X-Men, prends le mic frère C'est pas un scoop, les X-Men débarquent bien d'un soucoupe Mes forces décuplent, tes idées s'télescopent Esquive les putes, les faux potes Pit fais péter l'socle, que j'brise le cycle des fables habituelles Où les frères s'font tous fonce-dé T'écopes d'un séjour de 6 jours dans les caves de la cité Si j'suis zen, quand j'pète les plombs c'est de manière zélé Kahlouch de l'Est délaisse les, gars louches qui sont à l'Ouest Ma vie une fresque, de 76 à 97 Mon crew est là, toujours à l'heure comme Big Ben Cassidinero et Hill synchros, comme des Citizens Le freestyle c'est comme des partouzes On s'partage tous un truc, ici c'est l'cro-mi Mais dans les 2 cas faut rester l'quereau-ma Maint'nant j'laisse des espaces dans mon texte Pour qu'tu puisses souffler, inspire, expire Le rap, un sport pour les hommes forts Oxmo Puccino, prends le r'lais You might also like Quand j'arrive ping rimes ping-pong Et y a des cons qui m'piquent mon style En friment, freestyle pour du fric J'méprise mes ennemis, quand j'écris j'les élimine Mes primes j'économise car j'fais le max avec le minimum Sais-tu c'que c'est que d'êt' le boss ? Un seul but, le succès Bosser, donc buter plus sur nos doss' Poska lève mon bras avant chaque combat d'boxe En boîte, seul mon cd squatte le jukebox Avec Leroy-Boy sur scène j'suis 2 Comme RanXerox, Ox et Rouky Faut qu'ça danse, comme dans l'clip de Puffy et Mase ou Lox Bise au postérieur gauche, l'nom c'est Puccino Ox Black Mafia, Time Bomb Baccardi, pour la Time Bomb, Black Mafia Écoute hein, yeah Je suis de Time Bomb, bambin j'étais au pays du manioc Maint'nant j'manie le mic, hoche mains et tête et p'tite mioche Moche est ma vie Que les mines s'accrochent à mon fute j'm'en fous Envie d'apaisement, j'rap pour l'oseille faut qu'j'pèse nan ? L'épuisement c'est pas dans mon argot Pendant qu'les rares gars pinent leurs gos, je gratte pour les do' Mon fardeau mec, la galère J'ai pas l'air heureux quand j'tchatche et prends ce mic Un bol d'air et un sac d'or, ça f'ra l'affaire pour Pit le camer Langage amer, mec je resterai hardcore jusqu'à la mort À ma mère qui m'guette de là-haut Qu'elle m'excuse de ma cruauté A ciao les putains, les potins du mouv' m'étouffent Une taffe pour m'calmer, t'es ouf L'étoffe même du type clean au mic, c'est Pit Baccardi J'veux qu'ma rime paie, comme le crime J'en ai marre de trimer, c'est pour les miens, rap de flouze Bon faut qu'j'te dise qu'au niveau level au mic c'est chant-mé Je sais qu'j't'inspire, et qu'tes sbires s'barrent de notre histoire Tes chefs chient quand ils narrent nos périples 3 affranchis on s'fait pas ièch' On crèche près d'Porte de Bagnolet Et j'prêche pour qu'les faux s'arrachent J'te lâche un rap brut et j'créé des séismes Toujours l'prems on fait preuve d'héroïsme Et tu clamses, ne m'suis pas Un homme c'est quelqu'un qui s'respecte alors respecte-moi J'm'étends dans l'ciel comme la Voie lactée J'malaxe tes neurones et domine tes cités À l'aube de l'an 2000 j'suis fier de mes racines Digne de la famille Zongo J'trime pour qu'tous les négros signent c'contrat en huit-clos Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé ça c'est ma go moi Eddy Mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis Si tu m'touches, tu vas tellement transpirer Qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs ils grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Trop tard faut qu'je les étripe et les gars flippent J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Je chope le coup d'Eddy, le tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée, un tas d'morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi not' nom c'est Time Bomb, Black Mafia Cassidy des X Zongo Zigzague zdèf comme Ziggy Marley, un zeste maso Je zaye, dehors c'est l'zoo, c'est la zone putain c'est zé' Zoom sur cette zizanie, mais où est donc ma son-mai ? Duplex, mezzanine Mes amis s'animent, les ennemis nous miment, nous singent Au loin 2 sorties d'secours, le rap et le oinj' sacré Comme les cendres qu'on tèj' dans l'fleuve Gange Hifi t'l'a d'jà dit, y a danger, certains cherchent à s'venger Y a qu'une seule part mais tout l'monde veut manger En attendant, j'planifie ma vendetta Détale avant qu'la Black Mafia n'vienne Et n'sème la peine au sein d'ta famille D'instinct méfiant, j'défie l'destin Mon challenge, faire des miens des types biens Un rap céleste, d'où j'tire ce leust X-men maîtrise le cosmos En route pour mon meeting comme dans Get on the bus bis Sais-tu c'que c'est la galère, enculé ? Bah t'en as pas l'air Les gens qui passent chaque jour M'demandent plus si j'ai pas l'heure Tu crois qu'c'est une vie ça ? Dehors quelque soit l'temps Mais faut bien qu'le flouze tombe même si y a l'blizzard En bas les gars tisent, sympathisent faussement Ils s'disent qu'ils bâtissent un empire, mais en fait tous mentent Vu qu'tu gravis les marches et t'élargis, te marginalises Du ze-dou au 5.20, t'es au kilo en 5-5 Les belles caisses bluffent les badauds Pendant qu'les jeunes ados bandent Tant qu'les chaines en or pendent jusqu'aux abdos Les flics, ils d'viennent des voisins, les voisins des flics On reste méfiants vis-à-vis de chaque type qui défile Et les filles, faut les laisser, pas l'temps pour palper mec Mêler la monnaie et les nénés ? Mais t'es malade Vu qu'les syndicats du shit se chient d'ssus G C'est sûr qu'si demain t'assures un gars te sectionne Ces barbes d'herbe, t'en fais ça marche Une nuit c'est toi qu'on braque, merde Les 10 plaques s'perdent si les gars blaguent pas Les comptes se règlent entre clans Tous se plantent en même temps Les mères lâchent des flaques de larmes Devant les flaques de sang L'un des seuls biz où t'as pas d'piston Compte sur personne pour faire des biftons Chauffe ton shit comme un cuistot, arme à la poche t'es l'boss La mère alarmée reconnait plus son gosse Elle dit Non, c'est pas mon fiston Nos vies s'limitent au hall shit home J'rap pas pour le hip hop mais pour mes types J'suis Oxmo Puccino Yeah Baccardi, Cassidy, O.X.M.O., Leroy-Boy, Ali, Mars Vlavo Marc, DJ Poska yeah pour la mafia hein, Pit au mic gars Intervention dans l'track, trop de Marc Dutroux Je crée, j'te sors du rap fresh Les Pitchers de mèche avec mes ennemis jactent Chaque minute est précieuse, ma nette impression Pit connexion, c'est plus qu'du rêve Non, plus du bicrave pour moi Trop sournois ce milieu, mon frère J'voudrais finir ma pauvre vie en belle villa Mon style est clean, clone-le, le clown se s'ra toi pas moi Je sens autour de moi une sale odeur de putain Rap de flouze, mate ma bouche sois en témoin Y a 2 ans connard tu m'traiterais de vaurien Maint'nant j'ai une caboche remplie de textes carrés T'es taré d'vouloir me test' Une marée d'sang sur toi c'est navrant Les mcs craquent trop, se braquent, voudraient ma tête Un titan, Pit en rap c'est c'que je rêve d'êt' Si tu m'suis lève ton poing, avec les miens C'est Time Bomb, Black Mafia Ici c'est Cassidy qui t'cause, fini la pause Kit Kat Sous la 8.6 tes neurones s'battent et s'font un 4x4 Ton esprit bande, s'braque, la Heineken te frappe sec Résultat mec, flemme de ken, mal de crâne, peine Mais d'instinct j'suis relax au mic et je bannis le stress Mon zgeg s'dresse, parce que j'suis strong comme ma té-ci Ta langue s'délie sans délai, t'avoues tes crimes, tu t'crames Avec ton corps, les RG s'font des descentes de lit Ici pas de bluff mais que du neuf, quoi d'neuf Hill ? Jamais hors-piste, j'groove, du feeling, pas b'soin de bibine Trop d'flûtes ou trop d'flics, trop d'promesses J'ai pas d'caisse, pas d'fric, j'lutte c'est ça qui m'dégoûte Bientôt les espèces, viendront remplir mon sac Eastpack Les grosses putes jactent sur mon dos Me courent après mais n'sont qu'des culs-de-jatte La bière j'm'en bats, le joint m'suffit pour danser la samba Cassidy, Oxmo et Pit en 9.7, hein On dit qu'j'ai du style qui est trop frappant J'casse les murs rien qu'en rappant Les mecs viennent fiers en courant Puis partent en civière ou en rampant Pire que 8 8.6, 10 whiskies, 5 biscuits T'es si die quand tu marches, les gars disent Tu slalomes en ski Nique les civils et leurs civils, j'suis l'sale homme pas civilisé Vas-y fais tes valises bonhomme Alors, j'te mets un coup d'boum d'abord Puis tu chutes au sol, potes crient À mort ! Des coups d'mic puis ils crient encore Trop hardcore O.X. Puccino Né pour faire fortune, finir qui m'importune Parfaire mes texte hors durée et rire Mes lauriers au top, black César, tu mates bizarre Un hasard ta mort, les flics l'croiront pas Ils crieront Black mafia Black mafia, black mafia Un peu de textes sauvages, Baccardi au mic, pour le 8.8.2 À Mars, Kessey, Ricky le boss, tout le Time Bomb hein Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la fiat gars Pit et Oxmo, j'ai un putain d'plan gos 3 chattes aux bouls à faire pâlir le plus foncer des négros Mon 210 millimètres s'excite, il sait qu'c'est une bonne piste J'peux êt' le plus sexiste, et les meufs qui kiffent ça, ça existe Et exact, mais au début f'sons preuve d'un peu de tact Avant d'passer à l'acte Après on s'en fout on bâcle les préliminaires Rien à dire j'préfère perforer direct Et battre les dernières performances, entre en transe bébé Ici c'est Cassidy qui t'cause J'crois qu't'as la pose, bouge plus C'est comme le Sport-Elec T'inquiète après t'as les fesses sclé-mu Sois pas émue, c'est qu'le début, kiffe d'êt' l'heureuse élue Cassidy est fier d'être un obsédé Y a pas qu'ta tête que j'dois faire tourner Tes fesses doivent aussi suivre le même procédé Chérie si j'te plais, c'est qu'j'ai la classe de Templar J'suis plus un saint chaque fois qu'j'suis dans ton plumard J'ai trop d'style, j'suis fêlé, rime Rockefeller M'élève au sommet, Baileys à la main Promets l'top comme un homme politique Qui t'parle de partage, mate mon argot J'largue par cargo chaque jour toutes mes ex go Pour toi ma lady, d'autres nanas nada Que Dieu m'aide si j'te perds Sur la vie d'la mère d'amour et de larmes Que je lâcherai par chagrin Amertume tu m'tues, si tu m'dis qu'tu m'aimes plus tu flûtes Corps-à-corps sur l'sofa, on s'glisse sur la sueur Black Casanova, une bougie pour toute lueur Holà doucement, tous mentent quand il s'agit d'massage Technique, s'il faut t'niquer moi j'ai la magie J'ai l'plan master, Oxmo démagogue Dès que ta go mate ma gaule au lit, demain soir toi rigolo Ton mec est nul et même bigleux T'es bien trop belle pour lui, quitte-le, quitte-le Et il suffit que, tu souries et le jour se lève, il éteint nuit Tes lèvres moelleuses, laissent nos langues entremêleuses Tu es ma 9ème merveille après l'oseille, mon Soleil Si j'te rêve s'te plaît, ne me réveille pas Hé ma fille, j'suis le black mafieux Les étoiles filantes sont faites pour faire des vux Écoute, mon rêve, un love axé sur la perfection Jusqu'à ce que ton parfum d'vienne une archive DJ Poska, Mars Vlavo, Mafia trece, Mafia K'1 Fry, Leroy-Boy Pit Baccardi, casse-dédi à Ibrahim Lo, Elie Yaffa Les mecs tenez bons, hein yeah Je n'fume pas d'sensemilia, toujours sensé s'il y a dra De Massilia à Paris il y a masse quand y a ma mafia Un truc plus craquant que l'crack, tu vois l'genre ? Un dôme un rap, même les cain-ri crient Damn Emmener du nouveau, ça crée trop d'rivaux Niveau rime, trop élevé frère Et d'puis qu'il a grandi maintenant sait c'qu'il vaut J'esquive au mieux les jacteurs Avec ce mouv', aucun pacte Je vis d'c'que je dis, évite les acteurs Je dis ce que j'vois, écris ce que j'vis Avoue mon envie d'belle vie Et d'un putain d'trône, d'haut j'aurai une belle vue De toute mon ethnie, de ma clique Des gos que j'mettrai en cloque Type, mate comment je vise c'est Pit Baccardi Mon Q.G. c'est mon cerveau Faut pas qu'pour avoir servi du shit j'prenne des mois Ça vire tous mes projets aux chiottes Puis nom d'un chien j'ai pigé tard, mieux que jamais Qu'l'art de manier la rime pourrai m'emmener loin Car dans ma vie j'ai jamais la hargne comme partenaire Je porte l'honneur de ma famille, trahi par la plupart Telle est la dure loi à laquelle j'me suis fait J'dois ma réussite à personne si ce n'est à moi Si j'crois au rap aujourd'hui Maudits soient ceux qui mal y pensent J'dis, magie et miracle c'est comme les on-dit, jamais du concret J'suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui m'verraient baver Je pisse sur love, y en a pas tant qu'tu paies pas J'le sais ça, j'vis avec En c'qui m'concerne j'reste toujours fidèle aux miens mec Aujourd'hui ma zik' c'est que du kiff Mais si Dieu le veut putain les frères, ce s'ra des plaques demain Oxmo, mafioso J'ai peur d'mourir, je l'sais, j'les ai vu épeler mon nom Appeler des potes et jamais je les ai revus J'ai peur qu'sans moi la vie suive son cours Qu'un autre con touche ma tune, que ma fouf change de pine Et qu'une quelconque loque me copie, que mes potes m'oublient Qu'à chaque fois qu'ma mère ouvre les yeux Ses larmes aient doublées Mourir ici ou ailleurs, y a tant de manières de pas se réveiller Ceux qui partent en premier les meilleurs Tu peux t'cisailler les veines, si la maille te manque tant Que les banquiers t'envoient ces huissiers haineux Tes potes butent un gars, t'attends le saint comeback on est au tome 4 Un jour les mecs viennent cagoule au faciès Comme ces types à qui ils doivent les pactoles Et bim bim ça tire, les douilles tombent au sol Ambiance crari les cain-ri déterrent un Viêt-Cong, ambulance On dit Perds pas espoir Mais faire quoi quand un sale faire-part Dit qu'ton père part d'un cancer ? De toute façon c'est ça ou aut' chose 1 000 façons d'être soustrait, d'laisser les joues arrosées J'en passe des façons de s'casser d'la tess' Des garçons qui s'écrasent en caisse Des mères qui s'laissent décéder Aimer ses amis sans baliser, croire qu'la vie est longue Jusqu'à réaliser l'erreur lors d'une fin de vie Alors chaque matin j'téléphone aux mêmes personnes Tant qu'je les ai, avant qu'leur heure sonne Vu qu'à chaque fois qu'on perd quelqu'un de cher On meurt aussi un peu, facile d'écrire mourir 1 000 fois Oxmo Puccino, à tous mes amis perdus mourir 1 000 fois J'suis jeune mais j'agis comme ancien Peu bavard mais quand j'l'ouvre C'est pas pour dire des conneries, c'est pas pour rien Langues de pute continuez d'jacter, ça m'fait d'la pub Quand j'f'rai un tube j'vous l'dédicacerai, j'vous remercierai J'suis un sac plein de rage, parce qu'un sac vide tient pas debout Mon crew a la rage, tous les pouvoirs, t'es en chien j'm'en fous Casque, puisque l'disque des X est bientôt d'sortie Tu guettes les bacs, comme un junky fonce-dé attend son crack C'est une question d'mort ou d'vie La vie d'abord commence de manière triste J'veux pas qu'mon nom vienne compléter la liste des gars die S'croyant vaillants, des demi-caille' semi-voyous Finnisant par terre couverts du J'croule pas sous l'gent-ar, j'suis pas John Ross J'vis pas à Southfork, j'crèche près d'porte de Bagnolet Où j'traine des semi-remorques, c'est vrai Mais d'temps en temps il passe quelques cabs Et j'bave devant une caisse Mercedes J'fais l'zouave mais pas d'espèces D'une pas d'tunes, de deux Dieu veille sur moi Trois j'crois qu'c'est pas demain la veille Le jour où j'trahirai un d'mes pareils Time Bomb ma famille, black mafia</t>
+          <t>Mama c'est dans mon bled, le vrai makossa Massez vos zgegs pendant qu'les gos demandent un mac Où ça ? Avec Poska ici venu de loin Peace à 360 degrés ou de force fissa En plus ça rime avec bonheur, si t'as les cuisses à l'air Honneur au camer donneur l'élite, aka marteau Piter C'est l'amertume au sein des aut' team, de rêve la mienne Tune pour nous, Time Bomb digne d'être au top Car mon scret est sacré, tape m'n 5 J'crée avec les miens, t'aurais jamais cru, un truc trop synchro Agrée à l'institut de haute rapologie, l'I.H.R. ça déchiR Bientôt en rap rapologie A.I.R. chaud, M.I.C.R.O. branché J'passe le mic à Cassidy des X-Men, prends le mic frère C'est pas un scoop, les X-Men débarquent bien d'un soucoupe Mes forces décuplent, tes idées s'télescopent Esquive les putes, les faux potes Pit fais péter l'socle, que j'brise le cycle des fables habituelles Où les frères s'font tous fonce-dé T'écopes d'un séjour de 6 jours dans les caves de la cité Si j'suis zen, quand j'pète les plombs c'est de manière zélé Kahlouch de l'Est délaisse les, gars louches qui sont à l'Ouest Ma vie une fresque, de 76 à 97 Mon crew est là, toujours à l'heure comme Big Ben Cassidinero et Hill synchros, comme des Citizens Le freestyle c'est comme des partouzes On s'partage tous un truc, ici c'est l'cro-mi Mais dans les 2 cas faut rester l'quereau-ma Maint'nant j'laisse des espaces dans mon texte Pour qu'tu puisses souffler, inspire, expire Le rap, un sport pour les hommes forts Oxmo Puccino, prends le r'lais Quand j'arrive ping rimes ping-pong Et y a des cons qui m'piquent mon style En friment, freestyle pour du fric J'méprise mes ennemis, quand j'écris j'les élimine Mes primes j'économise car j'fais le max avec le minimum Sais-tu c'que c'est que d'êt' le boss ? Un seul but, le succès Bosser, donc buter plus sur nos doss' Poska lève mon bras avant chaque combat d'boxe En boîte, seul mon cd squatte le jukebox Avec Leroy-Boy sur scène j'suis 2 Comme RanXerox, Ox et Rouky Faut qu'ça danse, comme dans l'clip de Puffy et Mase ou Lox Bise au postérieur gauche, l'nom c'est Puccino Ox Black Mafia, Time Bomb Baccardi, pour la Time Bomb, Black Mafia Écoute hein, yeah Je suis de Time Bomb, bambin j'étais au pays du manioc Maint'nant j'manie le mic, hoche mains et tête et p'tite mioche Moche est ma vie Que les mines s'accrochent à mon fute j'm'en fous Envie d'apaisement, j'rap pour l'oseille faut qu'j'pèse nan ? L'épuisement c'est pas dans mon argot Pendant qu'les rares gars pinent leurs gos, je gratte pour les do' Mon fardeau mec, la galère J'ai pas l'air heureux quand j'tchatche et prends ce mic Un bol d'air et un sac d'or, ça f'ra l'affaire pour Pit le camer Langage amer, mec je resterai hardcore jusqu'à la mort À ma mère qui m'guette de là-haut Qu'elle m'excuse de ma cruauté A ciao les putains, les potins du mouv' m'étouffent Une taffe pour m'calmer, t'es ouf L'étoffe même du type clean au mic, c'est Pit Baccardi J'veux qu'ma rime paie, comme le crime J'en ai marre de trimer, c'est pour les miens, rap de flouze Bon faut qu'j'te dise qu'au niveau level au mic c'est chant-mé Je sais qu'j't'inspire, et qu'tes sbires s'barrent de notre histoire Tes chefs chient quand ils narrent nos périples 3 affranchis on s'fait pas ièch' On crèche près d'Porte de Bagnolet Et j'prêche pour qu'les faux s'arrachent J'te lâche un rap brut et j'créé des séismes Toujours l'prems on fait preuve d'héroïsme Et tu clamses, ne m'suis pas Un homme c'est quelqu'un qui s'respecte alors respecte-moi J'm'étends dans l'ciel comme la Voie lactée J'malaxe tes neurones et domine tes cités À l'aube de l'an 2000 j'suis fier de mes racines Digne de la famille Zongo J'trime pour qu'tous les négros signent c'contrat en huit-clos Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé ça c'est ma go moi Eddy Mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis Si tu m'touches, tu vas tellement transpirer Qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs ils grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Trop tard faut qu'je les étripe et les gars flippent J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Je chope le coup d'Eddy, le tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée, un tas d'morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi not' nom c'est Time Bomb, Black Mafia Cassidy des X Zongo Zigzague zdèf comme Ziggy Marley, un zeste maso Je zaye, dehors c'est l'zoo, c'est la zone putain c'est zé' Zoom sur cette zizanie, mais où est donc ma son-mai ? Duplex, mezzanine Mes amis s'animent, les ennemis nous miment, nous singent Au loin 2 sorties d'secours, le rap et le oinj' sacré Comme les cendres qu'on tèj' dans l'fleuve Gange Hifi t'l'a d'jà dit, y a danger, certains cherchent à s'venger Y a qu'une seule part mais tout l'monde veut manger En attendant, j'planifie ma vendetta Détale avant qu'la Black Mafia n'vienne Et n'sème la peine au sein d'ta famille D'instinct méfiant, j'défie l'destin Mon challenge, faire des miens des types biens Un rap céleste, d'où j'tire ce leust X-men maîtrise le cosmos En route pour mon meeting comme dans Get on the bus bis Sais-tu c'que c'est la galère, enculé ? Bah t'en as pas l'air Les gens qui passent chaque jour M'demandent plus si j'ai pas l'heure Tu crois qu'c'est une vie ça ? Dehors quelque soit l'temps Mais faut bien qu'le flouze tombe même si y a l'blizzard En bas les gars tisent, sympathisent faussement Ils s'disent qu'ils bâtissent un empire, mais en fait tous mentent Vu qu'tu gravis les marches et t'élargis, te marginalises Du ze-dou au 5.20, t'es au kilo en 5-5 Les belles caisses bluffent les badauds Pendant qu'les jeunes ados bandent Tant qu'les chaines en or pendent jusqu'aux abdos Les flics, ils d'viennent des voisins, les voisins des flics On reste méfiants vis-à-vis de chaque type qui défile Et les filles, faut les laisser, pas l'temps pour palper mec Mêler la monnaie et les nénés ? Mais t'es malade Vu qu'les syndicats du shit se chient d'ssus G C'est sûr qu'si demain t'assures un gars te sectionne Ces barbes d'herbe, t'en fais ça marche Une nuit c'est toi qu'on braque, merde Les 10 plaques s'perdent si les gars blaguent pas Les comptes se règlent entre clans Tous se plantent en même temps Les mères lâchent des flaques de larmes Devant les flaques de sang L'un des seuls biz où t'as pas d'piston Compte sur personne pour faire des biftons Chauffe ton shit comme un cuistot, arme à la poche t'es l'boss La mère alarmée reconnait plus son gosse Elle dit Non, c'est pas mon fiston Nos vies s'limitent au hall shit home J'rap pas pour le hip hop mais pour mes types J'suis Oxmo Puccino Yeah Baccardi, Cassidy, O.X.M.O., Leroy-Boy, Ali, Mars Vlavo Marc, DJ Poska yeah pour la mafia hein, Pit au mic gars Intervention dans l'track, trop de Marc Dutroux Je crée, j'te sors du rap fresh Les Pitchers de mèche avec mes ennemis jactent Chaque minute est précieuse, ma nette impression Pit connexion, c'est plus qu'du rêve Non, plus du bicrave pour moi Trop sournois ce milieu, mon frère J'voudrais finir ma pauvre vie en belle villa Mon style est clean, clone-le, le clown se s'ra toi pas moi Je sens autour de moi une sale odeur de putain Rap de flouze, mate ma bouche sois en témoin Y a 2 ans connard tu m'traiterais de vaurien Maint'nant j'ai une caboche remplie de textes carrés T'es taré d'vouloir me test' Une marée d'sang sur toi c'est navrant Les mcs craquent trop, se braquent, voudraient ma tête Un titan, Pit en rap c'est c'que je rêve d'êt' Si tu m'suis lève ton poing, avec les miens C'est Time Bomb, Black Mafia Ici c'est Cassidy qui t'cause, fini la pause Kit Kat Sous la 8.6 tes neurones s'battent et s'font un 4x4 Ton esprit bande, s'braque, la Heineken te frappe sec Résultat mec, flemme de ken, mal de crâne, peine Mais d'instinct j'suis relax au mic et je bannis le stress Mon zgeg s'dresse, parce que j'suis strong comme ma té-ci Ta langue s'délie sans délai, t'avoues tes crimes, tu t'crames Avec ton corps, les RG s'font des descentes de lit Ici pas de bluff mais que du neuf, quoi d'neuf Hill ? Jamais hors-piste, j'groove, du feeling, pas b'soin de bibine Trop d'flûtes ou trop d'flics, trop d'promesses J'ai pas d'caisse, pas d'fric, j'lutte c'est ça qui m'dégoûte Bientôt les espèces, viendront remplir mon sac Eastpack Les grosses putes jactent sur mon dos Me courent après mais n'sont qu'des culs-de-jatte La bière j'm'en bats, le joint m'suffit pour danser la samba Cassidy, Oxmo et Pit en 9.7, hein On dit qu'j'ai du style qui est trop frappant J'casse les murs rien qu'en rappant Les mecs viennent fiers en courant Puis partent en civière ou en rampant Pire que 8 8.6, 10 whiskies, 5 biscuits T'es si die quand tu marches, les gars disent Tu slalomes en ski Nique les civils et leurs civils, j'suis l'sale homme pas civilisé Vas-y fais tes valises bonhomme Alors, j'te mets un coup d'boum d'abord Puis tu chutes au sol, potes crient À mort ! Des coups d'mic puis ils crient encore Trop hardcore O.X. Puccino Né pour faire fortune, finir qui m'importune Parfaire mes texte hors durée et rire Mes lauriers au top, black César, tu mates bizarre Un hasard ta mort, les flics l'croiront pas Ils crieront Black mafia Black mafia, black mafia Un peu de textes sauvages, Baccardi au mic, pour le 8.8.2 À Mars, Kessey, Ricky le boss, tout le Time Bomb hein Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la fiat gars Pit et Oxmo, j'ai un putain d'plan gos 3 chattes aux bouls à faire pâlir le plus foncer des négros Mon 210 millimètres s'excite, il sait qu'c'est une bonne piste J'peux êt' le plus sexiste, et les meufs qui kiffent ça, ça existe Et exact, mais au début f'sons preuve d'un peu de tact Avant d'passer à l'acte Après on s'en fout on bâcle les préliminaires Rien à dire j'préfère perforer direct Et battre les dernières performances, entre en transe bébé Ici c'est Cassidy qui t'cause J'crois qu't'as la pose, bouge plus C'est comme le Sport-Elec T'inquiète après t'as les fesses sclé-mu Sois pas émue, c'est qu'le début, kiffe d'êt' l'heureuse élue Cassidy est fier d'être un obsédé Y a pas qu'ta tête que j'dois faire tourner Tes fesses doivent aussi suivre le même procédé Chérie si j'te plais, c'est qu'j'ai la classe de Templar J'suis plus un saint chaque fois qu'j'suis dans ton plumard J'ai trop d'style, j'suis fêlé, rime Rockefeller M'élève au sommet, Baileys à la main Promets l'top comme un homme politique Qui t'parle de partage, mate mon argot J'largue par cargo chaque jour toutes mes ex go Pour toi ma lady, d'autres nanas nada Que Dieu m'aide si j'te perds Sur la vie d'la mère d'amour et de larmes Que je lâcherai par chagrin Amertume tu m'tues, si tu m'dis qu'tu m'aimes plus tu flûtes Corps-à-corps sur l'sofa, on s'glisse sur la sueur Black Casanova, une bougie pour toute lueur Holà doucement, tous mentent quand il s'agit d'massage Technique, s'il faut t'niquer moi j'ai la magie J'ai l'plan master, Oxmo démagogue Dès que ta go mate ma gaule au lit, demain soir toi rigolo Ton mec est nul et même bigleux T'es bien trop belle pour lui, quitte-le, quitte-le Et il suffit que, tu souries et le jour se lève, il éteint nuit Tes lèvres moelleuses, laissent nos langues entremêleuses Tu es ma 9ème merveille après l'oseille, mon Soleil Si j'te rêve s'te plaît, ne me réveille pas Hé ma fille, j'suis le black mafieux Les étoiles filantes sont faites pour faire des vux Écoute, mon rêve, un love axé sur la perfection Jusqu'à ce que ton parfum d'vienne une archive DJ Poska, Mars Vlavo, Mafia trece, Mafia K'1 Fry, Leroy-Boy Pit Baccardi, casse-dédi à Ibrahim Lo, Elie Yaffa Les mecs tenez bons, hein yeah Je n'fume pas d'sensemilia, toujours sensé s'il y a dra De Massilia à Paris il y a masse quand y a ma mafia Un truc plus craquant que l'crack, tu vois l'genre ? Un dôme un rap, même les cain-ri crient Damn Emmener du nouveau, ça crée trop d'rivaux Niveau rime, trop élevé frère Et d'puis qu'il a grandi maintenant sait c'qu'il vaut J'esquive au mieux les jacteurs Avec ce mouv', aucun pacte Je vis d'c'que je dis, évite les acteurs Je dis ce que j'vois, écris ce que j'vis Avoue mon envie d'belle vie Et d'un putain d'trône, d'haut j'aurai une belle vue De toute mon ethnie, de ma clique Des gos que j'mettrai en cloque Type, mate comment je vise c'est Pit Baccardi Mon Q.G. c'est mon cerveau Faut pas qu'pour avoir servi du shit j'prenne des mois Ça vire tous mes projets aux chiottes Puis nom d'un chien j'ai pigé tard, mieux que jamais Qu'l'art de manier la rime pourrai m'emmener loin Car dans ma vie j'ai jamais la hargne comme partenaire Je porte l'honneur de ma famille, trahi par la plupart Telle est la dure loi à laquelle j'me suis fait J'dois ma réussite à personne si ce n'est à moi Si j'crois au rap aujourd'hui Maudits soient ceux qui mal y pensent J'dis, magie et miracle c'est comme les on-dit, jamais du concret J'suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui m'verraient baver Je pisse sur love, y en a pas tant qu'tu paies pas J'le sais ça, j'vis avec En c'qui m'concerne j'reste toujours fidèle aux miens mec Aujourd'hui ma zik' c'est que du kiff Mais si Dieu le veut putain les frères, ce s'ra des plaques demain Oxmo, mafioso J'ai peur d'mourir, je l'sais, j'les ai vu épeler mon nom Appeler des potes et jamais je les ai revus J'ai peur qu'sans moi la vie suive son cours Qu'un autre con touche ma tune, que ma fouf change de pine Et qu'une quelconque loque me copie, que mes potes m'oublient Qu'à chaque fois qu'ma mère ouvre les yeux Ses larmes aient doublées Mourir ici ou ailleurs, y a tant de manières de pas se réveiller Ceux qui partent en premier les meilleurs Tu peux t'cisailler les veines, si la maille te manque tant Que les banquiers t'envoient ces huissiers haineux Tes potes butent un gars, t'attends le saint comeback on est au tome 4 Un jour les mecs viennent cagoule au faciès Comme ces types à qui ils doivent les pactoles Et bim bim ça tire, les douilles tombent au sol Ambiance crari les cain-ri déterrent un Viêt-Cong, ambulance On dit Perds pas espoir Mais faire quoi quand un sale faire-part Dit qu'ton père part d'un cancer ? De toute façon c'est ça ou aut' chose 1 000 façons d'être soustrait, d'laisser les joues arrosées J'en passe des façons de s'casser d'la tess' Des garçons qui s'écrasent en caisse Des mères qui s'laissent décéder Aimer ses amis sans baliser, croire qu'la vie est longue Jusqu'à réaliser l'erreur lors d'une fin de vie Alors chaque matin j'téléphone aux mêmes personnes Tant qu'je les ai, avant qu'leur heure sonne Vu qu'à chaque fois qu'on perd quelqu'un de cher On meurt aussi un peu, facile d'écrire mourir 1 000 fois Oxmo Puccino, à tous mes amis perdus mourir 1 000 fois J'suis jeune mais j'agis comme ancien Peu bavard mais quand j'l'ouvre C'est pas pour dire des conneries, c'est pas pour rien Langues de pute continuez d'jacter, ça m'fait d'la pub Quand j'f'rai un tube j'vous l'dédicacerai, j'vous remercierai J'suis un sac plein de rage, parce qu'un sac vide tient pas debout Mon crew a la rage, tous les pouvoirs, t'es en chien j'm'en fous Casque, puisque l'disque des X est bientôt d'sortie Tu guettes les bacs, comme un junky fonce-dé attend son crack C'est une question d'mort ou d'vie La vie d'abord commence de manière triste J'veux pas qu'mon nom vienne compléter la liste des gars die S'croyant vaillants, des demi-caille' semi-voyous Finnisant par terre couverts du J'croule pas sous l'gent-ar, j'suis pas John Ross J'vis pas à Southfork, j'crèche près d'porte de Bagnolet Où j'traine des semi-remorques, c'est vrai Mais d'temps en temps il passe quelques cabs Et j'bave devant une caisse Mercedes J'fais l'zouave mais pas d'espèces D'une pas d'tunes, de deux Dieu veille sur moi Trois j'crois qu'c'est pas demain la veille Le jour où j'trahirai un d'mes pareils Time Bomb ma famille, black mafia</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !You might also like</t>
+          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hein, Yeah, hein, yeah, hein, yeah, what, what No doubt, c'est Pit Baccardi, c'est Pit et Joe, no doubt De Paris aux États-Unis d'Amérique, c'est ça l'équipe Le B.A.C.C.A.R.D.I., c'est Pit au mic, tu le sais Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty La télé m'a rendu beau mon sourire déplait peu à peu Y a des mecs qui ont des plans d'meufs disant que c'est mon pote Pit L'autre type qui m'a en barème disant que je suis moche On me court après elle m'a vu huitième au hit machine Il serait peu que je frime, je suis ce ghettoteur brave Qui signe les autographes sans faire de fautes d'orthographe Car c'qu'il paraît j'ai pris la grosse tête parce que je relate des faits Tu relâcheras pas l'affaire, t'as fouf vu ces grosses fesses Des grosses face de mecs dans la rue m'interpellent Demande des fois des textes de moi en a-capella Je deviens célèbre et vivre au clame du peuple fier de porter mon insigne You might also like Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty You're as bad as a ghetto Queen And i'm a pimp with a gangster lame Sipping bud and feeling nice gotta get get to ya Just get up on it, girl if you're on it Don't got up on it just wanna see what you're like Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Mama c'est dans mon bled le vrai makossa Champion d'Afrique lion indomptable Je remets ça sur disque puisque je risque l'anonymat Si je me tais je suis peace et mon discours c'est et Lève ton verre et ton briquet faites la hola joue le maillot à la Mila Et hello bella cesse pas d'épeler le nom du bel homme surnommé Ghetto ambianceur Un nouveau joyau qui va enjailler tous mes adeptes Indispensable quand vous festoyez Mon disque sponsor pour tous les prisonniers Sponsor pour tous les mecs et meufs en bas des escaliers Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Qui sait qui fait bouger les lascars qui sait qui sait Paris, New York les deux superstars qui sait qui sait Genre saccadé placardé sur tous les murs Baccardi ghetto ambianceur dans chaque quartier J'ai ce qu'il faut pour faire jacasser, hein Déjà les mains en l'air je t'ai pas encore braqué Tellement de flow qu'il a fallu renflouer la Seine Sea, sex and sun, mixe ça qu'ça sonne Jusqu'à en faire péter les compteurs de la Sacem Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Everybody wants to party, Everybody wants to party Avec ma première classe, je dédicace à tous les lascars dans la place Everybody wants to party, Everybody wants to party Everybody wants to party, Everybody wants to party De Paris aux Etats-Unis d'amérique c'est ça l'équipe Everybody wants to party, Everybody wants to party From the thugs to the hotties Throw your hands up, everybody throw your hands up ....</t>
+          <t>Hein, Yeah, hein, yeah, hein, yeah, what, what No doubt, c'est Pit Baccardi, c'est Pit et Joe, no doubt De Paris aux États-Unis d'Amérique, c'est ça l'équipe Le B.A.C.C.A.R.D.I., c'est Pit au mic, tu le sais Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty La télé m'a rendu beau mon sourire déplait peu à peu Y a des mecs qui ont des plans d'meufs disant que c'est mon pote Pit L'autre type qui m'a en barème disant que je suis moche On me court après elle m'a vu huitième au hit machine Il serait peu que je frime, je suis ce ghettoteur brave Qui signe les autographes sans faire de fautes d'orthographe Car c'qu'il paraît j'ai pris la grosse tête parce que je relate des faits Tu relâcheras pas l'affaire, t'as fouf vu ces grosses fesses Des grosses face de mecs dans la rue m'interpellent Demande des fois des textes de moi en a-capella Je deviens célèbre et vivre au clame du peuple fier de porter mon insigne Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty You're as bad as a ghetto Queen And i'm a pimp with a gangster lame Sipping bud and feeling nice gotta get get to ya Just get up on it, girl if you're on it Don't got up on it just wanna see what you're like Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Mama c'est dans mon bled le vrai makossa Champion d'Afrique lion indomptable Je remets ça sur disque puisque je risque l'anonymat Si je me tais je suis peace et mon discours c'est et Lève ton verre et ton briquet faites la hola joue le maillot à la Mila Et hello bella cesse pas d'épeler le nom du bel homme surnommé Ghetto ambianceur Un nouveau joyau qui va enjailler tous mes adeptes Indispensable quand vous festoyez Mon disque sponsor pour tous les prisonniers Sponsor pour tous les mecs et meufs en bas des escaliers Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Qui sait qui fait bouger les lascars qui sait qui sait Paris, New York les deux superstars qui sait qui sait Genre saccadé placardé sur tous les murs Baccardi ghetto ambianceur dans chaque quartier J'ai ce qu'il faut pour faire jacasser, hein Déjà les mains en l'air je t'ai pas encore braqué Tellement de flow qu'il a fallu renflouer la Seine Sea, sex and sun, mixe ça qu'ça sonne Jusqu'à en faire péter les compteurs de la Sacem Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Everybody wants to party, Everybody wants to party Avec ma première classe, je dédicace à tous les lascars dans la place Everybody wants to party, Everybody wants to party Everybody wants to party, Everybody wants to party De Paris aux Etats-Unis d'amérique c'est ça l'équipe Everybody wants to party, Everybody wants to party From the thugs to the hotties Throw your hands up, everybody throw your hands up ....</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hall de cité, mêmes clichés, même chichon Mêmes tass-pés, mêmes chichis pour toucher un nichon Merde, sans me vanter, c'est ma vertu, ma façon de représenter Je rime, je rame pour sortir de la galère Le crime crame la plupart des frères llé-gri comme une barrette sous une casquette coste-La Le Christ oublie mon tier-quar quand cest Noël cest triste Papa met tout le gent-ar dans le cool-al, coma éthylique D'Afrique jusqu'en Martinique, cro-ma maintenant que j'ai le fric Je nique tout dans le Martini ou le Pastis Ma partie cest de la bastos re-noi Time Bomb explose, réactions en chaînes, j'en suis qu'un maillon MC en roro, fais la maille quand tu fais dodo Pas de 86, pagne-cham à gogo Mais fais gaffe à mon croco Mon groupe au top comme le secret Encore une création à faire crier les frères comme au moment de cher-cra Et si mon beat frappe fort comme un mari jaloux C'est pour réunir les jeunes noirs et beurs comme la marie-jeanne Hifi c'est le produit, et Time Bomb l'appellation Mon but faire kiffer les négros comme la fellationYou might also like</t>
+          <t>Hall de cité, mêmes clichés, même chichon Mêmes tass-pés, mêmes chichis pour toucher un nichon Merde, sans me vanter, c'est ma vertu, ma façon de représenter Je rime, je rame pour sortir de la galère Le crime crame la plupart des frères llé-gri comme une barrette sous une casquette coste-La Le Christ oublie mon tier-quar quand cest Noël cest triste Papa met tout le gent-ar dans le cool-al, coma éthylique D'Afrique jusqu'en Martinique, cro-ma maintenant que j'ai le fric Je nique tout dans le Martini ou le Pastis Ma partie cest de la bastos re-noi Time Bomb explose, réactions en chaînes, j'en suis qu'un maillon MC en roro, fais la maille quand tu fais dodo Pas de 86, pagne-cham à gogo Mais fais gaffe à mon croco Mon groupe au top comme le secret Encore une création à faire crier les frères comme au moment de cher-cra Et si mon beat frappe fort comme un mari jaloux C'est pour réunir les jeunes noirs et beurs comme la marie-jeanne Hifi c'est le produit, et Time Bomb l'appellation Mon but faire kiffer les négros comme la fellation</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pit Baccardi Ça pue la mort dans le saloon même Billy, je le kicke Bienvenue dans mon Far West, voilà Billy le Pit Mon gang me suit, mon Ulster et mon Colt Un 18 long rimes, deux de rechange pour le taff Je me contrôle un seize, braise allumée Quand y'a grisaille, pas de calumet de paix C'est pas le flingue qui tue mais le mec qui tire Nega Hip-hop Far West, la scène je te dessine Des gars se disent zen par dizaines mais s'auto-déciment Je garde mon estime comme Pit, cow-boy accrédité Comme moi-même par l'emblème Camer identité A priori dans ce pays à midi, c'est l'hystérie De toute part périssent des pères pour des paris Stress Pact, Pit Baccardi, ici si t'es hardi T'es chez le croquemort dès mardi Les coups de Glock se troquent gratos au petit déj' Ça grouille de gros gringos qui de pesos t'allègent A coup de seize rimes sur six mesures Si tu te mesures au mauvais gringo, tu frises la morsure Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire You might also like Stress Tu me fais de l'ombre, hombre, avec ton sombrero L'autre dit Okay gringo, dénombre mes frérots Tu veux vraiment que j'te plombe, blaireau ? C'est la vida loca, coco crie viva quand on pose nos vocaux Si t'es Clyde ou Clint au gros Colt T'as intérêt à être high ou savoir kick comme Nick Nolte Pit Baccardi Je galope, je galope, ma tête est mise à prix, criminel au mic Y'a cette affiche wanted partout dans les Fnac 30 mille coupeurs de têtes dans ce micmac Qui dure depuis un mois, je suis dans un cul-de-sac Je cours toujours, j'arpente les ruelles, nécessité ouais J'ai des munitions à prendre à Peses City Nega Mes oreilles sifflent, sonnent Dix jours sur dix, je t'assure soon Ici nous berce sans cesse le Smith and Wesson Ça c'est le Far West, c'est difficile Tard je reste, narre l'esprit des vrais aux jeunes pour que leur art naisse C'est ça ma maladie, j'ai le canon à rime scié Mes balles verbales virevoltent vers d'autres revolvers Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire Nega On se bat dans des débats les gars, rimes de salaud Frimes de saloon Faut que ce feu s'allume et pas que ça Je veux que ces danseuses de french cancan comprennent que je suis quelqu'un Tout le temps, mémorises mes mots si sains Je m'essaie ici, ne dis pas mais si t'es le messie J'veux que ma rime excelle, suinte des aisselles, t'as senti ? Stress Ici la vie va via le saloon et la Sangria Ça crie Arriva !, la nuit c'est la corrida On te grille à coups de Santiags de chez Foot Locker On se mate mal à la table de poker On te fuck l'air de rien si tu triches, il n'y a pas joker Mes dogs, c'est pas des cockers mais tous des boxers Pit Baccardi Je suis seul dans ma diligence, des gens je me délie C'est lié au fait que les alliés sont là seulement quand l'or et le profit s'allient Sali par des sales hommes déliés Mon salut est au ciel avec lui, j'ai un accord scellé Mon seul point de chute ici c'est Première Classe Et avec lui j'ai signé un Double Pact Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire</t>
+          <t>Pit Baccardi Ça pue la mort dans le saloon même Billy, je le kicke Bienvenue dans mon Far West, voilà Billy le Pit Mon gang me suit, mon Ulster et mon Colt Un 18 long rimes, deux de rechange pour le taff Je me contrôle un seize, braise allumée Quand y'a grisaille, pas de calumet de paix C'est pas le flingue qui tue mais le mec qui tire Nega Hip-hop Far West, la scène je te dessine Des gars se disent zen par dizaines mais s'auto-déciment Je garde mon estime comme Pit, cow-boy accrédité Comme moi-même par l'emblème Camer identité A priori dans ce pays à midi, c'est l'hystérie De toute part périssent des pères pour des paris Stress Pact, Pit Baccardi, ici si t'es hardi T'es chez le croquemort dès mardi Les coups de Glock se troquent gratos au petit déj' Ça grouille de gros gringos qui de pesos t'allègent A coup de seize rimes sur six mesures Si tu te mesures au mauvais gringo, tu frises la morsure Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire Stress Tu me fais de l'ombre, hombre, avec ton sombrero L'autre dit Okay gringo, dénombre mes frérots Tu veux vraiment que j'te plombe, blaireau ? C'est la vida loca, coco crie viva quand on pose nos vocaux Si t'es Clyde ou Clint au gros Colt T'as intérêt à être high ou savoir kick comme Nick Nolte Pit Baccardi Je galope, je galope, ma tête est mise à prix, criminel au mic Y'a cette affiche wanted partout dans les Fnac 30 mille coupeurs de têtes dans ce micmac Qui dure depuis un mois, je suis dans un cul-de-sac Je cours toujours, j'arpente les ruelles, nécessité ouais J'ai des munitions à prendre à Peses City Nega Mes oreilles sifflent, sonnent Dix jours sur dix, je t'assure soon Ici nous berce sans cesse le Smith and Wesson Ça c'est le Far West, c'est difficile Tard je reste, narre l'esprit des vrais aux jeunes pour que leur art naisse C'est ça ma maladie, j'ai le canon à rime scié Mes balles verbales virevoltent vers d'autres revolvers Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire Nega On se bat dans des débats les gars, rimes de salaud Frimes de saloon Faut que ce feu s'allume et pas que ça Je veux que ces danseuses de french cancan comprennent que je suis quelqu'un Tout le temps, mémorises mes mots si sains Je m'essaie ici, ne dis pas mais si t'es le messie J'veux que ma rime excelle, suinte des aisselles, t'as senti ? Stress Ici la vie va via le saloon et la Sangria Ça crie Arriva !, la nuit c'est la corrida On te grille à coups de Santiags de chez Foot Locker On se mate mal à la table de poker On te fuck l'air de rien si tu triches, il n'y a pas joker Mes dogs, c'est pas des cockers mais tous des boxers Pit Baccardi Je suis seul dans ma diligence, des gens je me délie C'est lié au fait que les alliés sont là seulement quand l'or et le profit s'allient Sali par des sales hommes déliés Mon salut est au ciel avec lui, j'ai un accord scellé Mon seul point de chute ici c'est Première Classe Et avec lui j'ai signé un Double Pact Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Des rimes, du style, de la mélodie Du crime, pas en drame mais sur platine Et j'signe de mon stylo un chant d'espoir pour tous les ghettos J'm'aligne dans cette flopée d'jeunes qui pètent le score Emblème d'un peuple, te donner l'envie et la rage Pour qu'on ferme des gueules J'viens aussi des blocs, mec, et j'fais ma synthèse Encore craint, bientôt mon rap sera légalisé J'en place une pour ma Place des Fêtes Et m'classe pas parmi ces fous qui glorifient la merde J'ai vu c'qui s'passe ailleurs, il reste de la place Si on maîtrise pas notre biz, qui l'fera à notre place Dans mon monde, c'est l'pouvoir des mots, le poids des sons Le pouvoir du fric et l'amour du risque J'suis Baccardi d'la famille Brown Ceux qui s'branlent s'font surprendre, l'ouragan est en train d's'étendre Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score You might also like J'suis pas tendre avec les incapables Le monde nous appartient et qu'nos rêves deviennent palpables La durée d'mon combat est celui d'la profondeur d'mes peines J'suis d'jà resté affamé sous huitaine J'me saigne, j'enseigne, lésine pas avec les thèmes Fais péter le son dans les enceintes Tape-m'en cinq si tu captes le message, faut qu'on retourne le pays Quitte à c'que les gens portent plainte C'est l'sprint final, que notre génération laisse son empreinte Ça fait désordre quand dans l'décor on s'plante Content d'c'qu'on fait, c'est comme une fresque On dessine le monde avec nos proses et on blesse Parce qu'on ressent encore la douleur des chaînes, je chante l'espoir Leitmotiv des temps modernes Chaque rime est une prière négro J'ai un cimetière de mots en mémoire de ceux qui manquent Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score L'avenir s'construit maintenant, chaque jour est un combat Et quand j'entends les battements De mon cur qui m'donnent la température J'balafre les instrumentaux bêtement Le poids des mots, le choc des syllabes À vingt piges célèbre, que toutes les cités derrière moi se lèvent Que ce soit vous et moi, moi sans vous, c'est rien C'est juste des paroles qui s'effacent dans l'atmosphère Tous ensemble c'est la résistance, c'est impénétrable Et ça vole tous les sens Lis sur mon visage c'qui s'passe Si j'ai l'air noyé, j'ai traversé un océan d'merde Et j'continue de ramer Idéal J l'a dit, le combat continue Pit Baccardi, 2002 Pour tous les ghettos Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score</t>
+          <t>Des rimes, du style, de la mélodie Du crime, pas en drame mais sur platine Et j'signe de mon stylo un chant d'espoir pour tous les ghettos J'm'aligne dans cette flopée d'jeunes qui pètent le score Emblème d'un peuple, te donner l'envie et la rage Pour qu'on ferme des gueules J'viens aussi des blocs, mec, et j'fais ma synthèse Encore craint, bientôt mon rap sera légalisé J'en place une pour ma Place des Fêtes Et m'classe pas parmi ces fous qui glorifient la merde J'ai vu c'qui s'passe ailleurs, il reste de la place Si on maîtrise pas notre biz, qui l'fera à notre place Dans mon monde, c'est l'pouvoir des mots, le poids des sons Le pouvoir du fric et l'amour du risque J'suis Baccardi d'la famille Brown Ceux qui s'branlent s'font surprendre, l'ouragan est en train d's'étendre Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score J'suis pas tendre avec les incapables Le monde nous appartient et qu'nos rêves deviennent palpables La durée d'mon combat est celui d'la profondeur d'mes peines J'suis d'jà resté affamé sous huitaine J'me saigne, j'enseigne, lésine pas avec les thèmes Fais péter le son dans les enceintes Tape-m'en cinq si tu captes le message, faut qu'on retourne le pays Quitte à c'que les gens portent plainte C'est l'sprint final, que notre génération laisse son empreinte Ça fait désordre quand dans l'décor on s'plante Content d'c'qu'on fait, c'est comme une fresque On dessine le monde avec nos proses et on blesse Parce qu'on ressent encore la douleur des chaînes, je chante l'espoir Leitmotiv des temps modernes Chaque rime est une prière négro J'ai un cimetière de mots en mémoire de ceux qui manquent Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score L'avenir s'construit maintenant, chaque jour est un combat Et quand j'entends les battements De mon cur qui m'donnent la température J'balafre les instrumentaux bêtement Le poids des mots, le choc des syllabes À vingt piges célèbre, que toutes les cités derrière moi se lèvent Que ce soit vous et moi, moi sans vous, c'est rien C'est juste des paroles qui s'effacent dans l'atmosphère Tous ensemble c'est la résistance, c'est impénétrable Et ça vole tous les sens Lis sur mon visage c'qui s'passe Si j'ai l'air noyé, j'ai traversé un océan d'merde Et j'continue de ramer Idéal J l'a dit, le combat continue Pit Baccardi, 2002 Pour tous les ghettos Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it You might also like Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running</t>
+          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ouais, respect à Pit au mic J'pense qu'aujourd'hui il est représentatif d'un jeune qui est parti de rien pour arriver à tout C'est l'cur qui parle, la main qui tremble sur les feuilles mortes Pit en une phrase, mec? Un poète, yes Le travail finit toujours par payer J'suis venu pour être, pas pour paraître C'est le MC en France qui le mieux dans opposé J'viens bâtir un empire Nique tous mec J'suis un Noir pacifiste et fier de l'être J'suis un Noir pacifiste et fier de l'être Pour moi, Baccardi, il est universel Pit Baccardi c'est qui? La vérité, l'émotion, le naturel, la mélancolie Yeah Un condensé de sobriété, d'humour De fond, de forme D'émotion, de gentillesse J'ai vu deux choses me faire flipper, la mort et l'excès d'amour C'est une voix, Pit Baccardi c'est une voix, un flow, un accent Eh ouais gros, c'est Tandem Pit en vendetta pour un projet chaos Lyrical pyromane, c'est Première Classe contre les mythomanes Un véritable phénomène dévore les charts Resserre ton boul' pour l'come-back, c'est PC pour t'mettre des claques Un peu trop classe pour être black Baccardi Pit mon pote, c'est le palace de Scarface sur une bande-son Avec PC pour épaule solide Si t'as les tunes, on a les flingues, si t'as la prod on a la proseYou might also like</t>
+          <t>Ouais, respect à Pit au mic J'pense qu'aujourd'hui il est représentatif d'un jeune qui est parti de rien pour arriver à tout C'est l'cur qui parle, la main qui tremble sur les feuilles mortes Pit en une phrase, mec? Un poète, yes Le travail finit toujours par payer J'suis venu pour être, pas pour paraître C'est le MC en France qui le mieux dans opposé J'viens bâtir un empire Nique tous mec J'suis un Noir pacifiste et fier de l'être J'suis un Noir pacifiste et fier de l'être Pour moi, Baccardi, il est universel Pit Baccardi c'est qui? La vérité, l'émotion, le naturel, la mélancolie Yeah Un condensé de sobriété, d'humour De fond, de forme D'émotion, de gentillesse J'ai vu deux choses me faire flipper, la mort et l'excès d'amour C'est une voix, Pit Baccardi c'est une voix, un flow, un accent Eh ouais gros, c'est Tandem Pit en vendetta pour un projet chaos Lyrical pyromane, c'est Première Classe contre les mythomanes Un véritable phénomène dévore les charts Resserre ton boul' pour l'come-back, c'est PC pour t'mettre des claques Un peu trop classe pour être black Baccardi Pit mon pote, c'est le palace de Scarface sur une bande-son Avec PC pour épaule solide Si t'as les tunes, on a les flingues, si t'as la prod on a la prose</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tu l'sais, Baccardi Tu l'sais, DJ Mehdi Passe la sixième vitesse Sur l'autoroute du danger C'est le risque qui nous attire Pour brûler l'essieu, à combien j'dois pousser ma tire J'ai pris la vie dans tous les sens, sans interdits On m'a dit sur l'côté, j'ai dit fuck Écorché vif à la recherche de mon dû, j'accélère, y a des flashes sur le périph J'ai plus l'temps, j'dirige ma vie et j'vais mourir en la pilotant Eh, mon code je l'ai, celui d'l'honneur, mes gars à l'arrière Mes devoirs j'les honore À ma gauche ma zik, à ma droite ma famille et mes soss' On n'est pas à l'abri d'un crash J'viens éclater les portes de l'enfer J'veux vivre au paradis J'pousse les obstacles d'un coup d'pare-chocs Ici, j'dois rien à personne J'accélère 16 J'arrive à vive allure Partout y a des barrages J'vais les franchir, j'suis un MC 44 tout terrain J'roule sur l'or, tu parles, sur une voie glissante Et n'importe quand on peut goûter à l'asphalte K 2000, ma voiture c'est mon cur Et c'est mon crâne qui pilote J'ai rendez-vous avec la vie mec, si vous voulez sur moi faites feu J'suis blindé, je suis ma destinée Fiché par les autorités Regarde ma plaque 7-5-0-1-9, tu sais d'où j'viens et j'reste black Je sais qu'la route est longue, j'ai mes réserves Tu m'verras pas sur l'côté en panne sèche jamais J'suis un homme Et ici J'suis en mission You might also like J'accélère 16 J'plane J'passe la sixième vitesse Tu veux ma marque Family Brown La vie est trop courte pour m'lamenter sur ci ou ça Assumer, être un homme c'est ça aussi Sur ma route il fait sombre J'vois des ombres Et les morts sont comptés en nombre Le climat annonçait un orage Moi j'survis, pourquoi J'ai ma rage comme airbag Je zigzague avec le risque Accélère en temps d'pluie, flirte avec le danger J'prends l'périph Y a du monde sur la route, c'est pas grave Au terminus on s'retrouve J'accélère 16 Family Brown Sur ma route il fait sombre J'ai ma rage comme airbag Au terminus on s'retrouve J'accélère 16</t>
+          <t>Tu l'sais, Baccardi Tu l'sais, DJ Mehdi Passe la sixième vitesse Sur l'autoroute du danger C'est le risque qui nous attire Pour brûler l'essieu, à combien j'dois pousser ma tire J'ai pris la vie dans tous les sens, sans interdits On m'a dit sur l'côté, j'ai dit fuck Écorché vif à la recherche de mon dû, j'accélère, y a des flashes sur le périph J'ai plus l'temps, j'dirige ma vie et j'vais mourir en la pilotant Eh, mon code je l'ai, celui d'l'honneur, mes gars à l'arrière Mes devoirs j'les honore À ma gauche ma zik, à ma droite ma famille et mes soss' On n'est pas à l'abri d'un crash J'viens éclater les portes de l'enfer J'veux vivre au paradis J'pousse les obstacles d'un coup d'pare-chocs Ici, j'dois rien à personne J'accélère 16 J'arrive à vive allure Partout y a des barrages J'vais les franchir, j'suis un MC 44 tout terrain J'roule sur l'or, tu parles, sur une voie glissante Et n'importe quand on peut goûter à l'asphalte K 2000, ma voiture c'est mon cur Et c'est mon crâne qui pilote J'ai rendez-vous avec la vie mec, si vous voulez sur moi faites feu J'suis blindé, je suis ma destinée Fiché par les autorités Regarde ma plaque 7-5-0-1-9, tu sais d'où j'viens et j'reste black Je sais qu'la route est longue, j'ai mes réserves Tu m'verras pas sur l'côté en panne sèche jamais J'suis un homme Et ici J'suis en mission J'accélère 16 J'plane J'passe la sixième vitesse Tu veux ma marque Family Brown La vie est trop courte pour m'lamenter sur ci ou ça Assumer, être un homme c'est ça aussi Sur ma route il fait sombre J'vois des ombres Et les morts sont comptés en nombre Le climat annonçait un orage Moi j'survis, pourquoi J'ai ma rage comme airbag Je zigzague avec le risque Accélère en temps d'pluie, flirte avec le danger J'prends l'périph Y a du monde sur la route, c'est pas grave Au terminus on s'retrouve J'accélère 16 Family Brown Sur ma route il fait sombre J'ai ma rage comme airbag Au terminus on s'retrouve J'accélère 16</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Donne-moi un stylo, une feuille appelle-moi mélancolique De l'encre va couler à défaut de larmes, à la folie j'ai aimé Je suis bafoué, je vis de musique et d'eau fraîche J'ai son couteau dans un bras, mon cur dans l'autre Appelez le juge, j'ai la pièce à conviction Je l'affirme l'amour a voulu me laisser sur le carreau Je me suis fait braquer, on m'a pris ma fierté d'homme On voulait m'arracher mon âme, je suis échappé On m'a dérobé mon cur, j'ai la plaie ouverte, regarde je suis vidé Je peux pas exposer ma rancur Je suis comme dépendant d'une drogue ou aucune cure n'est possible Le mal est dans le sang, dans le cur, dans le corps J'ai aimé comme si ça finissait demain Un suspens rarement conclu par une happy end Une mélodie, un air de soul, un visage pâle C'est plus moi qui parle c'est juste l'encre qui coule... L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé You might also like Les souvenirs meublent mes jours Je veux déménager et tout laisser à la fourrière Y'a du sang sur les murs et de la sueur dans mes mots C'est le stress, je ne suis plus moi au bout d'un moment L'amour c'est un terrain miné ou on marche les yeux fermés En croyant que toutes les bombes sont désamorcées J'entends un craquement, s'accélèrent les battements Les minutes sont longues, les paroles sont lourdes Y'a un long passage à vide et ça explose On voit ses songes enfumés, appelez les pompiers Le volcan a jeté ses flammes, je brûle On verse de l'alcool sur les plaies ouvertes On vient de kidnapper mes rêves, je donnerais tout pour m'échapper de là Mais l'amour affaiblit même les plus forts regarde Mesrine On se tue à aimer et on peut tuer par amour L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé Je veux vivre même blessé, je me relève quand je glisse Et je veux m'sentir venir, je garde les yeux plissés Je voulais que ma vie soit peace et que les médisants s'éclipsent Et le coupable de mon déclin je sais qui c'est La sensation d'être sourd alors que les mots te pénètrent Se rendre aveugle par peur de voir le vrai j'ai fléchi Je n'étais plus moi, quand je réfléchis il est trop tard Je divague déjà seul sur le boulevard, je ne veux plus car je flippe C'est pas un caïd ou un mec de cité qui te cause, c'est juste un homme Je suis balafré mais si invisible car les grandes douleurs sont muettes Y'a que mes mots qui sont lisibles Le cur du problème c'est un problème de cur L'amour à quelques mots près rime avec mort, je suis blasé Je suis un jeune vieux, je rappe sur un beau sample Parler de love aujourd'hui me semble impossible x2 L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé</t>
+          <t>Donne-moi un stylo, une feuille appelle-moi mélancolique De l'encre va couler à défaut de larmes, à la folie j'ai aimé Je suis bafoué, je vis de musique et d'eau fraîche J'ai son couteau dans un bras, mon cur dans l'autre Appelez le juge, j'ai la pièce à conviction Je l'affirme l'amour a voulu me laisser sur le carreau Je me suis fait braquer, on m'a pris ma fierté d'homme On voulait m'arracher mon âme, je suis échappé On m'a dérobé mon cur, j'ai la plaie ouverte, regarde je suis vidé Je peux pas exposer ma rancur Je suis comme dépendant d'une drogue ou aucune cure n'est possible Le mal est dans le sang, dans le cur, dans le corps J'ai aimé comme si ça finissait demain Un suspens rarement conclu par une happy end Une mélodie, un air de soul, un visage pâle C'est plus moi qui parle c'est juste l'encre qui coule... L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé Les souvenirs meublent mes jours Je veux déménager et tout laisser à la fourrière Y'a du sang sur les murs et de la sueur dans mes mots C'est le stress, je ne suis plus moi au bout d'un moment L'amour c'est un terrain miné ou on marche les yeux fermés En croyant que toutes les bombes sont désamorcées J'entends un craquement, s'accélèrent les battements Les minutes sont longues, les paroles sont lourdes Y'a un long passage à vide et ça explose On voit ses songes enfumés, appelez les pompiers Le volcan a jeté ses flammes, je brûle On verse de l'alcool sur les plaies ouvertes On vient de kidnapper mes rêves, je donnerais tout pour m'échapper de là Mais l'amour affaiblit même les plus forts regarde Mesrine On se tue à aimer et on peut tuer par amour L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé Je veux vivre même blessé, je me relève quand je glisse Et je veux m'sentir venir, je garde les yeux plissés Je voulais que ma vie soit peace et que les médisants s'éclipsent Et le coupable de mon déclin je sais qui c'est La sensation d'être sourd alors que les mots te pénètrent Se rendre aveugle par peur de voir le vrai j'ai fléchi Je n'étais plus moi, quand je réfléchis il est trop tard Je divague déjà seul sur le boulevard, je ne veux plus car je flippe C'est pas un caïd ou un mec de cité qui te cause, c'est juste un homme Je suis balafré mais si invisible car les grandes douleurs sont muettes Y'a que mes mots qui sont lisibles Le cur du problème c'est un problème de cur L'amour à quelques mots près rime avec mort, je suis blasé Je suis un jeune vieux, je rappe sur un beau sample Parler de love aujourd'hui me semble impossible x2 L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'ai vu deux choses me faire flipper, la mort et l'excès d'amour L'un me fait des signes, l'autre domine mon cur, me fait esclave de mes actes J'ai vu ce cul-de-jatte voir ses potes courir vers la gloire Et les entendre toujours parler de cul et de chatte J'ai vu ce petit de la tess qui m'a braqué en me disant Maintenant j'suis fou, j'deale, je veux de l'argent Et si je fais 10 ans je serai caïd, soi-disant Je suis un pédé, je lui dis vaut mieux le laisser croire Qu'aller se faire enculer et le devenir Dire que j'ai vu la taule à l'horizon à cause d'une poucave Dieu merci ce n'était qu'une vision J'ai vu du sexe sale des bites dans des trous de balle Des balles qui en sortaient sous l'excès de pression du pit J'ai vu cette partouze où le dernier mec se trouve face à sa sur Sueur, larmes, armes blanches, sang, imagine la suite J'ai vu la vie j'envie les vieux, la vie m'a vu, la mort me veut Refrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 2 J'ai vu du rap en carotte sur des contrats qu'ils arrêtent Des rates en quête de queues d'artistes Des barrettes de shit dans le cul d'un mec avec moi en G.A.V Via je ne sais où un mec qui me dit Moi je te teste en rap J'ai fait la parodie de sa vie dont j'étais scénariste J'ai vu Dieu à ma droite, le Diable à ma gauche qui me dit Mise avec moi tu reverras les vendredis 13 J'ai l'aise à portée de main, ta main m'a porté je sais que tu as faim Le choix qui j'ai fait était le mien, l'avis que t'avais était le tien Mais je sais que parfois ma raison me donne tort J'ai vu l'apocalypse dans la rue les keufs s'allient Trop de coups roués, eux riant, moi criant Ça me donne la matière pour créer J'ai vu ce mec qui veut ma mort, mon amour, savoure mes échecs Bloque devant ma photo et me traite de plouc Salit mon nom je vois le truc, Glock en main il me tuerait Ne peut pas admettre que ce que je fais soit de la tuerie You might also likeRefrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 3 J'ai vu une masse de personne devant moi quand j'ai dit À ceux qui me haïssent Prenez un ticket et faites la queue J'ai vu ce toxicomane braquer sa mère avec une arme blanche Il a fugué et s'est fait adopter par la poudre blanche J'ai vu ce vieillard me dire Putain de nègre, tu pues toi Et après on me dit que même pour ceux là faut avoir de la pitié, non J'ai vu que la vengeance veut devenir ma seule raison de vivre Un combat avec moi-même auquel je me suis livré J'ai vu mon pote mourir du dass à cause d'une tass qui lui a dit Il n'y a que toi et je n'aime que toi Tout ce que j'ai dit c'est ce que j'ai vu ou ce que mes soss et moi avons vécu J'ai vu et parfois malgré moi J'ai vu que ma vie était une suite d'images, filme mon quotidien en rimes 3'30 résume mon long métrage Drame, amour, frisson, malgré tout ça Je vois qu'à ce jour je n'ai encore rien vu Refrain x3 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar1</t>
+          <t>J'ai vu deux choses me faire flipper, la mort et l'excès d'amour L'un me fait des signes, l'autre domine mon cur, me fait esclave de mes actes J'ai vu ce cul-de-jatte voir ses potes courir vers la gloire Et les entendre toujours parler de cul et de chatte J'ai vu ce petit de la tess qui m'a braqué en me disant Maintenant j'suis fou, j'deale, je veux de l'argent Et si je fais 10 ans je serai caïd, soi-disant Je suis un pédé, je lui dis vaut mieux le laisser croire Qu'aller se faire enculer et le devenir Dire que j'ai vu la taule à l'horizon à cause d'une poucave Dieu merci ce n'était qu'une vision J'ai vu du sexe sale des bites dans des trous de balle Des balles qui en sortaient sous l'excès de pression du pit J'ai vu cette partouze où le dernier mec se trouve face à sa sur Sueur, larmes, armes blanches, sang, imagine la suite J'ai vu la vie j'envie les vieux, la vie m'a vu, la mort me veut Refrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 2 J'ai vu du rap en carotte sur des contrats qu'ils arrêtent Des rates en quête de queues d'artistes Des barrettes de shit dans le cul d'un mec avec moi en G.A.V Via je ne sais où un mec qui me dit Moi je te teste en rap J'ai fait la parodie de sa vie dont j'étais scénariste J'ai vu Dieu à ma droite, le Diable à ma gauche qui me dit Mise avec moi tu reverras les vendredis 13 J'ai l'aise à portée de main, ta main m'a porté je sais que tu as faim Le choix qui j'ai fait était le mien, l'avis que t'avais était le tien Mais je sais que parfois ma raison me donne tort J'ai vu l'apocalypse dans la rue les keufs s'allient Trop de coups roués, eux riant, moi criant Ça me donne la matière pour créer J'ai vu ce mec qui veut ma mort, mon amour, savoure mes échecs Bloque devant ma photo et me traite de plouc Salit mon nom je vois le truc, Glock en main il me tuerait Ne peut pas admettre que ce que je fais soit de la tuerie Refrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 3 J'ai vu une masse de personne devant moi quand j'ai dit À ceux qui me haïssent Prenez un ticket et faites la queue J'ai vu ce toxicomane braquer sa mère avec une arme blanche Il a fugué et s'est fait adopter par la poudre blanche J'ai vu ce vieillard me dire Putain de nègre, tu pues toi Et après on me dit que même pour ceux là faut avoir de la pitié, non J'ai vu que la vengeance veut devenir ma seule raison de vivre Un combat avec moi-même auquel je me suis livré J'ai vu mon pote mourir du dass à cause d'une tass qui lui a dit Il n'y a que toi et je n'aime que toi Tout ce que j'ai dit c'est ce que j'ai vu ou ce que mes soss et moi avons vécu J'ai vu et parfois malgré moi J'ai vu que ma vie était une suite d'images, filme mon quotidien en rimes 3'30 résume mon long métrage Drame, amour, frisson, malgré tout ça Je vois qu'à ce jour je n'ai encore rien vu Refrain x3 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar1</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Le monde c'est un théâtre Faut apprendre à jouer son rôle, staire ou s'battre J'veux pas finir dun cancer ou mal à la prostate J'crois qu'j'vais finir d'un mal cardiaque Dans mon crâne, c'est la crise J'en veux au monde et j'lemmerde, ça cest plus une surprise J'en veux à la haine, je cherche la paix Regarde ma mine dévastée par lenvie d'vaincre J'suis en période de guerre J'dîne seul, jmarche seul, j'ai plus confiance en rien Même moi j'me fais flipper alors imagine J'en veux à l'État, ne vit que pour les taxes Ils m'prennent 56 et j'fais toujours la queue pour mes problèmes de fafs Quand j'vis dans la crasse on m'insulte Quand j'vis dans la classe c'est l'insulte J'suis leur pute préférée comme dirait Chill C'est dingue, et si j'prône la révolte, qu'on m'dise pas qu'j'gêne J'me suis battu gratuitement pour rester droit J'en veux au monde et ses théories c'est un acharnement J'te dirais qu'ce soir, j'suis pas festif Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde You might also like Et mes aïeux m'protègent, les bruitages sont ceux d'un cur qui bat Les grandes douleurs sont muettes, qui aurait cru pour Kurt Cobain? J'en reviens de ce sanctuaire où être seul devient l'exutoire Ai-je eu tort d'aider mon prochain? Mystère Le Ciel m'a demandé d'être bon Mais si j'continue, j'vais finir par y croire quand on m'traite de con J'en veux au monde mais j'suis pas martyr J'suis immortel car mes raps sont des testaments J'suis une ombre maléfique pour les gens qu'j'hais Il plane une atmosphère louche, mais moi j'ai rien enclenché Je n'fais qu'répondre aux claques par des patates Me parle pas d'justice, j'deviens bâtard et porte bien mon nom d'clebs J'en veux au monde et du monde m'en veut Ils m'le rendent bien, chaque jour j'essuie des balafres sur ma caisse négro Tu veux la vision d'un monde instable, j'rentre dans l'Histoire T'as frappé à la bonne porte Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde J'en veux au monde, le tonnerre gronde Les bombes abondent et dans les songes C'est l'désastre, les cris remontent Rien n'est simple, tout bascule Prenons les masques à gaz, les époques s'bousculent Ça dégénère, j'suis montré du doigt On m'préfère p't-être à la ramasse ou filtré par les flics Mais j'emmerde ce monde qui m'veut dead J'ai planqué mon or Mon Dieu, j'suis à ta merci, j'ai pas besoin d'aide De ces mecs qui pourraient faire volte-face mais vous inquiétez pas Les visages j'les ai démasqués J'vous divulge de vive voix mes vux Deux fois plus péter la baraque et faire profiter ma clique J'en veux à c'monde qui a dit Pit est incapable de faire un album En voilà deux, appelle-moi incroyable J'en veux au monde et c'que t'oublies C'est qu'un chien en rage mord même dans le luxe Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde</t>
+          <t>Le monde c'est un théâtre Faut apprendre à jouer son rôle, staire ou s'battre J'veux pas finir dun cancer ou mal à la prostate J'crois qu'j'vais finir d'un mal cardiaque Dans mon crâne, c'est la crise J'en veux au monde et j'lemmerde, ça cest plus une surprise J'en veux à la haine, je cherche la paix Regarde ma mine dévastée par lenvie d'vaincre J'suis en période de guerre J'dîne seul, jmarche seul, j'ai plus confiance en rien Même moi j'me fais flipper alors imagine J'en veux à l'État, ne vit que pour les taxes Ils m'prennent 56 et j'fais toujours la queue pour mes problèmes de fafs Quand j'vis dans la crasse on m'insulte Quand j'vis dans la classe c'est l'insulte J'suis leur pute préférée comme dirait Chill C'est dingue, et si j'prône la révolte, qu'on m'dise pas qu'j'gêne J'me suis battu gratuitement pour rester droit J'en veux au monde et ses théories c'est un acharnement J'te dirais qu'ce soir, j'suis pas festif Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde Et mes aïeux m'protègent, les bruitages sont ceux d'un cur qui bat Les grandes douleurs sont muettes, qui aurait cru pour Kurt Cobain? J'en reviens de ce sanctuaire où être seul devient l'exutoire Ai-je eu tort d'aider mon prochain? Mystère Le Ciel m'a demandé d'être bon Mais si j'continue, j'vais finir par y croire quand on m'traite de con J'en veux au monde mais j'suis pas martyr J'suis immortel car mes raps sont des testaments J'suis une ombre maléfique pour les gens qu'j'hais Il plane une atmosphère louche, mais moi j'ai rien enclenché Je n'fais qu'répondre aux claques par des patates Me parle pas d'justice, j'deviens bâtard et porte bien mon nom d'clebs J'en veux au monde et du monde m'en veut Ils m'le rendent bien, chaque jour j'essuie des balafres sur ma caisse négro Tu veux la vision d'un monde instable, j'rentre dans l'Histoire T'as frappé à la bonne porte Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde J'en veux au monde, le tonnerre gronde Les bombes abondent et dans les songes C'est l'désastre, les cris remontent Rien n'est simple, tout bascule Prenons les masques à gaz, les époques s'bousculent Ça dégénère, j'suis montré du doigt On m'préfère p't-être à la ramasse ou filtré par les flics Mais j'emmerde ce monde qui m'veut dead J'ai planqué mon or Mon Dieu, j'suis à ta merci, j'ai pas besoin d'aide De ces mecs qui pourraient faire volte-face mais vous inquiétez pas Les visages j'les ai démasqués J'vous divulge de vive voix mes vux Deux fois plus péter la baraque et faire profiter ma clique J'en veux à c'monde qui a dit Pit est incapable de faire un album En voilà deux, appelle-moi incroyable J'en veux au monde et c'que t'oublies C'est qu'un chien en rage mord même dans le luxe Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Track 16 lyrics à venirYou might also like</t>
+          <t>Track 16 lyrics à venir</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Huit heures du mat' je me lève au bras de cette fouf Après une binda terrible, je prends mon souffle Je me mire, je me marre faut que je trahisse cette touffe Je sais pas quoi me mettre dans mon placard, je plouffe La miss comme chaque matin me fait son speech Elle me dit d'arrêter cette vie mais je m'en fiche Avant que le taf commence je vais prendre une bonne douche À cet instant déjà l'atmosphère est louche Elle continue sa tchatche, je lui dis shhh J'entends du bruit, la parano d'un vendeur de shit J'ai l'impression dans tous les coins il y a des schmits Que je suis épié que tous les regards sont sur Pit Je prends mon matos caché dans ma boîte à shoes Où j'y ai planqué mes 25 et mes 12 Mon phone sonne d'un click je prends ma double gouze La journée commence à la recherche de flouze x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques Le terrain est miné mon assos s'est mis dans une histoire De meufs une embrouille interminable Tel est pris qui croyait prendre trop long à vous faire comprendre En gros je suis seul à opérer par ce temps minable Où est l'boloss ? Je toque à sa porte Malgré les civils dans le secteur j'avais le matos sur moi 10 heures déjà, le blizzard sur moi, grave à ces heures là je croise des sacrés tiseurs Je fais des va-et-vient je sais que les flics flairent mon jeu Entrer dans plusieurs immeubles je veux pas finir en GAV Ils savent ce que je fais, m'appellent par mon prénom des fois Des piles de photos sont prises je sais qu'ils m'ont chez moi à poil Mes clients ont juste mon pseudonyme Au cas mon phone est sur écoute je change de ligne Je fais mes briques braque pendant que les autres braquent Un grossiste pour lui enlever ses parts de marché Crack ou héroïne c'est pas mon truc waou Le dixième appel, excusez-moi l'argent m'appelle You might also like x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques T'as pas un petit c-tru la, tu sais quoi reviens demain à la même heure Ok parce que là j'ai plus rien ok Dure journée, dans la caisse, hein, dix milles francs pas, hein Faut aller se manger un petit truc puis hein Willie est passé dans le secteur c'est mon soss Mais je crois que il a une maladie grave, il a le virus de l'escroquerie On va chercher Bakary sept jours sur sept coiffé carré De Place des Fêtes à Place Carrée toutes les foufs en sont tarées Ce soir y'a du répondant mate la forme des fesses des miss Champagne au frais dans le cas ou le gang-bang s'impose Bizarrement tout le monde nous suce, c'est normal Avec trois bouteilles à 3 heures du mat à l'Atlantis Travailler à son compte c'est mieux pas besoin de bahut Je suis PDG, comptable, travaille même à la main-duvre Ouvert 7 jours sur 7, 24 heurs sur 24 En cas d'absence laisser un message à mes secrétaires C'est ça la vie de dealer, c'est ça la vie de dealer x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques</t>
+          <t>Huit heures du mat' je me lève au bras de cette fouf Après une binda terrible, je prends mon souffle Je me mire, je me marre faut que je trahisse cette touffe Je sais pas quoi me mettre dans mon placard, je plouffe La miss comme chaque matin me fait son speech Elle me dit d'arrêter cette vie mais je m'en fiche Avant que le taf commence je vais prendre une bonne douche À cet instant déjà l'atmosphère est louche Elle continue sa tchatche, je lui dis shhh J'entends du bruit, la parano d'un vendeur de shit J'ai l'impression dans tous les coins il y a des schmits Que je suis épié que tous les regards sont sur Pit Je prends mon matos caché dans ma boîte à shoes Où j'y ai planqué mes 25 et mes 12 Mon phone sonne d'un click je prends ma double gouze La journée commence à la recherche de flouze x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques Le terrain est miné mon assos s'est mis dans une histoire De meufs une embrouille interminable Tel est pris qui croyait prendre trop long à vous faire comprendre En gros je suis seul à opérer par ce temps minable Où est l'boloss ? Je toque à sa porte Malgré les civils dans le secteur j'avais le matos sur moi 10 heures déjà, le blizzard sur moi, grave à ces heures là je croise des sacrés tiseurs Je fais des va-et-vient je sais que les flics flairent mon jeu Entrer dans plusieurs immeubles je veux pas finir en GAV Ils savent ce que je fais, m'appellent par mon prénom des fois Des piles de photos sont prises je sais qu'ils m'ont chez moi à poil Mes clients ont juste mon pseudonyme Au cas mon phone est sur écoute je change de ligne Je fais mes briques braque pendant que les autres braquent Un grossiste pour lui enlever ses parts de marché Crack ou héroïne c'est pas mon truc waou Le dixième appel, excusez-moi l'argent m'appelle x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques T'as pas un petit c-tru la, tu sais quoi reviens demain à la même heure Ok parce que là j'ai plus rien ok Dure journée, dans la caisse, hein, dix milles francs pas, hein Faut aller se manger un petit truc puis hein Willie est passé dans le secteur c'est mon soss Mais je crois que il a une maladie grave, il a le virus de l'escroquerie On va chercher Bakary sept jours sur sept coiffé carré De Place des Fêtes à Place Carrée toutes les foufs en sont tarées Ce soir y'a du répondant mate la forme des fesses des miss Champagne au frais dans le cas ou le gang-bang s'impose Bizarrement tout le monde nous suce, c'est normal Avec trois bouteilles à 3 heures du mat à l'Atlantis Travailler à son compte c'est mieux pas besoin de bahut Je suis PDG, comptable, travaille même à la main-duvre Ouvert 7 jours sur 7, 24 heurs sur 24 En cas d'absence laisser un message à mes secrétaires C'est ça la vie de dealer, c'est ça la vie de dealer x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>99 Pit Au Mic Première Classe 2ème Opus Premier album, deuxième opus, l'accent sur les mot plus accès vers l'cataclysme pour qu'ce soit la cataplexie J'perds pas la main, après Time Bomb ça donne ça Admire ma vie après ma mort, admire marre-toi, marmonne Les marmot m'aiment, miment mes mots j'suis toujours le même hors normes, comme personne Hormones de croissance? Pas besoin, 1m70 au carreau Guerre des nerfs j'ai l'barreau sur l'beat, grossiers baow! Et les autres disent que j'suis taré! Et écrire? ma manière d'parler sans être interrompu, ça pue la souffrance, ça vire à l'arrogance Et dire que j'voulais stopper tout pour des problèmes de conscience Encore en vie grâce à XXX qui m'a dit vient on s'y lance! S.O.L.O molo, colossal moi le colonel de ma troupe versera couler pour preuve l'odeur de mon polo sale Limité quand faut parler U.N-ité, humilité ou pas, 99 j'vais militer! Lorsque la haine a éclatée réconciliation est fausse me taire ou m'tuer, m'tuer j'choisis quand on est tous dans la fausse Crie à eux la victoire mais quand j'parle de mort dans ces masses de boom boom c'est mourir à l'affront du fric Porte toujours sur les couilles, fracture des cranes dégoûte c'et la qu'tu crame les poules mouillées quand j'vois la réaction des keums J'perds pas la main rappeur en solo, majeur salop dans l'passé, han, mon nom c'est Pit! V'la une réflexion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle Perd pas la main en solo V'la une réféxion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle La rage dans le mic' You might also like Après ça XXX et Ox, XXX, l'Doc, PC et autre Y'a d'quoi enjailler les éditions, option sur l'album boom! Tu en a rêvé Baccardi l'a fait comme XXX à qui j'dédie M'soutiens le boomerang pour les gang dingue Pit bang, big bang bref, faut qu'ils soient sauvés par le gong! C'est une vie entière sur disque, je mise gros en misant seul Faire bisquer ceux qui croyait t'es fou Qu'est-ce qui? y'a plus d'XXX que d'challenge Je change de clan, on dit qu'c'est mon déclin, j'ferais la une ma couille d'Paris à Oklahoma Maintenant qu'la rime paie faisons partie d'ceux qui en profitent J'mène l'utile à l'agréable que demander de plus? Pit a compris l'truc, j'kick au mic, kick la rue Et vise le Hightop des box ou des XXX qui n'a pas faim La guerre se prépare en temps de paix C'est quand tout va bien que j'calcule comment t'baiser Extrait de mon art de la guerre J'ai appris au gorille a faire la grimace J'arriverai avant ces enfoirés qui m'traitent de limace J'ai attrapé cette putain de foutre par la queue Quand j'éteins la lumière, avant qu'il fasse noir j'étais au pieu Baccardi Pit Celui Par qui vient l'scandale!</t>
+          <t>99 Pit Au Mic Première Classe 2ème Opus Premier album, deuxième opus, l'accent sur les mot plus accès vers l'cataclysme pour qu'ce soit la cataplexie J'perds pas la main, après Time Bomb ça donne ça Admire ma vie après ma mort, admire marre-toi, marmonne Les marmot m'aiment, miment mes mots j'suis toujours le même hors normes, comme personne Hormones de croissance? Pas besoin, 1m70 au carreau Guerre des nerfs j'ai l'barreau sur l'beat, grossiers baow! Et les autres disent que j'suis taré! Et écrire? ma manière d'parler sans être interrompu, ça pue la souffrance, ça vire à l'arrogance Et dire que j'voulais stopper tout pour des problèmes de conscience Encore en vie grâce à XXX qui m'a dit vient on s'y lance! S.O.L.O molo, colossal moi le colonel de ma troupe versera couler pour preuve l'odeur de mon polo sale Limité quand faut parler U.N-ité, humilité ou pas, 99 j'vais militer! Lorsque la haine a éclatée réconciliation est fausse me taire ou m'tuer, m'tuer j'choisis quand on est tous dans la fausse Crie à eux la victoire mais quand j'parle de mort dans ces masses de boom boom c'est mourir à l'affront du fric Porte toujours sur les couilles, fracture des cranes dégoûte c'et la qu'tu crame les poules mouillées quand j'vois la réaction des keums J'perds pas la main rappeur en solo, majeur salop dans l'passé, han, mon nom c'est Pit! V'la une réflexion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle Perd pas la main en solo V'la une réféxion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle La rage dans le mic' Après ça XXX et Ox, XXX, l'Doc, PC et autre Y'a d'quoi enjailler les éditions, option sur l'album boom! Tu en a rêvé Baccardi l'a fait comme XXX à qui j'dédie M'soutiens le boomerang pour les gang dingue Pit bang, big bang bref, faut qu'ils soient sauvés par le gong! C'est une vie entière sur disque, je mise gros en misant seul Faire bisquer ceux qui croyait t'es fou Qu'est-ce qui? y'a plus d'XXX que d'challenge Je change de clan, on dit qu'c'est mon déclin, j'ferais la une ma couille d'Paris à Oklahoma Maintenant qu'la rime paie faisons partie d'ceux qui en profitent J'mène l'utile à l'agréable que demander de plus? Pit a compris l'truc, j'kick au mic, kick la rue Et vise le Hightop des box ou des XXX qui n'a pas faim La guerre se prépare en temps de paix C'est quand tout va bien que j'calcule comment t'baiser Extrait de mon art de la guerre J'ai appris au gorille a faire la grimace J'arriverai avant ces enfoirés qui m'traitent de limace J'ai attrapé cette putain de foutre par la queue Quand j'éteins la lumière, avant qu'il fasse noir j'étais au pieu Baccardi Pit Celui Par qui vient l'scandale!</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Oui tu le sais La solitude, je suis né avec Et un de ses jours je partirai avec J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Semblant de poète à la mémoire chauve Je perds mes réflexes Me noie dans des soucis Ma zik' de l'or pour les pauvres en paix Repose ceux qui de plus en plus ont contemplé le ciel Avant que la foudre ne brise leurs songes En profondeur, je traverse des rivières d'images Ça coule à flot quand je pose le bic sur la marge Je suis l'homme libre à la rime qui pleure, cible d'obus Si jamais je crève qu'on danse sur Prodigy à mes obsèques You might also likeJamais vous ne sentirez ma peine Jamais vous ne sentirez la peur dans ma poigne Quand je vous dis bye Vous sentirez pas les pleurs d'un homme célèbre Vous le voyez derrière une vitrine Pourtant la pluie s'abat et la grêle casse les vitres x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec J'crois qu'y a une époque qui séteint Une plaque chauffante qui s'allume C'est mon cur qui chauffe Ne vois tu pas que c'est la mouise sur ma mine ? Célèbre mais triste Mine de rien j'suis le mime d'une réussite désenchantée J'voulais unir mes déchirures, faire la une Blasé, mourir au combat, survivre ou je m'assassine Rester digne, partir en héros alors je rime Quitte a en faire pleurer les mères et mômes C'est ce qui se passe quand j'écris ces lignes Tu veux savoir pourquoi je suis triste? J'suis seul, aidé par le ciel Mal vu par le sol car jexcelle dans mon art Je convoite la paix et la joie J'évite la peur, j'agis Je suis devenu le mur du silence c'est pour ça que je chante Comprends mature Je suis de nature à me livrer Les mots reflètent l'état du cur je vois les sourds délivrés J'ai de la haine j'en veux à des gens à mort Le regard d'un mort porte malheur à celui qui le croise x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Ok, Mon son, ma larme Mon écrit, mon son, l'alarme sonne Quand j'dis que j'irai cracher des bombes sur leurs tombes C'est obscène mais observe Tous ce qui se passe n'est qu'un affrontement Sèves de sang, ce rap desséché C'est la merde dans le monde depuis le commencement Harcèlement moral, je balafre à juste cause Déclin depuis le coin de rue c'est ça le juste titre Je veux vivre et juste faire parler mon cur La rue m'observe et me perpétue dans tous ses corps-à-corps Je me noie dans mes abysses Là ou les haches s'abaissent Le drapeau blanc s'immisce Y a que de la verdure sur les collines Broyé par le superflu des guerres L'avenir est dans la brume, je vois ça d'un regard super flou Je m'évade par mes voies magiques, tragiques Dhémorragies c'est de ça qu'il s'agit J'ai la vision d'un rêveur qui voit ses songes comme une part de réel Quand je rêve de ma mort J'crois pas qu'je joue un rôle x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec</t>
+          <t>Oui tu le sais La solitude, je suis né avec Et un de ses jours je partirai avec J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Semblant de poète à la mémoire chauve Je perds mes réflexes Me noie dans des soucis Ma zik' de l'or pour les pauvres en paix Repose ceux qui de plus en plus ont contemplé le ciel Avant que la foudre ne brise leurs songes En profondeur, je traverse des rivières d'images Ça coule à flot quand je pose le bic sur la marge Je suis l'homme libre à la rime qui pleure, cible d'obus Si jamais je crève qu'on danse sur Prodigy à mes obsèques Jamais vous ne sentirez ma peine Jamais vous ne sentirez la peur dans ma poigne Quand je vous dis bye Vous sentirez pas les pleurs d'un homme célèbre Vous le voyez derrière une vitrine Pourtant la pluie s'abat et la grêle casse les vitres x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec J'crois qu'y a une époque qui séteint Une plaque chauffante qui s'allume C'est mon cur qui chauffe Ne vois tu pas que c'est la mouise sur ma mine ? Célèbre mais triste Mine de rien j'suis le mime d'une réussite désenchantée J'voulais unir mes déchirures, faire la une Blasé, mourir au combat, survivre ou je m'assassine Rester digne, partir en héros alors je rime Quitte a en faire pleurer les mères et mômes C'est ce qui se passe quand j'écris ces lignes Tu veux savoir pourquoi je suis triste? J'suis seul, aidé par le ciel Mal vu par le sol car jexcelle dans mon art Je convoite la paix et la joie J'évite la peur, j'agis Je suis devenu le mur du silence c'est pour ça que je chante Comprends mature Je suis de nature à me livrer Les mots reflètent l'état du cur je vois les sourds délivrés J'ai de la haine j'en veux à des gens à mort Le regard d'un mort porte malheur à celui qui le croise x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Ok, Mon son, ma larme Mon écrit, mon son, l'alarme sonne Quand j'dis que j'irai cracher des bombes sur leurs tombes C'est obscène mais observe Tous ce qui se passe n'est qu'un affrontement Sèves de sang, ce rap desséché C'est la merde dans le monde depuis le commencement Harcèlement moral, je balafre à juste cause Déclin depuis le coin de rue c'est ça le juste titre Je veux vivre et juste faire parler mon cur La rue m'observe et me perpétue dans tous ses corps-à-corps Je me noie dans mes abysses Là ou les haches s'abaissent Le drapeau blanc s'immisce Y a que de la verdure sur les collines Broyé par le superflu des guerres L'avenir est dans la brume, je vois ça d'un regard super flou Je m'évade par mes voies magiques, tragiques Dhémorragies c'est de ça qu'il s'agit J'ai la vision d'un rêveur qui voit ses songes comme une part de réel Quand je rêve de ma mort J'crois pas qu'je joue un rôle x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Freestyle racaille, c'est là qu'on s'introduit Pour Pit Baccardi C'est moi qui tient les commandes C'est moi qui conduit Rohff Ouais gros Kery James Mafia K'1Fry Mafia Africaine Sur l'son de DJ Mehdi Ouais ça déchire Première Classe En place en place ! En place, vas-y, Kery James Dans l'Rap, j'm'en bats les couilles j'me balade en slip comme à la maison Et l'premier qui m'casse les couilles j'l'embrouille sans aucune raison Tandis que mes res-frè plus de 100 kilos débitent Tandis que plus de 100 rappeurs ont sucé des bites Alors d'une, j'aimerais en placer une pour tous mes frères Deux, j'couperais en deux plus de trois mes adversaires J'fais mon entrée, et deux trois te-tê tranchées d'entrée L'haïtien, par réputation le magicien, théoricien, ancien rap mathématicien, technicien, style de flow de caille-ra détient Laïcien par obligation, le musicien, physicien Rap de tueur, rap assassin ! C'est moi qui possède le style flow de caille-ra mec Au M.I.C j'procède à la Wu, protect your neck Combien d'entre nous portent la cagoule et les gants Mafia Africaine, quinze boug' parmi les plus élégants You might also like K'1 Fry Style mafia, quand j'froisse le mic' j'mets pas les gants ! Pas d'mains en l'air, ranges tes molaires, donc n'y mets pas les dents ! Dans les mots rap et clash, j'compte sur une centaine pour moi seulement Celui qui déclencha les règles des rappeurs putes tout récemment J'ai reçu mon diplôme de haute rapologie Si y'a plagiat à la PJ ensuite enfilade d'anthologie des mecs n'attendent que ça se faire des rappeurs farfelus Qui se transforment en j'te jure, ça j'l'ai pas On va pas refaire le jugement de certains mecs famés Mais juste une petite remise à l'heure, j'te promets, il fallait À tous ceux qui n'cessent de mettre leurs nez dans nos affaires Qu'ils continuent plutôt de mettre leurs affaires dans leurs nez Sers tes sses-f ou tu vas bruit de pet Ici c'est Rohff, c'est mauvais signe MC, ouais toi là, j't'assassine J'affirme puis confirme, j'te nique, j'me la raconte pas T'as beau faire l'nerveux au mic', sapé caille-ra pour moi ça compte pas J'm'en fous d'ta morale de pute, trou d'u-c là, j't'éduque Tu joues l'balèze dans l'Rap, j'sais qu't'as pas d'couille pour faire certains trucs Ça change rien qu'tu sois un chaud ou une mauviette J'tiens à c'que l'auditeur mélange pas l'PQ et les serviettes En direct, mon style fait boum boum dans ta tête Hagra partie, sans confettis j'te fais ta fête T'inquiètes pas, pour moi, gros j'hésite pas Mon machtok fait clic ensuite pah C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken Laisse-moi dégainer le bad style qui fera jump up toutes les racailles Le freestyle en rafale qui finira par foutre la caille J'veux juste une réalité, le bitume espoir de thunes De mec qu'on fume pour une thune, l'amertume rimes d'aciers glacées, frotte un Colt Une arme, m'importe le verdict, ma rime est un Colt Combien s'en sortent face à mon flow et mon escorte ? Combien de la compétition se voient rayés de la sorte ? Lorsqu'on exporte un bon son rude pour les mecs du Sud On tit-sor un bon son hardcore pour les mecs du Nord Issu de la Terre-Mère, le style reste universel Néanmoins, nous optons pour une Mafia Africaine Apocalypse agit moins peu plié Païen payé pour voir que mon croyant sent mon rap Bruit de crachat dans vos gueules et bien appuyé Pile-poil pour putes poilues qui font les squales Pas plumes, pas lourds Et qui s'branlent parce que y'a mon nom sur leurs polos Mon palier s'élève à beaucoup d'golgotes qui s'croient dans Stargate mais qui virevoltent entre ma merde et c'qui y'a en dessous La star guette, ma gueule coute c'que j'dégueule sur beat brut Goutte pas mes couilles, dans cette capote j'ai laissé quelques gouttes Connard, insultant comme le ciel le permet pas Un salaud, à patate noir qui a rendu ce vieux tou-bab raciste bleu Insultant comme ma merde qui sent mieux qu'toi Tu pues toi et ferme ta gueule, appelle-moi sultan Entrée fulgurante, c'est là tout d'suite que j'te la rentre Histoire qu'j'démontre devant tout l'monde qu'ton rap j'l'égorge, j'l'éventre Situation angoissante, ta femme en est souriante Ma voix éblouissante la rend beaucoup plus charmante MC tu pues d'la gueule, là j't'apporte le flow bonbon à la menthe Qui rafraichit l'haleine, rigole, elle est marrante Kiffe cette façon tranquille de te mettre à l'amende Pas d'compet' connard, comme falche cheval d'course à la montre Hagrator qui l'encule à tort, star dans les parages MC j'te dévore de plus en plus fort à cause de la rage V'là l'machin, bête d'engin qui sort pas d'un garage Mec de Vitry, jai la voix hache Jtapplatis comme le cul dune nois-ch On fait du nettoyage Là il y a des textes, là où il y a des zoulous bizarres On brille par le prestige et la prestance La classe africaine on représente Ouais, du Demi-Lune Zoo au 19ème cest élégance Tes raps abdominales, au ptit déj chacun on en prend deux, minable Pour bigleux orgueil de vision propre et à la solution fiable Patate dans lil gauche en enfonçant le doigt dans lil droit Tu verras du noir, au moins tu diras pas qutu vois rien, bâtard Pit sur beat cest comme quand ça pète dans les blocs Glock lyrical, jai un 16 rimes toujours dans mon fut, demande à De suite on rêve dans lrap et dans la chanson Un rappeur producteur qui génère ses millions x3 C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken1</t>
+          <t>Freestyle racaille, c'est là qu'on s'introduit Pour Pit Baccardi C'est moi qui tient les commandes C'est moi qui conduit Rohff Ouais gros Kery James Mafia K'1Fry Mafia Africaine Sur l'son de DJ Mehdi Ouais ça déchire Première Classe En place en place ! En place, vas-y, Kery James Dans l'Rap, j'm'en bats les couilles j'me balade en slip comme à la maison Et l'premier qui m'casse les couilles j'l'embrouille sans aucune raison Tandis que mes res-frè plus de 100 kilos débitent Tandis que plus de 100 rappeurs ont sucé des bites Alors d'une, j'aimerais en placer une pour tous mes frères Deux, j'couperais en deux plus de trois mes adversaires J'fais mon entrée, et deux trois te-tê tranchées d'entrée L'haïtien, par réputation le magicien, théoricien, ancien rap mathématicien, technicien, style de flow de caille-ra détient Laïcien par obligation, le musicien, physicien Rap de tueur, rap assassin ! C'est moi qui possède le style flow de caille-ra mec Au M.I.C j'procède à la Wu, protect your neck Combien d'entre nous portent la cagoule et les gants Mafia Africaine, quinze boug' parmi les plus élégants K'1 Fry Style mafia, quand j'froisse le mic' j'mets pas les gants ! Pas d'mains en l'air, ranges tes molaires, donc n'y mets pas les dents ! Dans les mots rap et clash, j'compte sur une centaine pour moi seulement Celui qui déclencha les règles des rappeurs putes tout récemment J'ai reçu mon diplôme de haute rapologie Si y'a plagiat à la PJ ensuite enfilade d'anthologie des mecs n'attendent que ça se faire des rappeurs farfelus Qui se transforment en j'te jure, ça j'l'ai pas On va pas refaire le jugement de certains mecs famés Mais juste une petite remise à l'heure, j'te promets, il fallait À tous ceux qui n'cessent de mettre leurs nez dans nos affaires Qu'ils continuent plutôt de mettre leurs affaires dans leurs nez Sers tes sses-f ou tu vas bruit de pet Ici c'est Rohff, c'est mauvais signe MC, ouais toi là, j't'assassine J'affirme puis confirme, j'te nique, j'me la raconte pas T'as beau faire l'nerveux au mic', sapé caille-ra pour moi ça compte pas J'm'en fous d'ta morale de pute, trou d'u-c là, j't'éduque Tu joues l'balèze dans l'Rap, j'sais qu't'as pas d'couille pour faire certains trucs Ça change rien qu'tu sois un chaud ou une mauviette J'tiens à c'que l'auditeur mélange pas l'PQ et les serviettes En direct, mon style fait boum boum dans ta tête Hagra partie, sans confettis j'te fais ta fête T'inquiètes pas, pour moi, gros j'hésite pas Mon machtok fait clic ensuite pah C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken Laisse-moi dégainer le bad style qui fera jump up toutes les racailles Le freestyle en rafale qui finira par foutre la caille J'veux juste une réalité, le bitume espoir de thunes De mec qu'on fume pour une thune, l'amertume rimes d'aciers glacées, frotte un Colt Une arme, m'importe le verdict, ma rime est un Colt Combien s'en sortent face à mon flow et mon escorte ? Combien de la compétition se voient rayés de la sorte ? Lorsqu'on exporte un bon son rude pour les mecs du Sud On tit-sor un bon son hardcore pour les mecs du Nord Issu de la Terre-Mère, le style reste universel Néanmoins, nous optons pour une Mafia Africaine Apocalypse agit moins peu plié Païen payé pour voir que mon croyant sent mon rap Bruit de crachat dans vos gueules et bien appuyé Pile-poil pour putes poilues qui font les squales Pas plumes, pas lourds Et qui s'branlent parce que y'a mon nom sur leurs polos Mon palier s'élève à beaucoup d'golgotes qui s'croient dans Stargate mais qui virevoltent entre ma merde et c'qui y'a en dessous La star guette, ma gueule coute c'que j'dégueule sur beat brut Goutte pas mes couilles, dans cette capote j'ai laissé quelques gouttes Connard, insultant comme le ciel le permet pas Un salaud, à patate noir qui a rendu ce vieux tou-bab raciste bleu Insultant comme ma merde qui sent mieux qu'toi Tu pues toi et ferme ta gueule, appelle-moi sultan Entrée fulgurante, c'est là tout d'suite que j'te la rentre Histoire qu'j'démontre devant tout l'monde qu'ton rap j'l'égorge, j'l'éventre Situation angoissante, ta femme en est souriante Ma voix éblouissante la rend beaucoup plus charmante MC tu pues d'la gueule, là j't'apporte le flow bonbon à la menthe Qui rafraichit l'haleine, rigole, elle est marrante Kiffe cette façon tranquille de te mettre à l'amende Pas d'compet' connard, comme falche cheval d'course à la montre Hagrator qui l'encule à tort, star dans les parages MC j'te dévore de plus en plus fort à cause de la rage V'là l'machin, bête d'engin qui sort pas d'un garage Mec de Vitry, jai la voix hache Jtapplatis comme le cul dune nois-ch On fait du nettoyage Là il y a des textes, là où il y a des zoulous bizarres On brille par le prestige et la prestance La classe africaine on représente Ouais, du Demi-Lune Zoo au 19ème cest élégance Tes raps abdominales, au ptit déj chacun on en prend deux, minable Pour bigleux orgueil de vision propre et à la solution fiable Patate dans lil gauche en enfonçant le doigt dans lil droit Tu verras du noir, au moins tu diras pas qutu vois rien, bâtard Pit sur beat cest comme quand ça pète dans les blocs Glock lyrical, jai un 16 rimes toujours dans mon fut, demande à De suite on rêve dans lrap et dans la chanson Un rappeur producteur qui génère ses millions x3 C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken1</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tu l'sais Rap Performance, 2005 Ickbal, Nas, Baccardi Pit Hey, reste à l'écoute garçon Mic machette, tu l'sais Baccardi Pit est rappeur de Première Classe, hey Dix-neuvième au 9-4 j'dédicace à tous les lascars Hein, hein, tu l'sais Check, check, hey Microphone masta, le maître des mots Le même démon qu'hier, le monde retient son souffle Les mots m'ont fait naître, XXX leurs prières Mes maux sont guérissables J'démontr aux plus anxieux, j'cultive excllence jamais excédée À c'putain d'trône accéder Venu ici pour l'bahut, la cohue m'a cueilli J'ai troqué mon cahier contre les coups de calibre lyrical Microphone test, un, j'en blesse un, deux M'voilà parmi les best, oh Deux-trois encore qui contestent, OK Bloque ton oreille sur l'poste pas d'popo, juste un flow XXX Pas d'propos à l'eau d'rose ça l'fait pas Quand au mic j'suis trop cool J'rappe pour ceux qui l'aiment frais, saignant Original et authentique, eh Ils ont voulu me la faire, j'ai dit teste pas Le nerf de la guerre, c'est qu'eux ne pèsent pas Le destin a fait d'moi Baccardi l'best J'suis comme une carabine, dès qu'j'suis chargé j'tire N'est-ce pas, ouais négro j'ai bien c'calibre de ghetto superstar You might also like Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Profession MC, spécialité briseur de nuques ou de côtes De mort du rap overdose, j'augmente le quota J'utilise ma bouche pas mes poings, ils ont tous des cocards Hey, signé Baccardi Pit comme à l'époque Déjà les mains en l'air, j'ai pas encore braqué Évite l'incartade, sinon c'est castagne À dix sur un comme au temps du cartable C'est des rimes en vrac et des Blacks et des Beurs sur les starting-blocks Préparez-vous, dans la ville y aura du tracas Après BRB, BRR, brigade de répression du rap barbare On va dare-dare régler les litiges façon ter-ter Fais rouler l'beat que les bad boys kiffent Je suis l'kid qui traumatise, j'sais pas comment j'fais, c'est dramatique, non? Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Eh chérie, laisse-moi tremper l'biscuit, dans l'mouv' il fait frisquet C'qui suit, c'est pour les bad boys que j'fais bisquer ici J'suis haï mais j'suis pas là-uic qu'on égorgera le jour de l'Aïd J'suis Baccardi, rap anti-porcs, j'te jure walaye J'suis carrément dingue comme les guerriers Opéré du cur, enterré vif, à votre place bâtards j'me tairais Rappeur unique qui tchatche en XXX Enfouraillé je suis pas, mais à ma gauche des visages rayés qui d'l'enfer connaissent un rayon Toujours busy, parle-moi rap pas business XXX instrus barbares, quand j'sors de là j'suis prisé Ils ont essayé d'mépriser, j'vais les épuiser, rap français maîtrisé Balise, v'là l'sac d'euros dans mes valises Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Et tu l'sais 2-0-0-5 Eh, t'sais quoi, eh Ça c'est Talents Fâchés Rap Performance 2005 Hey, Baccardi Pit, Ikbal, Nas Dans l'dix-neuvième et l'9-4 Machette XXX Music Interdit aux âmes sensibles Eh, reste pas là, reste pas là, eh mauviette Reste pas là, tu l'sais, Baccardi Pit Place des fêtes au 9-4 j'dédicace, hey À tous les lascars, à toutes les ladies Peu importe, couz' C'est du bon R.A.P</t>
+          <t>Tu l'sais Rap Performance, 2005 Ickbal, Nas, Baccardi Pit Hey, reste à l'écoute garçon Mic machette, tu l'sais Baccardi Pit est rappeur de Première Classe, hey Dix-neuvième au 9-4 j'dédicace à tous les lascars Hein, hein, tu l'sais Check, check, hey Microphone masta, le maître des mots Le même démon qu'hier, le monde retient son souffle Les mots m'ont fait naître, XXX leurs prières Mes maux sont guérissables J'démontr aux plus anxieux, j'cultive excllence jamais excédée À c'putain d'trône accéder Venu ici pour l'bahut, la cohue m'a cueilli J'ai troqué mon cahier contre les coups de calibre lyrical Microphone test, un, j'en blesse un, deux M'voilà parmi les best, oh Deux-trois encore qui contestent, OK Bloque ton oreille sur l'poste pas d'popo, juste un flow XXX Pas d'propos à l'eau d'rose ça l'fait pas Quand au mic j'suis trop cool J'rappe pour ceux qui l'aiment frais, saignant Original et authentique, eh Ils ont voulu me la faire, j'ai dit teste pas Le nerf de la guerre, c'est qu'eux ne pèsent pas Le destin a fait d'moi Baccardi l'best J'suis comme une carabine, dès qu'j'suis chargé j'tire N'est-ce pas, ouais négro j'ai bien c'calibre de ghetto superstar Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Profession MC, spécialité briseur de nuques ou de côtes De mort du rap overdose, j'augmente le quota J'utilise ma bouche pas mes poings, ils ont tous des cocards Hey, signé Baccardi Pit comme à l'époque Déjà les mains en l'air, j'ai pas encore braqué Évite l'incartade, sinon c'est castagne À dix sur un comme au temps du cartable C'est des rimes en vrac et des Blacks et des Beurs sur les starting-blocks Préparez-vous, dans la ville y aura du tracas Après BRB, BRR, brigade de répression du rap barbare On va dare-dare régler les litiges façon ter-ter Fais rouler l'beat que les bad boys kiffent Je suis l'kid qui traumatise, j'sais pas comment j'fais, c'est dramatique, non? Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Eh chérie, laisse-moi tremper l'biscuit, dans l'mouv' il fait frisquet C'qui suit, c'est pour les bad boys que j'fais bisquer ici J'suis haï mais j'suis pas là-uic qu'on égorgera le jour de l'Aïd J'suis Baccardi, rap anti-porcs, j'te jure walaye J'suis carrément dingue comme les guerriers Opéré du cur, enterré vif, à votre place bâtards j'me tairais Rappeur unique qui tchatche en XXX Enfouraillé je suis pas, mais à ma gauche des visages rayés qui d'l'enfer connaissent un rayon Toujours busy, parle-moi rap pas business XXX instrus barbares, quand j'sors de là j'suis prisé Ils ont essayé d'mépriser, j'vais les épuiser, rap français maîtrisé Balise, v'là l'sac d'euros dans mes valises Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Et tu l'sais 2-0-0-5 Eh, t'sais quoi, eh Ça c'est Talents Fâchés Rap Performance 2005 Hey, Baccardi Pit, Ikbal, Nas Dans l'dix-neuvième et l'9-4 Machette XXX Music Interdit aux âmes sensibles Eh, reste pas là, reste pas là, eh mauviette Reste pas là, tu l'sais, Baccardi Pit Place des fêtes au 9-4 j'dédicace, hey À tous les lascars, à toutes les ladies Peu importe, couz' C'est du bon R.A.P</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C'est Pit au mic et King Jaïd Sur un air positif Tu l'sais Fa sol la sida La fausse note dans ma mélodieuse vie T'as pas laissé le temps au temps Depuis que t'as mis à la porte maman Autant tu dévores la vie que moi je dialogue avec ma mort Je suis séropositif, je suis sérieux papa J'évite tout rapport avec cette fille Que je t'ai présentée jadis Je suis atteint, regarde cette bougie, c'est ma vie Je suis planté là, je fonds jusqu'à ce que le feu me consume J'ai faim d'amour ouais Mon organisme a une indigestion Je ne vis plus, j'ai beau courir Il y a la mort sur toutes mes directions C'est drôle, hier encore j'avais le sourire aux lèvres Grève dans crâne, je me sens déjà pourrir Mes brèves évasions c'est quand je pense à vous Je t'en veux de vivre cette vie, des va-et-vient de filles Un petit coup et puis s'en vont C'est vieux jeu, en plus tu mets en danger des gens Combien de fois des pleins de grossesse Venant de ces filles jeunes Je suis hémophile, mes mots filent, une transfusion de sang Et voilà que toutes mes images défilent Je vis dans cette danse à feu, file vers l'inconnu les cieux Le seul endroit où j'ai pas encore posé les yeux Fa sol la sida, la fausse note dans ma mélodieuse vie J'envie les bons vivants, je suis sale c'est vrai Mon impureté est-elle volontaire ou c'est le sort qui s'acharne ? Ciel et Terre se disputent mon âme, stoppez ce vacarme J'ai une arme sur la tempe et des larmes à flot Mais je suis trop faible pour appuyer sur cette arme à feu You might also like Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père Papa, j'ai le corps qui sèche, ma mémoire flanche J'ai fait sur moi hier, à quoi je suis réduit ? Le diable m'emporte et m'escortera jusqu'à ma dernière demeure Écourte mon rêve Comme cet arbre je voulais mourir au sommet J'ai peur, de partir que les gens pleurent aujourd'hui Et que ma mort devienne une grande fête demain J'ai tué par les pensées mais aimé par les actes Et je me tue à penser que je vais mourir Mais pas par erreur de mes actes Depuis la naissance je suis mal Je suis sur une corde Je suis cette feuille que cet oiseau peut prendre à n'importe quel envol Je suis hémophile moi mon film a vite tourné au glauque Je file un mauvais coton. ça fait vingt-trois piges Je suis en sursis comme si j'étais coupable de naître Condamné à mort avant d'être né Pour y croire faut l'être, être sans avoir été Je suis seul à comprendre, j'apprends à connaître ma mort Je suis un saltimbanque, papa, je tiens aussi à te dire ceci Tu ne seras jamais là pour faire grandir ma fille Jessie Tu sais pas de quoi je parle, je suis trop faible pour te haïr Ton inconscient se fige, je suis le seul à en pâtir Rappelle-toi ton don de ton sang ce 24 décembre Cadeau empoisonné dans mes veines Tu m'as tué papa, je suis mort du sida Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père</t>
+          <t>C'est Pit au mic et King Jaïd Sur un air positif Tu l'sais Fa sol la sida La fausse note dans ma mélodieuse vie T'as pas laissé le temps au temps Depuis que t'as mis à la porte maman Autant tu dévores la vie que moi je dialogue avec ma mort Je suis séropositif, je suis sérieux papa J'évite tout rapport avec cette fille Que je t'ai présentée jadis Je suis atteint, regarde cette bougie, c'est ma vie Je suis planté là, je fonds jusqu'à ce que le feu me consume J'ai faim d'amour ouais Mon organisme a une indigestion Je ne vis plus, j'ai beau courir Il y a la mort sur toutes mes directions C'est drôle, hier encore j'avais le sourire aux lèvres Grève dans crâne, je me sens déjà pourrir Mes brèves évasions c'est quand je pense à vous Je t'en veux de vivre cette vie, des va-et-vient de filles Un petit coup et puis s'en vont C'est vieux jeu, en plus tu mets en danger des gens Combien de fois des pleins de grossesse Venant de ces filles jeunes Je suis hémophile, mes mots filent, une transfusion de sang Et voilà que toutes mes images défilent Je vis dans cette danse à feu, file vers l'inconnu les cieux Le seul endroit où j'ai pas encore posé les yeux Fa sol la sida, la fausse note dans ma mélodieuse vie J'envie les bons vivants, je suis sale c'est vrai Mon impureté est-elle volontaire ou c'est le sort qui s'acharne ? Ciel et Terre se disputent mon âme, stoppez ce vacarme J'ai une arme sur la tempe et des larmes à flot Mais je suis trop faible pour appuyer sur cette arme à feu Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père Papa, j'ai le corps qui sèche, ma mémoire flanche J'ai fait sur moi hier, à quoi je suis réduit ? Le diable m'emporte et m'escortera jusqu'à ma dernière demeure Écourte mon rêve Comme cet arbre je voulais mourir au sommet J'ai peur, de partir que les gens pleurent aujourd'hui Et que ma mort devienne une grande fête demain J'ai tué par les pensées mais aimé par les actes Et je me tue à penser que je vais mourir Mais pas par erreur de mes actes Depuis la naissance je suis mal Je suis sur une corde Je suis cette feuille que cet oiseau peut prendre à n'importe quel envol Je suis hémophile moi mon film a vite tourné au glauque Je file un mauvais coton. ça fait vingt-trois piges Je suis en sursis comme si j'étais coupable de naître Condamné à mort avant d'être né Pour y croire faut l'être, être sans avoir été Je suis seul à comprendre, j'apprends à connaître ma mort Je suis un saltimbanque, papa, je tiens aussi à te dire ceci Tu ne seras jamais là pour faire grandir ma fille Jessie Tu sais pas de quoi je parle, je suis trop faible pour te haïr Ton inconscient se fige, je suis le seul à en pâtir Rappelle-toi ton don de ton sang ce 24 décembre Cadeau empoisonné dans mes veines Tu m'as tué papa, je suis mort du sida Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées You might also like On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
+          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>La rue a fait de moi ce que je suis x2 La rue c'est gris et bleu Le rêve, l'ambition, les cris et pleurs Une rue sans rebondissements c'est comme le Père-Lachaise sans mort C'est mort le shit, chiotte les stups avaient le chic D'avoir le contact avec certains de nos types Pour nos mères, le choc en apprenant le train de vie de chacun On deale c'est comme marcher sur un champ de mines les yeux bandés Notre hymne sexe, pouvoir et biftons, ça te choque, faut pas Pourtant on sait qu'ils sont là à chaque coin de rue À chaque coin son clan, à chaque clan son chef Et pour chaque chef un petit teigneux pour prendre sa relève Frère par ci, soss par là Beaucoup préfèrent les ennemis car avec eux on sait où on en est Mon son dans les caisses et on me dit Pit tu pèses Suffit pas d'être à table et dire qu'on mange pour avoir l'assiette pleine Nirvana, qu'on nous vire là-bas On se pane à vouloir être des Dieux dans cet impur Paname On crame un joint, on crâne en jouant aux plus maquereaux L'enjeu, montrer au monde que ça paie le crime Du drame au comique, des places à La Muette Des gaches à benzèle, dans tous les halls le même chant des mouettes Tous la même direction mais pas le même itinéraire Tous la même guerre mais pas les mêmes armes Tous les mêmes envies mais pas la même soif Pour montrer qu'on est tous différents mais de la même race You might also likex2 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits Ouais je me suis proclamé ghetto ambianceur On danse avec les anciens, les ex-taulards et même les exclus Mon texte tue les innocents coupables de trahison Chez nous mon sexe sue quand j'mets couilles sur table Pour quelconques disputes Si on se dit potes, laisse moi te mater de profil Je me mets dans la fosse exprès pour voir si tu vas me recouvrir de boue Le vent souffle, les branches tombent, les arbres restent de marbre Mais violente est leur mort, par la racine on vient les sabrer Branche comme dealer, arbre comme grossiste Je t'explique au risque d'être incompris dédié aux absents par l'amour du risque Ma rue c'est mon Platoon, mon film de guerre, mon cartoon Y'a pas que malédiction et amertume qui errent L'air de rien nous sommes des riens qui voulons tout C'est tout ou rien on vit de rien et il s'en faut de peu pour vivre de rien Vivre en attendant de mourir, courir derrière les chimères Quand il y a plus de fait c'est ce qu'il faut on le fait Mais il faut parfois en tirer des leçons La mienne jamais commencer sa vie par sa fin, négro L'homme n'est que le résultat de ses actes On pactise avec le diable ici en croyant que tout ça est éternel Chez l'éternel, celui du haut je me souviens pas du reste Et si je pouvais faire le destin, je mettrais un lumière à la face cachée de la rue Pour chasser l'ombre et transformer nos ruelles en avenues x4 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits La rue a fait de moi ce que je suis x61</t>
+          <t>La rue a fait de moi ce que je suis x2 La rue c'est gris et bleu Le rêve, l'ambition, les cris et pleurs Une rue sans rebondissements c'est comme le Père-Lachaise sans mort C'est mort le shit, chiotte les stups avaient le chic D'avoir le contact avec certains de nos types Pour nos mères, le choc en apprenant le train de vie de chacun On deale c'est comme marcher sur un champ de mines les yeux bandés Notre hymne sexe, pouvoir et biftons, ça te choque, faut pas Pourtant on sait qu'ils sont là à chaque coin de rue À chaque coin son clan, à chaque clan son chef Et pour chaque chef un petit teigneux pour prendre sa relève Frère par ci, soss par là Beaucoup préfèrent les ennemis car avec eux on sait où on en est Mon son dans les caisses et on me dit Pit tu pèses Suffit pas d'être à table et dire qu'on mange pour avoir l'assiette pleine Nirvana, qu'on nous vire là-bas On se pane à vouloir être des Dieux dans cet impur Paname On crame un joint, on crâne en jouant aux plus maquereaux L'enjeu, montrer au monde que ça paie le crime Du drame au comique, des places à La Muette Des gaches à benzèle, dans tous les halls le même chant des mouettes Tous la même direction mais pas le même itinéraire Tous la même guerre mais pas les mêmes armes Tous les mêmes envies mais pas la même soif Pour montrer qu'on est tous différents mais de la même race x2 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits Ouais je me suis proclamé ghetto ambianceur On danse avec les anciens, les ex-taulards et même les exclus Mon texte tue les innocents coupables de trahison Chez nous mon sexe sue quand j'mets couilles sur table Pour quelconques disputes Si on se dit potes, laisse moi te mater de profil Je me mets dans la fosse exprès pour voir si tu vas me recouvrir de boue Le vent souffle, les branches tombent, les arbres restent de marbre Mais violente est leur mort, par la racine on vient les sabrer Branche comme dealer, arbre comme grossiste Je t'explique au risque d'être incompris dédié aux absents par l'amour du risque Ma rue c'est mon Platoon, mon film de guerre, mon cartoon Y'a pas que malédiction et amertume qui errent L'air de rien nous sommes des riens qui voulons tout C'est tout ou rien on vit de rien et il s'en faut de peu pour vivre de rien Vivre en attendant de mourir, courir derrière les chimères Quand il y a plus de fait c'est ce qu'il faut on le fait Mais il faut parfois en tirer des leçons La mienne jamais commencer sa vie par sa fin, négro L'homme n'est que le résultat de ses actes On pactise avec le diable ici en croyant que tout ça est éternel Chez l'éternel, celui du haut je me souviens pas du reste Et si je pouvais faire le destin, je mettrais un lumière à la face cachée de la rue Pour chasser l'ombre et transformer nos ruelles en avenues x4 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits La rue a fait de moi ce que je suis x61</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>C'est l'bal des meurtriers !You might also like</t>
+          <t>C'est l'bal des meurtriers !</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dans ce pays, il faut d'abord faire le fric et quand tu as le pognon, tu as le pouvoir et quand tu as le pouvoir, tu as toute les bonnes femmes Pit au mic, 360, Thibaud aux manettes, Issa aux platines Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa J'ai ma propre école de école, filles, rates et drôles de dames Style des 4 coins du monde et mes potes font la ronde ?????, des gos qu't'imagines man J'ai l'feeling, et les meufs finissent par craquer Pour mon hip-hop de quartier, 1010 Les putes, elle m'ont notées pour mes tennis Et mon but, cartonner Pas d'flûte chez Kenobi Mon crew Jedi, Sky n'oublie pas d'cartonner You might also like Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé c'est ma go moi Eddy, mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis, si tu m'touches, tu vas tellement transpirer qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Les gars flippent, trop tard faut qu'je les étripe J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Chope le coup d'Eddy et tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Mais il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée un tas de morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi notre nom c'est Time Bomb, Black Mafia Passe Passe, 360 degrés, Thibaud, 9.7, rap comme un mac X-Men, stars du X, Ill Vient on ken chérie, on lime, du sexe sauvage devant la glace encore en âge hystérie Ventilo, clim', glace Ben Jerry's, prend le stylo faut le tel illico tang band série Alors on va à lhôtel, au tel-ho cinq étoiles, des tops-modèles, tape un mélodrame comme si je m'appelais Othello Puis un sein se dévoile enfin l'string Elle vous dit qu'elle porte ou du slim Dis donc on lui explose le cul quatre pattes, moi plus dix potes au dada on lui fait bobo Sous la jupe puis dodo alors nana, t'as néné ? Comme un bédo d'popo Quand c'était chaud sans chichi, tu nous a appeler coco ou chouchou Ca se pète comme une go, ça se pète, ouvre dont le Dom Pérignon Chérie, crie I love very much quand j'roule des teuch' avec mes négros On rend même les lesbiennes chiennes hétéros, sexe, gros mots sodo, sperme sous les lolos Tu crois que ça te choque ? Les gars, les go hypocrites1</t>
+          <t>Dans ce pays, il faut d'abord faire le fric et quand tu as le pognon, tu as le pouvoir et quand tu as le pouvoir, tu as toute les bonnes femmes Pit au mic, 360, Thibaud aux manettes, Issa aux platines Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa J'ai ma propre école de école, filles, rates et drôles de dames Style des 4 coins du monde et mes potes font la ronde ?????, des gos qu't'imagines man J'ai l'feeling, et les meufs finissent par craquer Pour mon hip-hop de quartier, 1010 Les putes, elle m'ont notées pour mes tennis Et mon but, cartonner Pas d'flûte chez Kenobi Mon crew Jedi, Sky n'oublie pas d'cartonner Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé c'est ma go moi Eddy, mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis, si tu m'touches, tu vas tellement transpirer qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Les gars flippent, trop tard faut qu'je les étripe J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Chope le coup d'Eddy et tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Mais il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée un tas de morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi notre nom c'est Time Bomb, Black Mafia Passe Passe, 360 degrés, Thibaud, 9.7, rap comme un mac X-Men, stars du X, Ill Vient on ken chérie, on lime, du sexe sauvage devant la glace encore en âge hystérie Ventilo, clim', glace Ben Jerry's, prend le stylo faut le tel illico tang band série Alors on va à lhôtel, au tel-ho cinq étoiles, des tops-modèles, tape un mélodrame comme si je m'appelais Othello Puis un sein se dévoile enfin l'string Elle vous dit qu'elle porte ou du slim Dis donc on lui explose le cul quatre pattes, moi plus dix potes au dada on lui fait bobo Sous la jupe puis dodo alors nana, t'as néné ? Comme un bédo d'popo Quand c'était chaud sans chichi, tu nous a appeler coco ou chouchou Ca se pète comme une go, ça se pète, ouvre dont le Dom Pérignon Chérie, crie I love very much quand j'roule des teuch' avec mes négros On rend même les lesbiennes chiennes hétéros, sexe, gros mots sodo, sperme sous les lolos Tu crois que ça te choque ? Les gars, les go hypocrites1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Quand j'rappe c'est l'message, assagi avec l'âge J'vais éviter aux frères de vivre dans l'mensonge Puisqu'il faut une voie, je servirai d'guide Moi j'ai pas eu cette chance d'avoir un leader J'm'implique parce que j'ai des p'tits frères Et quand j'kicke, c'est comme si j'leur donnais du bonheur sans fric On l'accepte pas mais ils nous prennent comme exemple En Afrique, t'imagins même pas l'déclic Demande à Bisso, t quand j'y pense On crée avec le cur c'qu'on voit et c'qu'on imagine J'ai pas l'bac, juste ma maîtrise de rimes J'suis p't-être mieux mais j'suis vierge dans l'crime Et c'est à ça qu'j'veux qu'on arrive tous Le ghetto j'connais, j'te parlerai pas d'ça Y a d'autres choses dans la vie qu'on connaît pas Comme vivre libre et voir autre chose que les flics Et des barreaux à travers lesquels on cherche la fuite Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un On aime dire qu'on est bannis de Dieu Mais on doit taffer deux fois plus pour s'imposer, vieux Te demande pas pourquoi, y a des problèmes de riches et des problèmes de pauvres Les différences existent Pour qu'on voie nos vies comme le monde, grandes Faut qu'on rêve, le paradis est immense On s'tape, qu'ce soit dans la zik ou sur un playground Faut qu'nos sueurs deviennent des flaques d'eau Pour pouvoir dire j'ai du fric qui coule des robinets Même là-faut, ils ont peur de nous parce qu'ils savent Que leur avenir dépend d'nous Et si les jeunes s'unissaient, tu crois qu'la pression, ils ne l'auraient pas L'ignorance tue, on a des têtes, des bras et des jambes Et tous ensemble, on forme un corps J'veux qu'tu m'écoutes et que tu m'comprennes S'unir sera la solution au problème You might also like Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un Ils disent que j'dois être Anelka, Wiltord ou Henry Avoir des disques d'or comme Neg' Marrons ou Pit Baccardi Aide-toi et l'Ciel fera l'reste Dans c'monde, si tu est boiteux, tu crèves J'vis pas caché mais dans mon crâne j'planque une gâchette Si tu m'emmerdes, j't'envoie chier Et si c'est un flic, j'passe mon frère Car mon combat est ailleurs Dans une bavure, on perd toujours, faut qu'vous l'sachiez J'suis venu pour être, pas pour paraître Cette image ghettoïsée du rap doit disparaître On est venu franchir les barrières, les laisser sur l'cul En cas d'malaise, y a tout c'qui faut à l'intérieur Notre histoire commence quand la leur finit On est partout, dans l'sport, la pub, même au ciné On vient à la porte d'une France calcinée On a brûlé les étapes afin d'graver nos noms dans la pierre Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un</t>
+          <t>Quand j'rappe c'est l'message, assagi avec l'âge J'vais éviter aux frères de vivre dans l'mensonge Puisqu'il faut une voie, je servirai d'guide Moi j'ai pas eu cette chance d'avoir un leader J'm'implique parce que j'ai des p'tits frères Et quand j'kicke, c'est comme si j'leur donnais du bonheur sans fric On l'accepte pas mais ils nous prennent comme exemple En Afrique, t'imagins même pas l'déclic Demande à Bisso, t quand j'y pense On crée avec le cur c'qu'on voit et c'qu'on imagine J'ai pas l'bac, juste ma maîtrise de rimes J'suis p't-être mieux mais j'suis vierge dans l'crime Et c'est à ça qu'j'veux qu'on arrive tous Le ghetto j'connais, j'te parlerai pas d'ça Y a d'autres choses dans la vie qu'on connaît pas Comme vivre libre et voir autre chose que les flics Et des barreaux à travers lesquels on cherche la fuite Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un On aime dire qu'on est bannis de Dieu Mais on doit taffer deux fois plus pour s'imposer, vieux Te demande pas pourquoi, y a des problèmes de riches et des problèmes de pauvres Les différences existent Pour qu'on voie nos vies comme le monde, grandes Faut qu'on rêve, le paradis est immense On s'tape, qu'ce soit dans la zik ou sur un playground Faut qu'nos sueurs deviennent des flaques d'eau Pour pouvoir dire j'ai du fric qui coule des robinets Même là-faut, ils ont peur de nous parce qu'ils savent Que leur avenir dépend d'nous Et si les jeunes s'unissaient, tu crois qu'la pression, ils ne l'auraient pas L'ignorance tue, on a des têtes, des bras et des jambes Et tous ensemble, on forme un corps J'veux qu'tu m'écoutes et que tu m'comprennes S'unir sera la solution au problème Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un Ils disent que j'dois être Anelka, Wiltord ou Henry Avoir des disques d'or comme Neg' Marrons ou Pit Baccardi Aide-toi et l'Ciel fera l'reste Dans c'monde, si tu est boiteux, tu crèves J'vis pas caché mais dans mon crâne j'planque une gâchette Si tu m'emmerdes, j't'envoie chier Et si c'est un flic, j'passe mon frère Car mon combat est ailleurs Dans une bavure, on perd toujours, faut qu'vous l'sachiez J'suis venu pour être, pas pour paraître Cette image ghettoïsée du rap doit disparaître On est venu franchir les barrières, les laisser sur l'cul En cas d'malaise, y a tout c'qui faut à l'intérieur Notre histoire commence quand la leur finit On est partout, dans l'sport, la pub, même au ciné On vient à la porte d'une France calcinée On a brûlé les étapes afin d'graver nos noms dans la pierre Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chaque mot a son importance Chaque mot a son sens Ne jamais sous-estimer le poids d'un mot Et tu l'sais Chaque rime est millimétrée J'm'exprime même pour les illettrés On m'félicite, on m'respecte pour mes écrits Je crée, et j'parle pour l'peuple J'viens apaiser les vies, j'mens pas C'est sincère, c'est cru, les mots blessent Au monde j'écris mes lettres de noblesse J'rassemble les égarés comme à la messe et prie Que le monde soit bercé par l'chant des mouettes J'écris Pour apaiser les âmes J'gaspille d'l'encre J'me torture le ventre vide J'plane Pour atterrir dans l'cur des gens Tant qu'y a d'l'âme y a d'la vie Tant qu'y a la vie, j'ai mon arme Mon arme, c'est le poids de mes écrits J'fais rire, j'fais pleurer, j'fais même pleurer d'rire J'fais partie de ton avenir Les mots sont le commencement des actes Je berce vos songes, avec ma voix tu signes un pacte You might also like Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai cette image de mec triste Parce que mes mots pleurent Et qu'j'ai la rime désenchantée C'est quand j'ai du mal à supporter le poids des mots Que j'm'abats sur la feuille Un mot bien placé Redonne une vie à un couple Les mots mal placés Entraînent des guerres de peuple et l'souk Dans l'éducation des mioches, les mots Ont des répercussions qu'on n'maîtrise pas J'assume mes dires, j'ai appris à lire et à comprendre Si j'te dis va chier, c'est qu'tu l'mérites Chaque rime a son sens, chaque rime a sa vie Chaque rime a son importance Chaque rime est pesée, pensée Combien d'fois j'ai blessé Avec des paroles déplacées Combien d'fois j'ai baissé la garde Lorsqu'avec des mots, on a brisé mes songes Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai d'la haine à revendre, d'l'amour à donner J'veux m'faire comprendre pour être pardonné Par ceux qui m'aimaient À qui j'ai pas su rendre J'ignore le geste, m'exprime avec des mots J'vais rendre mon âme aux cieux Quand j'me serai bien fait entendre C'est la paix que j'veux répandre Il pleut, abrite-toi sous ma vérité J'ai la rime imperméable Le poids d'un je t'aime d'une mère à son gosse en cellule D'un va chier d'Baccardi aux ploucs de l'industrie D'un aidez-moi d'un Somalien au monde Les mots pèsent, les mots m'ont fait, m'ont défait d'mes maux On bâtit nos empires dans la benne On parle de crimes quand nos écrits sont bafoués Chaque mot est un souffle Chaque mot est une période de ma vie Et tu l'sais Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes</t>
+          <t>Chaque mot a son importance Chaque mot a son sens Ne jamais sous-estimer le poids d'un mot Et tu l'sais Chaque rime est millimétrée J'm'exprime même pour les illettrés On m'félicite, on m'respecte pour mes écrits Je crée, et j'parle pour l'peuple J'viens apaiser les vies, j'mens pas C'est sincère, c'est cru, les mots blessent Au monde j'écris mes lettres de noblesse J'rassemble les égarés comme à la messe et prie Que le monde soit bercé par l'chant des mouettes J'écris Pour apaiser les âmes J'gaspille d'l'encre J'me torture le ventre vide J'plane Pour atterrir dans l'cur des gens Tant qu'y a d'l'âme y a d'la vie Tant qu'y a la vie, j'ai mon arme Mon arme, c'est le poids de mes écrits J'fais rire, j'fais pleurer, j'fais même pleurer d'rire J'fais partie de ton avenir Les mots sont le commencement des actes Je berce vos songes, avec ma voix tu signes un pacte Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai cette image de mec triste Parce que mes mots pleurent Et qu'j'ai la rime désenchantée C'est quand j'ai du mal à supporter le poids des mots Que j'm'abats sur la feuille Un mot bien placé Redonne une vie à un couple Les mots mal placés Entraînent des guerres de peuple et l'souk Dans l'éducation des mioches, les mots Ont des répercussions qu'on n'maîtrise pas J'assume mes dires, j'ai appris à lire et à comprendre Si j'te dis va chier, c'est qu'tu l'mérites Chaque rime a son sens, chaque rime a sa vie Chaque rime a son importance Chaque rime est pesée, pensée Combien d'fois j'ai blessé Avec des paroles déplacées Combien d'fois j'ai baissé la garde Lorsqu'avec des mots, on a brisé mes songes Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai d'la haine à revendre, d'l'amour à donner J'veux m'faire comprendre pour être pardonné Par ceux qui m'aimaient À qui j'ai pas su rendre J'ignore le geste, m'exprime avec des mots J'vais rendre mon âme aux cieux Quand j'me serai bien fait entendre C'est la paix que j'veux répandre Il pleut, abrite-toi sous ma vérité J'ai la rime imperméable Le poids d'un je t'aime d'une mère à son gosse en cellule D'un va chier d'Baccardi aux ploucs de l'industrie D'un aidez-moi d'un Somalien au monde Les mots pèsent, les mots m'ont fait, m'ont défait d'mes maux On bâtit nos empires dans la benne On parle de crimes quand nos écrits sont bafoués Chaque mot est un souffle Chaque mot est une période de ma vie Et tu l'sais Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ici Secteur Ä Pour les années deux-triple-zéro Message aux équipes en pole-position Aux troupes sur les lignes de front Message à ceux qui ensemble, sont restés forts Et à ceux qui sont morts En changeant d'bord Ouais j'reviens avec mon équipe C'est pas un solo, mais j'dis c'que j'veux Quand j'débute en Preum's et kiffe sur le beat Avec Jacky et Pit, Ben-J Lino Janik On vient foutre le zbeul ou la panique, tout remettre sur orbite La route est dure elle est sinueuse Et c'est près d'elle que j'habite En deux-triple, perds pas ton temps à t'grattrer la bite Secteur Ä acceptés à nouveau, blessés mais pas morts Pera encore plus fort, un noyau plus dur encore Donne-leur la bonne musique et le public respecte Pourquoi le taire, Secteur Ä n'est pas une secte Quand sur le tréma plane une atmosphère suspecte Un nouveau son, c'est c'que répètent tous ceux qui nous inspectent Ceux qui persistent à nous dire qu'c'est pas clair, donc pas net Ceux qui tiennent les commandes, y a ceux qui tiennent les manettes Pour eux un trip collectif, plusieurs stylos d'un même texte Une graine de résistance on glisse mais faut qu'elle germe dans nos textes You might also like Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs Ici on fait pas d'comédie on est passés dans l'satellite On va pas en faire une tragédie même si on agit en équipe réduite Encore plus de rage dans nos écrits purs bandits sarcelites Que d'la tuerie dans mon écurie on est là et on milite Qu'est-ce tu dis? J'ai du siècle à m'en remettre de ce cycle espiègle Ce disciple m'harcèle putain l'diable veut des parcelles de notre cercle J'vois ça d'un il glauque L'eau qui tombe goutte à goutte Brise le dur rocher mais l'Noyau Dur est infracturable La famille A tréma trime et s'voit méprisée On a autant d'amis qu'il y a d'Noirs à l'Élysée On vous parle morse Regarde mon torse XXX, téma ils veulent nous mettre XXX demande à Cky-Ja ça s'corse Mais trop d'fierté, trop d'honneur pour verser une larme Le Noyau Dur resserre les rangs et pour l'avenir on s'arme Noir comme ces accords, j'exprime ma rancur Cur encore plus dur et froid qu'un diable au grand cur Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs En deux-triple-zéro, c'est toujours la même clique Noirs super-héros stars contre l'État et ses flics Trip en costard triques dans l'falzar Holsters au sommet on tire, ils s'agenouillent devant nos posters Ils ont voulu tricard notre beat Le tier-quar ils disent un noir au top, c'est un loup dans la bergerie Nous on gamberge des plans d'dingue Invasion d'la France en clan, Secteur Action colle à ton flingue C'est pas d'chance pour ceux qui pensaient pas nous revoir si vite Il en faut plus pour nous mettre hors service La rime paie mais cette réussite les dérange, ça les irrite Ils ont l'vice mais moi j'ai l'tournevis Fidèles à la base, on s'mobilise Quoi qu'ils disent, non le Noyau Dur lâchera pas prise On reste soudés tant que le taf se concrétise On avance ensemble et c'est comme ça qu'on s'organise Ben-J vient chanter! Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs</t>
+          <t>Ici Secteur Ä Pour les années deux-triple-zéro Message aux équipes en pole-position Aux troupes sur les lignes de front Message à ceux qui ensemble, sont restés forts Et à ceux qui sont morts En changeant d'bord Ouais j'reviens avec mon équipe C'est pas un solo, mais j'dis c'que j'veux Quand j'débute en Preum's et kiffe sur le beat Avec Jacky et Pit, Ben-J Lino Janik On vient foutre le zbeul ou la panique, tout remettre sur orbite La route est dure elle est sinueuse Et c'est près d'elle que j'habite En deux-triple, perds pas ton temps à t'grattrer la bite Secteur Ä acceptés à nouveau, blessés mais pas morts Pera encore plus fort, un noyau plus dur encore Donne-leur la bonne musique et le public respecte Pourquoi le taire, Secteur Ä n'est pas une secte Quand sur le tréma plane une atmosphère suspecte Un nouveau son, c'est c'que répètent tous ceux qui nous inspectent Ceux qui persistent à nous dire qu'c'est pas clair, donc pas net Ceux qui tiennent les commandes, y a ceux qui tiennent les manettes Pour eux un trip collectif, plusieurs stylos d'un même texte Une graine de résistance on glisse mais faut qu'elle germe dans nos textes Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs Ici on fait pas d'comédie on est passés dans l'satellite On va pas en faire une tragédie même si on agit en équipe réduite Encore plus de rage dans nos écrits purs bandits sarcelites Que d'la tuerie dans mon écurie on est là et on milite Qu'est-ce tu dis? J'ai du siècle à m'en remettre de ce cycle espiègle Ce disciple m'harcèle putain l'diable veut des parcelles de notre cercle J'vois ça d'un il glauque L'eau qui tombe goutte à goutte Brise le dur rocher mais l'Noyau Dur est infracturable La famille A tréma trime et s'voit méprisée On a autant d'amis qu'il y a d'Noirs à l'Élysée On vous parle morse Regarde mon torse XXX, téma ils veulent nous mettre XXX demande à Cky-Ja ça s'corse Mais trop d'fierté, trop d'honneur pour verser une larme Le Noyau Dur resserre les rangs et pour l'avenir on s'arme Noir comme ces accords, j'exprime ma rancur Cur encore plus dur et froid qu'un diable au grand cur Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs En deux-triple-zéro, c'est toujours la même clique Noirs super-héros stars contre l'État et ses flics Trip en costard triques dans l'falzar Holsters au sommet on tire, ils s'agenouillent devant nos posters Ils ont voulu tricard notre beat Le tier-quar ils disent un noir au top, c'est un loup dans la bergerie Nous on gamberge des plans d'dingue Invasion d'la France en clan, Secteur Action colle à ton flingue C'est pas d'chance pour ceux qui pensaient pas nous revoir si vite Il en faut plus pour nous mettre hors service La rime paie mais cette réussite les dérange, ça les irrite Ils ont l'vice mais moi j'ai l'tournevis Fidèles à la base, on s'mobilise Quoi qu'ils disent, non le Noyau Dur lâchera pas prise On reste soudés tant que le taf se concrétise On avance ensemble et c'est comme ça qu'on s'organise Ben-J vient chanter! Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Diagnostic j'suis qu'un voyou suicidaire comme le Hamas T'as le choix c'est Gaza ou une menace au Kalash Vingt-deux ans fermes dans le même horizon j'ai pris une longue peine Donc j'ai droit à cinq minutes d'évasion Moi j'ai pas eu mon bac mais toujours la BAC au cul J'ai violé les bacs et j'ai fait un tas d'cocus Y a qu'a voir les bancs du commissariat Pas d'étude, pas de carrière, trop de parias, trop de barrières Nique sa mère, tricard traqué comme dans mon six titres Faut qu'on m'acquitte qu'on soit quitte Rim-K et Pit C'est sordide, la vie est triste, mais mon corps me guide J'ai plus rien à foutre j'ai pas peur de tomber dans le vide Banlieusard, c'est pas un hasard, mon peuple en chien Je montre pas quand j'suis mal, j'suis comme devant un chien Quoi de neuf poto? Rien, le boss c'est l'franc C'est dramatique comme une grenade dans un jardin d'enfants On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites À chaque crime c'est un mec qu'on enferme, à chaque rime c'est un frère qui s'évade À chaque cri, c'est qu'il y a un soss qu'on enterre La terre tourne et j'fais du surplace Je franchis les barrières écris des rimes noires sur papier glacé Cette vie m'fait chier, sachez Que j'viens me lâcher pas mâcher les mots Vas chier si mon faciès taché t'empêche de valser J'rappe pour que mes négros fassent yes Là j'ai d'un jet craché cette haine qui me motive Fais chier putain J'voulais vivre dans la paix, pas dans le péché Le truc c'est s'repentir avant l'arrivée de la Faucheuse On vient d'là où la haine s'exprime par l'sourire Du pire je viens bâtir un empire et dire au monde Que j'aspire à la paix, pas à la guerre comme on a pu le lire Tant que j'respire j'espère You might also like On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites Rim' K du 113 sors d'ton blockhaus, deux feuilles, une clope J'suis avec mes blackos, mes bicots, y a aucune kheb Entre nous on s'aime gros, mon équipe c'est du seum Tu sais c'qu'on sème et quand j'mourrai j'serai seul J'serai seul comme quand je flanche sur ma feuille, seul Comme face à ces tas d'flics qui m'en veulent, seul Comme quand je suis venu Seul j'm'évade, seul j'marche car j'finirai seul dans mon cercueil J'suis à 113 degrés dans l'baromètre Grillé à cinq kilomètres, j'essaye d'être honnête Mais ils en font trop mec et ça faut l'reconnaître Citation à comparaître dans toutes nos boîtes aux lettres Toujours aussi froid le cur empli de gros cris Le monde m'a trahi ma couille, nos vies c'est pas les tropiques On craque parce que c'est l'gnouf dans nos crânes J'veux pas finir crade ou shooté dans l'crack On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites</t>
+          <t>Diagnostic j'suis qu'un voyou suicidaire comme le Hamas T'as le choix c'est Gaza ou une menace au Kalash Vingt-deux ans fermes dans le même horizon j'ai pris une longue peine Donc j'ai droit à cinq minutes d'évasion Moi j'ai pas eu mon bac mais toujours la BAC au cul J'ai violé les bacs et j'ai fait un tas d'cocus Y a qu'a voir les bancs du commissariat Pas d'étude, pas de carrière, trop de parias, trop de barrières Nique sa mère, tricard traqué comme dans mon six titres Faut qu'on m'acquitte qu'on soit quitte Rim-K et Pit C'est sordide, la vie est triste, mais mon corps me guide J'ai plus rien à foutre j'ai pas peur de tomber dans le vide Banlieusard, c'est pas un hasard, mon peuple en chien Je montre pas quand j'suis mal, j'suis comme devant un chien Quoi de neuf poto? Rien, le boss c'est l'franc C'est dramatique comme une grenade dans un jardin d'enfants On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites À chaque crime c'est un mec qu'on enferme, à chaque rime c'est un frère qui s'évade À chaque cri, c'est qu'il y a un soss qu'on enterre La terre tourne et j'fais du surplace Je franchis les barrières écris des rimes noires sur papier glacé Cette vie m'fait chier, sachez Que j'viens me lâcher pas mâcher les mots Vas chier si mon faciès taché t'empêche de valser J'rappe pour que mes négros fassent yes Là j'ai d'un jet craché cette haine qui me motive Fais chier putain J'voulais vivre dans la paix, pas dans le péché Le truc c'est s'repentir avant l'arrivée de la Faucheuse On vient d'là où la haine s'exprime par l'sourire Du pire je viens bâtir un empire et dire au monde Que j'aspire à la paix, pas à la guerre comme on a pu le lire Tant que j'respire j'espère On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites Rim' K du 113 sors d'ton blockhaus, deux feuilles, une clope J'suis avec mes blackos, mes bicots, y a aucune kheb Entre nous on s'aime gros, mon équipe c'est du seum Tu sais c'qu'on sème et quand j'mourrai j'serai seul J'serai seul comme quand je flanche sur ma feuille, seul Comme face à ces tas d'flics qui m'en veulent, seul Comme quand je suis venu Seul j'm'évade, seul j'marche car j'finirai seul dans mon cercueil J'suis à 113 degrés dans l'baromètre Grillé à cinq kilomètres, j'essaye d'être honnête Mais ils en font trop mec et ça faut l'reconnaître Citation à comparaître dans toutes nos boîtes aux lettres Toujours aussi froid le cur empli de gros cris Le monde m'a trahi ma couille, nos vies c'est pas les tropiques On craque parce que c'est l'gnouf dans nos crânes J'veux pas finir crade ou shooté dans l'crack On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Discographie - Dosseh Album Studio - 20161104 Dosseh - Yuri - 20180706 Dosseh - VIDALOA - 20190412 Dosseh - VIDALOA 4.5 - 20220930 Dosseh - Trop tôt pour mourir EP - 20220128 Dosseh - Yuri Negrowski Mixtape - 20041029 Dosseh - Bolide Vol. 1 - 20081118 Dosseh - Bolide Vol. 2 - 20110117 Dosseh DJ Medi Med - Desperadoss - 20110729 Dosseh DJ Moon - Summer Crack, Vol. 1 - 20120722 Dosseh DJ Skut - Summer Crack, Vol. 2 - 20150316 Dosseh - Perestroïka - 20150731 Dosseh - Summer Crack, Vol. 3 - 20190712 Dosseh - Summer Crack 4 Soundtrack - 20130624 Dosseh - Karma Autre - 20141118 Dosseh - YuriNegrowski Hors-Série You might also likeSingle - 20060306 Dosseh - Banlieusard de province - 20061003 Dosseh - La mort pour seule limit - 20070117 Dosseh - 16 mesures d haine - 20070206 Dosseh - Chienne de vie - 20070312 Dosseh - Ennemi - 20071126 Dosseh - Je suis - 20071129 Dosseh - Parce que - 20080531 Dosseh - Prototype - 20081118 Dosseh - Pharaonique - 20090117 Dosseh - Aigle royal - 20090421 Dosseh - Frères d'armes - 20090615 Dosseh - Jour de paye - 20090629 Dosseh - Non stop - 20100413 Dosseh - Freestyle Desperadoss Part. 1 - 20100528 Dosseh - Freestyle Desperadoss Part. 2 - 20100613 Dosseh - Pour ma voyoucratie Remix insolent - 20100703 Dosseh - Matrix - 20100723 Dosseh - Tu connais nos codes - 20101123 Dosseh - Freestyle Desperadoss Part. 3 - 20110103 Dosseh - Full Contact - 20110224 Dosseh - Desperadoss - 20110806 Dosseh - Nique-toi, paye-moi - 20120309 Dosseh - OK - 20120509 Dosseh - Casque intégral - 20120706 Dosseh - Summer Crack Intro - 20120720 Dosseh - Mon gang - 20130518 Dosseh - BM Audi Merco Benz - 20130527 Dosseh - Gangnam Style Trap Remix - 20130616 Dosseh - IGO - 20130621 Dosseh - La boum 3 - 20130704 Dosseh - Booskarma - 20130708 Dosseh - Holy Water Freestyle - 20130819 Dosseh - Promesses - 20131103 Dosseh - Adios - 20131127 Dosseh - Yin Yang - 20140311 Dosseh - Freestyle Parlez-vous Cefran - 20140611 Dosseh - En balle Freestyle - 20140806 Dosseh - La dose Freestyle - 20141009 Dosseh - Illuminati - 20141018 Dosseh - YuriNegrowski 1 - 20141018 Dosseh - YuriNegrowski 2 - 20141018 Dosseh - YuriNegrowski 3 - 20141023 Dosseh - Boyscout - 20141110 Dosseh - Faut qu'ça chie YuriNegrowski 4 - 20141208 Dosseh - Le coup du patron - 20150116 Dosseh - Le dehors - 20150217 Dosseh - Bouteilles et glocks - 20150224 Dosseh - Nirvana YuriNegrowski 5 - 20150304 Dosseh - Hors-Série YuriNegrowski 6 - 20150312 Dosseh - 30 millions d'ennemis YuriNegrowski 7 - 20150406 Dosseh - Que d'la D YuriNegrowski 8 - 20150430 Dosseh - Bando - 20150430 Dosseh - Scarla - 20150702 Dosseh - Été au tieks - 20150711 Dosseh - Brolyk - 20150718 Dosseh - Booska Summer Crack - 20150730 Dosseh - Oublier - 20151231 Dosseh - Je suis Yuri YuriNegrowski 9 - 20160613 Dosseh - Milliers d'euros - 20160704 Dosseh - T'as pas compris - 20160909 Dosseh - Afrikan History X - 20160916 Dosseh - Là-haut - 20160923 Dosseh - Freestyle BarbaRossa1 - 20160930 Dosseh - Myah Bay - 20160930 Dosseh - Abel Caïn - 20161024 Dosseh - Infréquentables - 20161121 Dosseh - Putain d'époque - 20170106 Dosseh - Solo - 20170206 Dosseh - J'suis qu'un Loa YuriNegrowski 10 - 20170303 Dosseh - Bad and Boujee Remix - 20170721 Dosseh - PDCV Pas dans cette vie - 20180112 Dosseh - Tout est neuf - 20180216 Dosseh - KFC - 20180316 Dosseh - Papillon - 20180511 Dosseh - Habitué - 20180705 Dosseh - VLT - 20180720 Dosseh - MQTB - 20181116 Dosseh - À chaque jour... - 20190201 Dosseh - Superhéro - 20190321 Dosseh - Habitué Italian Remix - 20190329 Dosseh - Flux - 20190412 Dosseh - Le bruit du silence - 20190419 Dosseh - OKLM Freestyle - 20190607 Dosseh - Boîte à Shoes - 20190614 Dosseh - MQTB Version solo - 20190628 Dosseh - Les histoires - 20190628 Dosseh - L'odeur du charbon - 20190807 Dosseh - Canal - 20190823 Dosseh - Thaïlande - 20200221 Dosseh - L'odeur du charbon Remix - 20200503 Dosseh - Milli' - 20200902 Dosseh - A45 - 20200924 Dosseh - Place de l'Étoile - 20201216 Dosseh - Famiglia è Grande - 20210302 Dosseh - Cardio - 20210408 Dosseh - Doaveli 1 - 20210415 Dosseh - La vie d'avant - 20210502 Dosseh - Doaveli 2 - 20220629 Dosseh - A.K.A - 20220719 Dosseh - RS-28 - 20220804 Dosseh - Amsterdam - 20220915 Dosseh - Branché - 20220919 Dosseh - PERIODT - 20221007 Dosseh - Mode S - 20230113 Dosseh - Haï Featuring - 20040514 Sinik - Urbaine poésie - 20040630 K.Ommando Toxik - C'est le trio - 20041116 Pit Baccardi - Le son de la street - 20050517 Pit Baccardi - C'est dead ! - 20051219 Noyau Dur - Le son des loups - 20070116 Pit Baccardi - Come Back Remix - 20070315 Heckel Geckel - On ne sait pas abandonner - 20070417 Smoker - Geez Up - 20080404 Futur Proche - Va leur dire - 20090922 Alain 2 L'Ombre - Qui veut la peau d'Alain 2 L'Ombre - 20100301 Seth Gueko - C'est la merde - 20101018 Nakk Mendosa - J'suis un lion - 20101122 Booba - 45 Scientific - 20101201 Escobar Macson - Tout le monde d'accord - 20101213 Ol' Kainry - Clac clac - 20110409 Lalcko - Tradition du combat - 20110516 Still Fresh - Mise en garde - 20111021 28 Zaheef - État brut - 20120319 Nakk Mendosa - La sentence Remix - 20120503 Smoker - Zbeul dans ta soirée - 20120618 Niro - Dans ton kwaah Remix - 20120625 Kennedy - Blue Magic - 20121019 Pit Baccardi - Les frères flingueurs - 20130422 Ghetto Fabulous Gang - Expandables - 20130617 Sofiane - Boxe avec les mots Remix - 20131118 Ppros - Calité - 20131220 Joke - Miley - 20131222 wagg - All I Gotta Say - 20140629 Rock Blood - Panamera - 20140915 Bassirou - Le score - 20150130 Boysaf - Y'a du bizz dans mon block - 20181115 Titai - BET Cypher 2018 4 - 20190125 Seth Gueko - Barry White Trash - 20190208 NAAR - Kssiri - 20190215 T.Killa - Marécage - 20190301 Jorja Smith - Blue Lights French Remix - 20190426 Toma - Hypersensible - 20191004 Lefa - Spécial - 20191108 TY1 - C'EST LA VIE - 20191129 Dinos - Taciturne - 20191213 IZI - Cometa - 20200131 Mister V - Gang - 20200403 Twinsmatic - TRAP - 20200424 McKoy - Matchu Pitchu - 20200821 Sizlac - 45 - 20200911 KPoint - Choix de vie - 20201005 Popey - Imbécile - 20201112 TLZ Clan - C'est nous - 20201218 Negrito - Puh puh - 20210217 Jack Many - Ooooh...! - 20211001 Malik Montana - Click Clack Bang - 20220616 The New Orleans - Quatro Cinco - 20220617 The New Orleans - Les coups</t>
+          <t>Discographie - Dosseh Album Studio - 20161104 Dosseh - Yuri - 20180706 Dosseh - VIDALOA - 20190412 Dosseh - VIDALOA 4.5 - 20220930 Dosseh - Trop tôt pour mourir EP - 20220128 Dosseh - Yuri Negrowski Mixtape - 20041029 Dosseh - Bolide Vol. 1 - 20081118 Dosseh - Bolide Vol. 2 - 20110117 Dosseh DJ Medi Med - Desperadoss - 20110729 Dosseh DJ Moon - Summer Crack, Vol. 1 - 20120722 Dosseh DJ Skut - Summer Crack, Vol. 2 - 20150316 Dosseh - Perestroïka - 20150731 Dosseh - Summer Crack, Vol. 3 - 20190712 Dosseh - Summer Crack 4 Soundtrack - 20130624 Dosseh - Karma Autre - 20141118 Dosseh - YuriNegrowski Hors-Série Single - 20060306 Dosseh - Banlieusard de province - 20061003 Dosseh - La mort pour seule limit - 20070117 Dosseh - 16 mesures d haine - 20070206 Dosseh - Chienne de vie - 20070312 Dosseh - Ennemi - 20071126 Dosseh - Je suis - 20071129 Dosseh - Parce que - 20080531 Dosseh - Prototype - 20081118 Dosseh - Pharaonique - 20090117 Dosseh - Aigle royal - 20090421 Dosseh - Frères d'armes - 20090615 Dosseh - Jour de paye - 20090629 Dosseh - Non stop - 20100413 Dosseh - Freestyle Desperadoss Part. 1 - 20100528 Dosseh - Freestyle Desperadoss Part. 2 - 20100613 Dosseh - Pour ma voyoucratie Remix insolent - 20100703 Dosseh - Matrix - 20100723 Dosseh - Tu connais nos codes - 20101123 Dosseh - Freestyle Desperadoss Part. 3 - 20110103 Dosseh - Full Contact - 20110224 Dosseh - Desperadoss - 20110806 Dosseh - Nique-toi, paye-moi - 20120309 Dosseh - OK - 20120509 Dosseh - Casque intégral - 20120706 Dosseh - Summer Crack Intro - 20120720 Dosseh - Mon gang - 20130518 Dosseh - BM Audi Merco Benz - 20130527 Dosseh - Gangnam Style Trap Remix - 20130616 Dosseh - IGO - 20130621 Dosseh - La boum 3 - 20130704 Dosseh - Booskarma - 20130708 Dosseh - Holy Water Freestyle - 20130819 Dosseh - Promesses - 20131103 Dosseh - Adios - 20131127 Dosseh - Yin Yang - 20140311 Dosseh - Freestyle Parlez-vous Cefran - 20140611 Dosseh - En balle Freestyle - 20140806 Dosseh - La dose Freestyle - 20141009 Dosseh - Illuminati - 20141018 Dosseh - YuriNegrowski 1 - 20141018 Dosseh - YuriNegrowski 2 - 20141018 Dosseh - YuriNegrowski 3 - 20141023 Dosseh - Boyscout - 20141110 Dosseh - Faut qu'ça chie YuriNegrowski 4 - 20141208 Dosseh - Le coup du patron - 20150116 Dosseh - Le dehors - 20150217 Dosseh - Bouteilles et glocks - 20150224 Dosseh - Nirvana YuriNegrowski 5 - 20150304 Dosseh - Hors-Série YuriNegrowski 6 - 20150312 Dosseh - 30 millions d'ennemis YuriNegrowski 7 - 20150406 Dosseh - Que d'la D YuriNegrowski 8 - 20150430 Dosseh - Bando - 20150430 Dosseh - Scarla - 20150702 Dosseh - Été au tieks - 20150711 Dosseh - Brolyk - 20150718 Dosseh - Booska Summer Crack - 20150730 Dosseh - Oublier - 20151231 Dosseh - Je suis Yuri YuriNegrowski 9 - 20160613 Dosseh - Milliers d'euros - 20160704 Dosseh - T'as pas compris - 20160909 Dosseh - Afrikan History X - 20160916 Dosseh - Là-haut - 20160923 Dosseh - Freestyle BarbaRossa1 - 20160930 Dosseh - Myah Bay - 20160930 Dosseh - Abel Caïn - 20161024 Dosseh - Infréquentables - 20161121 Dosseh - Putain d'époque - 20170106 Dosseh - Solo - 20170206 Dosseh - J'suis qu'un Loa YuriNegrowski 10 - 20170303 Dosseh - Bad and Boujee Remix - 20170721 Dosseh - PDCV Pas dans cette vie - 20180112 Dosseh - Tout est neuf - 20180216 Dosseh - KFC - 20180316 Dosseh - Papillon - 20180511 Dosseh - Habitué - 20180705 Dosseh - VLT - 20180720 Dosseh - MQTB - 20181116 Dosseh - À chaque jour... - 20190201 Dosseh - Superhéro - 20190321 Dosseh - Habitué Italian Remix - 20190329 Dosseh - Flux - 20190412 Dosseh - Le bruit du silence - 20190419 Dosseh - OKLM Freestyle - 20190607 Dosseh - Boîte à Shoes - 20190614 Dosseh - MQTB Version solo - 20190628 Dosseh - Les histoires - 20190628 Dosseh - L'odeur du charbon - 20190807 Dosseh - Canal - 20190823 Dosseh - Thaïlande - 20200221 Dosseh - L'odeur du charbon Remix - 20200503 Dosseh - Milli' - 20200902 Dosseh - A45 - 20200924 Dosseh - Place de l'Étoile - 20201216 Dosseh - Famiglia è Grande - 20210302 Dosseh - Cardio - 20210408 Dosseh - Doaveli 1 - 20210415 Dosseh - La vie d'avant - 20210502 Dosseh - Doaveli 2 - 20220629 Dosseh - A.K.A - 20220719 Dosseh - RS-28 - 20220804 Dosseh - Amsterdam - 20220915 Dosseh - Branché - 20220919 Dosseh - PERIODT - 20221007 Dosseh - Mode S - 20230113 Dosseh - Haï Featuring - 20040514 Sinik - Urbaine poésie - 20040630 K.Ommando Toxik - C'est le trio - 20041116 Pit Baccardi - Le son de la street - 20050517 Pit Baccardi - C'est dead ! - 20051219 Noyau Dur - Le son des loups - 20070116 Pit Baccardi - Come Back Remix - 20070315 Heckel Geckel - On ne sait pas abandonner - 20070417 Smoker - Geez Up - 20080404 Futur Proche - Va leur dire - 20090922 Alain 2 L'Ombre - Qui veut la peau d'Alain 2 L'Ombre - 20100301 Seth Gueko - C'est la merde - 20101018 Nakk Mendosa - J'suis un lion - 20101122 Booba - 45 Scientific - 20101201 Escobar Macson - Tout le monde d'accord - 20101213 Ol' Kainry - Clac clac - 20110409 Lalcko - Tradition du combat - 20110516 Still Fresh - Mise en garde - 20111021 28 Zaheef - État brut - 20120319 Nakk Mendosa - La sentence Remix - 20120503 Smoker - Zbeul dans ta soirée - 20120618 Niro - Dans ton kwaah Remix - 20120625 Kennedy - Blue Magic - 20121019 Pit Baccardi - Les frères flingueurs - 20130422 Ghetto Fabulous Gang - Expandables - 20130617 Sofiane - Boxe avec les mots Remix - 20131118 Ppros - Calité - 20131220 Joke - Miley - 20131222 wagg - All I Gotta Say - 20140629 Rock Blood - Panamera - 20140915 Bassirou - Le score - 20150130 Boysaf - Y'a du bizz dans mon block - 20181115 Titai - BET Cypher 2018 4 - 20190125 Seth Gueko - Barry White Trash - 20190208 NAAR - Kssiri - 20190215 T.Killa - Marécage - 20190301 Jorja Smith - Blue Lights French Remix - 20190426 Toma - Hypersensible - 20191004 Lefa - Spécial - 20191108 TY1 - C'EST LA VIE - 20191129 Dinos - Taciturne - 20191213 IZI - Cometa - 20200131 Mister V - Gang - 20200403 Twinsmatic - TRAP - 20200424 McKoy - Matchu Pitchu - 20200821 Sizlac - 45 - 20200911 KPoint - Choix de vie - 20201005 Popey - Imbécile - 20201112 TLZ Clan - C'est nous - 20201218 Negrito - Puh puh - 20210217 Jack Many - Ooooh...! - 20211001 Malik Montana - Click Clack Bang - 20220616 The New Orleans - Quatro Cinco - 20220617 The New Orleans - Les coups</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels You might also likeRefrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
+          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Eh, y a des fois y a des galères mais on n'flanche pas Non, non, non Hey, t'entends pas ou quoi ? Le Noyau reste Dur même quand il pleut des coups durs Calbo, Janik MC, Pit Baccardi et Jacky On était plein au départ, toujours plein à l'arrivée Mec tu en as rêvé donc Secteur Ä l'a fait On s'réunit en famille pour une tuerie musicale Noyau Dur, un album à classer dans les annales Quoi qu'on en dise, on a marqué la musique de France De par notre talent, beaucoup d'taf et un peu d'chance Et malgré tout ça, parfois l'envie me vient de tout arrêter Regarder mon histoire dans l'rétro et tirer un trait sur ce passé Et puis boum! J'redémarre au quart de tour Y a pas d'victoire sans défaite, pas de haine sans amour Tant qu'vous serez là, le combat continue On est venus, on a vu et on a vaincu C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure You might also like Eh, marquer l'temps c'est l'but, eh, on a l'groove Poussés par l'envie d'changer l'monde, foutre le souk On a pris un pas sur l'doute, on continue la route Comme le 22 mai à l'Olympia, donner la chair de poule Une nouvelle page s'ouvre, chez nous pas d'losers On sait encaisser et c'qu'on fait d'mieux c'est rendre les coups Même si on a pris du poids et d'l'âge Le talent reste le même, alors goûte au nouveau cru On était plein et on sera plein, couz Parfois blasés mais tu t'doutes bien qu'on va pas tomber dans l'trou Secteur Ä, l'histoire de p'tits mecs qui ont fait flipper avec leur succès Avant qu'ne succède le déclin Et puis boum! On redémarre au quart de tour Pas d'fumée sans feu, si ça brûle cherche pas, c'est nous Et puis boum! On refait l'histoire même si l'malheur fait des croche-pieds Sur le chemin d'la victoire C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure C'est tout réfléchi, on revient faire chier l'industrie On a juste fléchi parce que trop d'merde s'est incrustée dans l'biz C'est parti en couilles, on revient ajuster l'tir Faire un pur tri, impossible à insulter On était plein au départ, encore plein à l'arrivée Revenus réclamer notre part et faire saliver les frustrés Ceux qui croyaient plus au truc Noyau Dur, à la tienne, encore un morceau à déguster Tout c'qui s'passe a une raison Faire péter l'réseau, c'est tout c'qui compte pour nos reufs en prison On lâchera rien, donne toujours la bonne zik Pour le respect, on rappe pour nos blocs toujours présents Et puis boum! J'repars au quart de tour T'as cru qu'tu nous l'avais faite comme Et puis boum! Le combat continue À la mort, rester fidèle au hip-hop tant qu'il est lourd, négro C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Alors donne-moi l'microphone que je parte en mission Fais tourner l'instru que j'le transforme en version Presse-le en vinyle et on pull-up la sélection Allez leur dire que j'représente tous ceux qui sont sous pression La musique n'est pas un jeu donc je n'serai pas leur pion never Si c'est une compétition j'suis pas leur champion J'veux ma prod, ma distrib, je veux mes éditions Tu connais ma position, je représente la nation Et puis boum! Laisse-moi big-up Garges Sarcelles Laisse-moi big-up Villiers-le-Bel, big-up Porte de la Chapelle Et puis boum! Laisse-moi big-up tous les réels J'leur donne plein d'bons décibels C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Baccardi Calbo Lino, Cky-Ja, Ben-J Janik MC</t>
+          <t>Eh, y a des fois y a des galères mais on n'flanche pas Non, non, non Hey, t'entends pas ou quoi ? Le Noyau reste Dur même quand il pleut des coups durs Calbo, Janik MC, Pit Baccardi et Jacky On était plein au départ, toujours plein à l'arrivée Mec tu en as rêvé donc Secteur Ä l'a fait On s'réunit en famille pour une tuerie musicale Noyau Dur, un album à classer dans les annales Quoi qu'on en dise, on a marqué la musique de France De par notre talent, beaucoup d'taf et un peu d'chance Et malgré tout ça, parfois l'envie me vient de tout arrêter Regarder mon histoire dans l'rétro et tirer un trait sur ce passé Et puis boum! J'redémarre au quart de tour Y a pas d'victoire sans défaite, pas de haine sans amour Tant qu'vous serez là, le combat continue On est venus, on a vu et on a vaincu C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Eh, marquer l'temps c'est l'but, eh, on a l'groove Poussés par l'envie d'changer l'monde, foutre le souk On a pris un pas sur l'doute, on continue la route Comme le 22 mai à l'Olympia, donner la chair de poule Une nouvelle page s'ouvre, chez nous pas d'losers On sait encaisser et c'qu'on fait d'mieux c'est rendre les coups Même si on a pris du poids et d'l'âge Le talent reste le même, alors goûte au nouveau cru On était plein et on sera plein, couz Parfois blasés mais tu t'doutes bien qu'on va pas tomber dans l'trou Secteur Ä, l'histoire de p'tits mecs qui ont fait flipper avec leur succès Avant qu'ne succède le déclin Et puis boum! On redémarre au quart de tour Pas d'fumée sans feu, si ça brûle cherche pas, c'est nous Et puis boum! On refait l'histoire même si l'malheur fait des croche-pieds Sur le chemin d'la victoire C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure C'est tout réfléchi, on revient faire chier l'industrie On a juste fléchi parce que trop d'merde s'est incrustée dans l'biz C'est parti en couilles, on revient ajuster l'tir Faire un pur tri, impossible à insulter On était plein au départ, encore plein à l'arrivée Revenus réclamer notre part et faire saliver les frustrés Ceux qui croyaient plus au truc Noyau Dur, à la tienne, encore un morceau à déguster Tout c'qui s'passe a une raison Faire péter l'réseau, c'est tout c'qui compte pour nos reufs en prison On lâchera rien, donne toujours la bonne zik Pour le respect, on rappe pour nos blocs toujours présents Et puis boum! J'repars au quart de tour T'as cru qu'tu nous l'avais faite comme Et puis boum! Le combat continue À la mort, rester fidèle au hip-hop tant qu'il est lourd, négro C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Alors donne-moi l'microphone que je parte en mission Fais tourner l'instru que j'le transforme en version Presse-le en vinyle et on pull-up la sélection Allez leur dire que j'représente tous ceux qui sont sous pression La musique n'est pas un jeu donc je n'serai pas leur pion never Si c'est une compétition j'suis pas leur champion J'veux ma prod, ma distrib, je veux mes éditions Tu connais ma position, je représente la nation Et puis boum! Laisse-moi big-up Garges Sarcelles Laisse-moi big-up Villiers-le-Bel, big-up Porte de la Chapelle Et puis boum! Laisse-moi big-up tous les réels J'leur donne plein d'bons décibels C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Baccardi Calbo Lino, Cky-Ja, Ben-J Janik MC</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Oxmo Puccino l'black mafieux, Bridge, Lunatic, Time Bomb J'attends qu'le beat commence Danube, le 19, 93, 92, 95, Mars Vlavo Pourquoi tu dis qu'j'suis noir ? J'ai la peau vert dollar J'en ai pas l'air connard, j'espère êt' millionnaire sans êt' tolard Black Superman, j'arrive de London, à Lens ou ici J'te mets une patate à Paris et t'atterries à Hong Kong Mon rap crame la stratosphère, craque le sol des Champs-Elysées Le Bridge élisez-le au top et figez-le J'suis l'plastiqueur, le plaqu astiqueur de gun Vengance élastique, selon l'offre faiseur d'orphelins Oxmo alias Moe Greene, en français plus de tas d'liasses Tant qu'y aura d'la tune, trop de rimes Super-héros au pieu Hétérosexuel, même si j'suis d'ces hommes Qui aime les sommes attirées par mon textuel Trop de matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Puis parlent sur le crew Quand j'lève mon gun comme Tom Cruise Ils parlent de paix et s'la jouent zulu Écoute mec joue pas les héros Car un héros c'est un homme mort Et qu'un homme mort c'est qu'un zéro You might also like Un garçon discret Faut dire c'qui est j'suis d'corpulence svelte Mais cependant j'reste le principal suspect Comme Lee Harvey Oswald Les miens s'révoltent, agrippent leurs Colt Mais se sentent galvanisés par la récolte Que leur apporte leur business Mais d'là naissent des générations d'gosses Dont toutes les données s'faussent C'est l'idéal, créer des filiales par milliers Et filer à l'anglaise dès qu'les flics veulent t'humilier Où est Cassidy ? Il est àl avec le crew Herbe et cool-al, loin des gos aux cols sales Tu vois le tableau ? Style macro crari gros bras La taule comme bras droit Des gars droits comme des rails de coke Des ambiances glauques où les lascars sont comme des loques Et smoke, en disant on s'moque du lendemain Je reste fier, mais pour avoir le cash j'ai d'grandes mains Les frères se masturbent sous la couette Fouettent sous les sweatshirts Rêvent de filles aux belles silhouettes Dans des belles îles, d'ssus volent des mouettes Mais c'est plutôt Belleville Donc chope cette chipie d'chance avant qu'elle file On m'appelle Hill dans quelle ville ? Paris Maint'nant tu sais l'deal, nique l'inspecteur Harry J'reste tel quel et quel style C'est l'quel Hill ? Celui qui a le shit et la liqueur Qui nique les lois en vigueur X-Men, businessman connections Réflexion, flow dissection, zéro déception Négros dites-leur c'est quoi not' nom, hein Cassidy et Hill Pit Baccardi pour le Bridge C'est la dream team bomb Bambin j'étais au pays du manioc Maint'nant j'manie le mic Hoche ta main, ta tête, tes p'tites loches Tu flanches pas, tu t'déhanches toujours J'lance à haute voix Time Bomb explose Tu connais l'refrain n'est-ce pas gars ? J'ai oublié mon texte, j'reprends comme ça Texte carré, c'est Pit Baccardi, IAM, say yo my man Pit, IAM, tu connais les mêmes La Black Mafia c'est auch', les cons s'couchent S'cachent quand j'crache c'que j'ai dans la bouche Paré pour le match ? Les X n'embauchent que les bons J'suis l'coach, Bushmaster cigares en poche Le Don King des affaires louches C'est Cassidy Butch À deux on possède plus de 20 000 cartouches Le rap, une garre-ba de chefs yes Et si j't'attaque de face, j'te laisse une trace sur l'crâne Comme Mikhaïl Gorbatchev J'te jure qu'c'est vrai c'qu'il dit donc crois-le C'est moi le mec pas dur, non dur pas moelleux Dédicace à Didier, Ali, Booba, Kassim, Kamal, Étienne, ma fille Géraldo, Dibi, next</t>
+          <t>Oxmo Puccino l'black mafieux, Bridge, Lunatic, Time Bomb J'attends qu'le beat commence Danube, le 19, 93, 92, 95, Mars Vlavo Pourquoi tu dis qu'j'suis noir ? J'ai la peau vert dollar J'en ai pas l'air connard, j'espère êt' millionnaire sans êt' tolard Black Superman, j'arrive de London, à Lens ou ici J'te mets une patate à Paris et t'atterries à Hong Kong Mon rap crame la stratosphère, craque le sol des Champs-Elysées Le Bridge élisez-le au top et figez-le J'suis l'plastiqueur, le plaqu astiqueur de gun Vengance élastique, selon l'offre faiseur d'orphelins Oxmo alias Moe Greene, en français plus de tas d'liasses Tant qu'y aura d'la tune, trop de rimes Super-héros au pieu Hétérosexuel, même si j'suis d'ces hommes Qui aime les sommes attirées par mon textuel Trop de matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Puis parlent sur le crew Quand j'lève mon gun comme Tom Cruise Ils parlent de paix et s'la jouent zulu Écoute mec joue pas les héros Car un héros c'est un homme mort Et qu'un homme mort c'est qu'un zéro Un garçon discret Faut dire c'qui est j'suis d'corpulence svelte Mais cependant j'reste le principal suspect Comme Lee Harvey Oswald Les miens s'révoltent, agrippent leurs Colt Mais se sentent galvanisés par la récolte Que leur apporte leur business Mais d'là naissent des générations d'gosses Dont toutes les données s'faussent C'est l'idéal, créer des filiales par milliers Et filer à l'anglaise dès qu'les flics veulent t'humilier Où est Cassidy ? Il est àl avec le crew Herbe et cool-al, loin des gos aux cols sales Tu vois le tableau ? Style macro crari gros bras La taule comme bras droit Des gars droits comme des rails de coke Des ambiances glauques où les lascars sont comme des loques Et smoke, en disant on s'moque du lendemain Je reste fier, mais pour avoir le cash j'ai d'grandes mains Les frères se masturbent sous la couette Fouettent sous les sweatshirts Rêvent de filles aux belles silhouettes Dans des belles îles, d'ssus volent des mouettes Mais c'est plutôt Belleville Donc chope cette chipie d'chance avant qu'elle file On m'appelle Hill dans quelle ville ? Paris Maint'nant tu sais l'deal, nique l'inspecteur Harry J'reste tel quel et quel style C'est l'quel Hill ? Celui qui a le shit et la liqueur Qui nique les lois en vigueur X-Men, businessman connections Réflexion, flow dissection, zéro déception Négros dites-leur c'est quoi not' nom, hein Cassidy et Hill Pit Baccardi pour le Bridge C'est la dream team bomb Bambin j'étais au pays du manioc Maint'nant j'manie le mic Hoche ta main, ta tête, tes p'tites loches Tu flanches pas, tu t'déhanches toujours J'lance à haute voix Time Bomb explose Tu connais l'refrain n'est-ce pas gars ? J'ai oublié mon texte, j'reprends comme ça Texte carré, c'est Pit Baccardi, IAM, say yo my man Pit, IAM, tu connais les mêmes La Black Mafia c'est auch', les cons s'couchent S'cachent quand j'crache c'que j'ai dans la bouche Paré pour le match ? Les X n'embauchent que les bons J'suis l'coach, Bushmaster cigares en poche Le Don King des affaires louches C'est Cassidy Butch À deux on possède plus de 20 000 cartouches Le rap, une garre-ba de chefs yes Et si j't'attaque de face, j'te laisse une trace sur l'crâne Comme Mikhaïl Gorbatchev J'te jure qu'c'est vrai c'qu'il dit donc crois-le C'est moi le mec pas dur, non dur pas moelleux Dédicace à Didier, Ali, Booba, Kassim, Kamal, Étienne, ma fille Géraldo, Dibi, next</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Laisse-moi donner l'ton, j'vais écorcher l'beat du haut d'mon pupitre Le futur s'annonce triste pour les pauvres types Qui croyaient qu'l'équipe était sur orbite, eh p'tit Retourne te planquer, Noyau Dur débarque, le rap est victime d'une secousse sismique J'clarifie la situation en douze rimes, j'terrifie Modifie les plans d'l'ennemi, j'contre-attaque dans ta chaîne hifi Pas d'flip, j't'explique, ma clique s'impose Le déclic s'est fait, sur nous quand j'prends l'mic ça fait clic clic Baccardi Pit, le best, toujours intestable, cousin qu'est-ce t'as ? Ta meuf m'a cé-s' man, c'est ça qu't'encaisses pas Lyrical bombe comme Dosseh, ici c'est un avant-goût corsé, eh En mode guerre cousin, y a trop d'décès Et tu l'sais C'est Pit au mic You might also like Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Ici c'est B.E.N.J.A.C.K.Y Le duo d'choc, les douilles sont chargées pour une nouvelle offensive Woy, pousse-toi petit car sur ma route on coupe des têtes Faut péter des portes, éclater des carreaux pour imposer l'ragga hip-hop À l'ombre de la haine on a fait c'putain d'album Loin des gyrophares et des bâtards qui m'croient au funérarium Vous êtes tous dead, dead, dead On revient choquer la France, mon Noyau Dur est wanted Woy, vous êtes tous dead, dead, dead Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Donc reste pas là, nous on écrase tout sur notre passage Reste pas là, c'est Noyau Dur pour un nouveau carnage Reste pas là T'entends pas ou quoi, Jacky Ben-J Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Noyau putain d'Dur, avec les putes on coupe les ponts En groupe on les bute, tire pas les Fusil à pompe musique, y a Pit Ärsenik, les Neg', on répond à l'appel microphone scalpel, les plombs sautent On débite, c'est Bors', Calbo et l'démon s'abrite dans la chapelle Ouais, ça s'appelle Noyau putain d'Dur et tu l'sais On l'a trop poussé, maintenant c'est àl goz Dédié aux refrés expulsés On a rentré les mics et t'as kiffé ces cons-là C'est sûr, quand on a pas c'qu'on aime, on aime c'qu'on a Avec des putain d'tueurs on a fait une bombe Pour qu'ces merdes tombent et qu'on cesse enfin d'en abuser Tu sais Ärsenik Noyau Dur Destruction massive Ärsenik Baccardi Pit En mission Assassinat verbal En mode guerre cousin Le boulot on va l'faire Noyau Dur Noyau Dur, Noyau Dur, Noyau Dur</t>
+          <t>Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Laisse-moi donner l'ton, j'vais écorcher l'beat du haut d'mon pupitre Le futur s'annonce triste pour les pauvres types Qui croyaient qu'l'équipe était sur orbite, eh p'tit Retourne te planquer, Noyau Dur débarque, le rap est victime d'une secousse sismique J'clarifie la situation en douze rimes, j'terrifie Modifie les plans d'l'ennemi, j'contre-attaque dans ta chaîne hifi Pas d'flip, j't'explique, ma clique s'impose Le déclic s'est fait, sur nous quand j'prends l'mic ça fait clic clic Baccardi Pit, le best, toujours intestable, cousin qu'est-ce t'as ? Ta meuf m'a cé-s' man, c'est ça qu't'encaisses pas Lyrical bombe comme Dosseh, ici c'est un avant-goût corsé, eh En mode guerre cousin, y a trop d'décès Et tu l'sais C'est Pit au mic Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Ici c'est B.E.N.J.A.C.K.Y Le duo d'choc, les douilles sont chargées pour une nouvelle offensive Woy, pousse-toi petit car sur ma route on coupe des têtes Faut péter des portes, éclater des carreaux pour imposer l'ragga hip-hop À l'ombre de la haine on a fait c'putain d'album Loin des gyrophares et des bâtards qui m'croient au funérarium Vous êtes tous dead, dead, dead On revient choquer la France, mon Noyau Dur est wanted Woy, vous êtes tous dead, dead, dead Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Donc reste pas là, nous on écrase tout sur notre passage Reste pas là, c'est Noyau Dur pour un nouveau carnage Reste pas là T'entends pas ou quoi, Jacky Ben-J Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Noyau putain d'Dur, avec les putes on coupe les ponts En groupe on les bute, tire pas les Fusil à pompe musique, y a Pit Ärsenik, les Neg', on répond à l'appel microphone scalpel, les plombs sautent On débite, c'est Bors', Calbo et l'démon s'abrite dans la chapelle Ouais, ça s'appelle Noyau putain d'Dur et tu l'sais On l'a trop poussé, maintenant c'est àl goz Dédié aux refrés expulsés On a rentré les mics et t'as kiffé ces cons-là C'est sûr, quand on a pas c'qu'on aime, on aime c'qu'on a Avec des putain d'tueurs on a fait une bombe Pour qu'ces merdes tombent et qu'on cesse enfin d'en abuser Tu sais Ärsenik Noyau Dur Destruction massive Ärsenik Baccardi Pit En mission Assassinat verbal En mode guerre cousin Le boulot on va l'faire Noyau Dur Noyau Dur, Noyau Dur, Noyau Dur</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J'ai l'impression qu'j'ai pas la même vie qu'vous J'me livre avant qu'les pages de ma vie s'ferment Artical Bad Boy, ressens la vibe Balafré depuis la naissance, j'suis sensible J'ai du mal à vous parler sans être sincère Sous mon bob s'cachent un millier d'malaises Un film, un drame, du sang, des larmes Et j'm'évade dans des sphères J'ai peur comme chaque homme Clique sur mon cur Tu verras c'est quoi la détresse Instable, incontrôlable, j'pète un câble Ça m'a tué d'être orphelin mais j'vais gravir les stades J'suis un lion, un chien en rage Fini le temps où juste avec un regard, on pouvait m'abattre J'suis l'espoir d'un peuple, ma zik sentira toujours la souffrance Et m'dis pas d'arrêter C'est comme demander à un enfant d'Soweto De plus parler d'apartheid Né pour prouver Impossible Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver You might also like Ma vie c'est l'épreuve J'suis brave et mon blaze circule Dans les hautes sphères jusqu'aux caves Et les étages sont durs à monter grave Malgré ça, négro, j'élargis mon champ d'vision J'veux construire, être quelqu'un Tous les héros sont morts au combat Et mon bonheur je sais où j'vais l'planquer Leader, pas suiveur J'entends les mômes dire j'veux être comme lui Tout c'que j'réponds, c'est qu'il est l'heure J'parle aux volcans et aux océans Quand j'brûle le mic, tout s'passe en profondeur Les choses changent, j'peux plus attendre Chaque jour est un pas vers la sortie L'ouragan est en train d's'étendre Je chante l'amour, la paix, l'union, la peur Quand ça va mal, des larmes amères je pleure Quoi qui s'passe j'serai au rendez-vous, jusqu'à la fin Compte avec moi négro, j'suis là pour prouver Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver J'ai douté d'moi, j'ai eu tort J'ai voulu tout changer, j'avais tort, j'suis moi, j'suis fort et j'vais l'prouver Tu m'aimeras tant que mon rap aura une âme J'suis celui qu'les ignorants blâment Et que le peuple acclame L'inattendu, du rap fresh alors qu'est-ce t'en dis? Je sais qu't'as une impression de déjà entendu La vie, c'est un recommencement Et moi j'suis pas on m'baise, non Touche ton cur, sens-tu les battements? 2002 manières de m'haïr ou d'm'aimer si t'es down J'ai aucune raison de trahir Ça vient du cur et des tripes J'en place une pour Willy, Manjao Thibaut l'boss et les ghettos di blow PC, Secteur Ä Et tout l'peuple qui m'suit depuis l'début dans l'son C'est pas des rapports de sous, mais un lien d'sang Sans souci, à cent pourcents Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver Né pour prouver Né pour prouver Né pour prouver Né pour prouver</t>
+          <t>J'ai l'impression qu'j'ai pas la même vie qu'vous J'me livre avant qu'les pages de ma vie s'ferment Artical Bad Boy, ressens la vibe Balafré depuis la naissance, j'suis sensible J'ai du mal à vous parler sans être sincère Sous mon bob s'cachent un millier d'malaises Un film, un drame, du sang, des larmes Et j'm'évade dans des sphères J'ai peur comme chaque homme Clique sur mon cur Tu verras c'est quoi la détresse Instable, incontrôlable, j'pète un câble Ça m'a tué d'être orphelin mais j'vais gravir les stades J'suis un lion, un chien en rage Fini le temps où juste avec un regard, on pouvait m'abattre J'suis l'espoir d'un peuple, ma zik sentira toujours la souffrance Et m'dis pas d'arrêter C'est comme demander à un enfant d'Soweto De plus parler d'apartheid Né pour prouver Impossible Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver Ma vie c'est l'épreuve J'suis brave et mon blaze circule Dans les hautes sphères jusqu'aux caves Et les étages sont durs à monter grave Malgré ça, négro, j'élargis mon champ d'vision J'veux construire, être quelqu'un Tous les héros sont morts au combat Et mon bonheur je sais où j'vais l'planquer Leader, pas suiveur J'entends les mômes dire j'veux être comme lui Tout c'que j'réponds, c'est qu'il est l'heure J'parle aux volcans et aux océans Quand j'brûle le mic, tout s'passe en profondeur Les choses changent, j'peux plus attendre Chaque jour est un pas vers la sortie L'ouragan est en train d's'étendre Je chante l'amour, la paix, l'union, la peur Quand ça va mal, des larmes amères je pleure Quoi qui s'passe j'serai au rendez-vous, jusqu'à la fin Compte avec moi négro, j'suis là pour prouver Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver J'ai douté d'moi, j'ai eu tort J'ai voulu tout changer, j'avais tort, j'suis moi, j'suis fort et j'vais l'prouver Tu m'aimeras tant que mon rap aura une âme J'suis celui qu'les ignorants blâment Et que le peuple acclame L'inattendu, du rap fresh alors qu'est-ce t'en dis? Je sais qu't'as une impression de déjà entendu La vie, c'est un recommencement Et moi j'suis pas on m'baise, non Touche ton cur, sens-tu les battements? 2002 manières de m'haïr ou d'm'aimer si t'es down J'ai aucune raison de trahir Ça vient du cur et des tripes J'en place une pour Willy, Manjao Thibaut l'boss et les ghettos di blow PC, Secteur Ä Et tout l'peuple qui m'suit depuis l'début dans l'son C'est pas des rapports de sous, mais un lien d'sang Sans souci, à cent pourcents Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver Né pour prouver Né pour prouver Né pour prouver Né pour prouver</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Refrain On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores On balance des phrases en or On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores Hardcores sont les métaphores T-Sow Je reste original blue funk comme Busta Flex Au concert pleine puissance à la Das EFX, jme prends pas la tête, non Mais quest-ce qui fait marcher les sages, demande à Jimmy Jay Mc Solaar, Menelik, Sléo, les Démocrates D 1995, Befa surprend ses frères Contact Assassin pour lhomocide volontaire Psychose, Timide Et Sans Complexe Ce système ma fais comprendre que cest sexe violence rap Flooze On sample du jazz pour la voie du peuple Mafia Underground pr un Egotrip, porte ma Nautica Alliance Ethnik Jvous rassure La Base est 3x plus efficaces Quand elle connait son passé il ny a plus de menace Jétais en classe à lécole du micro dargent Le temps sefface, la vérité est toujours au dessus du mensonge Les derniers messagers pour le troupeau Et noublies jamais, qui sème le vent récolte le tempo You might also likeRefrain Ri-k Méga fort en rap comme Pit Baccardi, ma Cliqua vise le sommet Je suis Lunatic, bestial pour de la monnaie Ill comme les X-men, IAM le lyrical Shurikn Une putain de tuerie digiBAM ! Fais péter les sons dans ta BM garçon, de Nidau jusquà Mâche je crache Mon Double H, lache des sacrés trucs de barge quand jen ai marre je fais mon argent dans la marge Je squatte avec mes crooks et mes Timberland boots Freestyle avec Big F dans le coin de rue Partage le même point de vue Ramènes les bouteilles mon gars tes bienvenu Vraiment rien à foutre enfoiré ici cest Bienne Pécho des lycéennes et fume la weed dans lICN À lancienne, mais aujourdhui cest qui le mythe ?! Ri-k retourne aux pyramides Balance un style monté de toutes pièces comme un braquage On ramène le coffre-fort, dégagez le passage ! Refrain Buds Penseur Protèges ta nuque comme le Wu-Tang la Base est Illmatic comme Nasty Nas Des disciples de la musique comme Shabazz Frèro, la vieille époque était si belle Je voyageais jusquà Harlem quand jécoutais lalbum de Big L Fais péter les décibels, balances le bon son La Base le potentiel tu le vois et tu prépares les pensements Infâmes, comme Havoc et Prodigy Jécoutais Mafia K1 Fry avec mon frère Mohi G Reposes en paix frolo Lamour que javais pour toi tu ne peux pas le comparer à la valeur des Polos La vie est brutale, le combat continue Comme Ideal J, check la répute quon a dans la rue Ravage partout où on passe, cest la base dans la place Les leaders de la nouvelle école Bus-a-Bus 2013, Connexion Tru Comers Comme la Time Bomb on explose tout le commerce Refrain</t>
+          <t>Refrain On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores On balance des phrases en or On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores Hardcores sont les métaphores T-Sow Je reste original blue funk comme Busta Flex Au concert pleine puissance à la Das EFX, jme prends pas la tête, non Mais quest-ce qui fait marcher les sages, demande à Jimmy Jay Mc Solaar, Menelik, Sléo, les Démocrates D 1995, Befa surprend ses frères Contact Assassin pour lhomocide volontaire Psychose, Timide Et Sans Complexe Ce système ma fais comprendre que cest sexe violence rap Flooze On sample du jazz pour la voie du peuple Mafia Underground pr un Egotrip, porte ma Nautica Alliance Ethnik Jvous rassure La Base est 3x plus efficaces Quand elle connait son passé il ny a plus de menace Jétais en classe à lécole du micro dargent Le temps sefface, la vérité est toujours au dessus du mensonge Les derniers messagers pour le troupeau Et noublies jamais, qui sème le vent récolte le tempo Refrain Ri-k Méga fort en rap comme Pit Baccardi, ma Cliqua vise le sommet Je suis Lunatic, bestial pour de la monnaie Ill comme les X-men, IAM le lyrical Shurikn Une putain de tuerie digiBAM ! Fais péter les sons dans ta BM garçon, de Nidau jusquà Mâche je crache Mon Double H, lache des sacrés trucs de barge quand jen ai marre je fais mon argent dans la marge Je squatte avec mes crooks et mes Timberland boots Freestyle avec Big F dans le coin de rue Partage le même point de vue Ramènes les bouteilles mon gars tes bienvenu Vraiment rien à foutre enfoiré ici cest Bienne Pécho des lycéennes et fume la weed dans lICN À lancienne, mais aujourdhui cest qui le mythe ?! Ri-k retourne aux pyramides Balance un style monté de toutes pièces comme un braquage On ramène le coffre-fort, dégagez le passage ! Refrain Buds Penseur Protèges ta nuque comme le Wu-Tang la Base est Illmatic comme Nasty Nas Des disciples de la musique comme Shabazz Frèro, la vieille époque était si belle Je voyageais jusquà Harlem quand jécoutais lalbum de Big L Fais péter les décibels, balances le bon son La Base le potentiel tu le vois et tu prépares les pensements Infâmes, comme Havoc et Prodigy Jécoutais Mafia K1 Fry avec mon frère Mohi G Reposes en paix frolo Lamour que javais pour toi tu ne peux pas le comparer à la valeur des Polos La vie est brutale, le combat continue Comme Ideal J, check la répute quon a dans la rue Ravage partout où on passe, cest la base dans la place Les leaders de la nouvelle école Bus-a-Bus 2013, Connexion Tru Comers Comme la Time Bomb on explose tout le commerce Refrain</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Baccardi Cameron Pour longtemps Dans ce mouvement Tu l'sais Pit Baccardi 2002 Cameron Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement Va dire aux mômes qu'on a écrit les mots Créé des villes, donné l'envie À des gens qui s'mourraient dans les halls On est là parce qu'y a une âme On a ressenti c'truc fat qui nous a sortis d'nos sentiers glauques Avis de vengeance, le blizzard Souffle et ma silhouette s'pavane à l'auve J'ai pensé solo mais pour le groupe J'suis passé de salaud à chef de troupe Lâche-moi la grappe, t'écoutes mes couplets J'suis dans l'trip, faut qu'on s'accouple Pour longtemps mes rimes survoleront les cieux J'suis béni de Dieu, sans être star j'ferai partie des astres Que coulent des larmes de joie d'vos yeux XXX par l'système j'suis la vie même quand y a mort J'me plie et c'est le monde qui m'acclame J'suis là pour longtemps, entre vous et moi, je sens monter la flamme Qu'il vente ou qu'il neige, jamais de désastre Le cur y est, ma rime est de marbre You might also like Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Garde la foi Ne baisse pas les bras Qu'on se fiche de savoir où ça mènera Ni le temps qu'ça prendra Pour garder la vie Que demeure l'envie J'irai puiser en moi la force et la rage Pour traverser les âges Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Regarde comme on est beaux Le ciel nous a donné une force, une peau, le show, du rythme sur l'tempo J'bloque plus, insaisissable Touche mon corps, j'suis un château d'poussière, j'anime ton humeur sale Pour longtemps, ces images de joie avec le peuple Quand on bondait les salles et qu'la chaleur venait du sol Pour longtemps, cette mélancolie festive Qui met du piment à notre époque assassine Pour longtemps, cette zik Entre zigzags avec les flics Aujourd'hui, regarde, j'm'en sors Pour longtemps, Baccardi Pit J'te l'ai dit, mes textes sont des testaments Pour longtemps, cette vie Qui m'contraint à réussir On a des femmes, des mômes et des familles On construit le monde avec nos mots Pour longtemps, pour le mouvement Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Prêt à verser tout mon sang Éternellement Notre mouvement On veut marquer, ouais pour longtemps Le cur des gens Traversent le temps Prêt à verser tout mon sang Pour que vive éternellement Baccardi Notre cause, notre mouvement Putain d'prod, tu le sais On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps</t>
+          <t>Baccardi Cameron Pour longtemps Dans ce mouvement Tu l'sais Pit Baccardi 2002 Cameron Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement Va dire aux mômes qu'on a écrit les mots Créé des villes, donné l'envie À des gens qui s'mourraient dans les halls On est là parce qu'y a une âme On a ressenti c'truc fat qui nous a sortis d'nos sentiers glauques Avis de vengeance, le blizzard Souffle et ma silhouette s'pavane à l'auve J'ai pensé solo mais pour le groupe J'suis passé de salaud à chef de troupe Lâche-moi la grappe, t'écoutes mes couplets J'suis dans l'trip, faut qu'on s'accouple Pour longtemps mes rimes survoleront les cieux J'suis béni de Dieu, sans être star j'ferai partie des astres Que coulent des larmes de joie d'vos yeux XXX par l'système j'suis la vie même quand y a mort J'me plie et c'est le monde qui m'acclame J'suis là pour longtemps, entre vous et moi, je sens monter la flamme Qu'il vente ou qu'il neige, jamais de désastre Le cur y est, ma rime est de marbre Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Garde la foi Ne baisse pas les bras Qu'on se fiche de savoir où ça mènera Ni le temps qu'ça prendra Pour garder la vie Que demeure l'envie J'irai puiser en moi la force et la rage Pour traverser les âges Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Regarde comme on est beaux Le ciel nous a donné une force, une peau, le show, du rythme sur l'tempo J'bloque plus, insaisissable Touche mon corps, j'suis un château d'poussière, j'anime ton humeur sale Pour longtemps, ces images de joie avec le peuple Quand on bondait les salles et qu'la chaleur venait du sol Pour longtemps, cette mélancolie festive Qui met du piment à notre époque assassine Pour longtemps, cette zik Entre zigzags avec les flics Aujourd'hui, regarde, j'm'en sors Pour longtemps, Baccardi Pit J'te l'ai dit, mes textes sont des testaments Pour longtemps, cette vie Qui m'contraint à réussir On a des femmes, des mômes et des familles On construit le monde avec nos mots Pour longtemps, pour le mouvement Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Prêt à verser tout mon sang Éternellement Notre mouvement On veut marquer, ouais pour longtemps Le cur des gens Traversent le temps Prêt à verser tout mon sang Pour que vive éternellement Baccardi Notre cause, notre mouvement Putain d'prod, tu le sais On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Calmement, hey he Nouvelle version pour ce nouveau millénaire Hé hé, cest en 2000 que ca spasse Pit Baccardi, Mystik, Rohff, Ben-J, Jacky On dit quoi ? Tentends pas ou quoi ? Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête, tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te ch... J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Moi j'suis le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Dans l'esprit mes mots vont teinter Sachez, fâché, deux triple zéro Mobebissi M.Y.S.T.I.K, pas dC enfoiré Le bled on fume la chose pire qu'un bedo blindé You might also like Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, jsuis toujours lmeilleur Épelle B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Pas fâché que machin ait pompé mon style Pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte, c'est pas des rimes au compte-goutte Qu'elles coupent toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon Tchuss la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des chbeb qu'ils produisaient Donc en tant qu'anti-chbeb, ton colon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas mon pedigree Je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Pour mes potos en cellule, ma voix traverse le ciel Y a pas dque-fri, que du potentiel, jen suis la crème Irrite 100 kilogrammes pour les clients fidèles Y a pas dchrome, de mire Et lnombre de rappeurs mis à l'a-de-men Y a ce qui faut derrière du de-mon Quand on mdemande Rohff ça va ? Pépèrement Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Écoute ce style, écoute ma voix Tu sais qui je suis, n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as 10 secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de mic mac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro</t>
+          <t>Calmement, hey he Nouvelle version pour ce nouveau millénaire Hé hé, cest en 2000 que ca spasse Pit Baccardi, Mystik, Rohff, Ben-J, Jacky On dit quoi ? Tentends pas ou quoi ? Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête, tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te ch... J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Moi j'suis le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Dans l'esprit mes mots vont teinter Sachez, fâché, deux triple zéro Mobebissi M.Y.S.T.I.K, pas dC enfoiré Le bled on fume la chose pire qu'un bedo blindé Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, jsuis toujours lmeilleur Épelle B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Pas fâché que machin ait pompé mon style Pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte, c'est pas des rimes au compte-goutte Qu'elles coupent toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon Tchuss la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des chbeb qu'ils produisaient Donc en tant qu'anti-chbeb, ton colon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas mon pedigree Je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Pour mes potos en cellule, ma voix traverse le ciel Y a pas dque-fri, que du potentiel, jen suis la crème Irrite 100 kilogrammes pour les clients fidèles Y a pas dchrome, de mire Et lnombre de rappeurs mis à l'a-de-men Y a ce qui faut derrière du de-mon Quand on mdemande Rohff ça va ? Pépèrement Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Écoute ce style, écoute ma voix Tu sais qui je suis, n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as 10 secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de mic mac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire You might also like Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire You might also like Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ça part d'un rêve qui devient cauchemar Dans une poche l'arme Devenu couche-tard Mariés à la rue, on veut divorcer Y a beaucoup d'drames C'est d'nos cités qu'les coups partent On rêve de finir ce gros flic à coup de lattes Dieu juge nos curs, les hommes jugent nos actes Si on saigne, c'est qu'on est blessé Si on blesse, c'est qu'on est stressé Trop d'procès laissés en suspens On a nos propres règles, où les bâtards se font crosser Si y a émeute, c'est qu'y a un problème Si y un a problème, c'est qu'y a une cause Pourquoi proposer après qu'tout soit explosé Ils disent que quand on brûle, nos idées partent en fumée, ok Venez on s'pose, nous ce qu'on veut depuis c'est causer Le monde s'divise, ceux qui ont le pistolet, ceux qui creusent Nous on préfère mourir au combat, les larmes aux yeux Chez nous y a pas de victimes Cainfri, rebeus ou pikti On veut vivre dignes, marre de cette vie en freestyle On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé You might also like On voulait qu'le pays d'Marianne soit une terre d'accueil Ça reste une terre sous laquelle on enterre nos cercueils On voulait des logements décents On est des mille et des cent à avoir vu ces immeubles être en feu et à sang On voulait des moyens pour arriver à nos fins Aujourd'hui on cherche le moyen pour pas crever d'faim On voulait être libres et s'tenir à carreau Ils disent la vraie place de l'immigré c'est derrière les barreaux On voulait la vie d'rêve Comme dit Sefyu, on a l'cauchemar qui va avec Ici c'est marche ou crève On voulait des grands postes L'ascenseur social est bloqué au sous-sol On a pris l'escalier et on se retrouve dans le hall On voulait la prévention, on a eu la répression Aujourd'hui ils s'étonnent que ces flics soient victimes d'agressions On voulait le respect, on nous a chié dessus Quand on arrive ça pue l'danger, le pays est sens dessus dessous On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé On veut du concret, que Marianne comprenne Faut pas qu'la rue crève Y a le choix des armes et le feu dans les congrès Des solutions au délit de faciès Pas s'étonner qu'on investisse dans la cess' Tant qu'on vit dans la dèche, on allumera la mèche On veut un cinq pièces pour deux et non le contraire Français quand on gagne, immigré quand on perd On veut qu'ça change ça On veut du fric, le moyen d'en faire légalement On choisit l'illicite, les issues sont minces généralement On veut l'pouvoir, y en a marre de devoir Même si c'est avec le feu, on l'fera savoir On veut s'en sortir, c'est simple Plus de discours La jungle c'est là où on nous a parqués Pour ça qu'nous on a l'instinct bestial On veut éduquer parce que c'est le départ de tout Enlevez les ZEP, mettez-nous dans le privé y aura moins d'échecs On veut le dialogue, c'est comme ça que les choses se règlent On est ouverts Marianne, la rue t'observe On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé Et tu l'sais 2006, 2007 Empire, Aker, Spike Killer Miller Oums, la famille Dosseh, Marginal Sosa, Baccardi Pit Empire, et tu l'sais</t>
+          <t>Ça part d'un rêve qui devient cauchemar Dans une poche l'arme Devenu couche-tard Mariés à la rue, on veut divorcer Y a beaucoup d'drames C'est d'nos cités qu'les coups partent On rêve de finir ce gros flic à coup de lattes Dieu juge nos curs, les hommes jugent nos actes Si on saigne, c'est qu'on est blessé Si on blesse, c'est qu'on est stressé Trop d'procès laissés en suspens On a nos propres règles, où les bâtards se font crosser Si y a émeute, c'est qu'y a un problème Si y un a problème, c'est qu'y a une cause Pourquoi proposer après qu'tout soit explosé Ils disent que quand on brûle, nos idées partent en fumée, ok Venez on s'pose, nous ce qu'on veut depuis c'est causer Le monde s'divise, ceux qui ont le pistolet, ceux qui creusent Nous on préfère mourir au combat, les larmes aux yeux Chez nous y a pas de victimes Cainfri, rebeus ou pikti On veut vivre dignes, marre de cette vie en freestyle On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé On voulait qu'le pays d'Marianne soit une terre d'accueil Ça reste une terre sous laquelle on enterre nos cercueils On voulait des logements décents On est des mille et des cent à avoir vu ces immeubles être en feu et à sang On voulait des moyens pour arriver à nos fins Aujourd'hui on cherche le moyen pour pas crever d'faim On voulait être libres et s'tenir à carreau Ils disent la vraie place de l'immigré c'est derrière les barreaux On voulait la vie d'rêve Comme dit Sefyu, on a l'cauchemar qui va avec Ici c'est marche ou crève On voulait des grands postes L'ascenseur social est bloqué au sous-sol On a pris l'escalier et on se retrouve dans le hall On voulait la prévention, on a eu la répression Aujourd'hui ils s'étonnent que ces flics soient victimes d'agressions On voulait le respect, on nous a chié dessus Quand on arrive ça pue l'danger, le pays est sens dessus dessous On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé On veut du concret, que Marianne comprenne Faut pas qu'la rue crève Y a le choix des armes et le feu dans les congrès Des solutions au délit de faciès Pas s'étonner qu'on investisse dans la cess' Tant qu'on vit dans la dèche, on allumera la mèche On veut un cinq pièces pour deux et non le contraire Français quand on gagne, immigré quand on perd On veut qu'ça change ça On veut du fric, le moyen d'en faire légalement On choisit l'illicite, les issues sont minces généralement On veut l'pouvoir, y en a marre de devoir Même si c'est avec le feu, on l'fera savoir On veut s'en sortir, c'est simple Plus de discours La jungle c'est là où on nous a parqués Pour ça qu'nous on a l'instinct bestial On veut éduquer parce que c'est le départ de tout Enlevez les ZEP, mettez-nous dans le privé y aura moins d'échecs On veut le dialogue, c'est comme ça que les choses se règlent On est ouverts Marianne, la rue t'observe On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé Et tu l'sais 2006, 2007 Empire, Aker, Spike Killer Miller Oums, la famille Dosseh, Marginal Sosa, Baccardi Pit Empire, et tu l'sais</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Die shit is lovely Rol met mijn nigger Rocky Die bitch zuipt en ze stopt niet Dus geen wonder dat ze kotst G Shit is ugly als een mother-mother Mami mingel met je brada brother Jayh a.k.a. lover-lover Die shit is aan hier Zo van Oh my godfather, father Het is de A.A.-voorzitter, Jacky in mijn belly Doe een borrel met de afkickgekken van de Jellinek Ik houd van dikke tieten, een reet als missy Elliott En of ik jou wel zeker maak jazeker ik vertel het je Ey Hieperdepiep ik rol nog steeds niet in een Jeep Ik wil niet dood ik houd van bitches Dus mijn leven is me lief En we zijn wel carnivoren Maar we eten niet van beef Je zusje is d'r kutje kwijt En Biggie twee die is de dief, peace Ik ben een BN'er Ja een beruchte nigger Ik ben niet nuchter nigger Dus regel je zusje nigger Ik hou van lekkernijen En ik hou van lekker vrijen Met ho's met vette dijen Ja ze kunnen lekker rijden Ik ben een echte geile Kom dus bij me doe je mee Noem me een motherfucker Want ik neem je moeder mee Ik heb een goed idee Je weet wel van mij Een dikke joint in mijn bek met een cognacie erbij You might also like Een dikke joint in mijn bek met een cognacie erbij Ben aan het rellen in de club, geile dimp aan m'n zij Shit is leip, schreeuw het maar lekker uit We gaan nog niet naar huis Nee we gaan nog niet naar huis Een dikke joint in me bek met een cognacie erbij Ben aan het rellen in de club Geile dimp aan m'n zij Opzij, we vullen de glazen bij We gaan nog niet naar huis Nee, we gaan nog niet naar huis En ook al gaan we naar huis, space ik door in de buurt Ben zo high, zie alleen vliegende schotels in mijn buurt Het lijkt alsof ik zit in de twilight zone Dus zoek een alien, bitch geef d'r een twilight zo Ik ben tipsy en mix die Whiskey zeer risky Totdat mijn hoofd draait als een motherfucking frisbee Rook geen THC, bitch, ben ook geen THC-lid Maar effe voor de record wel THC Recordz Rechtstreeks uit de B, draaiend all the day 't Is je nigger Badboy, getekend THC We gaan nog niet naar huis Zeg de eigenaar spang je niet ik ga niet voor je kluis Ze weten van mijn verleden Met Djannie aan m'n zij wordt het rellen brada zeker Let mezelf pak die peper, ben een ster, ik ken geen recht Ik ken de hel, ik ken geen hemel Ik ben te helle-fucking-heet, beng Ik ben getrouwd en heb een kind Inderdaad dat klopt Maar ga nog steeds naar de klote met mijn homeboy Rocks Zet de klok een uurtje terug als het te laat word En steek je middelvinger op als er gehaat wordt Ik sta meestal aan een tafel met een fles met mijn naam erop De tyfus voor de crisis, geld moet rollen, wij staan er toch Dus gooi je handen in de lucht Zodat ik zie dat je niet speelt met je tieten of je kut Daar step, step ik weer is op Met die hip en die hop op die hit van de Rocks Transformer spit Transformeer je club, doe die shit uit me kop Tot nu draait alles Whiskey doe daar mijn melk maar in En cornflakes met rum Ik rap niet, die verse spit zichzelf wel in Feesten, spacen, blazen wrede j's en hete P's De T.H.C., de B, de P Nog steeds die emcee hey je weet Zwaar doorgedraaid Insane in de brain, vol met ruis Zit thuis op de bank voor de buis En schreeuw dagen later nog steeds Ik ga niet naar huis! Midden in de club met een jay in me smoel Top dubbel op top Ben nog steeds cool Met die Sterrenlaan grooves op die vloer Piep, weg, yes, gone, doei Ik wil niet naar huis want Ik heb nog Silver Haze en vloei Dus paas die liti voor een fikkie En kinnenleer op mijn smoel Yes, me rasta weg Me succes gaat nu tantoe ver Nou bounce 'em gek 't Is kemperveen van de mixtape 1 tot 3.2 Boerenvla die je dagelijks eet Mami kom en schudt die reet En rumble in de jungle voor mister kemper en cashis clay Oké, oké, de verdachte is terug Maar een dag of 7 geleden Ik word weer verdacht, ben berucht Ja de hele stad had weer lucht Ben een zachte zeg nuchter Zonder RB geen pakkies Zonder Djannie geen drugs meer Ja ik bracht wat je lustte Weet je hebt me gemist Maar zit ik even vast Ga je vreemd net als mijn bitch Voor al mijn homies in de bajes Dikke spliff draaiers, gajes, maaiers Ja de hittespitter heb een dikke Joint in me bek met een cognacje erbij Of niet dan ik pof van de wiet Maar ik pof tot ik niet kan staan Meer normaal in de zaal ik geniet van Tropical uppers, toppers we stoppen niet Brokkelen toppen grove wiet puff puff En pass de pit van tff tff Ikke blaze op, de shit die leeft op De chicks zijn heel hot Pak je lucht zo van tff tff Ikke Scotte de rij en ging van buiten naar binnen Keerde de club binnenstebuiten Breng het buiten naar binnen Nakker Dit is de party after the party De afterparty Ik heb een tree Gold vers en nog een fles Bacardi Alleen maar BN'ers zijn er, laat het feest beginnen Bekende Nederlanders, ik ben een Bekende Nigger Ik ben met de welbekende bende Ben bekend met de trend, bedenk en breng ze Mijn mensen zijn grenzeloos economisch De click, de crew, shows, ik spit en ik flow Ik show, ja ik doe role in mijn Futurola vloe Wie brengt die bangers naar je toe? Me, that's who</t>
+          <t>Die shit is lovely Rol met mijn nigger Rocky Die bitch zuipt en ze stopt niet Dus geen wonder dat ze kotst G Shit is ugly als een mother-mother Mami mingel met je brada brother Jayh a.k.a. lover-lover Die shit is aan hier Zo van Oh my godfather, father Het is de A.A.-voorzitter, Jacky in mijn belly Doe een borrel met de afkickgekken van de Jellinek Ik houd van dikke tieten, een reet als missy Elliott En of ik jou wel zeker maak jazeker ik vertel het je Ey Hieperdepiep ik rol nog steeds niet in een Jeep Ik wil niet dood ik houd van bitches Dus mijn leven is me lief En we zijn wel carnivoren Maar we eten niet van beef Je zusje is d'r kutje kwijt En Biggie twee die is de dief, peace Ik ben een BN'er Ja een beruchte nigger Ik ben niet nuchter nigger Dus regel je zusje nigger Ik hou van lekkernijen En ik hou van lekker vrijen Met ho's met vette dijen Ja ze kunnen lekker rijden Ik ben een echte geile Kom dus bij me doe je mee Noem me een motherfucker Want ik neem je moeder mee Ik heb een goed idee Je weet wel van mij Een dikke joint in mijn bek met een cognacie erbij Een dikke joint in mijn bek met een cognacie erbij Ben aan het rellen in de club, geile dimp aan m'n zij Shit is leip, schreeuw het maar lekker uit We gaan nog niet naar huis Nee we gaan nog niet naar huis Een dikke joint in me bek met een cognacie erbij Ben aan het rellen in de club Geile dimp aan m'n zij Opzij, we vullen de glazen bij We gaan nog niet naar huis Nee, we gaan nog niet naar huis En ook al gaan we naar huis, space ik door in de buurt Ben zo high, zie alleen vliegende schotels in mijn buurt Het lijkt alsof ik zit in de twilight zone Dus zoek een alien, bitch geef d'r een twilight zo Ik ben tipsy en mix die Whiskey zeer risky Totdat mijn hoofd draait als een motherfucking frisbee Rook geen THC, bitch, ben ook geen THC-lid Maar effe voor de record wel THC Recordz Rechtstreeks uit de B, draaiend all the day 't Is je nigger Badboy, getekend THC We gaan nog niet naar huis Zeg de eigenaar spang je niet ik ga niet voor je kluis Ze weten van mijn verleden Met Djannie aan m'n zij wordt het rellen brada zeker Let mezelf pak die peper, ben een ster, ik ken geen recht Ik ken de hel, ik ken geen hemel Ik ben te helle-fucking-heet, beng Ik ben getrouwd en heb een kind Inderdaad dat klopt Maar ga nog steeds naar de klote met mijn homeboy Rocks Zet de klok een uurtje terug als het te laat word En steek je middelvinger op als er gehaat wordt Ik sta meestal aan een tafel met een fles met mijn naam erop De tyfus voor de crisis, geld moet rollen, wij staan er toch Dus gooi je handen in de lucht Zodat ik zie dat je niet speelt met je tieten of je kut Daar step, step ik weer is op Met die hip en die hop op die hit van de Rocks Transformer spit Transformeer je club, doe die shit uit me kop Tot nu draait alles Whiskey doe daar mijn melk maar in En cornflakes met rum Ik rap niet, die verse spit zichzelf wel in Feesten, spacen, blazen wrede j's en hete P's De T.H.C., de B, de P Nog steeds die emcee hey je weet Zwaar doorgedraaid Insane in de brain, vol met ruis Zit thuis op de bank voor de buis En schreeuw dagen later nog steeds Ik ga niet naar huis! Midden in de club met een jay in me smoel Top dubbel op top Ben nog steeds cool Met die Sterrenlaan grooves op die vloer Piep, weg, yes, gone, doei Ik wil niet naar huis want Ik heb nog Silver Haze en vloei Dus paas die liti voor een fikkie En kinnenleer op mijn smoel Yes, me rasta weg Me succes gaat nu tantoe ver Nou bounce 'em gek 't Is kemperveen van de mixtape 1 tot 3.2 Boerenvla die je dagelijks eet Mami kom en schudt die reet En rumble in de jungle voor mister kemper en cashis clay Oké, oké, de verdachte is terug Maar een dag of 7 geleden Ik word weer verdacht, ben berucht Ja de hele stad had weer lucht Ben een zachte zeg nuchter Zonder RB geen pakkies Zonder Djannie geen drugs meer Ja ik bracht wat je lustte Weet je hebt me gemist Maar zit ik even vast Ga je vreemd net als mijn bitch Voor al mijn homies in de bajes Dikke spliff draaiers, gajes, maaiers Ja de hittespitter heb een dikke Joint in me bek met een cognacje erbij Of niet dan ik pof van de wiet Maar ik pof tot ik niet kan staan Meer normaal in de zaal ik geniet van Tropical uppers, toppers we stoppen niet Brokkelen toppen grove wiet puff puff En pass de pit van tff tff Ikke blaze op, de shit die leeft op De chicks zijn heel hot Pak je lucht zo van tff tff Ikke Scotte de rij en ging van buiten naar binnen Keerde de club binnenstebuiten Breng het buiten naar binnen Nakker Dit is de party after the party De afterparty Ik heb een tree Gold vers en nog een fles Bacardi Alleen maar BN'ers zijn er, laat het feest beginnen Bekende Nederlanders, ik ben een Bekende Nigger Ik ben met de welbekende bende Ben bekend met de trend, bedenk en breng ze Mijn mensen zijn grenzeloos economisch De click, de crew, shows, ik spit en ik flow Ik show, ja ik doe role in mijn Futurola vloe Wie brengt die bangers naar je toe? Me, that's who</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Baccardi 2003 Diam's DJ Kost Vitaa Hey J'arrive avec flow, tout dans l'textuel, tue dans l'textile Me fais pas d'bile, ça suis dans l'sexuel, j'dirais même excellent ha ha Ancien briscard, j'reste sexy, le bruit court que j'suis un brusqueur On m'jalouse, j'ai du succès Vas-y arrête Tu sais qu'c'est avec moi qu'il faut tester, tout c'qui est sexe sauvage J'défie celle qui veut protester Vitaa, hey Faut qu'j'lui explique sans la faire bisquer J'ai peur de rien, eh, j'kiffe grave quand y a du risque Chérie, tu veux qu'on s'mette dans l'contexte? Pour faire quoi? Moi j'kiffe pas les bandits J'te donne du plaisir, j'suis pas là pour te vexer Juste pour l'sexe, tu crois qu'j'ai pas compris? Relax, j'me rattrape, si j't'ai mal indexée Pour m'avoir il faudrait qu'tu m'supplies Juste toi et moi, viens qu'on parle un peu de sexe J'veux pas d'toi, laisse tomber oublie You might also like Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Hey Vitaa, y a trop d'chiens dans l'coin Qui regarde ton body, qui veulent te aah dans l'coin Ils veulent ta bouche, tes seins, tes fesses, tes reins Et te disent bouge tes fesses sur le terrain Vas-y Vitaa, mets-lui un stop sur cette zik Stooooooop! Le genre de chien qui fait du lèche-vitrine en Belgique Elle sait qu'elle est sexy, elle sait comment les exciter Mais elle veut pas d'un mec qui a besoin d'aah pour exister Ooh ooh ooh Le gars s'approche de moi, me dit prends un verre Ooh ooh ooh Alors qu'y a trois secondes il insultait ma mère Ooh ooh ooh T'as pas compris tu veux p't-être que je réitère Vas-y Vitaa, te laisse pas faire J'te dis qu'j'suis pas pour toi, ferme les yeux mon frère Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Pourquoi t'insistes, tu vois bien c'est pas la même Envie qui m'anime Pourquoi t'insistes c'est pas la peine Sois gentil oublie Le genre de gars qui rêve de moi toute la nuit La serviette à coté d'son lit Il croit qu'avec sa Merco TDI Il pourra nous mettre comme ça dans son lit Je sais qu'tu veux mon body Tu crois qu'je sais pas qu'j'suis sexy Mais j'vois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Vitaa, Diams Baccardi Pit Family Brown Double Face 5 Tu l'sais DJ Kost Tu crois qu'tout est permis Quand tu vois son body J'crois qu't'as pas compris C'est elle qui choisit, remballe et oublie Ouais j'crois qu'c'est permis Quand j'vois son body Baccardi Et tu l'sais</t>
+          <t>Baccardi 2003 Diam's DJ Kost Vitaa Hey J'arrive avec flow, tout dans l'textuel, tue dans l'textile Me fais pas d'bile, ça suis dans l'sexuel, j'dirais même excellent ha ha Ancien briscard, j'reste sexy, le bruit court que j'suis un brusqueur On m'jalouse, j'ai du succès Vas-y arrête Tu sais qu'c'est avec moi qu'il faut tester, tout c'qui est sexe sauvage J'défie celle qui veut protester Vitaa, hey Faut qu'j'lui explique sans la faire bisquer J'ai peur de rien, eh, j'kiffe grave quand y a du risque Chérie, tu veux qu'on s'mette dans l'contexte? Pour faire quoi? Moi j'kiffe pas les bandits J'te donne du plaisir, j'suis pas là pour te vexer Juste pour l'sexe, tu crois qu'j'ai pas compris? Relax, j'me rattrape, si j't'ai mal indexée Pour m'avoir il faudrait qu'tu m'supplies Juste toi et moi, viens qu'on parle un peu de sexe J'veux pas d'toi, laisse tomber oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Hey Vitaa, y a trop d'chiens dans l'coin Qui regarde ton body, qui veulent te aah dans l'coin Ils veulent ta bouche, tes seins, tes fesses, tes reins Et te disent bouge tes fesses sur le terrain Vas-y Vitaa, mets-lui un stop sur cette zik Stooooooop! Le genre de chien qui fait du lèche-vitrine en Belgique Elle sait qu'elle est sexy, elle sait comment les exciter Mais elle veut pas d'un mec qui a besoin d'aah pour exister Ooh ooh ooh Le gars s'approche de moi, me dit prends un verre Ooh ooh ooh Alors qu'y a trois secondes il insultait ma mère Ooh ooh ooh T'as pas compris tu veux p't-être que je réitère Vas-y Vitaa, te laisse pas faire J'te dis qu'j'suis pas pour toi, ferme les yeux mon frère Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Pourquoi t'insistes, tu vois bien c'est pas la même Envie qui m'anime Pourquoi t'insistes c'est pas la peine Sois gentil oublie Le genre de gars qui rêve de moi toute la nuit La serviette à coté d'son lit Il croit qu'avec sa Merco TDI Il pourra nous mettre comme ça dans son lit Je sais qu'tu veux mon body Tu crois qu'je sais pas qu'j'suis sexy Mais j'vois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Vitaa, Diams Baccardi Pit Family Brown Double Face 5 Tu l'sais DJ Kost Tu crois qu'tout est permis Quand tu vois son body J'crois qu't'as pas compris C'est elle qui choisit, remballe et oublie Ouais j'crois qu'c'est permis Quand j'vois son body Baccardi Et tu l'sais</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Abdulaï résurrection, le hip-hop a une érection Je veux tuer l'temps mais le temps veut ma peau On s'comprend entre criminels, on s'tire le chapeau Cinq litres de sang dans l'corps pour graver l'Histoire Les points sur les Ä, sur ta gueule, ta ratte sur l'trottoir Bavard en bastos, muet à l'interrogatoire Mon groupuscule t'encule jusqu'à la cervelle J't'ai lobotomisé, le rap vient d'Garges Sarcelles Cherche la vibe comme un tox', j'suis dopé J'suis un paradoxe, un calibre avec un message de paix La voie est libre, j'vise et shoote avant qu'les anges m'accueillent Des salopes surfent sur la vague avec une planche de cercueil Engreneur avec une bouteille, d'l'essence un chiffon Pardonne-leur, Seigneur, ils savent pas c'qu'ils font Moi j'donne l'heure, du fond, d'la bonne herbe, du son qui traumatise C'est comme la roulette russe avec un automatique C'est dead Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler You might also like On baise le buzz, toujours en biz, deuil, disque C'est mort pour nous c'est l'Christ Qui va nous mettre sous terre dans c'biz du disque Il risque d'y avoir des flaques de sang, la rue s'attriste Alors on pisse, le Ä pisse sur les langues de putes Hip-hop résistants Kamikazes, genre soldats d'Afghanistan Avec le traître aux dreadlocks on a mis la distance Assiste à la reconquête d'l'empire, le chemin est glissant La liste des victimes s'allonge, mec on reste puissants Une guerre, cest une vie pour une vie Lindustrie a rien compris Hamed Daye au micro Cest comme ce putain de Zarkaoui Evadé de Guantanamo Allah est avec les négros Toi avec les clitos J'vous excise avec mon stylo Jviens faire lintifada avec mon canon scié Prier, crier, trier Avec le démon jvous envoie griller Cest pas laïd pourtant ça va saigner Oualaye, tes une caille Au djihad viens tassocier Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler Une ogive dans ta tête gros, pour tout faire sauter Mec, ma Secte rentre sec mais personne peut stopper C.A.L. gangsta, ceux qui kiffent votez Quand ça baise, l'État, l'bleu, toujours opé Baskets blanches, bruit d'coupe-coupe, fly-jacket Traverse pas ma zone MC ou on t'rackette C'est chaud chaud, un yo-yo pour les frères au cachot Abdulaï à la mort, c'est d'la bonne t'inquiète Laisse-moi, ha Dé-délimiter l'périmètre de sécurité Déto-détonation verbale, j'ai la bouche dynamitée Avec un dé-débit direct, eux ont l'débit différé T'inquiète, ici ça kicke sec, mes cailles sont dé-déterminées Laisse passer mon G.A.N.G Au micro j'ai la haine, tu ressens le danger La donne va changer, les MC vont manger Le hip-hop on vient venger Ça dé-dé-défouraille, sur le beat c'est Abdulaï Sorti tout droit des ténèbres pour bénir la racaille Barbare popo, j'viens m'faire per-pom Trop sale, poto, la barre pour quer-cro Trop rap, trop fort, trop squale, trop gore J'ai un don d'Abdulaï, la kalash dans l'cerveau Kamikazes, on débarque et les balles parlent C'est l'bal des claques pour les baltringues, le ball-trap C'est l'banc d'touche, la machette, ta bande qui bataille Un pack de chiens entre potos On baise le biz putain d'bâtards Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler</t>
+          <t>Abdulaï résurrection, le hip-hop a une érection Je veux tuer l'temps mais le temps veut ma peau On s'comprend entre criminels, on s'tire le chapeau Cinq litres de sang dans l'corps pour graver l'Histoire Les points sur les Ä, sur ta gueule, ta ratte sur l'trottoir Bavard en bastos, muet à l'interrogatoire Mon groupuscule t'encule jusqu'à la cervelle J't'ai lobotomisé, le rap vient d'Garges Sarcelles Cherche la vibe comme un tox', j'suis dopé J'suis un paradoxe, un calibre avec un message de paix La voie est libre, j'vise et shoote avant qu'les anges m'accueillent Des salopes surfent sur la vague avec une planche de cercueil Engreneur avec une bouteille, d'l'essence un chiffon Pardonne-leur, Seigneur, ils savent pas c'qu'ils font Moi j'donne l'heure, du fond, d'la bonne herbe, du son qui traumatise C'est comme la roulette russe avec un automatique C'est dead Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler On baise le buzz, toujours en biz, deuil, disque C'est mort pour nous c'est l'Christ Qui va nous mettre sous terre dans c'biz du disque Il risque d'y avoir des flaques de sang, la rue s'attriste Alors on pisse, le Ä pisse sur les langues de putes Hip-hop résistants Kamikazes, genre soldats d'Afghanistan Avec le traître aux dreadlocks on a mis la distance Assiste à la reconquête d'l'empire, le chemin est glissant La liste des victimes s'allonge, mec on reste puissants Une guerre, cest une vie pour une vie Lindustrie a rien compris Hamed Daye au micro Cest comme ce putain de Zarkaoui Evadé de Guantanamo Allah est avec les négros Toi avec les clitos J'vous excise avec mon stylo Jviens faire lintifada avec mon canon scié Prier, crier, trier Avec le démon jvous envoie griller Cest pas laïd pourtant ça va saigner Oualaye, tes une caille Au djihad viens tassocier Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler Une ogive dans ta tête gros, pour tout faire sauter Mec, ma Secte rentre sec mais personne peut stopper C.A.L. gangsta, ceux qui kiffent votez Quand ça baise, l'État, l'bleu, toujours opé Baskets blanches, bruit d'coupe-coupe, fly-jacket Traverse pas ma zone MC ou on t'rackette C'est chaud chaud, un yo-yo pour les frères au cachot Abdulaï à la mort, c'est d'la bonne t'inquiète Laisse-moi, ha Dé-délimiter l'périmètre de sécurité Déto-détonation verbale, j'ai la bouche dynamitée Avec un dé-débit direct, eux ont l'débit différé T'inquiète, ici ça kicke sec, mes cailles sont dé-déterminées Laisse passer mon G.A.N.G Au micro j'ai la haine, tu ressens le danger La donne va changer, les MC vont manger Le hip-hop on vient venger Ça dé-dé-défouraille, sur le beat c'est Abdulaï Sorti tout droit des ténèbres pour bénir la racaille Barbare popo, j'viens m'faire per-pom Trop sale, poto, la barre pour quer-cro Trop rap, trop fort, trop squale, trop gore J'ai un don d'Abdulaï, la kalash dans l'cerveau Kamikazes, on débarque et les balles parlent C'est l'bal des claques pour les baltringues, le ball-trap C'est l'banc d'touche, la machette, ta bande qui bataille Un pack de chiens entre potos On baise le biz putain d'bâtards Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J'fais pas de politique mais d'la zique mec T'entends ce sifflotement c'est moi quand j'marche seul en m'demandant comment changer les choses J'veux la jeunesse derrière moi quand je braille Depuis l'début on fait les choses nous j'passe les détails Les mecs ont besoin de repères, se sentent trahis quand les MCs s'perdent Faut arrêter de s'leurrer les mecs qu'écoutent ce texte Un mélange de malaise de nos rues de notre musique et de nos vies Le combat continue j'reviens trois piges plus tard Quel changement les petits me demandent Baccardi donne-nous du bon sens dans ce bordel La pression est là, le rap est l'identité pour beaucoup Je l'ai ressenti pendant mon petit tour du monde Ils veulent danser chanter s'balancer Réfléchir car ce qu'on dit de bien les motive La musique est triste et les paroles lourdes de sens Le titre c'est prise de conscience J'ressens une humeur triste dans les halls Les mecs brûlent la vie et s'enfoncent dans l'blizzard ils ont pris le choix des armes Que Dieu seul juge j'assiste à ce déclin Tout ce qui m'reste c'est un micro et j'attends le déclic Je ne suis pas ce rappeur de plus qui dira j'emmerde l'État Un milliers l'ont fait et aujourd'hui je constate Que les choses empirent Là-haut personne n'écoute et faut viser quand on tire Notre révolte c'est pas de brûler la ville on a besoin de soldats Faut qu'on reste massif, unis entre nous, obligé L'ennemi attaque quand il sent une faiblesse Mon QG c'est mon cerveau et ma parole pour vous servir J'prends le micro et dis à mon monde de penser à nos mômes à nos mères Au combat de nos pères face au système Prise de conscience c'est ça le thème Qui prétend faire du rap sens prendre position You might also like Je me dis tout peut s'arrêter demain mais j'm'en voudrais Si avec les opportunités qu'on a aujourd'hui y'a rien de concret Certains d'entre nous ont des gosses d'autres se marient On est à l'heure du changement On veut fonder des familles Et réunir des villes Donner la force à nos pays En Afrique Laisser des biens à nos mômes Faire vivre notre musique C'est ça la mélodie Elle parle seule et réchauffe le cur et donne envie de créer On a bâti nos vies dans le rêve Et se bat encore pour qu'à nos réveils il n'y ait plus de cauchemars</t>
+          <t>J'fais pas de politique mais d'la zique mec T'entends ce sifflotement c'est moi quand j'marche seul en m'demandant comment changer les choses J'veux la jeunesse derrière moi quand je braille Depuis l'début on fait les choses nous j'passe les détails Les mecs ont besoin de repères, se sentent trahis quand les MCs s'perdent Faut arrêter de s'leurrer les mecs qu'écoutent ce texte Un mélange de malaise de nos rues de notre musique et de nos vies Le combat continue j'reviens trois piges plus tard Quel changement les petits me demandent Baccardi donne-nous du bon sens dans ce bordel La pression est là, le rap est l'identité pour beaucoup Je l'ai ressenti pendant mon petit tour du monde Ils veulent danser chanter s'balancer Réfléchir car ce qu'on dit de bien les motive La musique est triste et les paroles lourdes de sens Le titre c'est prise de conscience J'ressens une humeur triste dans les halls Les mecs brûlent la vie et s'enfoncent dans l'blizzard ils ont pris le choix des armes Que Dieu seul juge j'assiste à ce déclin Tout ce qui m'reste c'est un micro et j'attends le déclic Je ne suis pas ce rappeur de plus qui dira j'emmerde l'État Un milliers l'ont fait et aujourd'hui je constate Que les choses empirent Là-haut personne n'écoute et faut viser quand on tire Notre révolte c'est pas de brûler la ville on a besoin de soldats Faut qu'on reste massif, unis entre nous, obligé L'ennemi attaque quand il sent une faiblesse Mon QG c'est mon cerveau et ma parole pour vous servir J'prends le micro et dis à mon monde de penser à nos mômes à nos mères Au combat de nos pères face au système Prise de conscience c'est ça le thème Qui prétend faire du rap sens prendre position Je me dis tout peut s'arrêter demain mais j'm'en voudrais Si avec les opportunités qu'on a aujourd'hui y'a rien de concret Certains d'entre nous ont des gosses d'autres se marient On est à l'heure du changement On veut fonder des familles Et réunir des villes Donner la force à nos pays En Afrique Laisser des biens à nos mômes Faire vivre notre musique C'est ça la mélodie Elle parle seule et réchauffe le cur et donne envie de créer On a bâti nos vies dans le rêve Et se bat encore pour qu'à nos réveils il n'y ait plus de cauchemars</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels You might also likeRefrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
+          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brrrt 2002 Brrrt Pit au mic, Sosä Ouais ouais, 2002 Hey Sosa ouais, 2002, l'année du pèze, la consécration Mets-toi à l'aise, on tient l'biz négro On envoie chier cette marmaille de lèche-bottes Et on file à l'anglaise s'la couler douce sur une île C'est vrai, j'ai la rage qui crache la foudre Et plein d'merdeux qui m'narguent Et c'problème, j'les résoudre ah ouais J'gratte, j't'en suis reconnaissant Sur ton album négro, sonne ma renaissance C'est rien, on est ensemble négro La famille Brown est derrière, ça va brûler dans tous les sens Retour d'un mort-né, tueur-né Même pas vérifié si j'étais mort, bande de bornés Vos têtes comme trophées pour orner mon tableau d'chasse Cornes et griffes quand j'balafre de mon empreinte C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance You might also like Une carte à jouer, faut pas qu'j'rate le coche Rimes dures j'décoche même si vif j'écorche Laisse-moi sonner les cloches Eh, j'te sens fâché enfoiré C'est ça qu'il faut, faut fermer des gueules Vas-y prends le mic J'viens lâcher la purée, j'en ai plein les couilles Appelle-moi Glock, j'vais lâcher les douilles boum Ça t'choque de voir des dépouilles Un tas d'putes dans leur string mouillent Y a d'quoi avoir la trouille Pas de calibre, tout est dans l'style Damn! D'où tu sors ces rimes de salaud? De mon putain d'crâne Les mots pèsent, ça vient du cur Ouais, tout est dans l'style, pile poil à l'heure La foule frôle la crise, on a l'monopole et on l'dit J'lis dans vos yeux la joie, ce mouvement fait revivre Lâche-moi la grappe, donne-moi l'mic que j'l'abîme C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance À c'qu'il paraît des mecs attendent au tournant C'est c'qu'on dit dans les blocs Couvrez-vous ça va être glauque Coup d'pare-choc c'est pas des blagues Du gros son pour les sans sous 2002 soupapes, c'est bolide, y a des cadavres sur l'boulevard Paraît-il paraît-il que dans la ville que dans la ville Des débiles des débiles veulent nous finir veulent nous finir Allez leur dire allez leur dire Qu'en allumant la mèche, ils n'pourront pas l'éteindre Un flow d'barge, des rimes larges Qui feraient prendre à n'importe quel MC le large Ouais, toujours aussi classe, un mec efficace dans les placements Sosä avance lentement mais sûrement C'est ça, avise la France qu'y a des OVNI sur les ondes Mon rap vise le monde C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance</t>
+          <t>Brrrt 2002 Brrrt Pit au mic, Sosä Ouais ouais, 2002 Hey Sosa ouais, 2002, l'année du pèze, la consécration Mets-toi à l'aise, on tient l'biz négro On envoie chier cette marmaille de lèche-bottes Et on file à l'anglaise s'la couler douce sur une île C'est vrai, j'ai la rage qui crache la foudre Et plein d'merdeux qui m'narguent Et c'problème, j'les résoudre ah ouais J'gratte, j't'en suis reconnaissant Sur ton album négro, sonne ma renaissance C'est rien, on est ensemble négro La famille Brown est derrière, ça va brûler dans tous les sens Retour d'un mort-né, tueur-né Même pas vérifié si j'étais mort, bande de bornés Vos têtes comme trophées pour orner mon tableau d'chasse Cornes et griffes quand j'balafre de mon empreinte C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance Une carte à jouer, faut pas qu'j'rate le coche Rimes dures j'décoche même si vif j'écorche Laisse-moi sonner les cloches Eh, j'te sens fâché enfoiré C'est ça qu'il faut, faut fermer des gueules Vas-y prends le mic J'viens lâcher la purée, j'en ai plein les couilles Appelle-moi Glock, j'vais lâcher les douilles boum Ça t'choque de voir des dépouilles Un tas d'putes dans leur string mouillent Y a d'quoi avoir la trouille Pas de calibre, tout est dans l'style Damn! D'où tu sors ces rimes de salaud? De mon putain d'crâne Les mots pèsent, ça vient du cur Ouais, tout est dans l'style, pile poil à l'heure La foule frôle la crise, on a l'monopole et on l'dit J'lis dans vos yeux la joie, ce mouvement fait revivre Lâche-moi la grappe, donne-moi l'mic que j'l'abîme C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance À c'qu'il paraît des mecs attendent au tournant C'est c'qu'on dit dans les blocs Couvrez-vous ça va être glauque Coup d'pare-choc c'est pas des blagues Du gros son pour les sans sous 2002 soupapes, c'est bolide, y a des cadavres sur l'boulevard Paraît-il paraît-il que dans la ville que dans la ville Des débiles des débiles veulent nous finir veulent nous finir Allez leur dire allez leur dire Qu'en allumant la mèche, ils n'pourront pas l'éteindre Un flow d'barge, des rimes larges Qui feraient prendre à n'importe quel MC le large Ouais, toujours aussi classe, un mec efficace dans les placements Sosä avance lentement mais sûrement C'est ça, avise la France qu'y a des OVNI sur les ondes Mon rap vise le monde C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mystik Inghi C'est Pit au mic Ritmo Ma mémoire encore éclairée par les projecteurs, puissants tel une Primus Retour au bercail, ma brousse La nuit est tombée, j'retrouve les sensations, les impressions, mes semblables Viva la routine, leurs souffrances embrassent ma rétine Dans mes yeux l'feu, l'enfer dans la foule dans l'envers du décor Revenir au regard premier, d'autres rapports Renouveler les vux, bisous aux vieux, tremper les pieds dans l'eau Passer de l'eau sur le front, nos gestes en arrière C'est comme la vie, des jours souillés durant ma p'tite guerre Revenir comme les tontons valises pleines, un teint clair Revenir, c'est accomplir une vraie démarche d'homme Après plus d'dix ans d'conditionnement comme une pomme Ô Cameroun, Congo, berceau de nos ancêtres Allez debout et jaloux de votre liberté comme Un symbole, vos drapeaux fiers doivent être Un symbole ardent de joie et d'unité À Paris, mon train d'vie prenait une voie d'garage J'ai rangé l'wagon, rendu les clés et j'ai plié bagage La gorge sèche, au bord des larmes, pourtant fortiche Réputé, sois fort Pit, ta famille t'attend, un cortège À l'aéroport, j'aère mon corps On y voit encore mes blessures de l'Occident, j'ai besoin d'renforts Forts de nos expériences passées sur ces champs d'bataille Mystik et Pit, pour un retour au bercail You might also like Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles Attendu comme une libération, sous ce ciel j'me libère à fond Fuyant cette réalité, j'suis mal vu là-bas L'affront avec les flics, les huissiers Les types du deuxième qui disent Que chez moi c'est une plaque tournante de shit et XXX j'abdique Mystik, ils nous attendent au pays Même les moustiques voudront faire la fête pour notre retour, astigmate Non, c'était mes p'tites surs qu'maintenant les types matent J'me rappelle avec leur bave dans l'nez et leurs p'tites nattes Retour au bercail, j'mets mes écailles, un chapeau d'paille Essaye de tailler l'bambou, en faire XXX Ail et piment Dans l'seau y a l'chef, de l'arôme Maggi express Un top orange pour déguster avec Mama, c'est dans mon bled le vrai makossa J'oublie l'boléro, l'jerk, le twist Haoussa, Bamilékés, ewondo, Douala T'as palré d'bigarrure, les seins pointus comme les fessiers J'mate, nos femmes ont fière allure Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles J'connais pas l'crawl ni XXX alors j'brasse Dans ma brousse, charger ma conscience, retrouver les traces Hélas, c'est la zone sous l'pont t'sais Faut s'ressourcer Penser aux plaies mal pansées Au bled on m'attendra, on parlera d'moi comme un scoop, au moins Je n'débarquerai pas tel un cheveu dans la soupe en France J'ai troqué mes nsuiteke contre des framboises La vie un poker, dans la moustiquaire, c'est d'autres gens que j'croise J'ai su leurs combines, je les ai vus bloquer leur pouvoir Pour un Oscar, ils font semblant de s'émouvoir Traitez-moi d'cafteur, j'ai capté vos manèges Je l'dis haut et fort même si mes lettres sont ouvertes par vos facteurs Sorti des décombres, des guerres, des douleurs Ma maison d'enfance, mon pays, un supplément d'vie Halte, c'est pas l'écriture qui m'exalte, mais si t'as parlé ainsi Tout simplement j'aime mon beau pays La bigarrure de sa foule, partout tout bouge et vit Malgré les misères, les contraintes qu'on voit partout ici Grandioses sont les fêtes quand y a tam-tam et mbongi Autour du feu je danse le XXX Sauvagerie dans nos retrouvailles même s'il a fallu que j'taille Je retrouve la mille-fa au bercail Et les cousins chantent ah ah, moustique Quand j'leur dis qu'mon nom d'rappeur, c'est Mystik Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles1</t>
+          <t>Mystik Inghi C'est Pit au mic Ritmo Ma mémoire encore éclairée par les projecteurs, puissants tel une Primus Retour au bercail, ma brousse La nuit est tombée, j'retrouve les sensations, les impressions, mes semblables Viva la routine, leurs souffrances embrassent ma rétine Dans mes yeux l'feu, l'enfer dans la foule dans l'envers du décor Revenir au regard premier, d'autres rapports Renouveler les vux, bisous aux vieux, tremper les pieds dans l'eau Passer de l'eau sur le front, nos gestes en arrière C'est comme la vie, des jours souillés durant ma p'tite guerre Revenir comme les tontons valises pleines, un teint clair Revenir, c'est accomplir une vraie démarche d'homme Après plus d'dix ans d'conditionnement comme une pomme Ô Cameroun, Congo, berceau de nos ancêtres Allez debout et jaloux de votre liberté comme Un symbole, vos drapeaux fiers doivent être Un symbole ardent de joie et d'unité À Paris, mon train d'vie prenait une voie d'garage J'ai rangé l'wagon, rendu les clés et j'ai plié bagage La gorge sèche, au bord des larmes, pourtant fortiche Réputé, sois fort Pit, ta famille t'attend, un cortège À l'aéroport, j'aère mon corps On y voit encore mes blessures de l'Occident, j'ai besoin d'renforts Forts de nos expériences passées sur ces champs d'bataille Mystik et Pit, pour un retour au bercail Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles Attendu comme une libération, sous ce ciel j'me libère à fond Fuyant cette réalité, j'suis mal vu là-bas L'affront avec les flics, les huissiers Les types du deuxième qui disent Que chez moi c'est une plaque tournante de shit et XXX j'abdique Mystik, ils nous attendent au pays Même les moustiques voudront faire la fête pour notre retour, astigmate Non, c'était mes p'tites surs qu'maintenant les types matent J'me rappelle avec leur bave dans l'nez et leurs p'tites nattes Retour au bercail, j'mets mes écailles, un chapeau d'paille Essaye de tailler l'bambou, en faire XXX Ail et piment Dans l'seau y a l'chef, de l'arôme Maggi express Un top orange pour déguster avec Mama, c'est dans mon bled le vrai makossa J'oublie l'boléro, l'jerk, le twist Haoussa, Bamilékés, ewondo, Douala T'as palré d'bigarrure, les seins pointus comme les fessiers J'mate, nos femmes ont fière allure Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles J'connais pas l'crawl ni XXX alors j'brasse Dans ma brousse, charger ma conscience, retrouver les traces Hélas, c'est la zone sous l'pont t'sais Faut s'ressourcer Penser aux plaies mal pansées Au bled on m'attendra, on parlera d'moi comme un scoop, au moins Je n'débarquerai pas tel un cheveu dans la soupe en France J'ai troqué mes nsuiteke contre des framboises La vie un poker, dans la moustiquaire, c'est d'autres gens que j'croise J'ai su leurs combines, je les ai vus bloquer leur pouvoir Pour un Oscar, ils font semblant de s'émouvoir Traitez-moi d'cafteur, j'ai capté vos manèges Je l'dis haut et fort même si mes lettres sont ouvertes par vos facteurs Sorti des décombres, des guerres, des douleurs Ma maison d'enfance, mon pays, un supplément d'vie Halte, c'est pas l'écriture qui m'exalte, mais si t'as parlé ainsi Tout simplement j'aime mon beau pays La bigarrure de sa foule, partout tout bouge et vit Malgré les misères, les contraintes qu'on voit partout ici Grandioses sont les fêtes quand y a tam-tam et mbongi Autour du feu je danse le XXX Sauvagerie dans nos retrouvailles même s'il a fallu que j'taille Je retrouve la mille-fa au bercail Et les cousins chantent ah ah, moustique Quand j'leur dis qu'mon nom d'rappeur, c'est Mystik Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles1</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ouais, tu le sais D'où on vient, on t'sert Pit au mic', Paris à Marseille Sur Sad Hill Yak, Chill, 2 triple 0 Kheops, Marseille Malgré mes sourires et mon air fier, je n'suis qu'un triste poète Sombre comme un temps d'pluie, mon visage caché par mes mains moites Je souhaite que ces mecs ne croient plus que j'sors d'mon berceau Au hip-hop j'reste fidèle comme cette fillette et son cerceau Que j'perce, au fond n'est pas l'important J'veux qu'ces mecs sachent quoi qu'il arrive que j'étais partant J'représente c'que j'suis et j't'assure qu'j'laisserai dégun Mempêcher d'exceller, d'brûler, d'devenir quelqu'un J'fais c'que j'fais par amour, merde, je bosse dur pendant qu'la thune Elle m'a dit te casse, on s'verra sûrement à la sortie d'ce tunnel J'suis à la conquête d'un nouveau monde où il faut avoir du succès Pour qu'on t'donne cette chance d'avoir le succès Y'a les miens et les autres, ceux qui jactent parce qu'ils s'vautrent Normal, un homme qui s'noie ne meurt pas en silence J'ai fait mon baptême et dans l'fond, tout c'qui brûle c'est l'feu Et l'fait d'être une tête grainée me fait swinguer sur les flammes J'ai décoiffé des crépus, laissé les traitres sur le qui-vive Leur châtiment, leur faire part d'mes sentiments Je sais qu'ma haine vous aime J'mène la danse sur des rythmes saccadés Et faut qu'à deux pas d'la mort, j'ai déjà laissé de quoi m'succéder You might also like Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux Je suis c'poète sur feuilles mortes Qui fait couler des larmes aux âmes sèches Encore gai, même si le deuil je porte ouais tu le sais J'ai tué ma délinquance, ex-fugitif J'suis v'nu dans le rap en charter, sans faf et demandé une CNI J'suis cette poussière devenue marbre Je suis cette racine devenue arbre Le noyau dur reste malgré qu'le fruit éclate Ma vie c'est un stylo, une feuille, un carnet Une mélodie, triste ou gaie, amère ou plus On ressent mon karma J'expose mes faits, m'inspire d'la foule Et des folles nuits à attendre la venue de mon messie Et moi j'voulais qu'l'on m'prévienne, que l'on m'dise qu'il n'y avait qu'des requins J'aurais pu jouer les durs d'oreille, dérailler comme toutes ces putains Pétard on perce tard, dur d'savoir qu'ils veulent qu'on finisse par s'taire Cul par terre, j'm'étonne qu'ils disent déjà qu'j'vais m'prendre pour une star eh Mais qu'est-ce qu'ils ont à s'marrer ? Trop jaloux à c'qu'il parait, j'voulais qu'tout soit carré Et d'ces cons, j'en avais rien à carrer J'veux faire partie d'ces mecs qui marquent une génération Moi j'suis un nouveau et j't'assure j'ferai partie des anciens Les mecs, chez moi l'idée partait d'délire entre amis et amour Mais aujourd'hui j'crois qu'l'on vient jusqu'à m'envier à mort x2 Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux2</t>
+          <t>Ouais, tu le sais D'où on vient, on t'sert Pit au mic', Paris à Marseille Sur Sad Hill Yak, Chill, 2 triple 0 Kheops, Marseille Malgré mes sourires et mon air fier, je n'suis qu'un triste poète Sombre comme un temps d'pluie, mon visage caché par mes mains moites Je souhaite que ces mecs ne croient plus que j'sors d'mon berceau Au hip-hop j'reste fidèle comme cette fillette et son cerceau Que j'perce, au fond n'est pas l'important J'veux qu'ces mecs sachent quoi qu'il arrive que j'étais partant J'représente c'que j'suis et j't'assure qu'j'laisserai dégun Mempêcher d'exceller, d'brûler, d'devenir quelqu'un J'fais c'que j'fais par amour, merde, je bosse dur pendant qu'la thune Elle m'a dit te casse, on s'verra sûrement à la sortie d'ce tunnel J'suis à la conquête d'un nouveau monde où il faut avoir du succès Pour qu'on t'donne cette chance d'avoir le succès Y'a les miens et les autres, ceux qui jactent parce qu'ils s'vautrent Normal, un homme qui s'noie ne meurt pas en silence J'ai fait mon baptême et dans l'fond, tout c'qui brûle c'est l'feu Et l'fait d'être une tête grainée me fait swinguer sur les flammes J'ai décoiffé des crépus, laissé les traitres sur le qui-vive Leur châtiment, leur faire part d'mes sentiments Je sais qu'ma haine vous aime J'mène la danse sur des rythmes saccadés Et faut qu'à deux pas d'la mort, j'ai déjà laissé de quoi m'succéder Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux Je suis c'poète sur feuilles mortes Qui fait couler des larmes aux âmes sèches Encore gai, même si le deuil je porte ouais tu le sais J'ai tué ma délinquance, ex-fugitif J'suis v'nu dans le rap en charter, sans faf et demandé une CNI J'suis cette poussière devenue marbre Je suis cette racine devenue arbre Le noyau dur reste malgré qu'le fruit éclate Ma vie c'est un stylo, une feuille, un carnet Une mélodie, triste ou gaie, amère ou plus On ressent mon karma J'expose mes faits, m'inspire d'la foule Et des folles nuits à attendre la venue de mon messie Et moi j'voulais qu'l'on m'prévienne, que l'on m'dise qu'il n'y avait qu'des requins J'aurais pu jouer les durs d'oreille, dérailler comme toutes ces putains Pétard on perce tard, dur d'savoir qu'ils veulent qu'on finisse par s'taire Cul par terre, j'm'étonne qu'ils disent déjà qu'j'vais m'prendre pour une star eh Mais qu'est-ce qu'ils ont à s'marrer ? Trop jaloux à c'qu'il parait, j'voulais qu'tout soit carré Et d'ces cons, j'en avais rien à carrer J'veux faire partie d'ces mecs qui marquent une génération Moi j'suis un nouveau et j't'assure j'ferai partie des anciens Les mecs, chez moi l'idée partait d'délire entre amis et amour Mais aujourd'hui j'crois qu'l'on vient jusqu'à m'envier à mort x2 Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux2</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ouais ouais Au pays d'la Gaule seule la fente est reine Le roi dans l'arène règne Dans les coulisses perd toujours son rôle J'ai exploré des caves et des forêts vierges Dans des forêts en perdait même sa langue J'peux t'dire ça en a bavé Ouais buvez du Baccardi Pit pour une bonne excitation Ça c'est juste un extrait de mes sexcitations Ça palpite quand j'culbute à ce moment J'demande des nouvelles du sexe Et devine un endurcissement de la situation J'suis un alcool mais si on m'secoue trop J'deviens mousseux au risque d'être dégradant Quand je joue à Jacadi avec mes mouvements saccadés Elles disent on dirait qu'il est en chien ce Baccardi Mais j'en suis un justement J'suis un Pit élevé au prostit Qui mord quand on lui caresse pas la queue Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit You might also liket'assures comme Rocco Sifredi Ah ouais cette meuf-là elle jouera D'mes boules comme des dés Des boules, elle kiffe à deux sur elle Pour assouvir ses désirs d'ados Deux sur le sol chez nous Avec une mélodie facile à chanter Pour elle quand en majeur j'lui mets Elle préfère les hommes qui la prennent sans la comprendre Aux hommes qui la comprennent sans la prendre Elle est tombée sur l'homme qui comprend juste qu'il doit la prendre J'suis le chef d'orchestre J'ai la baguette et aime frapper sur les grosses caisses J'dois donner du rythme Faut manier la trique j'lui dis Elle m'dis ça s'sent qu'tu viens d'Afrique toi J'pose mes lèvres sur ses troisième et quatrième lèvres Me livre à ce mouvement de tout bon caniche envers sa maitresse Ma tête elle agrippe quand j'veux tirer deux trois taffes de be-her D'or et déjà j'ai pigé qu'c'est l'genre de fille qui a pour meilleures Amies ses deux jambes Et qui a compris qu'dans la vie ses meilleures amies faut les écarter Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit Mon jeu préféré c'est le billard Y'a des boules et une queue Et l'objectif c'est de tout foutre dans les trous Faut pas m'traiter d'cochon Tu manges de l'ail Ça m'étonnerait qu'elle mange du porc à l'ail Vu qu'j'suis l'homme qui n'arrive pas à tout Mais à qui tout arrive Si jamais un jour j'suis sourd J'ai déjà songé à tout J'ferai gynécologue Dans c'taff y'a rien à entendre Il faut juste savoir lire sur les lèvres Grève de semence, les bourses demandent une diminution de taffe Et le zizou parle en leader Quand j'donnerai la dot ça sera pour introduire la fille Si c'est pour faire avec la main j'ai la mienne pour ça Sais-tu quelle différence il y a entre haaan et hmmmmm ? Environ cinq centimètres... Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit</t>
+          <t>Ouais ouais Au pays d'la Gaule seule la fente est reine Le roi dans l'arène règne Dans les coulisses perd toujours son rôle J'ai exploré des caves et des forêts vierges Dans des forêts en perdait même sa langue J'peux t'dire ça en a bavé Ouais buvez du Baccardi Pit pour une bonne excitation Ça c'est juste un extrait de mes sexcitations Ça palpite quand j'culbute à ce moment J'demande des nouvelles du sexe Et devine un endurcissement de la situation J'suis un alcool mais si on m'secoue trop J'deviens mousseux au risque d'être dégradant Quand je joue à Jacadi avec mes mouvements saccadés Elles disent on dirait qu'il est en chien ce Baccardi Mais j'en suis un justement J'suis un Pit élevé au prostit Qui mord quand on lui caresse pas la queue Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit t'assures comme Rocco Sifredi Ah ouais cette meuf-là elle jouera D'mes boules comme des dés Des boules, elle kiffe à deux sur elle Pour assouvir ses désirs d'ados Deux sur le sol chez nous Avec une mélodie facile à chanter Pour elle quand en majeur j'lui mets Elle préfère les hommes qui la prennent sans la comprendre Aux hommes qui la comprennent sans la prendre Elle est tombée sur l'homme qui comprend juste qu'il doit la prendre J'suis le chef d'orchestre J'ai la baguette et aime frapper sur les grosses caisses J'dois donner du rythme Faut manier la trique j'lui dis Elle m'dis ça s'sent qu'tu viens d'Afrique toi J'pose mes lèvres sur ses troisième et quatrième lèvres Me livre à ce mouvement de tout bon caniche envers sa maitresse Ma tête elle agrippe quand j'veux tirer deux trois taffes de be-her D'or et déjà j'ai pigé qu'c'est l'genre de fille qui a pour meilleures Amies ses deux jambes Et qui a compris qu'dans la vie ses meilleures amies faut les écarter Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit Mon jeu préféré c'est le billard Y'a des boules et une queue Et l'objectif c'est de tout foutre dans les trous Faut pas m'traiter d'cochon Tu manges de l'ail Ça m'étonnerait qu'elle mange du porc à l'ail Vu qu'j'suis l'homme qui n'arrive pas à tout Mais à qui tout arrive Si jamais un jour j'suis sourd J'ai déjà songé à tout J'ferai gynécologue Dans c'taff y'a rien à entendre Il faut juste savoir lire sur les lèvres Grève de semence, les bourses demandent une diminution de taffe Et le zizou parle en leader Quand j'donnerai la dot ça sera pour introduire la fille Si c'est pour faire avec la main j'ai la mienne pour ça Sais-tu quelle différence il y a entre haaan et hmmmmm ? Environ cinq centimètres... Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Si j'étais flic et toi Rodney King La matraque en main toi au sol sur ce parking Si j'étais flic est-ce j'accepterais les pots-de-vin Après une saisie de coke détourner ma part du butin Si j'étais flic noir est-ce que je voudrais le malheur d'un frère Lui disant que sa mort ça fait une racaille en moins Si j'étais flic est-ce que je voudrais être criminel comme Broussard Avoir la légion d'honneur ou le statut de star Soutenir mon collègue après cette bavure dans le 18 Tenter le suicide en me regardant après une bonne cuite Est-ce que je suis flic parce que j'aime ça Quand j'ai la trouille devant ces jeunes est-ce que ça se sent Est-ce que je suis en confiance juste parce que j'ai mon arme Car je sais qu'au moindre geste je les allume tous Est-ce que j'accepterais que des négros chantent Sacrifice de poulet ? Vu que je ne suis pas je cautionne en plus qu'on les sanctionne Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Si j'étais La loi serait la même pour toi comme pour moi Si j'étais Je serais une femme digne de porter ce nom Si j'étais Je suis un noir pacifiste et fier de l'être You might also likeCouplet Si j'étais femme aurais-je conscience que je suis nombril du monde Qu'avortement signifie assassinat d'un môme Avec ce que j'ai qu'ils n'ont pas je peux anéantir le monde Et vu que je ne suis pas je regarde ce que Monica a fait à Clinton Si j'étais femme je voudrais être Rosa Parks ou Néfertiti Mais on peut même devenir femme regarde RuPaul Est-ce que je serais mariée à un alcoolique qui frappe mes fils Amoureux de lui malgré le fait qu'il soit récidiviste Est-ce que j'accepterais de ken avec Jacky Pit le pote à Jacky Ben-J le pote à Pit donc le pote à Jacky Avoir une bite comme logo ou être la go la plus ken du coin C'est sale comme un mec qui baise sa sur Heureusement que je ne suis pas cette chienne Qui aime se faire ken Qui pleure et s'plaint quand je lui dis qui elle est Je suis un mâle un chien bâtard buté et insolent dans mes propos Normal je suis Pit Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Couplet Si j'étais blanc bleu blanc rouge Bleu pour ma gueule après les patates d'un nègre Blanc pour la soi-disante pureté de cette race Rouge je deviens quand je suis seul à minuit avec des bicots Si j'étais blanc est-ce que j'aurais peur du ghetto français Parce que je sais que dans ces cités j'en ai offensé Est-ce que je me reconnaîtrais dans le front national Est-ce que je penserais que les autres races sont inférieures Est-ce que je dirais que ça pue à l'étage supérieur Est-ce que j'accepterais d'avoir un noir comme patron Est-ce que j'accepterais comme gendre Abdelkrim Criminel par sa peau couleur café crème Si j'étais skin comment savourer les deux buts de Zinedine Si j'étais blanc non je suis noir ça se voit noir sur blanc Et pour la peine je finis salement par un blanc Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais</t>
+          <t>Si j'étais flic et toi Rodney King La matraque en main toi au sol sur ce parking Si j'étais flic est-ce j'accepterais les pots-de-vin Après une saisie de coke détourner ma part du butin Si j'étais flic noir est-ce que je voudrais le malheur d'un frère Lui disant que sa mort ça fait une racaille en moins Si j'étais flic est-ce que je voudrais être criminel comme Broussard Avoir la légion d'honneur ou le statut de star Soutenir mon collègue après cette bavure dans le 18 Tenter le suicide en me regardant après une bonne cuite Est-ce que je suis flic parce que j'aime ça Quand j'ai la trouille devant ces jeunes est-ce que ça se sent Est-ce que je suis en confiance juste parce que j'ai mon arme Car je sais qu'au moindre geste je les allume tous Est-ce que j'accepterais que des négros chantent Sacrifice de poulet ? Vu que je ne suis pas je cautionne en plus qu'on les sanctionne Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Si j'étais La loi serait la même pour toi comme pour moi Si j'étais Je serais une femme digne de porter ce nom Si j'étais Je suis un noir pacifiste et fier de l'être Couplet Si j'étais femme aurais-je conscience que je suis nombril du monde Qu'avortement signifie assassinat d'un môme Avec ce que j'ai qu'ils n'ont pas je peux anéantir le monde Et vu que je ne suis pas je regarde ce que Monica a fait à Clinton Si j'étais femme je voudrais être Rosa Parks ou Néfertiti Mais on peut même devenir femme regarde RuPaul Est-ce que je serais mariée à un alcoolique qui frappe mes fils Amoureux de lui malgré le fait qu'il soit récidiviste Est-ce que j'accepterais de ken avec Jacky Pit le pote à Jacky Ben-J le pote à Pit donc le pote à Jacky Avoir une bite comme logo ou être la go la plus ken du coin C'est sale comme un mec qui baise sa sur Heureusement que je ne suis pas cette chienne Qui aime se faire ken Qui pleure et s'plaint quand je lui dis qui elle est Je suis un mâle un chien bâtard buté et insolent dans mes propos Normal je suis Pit Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Couplet Si j'étais blanc bleu blanc rouge Bleu pour ma gueule après les patates d'un nègre Blanc pour la soi-disante pureté de cette race Rouge je deviens quand je suis seul à minuit avec des bicots Si j'étais blanc est-ce que j'aurais peur du ghetto français Parce que je sais que dans ces cités j'en ai offensé Est-ce que je me reconnaîtrais dans le front national Est-ce que je penserais que les autres races sont inférieures Est-ce que je dirais que ça pue à l'étage supérieur Est-ce que j'accepterais d'avoir un noir comme patron Est-ce que j'accepterais comme gendre Abdelkrim Criminel par sa peau couleur café crème Si j'étais skin comment savourer les deux buts de Zinedine Si j'étais blanc non je suis noir ça se voit noir sur blanc Et pour la peine je finis salement par un blanc Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques You might also like Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
+          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Ooh! 2002 Mike Impetto Baccardi Pit Dans les dancehalls c'est la merde Mate le bougre, électrocute comme la foudre J't'en mets plein les yeux, ma zik c'est d'la poudre Pour les filles en manque de plaisir, j'viens recoudre Les déchireurs de cur, toujours à la coule Elles ont dit cool, on veut danser J'ai pris ma voix, un micro, j'ai fait un sound check, affaire classée Baccardi, de Première Classe, un choix d'qualité supérieure XXX dans les charts, déplace C'est nouvelle ère, deux gentlemen, un B Sur toutes les poitrines et sur mes jantes, man Un classique, quand j'débarque y a du changement Les mecs veulent me ressembler, revoient leur plastique tu l'sais J'suis une machine de guerre, donne-moi une platine, je gère J'accélère, j'ai l'art et la manière Le style, j'suis né avec J'cause des dégâts, j'peux pas m'en défaire Hein, regarde c'que j'fais You might also like Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls J'suis sous les spots, quand y a un problème j'la joue sport Reste sobre, j'ai créé un empire avec mes potes Complote pas contre mes assos' de malfaitaz Qui carburent à l'essence, vite Ça bloque car c'sont des Blacks changent le système Et veulent donner la force aux mecs des blocs Génération Young Gunz, on vient t'faire danser Chanter, te balancer Entre les flashes et les lights, ooh Mais pas les femmes et les fights Ceux qui font zouker les Beurs Valser les Blacks et smurfer les Whites Sur la tête, XXX, sur l'côté Dans la main j'ai l'cigare et je pète le champagne Peu importent les regards, les sourires, les égards Si j'dois repartir avec ta compagne Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Quand j'rappe ces mélodies, de ta meuf j'suis l'idole Hey, mate pas comme ça, c'est pas moi qui l'ai dit J'fais mon truc dosé, posé, classe, aisé Au-dessus d'la moyenne dans les stat' J'éclate, kicke sur un beat dansant J'ai une histoire, un parcours Ton crâne suit la cadence, non? Mon rap, c'est un truc de feeling Flow, fringues, charisme, damn! D'où il sort ce boss? De Yaoundé, place des fêtes Et l'Afrique, y a du monde qui m'soutient Hey, c'est pas d'ma faute C'est trop gros, trop flow, trop chaud C'est Pit au mic, et M-Pio 2002, pour les ghettos d'France, du 7-8 au 1-9 Mike Impetto, Baccardi Pit, dans les dancehalls c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Dans les dancehalls Toutes les mains en l'air Fous l'bordel Pit au mic, Impetto, les dancehalls, c'est la merde Pit au mic, Impetto, les dancehalls, c'est la merde Jacky Brown, c'est la merde Première Classe, c'est la merde Cris aux manettes, c'est la merde Et tu l'sais Qu'c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls</t>
+          <t>Ooh! 2002 Mike Impetto Baccardi Pit Dans les dancehalls c'est la merde Mate le bougre, électrocute comme la foudre J't'en mets plein les yeux, ma zik c'est d'la poudre Pour les filles en manque de plaisir, j'viens recoudre Les déchireurs de cur, toujours à la coule Elles ont dit cool, on veut danser J'ai pris ma voix, un micro, j'ai fait un sound check, affaire classée Baccardi, de Première Classe, un choix d'qualité supérieure XXX dans les charts, déplace C'est nouvelle ère, deux gentlemen, un B Sur toutes les poitrines et sur mes jantes, man Un classique, quand j'débarque y a du changement Les mecs veulent me ressembler, revoient leur plastique tu l'sais J'suis une machine de guerre, donne-moi une platine, je gère J'accélère, j'ai l'art et la manière Le style, j'suis né avec J'cause des dégâts, j'peux pas m'en défaire Hein, regarde c'que j'fais Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls J'suis sous les spots, quand y a un problème j'la joue sport Reste sobre, j'ai créé un empire avec mes potes Complote pas contre mes assos' de malfaitaz Qui carburent à l'essence, vite Ça bloque car c'sont des Blacks changent le système Et veulent donner la force aux mecs des blocs Génération Young Gunz, on vient t'faire danser Chanter, te balancer Entre les flashes et les lights, ooh Mais pas les femmes et les fights Ceux qui font zouker les Beurs Valser les Blacks et smurfer les Whites Sur la tête, XXX, sur l'côté Dans la main j'ai l'cigare et je pète le champagne Peu importent les regards, les sourires, les égards Si j'dois repartir avec ta compagne Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Quand j'rappe ces mélodies, de ta meuf j'suis l'idole Hey, mate pas comme ça, c'est pas moi qui l'ai dit J'fais mon truc dosé, posé, classe, aisé Au-dessus d'la moyenne dans les stat' J'éclate, kicke sur un beat dansant J'ai une histoire, un parcours Ton crâne suit la cadence, non? Mon rap, c'est un truc de feeling Flow, fringues, charisme, damn! D'où il sort ce boss? De Yaoundé, place des fêtes Et l'Afrique, y a du monde qui m'soutient Hey, c'est pas d'ma faute C'est trop gros, trop flow, trop chaud C'est Pit au mic, et M-Pio 2002, pour les ghettos d'France, du 7-8 au 1-9 Mike Impetto, Baccardi Pit, dans les dancehalls c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Dans les dancehalls Toutes les mains en l'air Fous l'bordel Pit au mic, Impetto, les dancehalls, c'est la merde Pit au mic, Impetto, les dancehalls, c'est la merde Jacky Brown, c'est la merde Première Classe, c'est la merde Cris aux manettes, c'est la merde Et tu l'sais Qu'c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>C'est ma ville la nuit El Matador Brasco Bombattak crew si si Marseille Centre-ville Paname, frère C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Minuit passé, y a que des putes et plus d'Cendrillon Investis sur l'album, écoute la délinquance en échantillon Y a des p'tits, des grands qui montent dans c'pays où la violence triomphe Les règlements de comptes au vingt heures en disent long C'est pour nos secteurs, les environs Dédié aux coupables innocents en taule à cause d'une balance qui s'trompe Ici ça trafique shit, coke, ecsta ou champignons Parce que plus personne compte sur l'Euromillion Y a c'côté chaud et froid qui fait qu'on s'tue à la vodka et au Dillon Demande si c'est la merde, mes khos te diront D'la maternité à la morgue, crois pas qu'le chemin soit aussi long Mon son, les groupies l'ont, au bec un gros pilon C'est pour les mecs de zones d'ombre qui traînent en p'tit nombre Ça part en couilles car le manque de conscience, la folie comble J'esquive l'ambulance et l'commico, mon flow est au niveau C'est du Processus Verbal, Brasco, minot You might also like C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes J'voulais une vie de rêve sans réaliser mes cauchemars J'ai connu l'argent sale, à cause d'elle j'ai les poches noires Elle en fait des couche-tard, des apprentis gangsters Plein d'oseille pendant qu'mon taf me paye au lance-pierre On s'perd dans la drogue et l'alcool Mes p'tits frères braquent ta diligence comme les Dalton, c'est hardcore La rue nous tue à p'tit feu, ça blague pas Mate la génération, dormir dehors sans matelas Y a la télé-réalité, près d'chez moi c'est la folie Lascar Academy, le gagnant finit à Fleury Putain j'viens de loin et toi tu viens de quel coin J'ai fait comme toi, quitter mon bled pour devenir quelqu'un Ici c'est une autre galère, le mal n'a pas d'heure L'État n'a que d'la gueule et sa justice n'a pas d'il J'te parle de la banlieue Nord, Sud, Est et Ouest Et Paris la nuit, on fait c'qu'on peut même si c'est pas Miami C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Pour la réussite on est trop peu, l'échec nous a embauchés à temps plein C'qu'on fait c'est casser ou crier misère sur le tempo J't'emmène faire un tour dans nos ruelles Pas besoin de permis j't'ai dit, on brave les interdits Tout c'qui est droit est synonyme de bouffonnerie Alors on s'fait dans l'négatif cousin, et sur les murs on urine Dans nos rêves profonds, chaque nuit un keuf on surine On fait péter les serrures et on s'ruine dans les transacs pour le coupé sport de série Le monde on l'voit comme Mesrine, bafouer l'ordre établi S'casser d'ici avant qu'ces mômes de putes nous liquident Coupables d'être misérables même le 25 décembre Si homicide, les portes sont fermées vu d'ici Alors on brise la glace, on signe des contrats avec du sang sur les mains C'est l'idéal pour l'insigne Débarqué du bled, j'avais l'instinct humain, pas animal L'étau se resserre sur les gueules Les poings s'ferment, le langage se limite à nique ta mère</t>
+          <t>C'est ma ville la nuit El Matador Brasco Bombattak crew si si Marseille Centre-ville Paname, frère C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Minuit passé, y a que des putes et plus d'Cendrillon Investis sur l'album, écoute la délinquance en échantillon Y a des p'tits, des grands qui montent dans c'pays où la violence triomphe Les règlements de comptes au vingt heures en disent long C'est pour nos secteurs, les environs Dédié aux coupables innocents en taule à cause d'une balance qui s'trompe Ici ça trafique shit, coke, ecsta ou champignons Parce que plus personne compte sur l'Euromillion Y a c'côté chaud et froid qui fait qu'on s'tue à la vodka et au Dillon Demande si c'est la merde, mes khos te diront D'la maternité à la morgue, crois pas qu'le chemin soit aussi long Mon son, les groupies l'ont, au bec un gros pilon C'est pour les mecs de zones d'ombre qui traînent en p'tit nombre Ça part en couilles car le manque de conscience, la folie comble J'esquive l'ambulance et l'commico, mon flow est au niveau C'est du Processus Verbal, Brasco, minot C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes J'voulais une vie de rêve sans réaliser mes cauchemars J'ai connu l'argent sale, à cause d'elle j'ai les poches noires Elle en fait des couche-tard, des apprentis gangsters Plein d'oseille pendant qu'mon taf me paye au lance-pierre On s'perd dans la drogue et l'alcool Mes p'tits frères braquent ta diligence comme les Dalton, c'est hardcore La rue nous tue à p'tit feu, ça blague pas Mate la génération, dormir dehors sans matelas Y a la télé-réalité, près d'chez moi c'est la folie Lascar Academy, le gagnant finit à Fleury Putain j'viens de loin et toi tu viens de quel coin J'ai fait comme toi, quitter mon bled pour devenir quelqu'un Ici c'est une autre galère, le mal n'a pas d'heure L'État n'a que d'la gueule et sa justice n'a pas d'il J'te parle de la banlieue Nord, Sud, Est et Ouest Et Paris la nuit, on fait c'qu'on peut même si c'est pas Miami C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Pour la réussite on est trop peu, l'échec nous a embauchés à temps plein C'qu'on fait c'est casser ou crier misère sur le tempo J't'emmène faire un tour dans nos ruelles Pas besoin de permis j't'ai dit, on brave les interdits Tout c'qui est droit est synonyme de bouffonnerie Alors on s'fait dans l'négatif cousin, et sur les murs on urine Dans nos rêves profonds, chaque nuit un keuf on surine On fait péter les serrures et on s'ruine dans les transacs pour le coupé sport de série Le monde on l'voit comme Mesrine, bafouer l'ordre établi S'casser d'ici avant qu'ces mômes de putes nous liquident Coupables d'être misérables même le 25 décembre Si homicide, les portes sont fermées vu d'ici Alors on brise la glace, on signe des contrats avec du sang sur les mains C'est l'idéal pour l'insigne Débarqué du bled, j'avais l'instinct humain, pas animal L'étau se resserre sur les gueules Les poings s'ferment, le langage se limite à nique ta mère</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>J'entends le clic clic des glocks en joue pour mettre le souk L'atmosphère est crade, les flics sont aux aguets, je suis l'émissaire bouc Vous dites être justes pour être innocents A mon sens les innocents sont souvent les plus coupables Et moi je suis juste coupable d'être innocent Est-ce que ça se sent que j'ai la frousse ? Et comment ! Je fais la Une de la presse Pion sur cet échiquier, le jeu est truqué Reste plus qu'à savoir quelles règles restent dans mon coin Echec, mate ma chute, ça chuchote dans la peine J'ai la pupille qui brille et perd mon oeil du tigre J'ai la trouille je suis mouillé jusqu'aux couilles Louanges au Seigneur, la fouille est faite putain Grosse perquis' dans mon poulailler J'ai été fou de m'allier à eux En cas de mort, les coupables seront les premiers sur mon palier Fugitif ou ennemi d'état, je suis dans l'impasse L'état des lieux est grave, on croirait avoir affaire à une vendetta Je suis dans la ligne de mire, mort aux vifs On me veut et quand je rebiffe, mon propre sang je renifle mon Dieu Le chiffre de plainte s'accroit et je crie au Judas Et je sais déjà que je vais finir comme Jésus sur croix Je ne veux plus croire en l'Homme quand ces ex m'en veulent à mort Mais je crois en la haine car comme beaucoup elle me fait subsister Et ouais, je suis comme une aiguille j'habille les autres et je demeure nu En plus de la couronne de coin ils veulent m'orner You might also likeRefrain x4 Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent Je suis assassiné à coup de langue Clame sans cesse mon innocence Recrudescence d'ennemi, je suis haï dans tous les sens Ca bifurque là où ça pue la sentence Sans puissance je suis une alumette dans un bidon d'essence Mortel, à moi tout seul bah y a le cheptel Dans un pêle-mêle tel quel, le vrai coupable c'est lequel ? Spacieux est le chemin et large est la porte qui mènent à la perdition Fric et pouvoir vont me tuer, mais vous restez libres Je vis dans ce brouhaha Je m'imbibe des versets de la Bible mais je vais finir comme un chien mort dans ce trou à rat Si pour avoir été dans l'inaccessible Ne pas vouloir être dans ce putain de cercle pour eux c'est inacceptable Voilà comment on me voit comme une brebis parmis les loups Je n'ai jamais été aussi proche des égouts de l'Enfer J'ai tort de me taire, je suis terre à terre Et que Dieu bénisse tous les traitres qui m'entourent La fierté fleure empoisonnée dans le jardin de ma haine Vu que mort d'homme il y a, si je ferme ma gueule c'est la merde Faut que le monde sache que je suis victime d'influence Que je ne suis pas coupable de ces trafics d'influence Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent3</t>
+          <t>J'entends le clic clic des glocks en joue pour mettre le souk L'atmosphère est crade, les flics sont aux aguets, je suis l'émissaire bouc Vous dites être justes pour être innocents A mon sens les innocents sont souvent les plus coupables Et moi je suis juste coupable d'être innocent Est-ce que ça se sent que j'ai la frousse ? Et comment ! Je fais la Une de la presse Pion sur cet échiquier, le jeu est truqué Reste plus qu'à savoir quelles règles restent dans mon coin Echec, mate ma chute, ça chuchote dans la peine J'ai la pupille qui brille et perd mon oeil du tigre J'ai la trouille je suis mouillé jusqu'aux couilles Louanges au Seigneur, la fouille est faite putain Grosse perquis' dans mon poulailler J'ai été fou de m'allier à eux En cas de mort, les coupables seront les premiers sur mon palier Fugitif ou ennemi d'état, je suis dans l'impasse L'état des lieux est grave, on croirait avoir affaire à une vendetta Je suis dans la ligne de mire, mort aux vifs On me veut et quand je rebiffe, mon propre sang je renifle mon Dieu Le chiffre de plainte s'accroit et je crie au Judas Et je sais déjà que je vais finir comme Jésus sur croix Je ne veux plus croire en l'Homme quand ces ex m'en veulent à mort Mais je crois en la haine car comme beaucoup elle me fait subsister Et ouais, je suis comme une aiguille j'habille les autres et je demeure nu En plus de la couronne de coin ils veulent m'orner Refrain x4 Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent Je suis assassiné à coup de langue Clame sans cesse mon innocence Recrudescence d'ennemi, je suis haï dans tous les sens Ca bifurque là où ça pue la sentence Sans puissance je suis une alumette dans un bidon d'essence Mortel, à moi tout seul bah y a le cheptel Dans un pêle-mêle tel quel, le vrai coupable c'est lequel ? Spacieux est le chemin et large est la porte qui mènent à la perdition Fric et pouvoir vont me tuer, mais vous restez libres Je vis dans ce brouhaha Je m'imbibe des versets de la Bible mais je vais finir comme un chien mort dans ce trou à rat Si pour avoir été dans l'inaccessible Ne pas vouloir être dans ce putain de cercle pour eux c'est inacceptable Voilà comment on me voit comme une brebis parmis les loups Je n'ai jamais été aussi proche des égouts de l'Enfer J'ai tort de me taire, je suis terre à terre Et que Dieu bénisse tous les traitres qui m'entourent La fierté fleure empoisonnée dans le jardin de ma haine Vu que mort d'homme il y a, si je ferme ma gueule c'est la merde Faut que le monde sache que je suis victime d'influence Que je ne suis pas coupable de ces trafics d'influence Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent3</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Super Chaud sur Show Lapin FM Shooow Lapiiin !!! Ouais, ouais, ouais, ouais... Mon papa à moi... remix Mon papa à moi c'est un gan... chhh Le genre de gangster qui bouge en silence Manigance en douce dans la douce Franchté Entame son plat de riz avec les mains vésquis S'essuie la bouche avec la manche de son costume acheté à Tati Un peigne afro dans la poche gauche Dans l'autre une fausse feuille d 'embauche En guise de couverture pour les flics auche Mais il sait dire oui oui Missié, tout de suite Missié Pour qu'on l'laisse circuler puis après il continue à faire son business et Arrivé au foyer y m'dit de tailler, me lâche des billets À peine la porte fermée, j'me mets à mater Par le trou d'la serrure mais ce que j'vois jamais j'le dévoilerai Parce que j'balancerai jamais celui qui m'donne à manger Même si mon papa marche la tête baissée dehors Pour moi et pour la famille au bled il reste le plus fort Mon papa manigance mais il sait s'taire Le genre de gangster que t'enverras jamais par terre You might also like Payé en Dollars, Sterling on leur donne l'heure précise Comme les profs j'utilise des strophes pour décrire les catastrophes, Imagine Une prime, une vermine qui faut que j'extermine L'atmosphère musicale, les mines, les rimes mais ça se termine Primo mon nom Passi Deuzio Ministère Tertio un gangster en cachemire pas en polyester Une bonne Chester, champagne, Magnum dans le holster Dans mon hystérique Western, j'ai le rôle de Winchester Un hostile gangster qui vient des mystères de l'Ouest Qui vise à Rio, à Manchester et s'terre à Palerme Pour qui la terre entière n'est juste qu'une cage pour un hamster Un gangster qui rêve même de niquer le système stellaire Faire de la vendetta Une façon de communiquer Papa et relations publiques, au micro un expert Papa gangster, maman doit s'taire Pleure pas, un jour petit tu prendras la place de ton père Son rep à lui c'est un vrai Un rep qui fait reup Un putain de daron Un pacha, un caid, un baron Si tu te demandes d'où viennent nos paroles meurtrières C'est héréditaire Y'a rien à faire Mon père est un gangster Papa c'est pas un gangster c'est Zorro Il met sa fausse barbe rose Son masque, à la banque, la tune tombe des arbres Après on joue à Starsky et Hutch Parce qu'il roule aussi speed, casse plus de caisses, et met les même Nikes À l'école, pire que Tom Sawyer J'ai les meilleures notes sans l'vouloir, ni l'pouvoir, et les plus bonnes profs Jamais on m'a collé, chuis fier de mon Pops C'est l'meilleur, les juges l'appellent monsieur, Oxmo Puccino Dans les News, j'ai vu ce keuf qui m'a foutu le blues occisé Dans une flaque de sang, boxon, on aurait dit par 12 toxs Papa est revenu avec un cuir marron, le même Que ce même civil, quelle coïncidence, c'est marrant C'est pas un gangster, qui roule en Holster Je reste le chéri de sa voisine Une meuf terrible et papa il a le poster A classe du biz le papa d'Pit brise coeurs Sur les disques et on parle de lui et on dit qu'c'est un mythe Lino Pas de blagues, pas de bag is rough Levis ras les couilles Au boogie gangster Aux aguets et même pris en flag Il nie et drague les jupes mini-zig-zag Avec les stups fini toujours ses jobs du métal sous son Tacchini bob Sur le crane comme jamais la couleuvre ça fera lou'velouse ça fait une partouze une putain d'heure La savane son royaume il traine ses shoes la zep son médicament XL Quand maman fils sans maman fixe... Calbo Ce mec là n'a pas d'principe, kiffe surtout ce qui rapporte Exporte son vice, vif le soir, le matin t'approche pas de sa porte Forte poitrine, grosse paire de cojones au mont des moisis Bourrés de saisie en tout genre et cette fois ci à Roissy Il s'envole couche une liasse avant d'se vésau Ne dit même pas au'revoir à tout moment sa vie peut tésau Respect, j'irai jamais trainer tout près d'ses vestons Mais où est son caisson, dedans je sais qu'j'y trouverai du bon Mon Paps j'le connaît trop pas trop pape sans pour être honnête Trop pro pour mettre du sang sur sa gourmette Comme dit le raggae un tocou dans la poche Même pour les enterrements il emmène sûrement un pompe dans le BM Un il sur sa bague où ils sont comme en limousine L'autre sur ses cousines Pas d'religion, pas d'prêtres, pas d'rabbins Il se confesse qu'à la teillbout Père Labat Prend jamais l'un d'ses gamins par la main J'sais qu'il a tellement semé sa semence en France Que quand j't'appelle refré c'est pour d'vrai Si tu lui dois beaucoup d'sous il t'fout un coup d'coupe-coupe sous l'cou Daron fiancé au Tiercé, tu veux niquer sa maille aux dominos Y'a des filles comme au Bobino Vengeance y'a plus d'jeux plus y'a d'gens genre Et n'y'a qu'deux potes car y'a moins d'Rhum Et d'ganja plus y'a d'gens Mal Negre foncedé Faut toujours qu'on finisse par battre nos femmes et chaque fois plus pire qu'nos pères, imagine nos fils Dring, Dring, papa c'est les flics casse toi Depuis qu'chuis tout petit c'est ce que j'lui répète à chaque fois Les huissiers les impôts, le fisc au cul Il leur met dans l'cul, prend leur femme et les fait devenir cocu... leurs cornes poussent Wanted alors il se barre au bled en douce Quand il repart il a trop d'gosses et il les connaît même pas tous Toutes les femmes lui disent qu'il finira malheureux Il répond Salope, Salope j'ai mon fils au monde y'a pas mieux La seule qu'il respecte c'est ma mère mais elle se laisse pas faire Et elle lui jette un verre points d'suture à l'arcade sourcilière Et on peut rien y faire sinon lui et moi c'est la guerre Si un inspecteur jacte dans le haut-parleur Rend toi Il lui dit nique toi J'dirais pas qu'toutes les polices le recherchent En tout cas celle de Paris j'te parie qu'ils se cachent dans une brèche... cchh N'essaie pas d'reconnaître ma voix chuis enrhumé à force de l'chercher Et quand chuis bien Stomy... chhh Chaud lapin comme mon père et son père à lui</t>
+          <t>Super Chaud sur Show Lapin FM Shooow Lapiiin !!! Ouais, ouais, ouais, ouais... Mon papa à moi... remix Mon papa à moi c'est un gan... chhh Le genre de gangster qui bouge en silence Manigance en douce dans la douce Franchté Entame son plat de riz avec les mains vésquis S'essuie la bouche avec la manche de son costume acheté à Tati Un peigne afro dans la poche gauche Dans l'autre une fausse feuille d 'embauche En guise de couverture pour les flics auche Mais il sait dire oui oui Missié, tout de suite Missié Pour qu'on l'laisse circuler puis après il continue à faire son business et Arrivé au foyer y m'dit de tailler, me lâche des billets À peine la porte fermée, j'me mets à mater Par le trou d'la serrure mais ce que j'vois jamais j'le dévoilerai Parce que j'balancerai jamais celui qui m'donne à manger Même si mon papa marche la tête baissée dehors Pour moi et pour la famille au bled il reste le plus fort Mon papa manigance mais il sait s'taire Le genre de gangster que t'enverras jamais par terre Payé en Dollars, Sterling on leur donne l'heure précise Comme les profs j'utilise des strophes pour décrire les catastrophes, Imagine Une prime, une vermine qui faut que j'extermine L'atmosphère musicale, les mines, les rimes mais ça se termine Primo mon nom Passi Deuzio Ministère Tertio un gangster en cachemire pas en polyester Une bonne Chester, champagne, Magnum dans le holster Dans mon hystérique Western, j'ai le rôle de Winchester Un hostile gangster qui vient des mystères de l'Ouest Qui vise à Rio, à Manchester et s'terre à Palerme Pour qui la terre entière n'est juste qu'une cage pour un hamster Un gangster qui rêve même de niquer le système stellaire Faire de la vendetta Une façon de communiquer Papa et relations publiques, au micro un expert Papa gangster, maman doit s'taire Pleure pas, un jour petit tu prendras la place de ton père Son rep à lui c'est un vrai Un rep qui fait reup Un putain de daron Un pacha, un caid, un baron Si tu te demandes d'où viennent nos paroles meurtrières C'est héréditaire Y'a rien à faire Mon père est un gangster Papa c'est pas un gangster c'est Zorro Il met sa fausse barbe rose Son masque, à la banque, la tune tombe des arbres Après on joue à Starsky et Hutch Parce qu'il roule aussi speed, casse plus de caisses, et met les même Nikes À l'école, pire que Tom Sawyer J'ai les meilleures notes sans l'vouloir, ni l'pouvoir, et les plus bonnes profs Jamais on m'a collé, chuis fier de mon Pops C'est l'meilleur, les juges l'appellent monsieur, Oxmo Puccino Dans les News, j'ai vu ce keuf qui m'a foutu le blues occisé Dans une flaque de sang, boxon, on aurait dit par 12 toxs Papa est revenu avec un cuir marron, le même Que ce même civil, quelle coïncidence, c'est marrant C'est pas un gangster, qui roule en Holster Je reste le chéri de sa voisine Une meuf terrible et papa il a le poster A classe du biz le papa d'Pit brise coeurs Sur les disques et on parle de lui et on dit qu'c'est un mythe Lino Pas de blagues, pas de bag is rough Levis ras les couilles Au boogie gangster Aux aguets et même pris en flag Il nie et drague les jupes mini-zig-zag Avec les stups fini toujours ses jobs du métal sous son Tacchini bob Sur le crane comme jamais la couleuvre ça fera lou'velouse ça fait une partouze une putain d'heure La savane son royaume il traine ses shoes la zep son médicament XL Quand maman fils sans maman fixe... Calbo Ce mec là n'a pas d'principe, kiffe surtout ce qui rapporte Exporte son vice, vif le soir, le matin t'approche pas de sa porte Forte poitrine, grosse paire de cojones au mont des moisis Bourrés de saisie en tout genre et cette fois ci à Roissy Il s'envole couche une liasse avant d'se vésau Ne dit même pas au'revoir à tout moment sa vie peut tésau Respect, j'irai jamais trainer tout près d'ses vestons Mais où est son caisson, dedans je sais qu'j'y trouverai du bon Mon Paps j'le connaît trop pas trop pape sans pour être honnête Trop pro pour mettre du sang sur sa gourmette Comme dit le raggae un tocou dans la poche Même pour les enterrements il emmène sûrement un pompe dans le BM Un il sur sa bague où ils sont comme en limousine L'autre sur ses cousines Pas d'religion, pas d'prêtres, pas d'rabbins Il se confesse qu'à la teillbout Père Labat Prend jamais l'un d'ses gamins par la main J'sais qu'il a tellement semé sa semence en France Que quand j't'appelle refré c'est pour d'vrai Si tu lui dois beaucoup d'sous il t'fout un coup d'coupe-coupe sous l'cou Daron fiancé au Tiercé, tu veux niquer sa maille aux dominos Y'a des filles comme au Bobino Vengeance y'a plus d'jeux plus y'a d'gens genre Et n'y'a qu'deux potes car y'a moins d'Rhum Et d'ganja plus y'a d'gens Mal Negre foncedé Faut toujours qu'on finisse par battre nos femmes et chaque fois plus pire qu'nos pères, imagine nos fils Dring, Dring, papa c'est les flics casse toi Depuis qu'chuis tout petit c'est ce que j'lui répète à chaque fois Les huissiers les impôts, le fisc au cul Il leur met dans l'cul, prend leur femme et les fait devenir cocu... leurs cornes poussent Wanted alors il se barre au bled en douce Quand il repart il a trop d'gosses et il les connaît même pas tous Toutes les femmes lui disent qu'il finira malheureux Il répond Salope, Salope j'ai mon fils au monde y'a pas mieux La seule qu'il respecte c'est ma mère mais elle se laisse pas faire Et elle lui jette un verre points d'suture à l'arcade sourcilière Et on peut rien y faire sinon lui et moi c'est la guerre Si un inspecteur jacte dans le haut-parleur Rend toi Il lui dit nique toi J'dirais pas qu'toutes les polices le recherchent En tout cas celle de Paris j'te parie qu'ils se cachent dans une brèche... cchh N'essaie pas d'reconnaître ma voix chuis enrhumé à force de l'chercher Et quand chuis bien Stomy... chhh Chaud lapin comme mon père et son père à lui</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'suis bon qu'à foutre le bordel sur des sons sanglants Rêver d'gros comptes en banque ou du boule à Dolly Golden en m'frottant l'gland J'suis bon qu'à avec mes délires d'ado A pleurer mes partenaires qui sont partis d'ici sans m'dire adieu La vie ça a rien de bandant et qu'est-ce tu m'parles d'indépendance ? Parce qu'en plus les ancêtres, ils ont baisé leur descendance J'voulais savoir pourquoi mon hémisphère connaissait une telle misère ? Mais on m'a dit de fermer ma gueule que tout est question d'épiderme Des terres d'Afrique originaire, j'suis de ces jeunes gens Qui veulent niquer la vie sans faire de préliminaires Ici y'a trop d'délits mineurs jugés comme actes criminels Parce qu'ils ont mis en place un p'tit enfoiré d'forcené au ministère Allez remballe tes Peace, Love Unity, c'est trop has been Aussi vrai que Babylone nous l'a mis sans vaseline Alors t'étonnes pas de ma sale mine, passe-moi l'mic' j'ai la rime assassine Comme cette putain d'époque où vivre n'est pas une tâche facile You might also like Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'ai seulement 23 ans, j'arrive du block, j'veux le magot Même si les condés veulent ma dope, Même si l'Etat se pé-ta pour ma peau J'ai la pression depuis que le seum est dans l'école Parce que les guns sont dans les halls, pour eux les jeunes c'est dans les geôles Parole d'MC, j'me ferai jamais baiser par le stème-sy Ils n'auront ni mon fric, ni mon équipe, ni mon rap de té-ci Parce qu'on m'accuse, parce que le juge veut nous mettre aux petits soins Chirac ne voit queue dalle, politicien rime avec opticien Dilapidés mes frères sont morts à coup de vitesse Sans appuie-têtes parce que c'est mort l'époque de Happy Days Devant ta mère, ils veulent ta mort et tu t'en souviendras Froidement et subitement, et soudainement te voilà sous un drap Tu diras quoi ? T'as des histoires alors raconte Toujours poussé à bloc, mon meilleur pote s'appelle fusil à pompe Donc laisse tombé c'est Dosseh qui te parle C'est Baccardi qui te baffe, c'est Malsain qui te braque Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Paris s'éveille, mes rêves s'envolent, j'écris mes pensées Combien se comptent en blackout ? Prends ma rime comme pansement c'est la guerre cérébrale, les faibles ne verront pas Y'a rien de funky dans c'que je raconte, j'veux qu'les porcs en chient Si j'suis ici dans les tracas, rappelle-toi racine J'avais une chaîne au pied et quand je l'ouvrais, je finissais L'assassin est rouge de peur et bleu après les coups Loin de la jungle depuis la course, c'est l'instinct animal dans les couplets Sur l'instru mec, j'fais le ralliement des troupes J'ai rendez-vous avec la mort, quoi qu'il s'passe, pour ma part c'est cool C'que je dénonce, c'est qu'aujourd'hui encore l'esclavage existe Sauf qu'il est mental d'Afrique à outre-Atlantique bien et mal, j'suis armé jusqu'au cou J'ai l'savoir, rappelle-toi c'que disait Ministère Amer On veut m'faire croire que comme j'suis black j'ai pas l'droit aux premières places C'est dans l'bon sens pas dans l'sang que j'voulais faire mes classes Négro, j'viens me libérer d'mes chaines dans mes couplets J'veux voir droit et c'est ta mère que tu vas inculper J'suis sous l'emprise de la vengeance, tuons-les tous Et Dieu reconnaîtra les siens, brûlés par l'essence J'ai prié pour que le volcan d'haine se noie dans un fleuve de tranquillité Mais j'crois que l'Homme pour la paix n'est pas habilité Sourcils froncés, j'avance dans cette France Qui n'oublie pas de rappeler que j'suis pas d'la bonne couleur Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait1</t>
+          <t>Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'suis bon qu'à foutre le bordel sur des sons sanglants Rêver d'gros comptes en banque ou du boule à Dolly Golden en m'frottant l'gland J'suis bon qu'à avec mes délires d'ado A pleurer mes partenaires qui sont partis d'ici sans m'dire adieu La vie ça a rien de bandant et qu'est-ce tu m'parles d'indépendance ? Parce qu'en plus les ancêtres, ils ont baisé leur descendance J'voulais savoir pourquoi mon hémisphère connaissait une telle misère ? Mais on m'a dit de fermer ma gueule que tout est question d'épiderme Des terres d'Afrique originaire, j'suis de ces jeunes gens Qui veulent niquer la vie sans faire de préliminaires Ici y'a trop d'délits mineurs jugés comme actes criminels Parce qu'ils ont mis en place un p'tit enfoiré d'forcené au ministère Allez remballe tes Peace, Love Unity, c'est trop has been Aussi vrai que Babylone nous l'a mis sans vaseline Alors t'étonnes pas de ma sale mine, passe-moi l'mic' j'ai la rime assassine Comme cette putain d'époque où vivre n'est pas une tâche facile Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'ai seulement 23 ans, j'arrive du block, j'veux le magot Même si les condés veulent ma dope, Même si l'Etat se pé-ta pour ma peau J'ai la pression depuis que le seum est dans l'école Parce que les guns sont dans les halls, pour eux les jeunes c'est dans les geôles Parole d'MC, j'me ferai jamais baiser par le stème-sy Ils n'auront ni mon fric, ni mon équipe, ni mon rap de té-ci Parce qu'on m'accuse, parce que le juge veut nous mettre aux petits soins Chirac ne voit queue dalle, politicien rime avec opticien Dilapidés mes frères sont morts à coup de vitesse Sans appuie-têtes parce que c'est mort l'époque de Happy Days Devant ta mère, ils veulent ta mort et tu t'en souviendras Froidement et subitement, et soudainement te voilà sous un drap Tu diras quoi ? T'as des histoires alors raconte Toujours poussé à bloc, mon meilleur pote s'appelle fusil à pompe Donc laisse tombé c'est Dosseh qui te parle C'est Baccardi qui te baffe, c'est Malsain qui te braque Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Paris s'éveille, mes rêves s'envolent, j'écris mes pensées Combien se comptent en blackout ? Prends ma rime comme pansement c'est la guerre cérébrale, les faibles ne verront pas Y'a rien de funky dans c'que je raconte, j'veux qu'les porcs en chient Si j'suis ici dans les tracas, rappelle-toi racine J'avais une chaîne au pied et quand je l'ouvrais, je finissais L'assassin est rouge de peur et bleu après les coups Loin de la jungle depuis la course, c'est l'instinct animal dans les couplets Sur l'instru mec, j'fais le ralliement des troupes J'ai rendez-vous avec la mort, quoi qu'il s'passe, pour ma part c'est cool C'que je dénonce, c'est qu'aujourd'hui encore l'esclavage existe Sauf qu'il est mental d'Afrique à outre-Atlantique bien et mal, j'suis armé jusqu'au cou J'ai l'savoir, rappelle-toi c'que disait Ministère Amer On veut m'faire croire que comme j'suis black j'ai pas l'droit aux premières places C'est dans l'bon sens pas dans l'sang que j'voulais faire mes classes Négro, j'viens me libérer d'mes chaines dans mes couplets J'veux voir droit et c'est ta mère que tu vas inculper J'suis sous l'emprise de la vengeance, tuons-les tous Et Dieu reconnaîtra les siens, brûlés par l'essence J'ai prié pour que le volcan d'haine se noie dans un fleuve de tranquillité Mais j'crois que l'Homme pour la paix n'est pas habilité Sourcils froncés, j'avance dans cette France Qui n'oublie pas de rappeler que j'suis pas d'la bonne couleur Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait1</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées You might also like On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
+          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Baccardi 2003 Diam's DJ Kost Vitaa Hey J'arrive avec flow, tout dans l'textuel, tue dans l'textile Me fais pas d'bile, ça suis dans l'sexuel, j'dirais même excellent ha ha Ancien briscard, j'reste sexy, le bruit court que j'suis un brusqueur On m'jalouse, j'ai du succès Vas-y arrête Tu sais qu'c'est avec moi qu'il faut tester, tout c'qui est sexe sauvage J'défie celle qui veut protester Vitaa, hey Faut qu'j'lui explique sans la faire bisquer J'ai peur de rien, eh, j'kiffe grave quand y a du risque Chérie, tu veux qu'on s'mette dans l'contexte? Pour faire quoi? Moi j'kiffe pas les bandits J'te donne du plaisir, j'suis pas là pour te vexer Juste pour l'sexe, tu crois qu'j'ai pas compris? Relax, j'me rattrape, si j't'ai mal indexée Pour m'avoir il faudrait qu'tu m'supplies Juste toi et moi, viens qu'on parle un peu de sexe J'veux pas d'toi, laisse tomber oublie You might also like Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Hey Vitaa, y a trop d'chiens dans l'coin Qui regarde ton body, qui veulent te aah dans l'coin Ils veulent ta bouche, tes seins, tes fesses, tes reins Et te disent bouge tes fesses sur le terrain Vas-y Vitaa, mets-lui un stop sur cette zik Stooooooop! Le genre de chien qui fait du lèche-vitrine en Belgique Elle sait qu'elle est sexy, elle sait comment les exciter Mais elle veut pas d'un mec qui a besoin d'aah pour exister Ooh ooh ooh Le gars s'approche de moi, me dit prends un verre Ooh ooh ooh Alors qu'y a trois secondes il insultait ma mère Ooh ooh ooh T'as pas compris tu veux p't-être que je réitère Vas-y Vitaa, te laisse pas faire J'te dis qu'j'suis pas pour toi, ferme les yeux mon frère Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Pourquoi t'insistes, tu vois bien c'est pas la même Envie qui m'anime Pourquoi t'insistes c'est pas la peine Sois gentil oublie Le genre de gars qui rêve de moi toute la nuit La serviette à coté d'son lit Il croit qu'avec sa Merco TDI Il pourra nous mettre comme ça dans son lit Je sais qu'tu veux mon body Tu crois qu'je sais pas qu'j'suis sexy Mais j'vois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Vitaa, Diams Baccardi Pit Family Brown Double Face 5 Tu l'sais DJ Kost Tu crois qu'tout est permis Quand tu vois son body J'crois qu't'as pas compris C'est elle qui choisit, remballe et oublie Ouais j'crois qu'c'est permis Quand j'vois son body Baccardi Et tu l'sais</t>
+          <t>Baccardi 2003 Diam's DJ Kost Vitaa Hey J'arrive avec flow, tout dans l'textuel, tue dans l'textile Me fais pas d'bile, ça suis dans l'sexuel, j'dirais même excellent ha ha Ancien briscard, j'reste sexy, le bruit court que j'suis un brusqueur On m'jalouse, j'ai du succès Vas-y arrête Tu sais qu'c'est avec moi qu'il faut tester, tout c'qui est sexe sauvage J'défie celle qui veut protester Vitaa, hey Faut qu'j'lui explique sans la faire bisquer J'ai peur de rien, eh, j'kiffe grave quand y a du risque Chérie, tu veux qu'on s'mette dans l'contexte? Pour faire quoi? Moi j'kiffe pas les bandits J'te donne du plaisir, j'suis pas là pour te vexer Juste pour l'sexe, tu crois qu'j'ai pas compris? Relax, j'me rattrape, si j't'ai mal indexée Pour m'avoir il faudrait qu'tu m'supplies Juste toi et moi, viens qu'on parle un peu de sexe J'veux pas d'toi, laisse tomber oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Hey Vitaa, y a trop d'chiens dans l'coin Qui regarde ton body, qui veulent te aah dans l'coin Ils veulent ta bouche, tes seins, tes fesses, tes reins Et te disent bouge tes fesses sur le terrain Vas-y Vitaa, mets-lui un stop sur cette zik Stooooooop! Le genre de chien qui fait du lèche-vitrine en Belgique Elle sait qu'elle est sexy, elle sait comment les exciter Mais elle veut pas d'un mec qui a besoin d'aah pour exister Ooh ooh ooh Le gars s'approche de moi, me dit prends un verre Ooh ooh ooh Alors qu'y a trois secondes il insultait ma mère Ooh ooh ooh T'as pas compris tu veux p't-être que je réitère Vas-y Vitaa, te laisse pas faire J'te dis qu'j'suis pas pour toi, ferme les yeux mon frère Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Pourquoi t'insistes, tu vois bien c'est pas la même Envie qui m'anime Pourquoi t'insistes c'est pas la peine Sois gentil oublie Le genre de gars qui rêve de moi toute la nuit La serviette à coté d'son lit Il croit qu'avec sa Merco TDI Il pourra nous mettre comme ça dans son lit Je sais qu'tu veux mon body Tu crois qu'je sais pas qu'j'suis sexy Mais j'vois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Vitaa, Diams Baccardi Pit Family Brown Double Face 5 Tu l'sais DJ Kost Tu crois qu'tout est permis Quand tu vois son body J'crois qu't'as pas compris C'est elle qui choisit, remballe et oublie Ouais j'crois qu'c'est permis Quand j'vois son body Baccardi Et tu l'sais</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Pit_Baccardi_songs.xlsx
+++ b/data/02_intermediate/cleaned_Pit_Baccardi_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les bidons veulent le guidon</t>
+          <t>On fait les choses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6 Alors ? Qui nest-ce vous cet nul, mademoisive et monsieur ? L'écho est où dans les bas des bois appelle à savancer ! Shaun Mac Irewick, drague-bref, pour les intérêts de MM.Jhon Jhamieson et Song, noté cent fin hundrick par ceuntrepôt sur ce quisquiquock nuiteux des douze apostrophes, mis par Jockit Mic Ereweak. Il mécomprick et aim pour am ollo du nombre trois d'eux et laissa ses libres ripostes naturelles à quatre d'eux dans leur propre désordre beauzartistique. 1. Quel insecondable formythe et recteur et maximoste faiseur de ponts fut le premier à s'élever plus grand par sa rame à pois que le bouaboababbaou bleugomme ou le gigantieux Séquoia Wellingtonia, vint en nudibottes avec des truissardes dans une liffeyette alors qu'elle était à peinue dans ses années de rigoulinures était bien connu pour clauder une chape de conciliation par dessus l'eiscir de son klax capot se silhouette un albert de chiourme seulenellement par dessus l'épulence de son bol en D pensait peser une nue tonne quand lui tomba là lap remière pomme, donna à chaque avalier de la nuit l'hideusesse du choix cointre les hiérectes et les deux mainries eut sept quelques filles sérébaines colorées successives sur le même grand rague blanc de jeval de penderrie est un Willbeforce en puissance à cette heure à la maison tel qu'il était païe en bruyère pompa le gverrue catholèche et choqua la boyne prodestugne hongra à sa propre faim dans un gri de jeune homme fouina fourrage à finq quand la rose à toute marchise alla s'inonder avec des tuteurs Hiriais ça rend le p 127 Corniais easé un vouchier de rotables, tribut de la route éleva beaucoup de beaux-fils à beaucoup de têtes pour une seule dautre bise se sexe t'il est trop poilant pour un poisson et a trop d'externe pour un insecte comme un cristal heptagone nous emprisome trues et fausses est d'un chic infini dans des induments malfichus une fois fut-il pelleté et une fois fut-il incendié et une fois fut-il inondré et elle le pendit dehors à la balie du bec a un cadran dans la tuile pour dire au cadet Toler gal oc'heure est-il offre des chances à Long encore mais se redresse pour Legge d'abord trouve du charbon au bout de sa herse des roses de mousse derrière les coutures fit un fart de sa posterne et écrivit F.E.R.T. sur son bucklier est maître-échappe-en-chef de toutes sortes d'houdineries s'il s'exharrode contre des barkers, avec l'élevé d'école il agit en whiteley fut évacué à la simple apparition de trois germhuns et deux fois assiégé par un essuisse de la zoomorphologie à l'omnianimalisme, il est broché par le tournis d'un coin de monnaie fait la tour, eddistoune parmi les délampés, jetant des rais cygnés sur la profondeur menace tonnerre sur les malefacteurs et envoie des murmures dans les froufrous des fraufraus quand Dook Hookbackcrook desseoit son cul aux bossoirs de beuverie ils se moquent et banquettent mais ils le huent de oos et baas son aas là quand ne servélut que Hunkett Plunkett, par sosannos et recherche une party chez une lady de cette cité business, lire des journaux, fumer le cigare, arranger des gobelets sur une table, manger des repas, plaisir, etcetera, etcetera, etcetera, plaisir, manger des repas, arranger des gobelets, fumer le cigare, lire des journaux, business, minéraux, laver et brosser, vues locales, toffee de juju, cartes comiques et d'anniversaire tels étaient les jours et il était leur héros averse rose dans le couchant, nuage rouge couché, sorrow du Sahara, déprouille de buf repasse Irène arraigné et atteinté, listé et lecté, plaidé et prouvé prencaisse son chèque au banc d'Indelétère et endouce son dostin à l'exit de chapelle cerveau des francs, main du chrétien, langue du nord commande à diner et appelle le bluff, a un blocage chez Morgen et un mal au chapeau tout l'après-nidi joue gehamerat quand il est ernst mais démisse mausey quand il est lustyg a marché aussi loin que la Tête où il s'assit en l'état comme le Crompion montre des traces de marques d'Anglais Primitif et une fenêtre de marigold avec des lumières de maniguiltes, un myrioscope, deux piscines remarquables et trois ambries qui valent bien d'être vues, des arches 128 toutes porticullisées et sa nef date des dartres est une horologe instoppable et la Benn de toutes les belles cloches fuit, isst et herit et bien qu'il soit mildiu souillu il est moulu caillu est un quercuss dans la forêt mais un membre de plein plan pour Mégalopolis puissant comme un monton, faunon à flotte fpied, planche dans notre plate-forme, blanche dans notre scouturne, cachetau, en carucats hi l'est énuméré, hantient comme un earl, il comte, phrase en esquisse d'esquif de mots au look de bug avec une forme comme les moments aisants d'un graminivore à nos dooms apporta loi, nos manoirs il en fit son vill, était un sursaumuré au sous-sol et acquedoucé pour les gorges ardentes envoie des garçons en socques toussant de coqueluche bafouilleuse quand il vaisse s'apuancer son coxyde de carbone et des chaussettes de soie montrent les formes de celle dont il abat le bas sur sa bine stocke de la pudre sèche pour les malades de l'Ill et des pellettes de pingkun pour tout le Pale lui donna son pied mondieux à Misérius, elle son pinçon à Anna Livia, la queue de cochon superfine là à Cérisia Cérosia et quid rides à Titius, Caius et Sempronius fit sentir à l'homme qui n'avait aucune notion des boutiquiers qu'il jouerait mieux le duc que le gentilhomme tira deux rieines et secoua trois châtonneaux quand il gagna au jeu de nains fumace à l'intérieur comme un stromboliste jusqu'à fumer par les deux bouts grain d'homme, semifier de lui, féhumanité, pietad ! montre une trainée blanche de neige parmi lexcrhowthance d'escourgeons de sa couronne et un chaperon de repentance sur ça doù coule sang, pause et quies, triple bulle alla en métro par la polis et puis plana au dessus aux trouveurs, ohé ! Oua, toi qui cherche ! que l'universaleté a rempleinie, chère pauvrie, dévorée hock mène du Rhin, cacao vient ensuite, emeri tente le drapeau peut danser la passe polière d'O'Bruine chez Noolahn sur l'accompaniment de son propre orchistrusse prit place devant la convention internaturelle des sages femmes catholiques et trouva strade devant le congrès pour l'étude des calamités endonationales fait une entrée délictueuse et finit tout le plat entre les douceurs et les savouries se défile des flounostics, flaire les fiftons et le fun de la frite sur le champ de foire enleva trois cent soixante cinq indoles pour qu'il installe un seul khalassal poules les hanives de l'espoir d'avoir des mâles l'hoolagh du déflaw, çui qui saisit, allumeur du feu paschal nous interdit nos traverseurs puisque nous l'avons entrée vé le phoenix soit son pyre, les cinères son sire ! empile du gros pelium sur les petits ossas comme les pilluls de hirculeads a un complexe didipus 129 et une aberration boislalie viandes à wurst pour les bouchés et cocardelaus pour les godillons quand il rame pour notre faveur il est trollement nôtre deux épousailles psychiques et trois désertions peut-être maintenant un metteur en fact, mais était alors un fouteur de magd Cattermole Hill, ex-montagne de chair fut élevée par le stress et coulée sous la strainte refile lui le tank, remercie le bien dank, tel le tailleur émaillant son fourgue-tout entoutcas pour un homme, mais brin de dé pour une cousette, culotte de peau, hurlotte de mots lettre muertte, un chante chant, une sylble un mot de traverse, une phrase avec surcesse tant que tient son levoitu les frêles failliront fut couvé chez Cellbridge mais éjoculé à l'étrange nicher tel qu'il put aux biguinnengues ainsi fini en une bataille de Boss Roderick, Roderick, Roderick, O, t'as pris la voie des Danes catalogué varieusement, regroupé régulièrement un jour de vacuance des enfants de la brousse, une réunissance de charlatin, un sabbableux de sorcerelles le même vise à perte d'uf homobruyéreux que quand sollyoeiy t'explosa avec légeaireté détonation réelle mais faux rapport spa mad mais inn saine demi émillien via bogus census mais un hausmann sans rue quand allphagannd est le mieur mhandieur de tous les andys et un point très alléghant pour te tomberle bombé met sa sécession hand main du nouveau patricius mais se plompe plebmatiquement sur les sacrés vieux siècles mange les huis ouverts et rute les porches clos certains le surnomment Rotshield et davantage le liminent Rockyfellow se montre mouche à chacun des demifoires mais réussaie à couvrir ceux qui le retracent sept colombiers couclament avoir été le pigeonheim de son homer, Smerrnion, Rhoebok Kolonsreagh, Seapoint, Quayhowth, Ashtown, Ratheny independant de la seigneurie de chamberlain, recknownedgeant la règle de Rome nous avons vu Ta ferme au Prine Utile, Domhnall, Domhnall remugle kif Illbelpaese et poriolèche kif l'ouïe d'Islande s'est logé à quot endroits, a vécu tot règnes prend un szumbath le weekend et pionce un wassarnap en rafreskement après un bon accès de balle au tabouret goûte Giroflée Giroflàa ce que Nevermore a manqué et Colomb a trouvé croit en chaque homme son propre goldien de but et en Afrique pour les noirrières l'arc de sa conduite était un plein quarante et ses moignons tirés à huitante le vante aux suc-en-ruisées la créatre la plus ancienne en Aryanie et regarde de haut la famille Suiss des Colleson qu'il appelle les nouvelles roches bien que son cur, âme et esprit se tourne vers les temps pharaoph éloignés, son amour, foi 130 et espoir colle au futuerisme de légères lève-la-jambe l'encensent souriantes depuis devant tandis que de rustres fronce le sourcil l'enjurent grommelants à son ultime arrière entre vouloutes et toilouloultime regare d'Éven même le Lug son pic a, le Luc sa pile boit tharr et wodhar pour son asama et mange l'imparoissable truie pour conjyrer le réglair rac les mendiants les mantellent reclins auprès de son tabourré de paddy, les plustituées lui faiblent de l'il en marchant de leur côté Christienmas à Loge de l'Avent, Nouvel ZélAn, après une carèmeuse maladie le roeverand Mr Easterling de pentecostite, sans suivants par requête, fanfare toute privée Autant l'y Attende la Gloire Balle, bulletiste mais Pas Encore Ici Maxwell, clerc a commédi sous des articles mais a phoeni un borgiesse de la cuve sur la bière par la bure asseyée de noir jusqu'à la butille de l'aubraille est A1 si haut mais Roh git sa racine s'est senti fil de fin myrtil dacrebaries là où tout lui était à pile ou bouffe comme petit jeunster de faillir fou de hoquets de beuverie où il avait jaugé l'ujage du raijon surréclame d'alimaux, das doles, rappe rustique, tam le trouble sas graine assez pour une simination mais poursuit les slips à la ruse apprit à parler de la main à la bouche jusqu'à ce qu'il puisse toquer l'oreille landée les yeux fermés a haqué sa route avec ses hichechocs m'aide il s'en est pendu dans l'ensuivi rialtos, annesleyg, binn et bals pour ne rien dire dit tout le cas de Neuf Comyn le luit de la lueur du brille du soleil à travers le sale de la crasse sur le rouge de la brique de la vile ville de Barnehum marronne saturné en file, certeints sont morts pour le tartaner, racine de rue, algue, fougère, cardère, cendre à savon, rossolis et cresson long gun mais pas pour coton tint l'assaut aigu de la famine mais crût de son corps de plus en plus l'anse il avait vingt quatre et quelques cousins germinant aux Etats-Unis d'Amérique et un homonyme avec une différence initiale dans le ci-devant royaume de Pologne son premier est une prime rose et son second Franco-Egyptien et son tout signifie un marasme chez Christie fors sa partie percée vint la femme de ses rêves, du sang épaissi puis de l'eau dernier négoce outremer épispécule de Clin de Look, orle dHoed toi et moi larniment surrentouré de brwns bldns Eline se flit polt flanc peut-êtle mais Hwang Chang ételnel lui celui fit l'un de vos boysd de la hautuyaute mais pipe l'imaginer fumer des clopes tout son ar temps de 131 vie Mont Mish, Mell de Moy eut deux aventures cardinales et trois capitoles sombrés, a l'épie dans son livre de poche et un paquebout quin à la patte V.B.H., B.L.G., P.P.M., T.D.S., V.D.B., T.C.H., S.D.N. lest Pète des jeunets, Longeur, Diener et Soupier comme les rues étaient pavées de froid il sentit son topperaire s'enseigna à patiner et apprit à tomber distinctement douteux mais plutôt désiré hisse cheftains éwehrtués, avec mordre Ostman Effendi, Serge Paddishaw baase d'ouble ccessif, expriame tous ses parisites premier des fenians, roi des fainéants sa Tiara de scones fut tenue pour une défaille emplissable jusqu'à ce qu'un Liam Fail l'afallât à Westmunster fut ébattu de son sittième alors qu'il râmait saulement à nous damasquer et à notre emprêchement appaulant apporta autant de plaies de Buddapest mit une tête d'allumette sur une vibre andonnée et mit le vivoir en feu garda lance du gourdin et gâcha l'éclair se maria en gâteaux et se remit punk avec plaisir jusqu'à ce qu'il soit enseveli comme il fut heureux et il fit résonner les welkines de Haut le Micawbre ! dieu en haut de l'escalier, charogne sur la paillasse la fausse capuche d'une toile d'échalas obstrue l'orée de la caverne de son invisibilité mais les oisillons qui animent l'écran de ses feuilles lui chantent un amour d'arbousies nous serrons les mains au dessus de son drap de guerre ensanglanté mais nous sommes entièrement liés par serment à son manteau vert notre ami viceloyal, notre foua sva râjyal sous les quatre pierres prêt de ses gaves qui évanissèrent le bol de wassail à la joie des écailles Mora et Lora ont une sacrée butte de bon temps à regarder de haut sa confusion jusqu'à ce que regard ferme de détermination, lance en avant et le pied de vent du curach éparpillassent le brumelac de Lego sur le dernier de ses champs nous avons assombri pour toi, trouveur de faute, l'année du deuil mais nous allons violoner la faible pétille de ceux que la fluante lumière morvine appele au trait du soleil ses pantalunes rayées, sa démarche plutôt étrange hereditatis columna recta, hagion chiton eraphon hoche val de tête pour le nonce, mais croasse ciao quand ils se montrent de lécunimitié est un équateur simultané dintegras élimbiné quand trois sur un est impropre par inspection a la pièce de capuche la plus conique de lhéronime confusianiste et cette achinechine tout tchufoueux quil a est comme un kungolou fourci aubourbe de Taishanboulé il est aussi gloptatif quun gazomètre de lithium et de luridité et il a fallu trois fois dix années annulaires 132 avant quil se saule autour du Circos Raggéant la pierre de cabas qui se cope de sa cavanie est une constante canine mais seul un émir ricain pourrait apparoximer lapeupréciosité de son alongement atlastique tatillonna droits et reliefts aux Dunes du Méchoir dans sa chasse de la wehrité tourse crue mais se finit avec les modéraides qui vinrent à lui dans Camlenstrete une hannibal en conflit exhaustif, un otho de retour corps brûlant à lair aigre sur la montagne mollissante dans la vague mugissante on entre en lui enfants endormis, on en sort batillonneurs à vie il se divestit pour sauver des Mmes Noyade leurs reines rivales tandis que Lugubre Bosquet, Fanfaron Bosquet et Course Bosquet se la faisaient avec ses habits dérobés on le taxe et on limpose, avec licence et imphase sa tête de pierre à trois faces a été trouvée sur colhillne white horse on en voit lempreinte de ses pieds costelleux au cercle dherbe du bouc tire laveuglette, péage le cher et appelle muet, piste svelte et pose saine Miraculone, Monstrucceline duploia la Création et du siffle shissa un charmeur de serpents doù elle avait ses séjours de hound se déchiéna en hanteur, hunter fut chiassé en fox harrier, marrieur, terrier, tav Olaph lHomme dOx, Thorker le Tourable tu sens quil est Vespasien pourtant tu penses à lui comme Aurélius whugamore, tradertory, socianiste, communiseur fit une attaque dété sur nos côtes et foudieu en eut tout son saouble, il descendit dabord Raglan Road et puis il abattit Marlborough Place le haut du Cromlech et la hill de Crommal étaient ses repose-pieds bien connus lorsque notre embardée comme butor se donna libre cours dans le Lubar quilaimé marescanalisa ses douves et délimita la conduite principale, réselée avant mordillage, esquisse à peine le tour de la scale, mais, grossé après les repas, pèse une tonne en ville-même Banba a prié pour sa conversion, Beurla regretté cette grande voix ancienne un Colosse parmi des choux, le Mélarancitron des fruits plus grand que la vie, plus preux que la mort Gran Turco, orege forment lachsembulger, leperléen létincelle de sa géniale fantaisie, la profondeur de sa calme sagacité, la clarté de son honneur sans tache, le flot de sa bienveillance sans limite notre fourbir de famille, le terniquet péagé de notre tribu de quelle louche était il invinciblé et cur fut-il burké a partitionné Irskaholm, uni les Irish prit un svig de son propre méthyre mais il avait le test un peu gorky et quant au saumon il lui remontait dessus toute sa vie comm, eilerdich, heclebruy et sawyer tu, wardien silent quabeille en miel, 133 raide comme souffle sur fhawckon, Costello, Kinsella, Mahony, Moran, bien que tu espères de toute corde Amrique ton autonhome rule glementeur est Dan sa figure à droite, il est treuillé par lescourbe de son cou hérissé, sa figuère à gauche, il est rationné en patties isobariques parmi léquipage on demande a til été emploisonné, on pense combien a til laissé ex-jardinier Riesengebirger, ajusté à de plantureuses existenciées à rendre Roseoogreedy dun tantinet petit tuyhose toiles tendues et dalots inondés mais la moirée noire au mack Liebsterpet fait mick de son aquascutum la joie quil prit aux femmes kaisses, le poids quil donna aux hommes guis sponsor dune scouade de pierceurs, allié à une horde de bleusailles à gueigneste léclair, lexplosion, le feu, la terremue, linondat, le tourbillon, la cambriole, le tiers parti, le pourri, la perte dencaisse, la perte de crédit, limpact de véhicules peut tempêter aussi grave que soupe à laqueue démie buf et désinvoleter aussi gai quun porto flip et inhésitant dans son unionisme et pourtant piggot nationaliste Sylviacola est effièrée de lui, Matrosenhosens nase la vanne exnibe les sinus de paix dans son coffre à tire-gloires fief ouf home, neuf cent trentuneuf ans de porte copie est toutidiennement ouvert au nom de la polémipolitique quand il nest pas fermé par fois solaires pour lamour de Janus suce léleaxir de la vie aux petits oignons aigres de la Juicive, et ruoulle en bouderies si un popelin décourt sur les Huguenots Boomsaport, Walleslee, Ubermeerschall Blowcher et Supercharger, Monsieur Ducrow, Mister Mudson, maistre gardinier pour lun il nest que panse et judex, pour lautre pète le feuyot et les johens hallucination, cauchman, ectoplasme passa pour le mouton noir de baabaa jusquà ce quil devienne blanc plein complaint complainement fut jouet drummatique par la fille de Mac Milligan et mis en musique par un grolle de barde tous les fitzpatrick de son émirat se souviennent de lui, les garçons de wetford le hailent babu sest indanifié au bour hommage et on la schenkt publiquement à brigstoll lui a donné la lumière dans des drises puièces dhorte et entumulé dans des triplex son similaire est en Terrecuite et il railla le reste à larqué en ciel lébriété, flouternité et qualité, son inverse fait vertu de nécessité tandis que son obverse a marre dune mère par invention arôda son plat-bord et il est le second impérial, dénoue les points, désécartèle et il est latte et plâtre invoque Toutchos quand il peut pas en appeler à Chacondnos basidens, ardree, kingsemma, rexregulorum se tint Dee dans la bouche, 134 puis recula à large bord sur Baulacleeva soit eldorado ou tholé ultime un kraal de fuadrufles feux, un crawl de finq pubs disposa des flagetitudes de laveries pour rech hausser ses ancêtres de famille et le double trouble plaidé ou des quittes quick pour faire chut aux rueurs jeta des galonnets de bon sort par dessus une épaule détrempée et dragonna les peoplades armées jusquaux dents le peps comme Gaudio Gambrinus, la grimabre comme Potter la Tombe as darts, deux des dés du damimonde, trouble de trèples, couartre de crueureau cumbrum, cumbrum, doubdoucinourcie, avant tamboum mais tré té uno penche la balance roula le rôle titre face à un embrasse de guirlandes en Argent sur lEcran mais fut séquencé de la pièce comme Croulebacq par les encore plus titulaires, Rick, Dave et Barry il peut y être aussi tôt que le vingt deux Mars mais à loccasion il ne sort pas avant le Virgintiquinque Germinal son nom indien est Hapapoosiesabjibway et son chiffre en arithmosophie est les étoiles de la charrue prit arme dans la province du pic et laissa lancer sa ligne sur lwickoute de langueel se meut en cicles viceux mais remiaue pareil les rats dégout blénissent ses abats tandis que les oiseaux du parc maudissent ses projecteurs Portobello, Equadocta, Therecocta Percorello il verse chez le borne mol habille le dur argent gagné rue Watling sa naissance se prouva accidentelle et montre à sa mort sa grave méprise nous amena une ivygne géante du pays des younkers et enflétrit Apostopolos à légaye de son gaël tout en étant satisfait que de douces brillantes filles pleines de jeunesse et sans parti sépanichonnent en belles jeunes femmes vétues de soie joyeuses et florissantes nest pas si ravi que des hommes lourds juronneurs sentant fort et les formes irrégulières extirpent des garçons actifs élégants bien mis et lil franc héraud de la foire féérie, à dismiche du blé marie ta tante et dote ton népos prête oreille mais fais chut, écrane le et vois le temps est, une archpiscoprique, le temps fut, une entrée de négociants la veilleuse bruisselée de quouate, léchelle échocottée par le chaland sa chute de pluie est dune paire de hauteurs de genou tandis que sa plus moyenne température dherbe marquait trois à lombre est le point de fonte de la neige et lendroit de bubblition de lalcool lutte touseul avec les trulles et puis se fait lui-même justice allusé dans les chapitres eschatologiques de Justesse des Jaipéralistes de Humphrey et pourchassé par les recenseurs thébains qui reniflent quil y a quelque chose derrière le Larve des Murés le roi était dans 135 son cornier revallé remelkant marc si muarrant, la reine était raide au port de bras se sentant faine et foirante, les maydelines cétait parmi les hawthours nà faire show de leur chausse, épimpreneller les arriètre gardes pompe ! et au fusil à pumpe eux va à tous ses prédicteurs il arrièrigea une pierre et pour tous ses comèteurs il planta un arbre quarante acres, soixante milles, bande blanche, bande rouge, mouille ses escadripodes dans lannacrwatter quoui a manqué la porter alors quo quil va faire car il voulait sasseoir pour Pimploco mais ils lont pris pour soutenir Sue ? Dutchlord, Dutchlord, nous surimpresse Headmound, roi et martyr, éclabousé du Levint, Pitre-le-Pore en Pétrin, Barth le Gret à lExchange se hestend vers les dames faisant vu et main noçante comme le prince dOrange et Nassau tandis quil a trinité lhissée derrière lui tel Bolbègre Bill le Bustoneux sourcil de coudrier flaque dobscur change les souffles bloqués en siffles blagués et un puits dArtésie en un oiseau dArabie lécrit à la main sur sa façade, les cryptyocondhoidsiphonotomata de ses exprussiens son point de naissance sétend au delà de lhérospont et son lopin dinhumance dans le plaisant petit champ est le plus vieyld kiosque sur la pléninsule et lhostel le plus dépansionné à Saint Scolarland a marché bien des centaines et bien des vingtaines de miles de rues et allumé mille et une lumières de nuit sur des hectares de fenêtres son grand manteau large recouvre quinze acres et ses petits chevaux blancs parent nos portes par douzaines O afflige la voile et maudis la barre qui ont été installées pour Mairie Quail ! soleil levun des huns va dare dare aux tartares, il y en a plein ici aujourdhui lequel répulsa de son éclarissement les bomboudres dOstenton et falchiona chaque flash en plongée soudaine profonde problème apersonnel, une énigme locative un qui est dressé, véhicule darcanisation dans les champs, gars gisant, fournisseur de crues de céliculation à travers ebblanes une part du tout comme un port to à cétacé Cher Hewitt Castello Ecuyer, sommes réjouris de notre sortie et nous appelons de nos regrets les étés indus de si tôt, de Rhoda Dundrums est au dessus du niveau du pépin et hors de la zone léguminifère quand des liens plus vieux vérouilleront des curs plus vieux alors il ressemblera elle peut être construit avec de la colle et des agrafes, gribouillé ou évidé sur un contrefort lexpress chante son histoire dans la nuit, le chant de notes dhirondelle sur sa portée de fils il rampe sur la vermine, il grouille de saggarts est aussi tranquille quune 136 mursquée, mais peut être aussi bruyant quune sonogogue fut Dilmun quand il eut un rendez-vous à la palme, et Mudlin quand fut tranchée la noix de son problème suce la saise, lappe laudes à laise, une lippe sur lap ouatrine et un cousselin sa glaise son porter a une étreinte puissante et ses baxters le boom du blanc large aussi loin que sèche le vent et mange la pluie et tourne le soleil et bondit leau, il est exalté et déprimé, rassemblé et écartelé va ten, nous sommes délusionnés, reviens, nous sommes disghostés forasa lOstrov, traversa dun bond lInferus, à la nage le Maboul et en volire la Moyle comme gras, comme suif à gras dhuililité, si fait dhuililité dégoulinante ne dit pas vieux au vieux, ni ne dit scorbutique au scorbutique il a fonduyé une maison, Uru, une maison à quoi il a assigné son sort porte un hraave geulant duiv sur fjeld éruza le halo de son varlet lorquil apparut à sa maîtresse-queue en Haycock, Emmet, Boaro, Toaro, Osterich, Mangy et Skunk pressa la bière dâge alé hors des orties de limpétuosité impute un toit à la cabane pour Hymne et un coq au pot pro home fut dapifère, puis pancircensor puis fortifex magnus les picoles qui rigolent sur lui, les copiles qui dégringolent de lui lève encore nos lièvres mais porte nos boucs paquebot de pochebook, coché de trafiacre darmes, lumière d'autredi, dur et déroutant dédable notre affreux père, Timour de Tortur puzzlant, choquant, même, perturbant alla en haletant du brugh du roi aux neuves customes, shôtant le gibbeux à chaque offense de toute taille avec le nouveau soupois de Pa et le nouveau levier de Papa il est le vieux coutelas de Papapa que Papapapa nous laissa quand vieux à jeune tête épaula et col moyenneux sâgea un peu, chaphéleur hareng équitodiennement, turgide tarpon la nuit voir Loryon le comaléon qui changea lhistoire endocrine en fermichant sa miche de quarante bannocks elle le rendit surdingue jusquà ce quil lui édrive ces cités les colombs pigeons soient perchant partout sur lui un jour sur le pont Basle et les plombs corbeaux lancent leurs sombres filets sur lui la nuit daprès derrière lArvre de Koenigstein tronf du rep comf du priv, prosp du pub son bois lhuisis est ideal si ses pieds sont en bourg belés glaise il sest créché dans le creux du park, à arbres abattus, en sessoarant dans le vaguum du phoenix, à pierres levées a lair dun verru de muantagne et le son dun gros mot la vue sur la moon taen, un peu de lumin pâle 137 autour dune lampe de succar en eau boinyne trois coups par patrickot en haut de blop à la selle fit des avances à Miss MacCormack Ni Lacarthy qui fit retraite avec Darly Dermod, brun esbrouffeur autrefois le diamant taillait le grenat aujourdhui le dammat taille le groanion tu peux le trouver au Florence mais guette le à lHôtel Wynns yaa là son arche et houy est sa voie deau et ciy gît son couïrbillard accalmé, proofondy Swed Albiony, le plus probable méchant de lendroit Hennery Canterel Cockran, eggotistres, limitisés nous thégustons notre taie et mute nos mites autour du pied monté de sadurne bâtit la kirk de Lund et détruisit la terre de la church qui devine son titre regripe ses faits chairche et jolies, rate rape et gars lhabile Juc de Wilysly Hugglebelly se Funniraille Kukkuk Kallikak entendu in camera et excrucié bon butin quand il est billetté de bancs, banni sil est brisé à la bucoupretourbique heavengendré, chaosfoedté, earthené son père le laboura présomptivement en profond surtemps et sa mère en toute évinçualité a dû faire sa part tue riante de travail une emprince du Mégacène, hetman éputé des cavales par Sablecautère honoraire capitaine de lextemporisée brigade du feu, quon rapporte quil est ami de la police la porte est encore ouverte, le collet de vieux stock revient sans oublier la fois où tu as ri des pantalons blantille-canard dElder Charterhouse et la façon que tu as dit que toute la ville pouvait voir ses jambes poilues par le vol du fichu lalbatresse quelle jurait en poupe à sa nuque à lui pendait quand sa bouilloire devint un âtresculdus nos thorstyites y mettaient leur lymphemphyre sa lettre annuelle concoctée par des mains de maître des essais, son poinçon imposé par le standard du plat ouvré une paire de pectoraux et un triple écran pour avoir in vent bobinard allume sa pipe avec un arbre à rosine et loue un cheval de touage pour haler ses chaussures est cure du scorbut de lesclavine, brise les bols des barons fut appelé à vendre de la poloche et fut trouvé plus tard dans une chambre à coucher a son siège de justice, sa maison de grâce, ses rès cornues copieuses et ses ryes en rangées prospecteur il a eu un rauque sache, rétrospecteur, il tient le halpon striqué gagna le joug de la liberté à nud york pour les esprits jougosclaves agit actif, démarche en passivisme et est un gorgon dauto-satisfrigidité verse la valeur dun rire de son illformation sur la valeur dune larme de sel entendit à demi le singule discours fiançaugurail que La Belle fila à son Grand Monte et entiéra sa vie durante 138 près de son âtre ain, se demandant sil était hébrieu mis aux himmeltons ou le chant vif argent des qwaternions ses problèmes sont peut-être finis mais ses doublèmes sont encore à venir le casier à homards qui a encrabé notre quille, le caninet de jardin qui a gaché nos pois coincés il se tient dans un parc charmant, la mer nest pas loin, les bourgs importuns de X,Y, et Z sont aisément outre atteints est une excroissance de lhumanité civilisée et quune verrue sur lEurope chansignes volonfaires au son sens é portante i vo rende tous ses mottes en fliche nuemaine vraiment pruraux et plusibles a des anneaux excisivement grands et est incoutumièrement parfumé sexcite pax il excoute le cléah xoupih dune thémix est un prince de la fingallienne en une hiberniade de hoolises a une mêle pour époù et un franchouilli pour le curriyer et un brabanson pour sa betteravière et un fritz quand il switch fut laissé sur le chemin dun parker et béshooté par un buckeley tire les lentilles quand il est tassi et lance les radiques flèches de Jacob, piécette après piécette, aux pauvres enfandonnés de la périsse lit les charmes de H.C.Endersen tous les seminimes du soir et les crimes dIvaun le Taurrible tous les durmanches matins te suavone le visage et se donne des claques quand il est badend possède le barril à bitures le plus massif qui ait jamais été tapis en perce dans le privace de lInn Mullingar est né avec une langue dargent nua dans la bouche et fit le tour de la côte dIrone à main hauche de la scène ne leva que deux doigts mais fusibla quil journerait pour lequel il est plus aisi de fonder un haut séant à Ebblannah que pour je ou tu de fendre un dubbelpaie à Dampsterdamp vivre avec quel est un gauchemaire à vie et connaître quel une éducation libérale fut plongé dans les Sointes Olives et chrêmé en Scentes Otooles houït cricket sur leterre mais ennoise la vie des prédikants tourne encore loreille du durc de Darius à celui qui est maintenant linfurioté de Dieu fit lHomme avec des saillies qui saccadent et mania la monnaie en maintes mains aime le pudding au sixop quand il rentre chez quui dans son doux chassoi a travenu toutes les ères de livaventure depuis la brandelune et la descente shampayée jusquaux clouts et à la porter en pouteille ouilaine prunier, hahnreich te althe, charge le sacant, trichard le tortième si une mandragore urlait aux convultures survivant enfin à sa naissance la cane savache sera lamente bitternelée à la résurrection du pourrieur perd poids dans la nuit lunique mais guirle la guirlande devend laube solaire avec une touche 139 de naturel mit en sourire un monde voilé et arriva à une feuille près de papier de soi de loption à trois geôles qui put voir dun blick un saumon pris à la lance, des chasseurs poursuivant un doeim, une nef de gorge à toutes voiles, une probe lange élevant une hostie fit face à la folle des années tel le vieux roi Cnut et volte face comme Cincinnatus est un</t>
+          <t>Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te chienter J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Voici le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Ton esprit mes mots vont teinter Sachez, fâché 1998 Mobebissi M.Y.S.T.I.K Mystik exactamente Le bled on fume la chose pire qu'un bedo blindé Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Même si je dérange, matramemch, on s'arrange, j'te connais Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe M.Y.S.T.I.K. Mystik exactamenté Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, appelle-moi meilleur Épelle le B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Je ne suis pas fâché que machin ait pompé mon style J'suis pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser à ma gloire Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon juice la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des pédés qu'ils produisaient Donc en tant qu'anti-pédé, ton côlon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas de mon pedigree, je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Aux ghettos français ma voix traverse le ciel Preuve d'un monde de cruauté car j'viens mettre mon grain d'sel Par habitude de tout niquer car soldat universel 9-8, l'année de la cuite sur une mission j'opère Mafia K'1 Fry derrière, calibré c'est pépère Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente jusqu'à la mort Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le darwaw pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour la illasse-ca Écoute ce style, écoute ma voix, tu sais qui je suis n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups d'high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier Masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as dix secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de micmac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le dawa pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour le Secteur Ä Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Baccardi Pit pour Time Bomb black mafia Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Tu peux pas test avec la Mafia K'1 Fry Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide 113 Bobal, rue Case-Nègre place des Fêtes Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Je hisse le drapeau du S. A. tréma Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Première Classe, Djimi Findus dans la place Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe J'en place une pour Sayd, Express D et la Sexion Yeah, calmement, calmement Pour ma Première Classe Lentement mais sûrement6</t>
         </is>
       </c>
     </row>
@@ -475,12 +475,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>On fait les choses</t>
+          <t>Si loin de toi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te chienter J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Voici le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Ton esprit mes mots vont teinter Sachez, fâché 1998 Mobebissi M.Y.S.T.I.K Mystik exactamente Le bled on fume la chose pire qu'un bedo blindé Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Même si je dérange, matramemch, on s'arrange, j'te connais Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe M.Y.S.T.I.K. Mystik exactamenté Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, appelle-moi meilleur Épelle le B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Je ne suis pas fâché que machin ait pompé mon style J'suis pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Time Bomb, Première Classe, pour le nord, sud, est, ouest Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Rappeur S.O.L.O. tu sais, c'est Pit au mic Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser à ma gloire Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon juice la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des pédés qu'ils produisaient Donc en tant qu'anti-pédé, ton côlon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas de mon pedigree, je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Aux ghettos français ma voix traverse le ciel Preuve d'un monde de cruauté car j'viens mettre mon grain d'sel Par habitude de tout niquer car soldat universel 9-8, l'année de la cuite sur une mission j'opère Mafia K'1 Fry derrière, calibré c'est pépère Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Appelle-moi Rohff, un soldat parmi des millions Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe 113 Clan, Mafia K'1 Fry, je représente jusqu'à la mort Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le darwaw pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour la illasse-ca Écoute ce style, écoute ma voix, tu sais qui je suis n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups d'high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier Masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as dix secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de micmac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On revient foutre le dawa pour les rates et les scarlas Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Hey, Ben-J Jacky déchirent pour le Secteur Ä Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Baccardi Pit pour Time Bomb black mafia Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Tu peux pas test avec la Mafia K'1 Fry Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide 113 Bobal, rue Case-Nègre place des Fêtes Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Je hisse le drapeau du S. A. tréma Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Première Classe, Djimi Findus dans la place Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe J'en place une pour Sayd, Express D et la Sexion Yeah, calmement, calmement Pour ma Première Classe Lentement mais sûrement6</t>
+          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
         </is>
       </c>
     </row>
@@ -492,12 +492,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Si loin de toi</t>
+          <t>NO PASARÁN - 20 rappeurs en 9'43 contre le RN</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
+          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
         </is>
       </c>
     </row>
@@ -509,12 +509,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>NO PASARÁN - 20 rappeurs en 9'43 contre le RN</t>
+          <t>Time Bomb explose !</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Les guerres, y a du monde pour les guider Pah, pah, pah, vite, y a personne pour les faire Faire, pah J'peux m'cramer pour mes idées Ouais, ouais, ouais, lui peut m'cramer pour mes frères Le doigt en l'air pour les cistes-ra Ouais, CNEWS dans l'angle mort Pah, pah, pah, pah Secousses et tremblements, fuck le Rassemblement Pah, pah, ouais Un pays, deux facettes, le revers d'la médaille Pah, pah, pah Sur toute la longueur d'la A7, faut qu'on rembobine la cassette Ouais, ouais La menace vient droit des cités Ouais, ouais, pah, ma gueule, on vote contre les porcs Jordan, t'es mort, Jordan, t'es mort Fianso Y a quoi dans l'coffre de la Benz ? La Benz Y a quoi dans la poche de ma veste ? Y a quoi ? Tout ça à cause de ma face, j'mange un contrôle d'faciès Brr Pour les p'tits frères, on s'inquiète, ils s'font tampon' en Vespa Veulent pas la paix mais la guerre, pour ça qu'les riches ne restent pas Yeah, j'propose un octogone à Bardella Ferme les frontières mais la dope remontera d'Marbella quand même Quand même Donc, ouais, c'est pour ça qu'je les ken, donc ouais, c'est pour ça qu'j'ai la peine Ouais, ouais Donc tous les jours fuck le RN, tu sais déjà c'est laquelle Rrrah On est pas différent mais faux différents, pas différent mais faut différencier Ouais Lève-toi, va voter, faut pas rester assis alors que c'est nous la France Ouais, ces bâtards, ils sont C'est nous Alors que c'est nous la France, ces bâtards, ils sont sciés Ouais Tes pensées racistes, va les mettre dans ton cul Ils vont péter un câble, j'vais voter à gauche mais c'est pas que pour la léga' du canna' Les gars du canna', ils ont tenté de nous sous-informer, fais pas genre t'as pas remarqué là T'as pas remarqué là J'fais la passe que vers la gauche, qu'elle soit en Crocs ou en Margiela Ou en Margiela J'suis pas les politiciens genre j'fais pas trop le Mandela Nan, nan Mais tout c'que j'sais, c'est qu'on vote pas Marine et baise la mère à Bardella Rrrah Pour être honnête, moi, j'ai jamais voté, j'suis de l'autre côté Les gars, je vote pas mais bon j'suis très étonné, leur programme, il fait pas rigoler Allez niquer vos mères, Marine et Bardella, bientôt, je me barre de là Le raciste en pause quand sur la compo' il va marquer les blazes de Grizou, Kanté, Barcola Anti-RN, t'façon tu les reconnais, des affiches déchirées devant l'collège Minot inconscient, j'insultais l'FN mais j'comprenais pas c'était quoi l'manège Donc tout l'monde veut faire l'ménage, La France, tu l'aimes ou alors dégage Des slogans supportez Bardella, j'suis qu'un porte-parole des mecs d'mon âge Y'a eu Kery avant moi, et Rockin' Squat avant lui Après moi, qui viendra ? Après moi, c'est pas fini J'rappe pour les quartiers de Marseille et les banlieues de Paname J'rappe pour tous ceux qu'on oublie dans les villages, les campagnes Soit tu l'aimes, soit tu la quittes, c'est souvent ce qu'on m'a dit Tu peux demander à mon ex, aujourd'hui, qui est la plus triste Les gars, faut se réveiller, quitte à mettre ses deux doigts dans la prise Parce que l'histoire se répète, ça sent le cramé dans la brise De base, moi j'connais rien d'tout ça, igo, hein J'suis d'la sale géné', moi, donc j'vais pas m'gêner, boy Déterrez Louis si vous voulez savoir pourquoi on en est là Déterrez Louis si vous voulez savoir pourquoi on en est là Leur projet, c'est d'nous faire croire que c'est eux les bons, han, han Leur projet, c'est d'nous faire croire qu'on est dans le faux Soixante J'comprends rien aux histoires, de toutes ces élections Mais j'sais qu'l'extrême droite se sert de ma déconnexion, donc anti-RN Faut choisir son camp, nique le hela, et comme eux, faut voter U.Z En bas du bloc, on nique le hela, et comme eux, on va voter Faut s'rassembler, voter comme quand t'achètes les albums Fort Faut faire les causes contre les fachos aç-comme On fait comme ça Faut pas s'laisser duper, c'est nous contre eux Si ça t'fait du pied, nique leur jeu, faut s'intéresser, c'est ça l'karaté J'connais pas Le Pen Marine, j'en connais une qui l'a pé-ta l'soir avec ses big narines Si les fachos passent, j'vais sortir avec un big calibre J'sors les canines, les p'tits niquent leur vie pour un peu d'dopamine Ils nous vendent des belles paroles cellophanées L'intérieur d'leur âme est fané, ils méritent de caner J'suis dans l'allée, j'revends c'qui fait planer J'me suis nourri tout seul comme un grand garçon Fuck , c'est tous des francs-maçons J'me suis endormi le 29 calé d'vant BFM J'me suis réveillé le 8 juillet, j'entends plus aucun bruit d'cross dans la tess comme si j'avais voté Le Pen Y a plus nos darons donc y a plus d'usines-sines, on n'est pas bons qu'à ramener la résine-sine J'ai la dalle mais y a plus d'c-gre, c'est Jumu'ah, y a plus d'mosquée Ça veut sauter la mixité Ah bon ?, sans dignité Ils oublient qu'Deschamps a gagné la Coupe du Monde avec des fils d'immigrés Des valeurs qui s'perdent, c'est l'bordel, j'suis obligé d'donner mon avis Celui qui veut renvoyer les dards-blé, dis-lui d'commencer par Tanguy David Le RN veut pas qu'j'traine avec le pote Maxime que j'connais depuis la récré' Nan J'ai fait un cauchemar, j'ai oublié d'aller voter Araï Ils s'plaignent de nos surs et d'nos mères mais eux-mêmes se voilent la face La jeunesse se lève pas voter, elle est scotchée sous frapasse Sous frappe Faudra s'bouger, ça va péter, on a l'avenir entre nos mains Hein Les racistes d'hier et d'aujourd'hui seront les députés d'demain Réel J'ai la triple nationalité, j'peux pas choisir entre les trois Trois J'y mets les tripes, frérot, j'm'agrippe, t'augmentes tes chances quand t'y crois Ça vend la frappe dans tous les bât', couleur des cheveux à Marine Ils pètent la cess et bectent la farine, c'était pour leurs narines Triple OG donne son avis mais t'es unhappy Général La France était vichyste, remerciez la Russie Bardella par-ci, Bardella par-là, qu'il se barre de là, ou pas Tout l'monde me parle de lui, hey, je suis borderline Général Un vieux loup ne suit jamais la meute, je n'voterai ni pour toi, ni pour toi La grosse douille, c'est d'avoir peur de c'qu'on ne connait pas Général Le monde est contrôlé par des illu-minés Général La vérité, j'sais plus avec quoi la faire rimer Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir Général, Général, Général Je n'enlève pas la boue, je marche sur le tapis J'm'en bats les couilles de c'que vous dites, vous n'arrêtez pas d'nous mentir J'recharge le Kalachnikov, en Louis Vuitton comme Ramzan Kadyrov Clique, clique Nique l'imam Chalgoumi et ceux qui suivent le Sheitan à tout prix Trogneux Marine et Marion, les putes, un coup de bâton sur ces chiennes en rut Vlan On continue la lutte, bientôt, on va célébrer leur chute Tchin Nique tous ces députés, on sait qu'ils manipulent les statistiques Menteurs Y a rien de magnifique, nous on fait de la violence artistique Sale Font du mal à nos enfants, ils veulent nous injecter une puce dans l'sang Antéchris DJ Kore le commandant, on vient pour projeter une vue d'ensemble Tounsi Des racistes en rafale, je sais que les médias en raffolent J'vois des corps au sol, l'être humain n'a plus d'corazón Espèce de franc-maçon, tu te nourris du sang qu'tu consommes Dans leurs ambassades, c'est le Sheitan qui les passionne Ouais, la France, c'est nous C'est nous, fuck Eric Zemmour Pas besoin d'chercher des rimes, ils tournent à l'heure du ftour Tu sais qu'c'est ça qui est terrible, ils nous font des longs discours La France, ça d'vient l'Amérique, peur qu'elle tombe après les deux tours Ils veulent tous faire un billard à trois bandes avec du sale et du moche Mais, parfois, ça foire, la boule noire atterrit dans la poche Quarante ans qu'on l'écrit, voilà, on en est là avec un seul candidat Jordannuel Macronardella Vingt piges de 11 septembre, de Syrie, d'attentats et de faits-divers miteux en boucle, tous les jours dans les médias L'État nous fait les poches, prend le fric, avec, on s'fait taper par les flics Et insulter en prime sur le service public C'est pas sur un scrutin, au quotidien, il faut combattre C'est pas un candidat, c'est les idées qu'il faut qu'on batte Les années 30 et leur odeur font leur comeback Normal que Sheytanyahou soit le blanc qui assure leur contact 2016, on était anti-racistes et pacifistes, avec les mêmes paroles, maintenant complotistes, antisémites Le monde penche à droite, et nos rêves, leur clan les ont pendus Rien n'a changé, j'préfère la main tendue au bras tendu Tant qu'y aura des Zemmour, des Bardella, ce genre de sbires, y aura d'quoi rapper La lumière est mise actif, donc vote, ça va déraper Le rassemblement doit être rationnel pas national L'argumentaire est sans équivoque pour nos intérêts Les urnes avant qu'ça brûle, ça urge alors ça hurle, l'histoire s'répète C'est la même chanson, la France, tu l'aimes ou tu la quittes Moi, j'kicke fort et prends position comme y a vingt ans Si tu restes neutre, attends-toi à vivre un sale printemps Fuck l'identitaire, jeunesse affiliée à dolf-A J'rappe pour les SDF habillés en coste-La On a franchi la ligne rouge comme Prada Linea Rossa La France est devenue un vivier à chos-fa Les bavures, tous ces policiers adorent ça Ils veulent nous karcheriser à l'eau froide ou nous carboniser à chaudes flammes Kalash' verbale, FAMAS oral, j'crache des balles sur flamme nationale Voter RN, c'est comme une FEMEN qui veut être femme à Soral Laissez-moi faire, on a la méthode, un il de moins pour le père à Marine Y a trop d'couleurs, oui, dans mon ghetto, nique les clones si l'FN arrive Chut ? Normal, j'dis c'que j'pense, alors ta gueule, j'ai mes distances Mais qui nous ressemble ? Qui nous rassemble ? On a des racines donc j'ai mes réseaux Les racistes votent, nous aussi et mon cur est en Palestine On reste fiers, c'est nos principes et mon cur est en Palestine On arrive élancés, on créé l'ouverture Yeah, on te met un but On a eu l'astuce, on te pose un huit, mais j'en veux toujours plus Ouais J'suis partout chez moi sachant qu'ils ont fait partouze chez moi Quoi ? J'suis étranger d'après des étrangers qui viennent de chez moi On m'a dit qu'j'étais un handicap, j'suis noir et fier comme tonton Nakk Réveille-toi, c'est dans nos pattes que l'ange de droite s'déguise en diable Ouais, ouais Tout marche à la peur, cousin, fais-toi pas avoir T'es au RSA, la vie est chère mais on nous montre du doigt Tss Ça part en couilles, fais ton job devant les urnes Ils veulent la guerre, il faut qu'ça dure, ce n'est qu'une marche avant la purge La douleur du Tennessee s'est immiscée dans cette missive J'ai niché au M-I-C, MC blessé dans l'hémicycle Jamais sous Hennessy, j'récite ma haine contre leur électorat Le rectorat pour ceux qui ont un cur dans l'thorax et sous le pectoral Bien sûr, c'est murement réfléchi que j'dis tous qu'tous les tags du RN doivent être suivis de NTM peint sur les murs Parce que ça reste le FN fondé par un Waffen-SS Et toi, tu vas voter ces merdes parce qu'on a jamais ess-essayé Jamais d'la vie on votera RN No Déjà, c'est une dinguerie, j'vote, dehors, y a tous mes potes qui s'démènent C'est les fils d'immigrés qui bossent Les fafs, ça fait dix ans, j'les fume dans toute la ville Aujourd'hui, c'est les urnes Mmh mais l'Front Populaire faut bien l'tenir dans toutes les ues-r Vive la Palestine d'la Seine au Jourdain, fuck Jordan, c'est une marionnette Venez, on ressort les baïonnettes, si la gauche passe, on fera des bails honnêtes Enfin, j'crois Sa mère, faut pas qu'ils passent, y a mon pote sous OQTF Casual Auteuil, baise les fafs, j'espère que t'as toutes les réf'2</t>
+          <t>Je n'suis pas un C.O.N, N.O.N ce n'est pas la peine De penser c'la de moi, en effet c'n'est pas B.O.N Je vous avoue de vous à moi Pas de timinik ici, sinon je fais appel à mon Posse Tous pour un et un pour tous La devise des boss Pas de pitié pour ceux qui veulent jouer les sales gosses Beaucoup de gens veulent m'offenser Sous pretexte que nous n'avons pas les mêmes pensées Je balance un missile Scud sur leurs têtes Espèce de bête J'ai pas le temps de me prendre la tête avec toi Ou bien tes idées mal placées Sâche que nos pensées sont pas compatibles Eh yo Jedi, lève le doigt y a quoi ? S'présente devant toi pourquoi Seul toi négro le sait, que la force soit avec toi Il faut, car les bon mcs n'épargnent pas les Mogwaï sans flow, moi et ma clique c'est chaud Pit brûle l'instru pour le m.i.c il faut, la technique de mal-Ka sur le beat y a pas de dégât Fonce, gronde, les faux ma clique on défonce tous les don-bi Ecoute moi ce LP Pleure sur Paris fiston Vise ma clique marque un point frère Je casse les watt, je passe Passe le mic à Sim fait peur donc trace vite Vite comme K2000, Pit a plus de tour qu'un vinyle dans son sac, sur le freestyle Eh yo papy laisse, l'union fait la force Donc prêts on dresse les guignols avec adresse folle Simsky Jedi, les Mogwaï y en a ras le bol freestyle Ecoute ce qu'on dit Time bomb gronde t'es tombé d'dans fils Time bomb explose! Combien de blessés fils? 10 MC's pour le 9.6 Time bomb explose! Combien de blessés fils? Difficile à dire mais des têtes vont tomber... Attention mon garçon j'espère qu'ton mental est vrai Comme Krylon mon esprit spray dans l'underground je vais C'est funkalistik, t'as changé d'niveau négro, mon design est parti dans ton cerveau Il y a 6 millions de façons de perdre la vie, une pour m'obtenir Tu l'as trouvé dghee, c'est mon maxi Mars à la caisse, j'ai la voix le texte remède pour lutter contre ton stress, ma brigade encaisse 9.6, dans le rap mon style est né comme la 8.6, destiné pour brûler aux degrés Hé fils, les rappeurs restent stoïques diront pas que je suis vrai hein, j'ai mon identité 1.9.9.6, B.2.O.B.A.L.I fils Partenaires en vice, dans le bain depuis 86 Les années passent et je continue à semer la zizanie La haine a mis en moi la maladie envers mes ennemis Trop de bluff comme au cinéma La jalousie colle à la peau des miens comme de l'eczéma Mais est-ce moi, ou est-ce toi qui fait le faux qui guète le dos de l'autre ? Si mon flow te gêne, rien à foutre de toi Lunatic sur la Time bomb Les plaies se tracent et les têtes tombent, et les têtes tombent C'est les Lunatic connard écoute les bitchs crier Booba A.L.I, microphone premier Trier les bons sur Time Bomb, les faux sont mis d'côté C'est d'la bombe boy, peut pas boycotter Superstar comme Group home, nique le trom Claque une Mercedes injection, 16s, couleur chrome Bad boy qu'est ce qu'on dit quoi Quand y a les condés Shoot ! Car j'ai la migraine, dès qu'j'entends les sirènes gronder Route, trace la vite, ou tu pourrais perdre ta famille Camille, Sébastien, les gosses et ton chien Vanille Time bomb, Lunatic, nouveau dans les rangs, un nouveau clan Pas racistes, même si y a pas d'blanc Au fait, j'ai eu d'la peine d'apprendre T'étais pas au courant depuis l'temps, bref, tu sais maintenant Cassidy des X en piste, teste les mcs Qui s'disent préparés pour balancer des lyrics neuf pour 9.6 Dans l'brouillard de Paris on s'confond Ainsi s'fondent les X Pour guer-lar des funk feelings façon Master Flex c'est X Qui vous remercie, Paris s'consume mais ne consomme que du X-men J'consomme autant de vibes qu'un Boeing du kérosène Tout les chemins mènent au pays du Kung-fu aie, c'est là que jaillit l'autre X pour te shawayi Un peu d'Hifi beaucoup d'effet, en fret j'fais ma course J'te livre un colis de flow, mille rimes bien ficelées En 20 secondes chrono, tu redoutes ma troupe Hill-G, Cassidy à qui je casse-dédi Te casse tes dix doigts, si ta tass' te dit de pas pé-cho le maxi Et qu'tu l'écoutes goûte, au caoutchouc des semelles de mes Timberland boots Jedi, Kamal, Pit, Simsky les flipettes se taillent dès qu'ils en ont l'occasion J'suis le faux con, c'est toi le vrai, paye cash et sans délai Les faux descendez-les, bandez-les puis pendez-les T'es laid comme un Mogwaï, d'ici à Hawaii un gremlin Un gremlin jusqu'au Kremlin, Hill-G traque le bati boy J'ai pas besoin de gens sah ou presque pour que mon fric aie l'flow J'compresse plus de disques qu'Elvis Presley n'a de graisse Garçon Sans raison, jlâche des flacons dflocon dflow sur les faux 12 mois 4 saisons Tattaques ? ah ouais ? Ton flow cest des gouttes deau sur mon K-way</t>
         </is>
       </c>
     </row>
@@ -526,12 +526,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Time Bomb explose !</t>
+          <t>Relève la tête</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Je n'suis pas un C.O.N, N.O.N ce n'est pas la peine De penser c'la de moi, en effet c'n'est pas B.O.N Je vous avoue de vous à moi Pas de timinik ici, sinon je fais appel à mon Posse Tous pour un et un pour tous La devise des boss Pas de pitié pour ceux qui veulent jouer les sales gosses Beaucoup de gens veulent m'offenser Sous pretexte que nous n'avons pas les mêmes pensées Je balance un missile Scud sur leurs têtes Espèce de bête J'ai pas le temps de me prendre la tête avec toi Ou bien tes idées mal placées Sâche que nos pensées sont pas compatibles Eh yo Jedi, lève le doigt y a quoi ? S'présente devant toi pourquoi Seul toi négro le sait, que la force soit avec toi Il faut, car les bon mcs n'épargnent pas les Mogwaï sans flow, moi et ma clique c'est chaud Pit brûle l'instru pour le m.i.c il faut, la technique de mal-Ka sur le beat y a pas de dégât Fonce, gronde, les faux ma clique on défonce tous les don-bi Ecoute moi ce LP Pleure sur Paris fiston Vise ma clique marque un point frère Je casse les watt, je passe Passe le mic à Sim fait peur donc trace vite Vite comme K2000, Pit a plus de tour qu'un vinyle dans son sac, sur le freestyle Eh yo papy laisse, l'union fait la force Donc prêts on dresse les guignols avec adresse folle Simsky Jedi, les Mogwaï y en a ras le bol freestyle Ecoute ce qu'on dit Time bomb gronde t'es tombé d'dans fils Time bomb explose! Combien de blessés fils? 10 MC's pour le 9.6 Time bomb explose! Combien de blessés fils? Difficile à dire mais des têtes vont tomber... Attention mon garçon j'espère qu'ton mental est vrai Comme Krylon mon esprit spray dans l'underground je vais C'est funkalistik, t'as changé d'niveau négro, mon design est parti dans ton cerveau Il y a 6 millions de façons de perdre la vie, une pour m'obtenir Tu l'as trouvé dghee, c'est mon maxi Mars à la caisse, j'ai la voix le texte remède pour lutter contre ton stress, ma brigade encaisse 9.6, dans le rap mon style est né comme la 8.6, destiné pour brûler aux degrés Hé fils, les rappeurs restent stoïques diront pas que je suis vrai hein, j'ai mon identité 1.9.9.6, B.2.O.B.A.L.I fils Partenaires en vice, dans le bain depuis 86 Les années passent et je continue à semer la zizanie La haine a mis en moi la maladie envers mes ennemis Trop de bluff comme au cinéma La jalousie colle à la peau des miens comme de l'eczéma Mais est-ce moi, ou est-ce toi qui fait le faux qui guète le dos de l'autre ? Si mon flow te gêne, rien à foutre de toi Lunatic sur la Time bomb Les plaies se tracent et les têtes tombent, et les têtes tombent C'est les Lunatic connard écoute les bitchs crier Booba A.L.I, microphone premier Trier les bons sur Time Bomb, les faux sont mis d'côté C'est d'la bombe boy, peut pas boycotter Superstar comme Group home, nique le trom Claque une Mercedes injection, 16s, couleur chrome Bad boy qu'est ce qu'on dit quoi Quand y a les condés Shoot ! Car j'ai la migraine, dès qu'j'entends les sirènes gronder Route, trace la vite, ou tu pourrais perdre ta famille Camille, Sébastien, les gosses et ton chien Vanille Time bomb, Lunatic, nouveau dans les rangs, un nouveau clan Pas racistes, même si y a pas d'blanc Au fait, j'ai eu d'la peine d'apprendre T'étais pas au courant depuis l'temps, bref, tu sais maintenant Cassidy des X en piste, teste les mcs Qui s'disent préparés pour balancer des lyrics neuf pour 9.6 Dans l'brouillard de Paris on s'confond Ainsi s'fondent les X Pour guer-lar des funk feelings façon Master Flex c'est X Qui vous remercie, Paris s'consume mais ne consomme que du X-men J'consomme autant de vibes qu'un Boeing du kérosène Tout les chemins mènent au pays du Kung-fu aie, c'est là que jaillit l'autre X pour te shawayi Un peu d'Hifi beaucoup d'effet, en fret j'fais ma course J'te livre un colis de flow, mille rimes bien ficelées En 20 secondes chrono, tu redoutes ma troupe Hill-G, Cassidy à qui je casse-dédi Te casse tes dix doigts, si ta tass' te dit de pas pé-cho le maxi Et qu'tu l'écoutes goûte, au caoutchouc des semelles de mes Timberland boots Jedi, Kamal, Pit, Simsky les flipettes se taillent dès qu'ils en ont l'occasion J'suis le faux con, c'est toi le vrai, paye cash et sans délai Les faux descendez-les, bandez-les puis pendez-les T'es laid comme un Mogwaï, d'ici à Hawaii un gremlin Un gremlin jusqu'au Kremlin, Hill-G traque le bati boy J'ai pas besoin de gens sah ou presque pour que mon fric aie l'flow J'compresse plus de disques qu'Elvis Presley n'a de graisse Garçon Sans raison, jlâche des flacons dflocon dflow sur les faux 12 mois 4 saisons Tattaques ? ah ouais ? Ton flow cest des gouttes deau sur mon K-way</t>
+          <t>La pauvreté intellectuelle n'est pas l'privilège du Ghetto En matière de connaissances, chacun sa part du gâteau Démarche individuelle, désir de s'élever Soif de comprendre et d'apprendre sur le chemin de la vérité Ouais c'est sûr dans la vie, y'en a plusieurs des écoles Réfléchis si tu choisis celle du mensonge et du vol C'est pas être un bidon que d'ouvrir un bouquin Sur les chemins du savoir, tu réaliseras ton destin Jeune homme deviens c'que tu es, pas c'qu'ils veulent que tu sois Un habitué du drame avec une arme pour seul accessoire S'faire tuer à l'adolescence n'a rien d' funky Les vrais calibres sont la foi et la connaissance Ne jamais prostituer son âme, je cite Y'a pas d'couleur qui t'dévie d'la route de la réussite Faut savoir qui tu es, rester vissé Ne maudis pas l' trou où tu tombes mais c' qui t'y a poussé Prends mon couplet comme un message, sois attentif Puis éteins dans l'cendrier ton spliff J'suis pas venu, pour t'faire un speech, mais t'faire un peu gamberger Relève la tête, arrête de jouer la belle et toi la bête, car un jour tout s'arrête De nos jours ça va de plus en plus vite Trop d'frères et soeurs agissent dans l' vide, s'engrainent et s'incitent Pense un jour quand même, gros, à tourner la page Sur ton passé et à relever la tête pour ça y'a pas d'âge Pour toutes ces mères qui nous ont mis au monde Tous ces darons, les mains blessées par toutes ces années d'un travail immonde Tous leurs sacrifices qu'on est trop cons pour voir jeunes Est-ce qu'ils nous ont appris l' respect avec un gun ? Non ! Tu préfères être craint ou préfères être aimé A force de tester, si tu savais combien sont décédés Fais l'analyse de toi seul et de ton avenir Relève la tête et bats-toi pour le devenir Skarla, cesse de t'apitoyer sur ton sort Relève la tête, regarde, non ça c'est pas mort Dis-toi, celui qui veut s'en sort Sors du ghetto et de ses mauvais sorts Tu sais t'as l' choix, ta vie est c' que tu en fais Gâcher un avenir, à l'arrivée ça fait trop mal Man, mon message vient du cur Passe-le aux frères et surs, Blacko vient chanter J'viens redire c'que j'ai toujours dit, depuis déjà dix ans C'est Disiz alias Fifty CFA le tigen Sois libre ou meurs en essayant d' l'être J'glorifie les vrais, celui qui bute l'école j'suis avec toi t'inquiète J'ai traîné mes guêtres, fier d'être à la quête Du bien-être de nos êtres, je veux être A l'image de Malcolm, Martin ou Gandhi Pas de Tony, j'aime mes semblables et je l'redis A force de rien faire, la galère a touché tant d'frères Pourquoi pas avancer entre nous et monter des entreprises comme Tang frères On n'a rien eu comme héritage, juste des murs de béton Même après l'échec, jamais laisser béton Parti du bas faut viser l'haut, voilà à quoi nos efforts servent Jamais tomber en faillite comme Corsair Nos écrits ont un message C'est pour ça qu'on les partage Du même cru, du même vécu, jouer au-dessus, sortir d' la rue C'est la ruée, et on craint plus personne avec nos Ericson Nul n'est parfait c'est vrai, comme le respect à son parfum La force c'est l'intérieur pas juste le coup d' parpaing Les mêmes tensions nous animent, le même instinct animal Les mêmes embrouilles, le même refrain la vie est brutale La défense dans l'système ne s'écrit pas foncedé La force c'est faire obstacle, résister, croître et exceller Parce qu'on nous enlève la chance du départ Plus fort on veut croire On sait que l'on vient de loin Même s'ils prennent tes rêves pour leur pire cauchemar Garde en toi l'espoir on choisira nos chemins J'brise la glace, Elo vibe, le rap c'est l'message Donc j'lève mon poing pour les sages Ex-sale gosse, tourne la page, Africain dans l'âme Big up à tous les jeunes qui font des études et tafent Vaut mieux un bon CV qu'un gros gun, car l'gun s'enraye Alors qu'un bon métier te met sur de bons rails Évitez les problèmes les frères La force d'un homme c'est l' cerveau et pas l'révolver J'viens dire aux mômes qu'y a pas qu'le bussiness pour être dans l'élite Les types s'laissent mourir dans les maux, disant que le monde est stone J'ai peut-être que la maîtrise de rimes pas du genre lève tôt Mais aujourd'hui j'peux m'écarter quand se serre l'étau Juste dire, qu'ils vivent mieux, mais on n'a rien d'moins Faire tourner la machine, qu'ils voient cette mine d'or, que cache le ghetto Lève-toi, bats-toi ça reste l'hymne Arrêtons d'subir, nous sommes les futurs leaders Trop de départs, que Dieu bénisse les naissances Que les jeunes qui m'écoutent donnent à leur vie un vrai sens Africaine tragédie, le monde est resté stoïque L'oppresseur prend son temps pour établir notre vérité historique Même sans perche tendue Que les jeunes du ghetto relèvent la tête, c'est pas défendu Issu des quartiers t'as trop d'poids sur les épaules Garde bien les pieds sur terre et évite la taule Ghetto, enfants du Ghetto À vous est dédié ce morceau On vient d'en bas et on veut monter là-haut J'ai brisé mes chaînes et scié les barreaux Celui qui n'veut rien faire, trouvera toujours une excuse pour s'endormir Celui qui veut y arriver trouvera toujours un moyen pour s'en sortir J'suis pas du genre à être cool, avec un jeune irrespectueux Qui roule des mécaniques et pense que l'X c'est affectueux Jeune relève la tête, même ton cur est défectueux Des applaudissements quand tu sors du cardpla c'est ça qu'tu veux N'essaie pas d'aller plus vite que la musique Aie confiance, prends ton temps ça t'évitera la misère Des galères auxquelles, tu n' devrais même pas être confronté Relève la tête, c'est la meilleure façon d'remonter, yo ! Pousse le poste de l'auto à son maxi Que le monde entende le message d'un simple mort en sursis Seule notre fortune fait notre différence Dans l'fond on est les mêmes, pour un million d'raisons différentes J'suis venu dire qu'un homme, un vrai choisit toujours Et qu'il est prêt au pire quand c'est l'honneur de la famille qui se joue Que dès qu'un gosse se goure, dégun court à son secours Que 6 millions d'personnes vivent dans la pauvreté à ce jour Que les jeunes montent leur structure D'une signature, comme l'Africaine armure Si tu m'écoutes pas, tu vas foncer tout droit dans l'mur A coup sûr, c'est d'la prévention, attache ta ceinture Tu veux être le boss réussir, poursuis tes études Ça c'est d'la valeur sûre frère Fais bien tes calculs garde les pieds sur terre Dans tous les sens, cherche à toucher ta conscience Nos vies sur terre, brûlent dans l'feu de l'insouciance Toi le jeune du ghetto, relève la tête La rue fait mal tu le sais, elle t'a fait tomber bien des fois Tu vis des trucs de dingue Croque dans la vie à pleines dents, fais-le, étudie en solo Yo, j'veux des intellos Jeune prodige du ghetto ? jeune prodige du ghetto ! Je voudrais des gars opés pour science-po Au sommet, pour mon ghetto J'fais partie de ces jeunes perdus, que le monde bute à plate couture Que le monde torture à coup de bombes et d'coups durs Mais tu crois quoi ? Quand le mal te hante t'es mal Quand t'es seule et qu'tu l'comprends, tu te mens, t'es là, seule Face à toi-même, tu penses à ta mère, tu penses à ta foi Car t'es seule face à ta perte comme chaque soir Jeune fille, dépressive, trouve-toi une idée très précise Pour avancer quand les esprits se rétrécissent Reste digne mais teigneux Fais mieux, puis fais-le, trop d'âmes vénéneuses et d'esprits haineux Cette haine me désole elle nous fait stagner en D2 Trop d'esprits dégueus, mon seul vu c'est de voir le cessez l'feu On a la même chance qu'eux, sache-le On a pris tant de bleus, mais tant mieux, à force on défiera les envieux C'est quand tu veux, je me lève à chaque épreuve Et lorsque les coups pleuvent je ne puis m'empêcher de m'en remettre à Dieu C'est pour mes petits frères, cachés dans un coin en train d'boire En train d'croire que l'échec c'est plein d'arabes et plein d'noirs Préfère respecter les caïds que leurs darons Plus speed que Christine Aron, tout l'monde debout comme Nég marrons J'veux voir des skarlas juges, avocats ou docs Pour nous y'a pas qu'le ciné le foot le crime et le hip-hop J'me suis perdu sans réfléchir dans les sentiers Relever, pour honorer mon daron sur les chantiers Frangin, il faut monter ta garde rester un homme fort Frangin, t'instruire et ne pas toujours traîner dehors Frangin, pense aux plus jeunes qui te voient en modèle Relève donc la tête Sors tes griffes si tu montes, grand Sors les contrats, comprends vite Que c'est arrivé tout en haut qu'on t'pend Si t'as pas d'bon sens, fais-toi aider compense L'ascension sociale, nécessite une prise de conscience Et si tu déclines l'invite N'oublie pas d'ôter les épines, des roses cueillies bien vite Ici bas c'est l'principe, j'ai pas d'preuve mais j't'incite A pas croire que l'échec puisse faire partie d'un rite, parce que c'est pas vrai... OK, j'veux qu'les jeunes de tess relèvent la tête On n'est pas condamnés à l'échec C'n'est pas une fatalité, les jeunes de cité eux aussi peuvent y arriver Avec 2 fois plus de volonté on peut grimper et parvenir jusqu'au sommet2</t>
         </is>
       </c>
     </row>
@@ -543,12 +543,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Relève la tête</t>
+          <t>24 heures à vivre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>La pauvreté intellectuelle n'est pas l'privilège du Ghetto En matière de connaissances, chacun sa part du gâteau Démarche individuelle, désir de s'élever Soif de comprendre et d'apprendre sur le chemin de la vérité Ouais c'est sûr dans la vie, y'en a plusieurs des écoles Réfléchis si tu choisis celle du mensonge et du vol C'est pas être un bidon que d'ouvrir un bouquin Sur les chemins du savoir, tu réaliseras ton destin Jeune homme deviens c'que tu es, pas c'qu'ils veulent que tu sois Un habitué du drame avec une arme pour seul accessoire S'faire tuer à l'adolescence n'a rien d' funky Les vrais calibres sont la foi et la connaissance Ne jamais prostituer son âme, je cite Y'a pas d'couleur qui t'dévie d'la route de la réussite Faut savoir qui tu es, rester vissé Ne maudis pas l' trou où tu tombes mais c' qui t'y a poussé Prends mon couplet comme un message, sois attentif Puis éteins dans l'cendrier ton spliff J'suis pas venu, pour t'faire un speech, mais t'faire un peu gamberger Relève la tête, arrête de jouer la belle et toi la bête, car un jour tout s'arrête De nos jours ça va de plus en plus vite Trop d'frères et soeurs agissent dans l' vide, s'engrainent et s'incitent Pense un jour quand même, gros, à tourner la page Sur ton passé et à relever la tête pour ça y'a pas d'âge Pour toutes ces mères qui nous ont mis au monde Tous ces darons, les mains blessées par toutes ces années d'un travail immonde Tous leurs sacrifices qu'on est trop cons pour voir jeunes Est-ce qu'ils nous ont appris l' respect avec un gun ? Non ! Tu préfères être craint ou préfères être aimé A force de tester, si tu savais combien sont décédés Fais l'analyse de toi seul et de ton avenir Relève la tête et bats-toi pour le devenir Skarla, cesse de t'apitoyer sur ton sort Relève la tête, regarde, non ça c'est pas mort Dis-toi, celui qui veut s'en sort Sors du ghetto et de ses mauvais sorts Tu sais t'as l' choix, ta vie est c' que tu en fais Gâcher un avenir, à l'arrivée ça fait trop mal Man, mon message vient du cur Passe-le aux frères et surs, Blacko vient chanter J'viens redire c'que j'ai toujours dit, depuis déjà dix ans C'est Disiz alias Fifty CFA le tigen Sois libre ou meurs en essayant d' l'être J'glorifie les vrais, celui qui bute l'école j'suis avec toi t'inquiète J'ai traîné mes guêtres, fier d'être à la quête Du bien-être de nos êtres, je veux être A l'image de Malcolm, Martin ou Gandhi Pas de Tony, j'aime mes semblables et je l'redis A force de rien faire, la galère a touché tant d'frères Pourquoi pas avancer entre nous et monter des entreprises comme Tang frères On n'a rien eu comme héritage, juste des murs de béton Même après l'échec, jamais laisser béton Parti du bas faut viser l'haut, voilà à quoi nos efforts servent Jamais tomber en faillite comme Corsair Nos écrits ont un message C'est pour ça qu'on les partage Du même cru, du même vécu, jouer au-dessus, sortir d' la rue C'est la ruée, et on craint plus personne avec nos Ericson Nul n'est parfait c'est vrai, comme le respect à son parfum La force c'est l'intérieur pas juste le coup d' parpaing Les mêmes tensions nous animent, le même instinct animal Les mêmes embrouilles, le même refrain la vie est brutale La défense dans l'système ne s'écrit pas foncedé La force c'est faire obstacle, résister, croître et exceller Parce qu'on nous enlève la chance du départ Plus fort on veut croire On sait que l'on vient de loin Même s'ils prennent tes rêves pour leur pire cauchemar Garde en toi l'espoir on choisira nos chemins J'brise la glace, Elo vibe, le rap c'est l'message Donc j'lève mon poing pour les sages Ex-sale gosse, tourne la page, Africain dans l'âme Big up à tous les jeunes qui font des études et tafent Vaut mieux un bon CV qu'un gros gun, car l'gun s'enraye Alors qu'un bon métier te met sur de bons rails Évitez les problèmes les frères La force d'un homme c'est l' cerveau et pas l'révolver J'viens dire aux mômes qu'y a pas qu'le bussiness pour être dans l'élite Les types s'laissent mourir dans les maux, disant que le monde est stone J'ai peut-être que la maîtrise de rimes pas du genre lève tôt Mais aujourd'hui j'peux m'écarter quand se serre l'étau Juste dire, qu'ils vivent mieux, mais on n'a rien d'moins Faire tourner la machine, qu'ils voient cette mine d'or, que cache le ghetto Lève-toi, bats-toi ça reste l'hymne Arrêtons d'subir, nous sommes les futurs leaders Trop de départs, que Dieu bénisse les naissances Que les jeunes qui m'écoutent donnent à leur vie un vrai sens Africaine tragédie, le monde est resté stoïque L'oppresseur prend son temps pour établir notre vérité historique Même sans perche tendue Que les jeunes du ghetto relèvent la tête, c'est pas défendu Issu des quartiers t'as trop d'poids sur les épaules Garde bien les pieds sur terre et évite la taule Ghetto, enfants du Ghetto À vous est dédié ce morceau On vient d'en bas et on veut monter là-haut J'ai brisé mes chaînes et scié les barreaux Celui qui n'veut rien faire, trouvera toujours une excuse pour s'endormir Celui qui veut y arriver trouvera toujours un moyen pour s'en sortir J'suis pas du genre à être cool, avec un jeune irrespectueux Qui roule des mécaniques et pense que l'X c'est affectueux Jeune relève la tête, même ton cur est défectueux Des applaudissements quand tu sors du cardpla c'est ça qu'tu veux N'essaie pas d'aller plus vite que la musique Aie confiance, prends ton temps ça t'évitera la misère Des galères auxquelles, tu n' devrais même pas être confronté Relève la tête, c'est la meilleure façon d'remonter, yo ! Pousse le poste de l'auto à son maxi Que le monde entende le message d'un simple mort en sursis Seule notre fortune fait notre différence Dans l'fond on est les mêmes, pour un million d'raisons différentes J'suis venu dire qu'un homme, un vrai choisit toujours Et qu'il est prêt au pire quand c'est l'honneur de la famille qui se joue Que dès qu'un gosse se goure, dégun court à son secours Que 6 millions d'personnes vivent dans la pauvreté à ce jour Que les jeunes montent leur structure D'une signature, comme l'Africaine armure Si tu m'écoutes pas, tu vas foncer tout droit dans l'mur A coup sûr, c'est d'la prévention, attache ta ceinture Tu veux être le boss réussir, poursuis tes études Ça c'est d'la valeur sûre frère Fais bien tes calculs garde les pieds sur terre Dans tous les sens, cherche à toucher ta conscience Nos vies sur terre, brûlent dans l'feu de l'insouciance Toi le jeune du ghetto, relève la tête La rue fait mal tu le sais, elle t'a fait tomber bien des fois Tu vis des trucs de dingue Croque dans la vie à pleines dents, fais-le, étudie en solo Yo, j'veux des intellos Jeune prodige du ghetto ? jeune prodige du ghetto ! Je voudrais des gars opés pour science-po Au sommet, pour mon ghetto J'fais partie de ces jeunes perdus, que le monde bute à plate couture Que le monde torture à coup de bombes et d'coups durs Mais tu crois quoi ? Quand le mal te hante t'es mal Quand t'es seule et qu'tu l'comprends, tu te mens, t'es là, seule Face à toi-même, tu penses à ta mère, tu penses à ta foi Car t'es seule face à ta perte comme chaque soir Jeune fille, dépressive, trouve-toi une idée très précise Pour avancer quand les esprits se rétrécissent Reste digne mais teigneux Fais mieux, puis fais-le, trop d'âmes vénéneuses et d'esprits haineux Cette haine me désole elle nous fait stagner en D2 Trop d'esprits dégueus, mon seul vu c'est de voir le cessez l'feu On a la même chance qu'eux, sache-le On a pris tant de bleus, mais tant mieux, à force on défiera les envieux C'est quand tu veux, je me lève à chaque épreuve Et lorsque les coups pleuvent je ne puis m'empêcher de m'en remettre à Dieu C'est pour mes petits frères, cachés dans un coin en train d'boire En train d'croire que l'échec c'est plein d'arabes et plein d'noirs Préfère respecter les caïds que leurs darons Plus speed que Christine Aron, tout l'monde debout comme Nég marrons J'veux voir des skarlas juges, avocats ou docs Pour nous y'a pas qu'le ciné le foot le crime et le hip-hop J'me suis perdu sans réfléchir dans les sentiers Relever, pour honorer mon daron sur les chantiers Frangin, il faut monter ta garde rester un homme fort Frangin, t'instruire et ne pas toujours traîner dehors Frangin, pense aux plus jeunes qui te voient en modèle Relève donc la tête Sors tes griffes si tu montes, grand Sors les contrats, comprends vite Que c'est arrivé tout en haut qu'on t'pend Si t'as pas d'bon sens, fais-toi aider compense L'ascension sociale, nécessite une prise de conscience Et si tu déclines l'invite N'oublie pas d'ôter les épines, des roses cueillies bien vite Ici bas c'est l'principe, j'ai pas d'preuve mais j't'incite A pas croire que l'échec puisse faire partie d'un rite, parce que c'est pas vrai... OK, j'veux qu'les jeunes de tess relèvent la tête On n'est pas condamnés à l'échec C'n'est pas une fatalité, les jeunes de cité eux aussi peuvent y arriver Avec 2 fois plus de volonté on peut grimper et parvenir jusqu'au sommet2</t>
+          <t>Mon chéri embrasse ton père, embrasse moi Mon cur se lace, enlace moi une dernière fois Hélas, celui que tu aimes part, comme d'hab Quelle ironie du sort, je sors par la petite porte Mon petit, porte ce mot d'amour à ta mère 24 heures à vivre c'est court, merde C'est que je veux que tu te rappelles ces matins Où on matait Aladdin sur le sofa tous les deux J'ai voulu pour toi ce que j'ai pas eu Sans parler de luxe, le minimum, je sais pas J'ai à peine vu ta sur, c'est pas juste Tu leur diras que 'pa est parti au ciel trop tôt Je te laisses que ça ces deux, trois disques et quelques photos Moi, je veux pas que tu penses des il m'a jamais dit je t'aime Je te le dis à chaque mot de ce poème pour que tu te souviennes Et si je pouvais, je t'écrirais des lettres pour que tu comprennes Chaque jour combien t'aimais papa, comme si j'étais là Bébé, ferme la porte après ma dernière voix A ce moment précis, ma vie est déjà derrière moi Mais qui veut me nettoyer du terrain ? C'est la seule raison qui m'aide à me lever le matin Mon but, prendre le butin, faire bouger les putains Plus que 24 heures à vivre, le temps avant j'en bute un Dans ce putain de pays faut que je meurt sur une scène sûrement Situation extrême, je t'embrasse m'man, garde le sourire aux lèvres J'ai un froissement au cur mais faut que j'y aille Sur moi on porte des jugements sans remord C'est juré, maintenant je représente jusqu'à ma mort Dédié pour FF à l'instant même, cette sensation unique me gêne Mais je vous aime tous autant que vous êtes Sans mon quartier en tête, j'en serais pas là Alors je la ferme pas, je le vante Même s'ils sont pas là, plus rien à faire j'hésite pas Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Né le 7-2, pour s'qui reste, j'reste un envieux Matricule Free, pas beaucoup d'temps, ça urge J moins 1, première chose qui m'passe par la tête Braquer une banque, l'instinct de dernière minute Trop un rêve d'enfant qui s'réalise, partir sans valise Avec mes potes, yacht, défilé d'keh avec des spots Hella, cuit, tant qu'à faire blinder la famille Pour eux, studio plein, Miami Cela dit j'reste conscient, c'que j'dis ça a plus d'importance Le temps avance et rien ne va plus Le Diable au dessus d'ma tête danse J'attends, sentence, vengeance, avance Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirais à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fais pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Il nous reste plus que 24 à vivre Je te livre mes derniers actes Tuer ce type qui voulait que je finisse ma vie en taule J'irais dans ce camp de skins foutre mon rap Ce morceau, Pit, Freeman, Oxmo et Luciano Le Rat Le gong sonne, il me reste peu de temps Que je voulais passer en love avec maman Ou en gova avec mes potes de Place où de Première Classe J'ai peur de me casser sans dire au revoir à mes reufs et cette 'tasse Putain, il me reste dix minutes pour dire à Matt et Houmi De garder Mars et Keuss, construire à 4 toute la relève Le beat est lourd soit, de Time Bomb, superstars sans costards Disque d'or en survêt' Nike3</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>24 heures à vivre</t>
+          <t>Le passé reste</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mon chéri embrasse ton père, embrasse moi Mon cur se lace, enlace moi une dernière fois Hélas, celui que tu aimes part, comme d'hab Quelle ironie du sort, je sors par la petite porte Mon petit, porte ce mot d'amour à ta mère 24 heures à vivre c'est court, merde C'est que je veux que tu te rappelles ces matins Où on matait Aladdin sur le sofa tous les deux J'ai voulu pour toi ce que j'ai pas eu Sans parler de luxe, le minimum, je sais pas J'ai à peine vu ta sur, c'est pas juste Tu leur diras que 'pa est parti au ciel trop tôt Je te laisses que ça ces deux, trois disques et quelques photos Moi, je veux pas que tu penses des il m'a jamais dit je t'aime Je te le dis à chaque mot de ce poème pour que tu te souviennes Et si je pouvais, je t'écrirais des lettres pour que tu comprennes Chaque jour combien t'aimais papa, comme si j'étais là Bébé, ferme la porte après ma dernière voix A ce moment précis, ma vie est déjà derrière moi Mais qui veut me nettoyer du terrain ? C'est la seule raison qui m'aide à me lever le matin Mon but, prendre le butin, faire bouger les putains Plus que 24 heures à vivre, le temps avant j'en bute un Dans ce putain de pays faut que je meurt sur une scène sûrement Situation extrême, je t'embrasse m'man, garde le sourire aux lèvres J'ai un froissement au cur mais faut que j'y aille Sur moi on porte des jugements sans remord C'est juré, maintenant je représente jusqu'à ma mort Dédié pour FF à l'instant même, cette sensation unique me gêne Mais je vous aime tous autant que vous êtes Sans mon quartier en tête, j'en serais pas là Alors je la ferme pas, je le vante Même s'ils sont pas là, plus rien à faire j'hésite pas Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Il nous reste 24 heures à vivre Rien à foutre, personne peut nous priver Tu vas nous suivre, si tu veux y arriver Nos rêves, c'est ce quil nous reste à faire Tu piges frère, que puis-je faire d'autre Né le 7-2, pour s'qui reste, j'reste un envieux Matricule Free, pas beaucoup d'temps, ça urge J moins 1, première chose qui m'passe par la tête Braquer une banque, l'instinct de dernière minute Trop un rêve d'enfant qui s'réalise, partir sans valise Avec mes potes, yacht, défilé d'keh avec des spots Hella, cuit, tant qu'à faire blinder la famille Pour eux, studio plein, Miami Cela dit j'reste conscient, c'que j'dis ça a plus d'importance Le temps avance et rien ne va plus Le Diable au dessus d'ma tête danse J'attends, sentence, vengeance, avance Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirais à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fais pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Il nous reste plus que 24 à vivre Je te livre mes derniers actes Tuer ce type qui voulait que je finisse ma vie en taule J'irais dans ce camp de skins foutre mon rap Ce morceau, Pit, Freeman, Oxmo et Luciano Le Rat Le gong sonne, il me reste peu de temps Que je voulais passer en love avec maman Ou en gova avec mes potes de Place où de Première Classe J'ai peur de me casser sans dire au revoir à mes reufs et cette 'tasse Putain, il me reste dix minutes pour dire à Matt et Houmi De garder Mars et Keuss, construire à 4 toute la relève Le beat est lourd soit, de Time Bomb, superstars sans costards Disque d'or en survêt' Nike3</t>
+          <t>Uh, uh, uh, uh, uh, j'suis tellement de la rue, p't-être J'crois que j'ai accouché par une bouche dégout Issu de l'accouplement de ma mère Cléoplâtre et de mon père Pierre Tous, tous connaissent ma face, pas voulu que j'traîne avec son fils Maintenant les bouches et les yeux s'plissent car j'passe à la télé Mais mes complices restent les mêmes postés Dans le hall, spliffs, tu disais pas please quand tu passais Ton regard hostile - hostile - touche à mon stylo-bille Ma rancune s'éparpilla, j't'écris dans le passé Et même si j'becte, dans les grands restos j'reste ghetto Trique, trique de bandits, les flics dans le vif, fric très tôt Lève ta main, combien t'as vécu de perquises ? À tous les frères que la vie a tourné vers l'biz T'as beau acheter tous mes disques J'reste celui qui fume des joints d'shit tout en bas de chez toi Course de fuite aux banlieues parisiennes Quartiers nords de Marseille, fort de France ou Bagdad, alias bagatelle Tas d'liasses à tous les as et les gangsters J'porte des Clarks, c'est Freeman, ça couv' en poster Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande On se fait à mesure que le temps avance On se remémore le passé LAmérique c'est loin, en plus pour ceux qui la mérite c'est plein Cousin, certains craignent la vérité, ça c'est certain La sincérité c'est rare, sauf dans les locaux le soir Avec les torchés qui tournent forcés, ceux que la guigne a bercé Corsé le vécu, putain ça finit par percer, si t'en shootes un, tu finis cercler Impossible de céder, impossible de s'éterniser Ceux qui bloquent, ceux-là jouent le rôle de la risée Chez nous, ceux-là qui nous pompent, ceux-là qui nous trompent A genoux, jamais on s'est mis aux jnouns tu te trompes Depuis quinze ans j'affronte des murs de bronze en fonte Ce serait bête que je lâche mon hip-hop avant que je monte L'année 9 et 8, la bénédiction du HH confirme, il y aura une suite Nous commanditons la réussite Sur feuille de quoi on traite, de qui on hérite Notre vie se mérite ici, y'a pas d'oubli Mes textes mélancoliques, man j'suis pas l'alcoolique Si mes lettres etaient buvables j'aurai des litres Pour un sacré paquet de pitres, j'veux pas de titre De toute façon, trop des miens disparaissent tôt, trop tôt garçon La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande On se fait à mesure que le temps avance On se remémore le passé En 95, j'comptais que par 12 et 25, quelle bande de savonnettes A labri des yeux des parents qui me savent honnête Manger à la belle chez la bete, pas de star, anti-shtar, toujours j'pars Comme ski tout ce que je sais, c'est la rue qui me l'enseigne Mais c'est ma ruse, c'est abandonner mon fils devant 2 skins Un mec sans pit, ça rime à rien, mesquine Si cent sous ça pète, sans souci c'est Pit Texto, comme tu le savais, texte low, sexe, violent, en gros textes crus Aurais-tu cru que j'étais radin et con, j'l'ai toujours été mec J'vois pas pourquoi la gloire me ferait changer J'me moque de leur coque en stocke du Merco SLK A ma dispo parce que j'ai vendu le million J'suis aussi bien dans le 205 de mon pote Willy Dire que mon style a changé là je dis non Je sais d'où je viens, là où je vais, qui j'dois voir quand je reviens Mon passé reste présent pour mon futur T'es devenu bizarre, c'est ce que me dise mes soss' Que je ne suis plus avec eux dans le blizzard Mais les mecs obligés de prendre ce vol j'vous prends à l'escale C'est juste un autre itinéraire pour me faire du blé Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande... Éternel ex, parle au passé Je représente pour tous les mecs de ma rue C'est comme les miens, j'peux pas les trahir2</t>
         </is>
       </c>
     </row>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Anthology</t>
+          <t>24 heures à vivre (Remix)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Veence Hanao - Saint-Idesbald - 0901 Sexion d'Assaut - Les Chroniques du 75 1201 La Swija - Au sourire levant 1401 Sofiane - La vie de cauchemar - 1801 Mysa - Enfermé dehors, jamais libre 1901 Lesly Ja - Black album 1901 Taïro - Churs et âme 2401 La K-Bine - Légitime défense 2601 Artistes multiples - 59 Hostile 2601 Al Peco - Clandestines Connexions vol 1 2601 ATK - Hommage à Fredy K 2601 Brakage - La rue est vers l'or 2601 El Kebir - Avec tous mes frères 2601 Kamnouze - Sensations Suprêmes 2601 LCC - Le chant du crime 2601 Leeroy - African trip 2601 Sinistre - Historik 2801 Medjo - Feuilles mortes 3001 Fatale Clique - Réussir ou crever Février 0202 Babass - Brûlé dans l'âme 0902 Kennedy - Cicatrice - 1602 Orelsan - Perdu d'avance 1602 Pit Baccardi - Juste Moi 1602 Puissance Rap - Spécial Rap Francais 2009 - 1602 Casey Hamé Zone Libre - L'Angle Mort - 2302 Scred Connexion - Ni vu Ni connu - 2302 La Fouine - Mes Repères XX02 LMC Click - Trop Parler Peut Dead Mars 0203 Alonzo - Un dernier coup dil dans le rétroviseur 0803 Black Barbie - Barbieturique 0803 Mac Kregor - Autarcie 0903 Alibi Montana - Sur le terre terre 1003 Black Kent - Le Scalpel Vol. 1 1603 Kayline - Bravoure, respect et famille 1603 Seth Gueko - Camping sauvage 2303 DJ Goldfinger DJ Lord Chamy - Les yeux dans la banlieue vol.2 - 2303 Oxmo Puccino - L'arme de Paix 3003 Antidote V-1.0 - Soins intensifs 3003 Nessbeal - Street album XX03 Bazooka - Misère ou fortune Avril 0104 Kema - Le rap me porte Mixtape 0304 Stress - Des Rois, Des Pions Et Des Fous 0504 Hugo TSR - La salle d'attente 0604 AK93 - Aulnay 0604 Le 3ème il - Anthologie Mixtape 0604 AP - Discret 0604 Lord Kossity - Le best of 0604 Playad - Dernier royaume 0604 Zoxea - Le Meilleur de Zoxea 1004 Le Brigadier - Etat d'urgence 1304 L'Algérino - Effet miroir 1404 Dmo - Mine de Rien 1404 Gued'1 - Sur le coup 1404 Manu Key - Collector 1404 M.A.P - Les bronzés font du ch'ti 1604 1Kizition - D'hier à aujourd'hui 1604 Manu Key - Collector 2004 Joe Lucazz, ILL Cross - So parano 2004 Les Frères De La Rue - L'école ou la barette 2004 Nessbeal - RSC sessions perdues 2004 Psy 4 de la Rime - Autour des cités d'or 2004 Shone - Association de malfaiteurs vol 1 2104 Ades - Chasse à l'homme 2 2704 Empathik - 8 clos 2704 Moubaraka - Déterminé avant l'album 2704 Rockin'Squat - Confessions d'un Enfant du Siècle Vol.2 2704 Stress - Entre deux mondes XX04 Ekoué et Le Bavar - Nord Sud Est Ouest Vol.2 XX04 Explicit Politik - Volume 2 - 2704 - Kery James - Réel 2704 Artistes multiples - 93 Seine Saint Denis compilation Mai 0205 Larsen - Arme de guerre Algérienne 0405 Rma2n - 95 Val d'Oise Thugz - 0405 Seth Gueko - La chevalière - 0405 Sexion d'Assaut - L'Écrasement de tête 1105 Talents Fachés 4 1205 400 Hyènes - L'esprit du clan 1305 Six Coups Mc - Un pied dans la lumière 1805 Carpe Diem - Notre silence a toujours son mot à dire 1805 Co-Errance - Next level 1805 Epsilon - Ghetto soldier - 2305 Disiz - Disiz The End 2505 El Matador - Au clair du bitume 2505 Fossoyeur - Mauvais jour 2505 Kheimer - Les balles tombent du ciel 2505 Krimeur - La passion du crime 2505 Le Klub des 7 - La Classe de Musique 2505 Les Fères Sy - Coup d'Etat 2505 Mala - Himalaya 2505 RP Records - Sous haute tension vol.2 2505 Synkronic Musik - Punchline Street Beat Show 2605 Baala - Prototype 2605 Effi Ello - Entretien avec un MC 2705 Kiddam - La toile de Pénélope 2905 LK de l'Hotel Moscou - Tha Springbreak Mixtape XX05 Himalaya - Hymne à la rue XX05 LIM Meiday - Combinaison dangereuse XX05 Nehrvy - Echantillon Korozif XX05 S.Killa - Katrina XX05 You-K-Off - L'oubli pour mémoire Juin 0106 Humphrey - Mon 6TM 0206 Casus Belli - Para Bellum street album 0206 LIM et Zeler - Evolution urbaine 0206 Samat - La douleur du bitume 0206 Sofiane - La vie de cauchemar 0806 Singuila - Ca fait mal 0806 Sola - L'1nsolant - 1506 Alkpote - La crème du 91 1506 Bisso Na Bisso - Africa - 1506 Demi Portion - 8 titres et demi 1506 Les Grandes Gueules - Au paradis d'enfer 1506 Révolution Urbaine - Lhistoire ne fait que commencer 1606 AL Peco - Clandestines Connexions Vol 2 1606 Les Associés - 1er avertissement 1606 S'Co - Soldat Comorien 2206 Farage - La voix des oubliés 2206 H Magnum - Rafales 2206 Kamelancien - Ghettoghaphie 2 2306 Rim'K - Maghreb United 2306 Booba - Les Inédits Autopsie 2906 Booba - Autopsie Vol.3 Mixtape - 3006 Scylla - Immersion EP XX06 Mac Tyer - D'ou je viens réédition Juillet 0307 Taipan - Afpan Saison 1 - 0607 IAM - Galaxie Compilaton Août 3108 Joke - Prêt pour l'argent Septembre 0709 La Canaille - Une goutte de Miel dans un litre de Plomb 2109 Dry - Les derniers seront les premiers - 2209 Alain 2 L'Ombre - Avant la prophétie - 2809 Salif - Curriculum Vital XX09 L'Ami Midha - Hard level XX09 Casus Belli - Cas de guerre XX09 Alino - De La Poudre Au Rap 2 Octobre - 0110 Kacem Wapalek - Street Tape n1 0510 Stone Black - Mort pour mort, on s'tue - 1210 Youssoupha - Sur les chemins du retour 1310 Beli Blanco - Blanc album 1310 Beuz - Seulement une plume pour me donner des ailes 1310 Fik's P.Kaer - Le Kartier général 1510 Kyokiro - Ennemi de la patrie - 1810 Nakk - Le monde est mon pays XX10 Gaïden - Dinologie Vol.2 Novembre - 0211 Kool Shen - Crise de conscience - 0911 Grain 2 Caf - Thomas Traoré 1611 Diam's - SOS - 1911 Fayçal - Secrets de l'oubli 2311 B-La - Pourquoi tu pleures ? - 2311 Médine - On peut tuer un révolutionnaire mais pas la révolution EP - 2311 VII - Le Grand Chaos - 3011 Sinik - Ballon d'or Décembre 0712 Black Marché - French Connection 1912 Taipan - Punchliner Mixtape 2212 La Comera - Boyz in the hood Dates non connues 3010 - NEMO-TAPE 6Fa - Cicatrice de guerre 9.2 Prodige - LOrage avant la Tempête Béné - Premier album Blacko - Enfant du Soleil Breece-lu - Étrange partie Chodo - Ma part d'ombre Cid Youssef - Ecoute ma hood Reloaded Clan.do - Entre 2 monde Daddy Lord C - Pas là pour rien Maxi Falcko - Conte 2 Tess Ghetto Youss - Nouvelle Marque Hdisign - Born to fly Heckel Geckel - 1er album K-sur - K-suspect K.ommando Toxik - Première salve Kazkami - Skazophrene L'Hexaler - L'Hexalourd Le prologue L'Or du Silence - Xplosif Le 3ème Oeil - Indomptable Lexro - Propagande music Lyricalchimie - Xxperience Mixtape Mystik - Magnitude 9 X-Men - Jeunes coupables et libres Réédition7</t>
+          <t>C'est Rémy, ouais Woo! Il m'reste plus que 24 heures à vivre, j'me regarde dans mon miroir Les heures passent, les minutes tombent et les secondes, j'les vois même pas Bwah! J'pense à mes frères à Fleury, eux ça parle en années Il m'reste un peu moins de 23h, j'vais voir mes gars puis ma re-mè Lui dire tout c'que j'ai pas su dire, que d'la rue on a pas pu fuir Ah ouais J'suis parti voir mon père mais il a pas voulu m'ouvrir 21h il m'reste, j'ai plus d'coco donc j'en remets Y avait du monde à la pompe il reste que 20h, sa mère Putain! J'croise Lounès et Rim-Ka, j'checke de l'épaule mon gars Be-Squa On va graille avec Biggie, c'est moi qui régale pour une fois Il est 22h, j'passe voir So-John et le Zeur, y a Mohand à la planque donc j'pose mon dernier 12 mesures Il était une fois l'histoire de ma vie, 24h à vivre Quand y rest'ra quelques secondes, p'tet que j'sauterai dans l'vide Pourquoi pas, 2h pour tout essayer, j'monte sur scène avec Oxmo, Jazzy et Demi pour mon dernier couplet Non mais qui veut m'nettoyer du terrain, c'est la seule raison qui m'aide à chercher le butin Finis ma journée dans l'speed, dernier taffe sur c'spliff Envoie d'la bande tout d'suite, à c't'heure y a rien d'toxique La fumée sort d'l'usine, le temps d'une dernière zone On dit que l'argent facile rapporte mieux qu'Amazon Il me reste 24h à vivre donc j'irai voir maman Lui dire je t'aime simplement pour savourer ce moment Lentement, sûrement, discret, c'est la marque Vu que l'horloge tourne, j'donne tout, c'est pas grave Matricule D-E-M-I, je reste dangereux vu qu'le temps passe trop vite quoi Je reste dans l'jeu, ha Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand.. J'espérais une tendre mort mais j'ai déjà tant d'remords J'serai bientôt plus d'ce monde, 24h c'est une seconde Ouais, le compte à rebours passe si vite, j'attends la visite De la faucheuse avec une arme lourde J'ai un problème avec la mort, surtout la mienne Comment veux-tu que j'trouve la paix sous la terre, où ça mène tout ça C'est un énorme bordel, j'ai même pas préparé un ou deux albums post-mortem J'regrette déjà nos fous-rires et d'avoir vécu comme une chauve-souris Du mal à vivre chaque jour comme le dernier jusqu'à aujourd'hui J'dis je t'aime à ceux attristés par mon déclin, avant de faire mes débuts en tant que défunt Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirai à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fait pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Hein.. Il nous reste plus que 24h à vivre, j'te livre mes derniers actes Tuer c'type qui voulait que j'finisse ma vie en taule J'irai dans ce banc de Skins foutre mon rap, ce type Pit Graine Caf Ox, Rémy et Jazzy Bazz, le gong sonne, il m'reste peu d'temps qu'j'venais passer en love avec maman Ou en gova avec mes potes de Place ou Première Classe, j'ai peur de m'casser sans dire au revoir à mes reufs et cette 'tasse Putain, il m'reste 10 minutes pour dire à Matt et Houmi d'garder Mars et Keuss, d'construire à 4 la relève Le beat est lourd, soit de Time Bomb Superstar sans costard, disque d'or en survet' Nike 2018, collaboration historique Demi Portion, Jazzy Bazz C'est Rémy, Baccardi Maître Fader, Prince Charles Alexander Mars, Seck, Rick, aw... Aw... Haha</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Le passé reste</t>
+          <t>AKH (Version H)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Uh, uh, uh, uh, uh, j'suis tellement de la rue, p't-être J'crois que j'ai accouché par une bouche dégout Issu de l'accouplement de ma mère Cléoplâtre et de mon père Pierre Tous, tous connaissent ma face, pas voulu que j'traîne avec son fils Maintenant les bouches et les yeux s'plissent car j'passe à la télé Mais mes complices restent les mêmes postés Dans le hall, spliffs, tu disais pas please quand tu passais Ton regard hostile - hostile - touche à mon stylo-bille Ma rancune s'éparpilla, j't'écris dans le passé Et même si j'becte, dans les grands restos j'reste ghetto Trique, trique de bandits, les flics dans le vif, fric très tôt Lève ta main, combien t'as vécu de perquises ? À tous les frères que la vie a tourné vers l'biz T'as beau acheter tous mes disques J'reste celui qui fume des joints d'shit tout en bas de chez toi Course de fuite aux banlieues parisiennes Quartiers nords de Marseille, fort de France ou Bagdad, alias bagatelle Tas d'liasses à tous les as et les gangsters J'porte des Clarks, c'est Freeman, ça couv' en poster Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande On se fait à mesure que le temps avance On se remémore le passé LAmérique c'est loin, en plus pour ceux qui la mérite c'est plein Cousin, certains craignent la vérité, ça c'est certain La sincérité c'est rare, sauf dans les locaux le soir Avec les torchés qui tournent forcés, ceux que la guigne a bercé Corsé le vécu, putain ça finit par percer, si t'en shootes un, tu finis cercler Impossible de céder, impossible de s'éterniser Ceux qui bloquent, ceux-là jouent le rôle de la risée Chez nous, ceux-là qui nous pompent, ceux-là qui nous trompent A genoux, jamais on s'est mis aux jnouns tu te trompes Depuis quinze ans j'affronte des murs de bronze en fonte Ce serait bête que je lâche mon hip-hop avant que je monte L'année 9 et 8, la bénédiction du HH confirme, il y aura une suite Nous commanditons la réussite Sur feuille de quoi on traite, de qui on hérite Notre vie se mérite ici, y'a pas d'oubli Mes textes mélancoliques, man j'suis pas l'alcoolique Si mes lettres etaient buvables j'aurai des litres Pour un sacré paquet de pitres, j'veux pas de titre De toute façon, trop des miens disparaissent tôt, trop tôt garçon La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande On se fait à mesure que le temps avance On se remémore le passé En 95, j'comptais que par 12 et 25, quelle bande de savonnettes A labri des yeux des parents qui me savent honnête Manger à la belle chez la bete, pas de star, anti-shtar, toujours j'pars Comme ski tout ce que je sais, c'est la rue qui me l'enseigne Mais c'est ma ruse, c'est abandonner mon fils devant 2 skins Un mec sans pit, ça rime à rien, mesquine Si cent sous ça pète, sans souci c'est Pit Texto, comme tu le savais, texte low, sexe, violent, en gros textes crus Aurais-tu cru que j'étais radin et con, j'l'ai toujours été mec J'vois pas pourquoi la gloire me ferait changer J'me moque de leur coque en stocke du Merco SLK A ma dispo parce que j'ai vendu le million J'suis aussi bien dans le 205 de mon pote Willy Dire que mon style a changé là je dis non Je sais d'où je viens, là où je vais, qui j'dois voir quand je reviens Mon passé reste présent pour mon futur T'es devenu bizarre, c'est ce que me dise mes soss' Que je ne suis plus avec eux dans le blizzard Mais les mecs obligés de prendre ce vol j'vous prends à l'escale C'est juste un autre itinéraire pour me faire du blé Guette à chaque coin de rue jette un regard sur le passé La caillasse c'est rien, ça part ça vient Mais n'oublie jamais d'où tu viens Si tu piges pas garçon, pour toi on se souvient Sous plein, souvent on y pense, le soutien, le passé reste Pour certains c'est une offense, les nôtres on y tient On veut s'étendre, se faire entendre, au-delà du no man's land Où ça schlingue faux-cul, no man, jamais on glande... Éternel ex, parle au passé Je représente pour tous les mecs de ma rue C'est comme les miens, j'peux pas les trahir2</t>
+          <t>Baccardi ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cest B.A.2.C.A.R.D.I. Baccardi Brave artiste charmeur chic, ambianceur rare dit irrésistible Baccardi Pit, jépelle et pose le P Cette première lettre comme une putain dpression Persiste et précise comme une patate sans raison et poursuis Introduis le I Comme insolent comme une insulte infâme Comme une injure envers ta femme Incrédule, instable Minstalle mon issue les charts Mon style de chtarbé jrappe pour les couche-tard J'deviens intouchable quand jmets les barres sur les T Comme TNT ou tas dnègres terrorisés Traîne dans les taudis où on macclame quand tu crois que jai tout dit Quand cest terne, jalterne les thèmes et les termes Jenterre les tourments Les traîtres sprosternent et le peuple crie damn ! Dun trait jtermine terre à terre simple comme mes rimes Plait comme les samples je suis le preums donne le ton et taime 1, 2 1, 2, 3 et Baccardi Ma ligne directrice Borsalino ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cette putain première lettre cest Lcomme libre J'me livre jt' épelle mon blaze L, ivre sur Un beat à C.H.I.L.L, jte livre la vérité telle quelle Faut msuivre L pour livre jai trop besoin dlove Comme LL, comme large joffre lyrics lourds Pêle-mêle, mâche le message comme Melle Mel et Master Flash, te mêle pas lion Ou jm en mêle, jai cputain dextra terrestre flow Et cest d'Mars quon m'envoie les e-mails L précédant le I, I pour imminent danger Imagine ccon dimpact éclater la console et l'ingé Cest comme mater dans lcanon dun calibre chargé cest mon putain d'nom Et cmorceau un hymne pour les enragés N succédant au I, haine des nantis L.I.N.O. anti-shtar pour qui blasphème Et l'dernier c'est le O pour originaux, organes vocaux On met la barre haut et lbordel dans les putains d'locaux 1, 2 1, 2, 3 et Borsalino Ma ligne directrice AKH ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Avec perte et fracas, entre le A, ardent au combat comme à Ramallah Cest ça, déchire-la comme 8 off Agallah Au mic ça blague pas, dès la 1ère barre, mate cest AK' Tu voulais ma voix ? La voilà ! Jsuis juste un Abdallah 5 phalanges, langue en magma Signe Alpha, kappa, héta, droit sapé class, comme un soir Dgala ne reste pas là, essaies donc dme mettre à plat Rejoins vala hala, ton cas sgaspille en palabres Mi baraka, mi taf, mi caracal Technique sale, un favela dCaracas Là un stylo bille sarbacane, HIP-HOP Sinatra Mes sons claquent des baraques des bourgeois au Sonacotra Frappent comme la Haganah Le substrat, cest lflow pas lHavana La vanité crée des Mc éphémères sur lmacadam comme un mandala Fâché, ancien comme un Falashas Un pacha jcrois pas, jmacharne parka et Superga dans les crachats 1, 2 1, 2, 3 et 'AKH'' Ma ligne directrice Catastrohff ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? R.O.H.2F Rimeur, Original, Hardcore, Flow, Fluide, j'défonce comme la weed R.O.H.2F la rage oppressante dun homme trop fier pour crier au scours Une bête féroce, une tête de gentil pour celui qui s'goure Mon art, le risque, de bon cur on assume nos lyrics S'exercent au stand de tir pour être précis dans les rixes J'ai des mains on dirait des pieds, c't'extraordinaire L'tour du monde en montgolfière, j't'en met plein la vue J'suis une roue arrière O comme opé, optimiste, optimum Nique les opportuniste quand jécris jpense aux ptits mômes Jmâche pas les mots, je les hache cru tel un boucher Jbouge pour largent parce que l'argent mfait bouger H comme mon prénom Housni, soldat tah la Bosnie Fait chialer les femmes comme Cheb Hasni Pour Adeline Aïcha et Awa J'veux une meuf qu'a la foi, qu'a pas ken beaucoup d'fois, ma foi ! Ewa 1, 2 1, 2, 3 et Monsieur Rohff Ma ligne directrice</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Oublier</t>
+          <t>A la mort à l’amour</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Discographie - Dosseh Album Studio - 20161104 Dosseh - Yuri - 20180706 Dosseh - VIDALOA - 20190412 Dosseh - VIDALOA 4.5 - 20220930 Dosseh - Trop tôt pour mourir EP - 20220128 Dosseh - Yuri Negrowski Mixtape - 20041029 Dosseh - Bolide Vol. 1 - 20081118 Dosseh - Bolide Vol. 2 - 20110117 Dosseh DJ Medi Med - Desperadoss - 20110729 Dosseh DJ Moon - Summer Crack, Vol. 1 - 20120722 Dosseh DJ Skut - Summer Crack, Vol. 2 - 20150316 Dosseh - Perestroïka - 20150731 Dosseh - Summer Crack, Vol. 3 - 20190712 Dosseh - Summer Crack 4 Soundtrack - 20130624 Dosseh - Karma Autre - 20141118 Dosseh - YuriNegrowski Hors-Série Single - 20060306 Dosseh - Banlieusard de province - 20061003 Dosseh - La mort pour seule limit - 20070117 Dosseh - 16 mesures d haine - 20070206 Dosseh - Chienne de vie - 20070312 Dosseh - Ennemi - 20071126 Dosseh - Je suis - 20071129 Dosseh - Parce que - 20080531 Dosseh - Prototype - 20081118 Dosseh - Pharaonique - 20090117 Dosseh - Aigle royal - 20090421 Dosseh - Frères d'armes - 20090615 Dosseh - Jour de paye - 20090629 Dosseh - Non stop - 20100413 Dosseh - Freestyle Desperadoss Part. 1 - 20100528 Dosseh - Freestyle Desperadoss Part. 2 - 20100613 Dosseh - Pour ma voyoucratie Remix insolent - 20100703 Dosseh - Matrix - 20100723 Dosseh - Tu connais nos codes - 20101123 Dosseh - Freestyle Desperadoss Part. 3 - 20110103 Dosseh - Full Contact - 20110224 Dosseh - Desperadoss - 20110806 Dosseh - Nique-toi, paye-moi - 20120309 Dosseh - OK - 20120509 Dosseh - Casque intégral - 20120706 Dosseh - Summer Crack Intro - 20120720 Dosseh - Mon gang - 20130518 Dosseh - BM Audi Merco Benz - 20130527 Dosseh - Gangnam Style Trap Remix - 20130616 Dosseh - IGO - 20130621 Dosseh - La boum 3 - 20130704 Dosseh - Booskarma - 20130708 Dosseh - Holy Water Freestyle - 20130819 Dosseh - Promesses - 20131103 Dosseh - Adios - 20131127 Dosseh - Yin Yang - 20140311 Dosseh - Freestyle Parlez-vous Cefran - 20140611 Dosseh - En balle Freestyle - 20140806 Dosseh - La dose Freestyle - 20141009 Dosseh - Illuminati - 20141018 Dosseh - YuriNegrowski 1 - 20141018 Dosseh - YuriNegrowski 2 - 20141018 Dosseh - YuriNegrowski 3 - 20141023 Dosseh - Boyscout - 20141110 Dosseh - Faut qu'ça chie YuriNegrowski 4 - 20141208 Dosseh - Le coup du patron - 20150116 Dosseh - Le dehors - 20150217 Dosseh - Bouteilles et glocks - 20150224 Dosseh - Nirvana YuriNegrowski 5 - 20150304 Dosseh - Hors-Série YuriNegrowski 6 - 20150312 Dosseh - 30 millions d'ennemis YuriNegrowski 7 - 20150406 Dosseh - Que d'la D YuriNegrowski 8 - 20150430 Dosseh - Bando - 20150430 Dosseh - Scarla - 20150702 Dosseh - Été au tieks - 20150711 Dosseh - Brolyk - 20150718 Dosseh - Booska Summer Crack - 20150730 Dosseh - Oublier - 20151231 Dosseh - Je suis Yuri YuriNegrowski 9 - 20160613 Dosseh - Milliers d'euros - 20160704 Dosseh - T'as pas compris - 20160909 Dosseh - Afrikan History X - 20160916 Dosseh - Là-haut - 20160923 Dosseh - Freestyle BarbaRossa1 - 20160930 Dosseh - Myah Bay - 20160930 Dosseh - Abel Caïn - 20161024 Dosseh - Infréquentables - 20161121 Dosseh - Putain d'époque - 20170106 Dosseh - Solo - 20170206 Dosseh - J'suis qu'un Loa YuriNegrowski 10 - 20170303 Dosseh - Bad and Boujee Remix - 20170721 Dosseh - PDCV Pas dans cette vie - 20180112 Dosseh - Tout est neuf - 20180216 Dosseh - KFC - 20180316 Dosseh - Papillon - 20180511 Dosseh - Habitué - 20180705 Dosseh - VLT - 20180720 Dosseh - MQTB - 20181116 Dosseh - À chaque jour... - 20190201 Dosseh - Superhéro - 20190321 Dosseh - Habitué Italian Remix - 20190329 Dosseh - Flux - 20190412 Dosseh - Le bruit du silence - 20190419 Dosseh - OKLM Freestyle - 20190607 Dosseh - Boîte à Shoes - 20190614 Dosseh - MQTB Version solo - 20190628 Dosseh - Les histoires - 20190628 Dosseh - L'odeur du charbon - 20190807 Dosseh - Canal - 20190823 Dosseh - Thaïlande - 20200221 Dosseh - L'odeur du charbon Remix - 20200503 Dosseh - Milli' - 20200902 Dosseh - A45 - 20200924 Dosseh - Place de l'Étoile - 20201216 Dosseh - Famiglia è Grande - 20210302 Dosseh - Cardio - 20210408 Dosseh - Doaveli 1 - 20210415 Dosseh - La vie d'avant - 20210502 Dosseh - Doaveli 2 - 20220629 Dosseh - A.K.A - 20220719 Dosseh - RS-28 - 20220804 Dosseh - Amsterdam - 20220915 Dosseh - Branché - 20220919 Dosseh - PERIODT - 20221007 Dosseh - Mode S - 20230113 Dosseh - Haï Featuring - 20040514 Sinik - Urbaine poésie - 20040630 K.Ommando Toxik - C'est le trio - 20041116 Pit Baccardi - Le son de la street - 20050517 Pit Baccardi - C'est dead ! - 20051219 Noyau Dur - Le son des loups - 20070116 Pit Baccardi - Come Back Remix - 20070315 Heckel Geckel - On ne sait pas abandonner - 20070417 Smoker - Geez Up - 20080404 Futur Proche - Va leur dire - 20090922 Alain 2 L'Ombre - Qui veut la peau d'Alain 2 L'Ombre - 20100301 Seth Gueko - C'est la merde - 20101018 Nakk Mendosa - J'suis un lion - 20101122 Booba - 45 Scientific - 20101201 Escobar Macson - Tout le monde d'accord - 20101213 Ol' Kainry - Clac clac - 20110409 Lalcko - Tradition du combat - 20110516 Still Fresh - Mise en garde - 20111021 28 Zaheef - État brut - 20120319 Nakk Mendosa - La sentence Remix - 20120503 Smoker - Zbeul dans ta soirée - 20120618 Niro - Dans ton kwaah Remix - 20120625 Kennedy - Blue Magic - 20121019 Pit Baccardi - Les frères flingueurs - 20130422 Ghetto Fabulous Gang - Expandables - 20130617 Sofiane - Boxe avec les mots Remix - 20131118 Ppros - Calité - 20131220 Joke - Miley - 20131222 wagg - All I Gotta Say - 20140629 Rock Blood - Panamera - 20140915 Bassirou - Le score - 20150130 Boysaf - Y'a du bizz dans mon block - 20181115 Titai - BET Cypher 2018 4 - 20190125 Seth Gueko - Barry White Trash - 20190208 NAAR - Kssiri - 20190215 T.Killa - Marécage - 20190301 Jorja Smith - Blue Lights French Remix - 20190426 Toma - Hypersensible - 20191004 Lefa - Spécial - 20191108 TY1 - C'EST LA VIE - 20191129 Dinos - Taciturne - 20191213 IZI - Cometa - 20200131 Mister V - Gang - 20200403 Twinsmatic - TRAP - 20200424 McKoy - Matchu Pitchu - 20200821 Sizlac - 45 - 20200911 KPoint - Choix de vie - 20201005 Popey - Imbécile - 20201112 TLZ Clan - C'est nous - 20201218 Negrito - Puh puh - 20210217 Jack Many - Ooooh...! - 20211001 Malik Montana - Click Clack Bang - 20220616 The New Orleans - Quatro Cinco - 20220617 The New Orleans - Les coups</t>
+          <t>Elle et moi c'est barge Elle ma passé les bracelets C'est bas résille et barillets, mon ange a un cur de démon Mon complice et moi sommes Un peu pervers On s'unit dans les faits divers En plein été, à nous les rodéos Les courses-poursuites, les nuits dans les motels Toi et moi, explosif cocktail Tu maimes dans l'risque, j't'aime dans l'vif de l'action Ton odeur m'enivre Quand on s'livre à des actes sur lbalcon, boum On dynamite le monde et on prend les sous On est des fous on est des fous On a mis le monde à genoux À genoux seulement pour prier lciel Notre monde est rouge, sans arc-en-ciel On peut toucher le nirvana, la vie de rêve XXX de plus belle De plus belle pour défier l'enfer Nos ailes dange sont brisées, on a choisi d'croiser l'fer À nous deux la nuit s'enflamme jusquau lever du jourDealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour Pas d'larmes, chez nous y a l'drame dans l'âme Le charme dans une arme, bang bang bang Passe-moi le flingue, chéri Que je rallume les feux de l'enfer J'suis ce vandale que tu as aimé J'ai épousé l'arme, tu m'as béni on a un pacte sans acte écrit Bye-bye Ha ha ha L'amour, c'est la peur d'être seul, l'envie d'être deux, le risque d'être trois Toi plus moi, la mort contre tous À quatre on débarque, à cinq on braque Six on risque les assises pour ce petit coup à six chiffres La mort nous colle à la peau Le Glock collé dans la paume Desperados Au nom du fric, du flingue, on n'est plus sains d'esprit À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour Vas-y tire, tire Accros de bang bang, prêts pour l'big bang On aime le big boum quand on braque une banque Clic clac c'est l'bruit du coffre, à nous le bling-bling Truc de dingues, bye-bye la misère Bienvenue aux terreurs Vulgaires, le shérif chope un ulcère On a but clair, s'en mettre plein les poches Et prendre un bon bol d'air, OK Jamais de coup d'poker Si c'est l'cas, chérie j'suis ton joker On est pauvres sur terre, on sera riches en enfer À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drame à la mort à l'amour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te jure, j'te lâche pas</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>24 heures à vivre (Remix)</t>
+          <t>A Nous La Victoire</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>C'est Rémy, ouais Woo! Il m'reste plus que 24 heures à vivre, j'me regarde dans mon miroir Les heures passent, les minutes tombent et les secondes, j'les vois même pas Bwah! J'pense à mes frères à Fleury, eux ça parle en années Il m'reste un peu moins de 23h, j'vais voir mes gars puis ma re-mè Lui dire tout c'que j'ai pas su dire, que d'la rue on a pas pu fuir Ah ouais J'suis parti voir mon père mais il a pas voulu m'ouvrir 21h il m'reste, j'ai plus d'coco donc j'en remets Y avait du monde à la pompe il reste que 20h, sa mère Putain! J'croise Lounès et Rim-Ka, j'checke de l'épaule mon gars Be-Squa On va graille avec Biggie, c'est moi qui régale pour une fois Il est 22h, j'passe voir So-John et le Zeur, y a Mohand à la planque donc j'pose mon dernier 12 mesures Il était une fois l'histoire de ma vie, 24h à vivre Quand y rest'ra quelques secondes, p'tet que j'sauterai dans l'vide Pourquoi pas, 2h pour tout essayer, j'monte sur scène avec Oxmo, Jazzy et Demi pour mon dernier couplet Non mais qui veut m'nettoyer du terrain, c'est la seule raison qui m'aide à chercher le butin Finis ma journée dans l'speed, dernier taffe sur c'spliff Envoie d'la bande tout d'suite, à c't'heure y a rien d'toxique La fumée sort d'l'usine, le temps d'une dernière zone On dit que l'argent facile rapporte mieux qu'Amazon Il me reste 24h à vivre donc j'irai voir maman Lui dire je t'aime simplement pour savourer ce moment Lentement, sûrement, discret, c'est la marque Vu que l'horloge tourne, j'donne tout, c'est pas grave Matricule D-E-M-I, je reste dangereux vu qu'le temps passe trop vite quoi Je reste dans l'jeu, ha Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand Il nous reste 24h à vivre Rien à foutre Personne peut nous priver Tu vas nous suivre si tu veux y arriver Nos rêves, c'est c'qui nous reste à faire Tu piges frères, que puis-je faire d'autre quand.. J'espérais une tendre mort mais j'ai déjà tant d'remords J'serai bientôt plus d'ce monde, 24h c'est une seconde Ouais, le compte à rebours passe si vite, j'attends la visite De la faucheuse avec une arme lourde J'ai un problème avec la mort, surtout la mienne Comment veux-tu que j'trouve la paix sous la terre, où ça mène tout ça C'est un énorme bordel, j'ai même pas préparé un ou deux albums post-mortem J'regrette déjà nos fous-rires et d'avoir vécu comme une chauve-souris Du mal à vivre chaque jour comme le dernier jusqu'à aujourd'hui J'dis je t'aime à ceux attristés par mon déclin, avant de faire mes débuts en tant que défunt Faut que je mette cette fille enceinte de mon fils Qui, j'espère, sera doué, méchant et rappera comme son putain de père Pire que la Lady Di, keuss façon Pit Bacardi Rappera dessus, ce sera lhétéro black Elton John Moltonelle pour le cerceuil, enceintes 200 watts L'album de Biggie, Clarks et chaînes en or en poster pour le décor J'dirai à tous mes potes de se tatouer Mon nom, mon prénom, mon pseudonyme Comme je l'ai fait pour mon pote Moe Jackpot au lit, c'est ce que perdrait chaque fille M'ayant élue au top du copsueur toutes options J'passe dix heures avec ma mère Qui mérite l'héritage d'un fils black et millionnaire Qui marqua le rap français pour le millénaire Rap criminaminard Hein.. Il nous reste plus que 24h à vivre, j'te livre mes derniers actes Tuer c'type qui voulait que j'finisse ma vie en taule J'irai dans ce banc de Skins foutre mon rap, ce type Pit Graine Caf Ox, Rémy et Jazzy Bazz, le gong sonne, il m'reste peu d'temps qu'j'venais passer en love avec maman Ou en gova avec mes potes de Place ou Première Classe, j'ai peur de m'casser sans dire au revoir à mes reufs et cette 'tasse Putain, il m'reste 10 minutes pour dire à Matt et Houmi d'garder Mars et Keuss, d'construire à 4 la relève Le beat est lourd, soit de Time Bomb Superstar sans costard, disque d'or en survet' Nike 2018, collaboration historique Demi Portion, Jazzy Bazz C'est Rémy, Baccardi Maître Fader, Prince Charles Alexander Mars, Seck, Rick, aw... Aw... Haha</t>
+          <t>Je fête le disque d'or et la victoire de cette musique Qui vend même avec des discours durs On a eu droit au rap biz, rap tendance, rap violence Mais qu'on se dise ce truc à une histoire et qu'on dise On a de l'éphémère, dents en or et chaines qui brillent Si je te parle des vraies tendances c'est leur donner du crédit Regarde ils ont un arrière ce qui se passe était prédit Et dire qu'on était une génération sacrifiée Avoir un pige et bête sans doute c'est ça qu'ils kiffaient Capable du meilleur comme du pire mais pire On a prouvé qu'on est les meilleurs Je lève mon verre et signe de mon stylo bic Aux blacks, blancs, beurs qui ont fait de moi Baccardi au mic Je lève mon verre au S.A et aux autres cliques Le message devant l'ennemi jamais abdiqué Refrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Les portes de la vie s'ouvrent à ceux qui savent les pousser Ärsenik ont pété un carreau Baccardi est passé à travers les barreaux Avec les Nèg'Marrons en l'an 2000 on fait le bilan, calmement On a fait les choses, on a fait les choses On a su anticiper en posant la pierre On propose plus, ouais, on s'impose et impromptu Qu'ils essayent de causer, aujourd'hui on peut disposer C'est du bon cru pour les adeptes ouais, sans être trop cru pour les ados Au plus vite on retourne Lino au ghetto Plus la crème des médias veulent nous détruire On a de la force pour reconstruire La force vienne d'en-bas et on se mobilise Les jeunes derrière nous comme le peuple derrière Moïse Je suis peut-être là au moins dans le désespoir Mais je veux créer avec vous à nous la victoire Refrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Le rap c'est l'histoire d'une génération qui Maintenant génère des sous mais avant tout fais péter le son La merde on l'a respirée ça nous a inspiré J'espère que les jeunes tiendront compte de notre expérience Je passe le flambeau aux MCs qui quadrillent le terrain Genre Marginal et l'Skadrille Grillez pas les étapes, on assure vos arrières Si tu captes pas le manège, tu vrilles On brille par notre élégance Il n'y a que des mots et des cris pour nos fans en abondance L'histoire nous appris à entrer l'histoire du rap Et cette victoire il fallait le vivre pour y croire Fallait le vivre pour y croire, à nous la victoire L'an 2000 et pour toujours, l'avenir nous appartient Refrain x4 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Plus de frontières, ni barrières, ni barreaux Pour tous les groupes de rap Plus de frontières, ni barrières, ni barreaux Pour les cités en France Plus de frontières, ni barrières, ni barreaux Pour la jeunesse en France Plus de frontières, ni barrières, ni barreaux Pour ceux qui ont espoir Plus de frontières, ni barrières, ni barreaux Pour ceux qui nous soutiennent Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux En l'an 2000, à nous la victoire</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AKH (Version H)</t>
+          <t>Arrête 2 mentir</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Baccardi ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cest B.A.2.C.A.R.D.I. Baccardi Brave artiste charmeur chic, ambianceur rare dit irrésistible Baccardi Pit, jépelle et pose le P Cette première lettre comme une putain dpression Persiste et précise comme une patate sans raison et poursuis Introduis le I Comme insolent comme une insulte infâme Comme une injure envers ta femme Incrédule, instable Minstalle mon issue les charts Mon style de chtarbé jrappe pour les couche-tard J'deviens intouchable quand jmets les barres sur les T Comme TNT ou tas dnègres terrorisés Traîne dans les taudis où on macclame quand tu crois que jai tout dit Quand cest terne, jalterne les thèmes et les termes Jenterre les tourments Les traîtres sprosternent et le peuple crie damn ! Dun trait jtermine terre à terre simple comme mes rimes Plait comme les samples je suis le preums donne le ton et taime 1, 2 1, 2, 3 et Baccardi Ma ligne directrice Borsalino ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Cette putain première lettre cest Lcomme libre J'me livre jt' épelle mon blaze L, ivre sur Un beat à C.H.I.L.L, jte livre la vérité telle quelle Faut msuivre L pour livre jai trop besoin dlove Comme LL, comme large joffre lyrics lourds Pêle-mêle, mâche le message comme Melle Mel et Master Flash, te mêle pas lion Ou jm en mêle, jai cputain dextra terrestre flow Et cest d'Mars quon m'envoie les e-mails L précédant le I, I pour imminent danger Imagine ccon dimpact éclater la console et l'ingé Cest comme mater dans lcanon dun calibre chargé cest mon putain d'nom Et cmorceau un hymne pour les enragés N succédant au I, haine des nantis L.I.N.O. anti-shtar pour qui blasphème Et l'dernier c'est le O pour originaux, organes vocaux On met la barre haut et lbordel dans les putains d'locaux 1, 2 1, 2, 3 et Borsalino Ma ligne directrice AKH ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? Avec perte et fracas, entre le A, ardent au combat comme à Ramallah Cest ça, déchire-la comme 8 off Agallah Au mic ça blague pas, dès la 1ère barre, mate cest AK' Tu voulais ma voix ? La voilà ! Jsuis juste un Abdallah 5 phalanges, langue en magma Signe Alpha, kappa, héta, droit sapé class, comme un soir Dgala ne reste pas là, essaies donc dme mettre à plat Rejoins vala hala, ton cas sgaspille en palabres Mi baraka, mi taf, mi caracal Technique sale, un favela dCaracas Là un stylo bille sarbacane, HIP-HOP Sinatra Mes sons claquent des baraques des bourgeois au Sonacotra Frappent comme la Haganah Le substrat, cest lflow pas lHavana La vanité crée des Mc éphémères sur lmacadam comme un mandala Fâché, ancien comme un Falashas Un pacha jcrois pas, jmacharne parka et Superga dans les crachats 1, 2 1, 2, 3 et 'AKH'' Ma ligne directrice Catastrohff ou science de la rime Les gens sdiront toujours mais qui scache dans ces signes ? R.O.H.2F Rimeur, Original, Hardcore, Flow, Fluide, j'défonce comme la weed R.O.H.2F la rage oppressante dun homme trop fier pour crier au scours Une bête féroce, une tête de gentil pour celui qui s'goure Mon art, le risque, de bon cur on assume nos lyrics S'exercent au stand de tir pour être précis dans les rixes J'ai des mains on dirait des pieds, c't'extraordinaire L'tour du monde en montgolfière, j't'en met plein la vue J'suis une roue arrière O comme opé, optimiste, optimum Nique les opportuniste quand jécris jpense aux ptits mômes Jmâche pas les mots, je les hache cru tel un boucher Jbouge pour largent parce que l'argent mfait bouger H comme mon prénom Housni, soldat tah la Bosnie Fait chialer les femmes comme Cheb Hasni Pour Adeline Aïcha et Awa J'veux une meuf qu'a la foi, qu'a pas ken beaucoup d'fois, ma foi ! Ewa 1, 2 1, 2, 3 et Monsieur Rohff Ma ligne directrice</t>
+          <t>C'est Pit au mic Pourquoi tu ranges ta panoplie d'baggys, maintenant c'est bagouzes en or Plus de blouson Tommy, bienvenue chez Double Goose Vis à la bouffonerie, pour l'esprit caïd Arrête de jurer Walaye, cochon, tu manges bien du porc à l'Aïd Laïc à tes heures, au mic p't-être tu t'amuses mais J'ai pas besoin de mentir pour avoir un plan baise T'es plus blanc qu'un cachet d'aspirine Tu rimes contre Babylone, kifferais bien t'appeler Abdel Karim T'as pas d'go, t'es p't-être gay Avec tes Claudia Chiffon et Poubelle Naomi, invisible Stoppe ta tchatche, s'te plaît J'rencontre une meuf qui kiffe Baccardi Pit Qui m'dit qu'son mec lui a dit qu'on était potes, mate Un autre abruti qui veut prouver qu'il a des connexions dans l'milieu d'la chanson En deux-quatre-six j'le descends Tant pis pour lui, qu'il arrête de mentir mais pour Pit Ça fait une de plus dans sa collection Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Non, rien à foutre des gens qui m'disent que j'ai pas l'style d'un reggaeman J'habite Ges-Gar, j'suis capverdien, non mec j'suis pas jamaican J'ai grandi dans l'bitume, plus ou moins dans la lère-ga J'écoute du rap, j'kiffe le rap mais j'ai choisi d'faire du ragga Ignares sont les gens qui te jugent par rapport à ton look Mets des grosses baskets, moi j'préfère mes classiques Reebok Tu confonds Ris-Pa et Jamaica T'aurais souhaité t'appeler Buju, Beenie Man ou bien Sizzla Mais ce n'est pas l'cas petit, arrête donc tes conneries Aucune originalité, aucun feeling, aucun stylee J'habite dans une té-ci, et toi t'envies ceci Mais y a pas d'place pour les bouffons, pas d'place pour les photocopies Eh, c'est dur à dire mais ça m'fait tiep À Paname y a vraiment trop d'squales et d'squalettes, hey Aucune identité, ça ne fait qu'imiter Mais cesse de vanter ma cité tu n'y as jamais mis les pieds Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Arrête tes conneries, laisse la place aux vrais MC Ils veulent nous imiter, ya yeah Tu regardes trop la TV, t'prends pour un squale de NYC Mais cesse de les imiter, ya yeah Trop de super-flûtes espérant serrer un tas de super-putes Tu dis partout qu'Pit et Jacky sont tes super-potes Tu pèses le CFA, te dévalues de minute en minute Arrête de mentir mec, tout ça faut qu'ça stoppe c'est vrai Tu as la réputation d'être un mytho c'est vrai Dès que tu papotes, c'est pour dire un pipeau, c'est vrai C'est vrai, en plus j'ai l'impression que t'aimes pas ta mère Ou ce serait p't-être que t'aimes Baccardi, tu n'jures que sur ça C'est Jacky et Pit Baccardi Dans Liaisons Dangereuses Time Bomb, Secteur Ä Pour une liaison dangereuse Y a danger, aucun plagiat n'est possible Sur c'projet, y a qu'des vrais, enfoiré Je sais qu't'as pigé Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Yeah yeah, calmement, calmement Secteur Ä, Time Bomb Dangereuse est la liaison Iso, Ghetch Pour tous les zoulous et toutes les zoulettes qui s'la pètent Tu peux pas foutre la merde chez nous Première Classe Calmement La rue case-nègres C'est Pit au mic</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>A la mort à l’amour</t>
+          <t>Attitude</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Elle et moi c'est barge Elle ma passé les bracelets C'est bas résille et barillets, mon ange a un cur de démon Mon complice et moi sommes Un peu pervers On s'unit dans les faits divers En plein été, à nous les rodéos Les courses-poursuites, les nuits dans les motels Toi et moi, explosif cocktail Tu maimes dans l'risque, j't'aime dans l'vif de l'action Ton odeur m'enivre Quand on s'livre à des actes sur lbalcon, boum On dynamite le monde et on prend les sous On est des fous on est des fous On a mis le monde à genoux À genoux seulement pour prier lciel Notre monde est rouge, sans arc-en-ciel On peut toucher le nirvana, la vie de rêve XXX de plus belle De plus belle pour défier l'enfer Nos ailes dange sont brisées, on a choisi d'croiser l'fer À nous deux la nuit s'enflamme jusquau lever du jourDealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour Pas d'larmes, chez nous y a l'drame dans l'âme Le charme dans une arme, bang bang bang Passe-moi le flingue, chéri Que je rallume les feux de l'enfer J'suis ce vandale que tu as aimé J'ai épousé l'arme, tu m'as béni on a un pacte sans acte écrit Bye-bye Ha ha ha L'amour, c'est la peur d'être seul, l'envie d'être deux, le risque d'être trois Toi plus moi, la mort contre tous À quatre on débarque, à cinq on braque Six on risque les assises pour ce petit coup à six chiffres La mort nous colle à la peau Le Glock collé dans la paume Desperados Au nom du fric, du flingue, on n'est plus sains d'esprit À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drames à la mort à l'amour Vas-y tire, tire Accros de bang bang, prêts pour l'big bang On aime le big boum quand on braque une banque Clic clac c'est l'bruit du coffre, à nous le bling-bling Truc de dingues, bye-bye la misère Bienvenue aux terreurs Vulgaires, le shérif chope un ulcère On a but clair, s'en mettre plein les poches Et prendre un bon bol d'air, OK Jamais de coup d'poker Si c'est l'cas, chérie j'suis ton joker On est pauvres sur terre, on sera riches en enfer À nous deux la nuit s'enflamme jusqu'au lever du jour Dealers de larmes, de tickets sans retour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te suis, j'franchis le pas Vie de trains qui déraillent et d'appels au secours Poseurs de drame à la mort à l'amour Un aller sans retour, de l'amour à la mort y a qu'un pas Si tu sautes, j'te jure, j'te lâche pas</t>
+          <t>Fini le temps où on vantait la vie et ses vertus Faudrait réveiller Montand, lui dire que Paris ne séveille plus Le macadam cherche des âmes à damner Et les cadavres sur pattes cherchent du crack à damer Une bicoque de bâtard, une vie de chiotte de lascar En rang, on tourne en rond comme des pilotes de Nascar Pas ni problèmes, pas ni bagarres Mais t'as des assoc' qui rêvent de te semer en route comme au Paris-Dakar La rue est traître comme un calibre à lheure des comptes Combien le réalise ou l'ont apprit à leurs dépends Au rythme de mes sons, les bandes se fond et se descendent En 30 secondes, des convoyeurs de fonds se défendent La rue une grande garce qui a trop baisé d'gars Tas beau aimer les 'tasses, tu la croises, tarrêtes pas, mets les gaz On est à bout, dollars et sexe engrossés Tu la boucle, te dépêches et donne la recette sans broncher Les criards se font crossés, les bitchs se font engrossées Tes erreurs se transforment en dossier, le maillot de la rue endossé Des thunes empochés rapidement sans bosser Un peu de pillave dans le gosier pour pioncer, tes fauché yeah Drôle dépoque, dur dêtre un lascar digne Je crois que je massagis, Pit Baccardi dans la gabardine Je menhardis, encaisse un bâtard de ma part Mes potes ne me parlent plus que de braquages et de placards Sur le terrain les petits, ils mangent tellement salement Tas même pas envie de venir prendre ta part du gâteau Ils bouffent avec les doigts, ils font tout, la C.C, la rabla Lhéro, le double zéro et la hagra Ça pue lincarcération, la longue peine Tas C.C, gare-la toi dans le fion, pas dans le zen Tas saisi, je passe une petite annonce à l'antenne Celui-ci il va finir pour long time à Nanterre Cest vrai, dégouter qu'on m'en demande Mais lhéro fait des heureux et des milliers de zéros sur les comptes en banque Me parle plus de la justice, vas-y je lencule Mes chances de men sortir sont restreintes, quasiment nulles Comprends pourquoi je rappe sale, je viens des quartiers sales Où on se fait respecter par la force ou par les armes Jai pas eu le choix moi, je refuse de faire partie des victimes Attitude warriors, si tu gazes on te nique, cest team-team Laisse-moi leur dire moi que je veux vivre libre mais sans ramper Nos mères versent des larmes de sang, on a des corps ensanglantés Depuis le départ, ça pue la fin tragique Désolé pour ceux que jai bé-bar, des fois c'est ça le trafic Hasba sur hasba, on te baise et on encaisse Bien sûr les flics enquêtent, y en a qui tombent et on encaisse De toutes façons cest comme ça depuis quon est nés mec on encaisse Mets-le toi en tête, cest hardcore la vie en tess Dans les quartiers cest de pire en pire, tout le monde se défonce Devant tout le monde, faut voir avec quelles substances ils se défoncent La tête dans la coke, le nez dans la coke Maintenant, ce sont les baltringues quont la cote À mon époque cétait en cachette, cest les tapettes qui sniffaient Si on savait, on te niquait, je sais même pas si tu survivais Mais cest la mode hein, ouais la mode hein Cette mode cest pas de chez nous, non ça vient des quartiers mondains Ce morceau cest pour les anciens comme Double Qui ont connu lépoque des Mac Douglas, celle des tags des coups de shlass À cette époque les valeurs cétait rage et courage Maintenant on trouve normal serrer la main des poucaves Jai limpression que la rue tourne à lenvers Maintenant pour être le best il faut flamber Les mecs montent et descendent à vitesse grand V Devenu dur de manger avec du shit, y a quà voir le prix dun 100 G Bah ouais ça sniffe et ça sniffe dur Vodka plus Redbull, voilà la mixture Les petits durs jouent les pitbulls Je parle plus au téléphone ça shlingue la shmiture On compte plus les sacrifiés sur lautel de la justice, foudroyés par des aveux Tauras beau leur cracher du fric, soudoyer les baveux Técopes dune peine de prison ferme Derrière des murs de prison ternes Cest triste mais cest ainsi, le royaume des petites donneuses La rue, la reine des michetonneuses Ce quel tas promis, cest clair tu lauras Mais à quel prix homi, pour ça il faudra faire ce qui faudra Il faudra tirer pour tuer Rares sont les voyous qui sinscrivent dans la durée Est-ce que tu vas trembler ? Est-ce que tu vas assurer ? Au moment de brrrrrraaaaah cracher la purée Eh ouais cest la rue, on tenvoie des meufs et on te plume Pour une dette impayée, un coup de travers, mec on te brûle Tas postulé pour le casting alors je te parle du rôle La rue, cest pas fumer 1 ou 2 joints en bas du hall non La rue cest traître La rue cest ton meilleur poto, qui te balance juste pour pouvoir payer ses dettes non Moi je te le dis davance Plus tu montes plus les quantités augmentent, ouais elles augmentent, faut suivre la cadence Faut en faire toujours plus car on en veut toujours plus Rares sont ceux qui en veulent tout court Niquer nos vies, on fait tout pour Oublie comme on nous a éduqués répute de cité oblige Et tous les jours nos parents subissent LÉtat essaye de leur faire comprendre quils nont pas fait leur taff Mais comment ces connards auraient agit à leur place Ils ont crée leurs cités, nous ont pris pour des cobayes Dans des tours de 15 étages, on vit ensemble On grandit ensemble, on meurt ensemble On pleure ensemble perdu on traîne en bande De la tristesse de la violence cest tout que je garde de mon enfance Je peins de la haine, dresse une fresque abstraite Loin des riches, loin de leurs vies presque parfaite Donne-moi le mic et laisse couler linstru, que je leur dise quils agissent Pensent et nous insultent à leurs guise Voilà ce que mes potos subissent Contrôle et humiliation, cest le nouveau supplice Des perquis', chez cinq frérots sur dix On a quitté lécole très tôt mais on a toujours droit aux interro surprises La gamelle à un goût de fruits de mer Parait-il impossible de fuir cette putain de vie de merde Ils tont capté, rattrapé par ton passé Comme beaucoup tas cru pouvoir tenir les murs de ton quartier À ce petit jeu comme toi, combien sont tombés ? Combien pensait se refaire parce quils avaient un plan B N'ont pas pu dire au revoir avant de partir Combien ont joués les chauds ? Combien se sont fait refroidir ? Combien ont cru pouvoir voler au-dessus des lois ? Combien se sont gavés et lont crié sur les toits ? Combien se sont fait lever par des amis à eux ? Combien se sont barrés pour ne pas payer ce quil devait ? Cest cette maudite life qui mattriste Combien ont terminé à lhôpital psychiatrique ? Combien ont fait pleurer leur mère ? Ignorer leur père ? On fait de la baraque familiale leur repère ? Combien, s'ils avaient continuer lécole Auraient été de très bons chefs dentreprise ou autre chose ? Combien ont quitter leur ZAC ? Combien pour la R.U.E ont niqué leur life ? Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car on mE.C.O.U.T.E Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car elle mE.C.O.U.T.E, elle mécoute gros1</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>A Nous La Victoire</t>
+          <t>Baccardi</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Je fête le disque d'or et la victoire de cette musique Qui vend même avec des discours durs On a eu droit au rap biz, rap tendance, rap violence Mais qu'on se dise ce truc à une histoire et qu'on dise On a de l'éphémère, dents en or et chaines qui brillent Si je te parle des vraies tendances c'est leur donner du crédit Regarde ils ont un arrière ce qui se passe était prédit Et dire qu'on était une génération sacrifiée Avoir un pige et bête sans doute c'est ça qu'ils kiffaient Capable du meilleur comme du pire mais pire On a prouvé qu'on est les meilleurs Je lève mon verre et signe de mon stylo bic Aux blacks, blancs, beurs qui ont fait de moi Baccardi au mic Je lève mon verre au S.A et aux autres cliques Le message devant l'ennemi jamais abdiqué Refrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Les portes de la vie s'ouvrent à ceux qui savent les pousser Ärsenik ont pété un carreau Baccardi est passé à travers les barreaux Avec les Nèg'Marrons en l'an 2000 on fait le bilan, calmement On a fait les choses, on a fait les choses On a su anticiper en posant la pierre On propose plus, ouais, on s'impose et impromptu Qu'ils essayent de causer, aujourd'hui on peut disposer C'est du bon cru pour les adeptes ouais, sans être trop cru pour les ados Au plus vite on retourne Lino au ghetto Plus la crème des médias veulent nous détruire On a de la force pour reconstruire La force vienne d'en-bas et on se mobilise Les jeunes derrière nous comme le peuple derrière Moïse Je suis peut-être là au moins dans le désespoir Mais je veux créer avec vous à nous la victoire Refrain x2 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Le rap c'est l'histoire d'une génération qui Maintenant génère des sous mais avant tout fais péter le son La merde on l'a respirée ça nous a inspiré J'espère que les jeunes tiendront compte de notre expérience Je passe le flambeau aux MCs qui quadrillent le terrain Genre Marginal et l'Skadrille Grillez pas les étapes, on assure vos arrières Si tu captes pas le manège, tu vrilles On brille par notre élégance Il n'y a que des mots et des cris pour nos fans en abondance L'histoire nous appris à entrer l'histoire du rap Et cette victoire il fallait le vivre pour y croire Fallait le vivre pour y croire, à nous la victoire L'an 2000 et pour toujours, l'avenir nous appartient Refrain x4 À nous la victoire, que ceux d'en bas s'élèvent vers le haut Que nos messages fassent vibrer tous les mecs des halls Que la vie nous épargne tous ces mauvais rôles Plus de frontières, ni barrières, ni barreaux Plus de frontières, ni barrières, ni barreaux Pour tous les groupes de rap Plus de frontières, ni barrières, ni barreaux Pour les cités en France Plus de frontières, ni barrières, ni barreaux Pour la jeunesse en France Plus de frontières, ni barrières, ni barreaux Pour ceux qui ont espoir Plus de frontières, ni barrières, ni barreaux Pour ceux qui nous soutiennent Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux L'avenir nous appartient Plus de frontières, ni barrières, ni barreaux En l'an 2000, à nous la victoire</t>
+          <t>Hey Deux - double zéro - deux Le retour du Pit dans l'arène Marginal Sosa OK Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Ça fait chaud au cur de retrouver l'public Micmac de l'industrie, au mic c'est le même qui nique Rappeur unique dans son genre, vicelard J'rappe pour l'peuple et vise large Ma devise? Fidéliser les nôtres, faire danser les vôtres Passons l'message aux autres, implantons notre biz Tout vient d'là, la force et la rage Les mots bâtissent les churs et la rime c'est l'prestige Pendant qu'la presse s'fige sur nos perf', la rue juge nos écrits Quand on éclate, la terre vibre C'est la renaissance, je stoppe l'insensé C'est un braquage, s'abstenir âmes sensibles J'suis lancé, haut placé, les barricades J'ai l'élégance et la tchatche, tout Paris en parle Les anciens m'ont classé, Baccardi, palace du rap C'est ça la classe et tu l'sais Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! C'est moins lent, les mots moins longs, toujours mielleux J'répète, quand j'prends l'mic ça débielle J'enchaîne les rimes, minimise les drames Mon karma tellement fort fait d'moi c'mec éternel Le rap c'est l'sport, faut entretenir la forme Des mots tendres, j'ai pas peur moi d'faire plaisir aux femmes J'rappe pour tout public, faut pas qu'ils s'attendent à tout J'ai mon identité et développe mes atouts J'arrive pas à faire le mariolle comme certains J'ai pas l'diplôme de gangster comme d'autres Mais j'sais qu'il faut de tout pour faire un monde, c'est vrai Maintenant, dans l'rap on voit d'tout Bref, les polémiques je stoppe ça C'est l'brave artiste, le charmeur chic Ambianceur rare dit irrésistible Baccardi Pit, épelle mon nom Mais s'il vous plaît, avant d'm'apostropher, négro Quand j'rappe t'as peur Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Dans la rue s'trouvent tous mes détracteurs Ceux qui après l'premier album, peuvent bien s'rétracter Parfois l'ghetto pleure ses éléments perdus au front Trop show-biz ou obnubilés par l'franc J'ai la franchise de dire que quand l'fric frappe à ta porte T'as du mal à dire J'suis occupé, viens on remet ça à plus tard Mais l'truc c'est savoir rester intègre Et vivre à l'affût d'un éventuel échec Le rap c'est un cri d'guerre rempli d'haine XXX large Avec la rage dans les tripes, bien en chien dans une jungle C'est grave comment les mots démontrent Qu'avec, on démêle les corps de l'emprise du démon Ça devient comme la sape Tout l'monde est à l'affût du nouveau style, du nouveau rap barbare Même les bâtards critiquent, parlent dans leur barbe Camouflé XXX dare-dare, c'est boum Et qui aime me suive Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Tout l'monde Baccardi! Tout l'monde, tout l'monde Baccardi! J'entends pas, j'entends pas Baccardi! Tout l'monde avec moi Baccardi!</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Arrête 2 mentir</t>
+          <t>Baccardi De Première Classe</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>C'est Pit au mic Pourquoi tu ranges ta panoplie d'baggys, maintenant c'est bagouzes en or Plus de blouson Tommy, bienvenue chez Double Goose Vis à la bouffonerie, pour l'esprit caïd Arrête de jurer Walaye, cochon, tu manges bien du porc à l'Aïd Laïc à tes heures, au mic p't-être tu t'amuses mais J'ai pas besoin de mentir pour avoir un plan baise T'es plus blanc qu'un cachet d'aspirine Tu rimes contre Babylone, kifferais bien t'appeler Abdel Karim T'as pas d'go, t'es p't-être gay Avec tes Claudia Chiffon et Poubelle Naomi, invisible Stoppe ta tchatche, s'te plaît J'rencontre une meuf qui kiffe Baccardi Pit Qui m'dit qu'son mec lui a dit qu'on était potes, mate Un autre abruti qui veut prouver qu'il a des connexions dans l'milieu d'la chanson En deux-quatre-six j'le descends Tant pis pour lui, qu'il arrête de mentir mais pour Pit Ça fait une de plus dans sa collection Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Non, rien à foutre des gens qui m'disent que j'ai pas l'style d'un reggaeman J'habite Ges-Gar, j'suis capverdien, non mec j'suis pas jamaican J'ai grandi dans l'bitume, plus ou moins dans la lère-ga J'écoute du rap, j'kiffe le rap mais j'ai choisi d'faire du ragga Ignares sont les gens qui te jugent par rapport à ton look Mets des grosses baskets, moi j'préfère mes classiques Reebok Tu confonds Ris-Pa et Jamaica T'aurais souhaité t'appeler Buju, Beenie Man ou bien Sizzla Mais ce n'est pas l'cas petit, arrête donc tes conneries Aucune originalité, aucun feeling, aucun stylee J'habite dans une té-ci, et toi t'envies ceci Mais y a pas d'place pour les bouffons, pas d'place pour les photocopies Eh, c'est dur à dire mais ça m'fait tiep À Paname y a vraiment trop d'squales et d'squalettes, hey Aucune identité, ça ne fait qu'imiter Mais cesse de vanter ma cité tu n'y as jamais mis les pieds Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Arrête tes conneries, laisse la place aux vrais MC Ils veulent nous imiter, ya yeah Tu regardes trop la TV, t'prends pour un squale de NYC Mais cesse de les imiter, ya yeah Trop de super-flûtes espérant serrer un tas de super-putes Tu dis partout qu'Pit et Jacky sont tes super-potes Tu pèses le CFA, te dévalues de minute en minute Arrête de mentir mec, tout ça faut qu'ça stoppe c'est vrai Tu as la réputation d'être un mytho c'est vrai Dès que tu papotes, c'est pour dire un pipeau, c'est vrai C'est vrai, en plus j'ai l'impression que t'aimes pas ta mère Ou ce serait p't-être que t'aimes Baccardi, tu n'jures que sur ça C'est Jacky et Pit Baccardi Dans Liaisons Dangereuses Time Bomb, Secteur Ä Pour une liaison dangereuse Y a danger, aucun plagiat n'est possible Sur c'projet, y a qu'des vrais, enfoiré Je sais qu't'as pigé Ne raconte pas ce qui se passe dans nos cages d'escalier Vis ta vie au lieu d'envier ceux qui vivent dans des villes hostiles Pit Baccardi et Jacky de vrais enfants d'la cité Tu peux pas foutre la merde chez nous avec ton faux style Yeah yeah, calmement, calmement Secteur Ä, Time Bomb Dangereuse est la liaison Iso, Ghetch Pour tous les zoulous et toutes les zoulettes qui s'la pètent Tu peux pas foutre la merde chez nous Première Classe Calmement La rue case-nègres C'est Pit au mic</t>
+          <t>On n'est pas à la baisse, ni dans la dèche Mais on s'pose des questions, pourquoi ça tourne plus Parce qu'y a des bâtards qui nous font iech On m'lèche l'oreille avec le dernier 50 Cent Et là la vibe arrive, c'est toute la France qui va me check J'ai p't-être pas le déhanché des Harlem Shakers Mais sur mon épaule, le rap pose sa joue ouais Pour moi c'truc c'est un jeu, j'suis pas là pour m'la jouer Mais donner ma voix en plusieurs jets Et le cinq janvier j'reçois mon chèque J'place le rap à un autre stade, celui d'untouchable Ouais les gars je sens qu'c'est l'heure, au mic j'blesse Dans la rue j'ai fait c'qui fallait Dieu merci on m'a jamais passé les bracelets Pour les MC d'merde, j'vous l'ai dit, descendez-les J'fais écouter c'titre, mes négros disent c'est un single J'leur dis rien à foutre, pour moi ça roule tant que le public gueule Vas-y dis-le, crie-le, j'ai mis le truc avec la vibes signée Baccardi Nouveau millésime Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça Viens pas test, dis-moi qui n'acquiesce pas Ma manière de faire la fiesta T'inquiète, Baccardi dans les caisses Laisse, mami J'suis l'seul et unique à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangstas J'suis dans un game, j'suis là pour la gagne MC quatre-quatre j'vais des rues de Place des Fêtes à celle de Cannes J'reste black pourtant, j'mets p't-être du Prada Devant la grand-mère, c'est babouches, marcel avec un pagne Tu veux m'guez, laisse papa Paye ton loyer et tes impôts Baccardi Pite, c'est une taxe trop lourde Les bons comptes font les bons amis Et j'ai des bons amis qui attendent que l'on fasse les comptes Alors fais pas l'con, ta tête on décompte Y en a dans l'ombre qui écoutent pas l'rap et qui dansent au rythme du fusil à pompe Baccardi, celui qu'on aime et qu'on déteste Parce que j'appelle un Américain et qu'sur un titre j'le mets en guest Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça 2003, le rap est pris d'court mais n'est pas à terme Quand c'est terne, les thèmes et les termes, je les alterne Tu sens le karma ouais, toujours un seize sous mon K-Way Bouge ta graisse, que tu sois en Fendi ou en Rocawear J'suis un mec des blocs, j'respecte mon amour, ma famille et ma monnaie Le nom c'est Brown, le logo tu l'reconnais J'viens kill, j'suis pas d'calcul Tu m'entends dans les soirées de Lord Issa ou Cut Killer J'ai pas les paillettes mais je stresse le hip-hop Parce que j'brille trop et au microphone, j'suis trop fort mec C'que j'dis, j'le fais, c'que j'fais est dit V'là les faits, Family Brown, y a trop d'monde à plâtrer Viens pas m'cer-su, j'ai c'qu'il faut pour ça Et si j'croise ta fouf, t'as intérêt à t'faire du souci J'suis qu'au début d'ma carrière, j'vais en faire d'la caillasse Commence à m'haïr, j'maîtrise mon art J'suis le best Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça Men X Large à la prod C'est Pit au mic Ouais, troisième épisode Et tu l'sais 2003, 2004 Pour toi, toi et toi Men X Large à la prod Pit au mic, troisième épisode Première Classe Family Brown Et tu l'sais Ha ha</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Attitude</t>
+          <t>Besoin d’ennemis</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fini le temps où on vantait la vie et ses vertus Faudrait réveiller Montand, lui dire que Paris ne séveille plus Le macadam cherche des âmes à damner Et les cadavres sur pattes cherchent du crack à damer Une bicoque de bâtard, une vie de chiotte de lascar En rang, on tourne en rond comme des pilotes de Nascar Pas ni problèmes, pas ni bagarres Mais t'as des assoc' qui rêvent de te semer en route comme au Paris-Dakar La rue est traître comme un calibre à lheure des comptes Combien le réalise ou l'ont apprit à leurs dépends Au rythme de mes sons, les bandes se fond et se descendent En 30 secondes, des convoyeurs de fonds se défendent La rue une grande garce qui a trop baisé d'gars Tas beau aimer les 'tasses, tu la croises, tarrêtes pas, mets les gaz On est à bout, dollars et sexe engrossés Tu la boucle, te dépêches et donne la recette sans broncher Les criards se font crossés, les bitchs se font engrossées Tes erreurs se transforment en dossier, le maillot de la rue endossé Des thunes empochés rapidement sans bosser Un peu de pillave dans le gosier pour pioncer, tes fauché yeah Drôle dépoque, dur dêtre un lascar digne Je crois que je massagis, Pit Baccardi dans la gabardine Je menhardis, encaisse un bâtard de ma part Mes potes ne me parlent plus que de braquages et de placards Sur le terrain les petits, ils mangent tellement salement Tas même pas envie de venir prendre ta part du gâteau Ils bouffent avec les doigts, ils font tout, la C.C, la rabla Lhéro, le double zéro et la hagra Ça pue lincarcération, la longue peine Tas C.C, gare-la toi dans le fion, pas dans le zen Tas saisi, je passe une petite annonce à l'antenne Celui-ci il va finir pour long time à Nanterre Cest vrai, dégouter qu'on m'en demande Mais lhéro fait des heureux et des milliers de zéros sur les comptes en banque Me parle plus de la justice, vas-y je lencule Mes chances de men sortir sont restreintes, quasiment nulles Comprends pourquoi je rappe sale, je viens des quartiers sales Où on se fait respecter par la force ou par les armes Jai pas eu le choix moi, je refuse de faire partie des victimes Attitude warriors, si tu gazes on te nique, cest team-team Laisse-moi leur dire moi que je veux vivre libre mais sans ramper Nos mères versent des larmes de sang, on a des corps ensanglantés Depuis le départ, ça pue la fin tragique Désolé pour ceux que jai bé-bar, des fois c'est ça le trafic Hasba sur hasba, on te baise et on encaisse Bien sûr les flics enquêtent, y en a qui tombent et on encaisse De toutes façons cest comme ça depuis quon est nés mec on encaisse Mets-le toi en tête, cest hardcore la vie en tess Dans les quartiers cest de pire en pire, tout le monde se défonce Devant tout le monde, faut voir avec quelles substances ils se défoncent La tête dans la coke, le nez dans la coke Maintenant, ce sont les baltringues quont la cote À mon époque cétait en cachette, cest les tapettes qui sniffaient Si on savait, on te niquait, je sais même pas si tu survivais Mais cest la mode hein, ouais la mode hein Cette mode cest pas de chez nous, non ça vient des quartiers mondains Ce morceau cest pour les anciens comme Double Qui ont connu lépoque des Mac Douglas, celle des tags des coups de shlass À cette époque les valeurs cétait rage et courage Maintenant on trouve normal serrer la main des poucaves Jai limpression que la rue tourne à lenvers Maintenant pour être le best il faut flamber Les mecs montent et descendent à vitesse grand V Devenu dur de manger avec du shit, y a quà voir le prix dun 100 G Bah ouais ça sniffe et ça sniffe dur Vodka plus Redbull, voilà la mixture Les petits durs jouent les pitbulls Je parle plus au téléphone ça shlingue la shmiture On compte plus les sacrifiés sur lautel de la justice, foudroyés par des aveux Tauras beau leur cracher du fric, soudoyer les baveux Técopes dune peine de prison ferme Derrière des murs de prison ternes Cest triste mais cest ainsi, le royaume des petites donneuses La rue, la reine des michetonneuses Ce quel tas promis, cest clair tu lauras Mais à quel prix homi, pour ça il faudra faire ce qui faudra Il faudra tirer pour tuer Rares sont les voyous qui sinscrivent dans la durée Est-ce que tu vas trembler ? Est-ce que tu vas assurer ? Au moment de brrrrrraaaaah cracher la purée Eh ouais cest la rue, on tenvoie des meufs et on te plume Pour une dette impayée, un coup de travers, mec on te brûle Tas postulé pour le casting alors je te parle du rôle La rue, cest pas fumer 1 ou 2 joints en bas du hall non La rue cest traître La rue cest ton meilleur poto, qui te balance juste pour pouvoir payer ses dettes non Moi je te le dis davance Plus tu montes plus les quantités augmentent, ouais elles augmentent, faut suivre la cadence Faut en faire toujours plus car on en veut toujours plus Rares sont ceux qui en veulent tout court Niquer nos vies, on fait tout pour Oublie comme on nous a éduqués répute de cité oblige Et tous les jours nos parents subissent LÉtat essaye de leur faire comprendre quils nont pas fait leur taff Mais comment ces connards auraient agit à leur place Ils ont crée leurs cités, nous ont pris pour des cobayes Dans des tours de 15 étages, on vit ensemble On grandit ensemble, on meurt ensemble On pleure ensemble perdu on traîne en bande De la tristesse de la violence cest tout que je garde de mon enfance Je peins de la haine, dresse une fresque abstraite Loin des riches, loin de leurs vies presque parfaite Donne-moi le mic et laisse couler linstru, que je leur dise quils agissent Pensent et nous insultent à leurs guise Voilà ce que mes potos subissent Contrôle et humiliation, cest le nouveau supplice Des perquis', chez cinq frérots sur dix On a quitté lécole très tôt mais on a toujours droit aux interro surprises La gamelle à un goût de fruits de mer Parait-il impossible de fuir cette putain de vie de merde Ils tont capté, rattrapé par ton passé Comme beaucoup tas cru pouvoir tenir les murs de ton quartier À ce petit jeu comme toi, combien sont tombés ? Combien pensait se refaire parce quils avaient un plan B N'ont pas pu dire au revoir avant de partir Combien ont joués les chauds ? Combien se sont fait refroidir ? Combien ont cru pouvoir voler au-dessus des lois ? Combien se sont gavés et lont crié sur les toits ? Combien se sont fait lever par des amis à eux ? Combien se sont barrés pour ne pas payer ce quil devait ? Cest cette maudite life qui mattriste Combien ont terminé à lhôpital psychiatrique ? Combien ont fait pleurer leur mère ? Ignorer leur père ? On fait de la baraque familiale leur repère ? Combien, s'ils avaient continuer lécole Auraient été de très bons chefs dentreprise ou autre chose ? Combien ont quitter leur ZAC ? Combien pour la R.U.E ont niqué leur life ? Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car on mE.C.O.U.T.E Je dis que la R.U.E est une P.U.T.E Elle nous B.A.I.S.E, y a pas de D.O.U.T.E Elle me D.E.G.O.U.T.E Je peux pas te mentir car elle mE.C.O.U.T.E, elle mécoute gros1</t>
+          <t>Oxmo Puccino Black Mafia Jamais été une grosse caille-ra, même si le placard m'a guetté Mon karma m'évite un Armageddon vers qui le ghetto t'guide J'exige le respect du père de mon père jusqu'à mon petit-fils Ma création, chaque mot cause mon édifice J'ai échoué tant d'fois quand j'essaie quelq' chose Cette chose dit d'moi Dis, t'oses encore bosser ? La couleur d'peau, une raison pour haïr l'autre Moi j'suis ma propre poutre, je m'soutiens seul rien à foutre J'viens du 19, j'ai toutes les rimes qui vont avec Chnouf, cut, zef, biftons, biz de me-ca veut que J'ai pas vécu tout ça jusqu'ici, afin qu'des p'tits s'réunissent Et pissent sur ma pipe, non merci Sur le trône DJ Poska, dans le rôle du DJ 7 oscars Sélectionnés par all star Ox Ils s'disent cool quand ils m'guettent comme sous hypnose J'doute que leur but soit autre chose que de nuire Une manière de dire Pourquoi t'es pas pire que nous ? Dire qu'on riait d'toi dans l'temps où t'étais gentil Pour vivre libre, j'ai besoin d'ennemis Pour gérer ma haine, je peux jurer que des mauvais amis ça aide Tu te dis prêt à mourir comme Biggie ? J'te donne le top départ, t'es mort j'ai l'art de mordre au mic J'suis Ox black mafioso, écoute ma philosophie Pige pourquoi j'suis triste, soliste À l'aise, à 1000m à l'Est du traître Porte-malheur comme le chiffre 13 Pour toute la Face B, merci aux Vlavo, k-Se, Traoré, Issa J'viens du 19, Danube, Jacques Cartier, Demi-Lune Zoo, m'sieur le proviseur Baccardi Pit, Cassidy, Funky Maestro sur la 25e Sois 25 raisons d'arrêter de mixer Perchée sur des talons, les fesses ballons Torse bombé, mèches pony, bien huilée, gondolée dans l'dos Coin coin coin coin coin, les frères marchent comme des canards Portent les mêmes éléments, ça va d'la casquette aux panards Sebago, 501, cesse les blagues oh, coste-La T'es là, posté devant le Manapan hihihihihi Venu en RER, tu fais croire qu'tu viens du parking En fait je sais dans quel feuillage tu caches ta parka T'as raison, ça fait 10 balles en plus du Coca à la maison Des gâteaux ou même des mèches pony pour ta go La causette, pour zouker, ça parle 4x4 Susuki Tout ça pour mouiller la zezette À 3 plombes, panique, les filles tombent de leurs talons Se font marcher d'ssus à la vue du fusil à pompe Personne n'est touché, vu qu'le fusil vise la Lune Ça fait trop d'bruit et les keufs viennent et t'allument Ça fait des histoires dont ma plume s'amuse Mais rire du malheur des frères j'te jure qu'à force ça m'use</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Baccardi</t>
+          <t>Carpe Diem</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Hey Deux - double zéro - deux Le retour du Pit dans l'arène Marginal Sosa OK Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Ça fait chaud au cur de retrouver l'public Micmac de l'industrie, au mic c'est le même qui nique Rappeur unique dans son genre, vicelard J'rappe pour l'peuple et vise large Ma devise? Fidéliser les nôtres, faire danser les vôtres Passons l'message aux autres, implantons notre biz Tout vient d'là, la force et la rage Les mots bâtissent les churs et la rime c'est l'prestige Pendant qu'la presse s'fige sur nos perf', la rue juge nos écrits Quand on éclate, la terre vibre C'est la renaissance, je stoppe l'insensé C'est un braquage, s'abstenir âmes sensibles J'suis lancé, haut placé, les barricades J'ai l'élégance et la tchatche, tout Paris en parle Les anciens m'ont classé, Baccardi, palace du rap C'est ça la classe et tu l'sais Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! C'est moins lent, les mots moins longs, toujours mielleux J'répète, quand j'prends l'mic ça débielle J'enchaîne les rimes, minimise les drames Mon karma tellement fort fait d'moi c'mec éternel Le rap c'est l'sport, faut entretenir la forme Des mots tendres, j'ai pas peur moi d'faire plaisir aux femmes J'rappe pour tout public, faut pas qu'ils s'attendent à tout J'ai mon identité et développe mes atouts J'arrive pas à faire le mariolle comme certains J'ai pas l'diplôme de gangster comme d'autres Mais j'sais qu'il faut de tout pour faire un monde, c'est vrai Maintenant, dans l'rap on voit d'tout Bref, les polémiques je stoppe ça C'est l'brave artiste, le charmeur chic Ambianceur rare dit irrésistible Baccardi Pit, épelle mon nom Mais s'il vous plaît, avant d'm'apostropher, négro Quand j'rappe t'as peur Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Dans la rue s'trouvent tous mes détracteurs Ceux qui après l'premier album, peuvent bien s'rétracter Parfois l'ghetto pleure ses éléments perdus au front Trop show-biz ou obnubilés par l'franc J'ai la franchise de dire que quand l'fric frappe à ta porte T'as du mal à dire J'suis occupé, viens on remet ça à plus tard Mais l'truc c'est savoir rester intègre Et vivre à l'affût d'un éventuel échec Le rap c'est un cri d'guerre rempli d'haine XXX large Avec la rage dans les tripes, bien en chien dans une jungle C'est grave comment les mots démontrent Qu'avec, on démêle les corps de l'emprise du démon Ça devient comme la sape Tout l'monde est à l'affût du nouveau style, du nouveau rap barbare Même les bâtards critiquent, parlent dans leur barbe Camouflé XXX dare-dare, c'est boum Et qui aime me suive Tous les briquets dans l'ciel Tout l'monde se lève Laissons la haine et les armes sur l'sol C'est B.A., 2 C. A.,R.D.I Baccardi! Tout l'monde Baccardi! Tout l'monde, tout l'monde Baccardi! J'entends pas, j'entends pas Baccardi! Tout l'monde avec moi Baccardi!</t>
+          <t>Verse 1 L'histoire m'a fait, faut que j'en fasse une histoire Histoire d'être juste l'historique d'une génération en quête d'histoire Je nais je pleure et tu ris J'pars j'en ris et tu pleures Pleure des larmes Gais et tueries seront tes albums que je ferai pour vous Ce rap est le plus beau jour de ma vie Vis-à-vis de ma mère, je m'éclate comme elle aurait Certainement eu envie Si je peux construire ton cur alors je ferais des villes Que tu me voles la vedette pas grave tu sais On a juste une vie Si c'est pas moi c'est toi, si c'est pas toi c'est lui Si c'est pas lui c'est eux c'est par le même chemin Qu'on ira tous aux cieux J'parle d'un rien qui dit tout et fait comprendre que La vie c'est un rien mais je te jure, rien ne vaut de la vivre Il a pris l'avion et il y a eu un crash Il a traversé et sur le sol une voiture l'a scotché Il faisait du footing et subitement son cur a lâché Il écrivait du rap maintenant son nom est conjugué au passé Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité Verse 2 Pour qu'il y ait débat sur la mort Il faut un bon début et ce début Il est tellement loin T'as qu'à voir tout le monde qu'il y a déjà en bas On prend le train en route et on attend notre terminus Pourquoi se révolter contre le cycle terre Laisse-toi aller Je vends mon âme au rap Le rap donnera mon âme aux cieux Les dieux de l'Olympe m'accepteront-ils, si je me proclame messie? Rappeur marginal quand je regarde ce que j'ai à perdre à part ma vie Ce que j'ai à gagner c'est de l'argent et ses envies De l'amour aussi même si je n'ai pas de fric Et de la haine J'en suis victime si j'en ai trop de fric J'positive la chose, pose les larmes à côté Je suis dosé de vivre et que la joie de ma mort soit la cause Je suis venu être, pas pour paraître Vivre, disparaître Naître légende Jusqu'à ce que l'histoire du disque s'arrête Et aux absents je dédie cette mesure de silence Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité Verse 3 Vis, respire, si ça n'est pas de l'air pur ça Regarde-moi je suis jeune, je flambe toujours à jeun Y'a rien qui me gêne Rapper si on a la potion c'est qu'on parle à la vie Elle nous répond et tu nous envies Lorsque tu nous vois Mais elle a aussi frappé à la porte de chez nous Elle a pris quelqu'un d'autre en notre absence Si ça se trouve elle nous cherchait nous Je suis donc je le sais, je le sais et j'en sui Désormais, je sais sur Quel pied danser avant de rejoindre là-haut La décision de m'ôter la vie, je ne compte plus là-dessus En y repensant comment entre vie et mort j'ai pu être indécis Et j'osais crier, révolté quand on me traitait d'imbécile Si l'erreur est humaine, j'étais l'humaine erreur Je ne peux pas conclure ce texte autrement que Je veux vivre à mort Hook x 4 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Baccardi De Première Classe</t>
+          <t>Ça vient de chez nous</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>On n'est pas à la baisse, ni dans la dèche Mais on s'pose des questions, pourquoi ça tourne plus Parce qu'y a des bâtards qui nous font iech On m'lèche l'oreille avec le dernier 50 Cent Et là la vibe arrive, c'est toute la France qui va me check J'ai p't-être pas le déhanché des Harlem Shakers Mais sur mon épaule, le rap pose sa joue ouais Pour moi c'truc c'est un jeu, j'suis pas là pour m'la jouer Mais donner ma voix en plusieurs jets Et le cinq janvier j'reçois mon chèque J'place le rap à un autre stade, celui d'untouchable Ouais les gars je sens qu'c'est l'heure, au mic j'blesse Dans la rue j'ai fait c'qui fallait Dieu merci on m'a jamais passé les bracelets Pour les MC d'merde, j'vous l'ai dit, descendez-les J'fais écouter c'titre, mes négros disent c'est un single J'leur dis rien à foutre, pour moi ça roule tant que le public gueule Vas-y dis-le, crie-le, j'ai mis le truc avec la vibes signée Baccardi Nouveau millésime Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça Viens pas test, dis-moi qui n'acquiesce pas Ma manière de faire la fiesta T'inquiète, Baccardi dans les caisses Laisse, mami J'suis l'seul et unique à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangstas J'suis dans un game, j'suis là pour la gagne MC quatre-quatre j'vais des rues de Place des Fêtes à celle de Cannes J'reste black pourtant, j'mets p't-être du Prada Devant la grand-mère, c'est babouches, marcel avec un pagne Tu veux m'guez, laisse papa Paye ton loyer et tes impôts Baccardi Pite, c'est une taxe trop lourde Les bons comptes font les bons amis Et j'ai des bons amis qui attendent que l'on fasse les comptes Alors fais pas l'con, ta tête on décompte Y en a dans l'ombre qui écoutent pas l'rap et qui dansent au rythme du fusil à pompe Baccardi, celui qu'on aime et qu'on déteste Parce que j'appelle un Américain et qu'sur un titre j'le mets en guest Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça 2003, le rap est pris d'court mais n'est pas à terme Quand c'est terne, les thèmes et les termes, je les alterne Tu sens le karma ouais, toujours un seize sous mon K-Way Bouge ta graisse, que tu sois en Fendi ou en Rocawear J'suis un mec des blocs, j'respecte mon amour, ma famille et ma monnaie Le nom c'est Brown, le logo tu l'reconnais J'viens kill, j'suis pas d'calcul Tu m'entends dans les soirées de Lord Issa ou Cut Killer J'ai pas les paillettes mais je stresse le hip-hop Parce que j'brille trop et au microphone, j'suis trop fort mec C'que j'dis, j'le fais, c'que j'fais est dit V'là les faits, Family Brown, y a trop d'monde à plâtrer Viens pas m'cer-su, j'ai c'qu'il faut pour ça Et si j'croise ta fouf, t'as intérêt à t'faire du souci J'suis qu'au début d'ma carrière, j'vais en faire d'la caillasse Commence à m'haïr, j'maîtrise mon art J'suis le best Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Baccardi de Première Classe Pas d'chance mec Tu croyais que j'étais raide T'as beau dire que j'étais dead Pour ta peine j'refais surface Prends ça mec J'te la donne à l'ancienne J'lève mon verre à la tienne Mon style est toujours efficace Y a pas d'blème Ouais c'est moi qui tiens les rênes DJ scratche, fais du boucan quand j'enchaîne ça Men X Large à la prod C'est Pit au mic Ouais, troisième épisode Et tu l'sais 2003, 2004 Pour toi, toi et toi Men X Large à la prod Pit au mic, troisième épisode Première Classe Family Brown Et tu l'sais Ha ha</t>
+          <t>Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Ici cest dancefloor, pas bain dsang Mais dis-moi tas quel son dans ta caisse, moi jaime les beaux samples De janvier à décembre Jaime que la foule scande, nos refrains en blessent tant Parce que le manque de billes ici commence à être vexant Joublie le stress DJ et les Lévi-Strauss laissent voir des cuisses XXX si y a matière explosive Excuse-moi mec, on na pas le même standing Moi jarrive en jet et repars en hélico, cest une image Jai lflow aérien, bourricot y a trop d'mythos Jai fait bouffer par la racine le coquelicot MC, jsuis au rap parce qu'y a plus d'mystique Comme enterré vif, lâchant des rimes fantômes sur beat MC grizzly, jdébarque, tu fais grise mine Les MC sont verts de peur comme des XXX Disent Pit, on capte rien, tu rappes trop speed Jleur dis les mecs, cest vous qui écoutez trop lentement Ça vient dchez nous Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça On a lgroove, du toupet Flow caviar pour les couplets Trop dfoufs dans la zik j'épouse Baccardi ex-loser devenu crooner, style chanteur de blues Pousse les watts, lève le doigt si tapprouves Y a du son, eh J'veux t'voir en feu, en short ou en bas résille Jbrûle les enceintes, rangez les Uzi Promis à la victoire comme Mohamed Dia Jveux pas dfusillade, juste des corps qui bougent Quand j'déboule, c'est la razzia Cest cqui précède l'enterrement Bienvenue dans lcercle de lambianceur number one Un style que jhérite des ancêtres Chez nous, cest plus quune clique, cest une secte Chef dorchestre, jplane mais n'touche pas à la marijuana Le hip-hop sempare du pays de Marianne Cest la paria génération dans lPAF Dans les charts cest XXX ça vient dchez nous Pour vous avec la rue cest lmariage mais Dans mon style, jsuis lpatriarche Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Les gens des autres cliques sont dans un traumatisme Ils demandent où Première Classe a trouvé cet artiste Si tu vois mon CV, tu vois qucest un bad trip Mais venir sur mes plates-bandes, descendez la piste J'viens noircir la France avec mes rimes crades Ma dégaine, mon gros pif, mon égo de Black Jferai danser les gens en plus de bonder les salles Il est là lchallenge, aujourdhui cest money time Hey, venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste Venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste et tu l'sais Amuse-toi, amuse-toi Eh, amuse-toi, amuse-toi Baccardi Pit Amuse-toi, amuse-toi Et tu lsais Première Classe, hein hein Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Besoin d’ennemis</t>
+          <t>C’est plus fort que moi</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Oxmo Puccino Black Mafia Jamais été une grosse caille-ra, même si le placard m'a guetté Mon karma m'évite un Armageddon vers qui le ghetto t'guide J'exige le respect du père de mon père jusqu'à mon petit-fils Ma création, chaque mot cause mon édifice J'ai échoué tant d'fois quand j'essaie quelq' chose Cette chose dit d'moi Dis, t'oses encore bosser ? La couleur d'peau, une raison pour haïr l'autre Moi j'suis ma propre poutre, je m'soutiens seul rien à foutre J'viens du 19, j'ai toutes les rimes qui vont avec Chnouf, cut, zef, biftons, biz de me-ca veut que J'ai pas vécu tout ça jusqu'ici, afin qu'des p'tits s'réunissent Et pissent sur ma pipe, non merci Sur le trône DJ Poska, dans le rôle du DJ 7 oscars Sélectionnés par all star Ox Ils s'disent cool quand ils m'guettent comme sous hypnose J'doute que leur but soit autre chose que de nuire Une manière de dire Pourquoi t'es pas pire que nous ? Dire qu'on riait d'toi dans l'temps où t'étais gentil Pour vivre libre, j'ai besoin d'ennemis Pour gérer ma haine, je peux jurer que des mauvais amis ça aide Tu te dis prêt à mourir comme Biggie ? J'te donne le top départ, t'es mort j'ai l'art de mordre au mic J'suis Ox black mafioso, écoute ma philosophie Pige pourquoi j'suis triste, soliste À l'aise, à 1000m à l'Est du traître Porte-malheur comme le chiffre 13 Pour toute la Face B, merci aux Vlavo, k-Se, Traoré, Issa J'viens du 19, Danube, Jacques Cartier, Demi-Lune Zoo, m'sieur le proviseur Baccardi Pit, Cassidy, Funky Maestro sur la 25e Sois 25 raisons d'arrêter de mixer Perchée sur des talons, les fesses ballons Torse bombé, mèches pony, bien huilée, gondolée dans l'dos Coin coin coin coin coin, les frères marchent comme des canards Portent les mêmes éléments, ça va d'la casquette aux panards Sebago, 501, cesse les blagues oh, coste-La T'es là, posté devant le Manapan hihihihihi Venu en RER, tu fais croire qu'tu viens du parking En fait je sais dans quel feuillage tu caches ta parka T'as raison, ça fait 10 balles en plus du Coca à la maison Des gâteaux ou même des mèches pony pour ta go La causette, pour zouker, ça parle 4x4 Susuki Tout ça pour mouiller la zezette À 3 plombes, panique, les filles tombent de leurs talons Se font marcher d'ssus à la vue du fusil à pompe Personne n'est touché, vu qu'le fusil vise la Lune Ça fait trop d'bruit et les keufs viennent et t'allument Ça fait des histoires dont ma plume s'amuse Mais rire du malheur des frères j'te jure qu'à force ça m'use</t>
+          <t>Hey ! Calmement Éloigne les personnes sensibles et les cardiaques V'là commando Première Classe au complet Pit Baccardi, Ben-J, Jacky Ce soir c'est plus fort que vous Y'a pas plus fort que nous C'est plus fort que moi comme cette loi qui indexe mes paroles Me taxe et m'impute sur mes textes j'te jure c'est pas d'l'intox C'est pour l'amour du disque, vu qu'dans nos textes on prend des risques Et par amour du risque, à nos idéaux on s'fixe Et on s'passe de tous commentaires Merde si tu pense le contraire Ouais j'ai tort si je m'enterre Alors dis moi comment m'taire ? J'ai l'sens du recul Y'a d'la censure dans tous les sens Ils nous bâillonnent à mon sens Alors Ben-J qu'est-ce qu't'en penses ? Les mecs j'tout f'rais cause pour ma cause C'est bien trop fort j'accepte Le refus d'me taire quand les miens souffrent Pendant qu'la loi fait la fête Tête brûlée à l'herbe, je, j'raille Quand ils manient le mal pour la maille J'rapplique fous la merde Pas d'détails J'suis de loin la loi, la loi est loi d'aller dans mon sens J'suis plus droit qu'un homme droit, là est la preuve non sens Je l'ouvre sous peine de recrudescence de sentences C'est plus fort comme un militant condamné à la naissance C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi Pendant qu'des gangs bandent sur leurs blazes S'branlent sur des trucs nazes Défendent une authenticité Mais n'sont que des pions à la base Dans c'biz, et ça vient proclamer son indépendance en soldant on assure le règne pour notre descendance Dans 10 ans j'veux pas qu'les gens snobent, disant c'mec touche le SMIC Donc aujourd'hui j'me place, matte mon business et ma tactique C'est plus fort que mois déterminé à être déterminant Peut importe les moyens on élimine les obstacles en les franchissant On s'affranchit sans fléchir, multiplie nos efforts Faire du fric et des francs frère en clair faire fort Première Classe travaille dur et transpire comme au sport Pour être big et non small, j'lève mon majeur aux majors La majeur partie d'mes sous dans c'biz m'avait prévenu Y'a d'propos le fric c'est leur boeuf pour la bienvenue Quand l'échec est mal vu, du chéri tu passes au mal vie En choisissant l'indépendance, je sais qu'j'ai bien vu C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi J'ai grandi à Ges-gar Dans les cités dortoirs Vadrouillant sur l'bitume Comme un chien sur l'trottoir Depuis les choses ont changé On nous dit qu'on a changé Faut pas s'mentir On veut tous pourvoir manger Pour s'en sortir Même absent j'veux être de ceux toujours présents Je sais d'où je viens, où je vais, qui je suis bon sang Hey c'est plus fort que moi Je suis fier de l'endroit Où j'ai fait mes premiers pas Où j'ai connu mes peines et mes joies C'est la cohue des caïds J'emmène les brebis et les goinfres de mon frère De Bakary à Saïd Un bloc sans fondation comme un zoulou sans nation Moi sans ma tess C'est comme une boule en moins dans mon caleçon Même si on m'traite de traître je traite des faits Et fous l'feu et quand on m'demande je dis Représente que Place des Fêtes Au fait les mecs, j'suis pas en délit d'fuite Le cur y est toujours, je vous dédie cet album c'est Pit C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est beaucoup plus fort que moi Ce soir j'ai décidé de causer pertes et fracas J'maîtrise la discipline de semer tous tes tracas Ôte-toi de mon passage cela vaut mieux pour toi Pit, Ben-J, cky-Ja à trois n'plaisantent pas Ouais C'est plus fort que toi d'avouer qu'y'a pas plus fort que moi Tu t'prends pour un boss même sur basse j'te mets des baffes Et t'montre que t'es un MC bof, bref t'es un bluff ambulant Et comme on dit chez nous fiu tu fais du vent Si, si c'est lui l'homme Jacky vient semer la zizanie Cisaille mon ennemi et enjaille mes amis On vous déclare la guerre sans sortir l'artillerie Vu l'effectif qu'on a 3 soldats ça suffit Un p'tit cisaille en à 6 sous gros son Des bandes on perd pas nos couilles on t'baisera quand même quitte à S'faire du tigre, bigre, espiègle, vibreur de nègre Des sphères aux basses pègres, on emmerde les non-intègres C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi x2</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Carpe Diem</t>
+          <t>Chanteuse parmi des millions</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Verse 1 L'histoire m'a fait, faut que j'en fasse une histoire Histoire d'être juste l'historique d'une génération en quête d'histoire Je nais je pleure et tu ris J'pars j'en ris et tu pleures Pleure des larmes Gais et tueries seront tes albums que je ferai pour vous Ce rap est le plus beau jour de ma vie Vis-à-vis de ma mère, je m'éclate comme elle aurait Certainement eu envie Si je peux construire ton cur alors je ferais des villes Que tu me voles la vedette pas grave tu sais On a juste une vie Si c'est pas moi c'est toi, si c'est pas toi c'est lui Si c'est pas lui c'est eux c'est par le même chemin Qu'on ira tous aux cieux J'parle d'un rien qui dit tout et fait comprendre que La vie c'est un rien mais je te jure, rien ne vaut de la vivre Il a pris l'avion et il y a eu un crash Il a traversé et sur le sol une voiture l'a scotché Il faisait du footing et subitement son cur a lâché Il écrivait du rap maintenant son nom est conjugué au passé Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité Verse 2 Pour qu'il y ait débat sur la mort Il faut un bon début et ce début Il est tellement loin T'as qu'à voir tout le monde qu'il y a déjà en bas On prend le train en route et on attend notre terminus Pourquoi se révolter contre le cycle terre Laisse-toi aller Je vends mon âme au rap Le rap donnera mon âme aux cieux Les dieux de l'Olympe m'accepteront-ils, si je me proclame messie? Rappeur marginal quand je regarde ce que j'ai à perdre à part ma vie Ce que j'ai à gagner c'est de l'argent et ses envies De l'amour aussi même si je n'ai pas de fric Et de la haine J'en suis victime si j'en ai trop de fric J'positive la chose, pose les larmes à côté Je suis dosé de vivre et que la joie de ma mort soit la cause Je suis venu être, pas pour paraître Vivre, disparaître Naître légende Jusqu'à ce que l'histoire du disque s'arrête Et aux absents je dédie cette mesure de silence Hook x 2 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité Verse 3 Vis, respire, si ça n'est pas de l'air pur ça Regarde-moi je suis jeune, je flambe toujours à jeun Y'a rien qui me gêne Rapper si on a la potion c'est qu'on parle à la vie Elle nous répond et tu nous envies Lorsque tu nous vois Mais elle a aussi frappé à la porte de chez nous Elle a pris quelqu'un d'autre en notre absence Si ça se trouve elle nous cherchait nous Je suis donc je le sais, je le sais et j'en sui Désormais, je sais sur Quel pied danser avant de rejoindre là-haut La décision de m'ôter la vie, je ne compte plus là-dessus En y repensant comment entre vie et mort j'ai pu être indécis Et j'osais crier, révolté quand on me traitait d'imbécile Si l'erreur est humaine, j'étais l'humaine erreur Je ne peux pas conclure ce texte autrement que Je veux vivre à mort Hook x 4 Combien de vies nous a-t-elle ôté ? Je vais de l'avant elle vient quand et de quel côté ? Chaque minute chaque heure chaque jour nous sont décomptés Je vis en attendant de mourir je l'ai bien mérité</t>
+          <t>2006 remix Hit Partners, Men X Large Et tu l'sais Fais péter l'son, papi c'est Gen, j'viens faire le million tu l'sais C'est le nouveau projet de Men X Large, fais pas l'con Tu connais l'truc, lève les mains en l'air quand mon flow bounce Oh, oh oh C'est Hit Partners Sur ce putain d'son Je pose mon flow sur le beat C'est G.E.N. au contrôle Sur ce putain d'son J'te donne mes phases Copie si tu veux, c'est du hip-hop soul Sur ce putain d'son Attache ta ceinture Pour un décollage immédiat Sur ce putain d'son Street-tape promo, Hit Partners, la cible de tous les médias Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Dans l'milieu, j'fais la diff', j'suis la miss qui s'immisce pour le biff Demande donc à mes complices La nouvelle génération Moi j't'explique, quand je kicke, je m'applique Quand la zik sent l'Afrique et sonne comme l'Amérique tu l'sais Ma génération Sont tous des wacks'n'b Ma génération N'ont toujours pas compris Ma génération Oh, quelle tragédie Où sont les vrais, ceux qui s'la donnaient, je le reconnais Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais ouais ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Un, deux, ça c'est pour le flow MC qui vaut des milliards, j'suis unique, à mort les clones J'reste l'icône, roule avec le top J'ai baisé l'instru, Gen pose un flow aiguisé Déguisés, y a trop de chanteurs qui l'sont Elle va les épuiser, abusé, la miss a trop d'maîtrise Une chanteuse parmi des millions, un diamant sur le sillon Un volcan dans l'océan Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Sur ce putain d'son Sur ce putain d'son, yeah, c'est la miss Sur ce putain d'son Un diamant sur le sillon, un volcan dans l'océan Sur ce putain d'son Tu l'sais, hein, hein, sur ce putain d'son Sur ce putain d'son Baccardi Pit, Gen Renard, et tu l'sais C'est l'remix 2006, Baccardi Pit, Première Classe Hit Partners, Men X Large J'suis l'seul à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangsta</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Ça vient de chez nous</t>
+          <t>Classé X &amp; Freestyle (Say yo my man)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Ici cest dancefloor, pas bain dsang Mais dis-moi tas quel son dans ta caisse, moi jaime les beaux samples De janvier à décembre Jaime que la foule scande, nos refrains en blessent tant Parce que le manque de billes ici commence à être vexant Joublie le stress DJ et les Lévi-Strauss laissent voir des cuisses XXX si y a matière explosive Excuse-moi mec, on na pas le même standing Moi jarrive en jet et repars en hélico, cest une image Jai lflow aérien, bourricot y a trop d'mythos Jai fait bouffer par la racine le coquelicot MC, jsuis au rap parce qu'y a plus d'mystique Comme enterré vif, lâchant des rimes fantômes sur beat MC grizzly, jdébarque, tu fais grise mine Les MC sont verts de peur comme des XXX Disent Pit, on capte rien, tu rappes trop speed Jleur dis les mecs, cest vous qui écoutez trop lentement Ça vient dchez nous Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça On a lgroove, du toupet Flow caviar pour les couplets Trop dfoufs dans la zik j'épouse Baccardi ex-loser devenu crooner, style chanteur de blues Pousse les watts, lève le doigt si tapprouves Y a du son, eh J'veux t'voir en feu, en short ou en bas résille Jbrûle les enceintes, rangez les Uzi Promis à la victoire comme Mohamed Dia Jveux pas dfusillade, juste des corps qui bougent Quand j'déboule, c'est la razzia Cest cqui précède l'enterrement Bienvenue dans lcercle de lambianceur number one Un style que jhérite des ancêtres Chez nous, cest plus quune clique, cest une secte Chef dorchestre, jplane mais n'touche pas à la marijuana Le hip-hop sempare du pays de Marianne Cest la paria génération dans lPAF Dans les charts cest XXX ça vient dchez nous Pour vous avec la rue cest lmariage mais Dans mon style, jsuis lpatriarche Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça Les gens des autres cliques sont dans un traumatisme Ils demandent où Première Classe a trouvé cet artiste Si tu vois mon CV, tu vois qucest un bad trip Mais venir sur mes plates-bandes, descendez la piste J'viens noircir la France avec mes rimes crades Ma dégaine, mon gros pif, mon égo de Black Jferai danser les gens en plus de bonder les salles Il est là lchallenge, aujourdhui cest money time Hey, venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste Venez sur la piste, laissez faire lartiste Admire la manière dont opère un spécialiste et tu l'sais Amuse-toi, amuse-toi Eh, amuse-toi, amuse-toi Baccardi Pit Amuse-toi, amuse-toi Et tu lsais Première Classe, hein hein Vas-y bouge, cest lson qui vient dchez nous Fais tourner le beat que je traumatise les foules, eh Amuse-toi, en jean ou en costard Chérie bouge ton boul, donner du kif jaime ça</t>
+          <t>Yo Pit, j'fais tellement tourner dmeufs Qu'on m'dit darrêter mon cinéma La bouzni aux mèches rousses Qu'j'ai pisté en loucedé, kiffe sur moi J'ai joué les lovers, tu sais comment j'suis sournois Pardi elle est d'jà r'parti dans la partie Comme si j'avais promis lparadis Vu son putain dtar-pé, j'vais pas râler mardi Pour elle ça va pas tarder, enfin cest c'qu'elle m'a dit Say yo my man Ah ouai cette meuf là, elle jouera dmes boules comme des dés Pit marque son territoire, caresse ctte meuf là pour moi, Hill Tu vois la bell bamboula, elle a un joli boul hein ? J'crois qu'on tient le bon bout, la belle poule J'lance un poulain, moi j'suis trop l'macro, l'ancien Jamais en chien d'gos, regarde le siège arrière d'ma Lancia Ch'vaux sous l'capot, excités comme des étalons, des pur-sangs Si on ken pas suce, ce s'ra toujours ça Défais mon fute, ma ture-cein Tu fais la go dure, j'espère au moins que t'as des purs seins Sous ta combinaison en cuir fin Check, elles m'appellent Hill yo Si t'es dans Time Bomb pour les gos c'est facile yo Je fais le mal comme x personne ne peut le faire C'est caille-ra jusqu'au Dim, tu m'connais Ouai je tchatche, j'suis perforant, en plus j'suis super fort en rap J'suis performant, j'fais des perfs, c'ness-bi c'est mon taf J'déconne 10 fois moins qu'avant J't'étonne dis-moi fils, comment il m'semble que tu m'jalouses En loucedé je fais mon business Des mcs bidons qui stressent, parlent sur nous mais laisse papy Le Pit ne blague pas sur la 7K Avec mon pote Puccino, on représente la Time Bomb clique On me nomme O.X.M.O., classé X tel les men Élément mal aimant, antipathique, flippe ta race Bad jusqu'à l'os, bosse pour être le boss des mcs T'opposer si t'as osé, j'vise Quand j'prends le mic j'assure un max avec un minimum On dit qu'ton mac sent pas bon Mini, t'es qu'un p'tit bonhomme Nommé Oxmo, l'intestable au plus haut poste Je veux dominer, black sans cheveux gominés au top J'ai d'la matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Minute mec, il semble que tu sois médisant envers mon crew Mes 10 ans d'avance entre mon leust et le tien Quoi ? Ils parlent sur le crew ? Quand j'lève mon gun au top comme Tom Cruise Ils parlent de paix et s'la jouent zulu Mais où vas-tu toi ? J'te tue moi Lève tes fesses, tu pues toi Je sens aux alentours une sale odeur de putain S'il t'reste une bombe rajoute le time, voici l'nom d'ma clique Les autres crew on les renverse comme les états en Afrique x2 Round 1, quand je prends le mic Trop d'mcs tout d'un coup on le trac Tu chômes ducon, tu trouves cheum qu'on t'explose en rime Qu'on ait plus de leust que toi, c'est du Time Bomb Forcé d'évacuer la salle, c'est comme de l'explosif Trop d'souffle, trop d'mcs souffrent Grossiste en rap, tu veux des mots ? J'te sers en kilos Oxmo et Pit, dealers de mots, maîtrisent leur biz Écoute bien, j'leur dis 2 mots à tous ces jaloux Je pisse sur leurs têtes rouées de coups Je m'en fous de c'qu'ils pensent Pot d'Häagen-Dazs de rimes, ice creaminel, Miles Davis Ils font qu'incester tes vices espèce de fils de que dalle Fais gaffe à ta gueule, j'ferme pas ma gueule Dans mon posse Time Bomb on parle pas pour rien Nous sommes les fines gueules Nous sommes plus fous qu'les gees, donne-moi des bisous Ton gars il joue à quoi ? J'ai plus de bijoux qu'lui, moi je brille x2</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>C’est plus fort que moi</t>
+          <t>CMW</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Hey ! Calmement Éloigne les personnes sensibles et les cardiaques V'là commando Première Classe au complet Pit Baccardi, Ben-J, Jacky Ce soir c'est plus fort que vous Y'a pas plus fort que nous C'est plus fort que moi comme cette loi qui indexe mes paroles Me taxe et m'impute sur mes textes j'te jure c'est pas d'l'intox C'est pour l'amour du disque, vu qu'dans nos textes on prend des risques Et par amour du risque, à nos idéaux on s'fixe Et on s'passe de tous commentaires Merde si tu pense le contraire Ouais j'ai tort si je m'enterre Alors dis moi comment m'taire ? J'ai l'sens du recul Y'a d'la censure dans tous les sens Ils nous bâillonnent à mon sens Alors Ben-J qu'est-ce qu't'en penses ? Les mecs j'tout f'rais cause pour ma cause C'est bien trop fort j'accepte Le refus d'me taire quand les miens souffrent Pendant qu'la loi fait la fête Tête brûlée à l'herbe, je, j'raille Quand ils manient le mal pour la maille J'rapplique fous la merde Pas d'détails J'suis de loin la loi, la loi est loi d'aller dans mon sens J'suis plus droit qu'un homme droit, là est la preuve non sens Je l'ouvre sous peine de recrudescence de sentences C'est plus fort comme un militant condamné à la naissance C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi Pendant qu'des gangs bandent sur leurs blazes S'branlent sur des trucs nazes Défendent une authenticité Mais n'sont que des pions à la base Dans c'biz, et ça vient proclamer son indépendance en soldant on assure le règne pour notre descendance Dans 10 ans j'veux pas qu'les gens snobent, disant c'mec touche le SMIC Donc aujourd'hui j'me place, matte mon business et ma tactique C'est plus fort que mois déterminé à être déterminant Peut importe les moyens on élimine les obstacles en les franchissant On s'affranchit sans fléchir, multiplie nos efforts Faire du fric et des francs frère en clair faire fort Première Classe travaille dur et transpire comme au sport Pour être big et non small, j'lève mon majeur aux majors La majeur partie d'mes sous dans c'biz m'avait prévenu Y'a d'propos le fric c'est leur boeuf pour la bienvenue Quand l'échec est mal vu, du chéri tu passes au mal vie En choisissant l'indépendance, je sais qu'j'ai bien vu C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi J'ai grandi à Ges-gar Dans les cités dortoirs Vadrouillant sur l'bitume Comme un chien sur l'trottoir Depuis les choses ont changé On nous dit qu'on a changé Faut pas s'mentir On veut tous pourvoir manger Pour s'en sortir Même absent j'veux être de ceux toujours présents Je sais d'où je viens, où je vais, qui je suis bon sang Hey c'est plus fort que moi Je suis fier de l'endroit Où j'ai fait mes premiers pas Où j'ai connu mes peines et mes joies C'est la cohue des caïds J'emmène les brebis et les goinfres de mon frère De Bakary à Saïd Un bloc sans fondation comme un zoulou sans nation Moi sans ma tess C'est comme une boule en moins dans mon caleçon Même si on m'traite de traître je traite des faits Et fous l'feu et quand on m'demande je dis Représente que Place des Fêtes Au fait les mecs, j'suis pas en délit d'fuite Le cur y est toujours, je vous dédie cet album c'est Pit C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est beaucoup plus fort que moi Ce soir j'ai décidé de causer pertes et fracas J'maîtrise la discipline de semer tous tes tracas Ôte-toi de mon passage cela vaut mieux pour toi Pit, Ben-J, cky-Ja à trois n'plaisantent pas Ouais C'est plus fort que toi d'avouer qu'y'a pas plus fort que moi Tu t'prends pour un boss même sur basse j'te mets des baffes Et t'montre que t'es un MC bof, bref t'es un bluff ambulant Et comme on dit chez nous fiu tu fais du vent Si, si c'est lui l'homme Jacky vient semer la zizanie Cisaille mon ennemi et enjaille mes amis On vous déclare la guerre sans sortir l'artillerie Vu l'effectif qu'on a 3 soldats ça suffit Un p'tit cisaille en à 6 sous gros son Des bandes on perd pas nos couilles on t'baisera quand même quitte à S'faire du tigre, bigre, espiègle, vibreur de nègre Des sphères aux basses pègres, on emmerde les non-intègres C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi C'est plus fort que moi militer contre leurs droits Ouais Ouais Ouais Pour mon indépendance j'milite quitte à m'en mordre les doigts Je reste fidèle à la rue, ma puissance vient d'là bas Ouais Ouais Ouais Faut qu'soit plus fort que toi pour qu'on mise le prix fort sur moi x2</t>
+          <t>Eh yo, Inter You're crazy for this one, hombre geah You're crazy for this one, I told you Trust me, trust me, trust me yeah , Dosseh, Le Moine, Max, Amougou FBI, FC, la famille Baccardi La famille au pays, Mvog-Ada et tu l'sais Nkolndongo, JPP, Bastos, Elig-Essono on est là - Hé, LAL - Ouais, Pit ? - On va leur show qu'on est les plus forts, man - Gars, le poisson pourrit par la tête - Imbattables jusqu'à la mort - On va leur show, on va leur show - Tu peux pas test' - Tu n'peux pas test', ah-han - Un lion ne meurt pas, il dort, haha, empire - C'est le sang à l'il, César Charp Si on s'connecte comme Okocha et Amokachi Wallaye, ça devient technique, l'rap français en train d'agoniser Il est en train de reboire ce qu'il avait déjà pissé oh la la Ça devient comme l'histoire de cette fille qui a eu un bébé au lycée Tout l'monde pensait que c'était d'ma faute parce que j'étais Le premier à la frapper comme Sunday Oliseh SSS sale, sage, sauvage, j'reste Un d'ces négros du ghetto, j'regarde tous les regards J'montre mes montres et les autres pompent mes pompes Peut-être que t'aimes mon flow sûrement parce que t'es à l'aise dans l'eau Comme ceux qui ont grandi dans le pays d'Bongo Laisse, mes autres ex, c'est des Z Et ont d'quoi t'mettre la vie sens dessus dessous, ouais Nos ennemis sont tendres comme les madésus, fuck les sushis Mes négros parlent nouchi, s'habillent en Gucci Écoutent les dernières sélections d'boucheries Mélange pas des goûts d'chicos et le bullshit J'suis avec une sista qui parle lari, j'la laisse choisir tout dans la boutique OK, miss, prends, prends c'que tu veux Mec, on bosse, faux papiers, faux chèques, faux airs d'boss J'viens juste d'être éjecté d'la chaise électrique comme Drou Ma mère continue d'trouver qu'j'suis beau comme tout oh la la Toujours en place, j'viens d'une des races les plus craintes Dans les corps à corps, dans les affaires 15 millions d'habitants, quart-de-finaliste de la Coupe du monde 4 Coupes d'Afrique, haaa, négro, les Camer' yeah Demande à Cédric, petit frère, on fabrique On frappe comme les prises électriques On prend l'argent à chaque sortie comme le périphérique han Paris, London, Oslo, ma diaspora prend de l'ampleur slow-slow Interpol a peur et est en stress oh la la Comme un jour de l'an où personne n'a l'heure La police d'Europe nous meurt, déterminés, on reste Je chante pour quand on pleure, pour ces nuits où tu peux compter qu'sur ton cur J'en aurais buté pour devenir un MC réputé La rue m'a appelé LAL, El Commandante Pit m'a dit Tu sais, l'argent, c'est que dalle que dalle J'lui ai répondu Normal, on a le mental C'est pour mon pays, c'est pour tous ceux qui veulent nous shoots On rebondira toujours comme des balles de foot Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted J'demande pas, j'me permets, voilà ma différence J'fais des crimes sous X, mon rapport avec le rap est pornographique Quand j'débarque, c'est pour tout baiser yeah Comme une rumeur, Baccardi, c'est énigmatique D'la génération classique genre Illmatic Dans mon sang, un mélange de vert, de rouge, de jaune Ma merde n'est pas faite pour les WC mais la couche d'ozone Moi, j'aime le rap charismatique comme LAL KO sont ses détracteurs après son mic-check, le renoi fait M.A.L Appelle-moi euro, j'fuck le dollar, j'suis toujours au-dessus Mes dos sont bloqués en Suisse ou dans une colombo À la rime épicée, c'est pas la chaude pisse Mais mon rap qui t'fait crier quand tu vas pisser À la voix, tu sais qui c'est J'ai fondé empire après PC tu l'sais J'suis l'macaque venu dans l'hip-hop en charter sans récépissé J'ai récité des versets pour les mecs de cité Un des rares à avoir lu le certificat d'authenticité J'vis pas la misère, j'la fais, la merde, j'l'ai fructifiée T'y arrives pas ? C'est pour ça qu'ton style pue Qui c'est qui parle ? De moi, on veut s'débarrasser Rap cocaïne, haha, pour ça qu'j'suis toujours pisté M'attrister parce qu'on m'insulte ? non J'en vois pas la nécessité Bis c'est pour comprendre pourquoi j'suis sollicité ah-han L'histoire, j'la raconte pas, j'la fais Dans l'rap, j'ai du crédit, si t'es en galère, bipe-moi et j'te rappelle yeah Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Ce qui nous définit, primo, c'est le mental C'est pour ça qu'on nous appelle les indomptables Dans votre rap game, on devient incontournable On est l'aéroport, la piste de l'aéroport, là où tout l'monde atterrit Rien n'se passera sans nous, les Camer' What up? Haha, what up? Incontournables comme un ndjoka du Katios Big up</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chanteuse parmi des millions</t>
+          <t>Comme à l’ancienne</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2006 remix Hit Partners, Men X Large Et tu l'sais Fais péter l'son, papi c'est Gen, j'viens faire le million tu l'sais C'est le nouveau projet de Men X Large, fais pas l'con Tu connais l'truc, lève les mains en l'air quand mon flow bounce Oh, oh oh C'est Hit Partners Sur ce putain d'son Je pose mon flow sur le beat C'est G.E.N. au contrôle Sur ce putain d'son J'te donne mes phases Copie si tu veux, c'est du hip-hop soul Sur ce putain d'son Attache ta ceinture Pour un décollage immédiat Sur ce putain d'son Street-tape promo, Hit Partners, la cible de tous les médias Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Dans l'milieu, j'fais la diff', j'suis la miss qui s'immisce pour le biff Demande donc à mes complices La nouvelle génération Moi j't'explique, quand je kicke, je m'applique Quand la zik sent l'Afrique et sonne comme l'Amérique tu l'sais Ma génération Sont tous des wacks'n'b Ma génération N'ont toujours pas compris Ma génération Oh, quelle tragédie Où sont les vrais, ceux qui s'la donnaient, je le reconnais Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais ouais ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Un, deux, ça c'est pour le flow MC qui vaut des milliards, j'suis unique, à mort les clones J'reste l'icône, roule avec le top J'ai baisé l'instru, Gen pose un flow aiguisé Déguisés, y a trop de chanteurs qui l'sont Elle va les épuiser, abusé, la miss a trop d'maîtrise Une chanteuse parmi des millions, un diamant sur le sillon Un volcan dans l'océan Chanteuse parmi des millions Mais quand je chante, j'fais la diff', ouais Chanteuse parmi des millions Je bosse mon flow pour rester dans le vrai Chanteuse parmi des millions Je sais, on ne m'attendait pas Chanteuse parmi des millions Maintenant j'suis là, faudra faire avec moi Sur ce putain d'son Sur ce putain d'son, yeah, c'est la miss Sur ce putain d'son Un diamant sur le sillon, un volcan dans l'océan Sur ce putain d'son Tu l'sais, hein, hein, sur ce putain d'son Sur ce putain d'son Baccardi Pit, Gen Renard, et tu l'sais C'est l'remix 2006, Baccardi Pit, Première Classe Hit Partners, Men X Large J'suis l'seul à pouvoir faire ça Du rap doux, du rap pour les dancehalls, du rap pour les gangsta</t>
+          <t>Pit au mic shh shh Ärsenik Tu l'sais It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time J'mets l'truc si haut que tous les BBoys au micro crient yo yo V'là qu'j'suis au retour en 88 Enfile tes lacets fluos et ton gros sweat Le beat tourne à la suite On s'nique les omoplates Electric boogie On les plies à l'eau plate Éclate le parquet, et dis On est beaucoup en teddy Les rares sous écrous veulent la jouer Rock Steady Trou on est tous unis dans la zone Moi c'est Turbo et toi c'est Ozone Le truc c'est paix, amour, unité Superstars aux pieds, on tricks en communauté On commet, on a la sueur et les break beats Rock spit, Lino, Calbo Bors, Pit How, quitte à s'tirer les locks vite, paw! On les intoxe comme au Roxy J'vais cartonner d'entrée Baccardi Pit j'aime représenter J'suis peut-être pas connu, jusqu'à London Mais j'suis connu comme Pit, au microphone Jadis l'affiche étais gratuite J'rappais avec des mecs sur la ligne 8, Starter, Bobby ensuite Nos héros étaient , Public Enemy, Rakim, et Run DMC It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Moi j'commence en comme a-ç Tchik tchik, tout passe Passe en face, j'pousse, l'as en preum's classe Place, écarte le cercle Ça va , les soupes au lait ou bien, vas-y coupez les Dah dah, ah donc C'était comme ça À l'époque quand on bougeait y'avait pas d'lope-sa Enchaine, ça casse, passe à l'autre vas-y brille maintenant Ya c'est naze bidon tema Seulement cou cou hou hou ha Tout en sueur T'étais content quand tu sortais Et qu't'avais sué d'la buée, d'la bave Grave des halls jusqu'aux caves, fumée d'bédave La concierge gueule la vieille poucave Maintenant c'est viole, cambriole, plus d'cabrioles La gnole c'est tout nombreux dans la fiole Malgré ça on est encore là pour broyer l'beat C'est Baccardi Pit, du un on revient, on fout la merde À mille à l'heure, mordu d'belles reprises nous voilà Old school, mais, toujours bien à l'aise J'rappe, c'est typiquement technique Pit, bloque là sur violent break beat Peace and love, dans le même esprit On s'pavane, black sais qu't'es rien sans bandana Le B, le A, deux C, A, R, D, I, le A tréma, le P, le C Ça c'est nous Ça c'est nous It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Déjà dancehall, avant l'époque Big Pop-pa Zoulou breakait ou the Rock Base Hop, rock, H, I, P, H, O, P, poche à mise sur l'côté On danse, ça s'clash, dispatche, pichenette t'es bouche bée Peter s'prend aux portes du Globo et Bataclan Trech boy et quin-reu arrivée en boîte en clan Des claques se perdent et à la Fontaine des Innocents Châtelet, Gare du Nord, on croisait des mecs en sang Micro test, han Reste à envoyer l'son Lino en guest, han La foule se manifeste Range ton canifeste Ouest avant qu' infestent Les villes, les rues, les ruelles comme dans la manif En test, ça part Les gosses braillent ce truc c'est tout c'qui nous reste ! Et j'veux ma part, ma veste, elle a trois bandes Mes pompes aussi, pompe le beat Didi J'hausse le ton, ambiance des pocees J'dépose mon rencard et mets mon cash, j'suis payé Sur l'beat j'suis ton-car avant qu'on vienne chopper yeah Ok ça tourne, vrille comme la toupie Affole toutes les groupies Invente de nouvelles phases Dans mon crew on manque pas d'toupet Heiiin ça vote pour griller nos plans Aaah sur Paname y'a plus un seul mur blanc C'est zing zang, zing sang sang Pour l'A,R,S,E,N,I,K et te pille à l'ancienne It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Classé X &amp; Freestyle (Say yo my man)</t>
+          <t>Compte avec moi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yo Pit, j'fais tellement tourner dmeufs Qu'on m'dit darrêter mon cinéma La bouzni aux mèches rousses Qu'j'ai pisté en loucedé, kiffe sur moi J'ai joué les lovers, tu sais comment j'suis sournois Pardi elle est d'jà r'parti dans la partie Comme si j'avais promis lparadis Vu son putain dtar-pé, j'vais pas râler mardi Pour elle ça va pas tarder, enfin cest c'qu'elle m'a dit Say yo my man Ah ouai cette meuf là, elle jouera dmes boules comme des dés Pit marque son territoire, caresse ctte meuf là pour moi, Hill Tu vois la bell bamboula, elle a un joli boul hein ? J'crois qu'on tient le bon bout, la belle poule J'lance un poulain, moi j'suis trop l'macro, l'ancien Jamais en chien d'gos, regarde le siège arrière d'ma Lancia Ch'vaux sous l'capot, excités comme des étalons, des pur-sangs Si on ken pas suce, ce s'ra toujours ça Défais mon fute, ma ture-cein Tu fais la go dure, j'espère au moins que t'as des purs seins Sous ta combinaison en cuir fin Check, elles m'appellent Hill yo Si t'es dans Time Bomb pour les gos c'est facile yo Je fais le mal comme x personne ne peut le faire C'est caille-ra jusqu'au Dim, tu m'connais Ouai je tchatche, j'suis perforant, en plus j'suis super fort en rap J'suis performant, j'fais des perfs, c'ness-bi c'est mon taf J'déconne 10 fois moins qu'avant J't'étonne dis-moi fils, comment il m'semble que tu m'jalouses En loucedé je fais mon business Des mcs bidons qui stressent, parlent sur nous mais laisse papy Le Pit ne blague pas sur la 7K Avec mon pote Puccino, on représente la Time Bomb clique On me nomme O.X.M.O., classé X tel les men Élément mal aimant, antipathique, flippe ta race Bad jusqu'à l'os, bosse pour être le boss des mcs T'opposer si t'as osé, j'vise Quand j'prends le mic j'assure un max avec un minimum On dit qu'ton mac sent pas bon Mini, t'es qu'un p'tit bonhomme Nommé Oxmo, l'intestable au plus haut poste Je veux dominer, black sans cheveux gominés au top J'ai d'la matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Minute mec, il semble que tu sois médisant envers mon crew Mes 10 ans d'avance entre mon leust et le tien Quoi ? Ils parlent sur le crew ? Quand j'lève mon gun au top comme Tom Cruise Ils parlent de paix et s'la jouent zulu Mais où vas-tu toi ? J'te tue moi Lève tes fesses, tu pues toi Je sens aux alentours une sale odeur de putain S'il t'reste une bombe rajoute le time, voici l'nom d'ma clique Les autres crew on les renverse comme les états en Afrique x2 Round 1, quand je prends le mic Trop d'mcs tout d'un coup on le trac Tu chômes ducon, tu trouves cheum qu'on t'explose en rime Qu'on ait plus de leust que toi, c'est du Time Bomb Forcé d'évacuer la salle, c'est comme de l'explosif Trop d'souffle, trop d'mcs souffrent Grossiste en rap, tu veux des mots ? J'te sers en kilos Oxmo et Pit, dealers de mots, maîtrisent leur biz Écoute bien, j'leur dis 2 mots à tous ces jaloux Je pisse sur leurs têtes rouées de coups Je m'en fous de c'qu'ils pensent Pot d'Häagen-Dazs de rimes, ice creaminel, Miles Davis Ils font qu'incester tes vices espèce de fils de que dalle Fais gaffe à ta gueule, j'ferme pas ma gueule Dans mon posse Time Bomb on parle pas pour rien Nous sommes les fines gueules Nous sommes plus fous qu'les gees, donne-moi des bisous Ton gars il joue à quoi ? J'ai plus de bijoux qu'lui, moi je brille x2</t>
+          <t>Interdiction formelle d'être âme sensible Une pit sensible c'est comme une femme sans faible, pour moi impossible Meurtre en milliers ça c'est fort possible d'être Font paraître ex-voto à mon effigie Avec mes textes, très tôt, on me prenait déjà pour un diable Putain, ramène ta clique pas grave C'que j'ai dans l'bloc, c'est pire J'en ai dans l'fut pour foutre le souk, j'ai tout dans le sac J'suis de PC, je pisse sur biz et Si t'as pas compris qu'j't'emmerde tu peux repisser J'étais classé six trois fois ça m'a pas empêché de finir numéro un Cette fois-ci, on constate que mes crimes c'est de sang-froid Qui est le prochain, que le ciel le bénisse Qu'il jouisse une dernière fois Si extravagant, j'en ferai un extravagin C'est de l'égotrip, pas de mégot j'trippe à jeun L'enjeu est de retourner le rap et d'activer les troupes, kiffe Pit au mic, tape-t-en cinq si ça t'excite Je sais que t'as la trique On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route Dans le' rap, c'est plus fort que moi, quand j'entends plus fort que moi Il faut que je fasse toujours plus fort pour qu'on mise le prix fort sur moi Quand je vois un mic j'le déchire, même les chieurs ont peur de moi Ils s'passent le mot, Il est trop fort j't'assure Je joue avec les M-O-T-S pour enlever les M-A-U-X en moi J'ai fait ma route avec O-X-M-O Essuie ta couille connard, t'as le calcif qui mouille On dirait un sale F, ma poule, j'peux dire que dans les Fnac ça s'grouille Ils disent Baccardi t'as pris la grosse tête Je leur dis Impossible, j'l'ai, depuis j'suis gosse j'me la pète Non, mais j'pète toujours, quand j'pète une go Mon attitude reste la même que toi pendant les cinq dernières secondes Tu me traites de chien, j'accepte, de bâtard, j'accepte Mais est-ce qu'en m'écoutant, t'appuies Eject ? Alors ta gueule On n'a pas deux chances, j'en ai eu qu'une j'ai su la saisir Faut qu'tu comptes avec moi qu'ça t'fasse plaisir ou pas On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route Anti anti-bamboula, crache sur les babs nantis qui nous boumelanent rac-ptou Tu veux savoir mon style de rap, j'rappe tout C'est Pit au risque de t'vexer, ou de copser ta go De crisper ta vie, d'baiser ta gueule, bref, homme de situation On m'a laissé commencer cru, obligé d'finir ainsi sinon c'est cuit Qui a eu l'idée de donner la parole à un Pit? J'suis ail et piment, cru et saignant, diable et seigneur Armé de lyrics qu'est-ce qu'y a maintenant je trouve ma aya technique Pique ou nique mon style, on reconnaitra toujours la signature de Pit au mic J'ai juste à apposer les mots juxtaposer les trucs à ma façon Fissa s'est fait, passe en gros dans le Groove Tu ne m'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront qu'c'est le truc tant attendu Tu n'm'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront que c'est le truc tant attendu J'm'étends plus sur l'étendue qu'a mon buzz étendu Possee Première Classe on s'rend compte qu'y a pas besoin de compte-rendu J'compte rendre du rap de Pit aux putes qui penseraient qu'j'me serais rendu Mais un grand service elles m'ont rendu Baccardi Pit, les rappeurs de Première Classe 99 compte avec moi S.O.L.O. Pit jusqu'à la mort Jusqu'à la mort Baccardi Pit, les rappeurs de Première Classe Compte avec moi que tu l'veuilles ou pas shoote toutes les têtes sur ma route</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CMW</t>
+          <t>Côté obscur connexion</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Eh yo, Inter You're crazy for this one, hombre geah You're crazy for this one, I told you Trust me, trust me, trust me yeah , Dosseh, Le Moine, Max, Amougou FBI, FC, la famille Baccardi La famille au pays, Mvog-Ada et tu l'sais Nkolndongo, JPP, Bastos, Elig-Essono on est là - Hé, LAL - Ouais, Pit ? - On va leur show qu'on est les plus forts, man - Gars, le poisson pourrit par la tête - Imbattables jusqu'à la mort - On va leur show, on va leur show - Tu peux pas test' - Tu n'peux pas test', ah-han - Un lion ne meurt pas, il dort, haha, empire - C'est le sang à l'il, César Charp Si on s'connecte comme Okocha et Amokachi Wallaye, ça devient technique, l'rap français en train d'agoniser Il est en train de reboire ce qu'il avait déjà pissé oh la la Ça devient comme l'histoire de cette fille qui a eu un bébé au lycée Tout l'monde pensait que c'était d'ma faute parce que j'étais Le premier à la frapper comme Sunday Oliseh SSS sale, sage, sauvage, j'reste Un d'ces négros du ghetto, j'regarde tous les regards J'montre mes montres et les autres pompent mes pompes Peut-être que t'aimes mon flow sûrement parce que t'es à l'aise dans l'eau Comme ceux qui ont grandi dans le pays d'Bongo Laisse, mes autres ex, c'est des Z Et ont d'quoi t'mettre la vie sens dessus dessous, ouais Nos ennemis sont tendres comme les madésus, fuck les sushis Mes négros parlent nouchi, s'habillent en Gucci Écoutent les dernières sélections d'boucheries Mélange pas des goûts d'chicos et le bullshit J'suis avec une sista qui parle lari, j'la laisse choisir tout dans la boutique OK, miss, prends, prends c'que tu veux Mec, on bosse, faux papiers, faux chèques, faux airs d'boss J'viens juste d'être éjecté d'la chaise électrique comme Drou Ma mère continue d'trouver qu'j'suis beau comme tout oh la la Toujours en place, j'viens d'une des races les plus craintes Dans les corps à corps, dans les affaires 15 millions d'habitants, quart-de-finaliste de la Coupe du monde 4 Coupes d'Afrique, haaa, négro, les Camer' yeah Demande à Cédric, petit frère, on fabrique On frappe comme les prises électriques On prend l'argent à chaque sortie comme le périphérique han Paris, London, Oslo, ma diaspora prend de l'ampleur slow-slow Interpol a peur et est en stress oh la la Comme un jour de l'an où personne n'a l'heure La police d'Europe nous meurt, déterminés, on reste Je chante pour quand on pleure, pour ces nuits où tu peux compter qu'sur ton cur J'en aurais buté pour devenir un MC réputé La rue m'a appelé LAL, El Commandante Pit m'a dit Tu sais, l'argent, c'est que dalle que dalle J'lui ai répondu Normal, on a le mental C'est pour mon pays, c'est pour tous ceux qui veulent nous shoots On rebondira toujours comme des balles de foot Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted J'demande pas, j'me permets, voilà ma différence J'fais des crimes sous X, mon rapport avec le rap est pornographique Quand j'débarque, c'est pour tout baiser yeah Comme une rumeur, Baccardi, c'est énigmatique D'la génération classique genre Illmatic Dans mon sang, un mélange de vert, de rouge, de jaune Ma merde n'est pas faite pour les WC mais la couche d'ozone Moi, j'aime le rap charismatique comme LAL KO sont ses détracteurs après son mic-check, le renoi fait M.A.L Appelle-moi euro, j'fuck le dollar, j'suis toujours au-dessus Mes dos sont bloqués en Suisse ou dans une colombo À la rime épicée, c'est pas la chaude pisse Mais mon rap qui t'fait crier quand tu vas pisser À la voix, tu sais qui c'est J'ai fondé empire après PC tu l'sais J'suis l'macaque venu dans l'hip-hop en charter sans récépissé J'ai récité des versets pour les mecs de cité Un des rares à avoir lu le certificat d'authenticité J'vis pas la misère, j'la fais, la merde, j'l'ai fructifiée T'y arrives pas ? C'est pour ça qu'ton style pue Qui c'est qui parle ? De moi, on veut s'débarrasser Rap cocaïne, haha, pour ça qu'j'suis toujours pisté M'attrister parce qu'on m'insulte ? non J'en vois pas la nécessité Bis c'est pour comprendre pourquoi j'suis sollicité ah-han L'histoire, j'la raconte pas, j'la fais Dans l'rap, j'ai du crédit, si t'es en galère, bipe-moi et j'te rappelle yeah Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Au mic', sa mère, j'reste un des Camer' les plus amers J'en aurais monté en l'air, laissé les fesses par terre Juste un couplet peut te dead, j'ai jamais demandé d'aide Parce que j'suis un CMW un Camer' Most Wanted Ce qui nous définit, primo, c'est le mental C'est pour ça qu'on nous appelle les indomptables Dans votre rap game, on devient incontournable On est l'aéroport, la piste de l'aéroport, là où tout l'monde atterrit Rien n'se passera sans nous, les Camer' What up? Haha, what up? Incontournables comme un ndjoka du Katios Big up</t>
+          <t>Hein, une pensée pour ma mère, Ibrahim Lo Reposez en paix, Elie Yaffa revient nous vite C'est Pit au mic Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Via Paris pour Marseille ciel des parcés C'est yam à Pit des parcelles Sel des terres pour moi de Sarcelles à Vitry On me connait juste sur Mix Tapes Quitter la rue pour cliquer le mic Les types se tapent pour me piquer mon dû Mon dieu, tu m'as fait orphelin, j'en morfle Je crains la mort, félin dans l'âme J'ai la hargne maintenant que je sais C'est ça qu'il faut pour grailler cracher Tout ce qu'on a dans le ventre Du moment que ça vient du cur Chaque jour je gaspille de l'encre On cri on se dispute, entre mecs ça se chipotte On discute pour rien parfois on chicotte A tout ça je dis stop Si j'me hisse au top c'est ce que j'vise J'avise aux loosers que le fric choppe Que les autres pochent et que le hip hop N'a pas le temps des retardataires Tu vois si j'ai tord ma mère tu m'observes de là-haut Baigner les traitres qui m'entourent Y'a tourment dans le rap aujourd'hui De Massilia à Paris, il y a masse quand il y a ma mafia Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Mon cul j'essaie mon cerveau Faux pas pour avoir servi du shit Je traîne des mois ça tire tous mes projets aux chiottes Non d'un chien j'ai pigé tard mieux que jamais Que l'art de manier la rime pourrait m'emmener loin car Dans ma vie j'ai jamais eu la hargne comme partenaire Je porte l'honneur de ma famille trahi par la plupart Telle est la dure loi à laquelle je me suis fait Je dois ma réussite à personne si ce n'est à moi SI je crois au rap aujourd'hui Maudits soient ceux qui mal y pensent Magie et miracle c'est comme les on dit jamais du concret Je suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui me verraient baver Je pisse sur love, y en a pas tant que tu paies pas Je le sais ça, je vie avec En ce qui me concerne je reste toujours fidèle aux miens mec Aujourd'hui ma zic c'est que du kif Et si Dieu le veut putain demain ce sera des plaques fils Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Essaie de piger L'alliance est vissée dans le vice Hisser vos bannières PM du move Move ces thèmes c'est fait pour ceux qu'on aime Le font les vrai la peine dans la haine Nos scènes brisent des chaines Mon rap est fait pour blesser Et laisser des séquelles De la maille c'est qu'elle Vie que j'ai, j'ai juste de quoi m'offrir un bicycle Je suis SOLO C'est hard mais j'y vais pas MOLO Baccardi Pit au mic c'est mielleux MOUILLE truc qui me fait craquer Un pur style venu de nul part qui m'hérisse les poils J'suis un squale T'es squale le podium en tant que one AKA le kamer et fils ça me rend fou Il faut que je me soigne Mes poignards sont dans mes textes Pas dans mes poignets Soigner les plaies qui m'handicapent J'essaie maintenant on me dit cap Sur autre chose fini la firme Je suis apte à toute échéance J'immortalise j'accrois mon écriture Je crois à cette vie après la mort Faut que je pète encore après que mon heure sonne J'affirme ce truc mais je te jure j'ai le trac Trinquer à la réussite d'un projet Chose que je vois d'autres faire Black Mafia, tu sais qu'il y a de quoi faire Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Dédicaces à tous les gars dans le studio Ricky le boss, Khéops, Def Bond aka 00 sex Malek, Freeman, Timebomb, Black Mafia OXMO, Jedi, X-Men, Tonton Mars, Ke-se, Lunatic Mathieu V, mon reuf, place des fêtes Tibo le patron, Yann, la liste est longue La liste est longue</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Comme à l’ancienne</t>
+          <t>Criminel son</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Pit au mic shh shh Ärsenik Tu l'sais It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time J'mets l'truc si haut que tous les BBoys au micro crient yo yo V'là qu'j'suis au retour en 88 Enfile tes lacets fluos et ton gros sweat Le beat tourne à la suite On s'nique les omoplates Electric boogie On les plies à l'eau plate Éclate le parquet, et dis On est beaucoup en teddy Les rares sous écrous veulent la jouer Rock Steady Trou on est tous unis dans la zone Moi c'est Turbo et toi c'est Ozone Le truc c'est paix, amour, unité Superstars aux pieds, on tricks en communauté On commet, on a la sueur et les break beats Rock spit, Lino, Calbo Bors, Pit How, quitte à s'tirer les locks vite, paw! On les intoxe comme au Roxy J'vais cartonner d'entrée Baccardi Pit j'aime représenter J'suis peut-être pas connu, jusqu'à London Mais j'suis connu comme Pit, au microphone Jadis l'affiche étais gratuite J'rappais avec des mecs sur la ligne 8, Starter, Bobby ensuite Nos héros étaient , Public Enemy, Rakim, et Run DMC It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Moi j'commence en comme a-ç Tchik tchik, tout passe Passe en face, j'pousse, l'as en preum's classe Place, écarte le cercle Ça va , les soupes au lait ou bien, vas-y coupez les Dah dah, ah donc C'était comme ça À l'époque quand on bougeait y'avait pas d'lope-sa Enchaine, ça casse, passe à l'autre vas-y brille maintenant Ya c'est naze bidon tema Seulement cou cou hou hou ha Tout en sueur T'étais content quand tu sortais Et qu't'avais sué d'la buée, d'la bave Grave des halls jusqu'aux caves, fumée d'bédave La concierge gueule la vieille poucave Maintenant c'est viole, cambriole, plus d'cabrioles La gnole c'est tout nombreux dans la fiole Malgré ça on est encore là pour broyer l'beat C'est Baccardi Pit, du un on revient, on fout la merde À mille à l'heure, mordu d'belles reprises nous voilà Old school, mais, toujours bien à l'aise J'rappe, c'est typiquement technique Pit, bloque là sur violent break beat Peace and love, dans le même esprit On s'pavane, black sais qu't'es rien sans bandana Le B, le A, deux C, A, R, D, I, le A tréma, le P, le C Ça c'est nous Ça c'est nous It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time Déjà dancehall, avant l'époque Big Pop-pa Zoulou breakait ou the Rock Base Hop, rock, H, I, P, H, O, P, poche à mise sur l'côté On danse, ça s'clash, dispatche, pichenette t'es bouche bée Peter s'prend aux portes du Globo et Bataclan Trech boy et quin-reu arrivée en boîte en clan Des claques se perdent et à la Fontaine des Innocents Châtelet, Gare du Nord, on croisait des mecs en sang Micro test, han Reste à envoyer l'son Lino en guest, han La foule se manifeste Range ton canifeste Ouest avant qu' infestent Les villes, les rues, les ruelles comme dans la manif En test, ça part Les gosses braillent ce truc c'est tout c'qui nous reste ! Et j'veux ma part, ma veste, elle a trois bandes Mes pompes aussi, pompe le beat Didi J'hausse le ton, ambiance des pocees J'dépose mon rencard et mets mon cash, j'suis payé Sur l'beat j'suis ton-car avant qu'on vienne chopper yeah Ok ça tourne, vrille comme la toupie Affole toutes les groupies Invente de nouvelles phases Dans mon crew on manque pas d'toupet Heiiin ça vote pour griller nos plans Aaah sur Paname y'a plus un seul mur blanc C'est zing zang, zing sang sang Pour l'A,R,S,E,N,I,K et te pille à l'ancienne It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time It takes two to make au thing go right It takes two to make it out of time</t>
+          <t>Illicite projet Sur toi, ce son criminel je projette Hey, check check Medeline, XIXème Hey, hey Sur c'beat ça sent l'acide, quand j'l'ouvre ça fait bang bang négro Et m'voilà most wanted comme à Compton Du son d'champion à la Banton J'rappe comme j'cogne, vas-y abandonne T'aimes ou t'aimes pas, j'm'en tamponne gomm cogne, j'aime les grosses sommes Pures vibes bad boy, en chien d'rimes non, y a maldonne C'est tragique comme le crash d'un Boeing C'est dans la boîte et des fois que le diable me braque Et prenne mon âme XXX immortelle traque Toujours speed, génération frime Cool papa, le ghetto aime ça Quand la zik pue le crime et pour la danse macabre Un seize rimes signé Pit Baccar' quand la rime vire au barbare Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Une ambiance lourde de rap douillé, pas douillet T'as compris, un truc pour couillus hey, dans c'beat ça bouillave Bousillés du cerveau, se reconnaîtront dans cette zik Au volant d'un bolide, trois-cent chevaux et plus J'rappe c'est bouillant Explique aux narcos que notre came se bicrave par voie spirituelle Et l'kilogramme par voie respiratoire Illicite jusqu'aux écrits Papa, j'crible la France de mon flow Molotov, des innocents prient J'ai rien à dire aux keufs, man, j'parle qu'en présence de mon avocat J'suis blindé, vous m'aurez pas Ce son c'est pour les mecs d'en-bas qui crient famine, qu'on représente pas L'amour est mort d'un attentat Micmac avec la BAC, man on joue toujours d'la batte, man J'suis bad, man, vrai charisme de black, man Baise l'instru, barbare et crossover Desert Storm, j'ai beau baisser les stores En deux-quatre rimes j'augmente les scores Sortez les cordes qu'on pende les porcs Comprends mes bad games, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son J'écris qu'dans l'incompris, décris les mots et crible la France Des contes de la crypte, mon hip-hop a un sale penchant pour le crime Quand j'castagne, j'ai la trique Toujours une pensée pour l'Afrique Clic clic c'est la mélodie glauque quand y a plus d'fric Il s'dit que Paris est tragique Que dans l'état d'esprit magique quand y a espoir grâce à la zik Que j'assiste au changement sur l'trône Va dire aux autorités que l'rap est de nouveau sur la piste Au mic j'dis que misère fait dire avec le sang J'le dis avec le mic et un lyrics à l'essence J'suis écouté quand récalcitrant est l'style Hostile, j'suis pépère, j'reste en studio, rien que j'assassine Ma vie c'est rap game et adrénaline Partenaire du vice, du diamant sur les bracelets Les bras se lèvent, mec j'suis harcelé Flow hustler Pour prendre le trône, les gars je sens qu'c'est l'heure Hey, changement d'beat Tu l'sais, criminel son, t'as vu Reste pas là mec Interdit aux âmes sensibles XIXème On noie l'poisson comme mon pote Ben Zina Quand débarque la cavalerie c'est la Berezina Anti bâtards et MC en bas résilles Buenos dias de la part du desperado J'veux des liasses, plus avoir les chtars à dos et mettre à l'aise la mille-af Ici on vit l'drame, on s'brise les côtes comme au pugilat J'veux voir les fiottes à terre dès que rugit l'arme Train de vie d'marginal, boy XXX et j'cane man Tu parles mal, signé Baccar' auteur du carnage</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compte avec moi</t>
+          <t>Danga Danga</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Interdiction formelle d'être âme sensible Une pit sensible c'est comme une femme sans faible, pour moi impossible Meurtre en milliers ça c'est fort possible d'être Font paraître ex-voto à mon effigie Avec mes textes, très tôt, on me prenait déjà pour un diable Putain, ramène ta clique pas grave C'que j'ai dans l'bloc, c'est pire J'en ai dans l'fut pour foutre le souk, j'ai tout dans le sac J'suis de PC, je pisse sur biz et Si t'as pas compris qu'j't'emmerde tu peux repisser J'étais classé six trois fois ça m'a pas empêché de finir numéro un Cette fois-ci, on constate que mes crimes c'est de sang-froid Qui est le prochain, que le ciel le bénisse Qu'il jouisse une dernière fois Si extravagant, j'en ferai un extravagin C'est de l'égotrip, pas de mégot j'trippe à jeun L'enjeu est de retourner le rap et d'activer les troupes, kiffe Pit au mic, tape-t-en cinq si ça t'excite Je sais que t'as la trique On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route Dans le' rap, c'est plus fort que moi, quand j'entends plus fort que moi Il faut que je fasse toujours plus fort pour qu'on mise le prix fort sur moi Quand je vois un mic j'le déchire, même les chieurs ont peur de moi Ils s'passent le mot, Il est trop fort j't'assure Je joue avec les M-O-T-S pour enlever les M-A-U-X en moi J'ai fait ma route avec O-X-M-O Essuie ta couille connard, t'as le calcif qui mouille On dirait un sale F, ma poule, j'peux dire que dans les Fnac ça s'grouille Ils disent Baccardi t'as pris la grosse tête Je leur dis Impossible, j'l'ai, depuis j'suis gosse j'me la pète Non, mais j'pète toujours, quand j'pète une go Mon attitude reste la même que toi pendant les cinq dernières secondes Tu me traites de chien, j'accepte, de bâtard, j'accepte Mais est-ce qu'en m'écoutant, t'appuies Eject ? Alors ta gueule On n'a pas deux chances, j'en ai eu qu'une j'ai su la saisir Faut qu'tu comptes avec moi qu'ça t'fasse plaisir ou pas On n'a pas deux chances, j'en ai qu'une, j'ai su la saisir Faut qu'tu comptes avec moi, qu'ça t'fasse plaisir ou pas, écoute Quand j'rappe, c'est pas des rimes au compte-goutte Guette, j'coupe toutes les têtes sur ma route Anti anti-bamboula, crache sur les babs nantis qui nous boumelanent rac-ptou Tu veux savoir mon style de rap, j'rappe tout C'est Pit au risque de t'vexer, ou de copser ta go De crisper ta vie, d'baiser ta gueule, bref, homme de situation On m'a laissé commencer cru, obligé d'finir ainsi sinon c'est cuit Qui a eu l'idée de donner la parole à un Pit? J'suis ail et piment, cru et saignant, diable et seigneur Armé de lyrics qu'est-ce qu'y a maintenant je trouve ma aya technique Pique ou nique mon style, on reconnaitra toujours la signature de Pit au mic J'ai juste à apposer les mots juxtaposer les trucs à ma façon Fissa s'est fait, passe en gros dans le Groove Tu ne m'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront qu'c'est le truc tant attendu Tu n'm'attendais plus donc j'arrive attendu Trop j'crèche, je sors du rap fraîche alors qu'est-ce que t'en dis ? Tandis qu'à ceux qui m'attendaient j'donne l'inattendu Tendus sont ceux qui verront que c'est le truc tant attendu J'm'étends plus sur l'étendue qu'a mon buzz étendu Possee Première Classe on s'rend compte qu'y a pas besoin de compte-rendu J'compte rendre du rap de Pit aux putes qui penseraient qu'j'me serais rendu Mais un grand service elles m'ont rendu Baccardi Pit, les rappeurs de Première Classe 99 compte avec moi S.O.L.O. Pit jusqu'à la mort Jusqu'à la mort Baccardi Pit, les rappeurs de Première Classe Compte avec moi que tu l'veuilles ou pas shoote toutes les têtes sur ma route</t>
+          <t>Mais mais mais mais mais t'entends pas ? D.O.N.T.C.H.A Hey, encore un soldat On met la pression garçon Laissez passer la machine de guerre J'veux ouvrir les grandes portes de la gloire, mais elles s'bloquent Et j'en ai marre d'rapper que pour seize blocks Si les accès autour à double tour se ferment J'frapperai dessus à coup de crâne Jusqu'à ce que l'fer me saigne Tu comprends mieux pourquoi j'ai cette sale attitude Ça fait longtemps que j'aurais déjà dû prendre un peu d'altitude J'ai tant de talent, plein d'textes dans l'pantalon D'accord, je suis polyvalent, mais je porterai jamais d'talons C'est bien beau, mais j'veux pas crever en tant qu'grande star Ni baisser le 501, pour être une de ces grandes stars Coincé en enfer, chez Lucifer en personne Pour en sortir j'ai gratté jusqu'à c'que mes vers sonnent Cramant l'cro-mi en style libre et en parlant d'crime J'ai lustré mon blase pour faire briller et mon pseudonyme J'suis appauvri en argent, mais milliardaire en rimes T.C.H.A., T.C.H.A Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Même si mon armure rouille, j'reste chevalier vaillant De mon sabre je règne, si on m'reille, c'est qu'j'ai été malveillant J'suis prêt à prendre le trône, par un coup d'état Et fait bien gaffe aux débris d'glaces après le coup d'éclat Sur ces pages avec mon sang, j'écris mes paragraphes Et c'est avec rage que j'plante le glaive pour moi et mon staff C'que j'crache viens d'l'estomac et du fond d'mes tripes J'ai une grande gueule j'l'assume car j'l'ai grosse dans l'fond de mon slip On m'a cru enterré, mais j'avais encore une main dehors qui bougeait Quand les asticots bouffaient mon corps J'suis revenu et tout a changé même les bons ont prit du bide À force de tourner en rond le rap français a pris des rides On m'a secoué moi le dragon dans son lagon Maintenant, j'cracherai jusqu'à c'que Paris sente le charbon Cette fois-ci, j'ai mis la bonne dose dans les coups de massue Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha C'est pour les belles chabbies, que j'fais du rap lover Et pour les bons systèmes bass dans les Range Rover J'ai fini d'dire qu'mes mots découpent comme un ciseau Qu'j'suis un schizo et quand je tape, il reste que six os J'dis plus qu'j'fais un tabac, que j'tue comme le tabac C'est naze de dire que ton style pue comme le groupe Abba Si t'as ce genre de phase, révise tes maquettes Jette ta cassette achete des rimes au super market J'ai pas besoin de l'dire, moi on sait qu'j'ai une longue bite Un style de maquereau et qu'tes femmes savent où j'habite Tu disais quoi ? Qu'tu tuais comme hiroshima ? Et qu'ton flow chant-mé pouvais débrider un Chinois ? Ça, c'est moi qui l'ai dit, et c'est au moins y a cinq années La phase est fanée, même pour un gosse de cinquième année Tu dis qu'tes mots sont rapides comme Speedy Gonzales C'est trop pourri ça ! Vas-y MC si tu poses ça-laisse Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Côté obscur connexion</t>
+          <t>Dead</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Hein, une pensée pour ma mère, Ibrahim Lo Reposez en paix, Elie Yaffa revient nous vite C'est Pit au mic Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Via Paris pour Marseille ciel des parcés C'est yam à Pit des parcelles Sel des terres pour moi de Sarcelles à Vitry On me connait juste sur Mix Tapes Quitter la rue pour cliquer le mic Les types se tapent pour me piquer mon dû Mon dieu, tu m'as fait orphelin, j'en morfle Je crains la mort, félin dans l'âme J'ai la hargne maintenant que je sais C'est ça qu'il faut pour grailler cracher Tout ce qu'on a dans le ventre Du moment que ça vient du cur Chaque jour je gaspille de l'encre On cri on se dispute, entre mecs ça se chipotte On discute pour rien parfois on chicotte A tout ça je dis stop Si j'me hisse au top c'est ce que j'vise J'avise aux loosers que le fric choppe Que les autres pochent et que le hip hop N'a pas le temps des retardataires Tu vois si j'ai tord ma mère tu m'observes de là-haut Baigner les traitres qui m'entourent Y'a tourment dans le rap aujourd'hui De Massilia à Paris, il y a masse quand il y a ma mafia Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Mon cul j'essaie mon cerveau Faux pas pour avoir servi du shit Je traîne des mois ça tire tous mes projets aux chiottes Non d'un chien j'ai pigé tard mieux que jamais Que l'art de manier la rime pourrait m'emmener loin car Dans ma vie j'ai jamais eu la hargne comme partenaire Je porte l'honneur de ma famille trahi par la plupart Telle est la dure loi à laquelle je me suis fait Je dois ma réussite à personne si ce n'est à moi SI je crois au rap aujourd'hui Maudits soient ceux qui mal y pensent Magie et miracle c'est comme les on dit jamais du concret Je suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui me verraient baver Je pisse sur love, y en a pas tant que tu paies pas Je le sais ça, je vie avec En ce qui me concerne je reste toujours fidèle aux miens mec Aujourd'hui ma zic c'est que du kif Et si Dieu le veut putain demain ce sera des plaques fils Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Essaie de piger L'alliance est vissée dans le vice Hisser vos bannières PM du move Move ces thèmes c'est fait pour ceux qu'on aime Le font les vrai la peine dans la haine Nos scènes brisent des chaines Mon rap est fait pour blesser Et laisser des séquelles De la maille c'est qu'elle Vie que j'ai, j'ai juste de quoi m'offrir un bicycle Je suis SOLO C'est hard mais j'y vais pas MOLO Baccardi Pit au mic c'est mielleux MOUILLE truc qui me fait craquer Un pur style venu de nul part qui m'hérisse les poils J'suis un squale T'es squale le podium en tant que one AKA le kamer et fils ça me rend fou Il faut que je me soigne Mes poignards sont dans mes textes Pas dans mes poignets Soigner les plaies qui m'handicapent J'essaie maintenant on me dit cap Sur autre chose fini la firme Je suis apte à toute échéance J'immortalise j'accrois mon écriture Je crois à cette vie après la mort Faut que je pète encore après que mon heure sonne J'affirme ce truc mais je te jure j'ai le trac Trinquer à la réussite d'un projet Chose que je vois d'autres faire Black Mafia, tu sais qu'il y a de quoi faire Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Plus rien n'est pareil, chacun son heure Demande à Pit j't'assure Black Mafia, Côté Obscur Connection de la bombe c'est sûr Demande à Pit j't'assure Paris Marseille le Ciel veille Chacun son heure pour se faire de l'oseille Dédicaces à tous les gars dans le studio Ricky le boss, Khéops, Def Bond aka 00 sex Malek, Freeman, Timebomb, Black Mafia OXMO, Jedi, X-Men, Tonton Mars, Ke-se, Lunatic Mathieu V, mon reuf, place des fêtes Tibo le patron, Yann, la liste est longue La liste est longue</t>
+          <t>Baccardi, celui qu'on aime et qu'on déteste Là c'est Ben-J, Jacky et son ghetto guest stars Le bordel vient d'Ges-Gar, ouais j'aime ça Prouver que j'suis le best et que mon son boom dans les XXX Sur l'son des gunshots on danse la valse En place, l'équipe aux falzars remplis de vers sales Basta, c'est nous les mastas, on aime que ça castagne Au microphone, pas d'gangsta, ni d'wanksta C'est juste le Noyau Dur, baisse ta garde Tu morfles, ma rime est bestiale, check ça Y a pas d'rimes câlines, le mouvement chavire Les baltringues s'alignent, t'as pas idée fais pas l'caïd Les vrais j'les ai vus XXX Borsalino s'aligne à mes côtés Calbo localise les fiottes à faire baliser Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Hey, Brown dis-leur J'arrive avec mon commando Eh ouais j'me la raconte, y a du monde derrière mon dos C'est Baccardi, Neg' Marrons, Calbo et Lino T'entends pas? Trop d'pression dans ta sono Wally wally won ay Gunshot, tire pas sur nous, cause pas sur nous Ici c'est trop dangereux, méchant est mon crew Gunshot! J'aime quand ça clashe, j'aime pas les lâches J'aime le one on one au mic et qu'y ait du sang sur l'asphalte Gunshot! C'est trop hardcore, ça pue la mort C'est la guerre au microphone et c'est cool si tu t'en sors Gunshot! Une vraie boucherie, teste pas petit Viens pas dans la cour des grands, c'est par ici la sortie Donne-leur la putain d'zik et l'public respecte Basique, un beat un mic et j'pète Magique, prête l'oreille quand j'm'agite Crache le seille-o, on raye le son tragique, c'est l'Dur Noyau De quoi il s'agit, d'porter l'maillot et l'tremper Rappelle ton truc de beauf quand on revient moi et mon tord-boyaux Sans ramper, au mic boy opé, comme nos joyaux On brille, voyous on pille le biz C'est putain d'chars contre cailloux Stars des blocs, en vrai tout s'barre fillette Trop barbare, comme planquer la coke dans la layette Trip glauque faya et sur la bonne fréquence Mon hip-hop fait swinguer la délinquance Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Me v'là avec ma clique en tête d'affiche Seul joker à c't heure-ci, le rap biz est en panique Notre zik était en sursis, on acquiesce Noyau Dur réuni, casse des gueules Neg' Marrons, Ärsenik et Pit Baccardi et tu l'sais Le beat est lourd et les MC d'attaque, au mic on fracture On a des lyrics au kilo et ton hip-hop on capture Rap dur, quand le Noyau frappe on blesse et carbure Au flow qui groove au son de la batterie et d'une basse qui sature Tu croyais quoi? Toujours plus nombreux, sache que si guerre il y a Noyau Dur c'est dangereux pour toi et ta familia Méfie-toi Tu crois connaître la machine On sanctionne et les têtes tombent quand le bourreau assassine C'est ça l'rap sec et tout l'monde est là Sens le vent de la vengeance, MC fuis, la sortie demande-la Rendez les clés du mouvement et descends de là Au top j'vais mettre mon putain d'blaze haut comme celui de Mandela Les tes-traî, descendez-les, les envieux, bah pendez-les L'État essaie d'nous fuck mais l'poison, là répandez-le Sans délai le hip-hop on va modeler Et si ça jacte encore en traître chez les cons eh ben pendez-les Le Noyau Dur Ramène le rap haut, XXX la zik est condamnée On me dit Cal', emmène-la Dans ton secteur ou dans ton chaudron Sinon l'truc, on va l'paumer dans les baggys ou les bandanas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Noyau Dur pour les gangstas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Mon hip-hop fait swinguer la délinquance</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Criminel son</t>
+          <t>Départements</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Illicite projet Sur toi, ce son criminel je projette Hey, check check Medeline, XIXème Hey, hey Sur c'beat ça sent l'acide, quand j'l'ouvre ça fait bang bang négro Et m'voilà most wanted comme à Compton Du son d'champion à la Banton J'rappe comme j'cogne, vas-y abandonne T'aimes ou t'aimes pas, j'm'en tamponne gomm cogne, j'aime les grosses sommes Pures vibes bad boy, en chien d'rimes non, y a maldonne C'est tragique comme le crash d'un Boeing C'est dans la boîte et des fois que le diable me braque Et prenne mon âme XXX immortelle traque Toujours speed, génération frime Cool papa, le ghetto aime ça Quand la zik pue le crime et pour la danse macabre Un seize rimes signé Pit Baccar' quand la rime vire au barbare Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Une ambiance lourde de rap douillé, pas douillet T'as compris, un truc pour couillus hey, dans c'beat ça bouillave Bousillés du cerveau, se reconnaîtront dans cette zik Au volant d'un bolide, trois-cent chevaux et plus J'rappe c'est bouillant Explique aux narcos que notre came se bicrave par voie spirituelle Et l'kilogramme par voie respiratoire Illicite jusqu'aux écrits Papa, j'crible la France de mon flow Molotov, des innocents prient J'ai rien à dire aux keufs, man, j'parle qu'en présence de mon avocat J'suis blindé, vous m'aurez pas Ce son c'est pour les mecs d'en-bas qui crient famine, qu'on représente pas L'amour est mort d'un attentat Micmac avec la BAC, man on joue toujours d'la batte, man J'suis bad, man, vrai charisme de black, man Baise l'instru, barbare et crossover Desert Storm, j'ai beau baisser les stores En deux-quatre rimes j'augmente les scores Sortez les cordes qu'on pende les porcs Comprends mes bad games, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son Bad game, juste une ambiance malsaine La rue s'empare des charts et tous les bras s'lèvent criminel son J'aime ça criminel son pour les gangstas Hey, sur l'son les gunshots dansent la valse criminel son J'écris qu'dans l'incompris, décris les mots et crible la France Des contes de la crypte, mon hip-hop a un sale penchant pour le crime Quand j'castagne, j'ai la trique Toujours une pensée pour l'Afrique Clic clic c'est la mélodie glauque quand y a plus d'fric Il s'dit que Paris est tragique Que dans l'état d'esprit magique quand y a espoir grâce à la zik Que j'assiste au changement sur l'trône Va dire aux autorités que l'rap est de nouveau sur la piste Au mic j'dis que misère fait dire avec le sang J'le dis avec le mic et un lyrics à l'essence J'suis écouté quand récalcitrant est l'style Hostile, j'suis pépère, j'reste en studio, rien que j'assassine Ma vie c'est rap game et adrénaline Partenaire du vice, du diamant sur les bracelets Les bras se lèvent, mec j'suis harcelé Flow hustler Pour prendre le trône, les gars je sens qu'c'est l'heure Hey, changement d'beat Tu l'sais, criminel son, t'as vu Reste pas là mec Interdit aux âmes sensibles XIXème On noie l'poisson comme mon pote Ben Zina Quand débarque la cavalerie c'est la Berezina Anti bâtards et MC en bas résilles Buenos dias de la part du desperado J'veux des liasses, plus avoir les chtars à dos et mettre à l'aise la mille-af Ici on vit l'drame, on s'brise les côtes comme au pugilat J'veux voir les fiottes à terre dès que rugit l'arme Train de vie d'marginal, boy XXX et j'cane man Tu parles mal, signé Baccar' auteur du carnage</t>
+          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Danga Danga</t>
+          <t>Désillusions</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mais mais mais mais mais t'entends pas ? D.O.N.T.C.H.A Hey, encore un soldat On met la pression garçon Laissez passer la machine de guerre J'veux ouvrir les grandes portes de la gloire, mais elles s'bloquent Et j'en ai marre d'rapper que pour seize blocks Si les accès autour à double tour se ferment J'frapperai dessus à coup de crâne Jusqu'à ce que l'fer me saigne Tu comprends mieux pourquoi j'ai cette sale attitude Ça fait longtemps que j'aurais déjà dû prendre un peu d'altitude J'ai tant de talent, plein d'textes dans l'pantalon D'accord, je suis polyvalent, mais je porterai jamais d'talons C'est bien beau, mais j'veux pas crever en tant qu'grande star Ni baisser le 501, pour être une de ces grandes stars Coincé en enfer, chez Lucifer en personne Pour en sortir j'ai gratté jusqu'à c'que mes vers sonnent Cramant l'cro-mi en style libre et en parlant d'crime J'ai lustré mon blase pour faire briller et mon pseudonyme J'suis appauvri en argent, mais milliardaire en rimes T.C.H.A., T.C.H.A Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Même si mon armure rouille, j'reste chevalier vaillant De mon sabre je règne, si on m'reille, c'est qu'j'ai été malveillant J'suis prêt à prendre le trône, par un coup d'état Et fait bien gaffe aux débris d'glaces après le coup d'éclat Sur ces pages avec mon sang, j'écris mes paragraphes Et c'est avec rage que j'plante le glaive pour moi et mon staff C'que j'crache viens d'l'estomac et du fond d'mes tripes J'ai une grande gueule j'l'assume car j'l'ai grosse dans l'fond de mon slip On m'a cru enterré, mais j'avais encore une main dehors qui bougeait Quand les asticots bouffaient mon corps J'suis revenu et tout a changé même les bons ont prit du bide À force de tourner en rond le rap français a pris des rides On m'a secoué moi le dragon dans son lagon Maintenant, j'cracherai jusqu'à c'que Paris sente le charbon Cette fois-ci, j'ai mis la bonne dose dans les coups de massue Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha C'est pour les belles chabbies, que j'fais du rap lover Et pour les bons systèmes bass dans les Range Rover J'ai fini d'dire qu'mes mots découpent comme un ciseau Qu'j'suis un schizo et quand je tape, il reste que six os J'dis plus qu'j'fais un tabac, que j'tue comme le tabac C'est naze de dire que ton style pue comme le groupe Abba Si t'as ce genre de phase, révise tes maquettes Jette ta cassette achete des rimes au super market J'ai pas besoin de l'dire, moi on sait qu'j'ai une longue bite Un style de maquereau et qu'tes femmes savent où j'habite Tu disais quoi ? Qu'tu tuais comme hiroshima ? Et qu'ton flow chant-mé pouvais débrider un Chinois ? Ça, c'est moi qui l'ai dit, et c'est au moins y a cinq années La phase est fanée, même pour un gosse de cinquième année Tu dis qu'tes mots sont rapides comme Speedy Gonzales C'est trop pourri ça ! Vas-y MC si tu poses ça-laisse Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha Ça, c'est l'blase papy danga danga Dontcha calibrés toujours à l'aise Dontcha Pour les bad boys fumeurs de ganga C'est l'D.O.N. papy trop baleze Dontcha</t>
+          <t>Tu l'sais 2003, Don't Sleep Kayliah, Baccardi Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Pas là pour baiser l'État mais défoncer les charts Mes prouesses lyricales m'ont aidé à sortir de mon business illégal Des idées colossales, une carrière solo Mal vu par le mouvement hip-hop Parce que j'vis en marge avec mon CL j'fends la nuit À la rescousse d'une pouf' ou d'un pote en galère sur la A86 J'suis pas d'votre famille, la mienne s'appelle Brown Dans c'rap biz, j'ai que mon nom et de mon style j'suis l'père Ça jacte parce que j'rappe pour les femmes On m'dit Pit, dans quoi tu t'enfermes J'ai des comptes à rendre à personne sauf à ma mère J'suis pas là pour la forme, parce que dans l'fond On s'en fout d'l'homme et on retient l'âme, c'est c'qu'y a de plus profond J'ai rêvé d'une vie, aujourd'hui j'vis un rêve C'qui m'énerve dans c'mouvement c'est qu'on s'arrête sur des termes Underground, commercial J'ai dix piges de rap dans la bouteille C'qui m'a fait accrocher c'est une musique Alors lâche-moi la grappe, écoute mon son Sois hip-hop c'que tu veux négro, ça j'm'en fous Moi c'est Baccardi qui t'a fait pleurer sur des chansons J'veux croquer l'monde car j'l'ai été, sans sous Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris À l'assaut du son, sans souci J'rappe pour les surs, et si j'm'en sors XXX a grandi dans les sous-sols J'ai du plomb dans la bouche, y a trop d'morts à la suite Sans état d'âme, j'les kill à chaque lyrics Sensibles s'abstenir, j'te fais ça en seize Et j'viens décoincer c'rap biz et la musique française Baccardi, un nom déjà en place Tu sais où j'ai fait mes classes, mec J'suis un plasma, avec moi on voit large, j'aime quand ça brille Y a rien qui m'fait peur à part la vie et l'amour, alors Celui qui veut m'test aura son duel à mort Laissez-moi faire mon biz, ne m'classez pas dans vos coups d'cur J'continue d'faire mes disques, j'serai jamais hors-piste J'ai la zik dans l'sang, j'suis pas zoulou pour les sous Venez pas m'saoul', j'ai pas la haine, jusqu'ici tout va bien I don't sleep, comme mes potes de Marseille Baccardi la fin, c'est pas demain la veille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Nos curs Sont remplis de haine Ils se referment sur eux-mêmes On oublie les vraies valeurs Pourtant J'ai tant de choses à dire Que je ne peux retenir Comme quand j'étais petite fille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Les choses changent Les choses ne sont plus pareilles Don't Sleep Kayliah, Baccardi On est là 2003 Ouais, ouais Paris à Marseille Et tu l'sais Don't Sleep Première Classe Family Brown Kayliah</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dead</t>
+          <t>Détour Vers Le Futur</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Baccardi, celui qu'on aime et qu'on déteste Là c'est Ben-J, Jacky et son ghetto guest stars Le bordel vient d'Ges-Gar, ouais j'aime ça Prouver que j'suis le best et que mon son boom dans les XXX Sur l'son des gunshots on danse la valse En place, l'équipe aux falzars remplis de vers sales Basta, c'est nous les mastas, on aime que ça castagne Au microphone, pas d'gangsta, ni d'wanksta C'est juste le Noyau Dur, baisse ta garde Tu morfles, ma rime est bestiale, check ça Y a pas d'rimes câlines, le mouvement chavire Les baltringues s'alignent, t'as pas idée fais pas l'caïd Les vrais j'les ai vus XXX Borsalino s'aligne à mes côtés Calbo localise les fiottes à faire baliser Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Hey, Brown dis-leur J'arrive avec mon commando Eh ouais j'me la raconte, y a du monde derrière mon dos C'est Baccardi, Neg' Marrons, Calbo et Lino T'entends pas? Trop d'pression dans ta sono Wally wally won ay Gunshot, tire pas sur nous, cause pas sur nous Ici c'est trop dangereux, méchant est mon crew Gunshot! J'aime quand ça clashe, j'aime pas les lâches J'aime le one on one au mic et qu'y ait du sang sur l'asphalte Gunshot! C'est trop hardcore, ça pue la mort C'est la guerre au microphone et c'est cool si tu t'en sors Gunshot! Une vraie boucherie, teste pas petit Viens pas dans la cour des grands, c'est par ici la sortie Donne-leur la putain d'zik et l'public respecte Basique, un beat un mic et j'pète Magique, prête l'oreille quand j'm'agite Crache le seille-o, on raye le son tragique, c'est l'Dur Noyau De quoi il s'agit, d'porter l'maillot et l'tremper Rappelle ton truc de beauf quand on revient moi et mon tord-boyaux Sans ramper, au mic boy opé, comme nos joyaux On brille, voyous on pille le biz C'est putain d'chars contre cailloux Stars des blocs, en vrai tout s'barre fillette Trop barbare, comme planquer la coke dans la layette Trip glauque faya et sur la bonne fréquence Mon hip-hop fait swinguer la délinquance Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Me v'là avec ma clique en tête d'affiche Seul joker à c't heure-ci, le rap biz est en panique Notre zik était en sursis, on acquiesce Noyau Dur réuni, casse des gueules Neg' Marrons, Ärsenik et Pit Baccardi et tu l'sais Le beat est lourd et les MC d'attaque, au mic on fracture On a des lyrics au kilo et ton hip-hop on capture Rap dur, quand le Noyau frappe on blesse et carbure Au flow qui groove au son de la batterie et d'une basse qui sature Tu croyais quoi? Toujours plus nombreux, sache que si guerre il y a Noyau Dur c'est dangereux pour toi et ta familia Méfie-toi Tu crois connaître la machine On sanctionne et les têtes tombent quand le bourreau assassine C'est ça l'rap sec et tout l'monde est là Sens le vent de la vengeance, MC fuis, la sortie demande-la Rendez les clés du mouvement et descends de là Au top j'vais mettre mon putain d'blaze haut comme celui de Mandela Les tes-traî, descendez-les, les envieux, bah pendez-les L'État essaie d'nous fuck mais l'poison, là répandez-le Sans délai le hip-hop on va modeler Et si ça jacte encore en traître chez les cons eh ben pendez-les Le Noyau Dur Ramène le rap haut, XXX la zik est condamnée On me dit Cal', emmène-la Dans ton secteur ou dans ton chaudron Sinon l'truc, on va l'paumer dans les baggys ou les bandanas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Noyau Dur pour les gangstas Dead, dead, dead, dead, dead Ce soir vous êtes tous dead man Dead, dead, dead, dead, dead Mon hip-hop fait swinguer la délinquance</t>
+          <t>Y faut que je tabasse, hein ! Je fais mes vocalises, le son fracasse La basse focalise ton esprit, ça te tracasse Ma mafia attise les convoitises en face, tous les petits jeunes Qu'on voit tiz' de la 8.6 Comme Biggie dit tu peux râler no doubt, no diggity Je fais des dégâts la bague au doigt je suis un gars dégourdi Dit donc, tu sais déjà que je suis gaga devant des bigoudis Apte de rondondons pas de baggy jeans on me dit gars au bougon J'ai le béguin pour du rentre-dedans locks'd au cou à la Songoku Hey gars, bigo ton cops' ta go court chez moi telle une tox Boisson Coca pose son sac-à-dos, ses bretelles façon saccadé ça donne San Ku Kaï Sur son cocon puis elle part sans même un coucou Aight ?! Ngomané Awax Freestyle Effa, est-ce que tu connais ? Encore un camer', putain ! C'est Pit au Mic Je marine dans ce truc depuis que je suis gosse, coco T'as vu ton boss téco auprès des miss quand je kick au micro j'ai un dièse, poto Curieux de savoir qui rit de moi quand je tchatche Hache l'échine des traîtres machine à cracher le verbe C'est Pit, ma chère deux mots, ma soeur T'as le Dieu le plus bâtard, ici, quand il se fâche Grosse tête, gros nez, je sais, je suis moche Mais quand elle me bip, c'est pour me piper Je suis macro, trop d'MC accros de mes rimes Appelle-moi qui tu veux je suis dans le bungalow La gogo tient mon bangala Tu bandes à la sonorité de ma voix je mets James Bond à l'eau Je rigole, t'as vu rien de mauvais Mafia Trece, Pit freestyle spécial du style, àl Les caisses fracassent les charleys attaquent en douce La basse pousse le sample un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Hein ! Ca me déroute un brigadier dans la mafia A.k.a. Le Blackalauréat, c'est moi le K-Fear-a Ecoute ce qu'il dit dans son passage C'est toujours les mêmes propos puisque les brigands sont pas sages J'analyse comme un agrandissement Et partout ça s'enlise dans les arrondissements Y'a plus de leçons Y'a plus de pédagogie Y'a juste des coups de tessons dans l'estomac et des hémorragies Ouais, pour la Brigade, intervention L'échantillon de la 'Gade du 7.5 Quand je suis tressé comme la Mafia il faut que ça pète, zinc' Fredo Je fais peur au plus puriste sur le show futuriste Mon flow naturel complexe même les naturistes Tout ce que je èf c'est simple mais dicté par le BF Si la Gade-Bri, si ma plaque brille c'est pas grâce à l'EDF, non ! C'est grâce au corps à douze têtes Le Man Power Le Marché Noir Nouvelle génération de Black Power On me dit déjà mécontent les gens savent pas, je suis ravi au lit Des raclis en lot, le bide plein de ravioli c'est ça ! Rap violent, violeur d'instru vierges J'élargis les mesures, tu deviens violet hey, tu sniffes le cyanure ? Serge, dis-leur pas besoin de gamberger des heures quand on a de l'aura Sa langue aura de ma euq' ta go dans le sang, string angora Avant pour un slow langoureux c'était la garre-ba au Globo Maintenant c'est A-Speak tu perds tes globules Gobe mon leust fluide comme le Banga Kasimir, direct c'est quasiment du Gloubi-Boulga A-Speak, Mafia Trece DJ Effa Son futuriste Tu dis quoi, maintenant ? C'est qui le prochain ? Bon, t'as la pèche ? Vas-y Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon corps d'armée, avec moi Vous, pour combler mes joies Le microphone pour arme, sache que personne ne m'arrêtera Voici de quoi est fait mon composite Un condensé de rimes sensées cadence chez la Mafia Trece On cesse les parodies son futuriste te mène à l'agonie Projète mon dialecte recèle toutes les chroniques à mon sujet Hip Hop terroriste, j'ai assez d'ypérite verbal Qui ose me rip ? Dans la capitale l'ennemi capitule la pilule ne passe plus Même avec du pili-pili perdu tel le lilliputien Dans un monde qui n'est plus le sien de la concurrence, quoi ? J'en fais la risée, stylo aiguisé J'use de ma dextérité pour la neutraliser Sûr que je l'ai bien visé désormais elle est avisé S'il faut, combat révise tes alliés embuscade codifiée Prête pour la vendetta plus un pas ! Les bras en l'air ! Traqué mic en main, j'ai braqué Le Hip Hop va trinqué épaulé par mon corps d'armée Passe le mic en main à Yannick les païens sont en panique Microphone Check One-Two il marche bien Je me sers du microphone pour sortir de ma vie de chien Je veux pas partir en vrille comme tant de mes reuf' dans le rap je dois percer Je suis lassé de squatter les halls le soir, gars, je suis pressé De presser des centaines de disques, d'avoir du succès Voir la vie en rose, me fair de l'oz' De voir autre chose que mon tié-quar morose grâce à ma prose Je swing sur la basse, pour les MC, hélas Je sors de la pénombre, à présent je fais surface Mon but est fixé, mon ascension amorcée Rien ne pourra freiner l'ascension de mon crew Mafia Trece Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon Hip Hop Mon Hip Hop n'a jamais sévit hors de ma galaxie Le 7.7, Le Mée City Mon éternelle patrie Se corrompt Sous les halls des bât' Les cerveaux Du père des gangsters Qui préconise mon hardcore à leur petits frères Go, on me verra jamais faire le clown à la T.V Pour que mon produit Fasse partie des meilleures ventes au Top-Fifty Ce flow prouve que ma fraction est transcendante Al Primera, Mafia Trece Bop-bop ! Et les wacks décollent Mes rimes dégomment le numéro un des wacks modernes Qui voit tous les jours s'ajouter sur son compte tout plein de zéros Facile d'usurper sa réputation d'MC Dans un pays où le hardcore est reconnu que dans ses ghettos Je compte pas prêcher toute ma vie pour les cités, mon secteur Et laisser l'industrie du Hip Hop sous la main d'usurpateurs Al Primera, 7.7, Le Mée City Mon Hip Hop bop les faux rappeurs Bop bop les wacks</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Départements</t>
+          <t>D’hier à aujourd’hui</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
+          <t>D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Ils ont débarqué dans ma vie comme la lumière Aveuglé par la rage et le dégoût À deux doigts de tout laisser au large J'marchais seul sur un boulevard Une main s'tend, un mec me dit perds pas l'Nord J'vois l'monde s'écrouler autour d'moi Le déclin, une vie d'rêve au bout des lèvres Mais les larmes au bout du compte J'crois qu'j'suis né pour prouver La vie c'est une épreuve, j'espère m'en sortir bon élève Dieu m'guide, faudra attendre pour que j'crève On l'a chanté comme si c'était prémédité La bombe explose, largué avec les débris et les débats À moi s'impose une prise de conscience J'n'ai pas d'autre choix que d'prendre mon monde sur les épaules Là j'vis dans l'ennui, marche au clair de lune la nuit Parle avec les astres, l'envie d'vaincre me ronge Me nourris d'rage mais j'maigris J'passe des mixtapes qui claquent à rien, j'vis de clics Et mon ex-meuf est en cloque Tellement dans l'désarroi, j'en oublie qu'une femme porte ma chair Qui n'verra jamais l'jour, aujourd'hui j'en paye le prix Mon frère taffe et moi je chôme Je n'vis qu'pour la mélodie J'vais faire vibrer les villes même dans l'blizzard D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Et j'écris pour l'oubli, déblate mes vers sales Personne n'écoute mes versets et ça j'l'oublie pas Jusqu'à ce jour où j'croise cette clique de dingue Unis par la famille, la galère et la bringue C'est là qu'pour moi commence l'histoire et Tout l'passé disparaît Réaliser mon album et aujourd'hui, réapparais J'constate l'ampleur d'ma réussite J'suis une âme morte qui ressuscite J'la dois à cinq gars, N'Djigui, Patou, Jacky Ben-J et Mastermind Kenzy Familles N'Djigui, Ebongué, Ebella, Texeira, Loubayi Une chose est sûre, soyez fiers d'vos fils Que mon frère m'en soit témoin si j'suis là c'est grâce à eux Qu'ils aient la protection d'Dieu On construit des rêves, chaque jour on détruit des cauchemars Une brève nouvelle de mon cur J'vous aime comme mes frères et Shanice ma nièce J'vois la vie belle quand j'me plonge dans ses yeux d'velours J'vis à l'endroit, connaissant le revers d'la pièce Dormez en paix, j'serai toujours là à votre réveil Épilogue, j'viens chanter pour les miens La main sur l'cur, les yeux rivés vers le ciel Et si demain j'pars, que personne ne pleure Vous m'perdez pas, voyez en moi votre protecteur D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Désillusions</t>
+          <t>Double Poney</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tu l'sais 2003, Don't Sleep Kayliah, Baccardi Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Pas là pour baiser l'État mais défoncer les charts Mes prouesses lyricales m'ont aidé à sortir de mon business illégal Des idées colossales, une carrière solo Mal vu par le mouvement hip-hop Parce que j'vis en marge avec mon CL j'fends la nuit À la rescousse d'une pouf' ou d'un pote en galère sur la A86 J'suis pas d'votre famille, la mienne s'appelle Brown Dans c'rap biz, j'ai que mon nom et de mon style j'suis l'père Ça jacte parce que j'rappe pour les femmes On m'dit Pit, dans quoi tu t'enfermes J'ai des comptes à rendre à personne sauf à ma mère J'suis pas là pour la forme, parce que dans l'fond On s'en fout d'l'homme et on retient l'âme, c'est c'qu'y a de plus profond J'ai rêvé d'une vie, aujourd'hui j'vis un rêve C'qui m'énerve dans c'mouvement c'est qu'on s'arrête sur des termes Underground, commercial J'ai dix piges de rap dans la bouteille C'qui m'a fait accrocher c'est une musique Alors lâche-moi la grappe, écoute mon son Sois hip-hop c'que tu veux négro, ça j'm'en fous Moi c'est Baccardi qui t'a fait pleurer sur des chansons J'veux croquer l'monde car j'l'ai été, sans sous Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris À l'assaut du son, sans souci J'rappe pour les surs, et si j'm'en sors XXX a grandi dans les sous-sols J'ai du plomb dans la bouche, y a trop d'morts à la suite Sans état d'âme, j'les kill à chaque lyrics Sensibles s'abstenir, j'te fais ça en seize Et j'viens décoincer c'rap biz et la musique française Baccardi, un nom déjà en place Tu sais où j'ai fait mes classes, mec J'suis un plasma, avec moi on voit large, j'aime quand ça brille Y a rien qui m'fait peur à part la vie et l'amour, alors Celui qui veut m'test aura son duel à mort Laissez-moi faire mon biz, ne m'classez pas dans vos coups d'cur J'continue d'faire mes disques, j'serai jamais hors-piste J'ai la zik dans l'sang, j'suis pas zoulou pour les sous Venez pas m'saoul', j'ai pas la haine, jusqu'ici tout va bien I don't sleep, comme mes potes de Marseille Baccardi la fin, c'est pas demain la veille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Nos curs Sont remplis de haine Ils se referment sur eux-mêmes On oublie les vraies valeurs Pourtant J'ai tant de choses à dire Que je ne peux retenir Comme quand j'étais petite fille Petite J'aimais la vie J'étais remplie de rêves Tout avait l'air si joli J'ai grandi Et aujourd'hui Les choses ne sont plus pareilles On vit tous dans le mépris Les choses changent Les choses ne sont plus pareilles Don't Sleep Kayliah, Baccardi On est là 2003 Ouais, ouais Paris à Marseille Et tu l'sais Don't Sleep Première Classe Family Brown Kayliah</t>
+          <t>Miskin King. Idyllique deal ! C'est pour negro qui n'ont pas dormi C'est pour negro qui n'ont pas compris . C'est pour negros qui ne sont pas t'es sbires Coup de tete. Bing, tu tombes dans les rings. Ça va pas je vois que t'as les yeux qui ce plissent A la Eastwood Clint, j'ai l'esprit de King, comme Dream mcClean je suis un cogneur type Mon flow sort du coffret, toi t'es démodé comme les groupes de dance Tu peux m'croiser en tournée j'ai pas d'vélo mais pourtant j'fais l'tour de France J'ai cherché ton blaze dans l'dico les seuls synonyme sont soucis crainte et peur Avec mon maillot à poids rouge, ta meuf m'a dit que j'suis l'meilleur grimpeur J'ai fini les Mario c'est pour ça qu'j'ai trop de level Ne me parles pas mal sinon t'auras des séquelles Tu sais que je fais la différence, je viens pas vous la mettre Désolé pour l'attente maintenant je viens changer le game Paris Sud Minute, c'est le nom d'l'album On cartonne, on t'assomme Les français ne font que pondre d'la daube Et ses négros sont d'accord Wilow et Sneaz, on ne parle à personne Sauf à ta pute de meuf quand on l'a textote Vous êtes Lilo Stitch, une bande de bestiole Tu fais du son médiocre pour ça qu'on t'affectionne Nouvelle époque, Wilow emblème d'une nouvelle école M'appelle me demande de kicker, j'lâche quelques mesures mon pote J'suis de passage, à Paname, je fais une escale Je retourne au pays préparer mon retour. Faire taire les messes basses Jamais reposé, toujours en guerre, en solo. Le rap doit se faire opérer A cheval sur le beat comme le mec de Corée. Vrai comme un frisson sur l'île de Gorée Mon phone sonne plus d'appels qu'un taxiphone FacebookTwitter sur BBM. Tous me demandent à quand l'album ? Ça charbonne, Akwa Palace ou Hilton Appelle-moi le taulier. Je gère des gros biz pendant que tu comptes tes petites sommes Malheureusement, nous n'avons pu avoir le couplet de Dombré Dans ce Rap Fr trop de cleptos. Pour pomper nos flows, faut qu'ils se lèvent tôt GADDAMN, The COOLEGE. Viens pas teste, ton style et tout lège Hassoul ! Trop de Ass Hole. Pas le temps de copiner donc je reste seul... Solodolo Hustle. So Solodolo Hustle ! Notre puissance c'est dans la Cuissance. Qu'on la puise négro dans tout les sens Pillow, Pillow ! Je donne ça Soin demande à Wilow Amsgood copilote. Fronçais c'est la prod qu'on pilote Passe moi un pilon que je Reload, Reload, Reload !1</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Détour Vers Le Futur</t>
+          <t>Elle juge</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Y faut que je tabasse, hein ! Je fais mes vocalises, le son fracasse La basse focalise ton esprit, ça te tracasse Ma mafia attise les convoitises en face, tous les petits jeunes Qu'on voit tiz' de la 8.6 Comme Biggie dit tu peux râler no doubt, no diggity Je fais des dégâts la bague au doigt je suis un gars dégourdi Dit donc, tu sais déjà que je suis gaga devant des bigoudis Apte de rondondons pas de baggy jeans on me dit gars au bougon J'ai le béguin pour du rentre-dedans locks'd au cou à la Songoku Hey gars, bigo ton cops' ta go court chez moi telle une tox Boisson Coca pose son sac-à-dos, ses bretelles façon saccadé ça donne San Ku Kaï Sur son cocon puis elle part sans même un coucou Aight ?! Ngomané Awax Freestyle Effa, est-ce que tu connais ? Encore un camer', putain ! C'est Pit au Mic Je marine dans ce truc depuis que je suis gosse, coco T'as vu ton boss téco auprès des miss quand je kick au micro j'ai un dièse, poto Curieux de savoir qui rit de moi quand je tchatche Hache l'échine des traîtres machine à cracher le verbe C'est Pit, ma chère deux mots, ma soeur T'as le Dieu le plus bâtard, ici, quand il se fâche Grosse tête, gros nez, je sais, je suis moche Mais quand elle me bip, c'est pour me piper Je suis macro, trop d'MC accros de mes rimes Appelle-moi qui tu veux je suis dans le bungalow La gogo tient mon bangala Tu bandes à la sonorité de ma voix je mets James Bond à l'eau Je rigole, t'as vu rien de mauvais Mafia Trece, Pit freestyle spécial du style, àl Les caisses fracassent les charleys attaquent en douce La basse pousse le sample un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Hein ! Ca me déroute un brigadier dans la mafia A.k.a. Le Blackalauréat, c'est moi le K-Fear-a Ecoute ce qu'il dit dans son passage C'est toujours les mêmes propos puisque les brigands sont pas sages J'analyse comme un agrandissement Et partout ça s'enlise dans les arrondissements Y'a plus de leçons Y'a plus de pédagogie Y'a juste des coups de tessons dans l'estomac et des hémorragies Ouais, pour la Brigade, intervention L'échantillon de la 'Gade du 7.5 Quand je suis tressé comme la Mafia il faut que ça pète, zinc' Fredo Je fais peur au plus puriste sur le show futuriste Mon flow naturel complexe même les naturistes Tout ce que je èf c'est simple mais dicté par le BF Si la Gade-Bri, si ma plaque brille c'est pas grâce à l'EDF, non ! C'est grâce au corps à douze têtes Le Man Power Le Marché Noir Nouvelle génération de Black Power On me dit déjà mécontent les gens savent pas, je suis ravi au lit Des raclis en lot, le bide plein de ravioli c'est ça ! Rap violent, violeur d'instru vierges J'élargis les mesures, tu deviens violet hey, tu sniffes le cyanure ? Serge, dis-leur pas besoin de gamberger des heures quand on a de l'aura Sa langue aura de ma euq' ta go dans le sang, string angora Avant pour un slow langoureux c'était la garre-ba au Globo Maintenant c'est A-Speak tu perds tes globules Gobe mon leust fluide comme le Banga Kasimir, direct c'est quasiment du Gloubi-Boulga A-Speak, Mafia Trece DJ Effa Son futuriste Tu dis quoi, maintenant ? C'est qui le prochain ? Bon, t'as la pèche ? Vas-y Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon corps d'armée, avec moi Vous, pour combler mes joies Le microphone pour arme, sache que personne ne m'arrêtera Voici de quoi est fait mon composite Un condensé de rimes sensées cadence chez la Mafia Trece On cesse les parodies son futuriste te mène à l'agonie Projète mon dialecte recèle toutes les chroniques à mon sujet Hip Hop terroriste, j'ai assez d'ypérite verbal Qui ose me rip ? Dans la capitale l'ennemi capitule la pilule ne passe plus Même avec du pili-pili perdu tel le lilliputien Dans un monde qui n'est plus le sien de la concurrence, quoi ? J'en fais la risée, stylo aiguisé J'use de ma dextérité pour la neutraliser Sûr que je l'ai bien visé désormais elle est avisé S'il faut, combat révise tes alliés embuscade codifiée Prête pour la vendetta plus un pas ! Les bras en l'air ! Traqué mic en main, j'ai braqué Le Hip Hop va trinqué épaulé par mon corps d'armée Passe le mic en main à Yannick les païens sont en panique Microphone Check One-Two il marche bien Je me sers du microphone pour sortir de ma vie de chien Je veux pas partir en vrille comme tant de mes reuf' dans le rap je dois percer Je suis lassé de squatter les halls le soir, gars, je suis pressé De presser des centaines de disques, d'avoir du succès Voir la vie en rose, me fair de l'oz' De voir autre chose que mon tié-quar morose grâce à ma prose Je swing sur la basse, pour les MC, hélas Je sors de la pénombre, à présent je fais surface Mon but est fixé, mon ascension amorcée Rien ne pourra freiner l'ascension de mon crew Mafia Trece Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Détour Vers le Futur Les caisses fracassent Les charleys attaquent en douce La basse pousse le sample Un son simple Yeah ! Mon Hip Hop Mon Hip Hop n'a jamais sévit hors de ma galaxie Le 7.7, Le Mée City Mon éternelle patrie Se corrompt Sous les halls des bât' Les cerveaux Du père des gangsters Qui préconise mon hardcore à leur petits frères Go, on me verra jamais faire le clown à la T.V Pour que mon produit Fasse partie des meilleures ventes au Top-Fifty Ce flow prouve que ma fraction est transcendante Al Primera, Mafia Trece Bop-bop ! Et les wacks décollent Mes rimes dégomment le numéro un des wacks modernes Qui voit tous les jours s'ajouter sur son compte tout plein de zéros Facile d'usurper sa réputation d'MC Dans un pays où le hardcore est reconnu que dans ses ghettos Je compte pas prêcher toute ma vie pour les cités, mon secteur Et laisser l'industrie du Hip Hop sous la main d'usurpateurs Al Primera, 7.7, Le Mée City Mon Hip Hop bop les faux rappeurs Bop bop les wacks</t>
+          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D’hier à aujourd’hui</t>
+          <t>Empire Bombattak</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Ils ont débarqué dans ma vie comme la lumière Aveuglé par la rage et le dégoût À deux doigts de tout laisser au large J'marchais seul sur un boulevard Une main s'tend, un mec me dit perds pas l'Nord J'vois l'monde s'écrouler autour d'moi Le déclin, une vie d'rêve au bout des lèvres Mais les larmes au bout du compte J'crois qu'j'suis né pour prouver La vie c'est une épreuve, j'espère m'en sortir bon élève Dieu m'guide, faudra attendre pour que j'crève On l'a chanté comme si c'était prémédité La bombe explose, largué avec les débris et les débats À moi s'impose une prise de conscience J'n'ai pas d'autre choix que d'prendre mon monde sur les épaules Là j'vis dans l'ennui, marche au clair de lune la nuit Parle avec les astres, l'envie d'vaincre me ronge Me nourris d'rage mais j'maigris J'passe des mixtapes qui claquent à rien, j'vis de clics Et mon ex-meuf est en cloque Tellement dans l'désarroi, j'en oublie qu'une femme porte ma chair Qui n'verra jamais l'jour, aujourd'hui j'en paye le prix Mon frère taffe et moi je chôme Je n'vis qu'pour la mélodie J'vais faire vibrer les villes même dans l'blizzard D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem Et j'écris pour l'oubli, déblate mes vers sales Personne n'écoute mes versets et ça j'l'oublie pas Jusqu'à ce jour où j'croise cette clique de dingue Unis par la famille, la galère et la bringue C'est là qu'pour moi commence l'histoire et Tout l'passé disparaît Réaliser mon album et aujourd'hui, réapparais J'constate l'ampleur d'ma réussite J'suis une âme morte qui ressuscite J'la dois à cinq gars, N'Djigui, Patou, Jacky Ben-J et Mastermind Kenzy Familles N'Djigui, Ebongué, Ebella, Texeira, Loubayi Une chose est sûre, soyez fiers d'vos fils Que mon frère m'en soit témoin si j'suis là c'est grâce à eux Qu'ils aient la protection d'Dieu On construit des rêves, chaque jour on détruit des cauchemars Une brève nouvelle de mon cur J'vous aime comme mes frères et Shanice ma nièce J'vois la vie belle quand j'me plonge dans ses yeux d'velours J'vis à l'endroit, connaissant le revers d'la pièce Dormez en paix, j'serai toujours là à votre réveil Épilogue, j'viens chanter pour les miens La main sur l'cur, les yeux rivés vers le ciel Et si demain j'pars, que personne ne pleure Vous m'perdez pas, voyez en moi votre protecteur D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, mais le ciel nous protège D'hier à aujourd'hui Tant d'choses à dire Sur ma vie, ma famille et mes mélodies Le temps passe, les meilleurs nous laissent Ça laisse des traces, carpe diem</t>
+          <t>Yeah, Brasco La voix du sous-sol Bombattak 2 0 0 6 Empire C'est Pit au mic El Matador Original Bombattak Les pieds sur starting block, sanglante est l'époque Star ou pas star rien à foutre tu t'tais j'te fuck Poésie urbaine dans son côté glauque Aux portes d'Armageddon les faibles finiront en loques Le paradis c'est ce qu'on en fait l'enfer c'est ce que je fuis Vivre, c'est savoir qu'on a rien vécu J'ai la fibre artistique, celle du monde plutôt assassine Alors laisse moi rapper les passions sur ces notes de musique L'affrontement est quotidien d'ici à mon continent Et si je meurs au combat ma voie est XXX continue J'ose dur le vrai, et quand j'touche c'est magique Joies, révoltes et drames c'est ça qui nourrit ma zic Quand les portes du pénitencier s'ferment, à mes gars s'ouvre un autre monde Et quand je leur parle XXX Aussi à bout ils me disent morale du Viet-Cong alors qu'ils se détrompent On ne tue pas un éléphant en lui coupant la trompe Moi j'écris les cris internes S'ils veulent en faire c'est que la paix a fait son temps malgré les accords de l'OTAN Et quand mon stylo tremble c'est pour dire man Qu'ici bas on vit dans l'état d'urgence Visages meurtris triste déclinaison du bonheur En sursis la mort vient nous chercher dans les tours On brandit l'arme pour être paisible, détruire pour être crédible Trop bon, trop con y'a que toi qui le sais pas Y'a que toi qui le sais pas DJ Dimé Bombattak Brasco L'empire Bombattak J'voulais une vie de rêve sans réaliser les cauchemars J'ai connu l'argent sale à cause d'elle j'ai les poches noires Elle en fait des couches tard, des apprentis gangsters Plein d'oseille pendant que mon taff me paye en lance-pierre On se perd dans la drogue et l'alcool Mes petits frères braquent ta diligence comme les Daltons c'est hardcore La rue t'tues à p'tit feu ça blague pas Mate la génération dormir dehors sans matelas Y'a la télé-réalité près de chez moi c'est la folie Lascar Académie le gagnant finit à Fleury Putain je viens de loin et toi tu viens de quel coin ? J'ai fait comme toi quitté mon bled pour devenir quelqu'un Ici c'est une autre galère le mal n'a pas d'heure LÉtat n'a que de la gueule et sa justice n'a pas dils J'te parle de banlieue Nord, Sud, Est, Ouest Et Paris la nuit on fait ce qu'on peut même si c'est pas Miami Han Brasco, Matador, Baccardi Pit C'est Pit au mic J'dessine une fresque du monde enfin ce qu'il en reste Parce qu'ici c'est le non-sens qui nous tient en laisse J'combats contre rien, j'm'en bats la race moi j'vis J'aggripe le mic' et XXX Rien de pessimiste dans mes dires Réalise la vérité n'est pas que dans les livres La mort j'ai appris son vrai sens dans la vie Elevé aux drames mieux qu'ici dans l'environnement je survis On réagit dans le rouge, on rougit avec le groove Allez dire à l'homme que son déclin c'est dans sa manière de faire qu'il se trouve En ce moment les héros ne font plus recette, Belzébuth la schneck XXX Lis moi ses versets Judaïsme l'Islam, plus de guerre de religion Perception utopique de ce que devrait être le monde Seuls les morts connaissent la fin du combat Et là, entend juste le bruit des curs qui battent El Matador Brasco, Baccardi Pit Original Bombattak OK La vie attriste laisse des cicatrices, acteurs actrices actifs Environnement social ou politique nie la crise Souvent te tombent dessus les flics à 10 Ici le pire des coups s'imagine aller chercher la maille à Miami Comme Tommy Mani ici c'est hami L'amitié rallie car l'Etat nous l'a mise Verbal tsunami, faire la révolution tous unanimes Treillis kaki hardcore indicatif Ici la misère s'en bat les couilles que tu caprices Que des règlements de comptes, fusils à pompe, cagoules et Ducati Loin du système éducatif les juges en libre arbitre Les petits chouravent vite les jeunes ont vite gravi le béton vitamine En guise de bâton de dynamite, ambiance psychiatrique Papi faut la vie d'artiste toujours finaliste Black beurre comme la coupe d'Afrique Les pneus dans les virages crissent, chaînes qui brillent sous la chemise Classique comme Vivaldi, 2Pac ou BIG Info départ même pour les plus rapides La note est salée pour une délinquance dure à cuire On a viré le Titanic si notre avenir est dur à vivre El Matador Okay Original Bombattak Yeah Gringe C.H.I à la prod Okay eh yeah J'collectionne les péchés mortels, j'peux plus rétrograder en 4e Les ailes brûlées j'chui tombé de haut comme l'ange Gabriel Mélange de bien et de mal et j'fais d'une pierre deux coups Et mon plus grand méfait nage encore dans ma paire de couilles 'parait que ma jeunesse est musée de prétextes Un de plus à rouler des joints gros comme des fusées de détresse Désabusé depuis l'école Sale gosse salement éjaculé v'nu pomper sur ton spliff comme sur un puits de pétrole Lil dilaté j'décole et j'fuis le décor Écope d'une vie ratée bien loin des hommes et toutes leurs simagrées Moins perspicace, beaucoup de Whisky dans le bénitier J'traine où les fils de pute portent l'uniforme et le permis de chasse Et j'reste au front avant le rideau final J'écris des textes profonds sur mon lit d'hôpital Moi j'rêve d'une femme avec des couilles Capable d'élever la relève une fois ma putain de dépouille dans les flammes Yeah Gringe</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Double Poney</t>
+          <t>Enfants du Ghetto</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Miskin King. Idyllique deal ! C'est pour negro qui n'ont pas dormi C'est pour negro qui n'ont pas compris . C'est pour negros qui ne sont pas t'es sbires Coup de tete. Bing, tu tombes dans les rings. Ça va pas je vois que t'as les yeux qui ce plissent A la Eastwood Clint, j'ai l'esprit de King, comme Dream mcClean je suis un cogneur type Mon flow sort du coffret, toi t'es démodé comme les groupes de dance Tu peux m'croiser en tournée j'ai pas d'vélo mais pourtant j'fais l'tour de France J'ai cherché ton blaze dans l'dico les seuls synonyme sont soucis crainte et peur Avec mon maillot à poids rouge, ta meuf m'a dit que j'suis l'meilleur grimpeur J'ai fini les Mario c'est pour ça qu'j'ai trop de level Ne me parles pas mal sinon t'auras des séquelles Tu sais que je fais la différence, je viens pas vous la mettre Désolé pour l'attente maintenant je viens changer le game Paris Sud Minute, c'est le nom d'l'album On cartonne, on t'assomme Les français ne font que pondre d'la daube Et ses négros sont d'accord Wilow et Sneaz, on ne parle à personne Sauf à ta pute de meuf quand on l'a textote Vous êtes Lilo Stitch, une bande de bestiole Tu fais du son médiocre pour ça qu'on t'affectionne Nouvelle époque, Wilow emblème d'une nouvelle école M'appelle me demande de kicker, j'lâche quelques mesures mon pote J'suis de passage, à Paname, je fais une escale Je retourne au pays préparer mon retour. Faire taire les messes basses Jamais reposé, toujours en guerre, en solo. Le rap doit se faire opérer A cheval sur le beat comme le mec de Corée. Vrai comme un frisson sur l'île de Gorée Mon phone sonne plus d'appels qu'un taxiphone FacebookTwitter sur BBM. Tous me demandent à quand l'album ? Ça charbonne, Akwa Palace ou Hilton Appelle-moi le taulier. Je gère des gros biz pendant que tu comptes tes petites sommes Malheureusement, nous n'avons pu avoir le couplet de Dombré Dans ce Rap Fr trop de cleptos. Pour pomper nos flows, faut qu'ils se lèvent tôt GADDAMN, The COOLEGE. Viens pas teste, ton style et tout lège Hassoul ! Trop de Ass Hole. Pas le temps de copiner donc je reste seul... Solodolo Hustle. So Solodolo Hustle ! Notre puissance c'est dans la Cuissance. Qu'on la puise négro dans tout les sens Pillow, Pillow ! Je donne ça Soin demande à Wilow Amsgood copilote. Fronçais c'est la prod qu'on pilote Passe moi un pilon que je Reload, Reload, Reload !1</t>
+          <t>Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Les poings se lèvent pendant que j'fais vibrer la dance-hall Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau J'vois la rue comme un champ de mines Des noirs et des beurs qui tombent et s'noient dans des bains de sang, la routine J'imagine la fin du film, des mères en sanglots, des émeutes dans tous les angles, je chante l'espoir sur la platine C'est la crise qui tue tant d'hommes Et les flics ont bousillé tant d'âmes, ce qui va se passer est classé hors norme Le ghetto veut vivre libre, on est mal barré Faudrait-il stopper avec cette utopie ? Moi j'y crois et je donne la force, un brin d'espoir dans un zeste de mélancolie J'suis un mec du peuple, j'connais les causes de ces voitures en feu Les raisons de ces émeutes, et de ces révoltes face aux agents, cette abondance d'illicite Et j'peux te dire que peu de dealers ou de braqueurs s'en félicitent C'est tout ce qu'il y a comme solution, on veut tous briller Negro, mais à quel prix? On m'a donné la parole, donc laissez-moi chanter M'exprimer au nom des enfants des cités La voix du ghetto j'me suis proclamé La voix d'un milieu défavorisé Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau Le mal de vivre reste permanent Trouver les résolutions devient imminent Et je m'demande encore combien de temps Avant que ne réagisse ce putain de gouvernement Ca crame et le feu ne fait que s'attiser Ca dégénère, vous étiez avisés A qui la faute si tout part en couilles? Vous ramasserez les corps au côté des douilles Que les pères et les mères du ghetto gardent espoir Jeunes prenons conscience qu'à nous sera la victoire On a assez souffert dans ces cités dortoirs L'heure de gloire est proche, bientôt la fin du cauchemar Le ghetto pleure mais il n'est jamais trop tard Dans les blocs ca fume et ca cogite les mecs se couchent tard Les flics circulent, les ombres s'effacent dans le blizzard Quand ca va péter, faudra pas dire c'est bizarre Ghetto, enfant du ghetto On vient tendre la perche à ceux qui veulent s'élancer Ghetto, enfant du ghetto On fait chanter, danser les désenchantés Le poids des mots brise les murs du son Pour une évasion de nos tours de bétons Des bas-fonds, des voix s'élèvent, des bras se lèvent, des poings se ferment À nous la victoire! Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Elle juge</t>
+          <t>Envie de tout</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Pour les ghettos d'France 2002 Elle juge La rue s'demande c'qui s'passe Qui elle doit pousser vers le haut Car sur les bancs XXX tas d'merde s'entassent Mes négros veulent la force Le truc qui fait boum dans l'corps Le rap au torse velu, la vérité et le score Se fera si l'impulsion vient d'en bas Les morveux s'torchent et l'ghetto augmente les watts dans le transistor La rue écoute, la rue observe, la rue juge Et brise les carreaux quand l'son est trop hardcore J'rappe fort, fais peur aux faibles 2002, resteront à table ceux qu'ont l'manche Les mecs plein d'fables Verront leur sang couler d'la fontaine On donne à graille À un millier d'renards, c'est la jungle J'kicke même sans dents, des couplets sanglants, freestyle sans blanc Qu'il neige, qu'il pleuve ou qu'il vente Les mythos sont en deuil La vérité frappe à leur porte comme la mort C'est la merde, qui a dit qu'le rap était cuit Les baltringues taillent quand nos bouches font clic-clic On a des Beretta à la place d'la mâchoire On s'implique Des villes entières qui nous supportent Et quand on éclate, la terre vibre On a des disques d'or, on brille négro Et on n'oublie pas qu'elle juge Et se sent blessée quand y a d'la merde qui s'fait Baccardi pour vous servir, un nouvel acte Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne Tout l'monde est à l'écoute Des derniers albums, des derniers freestyles Des derniers clashes de rap français Un recommencement après l'succès On s'doit d'regrouper, négro On a beau polémiquer Mais l'rap vient d'là Rendons au tier-quar c'qui appartient au tier-quar Avant d'péter les carreaux et franchir les barrières Faut s'assurer qu'y a tout c'qui faut derrière J'viens du dix-neuvième, j'rappe pour l'7-8, le 9-5 9-2, 9-3, 9-4 et 7-5 Et tous ceux qu'j'oublie Qui s'reconnaissent dans mes écrits J'représente trop d'gens dans l'industrie J'suis pas une star, juste un mec du ghetto reconnu C'est une question d'temps car on m'appelle le rappeur cinq étoiles J'rappe vénère, j'rappe mes nerfs et les vôtres J'ramène une ère, un nouveau souffle, ce bolide Pourquoi la masse me soutient Parce que j'lui parle et stoppe ses états d'âme La rue juge nos écrits, reste à l'écoute Pit au mic, le bordel est garanti Tous les départements Viennent à nous, l'ambiance et les cris ouh ouh! De nos cliques gênent C'est avec classe qu'on engrène tout ceux qui s'plaignent Une pensée aux prisonniers d'la Santé, Fleury ou Fresnes si, si On débarque Y a nos gueules sur toutes les chaînes, dans les halls et les blocs On entend que des cris d'hyènes Quand ils acquiescent, tout l'monde crie, faut qu'ça saigne Et celui qui veut test', ben qu'il vienne</t>
+          <t>C'est c'qu'on veut W.O.U.I.L.O Si on veut Avec Pit au M.I.C.R.O Un peu fou Ça sort de l'A.F.R.O.P.O.P Ok Ok C'est c'qu'on veut Si on veut Pit Baccardi Un peu fou On a du cran, malheureusement peu d'temps Comme à l'écran, l'équipe, nos dreams, ma bicrave Et au cas où la cagoule et les gants Dans mon camp, la graine de délinquant La victoire aime l'effort, éloquent Comme l'oseille emmerde vos morales et conseils J'viens gagner, laisser les miettes aux autres mauviettes qui s'plaignent Les fillettes ça reste dans les jupons, sur toute la chanson malhonnête Sur le chemin d'la réussite l'échec est l'meilleur guide Cette flamme m'habite, pour ça que j'brûle tout à chaque titre L'étau s'resserre, on fuit l'état chaotique On veut l'monde à nos pieds couz', quitte à l'prendre en otage Génération parias, fais ton Ave Maria, avec le biz c'est l'mariage La victoire est colorée dans l'pays d'Marianne On fuit la misère man, cette taspé est trop laide J'préfère mettre le prix et m'envoyer en l'air Madame Succès J'ai méprisé l'doute j'lui ai mis un schlass dans l'cou avant qu'il m'jette dans l'trou Cousin, ici on a envie d'tout C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Envie d'tout, d'm'imprégner partout, d'me faire connaître Et d'sortir de c'trou sans jamais être malhonnête Envie d'faire plaisir à la re-mè, d'voir rentrer la ille-ma Tel est le souhait de chaque être humain Si tu veux savoir celui de percer est le mien Développer mon savoir, pouvoir compter sur les siens J'flirte avec la réussite, regarde, j'l'ai dans mes mains Envie d'décrocher la Lune, envie d'ça depuis qu'j'suis gamin J'voudrais partir sur une île déserte au Soleil Le soir entendre le bruit des vagues qui viennent bercer mon sommeil Epanouir mes envies, là où l'on vit tout se monnaye oh! Les petits d'nos jours, à la bouche, n'ont que le mot seille-o Difficile dans ce cas d'réaliser tous ses rêves L'argent devient une guerre, moi j'suis pour qu'on marque une trêve J'aimerais graver mes désirs sur des milliers d'disques Mais j'oublie pas qu'dans mon quartier ça s'tape pour des billets d'dix C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Pas venu faire d'la figuration, ici que des premiers rôles La merde a un goût amer on en a trop graillé par dépit Pour ça qu'ça pue le souffre dans nos débits, on a les dents longues La langue qui pend, les yeux rouges sang Et quand on débarque c'est sauve qui peut Le temps s'arrête, nous on continue d'tourner Pirates des mots, pour exister obligés d'choquer l'monde Comme American Airlines et Tony, on veut tout nous Si jamais ça rate c'coup-ci, on a d'autres plans pour y retourner J'tiens à laisser mon empreinte, le sceau d'un passage Je sais beaucoup d'entre nous essaient de l'faire en n'étant pas sages C'que j'veux j'l'aurai, mais pour l'instant faut cravache C'est pas grave, j'atteindrai mon but avec plus de rage J'me sens comme un lion enfermé dans une cage Esprit d'un grand homme prisonnier dans l'corps d'un petit sage Avec l'envie d'tout, et ce en héritage La chaleur coule dans mon sang y a du métissage C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Empire Bombattak</t>
+          <t>Faut Savoir Anticiper</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yeah, Brasco La voix du sous-sol Bombattak 2 0 0 6 Empire C'est Pit au mic El Matador Original Bombattak Les pieds sur starting block, sanglante est l'époque Star ou pas star rien à foutre tu t'tais j'te fuck Poésie urbaine dans son côté glauque Aux portes d'Armageddon les faibles finiront en loques Le paradis c'est ce qu'on en fait l'enfer c'est ce que je fuis Vivre, c'est savoir qu'on a rien vécu J'ai la fibre artistique, celle du monde plutôt assassine Alors laisse moi rapper les passions sur ces notes de musique L'affrontement est quotidien d'ici à mon continent Et si je meurs au combat ma voie est XXX continue J'ose dur le vrai, et quand j'touche c'est magique Joies, révoltes et drames c'est ça qui nourrit ma zic Quand les portes du pénitencier s'ferment, à mes gars s'ouvre un autre monde Et quand je leur parle XXX Aussi à bout ils me disent morale du Viet-Cong alors qu'ils se détrompent On ne tue pas un éléphant en lui coupant la trompe Moi j'écris les cris internes S'ils veulent en faire c'est que la paix a fait son temps malgré les accords de l'OTAN Et quand mon stylo tremble c'est pour dire man Qu'ici bas on vit dans l'état d'urgence Visages meurtris triste déclinaison du bonheur En sursis la mort vient nous chercher dans les tours On brandit l'arme pour être paisible, détruire pour être crédible Trop bon, trop con y'a que toi qui le sais pas Y'a que toi qui le sais pas DJ Dimé Bombattak Brasco L'empire Bombattak J'voulais une vie de rêve sans réaliser les cauchemars J'ai connu l'argent sale à cause d'elle j'ai les poches noires Elle en fait des couches tard, des apprentis gangsters Plein d'oseille pendant que mon taff me paye en lance-pierre On se perd dans la drogue et l'alcool Mes petits frères braquent ta diligence comme les Daltons c'est hardcore La rue t'tues à p'tit feu ça blague pas Mate la génération dormir dehors sans matelas Y'a la télé-réalité près de chez moi c'est la folie Lascar Académie le gagnant finit à Fleury Putain je viens de loin et toi tu viens de quel coin ? J'ai fait comme toi quitté mon bled pour devenir quelqu'un Ici c'est une autre galère le mal n'a pas d'heure LÉtat n'a que de la gueule et sa justice n'a pas dils J'te parle de banlieue Nord, Sud, Est, Ouest Et Paris la nuit on fait ce qu'on peut même si c'est pas Miami Han Brasco, Matador, Baccardi Pit C'est Pit au mic J'dessine une fresque du monde enfin ce qu'il en reste Parce qu'ici c'est le non-sens qui nous tient en laisse J'combats contre rien, j'm'en bats la race moi j'vis J'aggripe le mic' et XXX Rien de pessimiste dans mes dires Réalise la vérité n'est pas que dans les livres La mort j'ai appris son vrai sens dans la vie Elevé aux drames mieux qu'ici dans l'environnement je survis On réagit dans le rouge, on rougit avec le groove Allez dire à l'homme que son déclin c'est dans sa manière de faire qu'il se trouve En ce moment les héros ne font plus recette, Belzébuth la schneck XXX Lis moi ses versets Judaïsme l'Islam, plus de guerre de religion Perception utopique de ce que devrait être le monde Seuls les morts connaissent la fin du combat Et là, entend juste le bruit des curs qui battent El Matador Brasco, Baccardi Pit Original Bombattak OK La vie attriste laisse des cicatrices, acteurs actrices actifs Environnement social ou politique nie la crise Souvent te tombent dessus les flics à 10 Ici le pire des coups s'imagine aller chercher la maille à Miami Comme Tommy Mani ici c'est hami L'amitié rallie car l'Etat nous l'a mise Verbal tsunami, faire la révolution tous unanimes Treillis kaki hardcore indicatif Ici la misère s'en bat les couilles que tu caprices Que des règlements de comptes, fusils à pompe, cagoules et Ducati Loin du système éducatif les juges en libre arbitre Les petits chouravent vite les jeunes ont vite gravi le béton vitamine En guise de bâton de dynamite, ambiance psychiatrique Papi faut la vie d'artiste toujours finaliste Black beurre comme la coupe d'Afrique Les pneus dans les virages crissent, chaînes qui brillent sous la chemise Classique comme Vivaldi, 2Pac ou BIG Info départ même pour les plus rapides La note est salée pour une délinquance dure à cuire On a viré le Titanic si notre avenir est dur à vivre El Matador Okay Original Bombattak Yeah Gringe C.H.I à la prod Okay eh yeah J'collectionne les péchés mortels, j'peux plus rétrograder en 4e Les ailes brûlées j'chui tombé de haut comme l'ange Gabriel Mélange de bien et de mal et j'fais d'une pierre deux coups Et mon plus grand méfait nage encore dans ma paire de couilles 'parait que ma jeunesse est musée de prétextes Un de plus à rouler des joints gros comme des fusées de détresse Désabusé depuis l'école Sale gosse salement éjaculé v'nu pomper sur ton spliff comme sur un puits de pétrole Lil dilaté j'décole et j'fuis le décor Écope d'une vie ratée bien loin des hommes et toutes leurs simagrées Moins perspicace, beaucoup de Whisky dans le bénitier J'traine où les fils de pute portent l'uniforme et le permis de chasse Et j'reste au front avant le rideau final J'écris des textes profonds sur mon lit d'hôpital Moi j'rêve d'une femme avec des couilles Capable d'élever la relève une fois ma putain de dépouille dans les flammes Yeah Gringe</t>
+          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Enfants du Ghetto</t>
+          <t>Fév 97</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Les poings se lèvent pendant que j'fais vibrer la dance-hall Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau J'vois la rue comme un champ de mines Des noirs et des beurs qui tombent et s'noient dans des bains de sang, la routine J'imagine la fin du film, des mères en sanglots, des émeutes dans tous les angles, je chante l'espoir sur la platine C'est la crise qui tue tant d'hommes Et les flics ont bousillé tant d'âmes, ce qui va se passer est classé hors norme Le ghetto veut vivre libre, on est mal barré Faudrait-il stopper avec cette utopie ? Moi j'y crois et je donne la force, un brin d'espoir dans un zeste de mélancolie J'suis un mec du peuple, j'connais les causes de ces voitures en feu Les raisons de ces émeutes, et de ces révoltes face aux agents, cette abondance d'illicite Et j'peux te dire que peu de dealers ou de braqueurs s'en félicitent C'est tout ce qu'il y a comme solution, on veut tous briller Negro, mais à quel prix? On m'a donné la parole, donc laissez-moi chanter M'exprimer au nom des enfants des cités La voix du ghetto j'me suis proclamé La voix d'un milieu défavorisé Ghetto, enfant du ghetto J'te parle pas du Bronx ni de Soweto Ghetto, enfant du ghetto Mais de nos banlieues où la merde colle à la peau Le mal de vivre reste permanent Trouver les résolutions devient imminent Et je m'demande encore combien de temps Avant que ne réagisse ce putain de gouvernement Ca crame et le feu ne fait que s'attiser Ca dégénère, vous étiez avisés A qui la faute si tout part en couilles? Vous ramasserez les corps au côté des douilles Que les pères et les mères du ghetto gardent espoir Jeunes prenons conscience qu'à nous sera la victoire On a assez souffert dans ces cités dortoirs L'heure de gloire est proche, bientôt la fin du cauchemar Le ghetto pleure mais il n'est jamais trop tard Dans les blocs ca fume et ca cogite les mecs se couchent tard Les flics circulent, les ombres s'effacent dans le blizzard Quand ca va péter, faudra pas dire c'est bizarre Ghetto, enfant du ghetto On vient tendre la perche à ceux qui veulent s'élancer Ghetto, enfant du ghetto On fait chanter, danser les désenchantés Le poids des mots brise les murs du son Pour une évasion de nos tours de bétons Des bas-fonds, des voix s'élèvent, des bras se lèvent, des poings se ferment À nous la victoire! Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>J'suis fait, j'suis grillé, partout où j'vais oh, c'est l'groupe au treillis Trier ceux qui font crari, les faux ça vieillit Marie ma rime aux thunes, Paris m'arrive aux couilles J'en ai ras le cul, la foule des faux-culs m'envahit C'est cuit, j'ai niqué mon QI, niqué ma vie BEP vente, si j'm'en sors bien j'serais p't'être vendeur au 3 Suisses Mortel pour un nègre, sa mère j'préfère kiffer ma galère C'est tout ou rien perdre, j'crois qu'j'en ai pas l'air T'as l'air de dire qu'j'suis pessimiste, comme si j'étais au pénitencier Qui t'a dit qu'j'y étais pas, qu'est-ce que t'en sais ? Prison du cerveau, pour pas qu'il serve aux négros qui servent J'sais même plus, la dernière fois qu'on c'est revu J'en reveux, j'en reviens, du haut du spliff Mais j'nique mes neurones, et monsieur l'histoire du noir devient un gnome J'm'autodétruis, pourquoi ? Faut qu'j'me reprenne Faut qu'on m'apprenne à présent à pas trop traîner La graine de délinquant, ça pousse trop vite Un peu d'KPO-Fesse on retrouve que des macchabés Crime ou rap, les plus faciles moyens de grailler Ou rentrer du boulot baisé d'voir tous ses gosses brailler Encore si j'trouvais un taffe digne, j'pourrais m'y faire mais Pour l'instant c'que j'vois, c'est qu'les portes sont fermées Tu me diras Pourquoi autant de haine cousin ? Regarde autour de toi, ici tout est malsain Le mal s'installe à chaque coin de rue Loin des HLM du 16ème, mon 6ème sens me guide J'suis pas un vendu, je représente les gens du Nord-Sud-Est-Ouest, tant qu'ils restent vrais, nique le reste Tendue est l'ambiance, quand je pense qu'en France Certains donneraient cher pour nous voir pendus Comme les X-men j'ai la vision, oublie tes bijoux et ton vison Surveille ta maison, la plupart des frères perdent la raison Que vas tu faire ? Armageddon arrive, Armageddon arrive fils... Va chez le médecin, Booba t'a mis dans l'ma-co Cousin malsain, les mcs voici el maquereau Hors du commun, l'cro-ma du cro-mi Crois-moi, crois-y, re-noi moisi, v'là l'chef, le roi comme à Choisy OCB oh qu'c'est bon, roule un joko junky Pas d'boulettes sur mon coste-La, sur mon croco funky Bronche pas mon style fait mal, j'sais y dégage les bronches Rafraîchit comme Vicks, Lunatic pour le 96 Coupe les mcs en tranche, ouvre les portes Écarte les branches comme les chattes miaulent à notre approche Manche, une de perdue pour l'ennemi A nous la brioche, tu chipotes on t'chicote, on t'laisse des biscottes J'aimerais pas être flic, taffer dans l'trom ou aux PTT C'est bidon, c'est naze comme un drive-by en VTT Je suis plutôt M.I.C., genre de mc payé en rimes Fume la sensi dans des gares-ci Garçon, mauvais enfant, mauvaise graine J'm'appelle pas Mathieu pourtant j'ai toujours la haine J'suis toujours à mon poste comme vigipirate Armé d'un micro HF, je suis vigi' puis rap Frérot, t'es bientôt mort comme si t'avais le virus Tu flippes ta race, tu transpires de l'anus, tu saignes des sinus J'm'appelle pas Lunatic pour rien, j'ai plus la raison Évite d'partir en couille, comme j'évite d'aller en prison Fiston tu veux un piston pour faire du cash flow tranquille ? Gratte le papier, jusqu'à qu'tu chies des biftons Sans cash tu finis sous terre sans tes chicots Tristesse, pleurs, sermons, bouquets de coquelicots Nous sommes les mcs qui s'la donnent comme Ziko Lunatic et les tchagas mouillent sous leurs tricots Tricard, c'est comme à Châtelet y'a d'la chatte frère De la place carré jusque dans le RER J'actionne le gun puisqu'il fonctionne Bouge ou j'te sectionne, t'en prends 5 comme les Jackson Oxmo Puccino, mon voisin du 20 moins 1 Un brave gars, un cigare, la balle se prend La tristesse l'abat, le tabac se consume Et j'vois pas mes soucis dans la fumée J'pense à mes combats où j'ai perdu, ceux où j'ai vaincu Ou comment à 20 ans, en avoir 40 de vécu Champs-Elysées, je marche seul comme Jean-Jacques Car j'attends rien d'ces tas d'gens qui parlent d'oi-t en jactant La famille XXX On s'cogne comme un jeu d'billes, on s'nique même si un ... J'fais parti d'ces jeunes qui grandissent tout seuls Peu de fun, beaucoup de peine, gun, Le Pen, coup de gueule Certains craquent deviennent fous, d'autres braquent finissent au trou Quelque soit l'sens qu'on prend Je pense qu'on finit tous dans la même brouette J'parle pas que d'moi mais d'toi aussi, je sais qu'tu sais ici Tu choisis d'en rire devant tes potes, je sais qu'chez toi t'es die Sapristi, quel triste texte, j'essaie d'être gai mais j'écris c'que j'ai Oxmo Puccino Baccardi brise-curs Les chouchous disent que je suis perforant Elles m'appellent marteau-Piter J'suis pas l'as de trèfle ni le bourreau des curs J'suis le briscard, le jeune négro qu'tu peux pas tricard Ma vie le biz, le rap, les meufs Disons que j'aimerais avoir de l'or plein les dents, 24 carats, une Porsche Bé-flam au maximum, montrer que j'ai de la maille Mais laisse tomber, les projets qu'jai me permettront de kiffer plus Disque d'or, black star, Pit connexion Je veux qu'les putes XXX et Mars Vlavo Elle pourront dire v'là le veau Qui a grandi c'est devenu un buf membré comme un taureau J'croise les doigts espérant grailler grâce au rap Pour l'heure j'gratte le papier en attendant les biftons Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes, méfie 1, 2, Time Bomb, L.U.N.A.T.I.C., A.L.I., B.2.O.B.A., le Bridge Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes Méfie-toi de lui de moi, rab-za, re-noi dans ville Délinquance juvénile tirant dans le mille Les deals se font plus faciles, file vers un coin noir Va faire un tour, va voir comment est le cauchemar Top départ chrono, j'suis Ali le vicelard Je suis le plus gros salopard que l'histoire n'ai jamais pu voir Quoi ? Comment ça ? Ne me dit pas que le crime ne paie pas Dis-leur cousin1</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Envie de tout</t>
+          <t>Freestyle 88.2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>C'est c'qu'on veut W.O.U.I.L.O Si on veut Avec Pit au M.I.C.R.O Un peu fou Ça sort de l'A.F.R.O.P.O.P Ok Ok C'est c'qu'on veut Si on veut Pit Baccardi Un peu fou On a du cran, malheureusement peu d'temps Comme à l'écran, l'équipe, nos dreams, ma bicrave Et au cas où la cagoule et les gants Dans mon camp, la graine de délinquant La victoire aime l'effort, éloquent Comme l'oseille emmerde vos morales et conseils J'viens gagner, laisser les miettes aux autres mauviettes qui s'plaignent Les fillettes ça reste dans les jupons, sur toute la chanson malhonnête Sur le chemin d'la réussite l'échec est l'meilleur guide Cette flamme m'habite, pour ça que j'brûle tout à chaque titre L'étau s'resserre, on fuit l'état chaotique On veut l'monde à nos pieds couz', quitte à l'prendre en otage Génération parias, fais ton Ave Maria, avec le biz c'est l'mariage La victoire est colorée dans l'pays d'Marianne On fuit la misère man, cette taspé est trop laide J'préfère mettre le prix et m'envoyer en l'air Madame Succès J'ai méprisé l'doute j'lui ai mis un schlass dans l'cou avant qu'il m'jette dans l'trou Cousin, ici on a envie d'tout C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Envie d'tout, d'm'imprégner partout, d'me faire connaître Et d'sortir de c'trou sans jamais être malhonnête Envie d'faire plaisir à la re-mè, d'voir rentrer la ille-ma Tel est le souhait de chaque être humain Si tu veux savoir celui de percer est le mien Développer mon savoir, pouvoir compter sur les siens J'flirte avec la réussite, regarde, j'l'ai dans mes mains Envie d'décrocher la Lune, envie d'ça depuis qu'j'suis gamin J'voudrais partir sur une île déserte au Soleil Le soir entendre le bruit des vagues qui viennent bercer mon sommeil Epanouir mes envies, là où l'on vit tout se monnaye oh! Les petits d'nos jours, à la bouche, n'ont que le mot seille-o Difficile dans ce cas d'réaliser tous ses rêves L'argent devient une guerre, moi j'suis pour qu'on marque une trêve J'aimerais graver mes désirs sur des milliers d'disques Mais j'oublie pas qu'dans mon quartier ça s'tape pour des billets d'dix C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout Pas venu faire d'la figuration, ici que des premiers rôles La merde a un goût amer on en a trop graillé par dépit Pour ça qu'ça pue le souffre dans nos débits, on a les dents longues La langue qui pend, les yeux rouges sang Et quand on débarque c'est sauve qui peut Le temps s'arrête, nous on continue d'tourner Pirates des mots, pour exister obligés d'choquer l'monde Comme American Airlines et Tony, on veut tout nous Si jamais ça rate c'coup-ci, on a d'autres plans pour y retourner J'tiens à laisser mon empreinte, le sceau d'un passage Je sais beaucoup d'entre nous essaient de l'faire en n'étant pas sages C'que j'veux j'l'aurai, mais pour l'instant faut cravache C'est pas grave, j'atteindrai mon but avec plus de rage J'me sens comme un lion enfermé dans une cage Esprit d'un grand homme prisonnier dans l'corps d'un petit sage Avec l'envie d'tout, et ce en héritage La chaleur coule dans mon sang y a du métissage C'est c'qu'on veut Croquer la vie à pleines dents Si on veut, pour l'instant l'mur on est en plein dedans Un peu fou, rêve convoitise tout l'temps Envie d'tout, envie d'tout</t>
+          <t>Mama c'est dans mon bled, le vrai makossa Massez vos zgegs pendant qu'les gos demandent un mac Où ça ? Avec Poska ici venu de loin Peace à 360 degrés ou de force fissa En plus ça rime avec bonheur, si t'as les cuisses à l'air Honneur au camer donneur l'élite, aka marteau Piter C'est l'amertume au sein des aut' team, de rêve la mienne Tune pour nous, Time Bomb digne d'être au top Car mon scret est sacré, tape m'n 5 J'crée avec les miens, t'aurais jamais cru, un truc trop synchro Agrée à l'institut de haute rapologie, l'I.H.R. ça déchiR Bientôt en rap rapologie A.I.R. chaud, M.I.C.R.O. branché J'passe le mic à Cassidy des X-Men, prends le mic frère C'est pas un scoop, les X-Men débarquent bien d'un soucoupe Mes forces décuplent, tes idées s'télescopent Esquive les putes, les faux potes Pit fais péter l'socle, que j'brise le cycle des fables habituelles Où les frères s'font tous fonce-dé T'écopes d'un séjour de 6 jours dans les caves de la cité Si j'suis zen, quand j'pète les plombs c'est de manière zélé Kahlouch de l'Est délaisse les, gars louches qui sont à l'Ouest Ma vie une fresque, de 76 à 97 Mon crew est là, toujours à l'heure comme Big Ben Cassidinero et Hill synchros, comme des Citizens Le freestyle c'est comme des partouzes On s'partage tous un truc, ici c'est l'cro-mi Mais dans les 2 cas faut rester l'quereau-ma Maint'nant j'laisse des espaces dans mon texte Pour qu'tu puisses souffler, inspire, expire Le rap, un sport pour les hommes forts Oxmo Puccino, prends le r'lais Quand j'arrive ping rimes ping-pong Et y a des cons qui m'piquent mon style En friment, freestyle pour du fric J'méprise mes ennemis, quand j'écris j'les élimine Mes primes j'économise car j'fais le max avec le minimum Sais-tu c'que c'est que d'êt' le boss ? Un seul but, le succès Bosser, donc buter plus sur nos doss' Poska lève mon bras avant chaque combat d'boxe En boîte, seul mon cd squatte le jukebox Avec Leroy-Boy sur scène j'suis 2 Comme RanXerox, Ox et Rouky Faut qu'ça danse, comme dans l'clip de Puffy et Mase ou Lox Bise au postérieur gauche, l'nom c'est Puccino Ox Black Mafia, Time Bomb Baccardi, pour la Time Bomb, Black Mafia Écoute hein, yeah Je suis de Time Bomb, bambin j'étais au pays du manioc Maint'nant j'manie le mic, hoche mains et tête et p'tite mioche Moche est ma vie Que les mines s'accrochent à mon fute j'm'en fous Envie d'apaisement, j'rap pour l'oseille faut qu'j'pèse nan ? L'épuisement c'est pas dans mon argot Pendant qu'les rares gars pinent leurs gos, je gratte pour les do' Mon fardeau mec, la galère J'ai pas l'air heureux quand j'tchatche et prends ce mic Un bol d'air et un sac d'or, ça f'ra l'affaire pour Pit le camer Langage amer, mec je resterai hardcore jusqu'à la mort À ma mère qui m'guette de là-haut Qu'elle m'excuse de ma cruauté A ciao les putains, les potins du mouv' m'étouffent Une taffe pour m'calmer, t'es ouf L'étoffe même du type clean au mic, c'est Pit Baccardi J'veux qu'ma rime paie, comme le crime J'en ai marre de trimer, c'est pour les miens, rap de flouze Bon faut qu'j'te dise qu'au niveau level au mic c'est chant-mé Je sais qu'j't'inspire, et qu'tes sbires s'barrent de notre histoire Tes chefs chient quand ils narrent nos périples 3 affranchis on s'fait pas ièch' On crèche près d'Porte de Bagnolet Et j'prêche pour qu'les faux s'arrachent J'te lâche un rap brut et j'créé des séismes Toujours l'prems on fait preuve d'héroïsme Et tu clamses, ne m'suis pas Un homme c'est quelqu'un qui s'respecte alors respecte-moi J'm'étends dans l'ciel comme la Voie lactée J'malaxe tes neurones et domine tes cités À l'aube de l'an 2000 j'suis fier de mes racines Digne de la famille Zongo J'trime pour qu'tous les négros signent c'contrat en huit-clos Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé ça c'est ma go moi Eddy Mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis Si tu m'touches, tu vas tellement transpirer Qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs ils grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Trop tard faut qu'je les étripe et les gars flippent J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Je chope le coup d'Eddy, le tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée, un tas d'morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi not' nom c'est Time Bomb, Black Mafia Cassidy des X Zongo Zigzague zdèf comme Ziggy Marley, un zeste maso Je zaye, dehors c'est l'zoo, c'est la zone putain c'est zé' Zoom sur cette zizanie, mais où est donc ma son-mai ? Duplex, mezzanine Mes amis s'animent, les ennemis nous miment, nous singent Au loin 2 sorties d'secours, le rap et le oinj' sacré Comme les cendres qu'on tèj' dans l'fleuve Gange Hifi t'l'a d'jà dit, y a danger, certains cherchent à s'venger Y a qu'une seule part mais tout l'monde veut manger En attendant, j'planifie ma vendetta Détale avant qu'la Black Mafia n'vienne Et n'sème la peine au sein d'ta famille D'instinct méfiant, j'défie l'destin Mon challenge, faire des miens des types biens Un rap céleste, d'où j'tire ce leust X-men maîtrise le cosmos En route pour mon meeting comme dans Get on the bus bis Sais-tu c'que c'est la galère, enculé ? Bah t'en as pas l'air Les gens qui passent chaque jour M'demandent plus si j'ai pas l'heure Tu crois qu'c'est une vie ça ? Dehors quelque soit l'temps Mais faut bien qu'le flouze tombe même si y a l'blizzard En bas les gars tisent, sympathisent faussement Ils s'disent qu'ils bâtissent un empire, mais en fait tous mentent Vu qu'tu gravis les marches et t'élargis, te marginalises Du ze-dou au 5.20, t'es au kilo en 5-5 Les belles caisses bluffent les badauds Pendant qu'les jeunes ados bandent Tant qu'les chaines en or pendent jusqu'aux abdos Les flics, ils d'viennent des voisins, les voisins des flics On reste méfiants vis-à-vis de chaque type qui défile Et les filles, faut les laisser, pas l'temps pour palper mec Mêler la monnaie et les nénés ? Mais t'es malade Vu qu'les syndicats du shit se chient d'ssus G C'est sûr qu'si demain t'assures un gars te sectionne Ces barbes d'herbe, t'en fais ça marche Une nuit c'est toi qu'on braque, merde Les 10 plaques s'perdent si les gars blaguent pas Les comptes se règlent entre clans Tous se plantent en même temps Les mères lâchent des flaques de larmes Devant les flaques de sang L'un des seuls biz où t'as pas d'piston Compte sur personne pour faire des biftons Chauffe ton shit comme un cuistot, arme à la poche t'es l'boss La mère alarmée reconnait plus son gosse Elle dit Non, c'est pas mon fiston Nos vies s'limitent au hall shit home J'rap pas pour le hip hop mais pour mes types J'suis Oxmo Puccino Yeah Baccardi, Cassidy, O.X.M.O., Leroy-Boy, Ali, Mars Vlavo Marc, DJ Poska yeah pour la mafia hein, Pit au mic gars Intervention dans l'track, trop de Marc Dutroux Je crée, j'te sors du rap fresh Les Pitchers de mèche avec mes ennemis jactent Chaque minute est précieuse, ma nette impression Pit connexion, c'est plus qu'du rêve Non, plus du bicrave pour moi Trop sournois ce milieu, mon frère J'voudrais finir ma pauvre vie en belle villa Mon style est clean, clone-le, le clown se s'ra toi pas moi Je sens autour de moi une sale odeur de putain Rap de flouze, mate ma bouche sois en témoin Y a 2 ans connard tu m'traiterais de vaurien Maint'nant j'ai une caboche remplie de textes carrés T'es taré d'vouloir me test' Une marée d'sang sur toi c'est navrant Les mcs craquent trop, se braquent, voudraient ma tête Un titan, Pit en rap c'est c'que je rêve d'êt' Si tu m'suis lève ton poing, avec les miens C'est Time Bomb, Black Mafia Ici c'est Cassidy qui t'cause, fini la pause Kit Kat Sous la 8.6 tes neurones s'battent et s'font un 4x4 Ton esprit bande, s'braque, la Heineken te frappe sec Résultat mec, flemme de ken, mal de crâne, peine Mais d'instinct j'suis relax au mic et je bannis le stress Mon zgeg s'dresse, parce que j'suis strong comme ma té-ci Ta langue s'délie sans délai, t'avoues tes crimes, tu t'crames Avec ton corps, les RG s'font des descentes de lit Ici pas de bluff mais que du neuf, quoi d'neuf Hill ? Jamais hors-piste, j'groove, du feeling, pas b'soin de bibine Trop d'flûtes ou trop d'flics, trop d'promesses J'ai pas d'caisse, pas d'fric, j'lutte c'est ça qui m'dégoûte Bientôt les espèces, viendront remplir mon sac Eastpack Les grosses putes jactent sur mon dos Me courent après mais n'sont qu'des culs-de-jatte La bière j'm'en bats, le joint m'suffit pour danser la samba Cassidy, Oxmo et Pit en 9.7, hein On dit qu'j'ai du style qui est trop frappant J'casse les murs rien qu'en rappant Les mecs viennent fiers en courant Puis partent en civière ou en rampant Pire que 8 8.6, 10 whiskies, 5 biscuits T'es si die quand tu marches, les gars disent Tu slalomes en ski Nique les civils et leurs civils, j'suis l'sale homme pas civilisé Vas-y fais tes valises bonhomme Alors, j'te mets un coup d'boum d'abord Puis tu chutes au sol, potes crient À mort ! Des coups d'mic puis ils crient encore Trop hardcore O.X. Puccino Né pour faire fortune, finir qui m'importune Parfaire mes texte hors durée et rire Mes lauriers au top, black César, tu mates bizarre Un hasard ta mort, les flics l'croiront pas Ils crieront Black mafia Black mafia, black mafia Un peu de textes sauvages, Baccardi au mic, pour le 8.8.2 À Mars, Kessey, Ricky le boss, tout le Time Bomb hein Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la fiat gars Pit et Oxmo, j'ai un putain d'plan gos 3 chattes aux bouls à faire pâlir le plus foncer des négros Mon 210 millimètres s'excite, il sait qu'c'est une bonne piste J'peux êt' le plus sexiste, et les meufs qui kiffent ça, ça existe Et exact, mais au début f'sons preuve d'un peu de tact Avant d'passer à l'acte Après on s'en fout on bâcle les préliminaires Rien à dire j'préfère perforer direct Et battre les dernières performances, entre en transe bébé Ici c'est Cassidy qui t'cause J'crois qu't'as la pose, bouge plus C'est comme le Sport-Elec T'inquiète après t'as les fesses sclé-mu Sois pas émue, c'est qu'le début, kiffe d'êt' l'heureuse élue Cassidy est fier d'être un obsédé Y a pas qu'ta tête que j'dois faire tourner Tes fesses doivent aussi suivre le même procédé Chérie si j'te plais, c'est qu'j'ai la classe de Templar J'suis plus un saint chaque fois qu'j'suis dans ton plumard J'ai trop d'style, j'suis fêlé, rime Rockefeller M'élève au sommet, Baileys à la main Promets l'top comme un homme politique Qui t'parle de partage, mate mon argot J'largue par cargo chaque jour toutes mes ex go Pour toi ma lady, d'autres nanas nada Que Dieu m'aide si j'te perds Sur la vie d'la mère d'amour et de larmes Que je lâcherai par chagrin Amertume tu m'tues, si tu m'dis qu'tu m'aimes plus tu flûtes Corps-à-corps sur l'sofa, on s'glisse sur la sueur Black Casanova, une bougie pour toute lueur Holà doucement, tous mentent quand il s'agit d'massage Technique, s'il faut t'niquer moi j'ai la magie J'ai l'plan master, Oxmo démagogue Dès que ta go mate ma gaule au lit, demain soir toi rigolo Ton mec est nul et même bigleux T'es bien trop belle pour lui, quitte-le, quitte-le Et il suffit que, tu souries et le jour se lève, il éteint nuit Tes lèvres moelleuses, laissent nos langues entremêleuses Tu es ma 9ème merveille après l'oseille, mon Soleil Si j'te rêve s'te plaît, ne me réveille pas Hé ma fille, j'suis le black mafieux Les étoiles filantes sont faites pour faire des vux Écoute, mon rêve, un love axé sur la perfection Jusqu'à ce que ton parfum d'vienne une archive DJ Poska, Mars Vlavo, Mafia trece, Mafia K'1 Fry, Leroy-Boy Pit Baccardi, casse-dédi à Ibrahim Lo, Elie Yaffa Les mecs tenez bons, hein yeah Je n'fume pas d'sensemilia, toujours sensé s'il y a dra De Massilia à Paris il y a masse quand y a ma mafia Un truc plus craquant que l'crack, tu vois l'genre ? Un dôme un rap, même les cain-ri crient Damn Emmener du nouveau, ça crée trop d'rivaux Niveau rime, trop élevé frère Et d'puis qu'il a grandi maintenant sait c'qu'il vaut J'esquive au mieux les jacteurs Avec ce mouv', aucun pacte Je vis d'c'que je dis, évite les acteurs Je dis ce que j'vois, écris ce que j'vis Avoue mon envie d'belle vie Et d'un putain d'trône, d'haut j'aurai une belle vue De toute mon ethnie, de ma clique Des gos que j'mettrai en cloque Type, mate comment je vise c'est Pit Baccardi Mon Q.G. c'est mon cerveau Faut pas qu'pour avoir servi du shit j'prenne des mois Ça vire tous mes projets aux chiottes Puis nom d'un chien j'ai pigé tard, mieux que jamais Qu'l'art de manier la rime pourrai m'emmener loin Car dans ma vie j'ai jamais la hargne comme partenaire Je porte l'honneur de ma famille, trahi par la plupart Telle est la dure loi à laquelle j'me suis fait J'dois ma réussite à personne si ce n'est à moi Si j'crois au rap aujourd'hui Maudits soient ceux qui mal y pensent J'dis, magie et miracle c'est comme les on-dit, jamais du concret J'suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui m'verraient baver Je pisse sur love, y en a pas tant qu'tu paies pas J'le sais ça, j'vis avec En c'qui m'concerne j'reste toujours fidèle aux miens mec Aujourd'hui ma zik' c'est que du kiff Mais si Dieu le veut putain les frères, ce s'ra des plaques demain Oxmo, mafioso J'ai peur d'mourir, je l'sais, j'les ai vu épeler mon nom Appeler des potes et jamais je les ai revus J'ai peur qu'sans moi la vie suive son cours Qu'un autre con touche ma tune, que ma fouf change de pine Et qu'une quelconque loque me copie, que mes potes m'oublient Qu'à chaque fois qu'ma mère ouvre les yeux Ses larmes aient doublées Mourir ici ou ailleurs, y a tant de manières de pas se réveiller Ceux qui partent en premier les meilleurs Tu peux t'cisailler les veines, si la maille te manque tant Que les banquiers t'envoient ces huissiers haineux Tes potes butent un gars, t'attends le saint comeback on est au tome 4 Un jour les mecs viennent cagoule au faciès Comme ces types à qui ils doivent les pactoles Et bim bim ça tire, les douilles tombent au sol Ambiance crari les cain-ri déterrent un Viêt-Cong, ambulance On dit Perds pas espoir Mais faire quoi quand un sale faire-part Dit qu'ton père part d'un cancer ? De toute façon c'est ça ou aut' chose 1 000 façons d'être soustrait, d'laisser les joues arrosées J'en passe des façons de s'casser d'la tess' Des garçons qui s'écrasent en caisse Des mères qui s'laissent décéder Aimer ses amis sans baliser, croire qu'la vie est longue Jusqu'à réaliser l'erreur lors d'une fin de vie Alors chaque matin j'téléphone aux mêmes personnes Tant qu'je les ai, avant qu'leur heure sonne Vu qu'à chaque fois qu'on perd quelqu'un de cher On meurt aussi un peu, facile d'écrire mourir 1 000 fois Oxmo Puccino, à tous mes amis perdus mourir 1 000 fois J'suis jeune mais j'agis comme ancien Peu bavard mais quand j'l'ouvre C'est pas pour dire des conneries, c'est pas pour rien Langues de pute continuez d'jacter, ça m'fait d'la pub Quand j'f'rai un tube j'vous l'dédicacerai, j'vous remercierai J'suis un sac plein de rage, parce qu'un sac vide tient pas debout Mon crew a la rage, tous les pouvoirs, t'es en chien j'm'en fous Casque, puisque l'disque des X est bientôt d'sortie Tu guettes les bacs, comme un junky fonce-dé attend son crack C'est une question d'mort ou d'vie La vie d'abord commence de manière triste J'veux pas qu'mon nom vienne compléter la liste des gars die S'croyant vaillants, des demi-caille' semi-voyous Finnisant par terre couverts du J'croule pas sous l'gent-ar, j'suis pas John Ross J'vis pas à Southfork, j'crèche près d'porte de Bagnolet Où j'traine des semi-remorques, c'est vrai Mais d'temps en temps il passe quelques cabs Et j'bave devant une caisse Mercedes J'fais l'zouave mais pas d'espèces D'une pas d'tunes, de deux Dieu veille sur moi Trois j'crois qu'c'est pas demain la veille Le jour où j'trahirai un d'mes pareils Time Bomb ma famille, black mafia</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Faut Savoir Anticiper</t>
+          <t>Funk Master Sex des bitches (Interlude)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
+          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Fév 97</t>
+          <t>Ghetto Ambianceur</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>J'suis fait, j'suis grillé, partout où j'vais oh, c'est l'groupe au treillis Trier ceux qui font crari, les faux ça vieillit Marie ma rime aux thunes, Paris m'arrive aux couilles J'en ai ras le cul, la foule des faux-culs m'envahit C'est cuit, j'ai niqué mon QI, niqué ma vie BEP vente, si j'm'en sors bien j'serais p't'être vendeur au 3 Suisses Mortel pour un nègre, sa mère j'préfère kiffer ma galère C'est tout ou rien perdre, j'crois qu'j'en ai pas l'air T'as l'air de dire qu'j'suis pessimiste, comme si j'étais au pénitencier Qui t'a dit qu'j'y étais pas, qu'est-ce que t'en sais ? Prison du cerveau, pour pas qu'il serve aux négros qui servent J'sais même plus, la dernière fois qu'on c'est revu J'en reveux, j'en reviens, du haut du spliff Mais j'nique mes neurones, et monsieur l'histoire du noir devient un gnome J'm'autodétruis, pourquoi ? Faut qu'j'me reprenne Faut qu'on m'apprenne à présent à pas trop traîner La graine de délinquant, ça pousse trop vite Un peu d'KPO-Fesse on retrouve que des macchabés Crime ou rap, les plus faciles moyens de grailler Ou rentrer du boulot baisé d'voir tous ses gosses brailler Encore si j'trouvais un taffe digne, j'pourrais m'y faire mais Pour l'instant c'que j'vois, c'est qu'les portes sont fermées Tu me diras Pourquoi autant de haine cousin ? Regarde autour de toi, ici tout est malsain Le mal s'installe à chaque coin de rue Loin des HLM du 16ème, mon 6ème sens me guide J'suis pas un vendu, je représente les gens du Nord-Sud-Est-Ouest, tant qu'ils restent vrais, nique le reste Tendue est l'ambiance, quand je pense qu'en France Certains donneraient cher pour nous voir pendus Comme les X-men j'ai la vision, oublie tes bijoux et ton vison Surveille ta maison, la plupart des frères perdent la raison Que vas tu faire ? Armageddon arrive, Armageddon arrive fils... Va chez le médecin, Booba t'a mis dans l'ma-co Cousin malsain, les mcs voici el maquereau Hors du commun, l'cro-ma du cro-mi Crois-moi, crois-y, re-noi moisi, v'là l'chef, le roi comme à Choisy OCB oh qu'c'est bon, roule un joko junky Pas d'boulettes sur mon coste-La, sur mon croco funky Bronche pas mon style fait mal, j'sais y dégage les bronches Rafraîchit comme Vicks, Lunatic pour le 96 Coupe les mcs en tranche, ouvre les portes Écarte les branches comme les chattes miaulent à notre approche Manche, une de perdue pour l'ennemi A nous la brioche, tu chipotes on t'chicote, on t'laisse des biscottes J'aimerais pas être flic, taffer dans l'trom ou aux PTT C'est bidon, c'est naze comme un drive-by en VTT Je suis plutôt M.I.C., genre de mc payé en rimes Fume la sensi dans des gares-ci Garçon, mauvais enfant, mauvaise graine J'm'appelle pas Mathieu pourtant j'ai toujours la haine J'suis toujours à mon poste comme vigipirate Armé d'un micro HF, je suis vigi' puis rap Frérot, t'es bientôt mort comme si t'avais le virus Tu flippes ta race, tu transpires de l'anus, tu saignes des sinus J'm'appelle pas Lunatic pour rien, j'ai plus la raison Évite d'partir en couille, comme j'évite d'aller en prison Fiston tu veux un piston pour faire du cash flow tranquille ? Gratte le papier, jusqu'à qu'tu chies des biftons Sans cash tu finis sous terre sans tes chicots Tristesse, pleurs, sermons, bouquets de coquelicots Nous sommes les mcs qui s'la donnent comme Ziko Lunatic et les tchagas mouillent sous leurs tricots Tricard, c'est comme à Châtelet y'a d'la chatte frère De la place carré jusque dans le RER J'actionne le gun puisqu'il fonctionne Bouge ou j'te sectionne, t'en prends 5 comme les Jackson Oxmo Puccino, mon voisin du 20 moins 1 Un brave gars, un cigare, la balle se prend La tristesse l'abat, le tabac se consume Et j'vois pas mes soucis dans la fumée J'pense à mes combats où j'ai perdu, ceux où j'ai vaincu Ou comment à 20 ans, en avoir 40 de vécu Champs-Elysées, je marche seul comme Jean-Jacques Car j'attends rien d'ces tas d'gens qui parlent d'oi-t en jactant La famille XXX On s'cogne comme un jeu d'billes, on s'nique même si un ... J'fais parti d'ces jeunes qui grandissent tout seuls Peu de fun, beaucoup de peine, gun, Le Pen, coup de gueule Certains craquent deviennent fous, d'autres braquent finissent au trou Quelque soit l'sens qu'on prend Je pense qu'on finit tous dans la même brouette J'parle pas que d'moi mais d'toi aussi, je sais qu'tu sais ici Tu choisis d'en rire devant tes potes, je sais qu'chez toi t'es die Sapristi, quel triste texte, j'essaie d'être gai mais j'écris c'que j'ai Oxmo Puccino Baccardi brise-curs Les chouchous disent que je suis perforant Elles m'appellent marteau-Piter J'suis pas l'as de trèfle ni le bourreau des curs J'suis le briscard, le jeune négro qu'tu peux pas tricard Ma vie le biz, le rap, les meufs Disons que j'aimerais avoir de l'or plein les dents, 24 carats, une Porsche Bé-flam au maximum, montrer que j'ai de la maille Mais laisse tomber, les projets qu'jai me permettront de kiffer plus Disque d'or, black star, Pit connexion Je veux qu'les putes XXX et Mars Vlavo Elle pourront dire v'là le veau Qui a grandi c'est devenu un buf membré comme un taureau J'croise les doigts espérant grailler grâce au rap Pour l'heure j'gratte le papier en attendant les biftons Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes, méfie 1, 2, Time Bomb, L.U.N.A.T.I.C., A.L.I., B.2.O.B.A., le Bridge Pas d'répit pour les képis, j'épie leurs gestes et puis pisse sur leurs vestes Méfie-toi de lui de moi, rab-za, re-noi dans ville Délinquance juvénile tirant dans le mille Les deals se font plus faciles, file vers un coin noir Va faire un tour, va voir comment est le cauchemar Top départ chrono, j'suis Ali le vicelard Je suis le plus gros salopard que l'histoire n'ai jamais pu voir Quoi ? Comment ça ? Ne me dit pas que le crime ne paie pas Dis-leur cousin1</t>
+          <t>Hein, Yeah, hein, yeah, hein, yeah, what, what No doubt, c'est Pit Baccardi, c'est Pit et Joe, no doubt De Paris aux États-Unis d'Amérique, c'est ça l'équipe Le B.A.C.C.A.R.D.I., c'est Pit au mic, tu le sais Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty La télé m'a rendu beau mon sourire déplait peu à peu Y a des mecs qui ont des plans d'meufs disant que c'est mon pote Pit L'autre type qui m'a en barème disant que je suis moche On me court après elle m'a vu huitième au hit machine Il serait peu que je frime, je suis ce ghettoteur brave Qui signe les autographes sans faire de fautes d'orthographe Car c'qu'il paraît j'ai pris la grosse tête parce que je relate des faits Tu relâcheras pas l'affaire, t'as fouf vu ces grosses fesses Des grosses face de mecs dans la rue m'interpellent Demande des fois des textes de moi en a-capella Je deviens célèbre et vivre au clame du peuple fier de porter mon insigne Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty You're as bad as a ghetto Queen And i'm a pimp with a gangster lame Sipping bud and feeling nice gotta get get to ya Just get up on it, girl if you're on it Don't got up on it just wanna see what you're like Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Mama c'est dans mon bled le vrai makossa Champion d'Afrique lion indomptable Je remets ça sur disque puisque je risque l'anonymat Si je me tais je suis peace et mon discours c'est et Lève ton verre et ton briquet faites la hola joue le maillot à la Mila Et hello bella cesse pas d'épeler le nom du bel homme surnommé Ghetto ambianceur Un nouveau joyau qui va enjailler tous mes adeptes Indispensable quand vous festoyez Mon disque sponsor pour tous les prisonniers Sponsor pour tous les mecs et meufs en bas des escaliers Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Qui sait qui fait bouger les lascars qui sait qui sait Paris, New York les deux superstars qui sait qui sait Genre saccadé placardé sur tous les murs Baccardi ghetto ambianceur dans chaque quartier J'ai ce qu'il faut pour faire jacasser, hein Déjà les mains en l'air je t'ai pas encore braqué Tellement de flow qu'il a fallu renflouer la Seine Sea, sex and sun, mixe ça qu'ça sonne Jusqu'à en faire péter les compteurs de la Sacem Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Everybody wants to party, Everybody wants to party Avec ma première classe, je dédicace à tous les lascars dans la place Everybody wants to party, Everybody wants to party Everybody wants to party, Everybody wants to party De Paris aux Etats-Unis d'amérique c'est ça l'équipe Everybody wants to party, Everybody wants to party From the thugs to the hotties Throw your hands up, everybody throw your hands up ....</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Freestyle 88.2</t>
+          <t>Hifi, Pit Baccardi, Ill, Akhenaton (Mai 97)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mama c'est dans mon bled, le vrai makossa Massez vos zgegs pendant qu'les gos demandent un mac Où ça ? Avec Poska ici venu de loin Peace à 360 degrés ou de force fissa En plus ça rime avec bonheur, si t'as les cuisses à l'air Honneur au camer donneur l'élite, aka marteau Piter C'est l'amertume au sein des aut' team, de rêve la mienne Tune pour nous, Time Bomb digne d'être au top Car mon scret est sacré, tape m'n 5 J'crée avec les miens, t'aurais jamais cru, un truc trop synchro Agrée à l'institut de haute rapologie, l'I.H.R. ça déchiR Bientôt en rap rapologie A.I.R. chaud, M.I.C.R.O. branché J'passe le mic à Cassidy des X-Men, prends le mic frère C'est pas un scoop, les X-Men débarquent bien d'un soucoupe Mes forces décuplent, tes idées s'télescopent Esquive les putes, les faux potes Pit fais péter l'socle, que j'brise le cycle des fables habituelles Où les frères s'font tous fonce-dé T'écopes d'un séjour de 6 jours dans les caves de la cité Si j'suis zen, quand j'pète les plombs c'est de manière zélé Kahlouch de l'Est délaisse les, gars louches qui sont à l'Ouest Ma vie une fresque, de 76 à 97 Mon crew est là, toujours à l'heure comme Big Ben Cassidinero et Hill synchros, comme des Citizens Le freestyle c'est comme des partouzes On s'partage tous un truc, ici c'est l'cro-mi Mais dans les 2 cas faut rester l'quereau-ma Maint'nant j'laisse des espaces dans mon texte Pour qu'tu puisses souffler, inspire, expire Le rap, un sport pour les hommes forts Oxmo Puccino, prends le r'lais Quand j'arrive ping rimes ping-pong Et y a des cons qui m'piquent mon style En friment, freestyle pour du fric J'méprise mes ennemis, quand j'écris j'les élimine Mes primes j'économise car j'fais le max avec le minimum Sais-tu c'que c'est que d'êt' le boss ? Un seul but, le succès Bosser, donc buter plus sur nos doss' Poska lève mon bras avant chaque combat d'boxe En boîte, seul mon cd squatte le jukebox Avec Leroy-Boy sur scène j'suis 2 Comme RanXerox, Ox et Rouky Faut qu'ça danse, comme dans l'clip de Puffy et Mase ou Lox Bise au postérieur gauche, l'nom c'est Puccino Ox Black Mafia, Time Bomb Baccardi, pour la Time Bomb, Black Mafia Écoute hein, yeah Je suis de Time Bomb, bambin j'étais au pays du manioc Maint'nant j'manie le mic, hoche mains et tête et p'tite mioche Moche est ma vie Que les mines s'accrochent à mon fute j'm'en fous Envie d'apaisement, j'rap pour l'oseille faut qu'j'pèse nan ? L'épuisement c'est pas dans mon argot Pendant qu'les rares gars pinent leurs gos, je gratte pour les do' Mon fardeau mec, la galère J'ai pas l'air heureux quand j'tchatche et prends ce mic Un bol d'air et un sac d'or, ça f'ra l'affaire pour Pit le camer Langage amer, mec je resterai hardcore jusqu'à la mort À ma mère qui m'guette de là-haut Qu'elle m'excuse de ma cruauté A ciao les putains, les potins du mouv' m'étouffent Une taffe pour m'calmer, t'es ouf L'étoffe même du type clean au mic, c'est Pit Baccardi J'veux qu'ma rime paie, comme le crime J'en ai marre de trimer, c'est pour les miens, rap de flouze Bon faut qu'j'te dise qu'au niveau level au mic c'est chant-mé Je sais qu'j't'inspire, et qu'tes sbires s'barrent de notre histoire Tes chefs chient quand ils narrent nos périples 3 affranchis on s'fait pas ièch' On crèche près d'Porte de Bagnolet Et j'prêche pour qu'les faux s'arrachent J'te lâche un rap brut et j'créé des séismes Toujours l'prems on fait preuve d'héroïsme Et tu clamses, ne m'suis pas Un homme c'est quelqu'un qui s'respecte alors respecte-moi J'm'étends dans l'ciel comme la Voie lactée J'malaxe tes neurones et domine tes cités À l'aube de l'an 2000 j'suis fier de mes racines Digne de la famille Zongo J'trime pour qu'tous les négros signent c'contrat en huit-clos Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé ça c'est ma go moi Eddy Mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis Si tu m'touches, tu vas tellement transpirer Qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs ils grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Trop tard faut qu'je les étripe et les gars flippent J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Je chope le coup d'Eddy, le tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée, un tas d'morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi not' nom c'est Time Bomb, Black Mafia Cassidy des X Zongo Zigzague zdèf comme Ziggy Marley, un zeste maso Je zaye, dehors c'est l'zoo, c'est la zone putain c'est zé' Zoom sur cette zizanie, mais où est donc ma son-mai ? Duplex, mezzanine Mes amis s'animent, les ennemis nous miment, nous singent Au loin 2 sorties d'secours, le rap et le oinj' sacré Comme les cendres qu'on tèj' dans l'fleuve Gange Hifi t'l'a d'jà dit, y a danger, certains cherchent à s'venger Y a qu'une seule part mais tout l'monde veut manger En attendant, j'planifie ma vendetta Détale avant qu'la Black Mafia n'vienne Et n'sème la peine au sein d'ta famille D'instinct méfiant, j'défie l'destin Mon challenge, faire des miens des types biens Un rap céleste, d'où j'tire ce leust X-men maîtrise le cosmos En route pour mon meeting comme dans Get on the bus bis Sais-tu c'que c'est la galère, enculé ? Bah t'en as pas l'air Les gens qui passent chaque jour M'demandent plus si j'ai pas l'heure Tu crois qu'c'est une vie ça ? Dehors quelque soit l'temps Mais faut bien qu'le flouze tombe même si y a l'blizzard En bas les gars tisent, sympathisent faussement Ils s'disent qu'ils bâtissent un empire, mais en fait tous mentent Vu qu'tu gravis les marches et t'élargis, te marginalises Du ze-dou au 5.20, t'es au kilo en 5-5 Les belles caisses bluffent les badauds Pendant qu'les jeunes ados bandent Tant qu'les chaines en or pendent jusqu'aux abdos Les flics, ils d'viennent des voisins, les voisins des flics On reste méfiants vis-à-vis de chaque type qui défile Et les filles, faut les laisser, pas l'temps pour palper mec Mêler la monnaie et les nénés ? Mais t'es malade Vu qu'les syndicats du shit se chient d'ssus G C'est sûr qu'si demain t'assures un gars te sectionne Ces barbes d'herbe, t'en fais ça marche Une nuit c'est toi qu'on braque, merde Les 10 plaques s'perdent si les gars blaguent pas Les comptes se règlent entre clans Tous se plantent en même temps Les mères lâchent des flaques de larmes Devant les flaques de sang L'un des seuls biz où t'as pas d'piston Compte sur personne pour faire des biftons Chauffe ton shit comme un cuistot, arme à la poche t'es l'boss La mère alarmée reconnait plus son gosse Elle dit Non, c'est pas mon fiston Nos vies s'limitent au hall shit home J'rap pas pour le hip hop mais pour mes types J'suis Oxmo Puccino Yeah Baccardi, Cassidy, O.X.M.O., Leroy-Boy, Ali, Mars Vlavo Marc, DJ Poska yeah pour la mafia hein, Pit au mic gars Intervention dans l'track, trop de Marc Dutroux Je crée, j'te sors du rap fresh Les Pitchers de mèche avec mes ennemis jactent Chaque minute est précieuse, ma nette impression Pit connexion, c'est plus qu'du rêve Non, plus du bicrave pour moi Trop sournois ce milieu, mon frère J'voudrais finir ma pauvre vie en belle villa Mon style est clean, clone-le, le clown se s'ra toi pas moi Je sens autour de moi une sale odeur de putain Rap de flouze, mate ma bouche sois en témoin Y a 2 ans connard tu m'traiterais de vaurien Maint'nant j'ai une caboche remplie de textes carrés T'es taré d'vouloir me test' Une marée d'sang sur toi c'est navrant Les mcs craquent trop, se braquent, voudraient ma tête Un titan, Pit en rap c'est c'que je rêve d'êt' Si tu m'suis lève ton poing, avec les miens C'est Time Bomb, Black Mafia Ici c'est Cassidy qui t'cause, fini la pause Kit Kat Sous la 8.6 tes neurones s'battent et s'font un 4x4 Ton esprit bande, s'braque, la Heineken te frappe sec Résultat mec, flemme de ken, mal de crâne, peine Mais d'instinct j'suis relax au mic et je bannis le stress Mon zgeg s'dresse, parce que j'suis strong comme ma té-ci Ta langue s'délie sans délai, t'avoues tes crimes, tu t'crames Avec ton corps, les RG s'font des descentes de lit Ici pas de bluff mais que du neuf, quoi d'neuf Hill ? Jamais hors-piste, j'groove, du feeling, pas b'soin de bibine Trop d'flûtes ou trop d'flics, trop d'promesses J'ai pas d'caisse, pas d'fric, j'lutte c'est ça qui m'dégoûte Bientôt les espèces, viendront remplir mon sac Eastpack Les grosses putes jactent sur mon dos Me courent après mais n'sont qu'des culs-de-jatte La bière j'm'en bats, le joint m'suffit pour danser la samba Cassidy, Oxmo et Pit en 9.7, hein On dit qu'j'ai du style qui est trop frappant J'casse les murs rien qu'en rappant Les mecs viennent fiers en courant Puis partent en civière ou en rampant Pire que 8 8.6, 10 whiskies, 5 biscuits T'es si die quand tu marches, les gars disent Tu slalomes en ski Nique les civils et leurs civils, j'suis l'sale homme pas civilisé Vas-y fais tes valises bonhomme Alors, j'te mets un coup d'boum d'abord Puis tu chutes au sol, potes crient À mort ! Des coups d'mic puis ils crient encore Trop hardcore O.X. Puccino Né pour faire fortune, finir qui m'importune Parfaire mes texte hors durée et rire Mes lauriers au top, black César, tu mates bizarre Un hasard ta mort, les flics l'croiront pas Ils crieront Black mafia Black mafia, black mafia Un peu de textes sauvages, Baccardi au mic, pour le 8.8.2 À Mars, Kessey, Ricky le boss, tout le Time Bomb hein Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la fiat gars Pit et Oxmo, j'ai un putain d'plan gos 3 chattes aux bouls à faire pâlir le plus foncer des négros Mon 210 millimètres s'excite, il sait qu'c'est une bonne piste J'peux êt' le plus sexiste, et les meufs qui kiffent ça, ça existe Et exact, mais au début f'sons preuve d'un peu de tact Avant d'passer à l'acte Après on s'en fout on bâcle les préliminaires Rien à dire j'préfère perforer direct Et battre les dernières performances, entre en transe bébé Ici c'est Cassidy qui t'cause J'crois qu't'as la pose, bouge plus C'est comme le Sport-Elec T'inquiète après t'as les fesses sclé-mu Sois pas émue, c'est qu'le début, kiffe d'êt' l'heureuse élue Cassidy est fier d'être un obsédé Y a pas qu'ta tête que j'dois faire tourner Tes fesses doivent aussi suivre le même procédé Chérie si j'te plais, c'est qu'j'ai la classe de Templar J'suis plus un saint chaque fois qu'j'suis dans ton plumard J'ai trop d'style, j'suis fêlé, rime Rockefeller M'élève au sommet, Baileys à la main Promets l'top comme un homme politique Qui t'parle de partage, mate mon argot J'largue par cargo chaque jour toutes mes ex go Pour toi ma lady, d'autres nanas nada Que Dieu m'aide si j'te perds Sur la vie d'la mère d'amour et de larmes Que je lâcherai par chagrin Amertume tu m'tues, si tu m'dis qu'tu m'aimes plus tu flûtes Corps-à-corps sur l'sofa, on s'glisse sur la sueur Black Casanova, une bougie pour toute lueur Holà doucement, tous mentent quand il s'agit d'massage Technique, s'il faut t'niquer moi j'ai la magie J'ai l'plan master, Oxmo démagogue Dès que ta go mate ma gaule au lit, demain soir toi rigolo Ton mec est nul et même bigleux T'es bien trop belle pour lui, quitte-le, quitte-le Et il suffit que, tu souries et le jour se lève, il éteint nuit Tes lèvres moelleuses, laissent nos langues entremêleuses Tu es ma 9ème merveille après l'oseille, mon Soleil Si j'te rêve s'te plaît, ne me réveille pas Hé ma fille, j'suis le black mafieux Les étoiles filantes sont faites pour faire des vux Écoute, mon rêve, un love axé sur la perfection Jusqu'à ce que ton parfum d'vienne une archive DJ Poska, Mars Vlavo, Mafia trece, Mafia K'1 Fry, Leroy-Boy Pit Baccardi, casse-dédi à Ibrahim Lo, Elie Yaffa Les mecs tenez bons, hein yeah Je n'fume pas d'sensemilia, toujours sensé s'il y a dra De Massilia à Paris il y a masse quand y a ma mafia Un truc plus craquant que l'crack, tu vois l'genre ? Un dôme un rap, même les cain-ri crient Damn Emmener du nouveau, ça crée trop d'rivaux Niveau rime, trop élevé frère Et d'puis qu'il a grandi maintenant sait c'qu'il vaut J'esquive au mieux les jacteurs Avec ce mouv', aucun pacte Je vis d'c'que je dis, évite les acteurs Je dis ce que j'vois, écris ce que j'vis Avoue mon envie d'belle vie Et d'un putain d'trône, d'haut j'aurai une belle vue De toute mon ethnie, de ma clique Des gos que j'mettrai en cloque Type, mate comment je vise c'est Pit Baccardi Mon Q.G. c'est mon cerveau Faut pas qu'pour avoir servi du shit j'prenne des mois Ça vire tous mes projets aux chiottes Puis nom d'un chien j'ai pigé tard, mieux que jamais Qu'l'art de manier la rime pourrai m'emmener loin Car dans ma vie j'ai jamais la hargne comme partenaire Je porte l'honneur de ma famille, trahi par la plupart Telle est la dure loi à laquelle j'me suis fait J'dois ma réussite à personne si ce n'est à moi Si j'crois au rap aujourd'hui Maudits soient ceux qui mal y pensent J'dis, magie et miracle c'est comme les on-dit, jamais du concret J'suis pas un con qui croit à ça, je crée, j'innove Tant pis pour ceux qui m'verraient baver Je pisse sur love, y en a pas tant qu'tu paies pas J'le sais ça, j'vis avec En c'qui m'concerne j'reste toujours fidèle aux miens mec Aujourd'hui ma zik' c'est que du kiff Mais si Dieu le veut putain les frères, ce s'ra des plaques demain Oxmo, mafioso J'ai peur d'mourir, je l'sais, j'les ai vu épeler mon nom Appeler des potes et jamais je les ai revus J'ai peur qu'sans moi la vie suive son cours Qu'un autre con touche ma tune, que ma fouf change de pine Et qu'une quelconque loque me copie, que mes potes m'oublient Qu'à chaque fois qu'ma mère ouvre les yeux Ses larmes aient doublées Mourir ici ou ailleurs, y a tant de manières de pas se réveiller Ceux qui partent en premier les meilleurs Tu peux t'cisailler les veines, si la maille te manque tant Que les banquiers t'envoient ces huissiers haineux Tes potes butent un gars, t'attends le saint comeback on est au tome 4 Un jour les mecs viennent cagoule au faciès Comme ces types à qui ils doivent les pactoles Et bim bim ça tire, les douilles tombent au sol Ambiance crari les cain-ri déterrent un Viêt-Cong, ambulance On dit Perds pas espoir Mais faire quoi quand un sale faire-part Dit qu'ton père part d'un cancer ? De toute façon c'est ça ou aut' chose 1 000 façons d'être soustrait, d'laisser les joues arrosées J'en passe des façons de s'casser d'la tess' Des garçons qui s'écrasent en caisse Des mères qui s'laissent décéder Aimer ses amis sans baliser, croire qu'la vie est longue Jusqu'à réaliser l'erreur lors d'une fin de vie Alors chaque matin j'téléphone aux mêmes personnes Tant qu'je les ai, avant qu'leur heure sonne Vu qu'à chaque fois qu'on perd quelqu'un de cher On meurt aussi un peu, facile d'écrire mourir 1 000 fois Oxmo Puccino, à tous mes amis perdus mourir 1 000 fois J'suis jeune mais j'agis comme ancien Peu bavard mais quand j'l'ouvre C'est pas pour dire des conneries, c'est pas pour rien Langues de pute continuez d'jacter, ça m'fait d'la pub Quand j'f'rai un tube j'vous l'dédicacerai, j'vous remercierai J'suis un sac plein de rage, parce qu'un sac vide tient pas debout Mon crew a la rage, tous les pouvoirs, t'es en chien j'm'en fous Casque, puisque l'disque des X est bientôt d'sortie Tu guettes les bacs, comme un junky fonce-dé attend son crack C'est une question d'mort ou d'vie La vie d'abord commence de manière triste J'veux pas qu'mon nom vienne compléter la liste des gars die S'croyant vaillants, des demi-caille' semi-voyous Finnisant par terre couverts du J'croule pas sous l'gent-ar, j'suis pas John Ross J'vis pas à Southfork, j'crèche près d'porte de Bagnolet Où j'traine des semi-remorques, c'est vrai Mais d'temps en temps il passe quelques cabs Et j'bave devant une caisse Mercedes J'fais l'zouave mais pas d'espèces D'une pas d'tunes, de deux Dieu veille sur moi Trois j'crois qu'c'est pas demain la veille Le jour où j'trahirai un d'mes pareils Time Bomb ma famille, black mafia</t>
+          <t>Hall de cité, mêmes clichés, même chichon Mêmes tass-pés, mêmes chichis pour toucher un nichon Merde, sans me vanter, c'est ma vertu, ma façon de représenter Je rime, je rame pour sortir de la galère Le crime crame la plupart des frères llé-gri comme une barrette sous une casquette coste-La Le Christ oublie mon tier-quar quand cest Noël cest triste Papa met tout le gent-ar dans le cool-al, coma éthylique D'Afrique jusqu'en Martinique, cro-ma maintenant que j'ai le fric Je nique tout dans le Martini ou le Pastis Ma partie cest de la bastos re-noi Time Bomb explose, réactions en chaînes, j'en suis qu'un maillon MC en roro, fais la maille quand tu fais dodo Pas de 86, pagne-cham à gogo Mais fais gaffe à mon croco Mon groupe au top comme le secret Encore une création à faire crier les frères comme au moment de cher-cra Et si mon beat frappe fort comme un mari jaloux C'est pour réunir les jeunes noirs et beurs comme la marie-jeanne Hifi c'est le produit, et Time Bomb l'appellation Mon but faire kiffer les négros comme la fellation</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Funk Master Sex des bitches (Interlude)</t>
+          <t>Hip-Hop Far West</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hé mais t'es qui toi ? T'es qui ?! J'suis le Funk Master Sex des bitches De Paris a Beach Miami encaisse mon style et kiffe ma face lady On a notre propre école de fans, façon barbare J'te montre ma barre, style tarzan, string léopard Elle crie le nom d'ma clique Time Bomb ! Malka Pit Du 19ème au 20ème en passant par ma cave mec ! Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichis, enlève ton sous-tif et ton caleçon Whisky, Coca, Bacardi, saoule toi chéri Puis on joue à Jaques à dit, des p'tits mouvements saccadés Dans mon sac à dos, pas de pote-ca Si t'es mon pote gars, passe moi une négro pour que j'la vaille-tra Les bitches m'aiment, comme les X-men aiment les femmes Si ton lascar tombe en panne, fait un tour dans ma cabane D'Ali baba, t'inquiètes pas, les quarante voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa !</t>
+          <t>Pit Baccardi Ça pue la mort dans le saloon même Billy, je le kicke Bienvenue dans mon Far West, voilà Billy le Pit Mon gang me suit, mon Ulster et mon Colt Un 18 long rimes, deux de rechange pour le taff Je me contrôle un seize, braise allumée Quand y'a grisaille, pas de calumet de paix C'est pas le flingue qui tue mais le mec qui tire Nega Hip-hop Far West, la scène je te dessine Des gars se disent zen par dizaines mais s'auto-déciment Je garde mon estime comme Pit, cow-boy accrédité Comme moi-même par l'emblème Camer identité A priori dans ce pays à midi, c'est l'hystérie De toute part périssent des pères pour des paris Stress Pact, Pit Baccardi, ici si t'es hardi T'es chez le croquemort dès mardi Les coups de Glock se troquent gratos au petit déj' Ça grouille de gros gringos qui de pesos t'allègent A coup de seize rimes sur six mesures Si tu te mesures au mauvais gringo, tu frises la morsure Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire Stress Tu me fais de l'ombre, hombre, avec ton sombrero L'autre dit Okay gringo, dénombre mes frérots Tu veux vraiment que j'te plombe, blaireau ? C'est la vida loca, coco crie viva quand on pose nos vocaux Si t'es Clyde ou Clint au gros Colt T'as intérêt à être high ou savoir kick comme Nick Nolte Pit Baccardi Je galope, je galope, ma tête est mise à prix, criminel au mic Y'a cette affiche wanted partout dans les Fnac 30 mille coupeurs de têtes dans ce micmac Qui dure depuis un mois, je suis dans un cul-de-sac Je cours toujours, j'arpente les ruelles, nécessité ouais J'ai des munitions à prendre à Peses City Nega Mes oreilles sifflent, sonnent Dix jours sur dix, je t'assure soon Ici nous berce sans cesse le Smith and Wesson Ça c'est le Far West, c'est difficile Tard je reste, narre l'esprit des vrais aux jeunes pour que leur art naisse C'est ça ma maladie, j'ai le canon à rime scié Mes balles verbales virevoltent vers d'autres revolvers Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire Nega On se bat dans des débats les gars, rimes de salaud Frimes de saloon Faut que ce feu s'allume et pas que ça Je veux que ces danseuses de french cancan comprennent que je suis quelqu'un Tout le temps, mémorises mes mots si sains Je m'essaie ici, ne dis pas mais si t'es le messie J'veux que ma rime excelle, suinte des aisselles, t'as senti ? Stress Ici la vie va via le saloon et la Sangria Ça crie Arriva !, la nuit c'est la corrida On te grille à coups de Santiags de chez Foot Locker On se mate mal à la table de poker On te fuck l'air de rien si tu triches, il n'y a pas joker Mes dogs, c'est pas des cockers mais tous des boxers Pit Baccardi Je suis seul dans ma diligence, des gens je me délie C'est lié au fait que les alliés sont là seulement quand l'or et le profit s'allient Sali par des sales hommes déliés Mon salut est au ciel avec lui, j'ai un accord scellé Mon seul point de chute ici c'est Première Classe Et avec lui j'ai signé un Double Pact Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Ghetto Ambianceur</t>
+          <t>Il est l’heure</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Hein, Yeah, hein, yeah, hein, yeah, what, what No doubt, c'est Pit Baccardi, c'est Pit et Joe, no doubt De Paris aux États-Unis d'Amérique, c'est ça l'équipe Le B.A.C.C.A.R.D.I., c'est Pit au mic, tu le sais Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty La télé m'a rendu beau mon sourire déplait peu à peu Y a des mecs qui ont des plans d'meufs disant que c'est mon pote Pit L'autre type qui m'a en barème disant que je suis moche On me court après elle m'a vu huitième au hit machine Il serait peu que je frime, je suis ce ghettoteur brave Qui signe les autographes sans faire de fautes d'orthographe Car c'qu'il paraît j'ai pris la grosse tête parce que je relate des faits Tu relâcheras pas l'affaire, t'as fouf vu ces grosses fesses Des grosses face de mecs dans la rue m'interpellent Demande des fois des textes de moi en a-capella Je deviens célèbre et vivre au clame du peuple fier de porter mon insigne Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty You're as bad as a ghetto Queen And i'm a pimp with a gangster lame Sipping bud and feeling nice gotta get get to ya Just get up on it, girl if you're on it Don't got up on it just wanna see what you're like Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Mama c'est dans mon bled le vrai makossa Champion d'Afrique lion indomptable Je remets ça sur disque puisque je risque l'anonymat Si je me tais je suis peace et mon discours c'est et Lève ton verre et ton briquet faites la hola joue le maillot à la Mila Et hello bella cesse pas d'épeler le nom du bel homme surnommé Ghetto ambianceur Un nouveau joyau qui va enjailler tous mes adeptes Indispensable quand vous festoyez Mon disque sponsor pour tous les prisonniers Sponsor pour tous les mecs et meufs en bas des escaliers Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Qui sait qui fait bouger les lascars qui sait qui sait Paris, New York les deux superstars qui sait qui sait Genre saccadé placardé sur tous les murs Baccardi ghetto ambianceur dans chaque quartier J'ai ce qu'il faut pour faire jacasser, hein Déjà les mains en l'air je t'ai pas encore braqué Tellement de flow qu'il a fallu renflouer la Seine Sea, sex and sun, mixe ça qu'ça sonne Jusqu'à en faire péter les compteurs de la Sacem Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight Everybody wants to party from the thug to the hotties Let me see you move your body I wanna get with you tonight my shorty Everybody wants to party, Everybody wants to party Avec ma première classe, je dédicace à tous les lascars dans la place Everybody wants to party, Everybody wants to party Everybody wants to party, Everybody wants to party De Paris aux Etats-Unis d'amérique c'est ça l'équipe Everybody wants to party, Everybody wants to party From the thugs to the hotties Throw your hands up, everybody throw your hands up ....</t>
+          <t>Des rimes, du style, de la mélodie Du crime, pas en drame mais sur platine Et j'signe de mon stylo un chant d'espoir pour tous les ghettos J'm'aligne dans cette flopée d'jeunes qui pètent le score Emblème d'un peuple, te donner l'envie et la rage Pour qu'on ferme des gueules J'viens aussi des blocs, mec, et j'fais ma synthèse Encore craint, bientôt mon rap sera légalisé J'en place une pour ma Place des Fêtes Et m'classe pas parmi ces fous qui glorifient la merde J'ai vu c'qui s'passe ailleurs, il reste de la place Si on maîtrise pas notre biz, qui l'fera à notre place Dans mon monde, c'est l'pouvoir des mots, le poids des sons Le pouvoir du fric et l'amour du risque J'suis Baccardi d'la famille Brown Ceux qui s'branlent s'font surprendre, l'ouragan est en train d's'étendre Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score J'suis pas tendre avec les incapables Le monde nous appartient et qu'nos rêves deviennent palpables La durée d'mon combat est celui d'la profondeur d'mes peines J'suis d'jà resté affamé sous huitaine J'me saigne, j'enseigne, lésine pas avec les thèmes Fais péter le son dans les enceintes Tape-m'en cinq si tu captes le message, faut qu'on retourne le pays Quitte à c'que les gens portent plainte C'est l'sprint final, que notre génération laisse son empreinte Ça fait désordre quand dans l'décor on s'plante Content d'c'qu'on fait, c'est comme une fresque On dessine le monde avec nos proses et on blesse Parce qu'on ressent encore la douleur des chaînes, je chante l'espoir Leitmotiv des temps modernes Chaque rime est une prière négro J'ai un cimetière de mots en mémoire de ceux qui manquent Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score L'avenir s'construit maintenant, chaque jour est un combat Et quand j'entends les battements De mon cur qui m'donnent la température J'balafre les instrumentaux bêtement Le poids des mots, le choc des syllabes À vingt piges célèbre, que toutes les cités derrière moi se lèvent Que ce soit vous et moi, moi sans vous, c'est rien C'est juste des paroles qui s'effacent dans l'atmosphère Tous ensemble c'est la résistance, c'est impénétrable Et ça vole tous les sens Lis sur mon visage c'qui s'passe Si j'ai l'air noyé, j'ai traversé un océan d'merde Et j'continue de ramer Idéal J l'a dit, le combat continue Pit Baccardi, 2002 Pour tous les ghettos Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hifi, Pit Baccardi, Ill, Akhenaton (Mai 97)</t>
+          <t>Intro (le poids des maux)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Hall de cité, mêmes clichés, même chichon Mêmes tass-pés, mêmes chichis pour toucher un nichon Merde, sans me vanter, c'est ma vertu, ma façon de représenter Je rime, je rame pour sortir de la galère Le crime crame la plupart des frères llé-gri comme une barrette sous une casquette coste-La Le Christ oublie mon tier-quar quand cest Noël cest triste Papa met tout le gent-ar dans le cool-al, coma éthylique D'Afrique jusqu'en Martinique, cro-ma maintenant que j'ai le fric Je nique tout dans le Martini ou le Pastis Ma partie cest de la bastos re-noi Time Bomb explose, réactions en chaînes, j'en suis qu'un maillon MC en roro, fais la maille quand tu fais dodo Pas de 86, pagne-cham à gogo Mais fais gaffe à mon croco Mon groupe au top comme le secret Encore une création à faire crier les frères comme au moment de cher-cra Et si mon beat frappe fort comme un mari jaloux C'est pour réunir les jeunes noirs et beurs comme la marie-jeanne Hifi c'est le produit, et Time Bomb l'appellation Mon but faire kiffer les négros comme la fellation</t>
+          <t>Ouais, respect à Pit au mic J'pense qu'aujourd'hui il est représentatif d'un jeune qui est parti de rien pour arriver à tout C'est l'cur qui parle, la main qui tremble sur les feuilles mortes Pit en une phrase, mec? Un poète, yes Le travail finit toujours par payer J'suis venu pour être, pas pour paraître C'est le MC en France qui le mieux dans opposé J'viens bâtir un empire Nique tous mec J'suis un Noir pacifiste et fier de l'être J'suis un Noir pacifiste et fier de l'être Pour moi, Baccardi, il est universel Pit Baccardi c'est qui? La vérité, l'émotion, le naturel, la mélancolie Yeah Un condensé de sobriété, d'humour De fond, de forme D'émotion, de gentillesse J'ai vu deux choses me faire flipper, la mort et l'excès d'amour C'est une voix, Pit Baccardi c'est une voix, un flow, un accent Eh ouais gros, c'est Tandem Pit en vendetta pour un projet chaos Lyrical pyromane, c'est Première Classe contre les mythomanes Un véritable phénomène dévore les charts Resserre ton boul' pour l'come-back, c'est PC pour t'mettre des claques Un peu trop classe pour être black Baccardi Pit mon pote, c'est le palace de Scarface sur une bande-son Avec PC pour épaule solide Si t'as les tunes, on a les flingues, si t'as la prod on a la prose</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Hip-Hop Far West</t>
+          <t>J’accélère</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Pit Baccardi Ça pue la mort dans le saloon même Billy, je le kicke Bienvenue dans mon Far West, voilà Billy le Pit Mon gang me suit, mon Ulster et mon Colt Un 18 long rimes, deux de rechange pour le taff Je me contrôle un seize, braise allumée Quand y'a grisaille, pas de calumet de paix C'est pas le flingue qui tue mais le mec qui tire Nega Hip-hop Far West, la scène je te dessine Des gars se disent zen par dizaines mais s'auto-déciment Je garde mon estime comme Pit, cow-boy accrédité Comme moi-même par l'emblème Camer identité A priori dans ce pays à midi, c'est l'hystérie De toute part périssent des pères pour des paris Stress Pact, Pit Baccardi, ici si t'es hardi T'es chez le croquemort dès mardi Les coups de Glock se troquent gratos au petit déj' Ça grouille de gros gringos qui de pesos t'allègent A coup de seize rimes sur six mesures Si tu te mesures au mauvais gringo, tu frises la morsure Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire Stress Tu me fais de l'ombre, hombre, avec ton sombrero L'autre dit Okay gringo, dénombre mes frérots Tu veux vraiment que j'te plombe, blaireau ? C'est la vida loca, coco crie viva quand on pose nos vocaux Si t'es Clyde ou Clint au gros Colt T'as intérêt à être high ou savoir kick comme Nick Nolte Pit Baccardi Je galope, je galope, ma tête est mise à prix, criminel au mic Y'a cette affiche wanted partout dans les Fnac 30 mille coupeurs de têtes dans ce micmac Qui dure depuis un mois, je suis dans un cul-de-sac Je cours toujours, j'arpente les ruelles, nécessité ouais J'ai des munitions à prendre à Peses City Nega Mes oreilles sifflent, sonnent Dix jours sur dix, je t'assure soon Ici nous berce sans cesse le Smith and Wesson Ça c'est le Far West, c'est difficile Tard je reste, narre l'esprit des vrais aux jeunes pour que leur art naisse C'est ça ma maladie, j'ai le canon à rime scié Mes balles verbales virevoltent vers d'autres revolvers Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire Nega On se bat dans des débats les gars, rimes de salaud Frimes de saloon Faut que ce feu s'allume et pas que ça Je veux que ces danseuses de french cancan comprennent que je suis quelqu'un Tout le temps, mémorises mes mots si sains Je m'essaie ici, ne dis pas mais si t'es le messie J'veux que ma rime excelle, suinte des aisselles, t'as senti ? Stress Ici la vie va via le saloon et la Sangria Ça crie Arriva !, la nuit c'est la corrida On te grille à coups de Santiags de chez Foot Locker On se mate mal à la table de poker On te fuck l'air de rien si tu triches, il n'y a pas joker Mes dogs, c'est pas des cockers mais tous des boxers Pit Baccardi Je suis seul dans ma diligence, des gens je me délie C'est lié au fait que les alliés sont là seulement quand l'or et le profit s'allient Sali par des sales hommes déliés Mon salut est au ciel avec lui, j'ai un accord scellé Mon seul point de chute ici c'est Première Classe Et avec lui j'ai signé un Double Pact Hip-hop Far West Trois cow-boys s'associent Hip-hop Far West, en quête d'or et de réussite Hip-hop Far West, dans les saloons de France et de Suisse Retiens, c'est pas le flingue qui tue mais le mec qui tire</t>
+          <t>Tu l'sais, Baccardi Tu l'sais, DJ Mehdi Passe la sixième vitesse Sur l'autoroute du danger C'est le risque qui nous attire Pour brûler l'essieu, à combien j'dois pousser ma tire J'ai pris la vie dans tous les sens, sans interdits On m'a dit sur l'côté, j'ai dit fuck Écorché vif à la recherche de mon dû, j'accélère, y a des flashes sur le périph J'ai plus l'temps, j'dirige ma vie et j'vais mourir en la pilotant Eh, mon code je l'ai, celui d'l'honneur, mes gars à l'arrière Mes devoirs j'les honore À ma gauche ma zik, à ma droite ma famille et mes soss' On n'est pas à l'abri d'un crash J'viens éclater les portes de l'enfer J'veux vivre au paradis J'pousse les obstacles d'un coup d'pare-chocs Ici, j'dois rien à personne J'accélère 16 J'arrive à vive allure Partout y a des barrages J'vais les franchir, j'suis un MC 44 tout terrain J'roule sur l'or, tu parles, sur une voie glissante Et n'importe quand on peut goûter à l'asphalte K 2000, ma voiture c'est mon cur Et c'est mon crâne qui pilote J'ai rendez-vous avec la vie mec, si vous voulez sur moi faites feu J'suis blindé, je suis ma destinée Fiché par les autorités Regarde ma plaque 7-5-0-1-9, tu sais d'où j'viens et j'reste black Je sais qu'la route est longue, j'ai mes réserves Tu m'verras pas sur l'côté en panne sèche jamais J'suis un homme Et ici J'suis en mission J'accélère 16 J'plane J'passe la sixième vitesse Tu veux ma marque Family Brown La vie est trop courte pour m'lamenter sur ci ou ça Assumer, être un homme c'est ça aussi Sur ma route il fait sombre J'vois des ombres Et les morts sont comptés en nombre Le climat annonçait un orage Moi j'survis, pourquoi J'ai ma rage comme airbag Je zigzague avec le risque Accélère en temps d'pluie, flirte avec le danger J'prends l'périph Y a du monde sur la route, c'est pas grave Au terminus on s'retrouve J'accélère 16 Family Brown Sur ma route il fait sombre J'ai ma rage comme airbag Au terminus on s'retrouve J'accélère 16</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Il est l’heure</t>
+          <t>J’ai Fléchi</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Des rimes, du style, de la mélodie Du crime, pas en drame mais sur platine Et j'signe de mon stylo un chant d'espoir pour tous les ghettos J'm'aligne dans cette flopée d'jeunes qui pètent le score Emblème d'un peuple, te donner l'envie et la rage Pour qu'on ferme des gueules J'viens aussi des blocs, mec, et j'fais ma synthèse Encore craint, bientôt mon rap sera légalisé J'en place une pour ma Place des Fêtes Et m'classe pas parmi ces fous qui glorifient la merde J'ai vu c'qui s'passe ailleurs, il reste de la place Si on maîtrise pas notre biz, qui l'fera à notre place Dans mon monde, c'est l'pouvoir des mots, le poids des sons Le pouvoir du fric et l'amour du risque J'suis Baccardi d'la famille Brown Ceux qui s'branlent s'font surprendre, l'ouragan est en train d's'étendre Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score J'suis pas tendre avec les incapables Le monde nous appartient et qu'nos rêves deviennent palpables La durée d'mon combat est celui d'la profondeur d'mes peines J'suis d'jà resté affamé sous huitaine J'me saigne, j'enseigne, lésine pas avec les thèmes Fais péter le son dans les enceintes Tape-m'en cinq si tu captes le message, faut qu'on retourne le pays Quitte à c'que les gens portent plainte C'est l'sprint final, que notre génération laisse son empreinte Ça fait désordre quand dans l'décor on s'plante Content d'c'qu'on fait, c'est comme une fresque On dessine le monde avec nos proses et on blesse Parce qu'on ressent encore la douleur des chaînes, je chante l'espoir Leitmotiv des temps modernes Chaque rime est une prière négro J'ai un cimetière de mots en mémoire de ceux qui manquent Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score L'avenir s'construit maintenant, chaque jour est un combat Et quand j'entends les battements De mon cur qui m'donnent la température J'balafre les instrumentaux bêtement Le poids des mots, le choc des syllabes À vingt piges célèbre, que toutes les cités derrière moi se lèvent Que ce soit vous et moi, moi sans vous, c'est rien C'est juste des paroles qui s'effacent dans l'atmosphère Tous ensemble c'est la résistance, c'est impénétrable Et ça vole tous les sens Lis sur mon visage c'qui s'passe Si j'ai l'air noyé, j'ai traversé un océan d'merde Et j'continue de ramer Idéal J l'a dit, le combat continue Pit Baccardi, 2002 Pour tous les ghettos Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que l'union Fait la force Il est l'heure De dire aux jeunes Que tous ensemble On forme un corps Il est l'heure De dire aux jeunes Que tous ensemble On pète le score</t>
+          <t>Donne-moi un stylo, une feuille appelle-moi mélancolique De l'encre va couler à défaut de larmes, à la folie j'ai aimé Je suis bafoué, je vis de musique et d'eau fraîche J'ai son couteau dans un bras, mon cur dans l'autre Appelez le juge, j'ai la pièce à conviction Je l'affirme l'amour a voulu me laisser sur le carreau Je me suis fait braquer, on m'a pris ma fierté d'homme On voulait m'arracher mon âme, je suis échappé On m'a dérobé mon cur, j'ai la plaie ouverte, regarde je suis vidé Je peux pas exposer ma rancur Je suis comme dépendant d'une drogue ou aucune cure n'est possible Le mal est dans le sang, dans le cur, dans le corps J'ai aimé comme si ça finissait demain Un suspens rarement conclu par une happy end Une mélodie, un air de soul, un visage pâle C'est plus moi qui parle c'est juste l'encre qui coule... L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé Les souvenirs meublent mes jours Je veux déménager et tout laisser à la fourrière Y'a du sang sur les murs et de la sueur dans mes mots C'est le stress, je ne suis plus moi au bout d'un moment L'amour c'est un terrain miné ou on marche les yeux fermés En croyant que toutes les bombes sont désamorcées J'entends un craquement, s'accélèrent les battements Les minutes sont longues, les paroles sont lourdes Y'a un long passage à vide et ça explose On voit ses songes enfumés, appelez les pompiers Le volcan a jeté ses flammes, je brûle On verse de l'alcool sur les plaies ouvertes On vient de kidnapper mes rêves, je donnerais tout pour m'échapper de là Mais l'amour affaiblit même les plus forts regarde Mesrine On se tue à aimer et on peut tuer par amour L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé Je veux vivre même blessé, je me relève quand je glisse Et je veux m'sentir venir, je garde les yeux plissés Je voulais que ma vie soit peace et que les médisants s'éclipsent Et le coupable de mon déclin je sais qui c'est La sensation d'être sourd alors que les mots te pénètrent Se rendre aveugle par peur de voir le vrai j'ai fléchi Je n'étais plus moi, quand je réfléchis il est trop tard Je divague déjà seul sur le boulevard, je ne veux plus car je flippe C'est pas un caïd ou un mec de cité qui te cause, c'est juste un homme Je suis balafré mais si invisible car les grandes douleurs sont muettes Y'a que mes mots qui sont lisibles Le cur du problème c'est un problème de cur L'amour à quelques mots près rime avec mort, je suis blasé Je suis un jeune vieux, je rappe sur un beau sample Parler de love aujourd'hui me semble impossible x2 L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Instinct de survie</t>
+          <t>J’ai Vu</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">PLACE-NAMES THE PLACE MY FIRST VISIT TO BALBEC FIRST IMPRESSIONS OF M. DE CHARLUS AND OF ROBERT DE SAINT-LOUP DINNER WITH BLOCH AND HIS FAMILY I had arrived at a state almost of complete indifference to Gilberte when, two years later, I went with my grandmother to Balbec. When I succumbed to the attraction of a strange face, when it was with the help of some other girl that I hoped to discover gothic cathedrals, the palaces and gardens of Italy, I said to myself sadly that this love of ours, in so far as it is love for one particular creature, is not perhaps a very real thing, since if the association of pleasant or unpleasant trains of thought can attach it for a time to a woman so as to make us believe that it has been inspired by her, in a necessary sequence of effect to cause, yet when we detach ourselves, deliberately or unconsciously, from those associations, this love, as though it were indeed a spontaneous thing and sprang from ourselves alone, will revive in order to bestow itself on another woman. At the time, however, of my departure for Balbec, and during the earlier part of my stay there, my indifference was still only intermittent. Often, our life being so careless of chronology, interpolating so many anachronisms in the sequence of our days, I lived still among those far older days than yesterday or last week in which I loved Gilberte. And at once not seeing her became as exquisite a torture to me as it had been then. The self that had loved her, which another self had already almost entirely supplanted, rose again in me, stimulated far more often by a trivial than by an important event. For instance, if I may anticipate for a moment my arrival in Normandy, I heard some one who passed me on the sea-front at Balbec refer to the Secretary to the Ministry of Posts and his family. Now, seeing that as yet I knew nothing of the influence which that family was to exercise over my life, this remark ought to have passed unheeded instead, it gave me at once an acute twinge, which a self that had for the most part long since been outgrown in me felt at being parted from Gilberte. Because I had never given another thought to a conversation which Gilberte had had with her father in my hearing, in which allusion was made to the Secretary to the Ministry of Posts and to his family. Now our love memories present no exception to the general rules of memory, which in turn are governed by the still more general rules of Habit. And as Habit weakens every impression, what a person recalls to us most vividly is precisely what we had forgotten, because it was of no importance, and had therefore left in full possession of its strength. That is why the better part of our memory exists outside ourselves, in a blatter of rain, in the smell of an unaired room or of the first crackling brushwood fire in a cold grate wherever, in short, we happen upon what our mind, having no use for it, had rejected, the last treasure that the past has in store, the richest, that which when all our flow of tears seems to have dried at the source can make us weep again. Outside ourselves, did I say rather within ourselves, but hidden from our eyes in an oblivion more or less prolonged. It is thanks to this oblivion alone that we can from time to time recover the creature that we were, range ourselves face to face with past events as that creature had to face them, suffer afresh because we are no longer ourselves but he, and because he loved what leaves us now indifferent. In the broad daylight of our ordinary memory the images of the past turn gradually pale and fade out of sight, nothing remains of them, we shall never find them again. Or rather we should never find them again had not a few words such as this Secretary to the Ministry of Posts been carefully locked away in oblivion, just as an author deposits in the National Library a copy of a book which might otherwise become unobtainable But this suffering and this recrudescence of my love for Gilberte lasted no longer than such things last in a dream, and this time, on the contrary, because at Balbec the old Habit was no longer there to keep them alive. And if these two effects of Habit appear to be incompatible, that is because Habit is bound by a diversity of laws. In Paris I had grown more and more indifferent to Gilberte, thanks to Habit. The change of habit, that is to say the temporary cessation of Habit, completed Habits task when I started for Balbec. It weakens, but it stabilises it leads to disintegration but it makes the scattered elements last indefinitely. Day after day, for years past, I had begun by modelling my state of mind, more or less effectively, upon that of the day before. At Balbec, a strange bed, to the side of which a tray was brought in the morning that differed from my Paris breakfast tray, could not, obviously, sustain the fancies upon which my love for Gilberte had fed there are cases though not, I admit, commonly in which, ones days being paralysed by a sedentary life, the best way to save time is to change ones place of residence. My journey to Balbec was like the first outing of a convalescent who needed only that to convince him that he was cured The journey was one that would now be made, probably, in a motorcar, which would be supposed to render it more interesting. We shall see too that, accomplished in such a way, it would even be in a sense more genuine, since one would be following more nearly, in a closer intimacy, the various contours by which the surface of the earth is wrinkled. But after all the special attraction of the journey lies not in our being able to alight at places on the way and to stop altogether as soon as we grow tired, but in its making the difference between departure and arrival not as imperceptible but as intense as possible, so that we are conscious of it in its totality, intact, as it existed in our mind when imagination bore us from the place in which we were living right to the very heart of a place we longed to see, in a single sweep which seemed miraculous to us not so much because it covered a certain distance as because it united two distinct individualities of the world, took us from one name to another name and this difference is accentuated more than in a form of locomotion in which, since one can stop and alight where one chooses, there can scarcely be said to be any point of arrival by the mysterious operation that is performed in those peculiar places, railway stations, which do not constitute, so to speak, a part of the surrounding town but contain the essence of its personality just as upon their sign-boards they bear its painted name But in this respect as in every other, our age is infected with a mania for shewing things only in the environment that properly belongs to them, thereby suppressing the essential thing, the act of the mind which isolated them from that environment. A picture is nowadays presented in the midst of furniture, ornaments, hangings of the same period, a secondhand scheme of decoration in the composition of which in the houses of to-day excels that same hostess who but yesterday was so crassly ignorant, but now spends her time poring over records and in libraries and among these the masterpiece at which we glance up from the table while we dine does not give us that exhilarating delight which we can expect from it only in a public gallery, which symbolises far better by its bareness, by the absence of all irritating detail, those innermost spaces into which the artist withdrew to create it Unhappily those marvellous places which are railway stations, from which one sets out for a remote destination, are tragic places also, for if in them the miracle is accomplished whereby scenes which hitherto have had no existence save in our minds are to become the scenes among which we shall be living, for that very reason we must, as we emerge from the waiting-room, abandon any thought of finding ourself once again within the familiar walls which, but a moment ago, were still enclosing us. We must lay aside all hope of going home to sleep in our own bed, once we have made up our mind to penetrate into the pestiferous cavern through which we may have access to the mystery, into one of those vast, glass-roofed sheds, like that of Saint-Lazare into which I must go to find the train for Balbec, and which extended over the rent bowels of the city one of those bleak and boundless skies, heavy with an accumulation of dramatic menaces, like certain skies painted with an almost Parisian modernity by Mantegna or Veronese, beneath which could be accomplished only some solemn and tremendous act, such as a departure by train or the Elevation of the Cross So long as I had been content to look out from the warmth of my own bed in Paris at the Persian church of Balbec, shrouded in driving sleet, no sort of objection to this journey had been offered by my body. Its objections began only when it had gathered that it would have itself to take part in the journey, and that on the evening of my arrival I should be shewn to my room which to my body would be unknown. Its revolt was all the more deep-rooted in that on the very eve of my departure I learned that my mother would not be coming with us, my father, who would be kept busy at the Ministry until it was time for him to start for Spain with M. de Norpois, having preferred to take a house in the neighbourhood of Paris. On the other hand, the spectacle of Balbec seemed to me none the less desirable because I must purchase it at the price of a discomfort which, on the contrary, I felt to indicate and to guarantee the reality of the impression which I was going there to seek, an impression the place of which no spectacle of professedly equal value, no panorama which I might have gone to see without being thereby precluded from returning home to sleep in my own bed, could possibly have filled. It was not for the first time that I felt that those who love and those who find pleasure are not always the same. I believed myself to be longing fully as much for Balbec as the doctor who was treating me, when he said to me, surprised, on the morning of our departure, to see me look so unhappy, I dont mind telling you that if I could only manage a week to go down and get a blow by the sea, I shouldnt wait to be asked twice. Youll be having races, regattas you dont know what all! But I had already learned the lesson long before I was taken to hear Berma that, whatever it might be that I loved, it would never be attained save at the end of a long and heart-rending pursuit, in the course of which I should have first to sacrifice my own pleasure to that paramount good instead of seeking it there My grandmother, naturally enough, looked upon our exodus from a somewhat different point of view, and for she was still as anxious as ever that the presents which were made me should take some artistic form had planned, so that she might be offering me, of this journey, a print that was, at least, in parts old, that we should repeat, partly by rail and partly by road, the itinerary that Mme. de Sévigné followed when she went from Paris to LOrient by way of Chaulnes and the Pont-Audemer. But my grandmother had been obliged to abandon this project, at the instance of my father who knew, whenever she organised any expedition with a view to extracting from it the utmost intellectual benefit that it was capable of yielding, what a tale there would be to tell of missed trains, lost luggage, sore throats and broken rules. She was free at least to rejoice in the thought that never, when the time came for us to sally forth to the beach, should we be exposed to the risk of being kept indoors by the sudden appearance of what her beloved Sévigné calls a beast of a coachload, since we should know not a soul at Balbec, Legrandin having refrained from offering us a letter of introduction to his sister. This abstention had not been so well appreciated by my aunts Céline and Flora, who, having known as a child that lady, of whom they had always spoken until then, to commemorate this early intimacy, as Renée de Cambremer, and having had from her and still possessing a number of those little presents which continue to ornament a room or a conversation but to which the feeling between the parties no longer corresponds, imagined that they were avenging the insult offered to us by never uttering again, when they called upon Mme. Legrandin, the name of her daughter, confining themselves to a mutual congratulation, once they were safely out of the house I made no reference to you know whom! I think that went home! And so we were simply to leave Paris by that one twenty-two train which I had too often beguiled myself by looking out in the railway timetable, where its itinerary never failed to give me the emotion, almost the illusion of starting by it, not to feel that I already knew it. As the delineation in our mind of the features of any form of happiness depends more on the nature of the longings that it inspires in us than on the accuracy of the information which we have about it, I felt that I knew this train in all its details, nor did I doubt that I should feel, sitting in one of its compartments, a special delight as the day began to cool, should be contemplating this or that view as the train approached one or another station so much so that this train, which always brought to my minds eye the images of the same towns, which I bathed in the sunlight of those post-meridian hours through which it sped, seemed to me to be different from every other train and I had ended as we are apt to do with a person whom we have never seen but of whom we like to believe that we have won his friendship by giving a distinct and unalterable cast of countenance to the traveller, artistic, golden-haired, who would thus have taken me with him upon his journey, and to whom I should bid farewell beneath the Cathedral of Saint-Lo, before he hastened to overtake the setting sun As my grandmother could not bring herself to do anything so stupid as to go straight to Balbec, she was to break the journey half-way, staying the night with one of her friends, from whose house I was to proceed the same evening, so as not to be in the way there and also in order that I might arrive by daylight and see Balbec Church, which, we had learned, was at some distance from Balbec-Plage, so that I might not have a chance to visit it later on, when I had begun my course of baths. And perhaps it was less painful for me to feel that the desirable goal of my journey stood between me and that cruel first night on which I should have to enter a new habitation, and consent to dwell there. But I had had first to leave the old my mother had arranged to move in, that afternoon, at Saint-Cloud, and had made, or pretended to make, all the arrangements for going there directly after she had seen us off at the station, without needing to call again at our own house to which she was afraid that I might otherwise feel impelled at the last moment, instead of going to Balbec, to return with her. In fact, on the pretext of having so much to see to in the house which she had just taken and of being pressed for time, but in reality so as to spare me the cruel ordeal of a long-drawn parting, she had decided not to wait with us until that moment of the signal to start at which, concealed hitherto among ineffective comings and goings and preparations that lead to nothing definite, separation is made suddenly manifest, impossible to endure when it is no longer possibly to be avoided, concentrated in its entirety in one enormous instant of impotent and supreme lucidity For the first time I began to feel that it was possible that my mother might live without me, otherwise than for me, a separate life. She was going to stay with my father, whose existence it may have seemed to her that my feeble health, my nervous excitability complicated somewhat and saddened. This separation made me all the more wretched because I told myself that it probably marked for my mother an end of the successive disappointments which I had caused her, of which she had never said a word to me but which had made her realise the difficulty of our taking our holidays together and perhaps also the first trial of a form of existence to which she was beginning, now, to resign herself for the future, as the years crept on for my father and herself, an existence in which I should see less of her, in which a thing that not even in my nightmares had yet been revealed to me she would already have become something of a stranger, a lady who might be seen going home by herself to a house in which I should not be, asking the porter whether there was not a letter for her from me I could scarcely answer the man in the station who offered to take my bag. My mother, to comfort me, tried the methods which seemed to her most efficacious. Thinking it to be useless to appear not to notice my unhappiness, she gently teased me about it Well, and what would Balbec church say if it knew that people pulled long faces like that when they were going to see it? Surely this is not the enraptured tourist Ruskin speaks of. Besides, I shall know if you rise to the occasion, even when we are miles apart I shall still be with my little man. You shall have a letter to-morrow from Mamma. My dear, said my grandmother, I picture you like Mme. de Sévigné, your eyes glued to the map, and never losing sight of us for an instant. Then Mamma sought to distract my mind, asked me what I thought of having for dinner, drew my attention to Françoise, complimented her on a hat and cloak which she did not recognise, in spite of their having horrified her long ago when she first saw them, new, upon my great-aunt, one with an immense bird towering over it, the other decorated with a hideous pattern and jet beads. But the cloak having grown too shabby to wear, Françoise had had it turned, exposing an inside of plain cloth and quite a good colour. As for the bird, it had long since come to grief and been thrown away. And just as it is disturbing, sometimes, to find the effects which the most conscious artists attain only by an effort occurring in a folk-song, on the wall of some peasants cottage where above the door, at the precisely right spot in the composition, blooms a white or yellow rose so the velvet band, the loop of ribbon which would have delighted one in a portrait by Chardin or Whistler, Françoise had set with a simple but unerring taste upon the hat, which was now charming To take a parallel from an earlier age, the modesty and integrity which often gave an air of nobility to the face of our old servant having spread also to the garments which, as a woman reserved but not humbled, who knew how to hold her own and to keep her place, she had put on for the journey so as to be fit to be seen in our company without at the same time seeming or wishing to make herself conspicuous Françoise in the cherry-coloured cloth, now faded, of her cloak, and the discreet nap of her fur collar, brought to mind one of those miniatures of Anne of Brittany painted in Books of Hours by an old master, in which everything is so exactly in the right place, the sense of the whole is so evenly distributed throughout the parts that the rich and obsolete singularity of the costume expresses the same pious gravity as the eyes, lips and hands Of thought, in relation to Françoise, one could hardly speak. She knew nothing, in that absolute sense in which to know nothing means to understand nothing, save the rare truths to which the heart is capable of directly attaining. The vast world of ideas existed not for her. But when one studied the clearness of her gaze, the lines of nose and lips, all those signs lacking from so many people of culture in whom they would else have signified a supreme distinction, the noble detachment of a chosen spirit, one was disquieted, as one is by the frank, intelligent eyes of a dog, to which, nevertheless, one knows that all our human concepts must be alien, and was led to ask oneself whether there might not be, among those other humble brethren, our peasant countrymen, creatures who were, like the great ones of the earth, of simple mind, or rather, doomed by a harsh fate to live among the simple-minded, deprived of heavenly light, were yet more naturally, more instinctively akin to the chosen spirits than most educated people, were, so to speak, all members, though scattered, straying, robbed of their heritage of reason, of the celestial family, kinsfolk, that have been lost in infancy, of the loftiest minds to whom as is apparent from the unmistakable light in their eyes, although they can concentrate that light on nothing there has been lacking, to endow them with talent, knowledge only My mother, seeing that I had difficulty in keeping back my tears, said to me Regulus was in the habit, when things looked grave. . . . Besides, it isnt nice for Mamma! What does Mme. de Sévigné say? Your grandmother will tell you I shall be obliged to draw upon all the courage that you lack. And remembering that affection for another distracts ones selfish griefs, she endeavoured to beguile me by telling me that she expected the removal to Saint-Cloud to go without a hitch, that she liked the cab, which she had kept waiting, that the driver seemed civil and the seats comfortable. I made an effort to smile at these trifles, and bowed my head with an air of acquiescence and satisfaction. But they helped me only to depict to myself with more accuracy Mammas imminent departure, and it was with an agonised heart that I gazed at her as though she were already torn from me, beneath that wide-brimmed straw hat which she had bought to wear in the country, in a flimsy dress which she had put on in view of the long drive through the sweltering midday heat hat and dress making her some one else, some one who belonged already to the Villa Montretout, in which I should not see her To prevent the choking fits which the journey might otherwise give me the doctor had advised me to take, as we started, a good stiff dose of beer or brandy, so as to begin the journey in a state of what he called euphoria, in which the nervous system is for a time less vulnerable. I had not yet made up my mind whether I should do this, but I wished at least that my grandmother should admit that, if I did so decide, I should have wisdom and authority on my side. I spoke therefore as if my hesitation were concerned only with where I should go for my drink, to the bar on the platform or to the restaurant-car on the train. But immediately, at the air of reproach which my grandmothers face assumed, an air of not wishing even to entertain such an idea for a moment, What! I said to myself, suddenly determining upon this action of going out to drink, the performance of which became necessary as a proof of my independence since the verbal announcement of it had not succeeded in passing unchallenged, What! You know how ill I am, you know what the doctor ordered, and you treat me like this! When I had explained to my grandmother how unwell I felt, her distress, her kindness were so apparent as she replied, Run along then, quickly get yourself some beer or a liqueur if it will do you any good, that I flung myself upon her, almost smothering her in kisses. And if after that I went and drank a great deal too much in the restaurant-car of the train, that was because I felt that otherwise I should have a more violent attack than usual, which was just what would vex her most. When at the first stop I clambered back into our compartment I told my grandmother how pleased I was to be going to Balbec, that I felt that everything would go off splendidly, that after all I should soon grow used to being without Mamma, that the train was most comfortable, the steward and attendants in the bar so friendly that I should like to make the journey often so as to have opportunities of seeing them again. My grandmother, however, did not appear to feel the same joy as myself at all these good tidings. She answered, without looking me in the face Why dont you try to get a little sleep? and turned her gaze to the window, the blind of which, though we had drawn it, did not completely cover the glass, so that the sun could and did slip in over the polished oak of the door and the cloth of the seat like an advertisement of a life shared with nature far more persuasive than those posted higher upon the walls of the compartment, by the railway company, representing places in the country the names of which I could not make out from where I sat the same warm and slumberous light which lies along a forest glade But when my grandmother thought that my eyes were shut I could see her, now and again, from among the large black spots on her veil, steal a glance at me, then withdraw it, and steal back again, like a person trying to make himself, so as to get into the habit, perform some exercise that hurts him Thereupon I spoke to her, but that seemed not to please her either. And yet to myself the sound of my own voice was pleasant, as were the most imperceptible, the most internal movements of my body. And so I endeavoured to prolong it. I allowed each of my inflexions to hang lazily upon its word, I felt each glance from my eyes arrive just at the spot to which it was directed and stay there beyond the normal period. Now, now, sit still and rest, said my grandmother. If you cant manage to sleep, read something. And she handed me a volume of Madame de Sévigné which I opened, while she buried herself in the Mémoires de Madame de Beausergent. She never travelled anywhere without a volume of each. They were her two favourite authors. With no conscious movement of my head, feeling a keen pleasure in maintaining a posture after I had adopted it, I lay back holding in my hands the volume of Madame de Sévigné which I had allowed to close, without lowering my eyes to it, or indeed letting them see anything but the blue window-blind. But the contemplation of this blind appeared to me an admirable thing, and I should not have troubled to answer anyone who might have sought to distract me from contemplating it. The blue colour of this blind seemed to me, not perhaps by its beauty but by its intense vivacity, to efface so completely all the colours that had passed before my eyes from the day of my birth up to the moment in which I had gulped down the last of my drink and it had begun to take effect, that when compared with this blue they were as drab, as void as must be retrospectively the darkness in which he has lived to a man born blind whom a subsequent operation has at length enabled to see and to distinguish colours. An old ticket-collector came to ask for our tickets. The silvery gleam that shone from the metal buttons of his jacket charmed me in spite of my absorption. I wanted to ask him to sit down beside us. But he passed on to the next carriage, and I thought with longing of the life led by railwaymen for whom, since they spent all their time on the line, hardly a day could pass without their seeing this old collector. The pleasure that I found in staring at the blind, and in feeling that my mouth was half-open, began at length to diminish. I became more mobile I even moved in my seat I opened the book that my grandmother had given me and turned its pages casually, reading whatever caught my eye. And as I read I felt my admiration for Madame de Sévigné grow It is a mistake to let oneself be taken in by the purely formal details, idioms of the period or social conventions, the effect of which is that certain people believe that they have caught the Sévigné manner when they have said Tell me, my dear, or That Count struck me as being a man of parts, or Haymaking is the sweetest thing in the world. Mme. de Simiane imagines already that she is being like her grandmother because she can write M. de la Boulie is bearing wonderfully, Sir, and is in excellent condition to hear the news of his death, or Oh, my dear Marquis, how your letter enchanted me! What can I do but answer it? or Meseems, Sir, that you owe me a letter, and I owe you some boxes of bergamot. I discharge my debt to the number of eight others shall follow. . . . Never has the soil borne so many. Apparently for your gratification. And she writes in this style also her letter on bleeding, on lemons and so forth, supposing it to be typical of the letters of Madame de Sévigné. But my grandmother who had approached that lady from within, attracted to her by her own love of kinsfolk and of nature, had taught me to enjoy the real beauties of her correspondence, which are altogether different. They were presently to strike me all the more forcibly inasmuch as Madame de Sévigné is a great artist of the same school as a painter whom I was to meet at Balbec, where his influence on my way of seeing things was immense. I realised at Balbec that it was in the same way as he that she presented things to her readers, in the order of our perception of them, instead of first having to explain them in relation to their several causes. But already that afternoon in the railway carriage, as I read over again that letter in which the moonlight comes I cannot resist the temptation I put on all my bonnets and veils, though there is no need of them, I walk along this mall, where the air is as sweet as in my chamber I find a thousand phantasms, monks white and black, sisters grey and white, linen cast here and there on the ground, men enshrouded upright against the tree-trunks, I was enraptured by what, a little later, I should have described for does not she draw landscapes in the same way as he draws characters? as the Dostoievsky side of Madame de Sévignés Letters When, that evening, after having accompanied my grandmother to her destination and spent some hours in her friends house, I had returned by myself to the train, at any rate I found nothing to distress me in the night which followed this was because I had not to spend it in a room the somnolence of which would have kept me awake I was surrounded by the soothing activity of all those movements of the train which kept me company, offered to stay and converse with me if I could not sleep, lulled me with their sounds which I wedded as I had often wedded the chime of the Combray bells now to one rhythm, now to another hearing as the whim took me first four level and equivalent semi-quavers, then one semi-quaver furiously dashing against a crotchet they neutralised the centrifugal force of my insomnia by exercising upon it a contrary pressure which kept me in equilibrium and on which my immobility and presently my drowsiness felt themselves to be borne with the same sense of refreshment that I should have had, had I been resting under the protecting vigilance of powerful forces, on the breast of nature and of life, had I been able for a moment to incarnate myself in a fish that sleeps in the sea, driven unheeding by the currents and the tides, or in an eagle outstretched upon the air, with no support but the storm Sunrise is a necessary concomitant of long railway journeys, just as are hard-boiled eggs, illustrated papers, packs of cards, rivers upon which boats strain but make no progress. At a certain moment when I was counting over the thoughts that had filled my mind, in the preceding minutes, so as to discover whether I had just been asleep or not and when the very uncertainty which made me ask myself the question was to furnish me with an affirmative answer, in the pale square of the window, over a small black wood I saw some ragged clouds whose fleecy edges were of a fixed, dead pink, not liable to change, like the colour that dyes the wing which has grown to wear it, or the sketch upon which the artists fancy has washed it. But I felt that, unlike them, this colour was due neither to inertia nor to caprice but to necessity and life. Presently there gathered behind it reserves of light. It brightened the sky turned to a crimson which I strove, gluing my eyes to the window, to see more clearly, for I felt that it was related somehow to the most intimate life of Nature, but, the course of the line altering, the train turned, the morning scene gave place in the frame of the window to a nocturnal village, its roofs still blue with moonlight, its pond encrusted with the opalescent nacre of night, beneath a firmament still powdered with all its stars, and I was lamenting the loss of my strip of pink sky when I caught sight of it afresh, but red this time, in the opposite window which it left at a second bend in the line, so that I spent my time running from one window to </t>
+          <t>J'ai vu deux choses me faire flipper, la mort et l'excès d'amour L'un me fait des signes, l'autre domine mon cur, me fait esclave de mes actes J'ai vu ce cul-de-jatte voir ses potes courir vers la gloire Et les entendre toujours parler de cul et de chatte J'ai vu ce petit de la tess qui m'a braqué en me disant Maintenant j'suis fou, j'deale, je veux de l'argent Et si je fais 10 ans je serai caïd, soi-disant Je suis un pédé, je lui dis vaut mieux le laisser croire Qu'aller se faire enculer et le devenir Dire que j'ai vu la taule à l'horizon à cause d'une poucave Dieu merci ce n'était qu'une vision J'ai vu du sexe sale des bites dans des trous de balle Des balles qui en sortaient sous l'excès de pression du pit J'ai vu cette partouze où le dernier mec se trouve face à sa sur Sueur, larmes, armes blanches, sang, imagine la suite J'ai vu la vie j'envie les vieux, la vie m'a vu, la mort me veut Refrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 2 J'ai vu du rap en carotte sur des contrats qu'ils arrêtent Des rates en quête de queues d'artistes Des barrettes de shit dans le cul d'un mec avec moi en G.A.V Via je ne sais où un mec qui me dit Moi je te teste en rap J'ai fait la parodie de sa vie dont j'étais scénariste J'ai vu Dieu à ma droite, le Diable à ma gauche qui me dit Mise avec moi tu reverras les vendredis 13 J'ai l'aise à portée de main, ta main m'a porté je sais que tu as faim Le choix qui j'ai fait était le mien, l'avis que t'avais était le tien Mais je sais que parfois ma raison me donne tort J'ai vu l'apocalypse dans la rue les keufs s'allient Trop de coups roués, eux riant, moi criant Ça me donne la matière pour créer J'ai vu ce mec qui veut ma mort, mon amour, savoure mes échecs Bloque devant ma photo et me traite de plouc Salit mon nom je vois le truc, Glock en main il me tuerait Ne peut pas admettre que ce que je fais soit de la tuerie Refrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 3 J'ai vu une masse de personne devant moi quand j'ai dit À ceux qui me haïssent Prenez un ticket et faites la queue J'ai vu ce toxicomane braquer sa mère avec une arme blanche Il a fugué et s'est fait adopter par la poudre blanche J'ai vu ce vieillard me dire Putain de nègre, tu pues toi Et après on me dit que même pour ceux là faut avoir de la pitié, non J'ai vu que la vengeance veut devenir ma seule raison de vivre Un combat avec moi-même auquel je me suis livré J'ai vu mon pote mourir du dass à cause d'une tass qui lui a dit Il n'y a que toi et je n'aime que toi Tout ce que j'ai dit c'est ce que j'ai vu ou ce que mes soss et moi avons vécu J'ai vu et parfois malgré moi J'ai vu que ma vie était une suite d'images, filme mon quotidien en rimes 3'30 résume mon long métrage Drame, amour, frisson, malgré tout ça Je vois qu'à ce jour je n'ai encore rien vu Refrain x3 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar1</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Intro (le poids des maux)</t>
+          <t>J’en veux au monde</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Ouais, respect à Pit au mic J'pense qu'aujourd'hui il est représentatif d'un jeune qui est parti de rien pour arriver à tout C'est l'cur qui parle, la main qui tremble sur les feuilles mortes Pit en une phrase, mec? Un poète, yes Le travail finit toujours par payer J'suis venu pour être, pas pour paraître C'est le MC en France qui le mieux dans opposé J'viens bâtir un empire Nique tous mec J'suis un Noir pacifiste et fier de l'être J'suis un Noir pacifiste et fier de l'être Pour moi, Baccardi, il est universel Pit Baccardi c'est qui? La vérité, l'émotion, le naturel, la mélancolie Yeah Un condensé de sobriété, d'humour De fond, de forme D'émotion, de gentillesse J'ai vu deux choses me faire flipper, la mort et l'excès d'amour C'est une voix, Pit Baccardi c'est une voix, un flow, un accent Eh ouais gros, c'est Tandem Pit en vendetta pour un projet chaos Lyrical pyromane, c'est Première Classe contre les mythomanes Un véritable phénomène dévore les charts Resserre ton boul' pour l'come-back, c'est PC pour t'mettre des claques Un peu trop classe pour être black Baccardi Pit mon pote, c'est le palace de Scarface sur une bande-son Avec PC pour épaule solide Si t'as les tunes, on a les flingues, si t'as la prod on a la prose</t>
+          <t>Le monde c'est un théâtre Faut apprendre à jouer son rôle, staire ou s'battre J'veux pas finir dun cancer ou mal à la prostate J'crois qu'j'vais finir d'un mal cardiaque Dans mon crâne, c'est la crise J'en veux au monde et j'lemmerde, ça cest plus une surprise J'en veux à la haine, je cherche la paix Regarde ma mine dévastée par lenvie d'vaincre J'suis en période de guerre J'dîne seul, jmarche seul, j'ai plus confiance en rien Même moi j'me fais flipper alors imagine J'en veux à l'État, ne vit que pour les taxes Ils m'prennent 56 et j'fais toujours la queue pour mes problèmes de fafs Quand j'vis dans la crasse on m'insulte Quand j'vis dans la classe c'est l'insulte J'suis leur pute préférée comme dirait Chill C'est dingue, et si j'prône la révolte, qu'on m'dise pas qu'j'gêne J'me suis battu gratuitement pour rester droit J'en veux au monde et ses théories c'est un acharnement J'te dirais qu'ce soir, j'suis pas festif Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde Et mes aïeux m'protègent, les bruitages sont ceux d'un cur qui bat Les grandes douleurs sont muettes, qui aurait cru pour Kurt Cobain? J'en reviens de ce sanctuaire où être seul devient l'exutoire Ai-je eu tort d'aider mon prochain? Mystère Le Ciel m'a demandé d'être bon Mais si j'continue, j'vais finir par y croire quand on m'traite de con J'en veux au monde mais j'suis pas martyr J'suis immortel car mes raps sont des testaments J'suis une ombre maléfique pour les gens qu'j'hais Il plane une atmosphère louche, mais moi j'ai rien enclenché Je n'fais qu'répondre aux claques par des patates Me parle pas d'justice, j'deviens bâtard et porte bien mon nom d'clebs J'en veux au monde et du monde m'en veut Ils m'le rendent bien, chaque jour j'essuie des balafres sur ma caisse négro Tu veux la vision d'un monde instable, j'rentre dans l'Histoire T'as frappé à la bonne porte Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde J'en veux au monde, le tonnerre gronde Les bombes abondent et dans les songes C'est l'désastre, les cris remontent Rien n'est simple, tout bascule Prenons les masques à gaz, les époques s'bousculent Ça dégénère, j'suis montré du doigt On m'préfère p't-être à la ramasse ou filtré par les flics Mais j'emmerde ce monde qui m'veut dead J'ai planqué mon or Mon Dieu, j'suis à ta merci, j'ai pas besoin d'aide De ces mecs qui pourraient faire volte-face mais vous inquiétez pas Les visages j'les ai démasqués J'vous divulge de vive voix mes vux Deux fois plus péter la baraque et faire profiter ma clique J'en veux à c'monde qui a dit Pit est incapable de faire un album En voilà deux, appelle-moi incroyable J'en veux au monde et c'que t'oublies C'est qu'un chien en rage mord même dans le luxe Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>J’accélère</t>
+          <t>J’en veux au monde (Remix)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Tu l'sais, Baccardi Tu l'sais, DJ Mehdi Passe la sixième vitesse Sur l'autoroute du danger C'est le risque qui nous attire Pour brûler l'essieu, à combien j'dois pousser ma tire J'ai pris la vie dans tous les sens, sans interdits On m'a dit sur l'côté, j'ai dit fuck Écorché vif à la recherche de mon dû, j'accélère, y a des flashes sur le périph J'ai plus l'temps, j'dirige ma vie et j'vais mourir en la pilotant Eh, mon code je l'ai, celui d'l'honneur, mes gars à l'arrière Mes devoirs j'les honore À ma gauche ma zik, à ma droite ma famille et mes soss' On n'est pas à l'abri d'un crash J'viens éclater les portes de l'enfer J'veux vivre au paradis J'pousse les obstacles d'un coup d'pare-chocs Ici, j'dois rien à personne J'accélère 16 J'arrive à vive allure Partout y a des barrages J'vais les franchir, j'suis un MC 44 tout terrain J'roule sur l'or, tu parles, sur une voie glissante Et n'importe quand on peut goûter à l'asphalte K 2000, ma voiture c'est mon cur Et c'est mon crâne qui pilote J'ai rendez-vous avec la vie mec, si vous voulez sur moi faites feu J'suis blindé, je suis ma destinée Fiché par les autorités Regarde ma plaque 7-5-0-1-9, tu sais d'où j'viens et j'reste black Je sais qu'la route est longue, j'ai mes réserves Tu m'verras pas sur l'côté en panne sèche jamais J'suis un homme Et ici J'suis en mission J'accélère 16 J'plane J'passe la sixième vitesse Tu veux ma marque Family Brown La vie est trop courte pour m'lamenter sur ci ou ça Assumer, être un homme c'est ça aussi Sur ma route il fait sombre J'vois des ombres Et les morts sont comptés en nombre Le climat annonçait un orage Moi j'survis, pourquoi J'ai ma rage comme airbag Je zigzague avec le risque Accélère en temps d'pluie, flirte avec le danger J'prends l'périph Y a du monde sur la route, c'est pas grave Au terminus on s'retrouve J'accélère 16 Family Brown Sur ma route il fait sombre J'ai ma rage comme airbag Au terminus on s'retrouve J'accélère 16</t>
+          <t>Track 16 lyrics à venir</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>J’ai Fléchi</t>
+          <t>Journée de dealer</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Donne-moi un stylo, une feuille appelle-moi mélancolique De l'encre va couler à défaut de larmes, à la folie j'ai aimé Je suis bafoué, je vis de musique et d'eau fraîche J'ai son couteau dans un bras, mon cur dans l'autre Appelez le juge, j'ai la pièce à conviction Je l'affirme l'amour a voulu me laisser sur le carreau Je me suis fait braquer, on m'a pris ma fierté d'homme On voulait m'arracher mon âme, je suis échappé On m'a dérobé mon cur, j'ai la plaie ouverte, regarde je suis vidé Je peux pas exposer ma rancur Je suis comme dépendant d'une drogue ou aucune cure n'est possible Le mal est dans le sang, dans le cur, dans le corps J'ai aimé comme si ça finissait demain Un suspens rarement conclu par une happy end Une mélodie, un air de soul, un visage pâle C'est plus moi qui parle c'est juste l'encre qui coule... L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé Les souvenirs meublent mes jours Je veux déménager et tout laisser à la fourrière Y'a du sang sur les murs et de la sueur dans mes mots C'est le stress, je ne suis plus moi au bout d'un moment L'amour c'est un terrain miné ou on marche les yeux fermés En croyant que toutes les bombes sont désamorcées J'entends un craquement, s'accélèrent les battements Les minutes sont longues, les paroles sont lourdes Y'a un long passage à vide et ça explose On voit ses songes enfumés, appelez les pompiers Le volcan a jeté ses flammes, je brûle On verse de l'alcool sur les plaies ouvertes On vient de kidnapper mes rêves, je donnerais tout pour m'échapper de là Mais l'amour affaiblit même les plus forts regarde Mesrine On se tue à aimer et on peut tuer par amour L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé Je veux vivre même blessé, je me relève quand je glisse Et je veux m'sentir venir, je garde les yeux plissés Je voulais que ma vie soit peace et que les médisants s'éclipsent Et le coupable de mon déclin je sais qui c'est La sensation d'être sourd alors que les mots te pénètrent Se rendre aveugle par peur de voir le vrai j'ai fléchi Je n'étais plus moi, quand je réfléchis il est trop tard Je divague déjà seul sur le boulevard, je ne veux plus car je flippe C'est pas un caïd ou un mec de cité qui te cause, c'est juste un homme Je suis balafré mais si invisible car les grandes douleurs sont muettes Y'a que mes mots qui sont lisibles Le cur du problème c'est un problème de cur L'amour à quelques mots près rime avec mort, je suis blasé Je suis un jeune vieux, je rappe sur un beau sample Parler de love aujourd'hui me semble impossible x2 L'amour faut y croire simplement Ne ferme pas ton cur maintenant laisse faire le temps J'ai fléchi le jour j'ai aimé L'amour c'est la lueur du soir qui effacera ton désespoir Laisse faire le temps J'ai fléchi le jour j'ai aimé</t>
+          <t>Huit heures du mat' je me lève au bras de cette fouf Après une binda terrible, je prends mon souffle Je me mire, je me marre faut que je trahisse cette touffe Je sais pas quoi me mettre dans mon placard, je plouffe La miss comme chaque matin me fait son speech Elle me dit d'arrêter cette vie mais je m'en fiche Avant que le taf commence je vais prendre une bonne douche À cet instant déjà l'atmosphère est louche Elle continue sa tchatche, je lui dis shhh J'entends du bruit, la parano d'un vendeur de shit J'ai l'impression dans tous les coins il y a des schmits Que je suis épié que tous les regards sont sur Pit Je prends mon matos caché dans ma boîte à shoes Où j'y ai planqué mes 25 et mes 12 Mon phone sonne d'un click je prends ma double gouze La journée commence à la recherche de flouze x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques Le terrain est miné mon assos s'est mis dans une histoire De meufs une embrouille interminable Tel est pris qui croyait prendre trop long à vous faire comprendre En gros je suis seul à opérer par ce temps minable Où est l'boloss ? Je toque à sa porte Malgré les civils dans le secteur j'avais le matos sur moi 10 heures déjà, le blizzard sur moi, grave à ces heures là je croise des sacrés tiseurs Je fais des va-et-vient je sais que les flics flairent mon jeu Entrer dans plusieurs immeubles je veux pas finir en GAV Ils savent ce que je fais, m'appellent par mon prénom des fois Des piles de photos sont prises je sais qu'ils m'ont chez moi à poil Mes clients ont juste mon pseudonyme Au cas mon phone est sur écoute je change de ligne Je fais mes briques braque pendant que les autres braquent Un grossiste pour lui enlever ses parts de marché Crack ou héroïne c'est pas mon truc waou Le dixième appel, excusez-moi l'argent m'appelle x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques T'as pas un petit c-tru la, tu sais quoi reviens demain à la même heure Ok parce que là j'ai plus rien ok Dure journée, dans la caisse, hein, dix milles francs pas, hein Faut aller se manger un petit truc puis hein Willie est passé dans le secteur c'est mon soss Mais je crois que il a une maladie grave, il a le virus de l'escroquerie On va chercher Bakary sept jours sur sept coiffé carré De Place des Fêtes à Place Carrée toutes les foufs en sont tarées Ce soir y'a du répondant mate la forme des fesses des miss Champagne au frais dans le cas ou le gang-bang s'impose Bizarrement tout le monde nous suce, c'est normal Avec trois bouteilles à 3 heures du mat à l'Atlantis Travailler à son compte c'est mieux pas besoin de bahut Je suis PDG, comptable, travaille même à la main-duvre Ouvert 7 jours sur 7, 24 heurs sur 24 En cas d'absence laisser un message à mes secrétaires C'est ça la vie de dealer, c'est ça la vie de dealer x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J’ai Vu</t>
+          <t>J’Perds Pas La Main En Solo</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>J'ai vu deux choses me faire flipper, la mort et l'excès d'amour L'un me fait des signes, l'autre domine mon cur, me fait esclave de mes actes J'ai vu ce cul-de-jatte voir ses potes courir vers la gloire Et les entendre toujours parler de cul et de chatte J'ai vu ce petit de la tess qui m'a braqué en me disant Maintenant j'suis fou, j'deale, je veux de l'argent Et si je fais 10 ans je serai caïd, soi-disant Je suis un pédé, je lui dis vaut mieux le laisser croire Qu'aller se faire enculer et le devenir Dire que j'ai vu la taule à l'horizon à cause d'une poucave Dieu merci ce n'était qu'une vision J'ai vu du sexe sale des bites dans des trous de balle Des balles qui en sortaient sous l'excès de pression du pit J'ai vu cette partouze où le dernier mec se trouve face à sa sur Sueur, larmes, armes blanches, sang, imagine la suite J'ai vu la vie j'envie les vieux, la vie m'a vu, la mort me veut Refrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 2 J'ai vu du rap en carotte sur des contrats qu'ils arrêtent Des rates en quête de queues d'artistes Des barrettes de shit dans le cul d'un mec avec moi en G.A.V Via je ne sais où un mec qui me dit Moi je te teste en rap J'ai fait la parodie de sa vie dont j'étais scénariste J'ai vu Dieu à ma droite, le Diable à ma gauche qui me dit Mise avec moi tu reverras les vendredis 13 J'ai l'aise à portée de main, ta main m'a porté je sais que tu as faim Le choix qui j'ai fait était le mien, l'avis que t'avais était le tien Mais je sais que parfois ma raison me donne tort J'ai vu l'apocalypse dans la rue les keufs s'allient Trop de coups roués, eux riant, moi criant Ça me donne la matière pour créer J'ai vu ce mec qui veut ma mort, mon amour, savoure mes échecs Bloque devant ma photo et me traite de plouc Salit mon nom je vois le truc, Glock en main il me tuerait Ne peut pas admettre que ce que je fais soit de la tuerie Refrain x2 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar Couplet 3 J'ai vu une masse de personne devant moi quand j'ai dit À ceux qui me haïssent Prenez un ticket et faites la queue J'ai vu ce toxicomane braquer sa mère avec une arme blanche Il a fugué et s'est fait adopter par la poudre blanche J'ai vu ce vieillard me dire Putain de nègre, tu pues toi Et après on me dit que même pour ceux là faut avoir de la pitié, non J'ai vu que la vengeance veut devenir ma seule raison de vivre Un combat avec moi-même auquel je me suis livré J'ai vu mon pote mourir du dass à cause d'une tass qui lui a dit Il n'y a que toi et je n'aime que toi Tout ce que j'ai dit c'est ce que j'ai vu ou ce que mes soss et moi avons vécu J'ai vu et parfois malgré moi J'ai vu que ma vie était une suite d'images, filme mon quotidien en rimes 3'30 résume mon long métrage Drame, amour, frisson, malgré tout ça Je vois qu'à ce jour je n'ai encore rien vu Refrain x3 J'retranscris ce que je vis, j'décris ce que je vois Les pleurs, le deuil et si peu de joie, tu vois Ce dont je parle faut le voir pour le croire J'ai vu comme ce rêve qui finit en cauchemar1</t>
+          <t>99 Pit Au Mic Première Classe 2ème Opus Premier album, deuxième opus, l'accent sur les mot plus accès vers l'cataclysme pour qu'ce soit la cataplexie J'perds pas la main, après Time Bomb ça donne ça Admire ma vie après ma mort, admire marre-toi, marmonne Les marmot m'aiment, miment mes mots j'suis toujours le même hors normes, comme personne Hormones de croissance? Pas besoin, 1m70 au carreau Guerre des nerfs j'ai l'barreau sur l'beat, grossiers baow! Et les autres disent que j'suis taré! Et écrire? ma manière d'parler sans être interrompu, ça pue la souffrance, ça vire à l'arrogance Et dire que j'voulais stopper tout pour des problèmes de conscience Encore en vie grâce à XXX qui m'a dit vient on s'y lance! S.O.L.O molo, colossal moi le colonel de ma troupe versera couler pour preuve l'odeur de mon polo sale Limité quand faut parler U.N-ité, humilité ou pas, 99 j'vais militer! Lorsque la haine a éclatée réconciliation est fausse me taire ou m'tuer, m'tuer j'choisis quand on est tous dans la fausse Crie à eux la victoire mais quand j'parle de mort dans ces masses de boom boom c'est mourir à l'affront du fric Porte toujours sur les couilles, fracture des cranes dégoûte c'et la qu'tu crame les poules mouillées quand j'vois la réaction des keums J'perds pas la main rappeur en solo, majeur salop dans l'passé, han, mon nom c'est Pit! V'la une réflexion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle Perd pas la main en solo V'la une réféxion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle La rage dans le mic' Après ça XXX et Ox, XXX, l'Doc, PC et autre Y'a d'quoi enjailler les éditions, option sur l'album boom! Tu en a rêvé Baccardi l'a fait comme XXX à qui j'dédie M'soutiens le boomerang pour les gang dingue Pit bang, big bang bref, faut qu'ils soient sauvés par le gong! C'est une vie entière sur disque, je mise gros en misant seul Faire bisquer ceux qui croyait t'es fou Qu'est-ce qui? y'a plus d'XXX que d'challenge Je change de clan, on dit qu'c'est mon déclin, j'ferais la une ma couille d'Paris à Oklahoma Maintenant qu'la rime paie faisons partie d'ceux qui en profitent J'mène l'utile à l'agréable que demander de plus? Pit a compris l'truc, j'kick au mic, kick la rue Et vise le Hightop des box ou des XXX qui n'a pas faim La guerre se prépare en temps de paix C'est quand tout va bien que j'calcule comment t'baiser Extrait de mon art de la guerre J'ai appris au gorille a faire la grimace J'arriverai avant ces enfoirés qui m'traitent de limace J'ai attrapé cette putain de foutre par la queue Quand j'éteins la lumière, avant qu'il fasse noir j'étais au pieu Baccardi Pit Celui Par qui vient l'scandale!</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>J’en veux au monde</t>
+          <t>J’suis seul</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Le monde c'est un théâtre Faut apprendre à jouer son rôle, staire ou s'battre J'veux pas finir dun cancer ou mal à la prostate J'crois qu'j'vais finir d'un mal cardiaque Dans mon crâne, c'est la crise J'en veux au monde et j'lemmerde, ça cest plus une surprise J'en veux à la haine, je cherche la paix Regarde ma mine dévastée par lenvie d'vaincre J'suis en période de guerre J'dîne seul, jmarche seul, j'ai plus confiance en rien Même moi j'me fais flipper alors imagine J'en veux à l'État, ne vit que pour les taxes Ils m'prennent 56 et j'fais toujours la queue pour mes problèmes de fafs Quand j'vis dans la crasse on m'insulte Quand j'vis dans la classe c'est l'insulte J'suis leur pute préférée comme dirait Chill C'est dingue, et si j'prône la révolte, qu'on m'dise pas qu'j'gêne J'me suis battu gratuitement pour rester droit J'en veux au monde et ses théories c'est un acharnement J'te dirais qu'ce soir, j'suis pas festif Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde Et mes aïeux m'protègent, les bruitages sont ceux d'un cur qui bat Les grandes douleurs sont muettes, qui aurait cru pour Kurt Cobain? J'en reviens de ce sanctuaire où être seul devient l'exutoire Ai-je eu tort d'aider mon prochain? Mystère Le Ciel m'a demandé d'être bon Mais si j'continue, j'vais finir par y croire quand on m'traite de con J'en veux au monde mais j'suis pas martyr J'suis immortel car mes raps sont des testaments J'suis une ombre maléfique pour les gens qu'j'hais Il plane une atmosphère louche, mais moi j'ai rien enclenché Je n'fais qu'répondre aux claques par des patates Me parle pas d'justice, j'deviens bâtard et porte bien mon nom d'clebs J'en veux au monde et du monde m'en veut Ils m'le rendent bien, chaque jour j'essuie des balafres sur ma caisse négro Tu veux la vision d'un monde instable, j'rentre dans l'Histoire T'as frappé à la bonne porte Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde J'en veux au monde, le tonnerre gronde Les bombes abondent et dans les songes C'est l'désastre, les cris remontent Rien n'est simple, tout bascule Prenons les masques à gaz, les époques s'bousculent Ça dégénère, j'suis montré du doigt On m'préfère p't-être à la ramasse ou filtré par les flics Mais j'emmerde ce monde qui m'veut dead J'ai planqué mon or Mon Dieu, j'suis à ta merci, j'ai pas besoin d'aide De ces mecs qui pourraient faire volte-face mais vous inquiétez pas Les visages j'les ai démasqués J'vous divulge de vive voix mes vux Deux fois plus péter la baraque et faire profiter ma clique J'en veux à c'monde qui a dit Pit est incapable de faire un album En voilà deux, appelle-moi incroyable J'en veux au monde et c'que t'oublies C'est qu'un chien en rage mord même dans le luxe Il pleut des bombes, et le tonnerre gronde Des larmes coulent, panique le pays s'écroule À chaque seconde, alerte sur les ondes C'est la crise, j'en veux au monde</t>
+          <t>Oui tu le sais La solitude, je suis né avec Et un de ses jours je partirai avec J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Semblant de poète à la mémoire chauve Je perds mes réflexes Me noie dans des soucis Ma zik' de l'or pour les pauvres en paix Repose ceux qui de plus en plus ont contemplé le ciel Avant que la foudre ne brise leurs songes En profondeur, je traverse des rivières d'images Ça coule à flot quand je pose le bic sur la marge Je suis l'homme libre à la rime qui pleure, cible d'obus Si jamais je crève qu'on danse sur Prodigy à mes obsèques Jamais vous ne sentirez ma peine Jamais vous ne sentirez la peur dans ma poigne Quand je vous dis bye Vous sentirez pas les pleurs d'un homme célèbre Vous le voyez derrière une vitrine Pourtant la pluie s'abat et la grêle casse les vitres x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec J'crois qu'y a une époque qui séteint Une plaque chauffante qui s'allume C'est mon cur qui chauffe Ne vois tu pas que c'est la mouise sur ma mine ? Célèbre mais triste Mine de rien j'suis le mime d'une réussite désenchantée J'voulais unir mes déchirures, faire la une Blasé, mourir au combat, survivre ou je m'assassine Rester digne, partir en héros alors je rime Quitte a en faire pleurer les mères et mômes C'est ce qui se passe quand j'écris ces lignes Tu veux savoir pourquoi je suis triste? J'suis seul, aidé par le ciel Mal vu par le sol car jexcelle dans mon art Je convoite la paix et la joie J'évite la peur, j'agis Je suis devenu le mur du silence c'est pour ça que je chante Comprends mature Je suis de nature à me livrer Les mots reflètent l'état du cur je vois les sourds délivrés J'ai de la haine j'en veux à des gens à mort Le regard d'un mort porte malheur à celui qui le croise x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Ok, Mon son, ma larme Mon écrit, mon son, l'alarme sonne Quand j'dis que j'irai cracher des bombes sur leurs tombes C'est obscène mais observe Tous ce qui se passe n'est qu'un affrontement Sèves de sang, ce rap desséché C'est la merde dans le monde depuis le commencement Harcèlement moral, je balafre à juste cause Déclin depuis le coin de rue c'est ça le juste titre Je veux vivre et juste faire parler mon cur La rue m'observe et me perpétue dans tous ses corps-à-corps Je me noie dans mes abysses Là ou les haches s'abaissent Le drapeau blanc s'immisce Y a que de la verdure sur les collines Broyé par le superflu des guerres L'avenir est dans la brume, je vois ça d'un regard super flou Je m'évade par mes voies magiques, tragiques Dhémorragies c'est de ça qu'il s'agit J'ai la vision d'un rêveur qui voit ses songes comme une part de réel Quand je rêve de ma mort J'crois pas qu'je joue un rôle x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>J’en veux au monde (Remix)</t>
+          <t>K’1frystyle</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Track 16 lyrics à venir</t>
+          <t>Freestyle racaille, c'est là qu'on s'introduit Pour Pit Baccardi C'est moi qui tient les commandes C'est moi qui conduit Rohff Ouais gros Kery James Mafia K'1Fry Mafia Africaine Sur l'son de DJ Mehdi Ouais ça déchire Première Classe En place en place ! En place, vas-y, Kery James Dans l'Rap, j'm'en bats les couilles j'me balade en slip comme à la maison Et l'premier qui m'casse les couilles j'l'embrouille sans aucune raison Tandis que mes res-frè plus de 100 kilos débitent Tandis que plus de 100 rappeurs ont sucé des bites Alors d'une, j'aimerais en placer une pour tous mes frères Deux, j'couperais en deux plus de trois mes adversaires J'fais mon entrée, et deux trois te-tê tranchées d'entrée L'haïtien, par réputation le magicien, théoricien, ancien rap mathématicien, technicien, style de flow de caille-ra détient Laïcien par obligation, le musicien, physicien Rap de tueur, rap assassin ! C'est moi qui possède le style flow de caille-ra mec Au M.I.C j'procède à la Wu, protect your neck Combien d'entre nous portent la cagoule et les gants Mafia Africaine, quinze boug' parmi les plus élégants K'1 Fry Style mafia, quand j'froisse le mic' j'mets pas les gants ! Pas d'mains en l'air, ranges tes molaires, donc n'y mets pas les dents ! Dans les mots rap et clash, j'compte sur une centaine pour moi seulement Celui qui déclencha les règles des rappeurs putes tout récemment J'ai reçu mon diplôme de haute rapologie Si y'a plagiat à la PJ ensuite enfilade d'anthologie des mecs n'attendent que ça se faire des rappeurs farfelus Qui se transforment en j'te jure, ça j'l'ai pas On va pas refaire le jugement de certains mecs famés Mais juste une petite remise à l'heure, j'te promets, il fallait À tous ceux qui n'cessent de mettre leurs nez dans nos affaires Qu'ils continuent plutôt de mettre leurs affaires dans leurs nez Sers tes sses-f ou tu vas bruit de pet Ici c'est Rohff, c'est mauvais signe MC, ouais toi là, j't'assassine J'affirme puis confirme, j'te nique, j'me la raconte pas T'as beau faire l'nerveux au mic', sapé caille-ra pour moi ça compte pas J'm'en fous d'ta morale de pute, trou d'u-c là, j't'éduque Tu joues l'balèze dans l'Rap, j'sais qu't'as pas d'couille pour faire certains trucs Ça change rien qu'tu sois un chaud ou une mauviette J'tiens à c'que l'auditeur mélange pas l'PQ et les serviettes En direct, mon style fait boum boum dans ta tête Hagra partie, sans confettis j'te fais ta fête T'inquiètes pas, pour moi, gros j'hésite pas Mon machtok fait clic ensuite pah C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken Laisse-moi dégainer le bad style qui fera jump up toutes les racailles Le freestyle en rafale qui finira par foutre la caille J'veux juste une réalité, le bitume espoir de thunes De mec qu'on fume pour une thune, l'amertume rimes d'aciers glacées, frotte un Colt Une arme, m'importe le verdict, ma rime est un Colt Combien s'en sortent face à mon flow et mon escorte ? Combien de la compétition se voient rayés de la sorte ? Lorsqu'on exporte un bon son rude pour les mecs du Sud On tit-sor un bon son hardcore pour les mecs du Nord Issu de la Terre-Mère, le style reste universel Néanmoins, nous optons pour une Mafia Africaine Apocalypse agit moins peu plié Païen payé pour voir que mon croyant sent mon rap Bruit de crachat dans vos gueules et bien appuyé Pile-poil pour putes poilues qui font les squales Pas plumes, pas lourds Et qui s'branlent parce que y'a mon nom sur leurs polos Mon palier s'élève à beaucoup d'golgotes qui s'croient dans Stargate mais qui virevoltent entre ma merde et c'qui y'a en dessous La star guette, ma gueule coute c'que j'dégueule sur beat brut Goutte pas mes couilles, dans cette capote j'ai laissé quelques gouttes Connard, insultant comme le ciel le permet pas Un salaud, à patate noir qui a rendu ce vieux tou-bab raciste bleu Insultant comme ma merde qui sent mieux qu'toi Tu pues toi et ferme ta gueule, appelle-moi sultan Entrée fulgurante, c'est là tout d'suite que j'te la rentre Histoire qu'j'démontre devant tout l'monde qu'ton rap j'l'égorge, j'l'éventre Situation angoissante, ta femme en est souriante Ma voix éblouissante la rend beaucoup plus charmante MC tu pues d'la gueule, là j't'apporte le flow bonbon à la menthe Qui rafraichit l'haleine, rigole, elle est marrante Kiffe cette façon tranquille de te mettre à l'amende Pas d'compet' connard, comme falche cheval d'course à la montre Hagrator qui l'encule à tort, star dans les parages MC j'te dévore de plus en plus fort à cause de la rage V'là l'machin, bête d'engin qui sort pas d'un garage Mec de Vitry, jai la voix hache Jtapplatis comme le cul dune nois-ch On fait du nettoyage Là il y a des textes, là où il y a des zoulous bizarres On brille par le prestige et la prestance La classe africaine on représente Ouais, du Demi-Lune Zoo au 19ème cest élégance Tes raps abdominales, au ptit déj chacun on en prend deux, minable Pour bigleux orgueil de vision propre et à la solution fiable Patate dans lil gauche en enfonçant le doigt dans lil droit Tu verras du noir, au moins tu diras pas qutu vois rien, bâtard Pit sur beat cest comme quand ça pète dans les blocs Glock lyrical, jai un 16 rimes toujours dans mon fut, demande à De suite on rêve dans lrap et dans la chanson Un rappeur producteur qui génère ses millions x3 C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken1</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Journée de dealer</t>
+          <t>La légende</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Huit heures du mat' je me lève au bras de cette fouf Après une binda terrible, je prends mon souffle Je me mire, je me marre faut que je trahisse cette touffe Je sais pas quoi me mettre dans mon placard, je plouffe La miss comme chaque matin me fait son speech Elle me dit d'arrêter cette vie mais je m'en fiche Avant que le taf commence je vais prendre une bonne douche À cet instant déjà l'atmosphère est louche Elle continue sa tchatche, je lui dis shhh J'entends du bruit, la parano d'un vendeur de shit J'ai l'impression dans tous les coins il y a des schmits Que je suis épié que tous les regards sont sur Pit Je prends mon matos caché dans ma boîte à shoes Où j'y ai planqué mes 25 et mes 12 Mon phone sonne d'un click je prends ma double gouze La journée commence à la recherche de flouze x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques Le terrain est miné mon assos s'est mis dans une histoire De meufs une embrouille interminable Tel est pris qui croyait prendre trop long à vous faire comprendre En gros je suis seul à opérer par ce temps minable Où est l'boloss ? Je toque à sa porte Malgré les civils dans le secteur j'avais le matos sur moi 10 heures déjà, le blizzard sur moi, grave à ces heures là je croise des sacrés tiseurs Je fais des va-et-vient je sais que les flics flairent mon jeu Entrer dans plusieurs immeubles je veux pas finir en GAV Ils savent ce que je fais, m'appellent par mon prénom des fois Des piles de photos sont prises je sais qu'ils m'ont chez moi à poil Mes clients ont juste mon pseudonyme Au cas mon phone est sur écoute je change de ligne Je fais mes briques braque pendant que les autres braquent Un grossiste pour lui enlever ses parts de marché Crack ou héroïne c'est pas mon truc waou Le dixième appel, excusez-moi l'argent m'appelle x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques T'as pas un petit c-tru la, tu sais quoi reviens demain à la même heure Ok parce que là j'ai plus rien ok Dure journée, dans la caisse, hein, dix milles francs pas, hein Faut aller se manger un petit truc puis hein Willie est passé dans le secteur c'est mon soss Mais je crois que il a une maladie grave, il a le virus de l'escroquerie On va chercher Bakary sept jours sur sept coiffé carré De Place des Fêtes à Place Carrée toutes les foufs en sont tarées Ce soir y'a du répondant mate la forme des fesses des miss Champagne au frais dans le cas ou le gang-bang s'impose Bizarrement tout le monde nous suce, c'est normal Avec trois bouteilles à 3 heures du mat à l'Atlantis Travailler à son compte c'est mieux pas besoin de bahut Je suis PDG, comptable, travaille même à la main-duvre Ouvert 7 jours sur 7, 24 heurs sur 24 En cas d'absence laisser un message à mes secrétaires C'est ça la vie de dealer, c'est ça la vie de dealer x2 À tous les nègres de la pègre à tous les jeunes dans le bizz Ceux qui ont le flair pour le flouze et ceux qui s'organisent À ceux qui squattent dans les halls en attendant le fric À tous les mecs en son-pri qui ont fait ce métier à risques</t>
+          <t>Tu l'sais Rap Performance, 2005 Ickbal, Nas, Baccardi Pit Hey, reste à l'écoute garçon Mic machette, tu l'sais Baccardi Pit est rappeur de Première Classe, hey Dix-neuvième au 9-4 j'dédicace à tous les lascars Hein, hein, tu l'sais Check, check, hey Microphone masta, le maître des mots Le même démon qu'hier, le monde retient son souffle Les mots m'ont fait naître, XXX leurs prières Mes maux sont guérissables J'démontr aux plus anxieux, j'cultive excllence jamais excédée À c'putain d'trône accéder Venu ici pour l'bahut, la cohue m'a cueilli J'ai troqué mon cahier contre les coups de calibre lyrical Microphone test, un, j'en blesse un, deux M'voilà parmi les best, oh Deux-trois encore qui contestent, OK Bloque ton oreille sur l'poste pas d'popo, juste un flow XXX Pas d'propos à l'eau d'rose ça l'fait pas Quand au mic j'suis trop cool J'rappe pour ceux qui l'aiment frais, saignant Original et authentique, eh Ils ont voulu me la faire, j'ai dit teste pas Le nerf de la guerre, c'est qu'eux ne pèsent pas Le destin a fait d'moi Baccardi l'best J'suis comme une carabine, dès qu'j'suis chargé j'tire N'est-ce pas, ouais négro j'ai bien c'calibre de ghetto superstar Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Profession MC, spécialité briseur de nuques ou de côtes De mort du rap overdose, j'augmente le quota J'utilise ma bouche pas mes poings, ils ont tous des cocards Hey, signé Baccardi Pit comme à l'époque Déjà les mains en l'air, j'ai pas encore braqué Évite l'incartade, sinon c'est castagne À dix sur un comme au temps du cartable C'est des rimes en vrac et des Blacks et des Beurs sur les starting-blocks Préparez-vous, dans la ville y aura du tracas Après BRB, BRR, brigade de répression du rap barbare On va dare-dare régler les litiges façon ter-ter Fais rouler l'beat que les bad boys kiffent Je suis l'kid qui traumatise, j'sais pas comment j'fais, c'est dramatique, non? Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Eh chérie, laisse-moi tremper l'biscuit, dans l'mouv' il fait frisquet C'qui suit, c'est pour les bad boys que j'fais bisquer ici J'suis haï mais j'suis pas là-uic qu'on égorgera le jour de l'Aïd J'suis Baccardi, rap anti-porcs, j'te jure walaye J'suis carrément dingue comme les guerriers Opéré du cur, enterré vif, à votre place bâtards j'me tairais Rappeur unique qui tchatche en XXX Enfouraillé je suis pas, mais à ma gauche des visages rayés qui d'l'enfer connaissent un rayon Toujours busy, parle-moi rap pas business XXX instrus barbares, quand j'sors de là j'suis prisé Ils ont essayé d'mépriser, j'vais les épuiser, rap français maîtrisé Balise, v'là l'sac d'euros dans mes valises Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Et tu l'sais 2-0-0-5 Eh, t'sais quoi, eh Ça c'est Talents Fâchés Rap Performance 2005 Hey, Baccardi Pit, Ikbal, Nas Dans l'dix-neuvième et l'9-4 Machette XXX Music Interdit aux âmes sensibles Eh, reste pas là, reste pas là, eh mauviette Reste pas là, tu l'sais, Baccardi Pit Place des fêtes au 9-4 j'dédicace, hey À tous les lascars, à toutes les ladies Peu importe, couz' C'est du bon R.A.P</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J’Perds Pas La Main En Solo</t>
+          <t>Larmes amères</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>99 Pit Au Mic Première Classe 2ème Opus Premier album, deuxième opus, l'accent sur les mot plus accès vers l'cataclysme pour qu'ce soit la cataplexie J'perds pas la main, après Time Bomb ça donne ça Admire ma vie après ma mort, admire marre-toi, marmonne Les marmot m'aiment, miment mes mots j'suis toujours le même hors normes, comme personne Hormones de croissance? Pas besoin, 1m70 au carreau Guerre des nerfs j'ai l'barreau sur l'beat, grossiers baow! Et les autres disent que j'suis taré! Et écrire? ma manière d'parler sans être interrompu, ça pue la souffrance, ça vire à l'arrogance Et dire que j'voulais stopper tout pour des problèmes de conscience Encore en vie grâce à XXX qui m'a dit vient on s'y lance! S.O.L.O molo, colossal moi le colonel de ma troupe versera couler pour preuve l'odeur de mon polo sale Limité quand faut parler U.N-ité, humilité ou pas, 99 j'vais militer! Lorsque la haine a éclatée réconciliation est fausse me taire ou m'tuer, m'tuer j'choisis quand on est tous dans la fausse Crie à eux la victoire mais quand j'parle de mort dans ces masses de boom boom c'est mourir à l'affront du fric Porte toujours sur les couilles, fracture des cranes dégoûte c'et la qu'tu crame les poules mouillées quand j'vois la réaction des keums J'perds pas la main rappeur en solo, majeur salop dans l'passé, han, mon nom c'est Pit! V'la une réflexion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle Perd pas la main en solo V'la une réféxion baccardi pit Première Classe baccardi pit Faut tout péter C'est maintenant qu'au micro j'vais t'montrer qu'j'ai la dalle La rage dans le mic' Après ça XXX et Ox, XXX, l'Doc, PC et autre Y'a d'quoi enjailler les éditions, option sur l'album boom! Tu en a rêvé Baccardi l'a fait comme XXX à qui j'dédie M'soutiens le boomerang pour les gang dingue Pit bang, big bang bref, faut qu'ils soient sauvés par le gong! C'est une vie entière sur disque, je mise gros en misant seul Faire bisquer ceux qui croyait t'es fou Qu'est-ce qui? y'a plus d'XXX que d'challenge Je change de clan, on dit qu'c'est mon déclin, j'ferais la une ma couille d'Paris à Oklahoma Maintenant qu'la rime paie faisons partie d'ceux qui en profitent J'mène l'utile à l'agréable que demander de plus? Pit a compris l'truc, j'kick au mic, kick la rue Et vise le Hightop des box ou des XXX qui n'a pas faim La guerre se prépare en temps de paix C'est quand tout va bien que j'calcule comment t'baiser Extrait de mon art de la guerre J'ai appris au gorille a faire la grimace J'arriverai avant ces enfoirés qui m'traitent de limace J'ai attrapé cette putain de foutre par la queue Quand j'éteins la lumière, avant qu'il fasse noir j'étais au pieu Baccardi Pit Celui Par qui vient l'scandale!</t>
+          <t>C'est Pit au mic et King Jaïd Sur un air positif Tu l'sais Fa sol la sida La fausse note dans ma mélodieuse vie T'as pas laissé le temps au temps Depuis que t'as mis à la porte maman Autant tu dévores la vie que moi je dialogue avec ma mort Je suis séropositif, je suis sérieux papa J'évite tout rapport avec cette fille Que je t'ai présentée jadis Je suis atteint, regarde cette bougie, c'est ma vie Je suis planté là, je fonds jusqu'à ce que le feu me consume J'ai faim d'amour ouais Mon organisme a une indigestion Je ne vis plus, j'ai beau courir Il y a la mort sur toutes mes directions C'est drôle, hier encore j'avais le sourire aux lèvres Grève dans crâne, je me sens déjà pourrir Mes brèves évasions c'est quand je pense à vous Je t'en veux de vivre cette vie, des va-et-vient de filles Un petit coup et puis s'en vont C'est vieux jeu, en plus tu mets en danger des gens Combien de fois des pleins de grossesse Venant de ces filles jeunes Je suis hémophile, mes mots filent, une transfusion de sang Et voilà que toutes mes images défilent Je vis dans cette danse à feu, file vers l'inconnu les cieux Le seul endroit où j'ai pas encore posé les yeux Fa sol la sida, la fausse note dans ma mélodieuse vie J'envie les bons vivants, je suis sale c'est vrai Mon impureté est-elle volontaire ou c'est le sort qui s'acharne ? Ciel et Terre se disputent mon âme, stoppez ce vacarme J'ai une arme sur la tempe et des larmes à flot Mais je suis trop faible pour appuyer sur cette arme à feu Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père Papa, j'ai le corps qui sèche, ma mémoire flanche J'ai fait sur moi hier, à quoi je suis réduit ? Le diable m'emporte et m'escortera jusqu'à ma dernière demeure Écourte mon rêve Comme cet arbre je voulais mourir au sommet J'ai peur, de partir que les gens pleurent aujourd'hui Et que ma mort devienne une grande fête demain J'ai tué par les pensées mais aimé par les actes Et je me tue à penser que je vais mourir Mais pas par erreur de mes actes Depuis la naissance je suis mal Je suis sur une corde Je suis cette feuille que cet oiseau peut prendre à n'importe quel envol Je suis hémophile moi mon film a vite tourné au glauque Je file un mauvais coton. ça fait vingt-trois piges Je suis en sursis comme si j'étais coupable de naître Condamné à mort avant d'être né Pour y croire faut l'être, être sans avoir été Je suis seul à comprendre, j'apprends à connaître ma mort Je suis un saltimbanque, papa, je tiens aussi à te dire ceci Tu ne seras jamais là pour faire grandir ma fille Jessie Tu sais pas de quoi je parle, je suis trop faible pour te haïr Ton inconscient se fige, je suis le seul à en pâtir Rappelle-toi ton don de ton sang ce 24 décembre Cadeau empoisonné dans mes veines Tu m'as tué papa, je suis mort du sida Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>J’suis seul</t>
+          <t>L’art de la guerre</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Oui tu le sais La solitude, je suis né avec Et un de ses jours je partirai avec J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Semblant de poète à la mémoire chauve Je perds mes réflexes Me noie dans des soucis Ma zik' de l'or pour les pauvres en paix Repose ceux qui de plus en plus ont contemplé le ciel Avant que la foudre ne brise leurs songes En profondeur, je traverse des rivières d'images Ça coule à flot quand je pose le bic sur la marge Je suis l'homme libre à la rime qui pleure, cible d'obus Si jamais je crève qu'on danse sur Prodigy à mes obsèques Jamais vous ne sentirez ma peine Jamais vous ne sentirez la peur dans ma poigne Quand je vous dis bye Vous sentirez pas les pleurs d'un homme célèbre Vous le voyez derrière une vitrine Pourtant la pluie s'abat et la grêle casse les vitres x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec J'crois qu'y a une époque qui séteint Une plaque chauffante qui s'allume C'est mon cur qui chauffe Ne vois tu pas que c'est la mouise sur ma mine ? Célèbre mais triste Mine de rien j'suis le mime d'une réussite désenchantée J'voulais unir mes déchirures, faire la une Blasé, mourir au combat, survivre ou je m'assassine Rester digne, partir en héros alors je rime Quitte a en faire pleurer les mères et mômes C'est ce qui se passe quand j'écris ces lignes Tu veux savoir pourquoi je suis triste? J'suis seul, aidé par le ciel Mal vu par le sol car jexcelle dans mon art Je convoite la paix et la joie J'évite la peur, j'agis Je suis devenu le mur du silence c'est pour ça que je chante Comprends mature Je suis de nature à me livrer Les mots reflètent l'état du cur je vois les sourds délivrés J'ai de la haine j'en veux à des gens à mort Le regard d'un mort porte malheur à celui qui le croise x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes, les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec Ok, Mon son, ma larme Mon écrit, mon son, l'alarme sonne Quand j'dis que j'irai cracher des bombes sur leurs tombes C'est obscène mais observe Tous ce qui se passe n'est qu'un affrontement Sèves de sang, ce rap desséché C'est la merde dans le monde depuis le commencement Harcèlement moral, je balafre à juste cause Déclin depuis le coin de rue c'est ça le juste titre Je veux vivre et juste faire parler mon cur La rue m'observe et me perpétue dans tous ses corps-à-corps Je me noie dans mes abysses Là ou les haches s'abaissent Le drapeau blanc s'immisce Y a que de la verdure sur les collines Broyé par le superflu des guerres L'avenir est dans la brume, je vois ça d'un regard super flou Je m'évade par mes voies magiques, tragiques Dhémorragies c'est de ça qu'il s'agit J'ai la vision d'un rêveur qui voit ses songes comme une part de réel Quand je rêve de ma mort J'crois pas qu'je joue un rôle x2 J'suis seul dans ce monde t'sais Mes mots dirigent et construisent ma vie d'artiste Mes douleurs sont lourdes les plaies s'élargissent La solitude, j'suis né avec Et un de ses jours je partirai avec</t>
+          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>K’1frystyle</t>
+          <t>La Rue</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Freestyle racaille, c'est là qu'on s'introduit Pour Pit Baccardi C'est moi qui tient les commandes C'est moi qui conduit Rohff Ouais gros Kery James Mafia K'1Fry Mafia Africaine Sur l'son de DJ Mehdi Ouais ça déchire Première Classe En place en place ! En place, vas-y, Kery James Dans l'Rap, j'm'en bats les couilles j'me balade en slip comme à la maison Et l'premier qui m'casse les couilles j'l'embrouille sans aucune raison Tandis que mes res-frè plus de 100 kilos débitent Tandis que plus de 100 rappeurs ont sucé des bites Alors d'une, j'aimerais en placer une pour tous mes frères Deux, j'couperais en deux plus de trois mes adversaires J'fais mon entrée, et deux trois te-tê tranchées d'entrée L'haïtien, par réputation le magicien, théoricien, ancien rap mathématicien, technicien, style de flow de caille-ra détient Laïcien par obligation, le musicien, physicien Rap de tueur, rap assassin ! C'est moi qui possède le style flow de caille-ra mec Au M.I.C j'procède à la Wu, protect your neck Combien d'entre nous portent la cagoule et les gants Mafia Africaine, quinze boug' parmi les plus élégants K'1 Fry Style mafia, quand j'froisse le mic' j'mets pas les gants ! Pas d'mains en l'air, ranges tes molaires, donc n'y mets pas les dents ! Dans les mots rap et clash, j'compte sur une centaine pour moi seulement Celui qui déclencha les règles des rappeurs putes tout récemment J'ai reçu mon diplôme de haute rapologie Si y'a plagiat à la PJ ensuite enfilade d'anthologie des mecs n'attendent que ça se faire des rappeurs farfelus Qui se transforment en j'te jure, ça j'l'ai pas On va pas refaire le jugement de certains mecs famés Mais juste une petite remise à l'heure, j'te promets, il fallait À tous ceux qui n'cessent de mettre leurs nez dans nos affaires Qu'ils continuent plutôt de mettre leurs affaires dans leurs nez Sers tes sses-f ou tu vas bruit de pet Ici c'est Rohff, c'est mauvais signe MC, ouais toi là, j't'assassine J'affirme puis confirme, j'te nique, j'me la raconte pas T'as beau faire l'nerveux au mic', sapé caille-ra pour moi ça compte pas J'm'en fous d'ta morale de pute, trou d'u-c là, j't'éduque Tu joues l'balèze dans l'Rap, j'sais qu't'as pas d'couille pour faire certains trucs Ça change rien qu'tu sois un chaud ou une mauviette J'tiens à c'que l'auditeur mélange pas l'PQ et les serviettes En direct, mon style fait boum boum dans ta tête Hagra partie, sans confettis j'te fais ta fête T'inquiètes pas, pour moi, gros j'hésite pas Mon machtok fait clic ensuite pah C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken Laisse-moi dégainer le bad style qui fera jump up toutes les racailles Le freestyle en rafale qui finira par foutre la caille J'veux juste une réalité, le bitume espoir de thunes De mec qu'on fume pour une thune, l'amertume rimes d'aciers glacées, frotte un Colt Une arme, m'importe le verdict, ma rime est un Colt Combien s'en sortent face à mon flow et mon escorte ? Combien de la compétition se voient rayés de la sorte ? Lorsqu'on exporte un bon son rude pour les mecs du Sud On tit-sor un bon son hardcore pour les mecs du Nord Issu de la Terre-Mère, le style reste universel Néanmoins, nous optons pour une Mafia Africaine Apocalypse agit moins peu plié Païen payé pour voir que mon croyant sent mon rap Bruit de crachat dans vos gueules et bien appuyé Pile-poil pour putes poilues qui font les squales Pas plumes, pas lourds Et qui s'branlent parce que y'a mon nom sur leurs polos Mon palier s'élève à beaucoup d'golgotes qui s'croient dans Stargate mais qui virevoltent entre ma merde et c'qui y'a en dessous La star guette, ma gueule coute c'que j'dégueule sur beat brut Goutte pas mes couilles, dans cette capote j'ai laissé quelques gouttes Connard, insultant comme le ciel le permet pas Un salaud, à patate noir qui a rendu ce vieux tou-bab raciste bleu Insultant comme ma merde qui sent mieux qu'toi Tu pues toi et ferme ta gueule, appelle-moi sultan Entrée fulgurante, c'est là tout d'suite que j'te la rentre Histoire qu'j'démontre devant tout l'monde qu'ton rap j'l'égorge, j'l'éventre Situation angoissante, ta femme en est souriante Ma voix éblouissante la rend beaucoup plus charmante MC tu pues d'la gueule, là j't'apporte le flow bonbon à la menthe Qui rafraichit l'haleine, rigole, elle est marrante Kiffe cette façon tranquille de te mettre à l'amende Pas d'compet' connard, comme falche cheval d'course à la montre Hagrator qui l'encule à tort, star dans les parages MC j'te dévore de plus en plus fort à cause de la rage V'là l'machin, bête d'engin qui sort pas d'un garage Mec de Vitry, jai la voix hache Jtapplatis comme le cul dune nois-ch On fait du nettoyage Là il y a des textes, là où il y a des zoulous bizarres On brille par le prestige et la prestance La classe africaine on représente Ouais, du Demi-Lune Zoo au 19ème cest élégance Tes raps abdominales, au ptit déj chacun on en prend deux, minable Pour bigleux orgueil de vision propre et à la solution fiable Patate dans lil gauche en enfonçant le doigt dans lil droit Tu verras du noir, au moins tu diras pas qutu vois rien, bâtard Pit sur beat cest comme quand ça pète dans les blocs Glock lyrical, jai un 16 rimes toujours dans mon fut, demande à De suite on rêve dans lrap et dans la chanson Un rappeur producteur qui génère ses millions x3 C'est Pit au mic' et la Mafia Africaine Arrogants avec qui l'mérite, et là l'ennemi on ken Style élégant, du 19 à Vitry-sur-Seine Rohff, Kery et Pit c'est brut, jetez vos Heineken1</t>
+          <t>La rue a fait de moi ce que je suis x2 La rue c'est gris et bleu Le rêve, l'ambition, les cris et pleurs Une rue sans rebondissements c'est comme le Père-Lachaise sans mort C'est mort le shit, chiotte les stups avaient le chic D'avoir le contact avec certains de nos types Pour nos mères, le choc en apprenant le train de vie de chacun On deale c'est comme marcher sur un champ de mines les yeux bandés Notre hymne sexe, pouvoir et biftons, ça te choque, faut pas Pourtant on sait qu'ils sont là à chaque coin de rue À chaque coin son clan, à chaque clan son chef Et pour chaque chef un petit teigneux pour prendre sa relève Frère par ci, soss par là Beaucoup préfèrent les ennemis car avec eux on sait où on en est Mon son dans les caisses et on me dit Pit tu pèses Suffit pas d'être à table et dire qu'on mange pour avoir l'assiette pleine Nirvana, qu'on nous vire là-bas On se pane à vouloir être des Dieux dans cet impur Paname On crame un joint, on crâne en jouant aux plus maquereaux L'enjeu, montrer au monde que ça paie le crime Du drame au comique, des places à La Muette Des gaches à benzèle, dans tous les halls le même chant des mouettes Tous la même direction mais pas le même itinéraire Tous la même guerre mais pas les mêmes armes Tous les mêmes envies mais pas la même soif Pour montrer qu'on est tous différents mais de la même race x2 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits Ouais je me suis proclamé ghetto ambianceur On danse avec les anciens, les ex-taulards et même les exclus Mon texte tue les innocents coupables de trahison Chez nous mon sexe sue quand j'mets couilles sur table Pour quelconques disputes Si on se dit potes, laisse moi te mater de profil Je me mets dans la fosse exprès pour voir si tu vas me recouvrir de boue Le vent souffle, les branches tombent, les arbres restent de marbre Mais violente est leur mort, par la racine on vient les sabrer Branche comme dealer, arbre comme grossiste Je t'explique au risque d'être incompris dédié aux absents par l'amour du risque Ma rue c'est mon Platoon, mon film de guerre, mon cartoon Y'a pas que malédiction et amertume qui errent L'air de rien nous sommes des riens qui voulons tout C'est tout ou rien on vit de rien et il s'en faut de peu pour vivre de rien Vivre en attendant de mourir, courir derrière les chimères Quand il y a plus de fait c'est ce qu'il faut on le fait Mais il faut parfois en tirer des leçons La mienne jamais commencer sa vie par sa fin, négro L'homme n'est que le résultat de ses actes On pactise avec le diable ici en croyant que tout ça est éternel Chez l'éternel, celui du haut je me souviens pas du reste Et si je pouvais faire le destin, je mettrais un lumière à la face cachée de la rue Pour chasser l'ombre et transformer nos ruelles en avenues x4 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits La rue a fait de moi ce que je suis x61</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>La légende</t>
+          <t>Le bal des meurtriers</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Tu l'sais Rap Performance, 2005 Ickbal, Nas, Baccardi Pit Hey, reste à l'écoute garçon Mic machette, tu l'sais Baccardi Pit est rappeur de Première Classe, hey Dix-neuvième au 9-4 j'dédicace à tous les lascars Hein, hein, tu l'sais Check, check, hey Microphone masta, le maître des mots Le même démon qu'hier, le monde retient son souffle Les mots m'ont fait naître, XXX leurs prières Mes maux sont guérissables J'démontr aux plus anxieux, j'cultive excllence jamais excédée À c'putain d'trône accéder Venu ici pour l'bahut, la cohue m'a cueilli J'ai troqué mon cahier contre les coups de calibre lyrical Microphone test, un, j'en blesse un, deux M'voilà parmi les best, oh Deux-trois encore qui contestent, OK Bloque ton oreille sur l'poste pas d'popo, juste un flow XXX Pas d'propos à l'eau d'rose ça l'fait pas Quand au mic j'suis trop cool J'rappe pour ceux qui l'aiment frais, saignant Original et authentique, eh Ils ont voulu me la faire, j'ai dit teste pas Le nerf de la guerre, c'est qu'eux ne pèsent pas Le destin a fait d'moi Baccardi l'best J'suis comme une carabine, dès qu'j'suis chargé j'tire N'est-ce pas, ouais négro j'ai bien c'calibre de ghetto superstar Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Profession MC, spécialité briseur de nuques ou de côtes De mort du rap overdose, j'augmente le quota J'utilise ma bouche pas mes poings, ils ont tous des cocards Hey, signé Baccardi Pit comme à l'époque Déjà les mains en l'air, j'ai pas encore braqué Évite l'incartade, sinon c'est castagne À dix sur un comme au temps du cartable C'est des rimes en vrac et des Blacks et des Beurs sur les starting-blocks Préparez-vous, dans la ville y aura du tracas Après BRB, BRR, brigade de répression du rap barbare On va dare-dare régler les litiges façon ter-ter Fais rouler l'beat que les bad boys kiffent Je suis l'kid qui traumatise, j'sais pas comment j'fais, c'est dramatique, non? Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Eh chérie, laisse-moi tremper l'biscuit, dans l'mouv' il fait frisquet C'qui suit, c'est pour les bad boys que j'fais bisquer ici J'suis haï mais j'suis pas là-uic qu'on égorgera le jour de l'Aïd J'suis Baccardi, rap anti-porcs, j'te jure walaye J'suis carrément dingue comme les guerriers Opéré du cur, enterré vif, à votre place bâtards j'me tairais Rappeur unique qui tchatche en XXX Enfouraillé je suis pas, mais à ma gauche des visages rayés qui d'l'enfer connaissent un rayon Toujours busy, parle-moi rap pas business XXX instrus barbares, quand j'sors de là j'suis prisé Ils ont essayé d'mépriser, j'vais les épuiser, rap français maîtrisé Balise, v'là l'sac d'euros dans mes valises Baccardi, gonflé du mental jusqu'aux jambes cousin Va dire au peuple qu'ma mort n'était qu'une légende, hey Mes poignards sont dans mes textes, pas dans mes poignets Jamais à contretemps, l'équipe, c'est moi qui mène la danse Et tu l'sais 2-0-0-5 Eh, t'sais quoi, eh Ça c'est Talents Fâchés Rap Performance 2005 Hey, Baccardi Pit, Ikbal, Nas Dans l'dix-neuvième et l'9-4 Machette XXX Music Interdit aux âmes sensibles Eh, reste pas là, reste pas là, eh mauviette Reste pas là, tu l'sais, Baccardi Pit Place des fêtes au 9-4 j'dédicace, hey À tous les lascars, à toutes les ladies Peu importe, couz' C'est du bon R.A.P</t>
+          <t>C'est l'bal des meurtriers !</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Larmes amères</t>
+          <t>Le club des millionnaires</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>C'est Pit au mic et King Jaïd Sur un air positif Tu l'sais Fa sol la sida La fausse note dans ma mélodieuse vie T'as pas laissé le temps au temps Depuis que t'as mis à la porte maman Autant tu dévores la vie que moi je dialogue avec ma mort Je suis séropositif, je suis sérieux papa J'évite tout rapport avec cette fille Que je t'ai présentée jadis Je suis atteint, regarde cette bougie, c'est ma vie Je suis planté là, je fonds jusqu'à ce que le feu me consume J'ai faim d'amour ouais Mon organisme a une indigestion Je ne vis plus, j'ai beau courir Il y a la mort sur toutes mes directions C'est drôle, hier encore j'avais le sourire aux lèvres Grève dans crâne, je me sens déjà pourrir Mes brèves évasions c'est quand je pense à vous Je t'en veux de vivre cette vie, des va-et-vient de filles Un petit coup et puis s'en vont C'est vieux jeu, en plus tu mets en danger des gens Combien de fois des pleins de grossesse Venant de ces filles jeunes Je suis hémophile, mes mots filent, une transfusion de sang Et voilà que toutes mes images défilent Je vis dans cette danse à feu, file vers l'inconnu les cieux Le seul endroit où j'ai pas encore posé les yeux Fa sol la sida, la fausse note dans ma mélodieuse vie J'envie les bons vivants, je suis sale c'est vrai Mon impureté est-elle volontaire ou c'est le sort qui s'acharne ? Ciel et Terre se disputent mon âme, stoppez ce vacarme J'ai une arme sur la tempe et des larmes à flot Mais je suis trop faible pour appuyer sur cette arme à feu Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père Papa, j'ai le corps qui sèche, ma mémoire flanche J'ai fait sur moi hier, à quoi je suis réduit ? Le diable m'emporte et m'escortera jusqu'à ma dernière demeure Écourte mon rêve Comme cet arbre je voulais mourir au sommet J'ai peur, de partir que les gens pleurent aujourd'hui Et que ma mort devienne une grande fête demain J'ai tué par les pensées mais aimé par les actes Et je me tue à penser que je vais mourir Mais pas par erreur de mes actes Depuis la naissance je suis mal Je suis sur une corde Je suis cette feuille que cet oiseau peut prendre à n'importe quel envol Je suis hémophile moi mon film a vite tourné au glauque Je file un mauvais coton. ça fait vingt-trois piges Je suis en sursis comme si j'étais coupable de naître Condamné à mort avant d'être né Pour y croire faut l'être, être sans avoir été Je suis seul à comprendre, j'apprends à connaître ma mort Je suis un saltimbanque, papa, je tiens aussi à te dire ceci Tu ne seras jamais là pour faire grandir ma fille Jessie Tu sais pas de quoi je parle, je suis trop faible pour te haïr Ton inconscient se fige, je suis le seul à en pâtir Rappelle-toi ton don de ton sang ce 24 décembre Cadeau empoisonné dans mes veines Tu m'as tué papa, je suis mort du sida Je pleure des larmes ma mère, coupable d'être né J'apprends à vivre ma mort, mon sang est noir Comme mon heure dernière Atteint malgré moi, j'en veux au père</t>
+          <t>Dans ce pays, il faut d'abord faire le fric et quand tu as le pognon, tu as le pouvoir et quand tu as le pouvoir, tu as toute les bonnes femmes Pit au mic, 360, Thibaud aux manettes, Issa aux platines Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa J'ai ma propre école de école, filles, rates et drôles de dames Style des 4 coins du monde et mes potes font la ronde ?????, des gos qu't'imagines man J'ai l'feeling, et les meufs finissent par craquer Pour mon hip-hop de quartier, 1010 Les putes, elle m'ont notées pour mes tennis Et mon but, cartonner Pas d'flûte chez Kenobi Mon crew Jedi, Sky n'oublie pas d'cartonner Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé c'est ma go moi Eddy, mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis, si tu m'touches, tu vas tellement transpirer qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Les gars flippent, trop tard faut qu'je les étripe J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Chope le coup d'Eddy et tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Mais il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée un tas de morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi notre nom c'est Time Bomb, Black Mafia Passe Passe, 360 degrés, Thibaud, 9.7, rap comme un mac X-Men, stars du X, Ill Vient on ken chérie, on lime, du sexe sauvage devant la glace encore en âge hystérie Ventilo, clim', glace Ben Jerry's, prend le stylo faut le tel illico tang band série Alors on va à lhôtel, au tel-ho cinq étoiles, des tops-modèles, tape un mélodrame comme si je m'appelais Othello Puis un sein se dévoile enfin l'string Elle vous dit qu'elle porte ou du slim Dis donc on lui explose le cul quatre pattes, moi plus dix potes au dada on lui fait bobo Sous la jupe puis dodo alors nana, t'as néné ? Comme un bédo d'popo Quand c'était chaud sans chichi, tu nous a appeler coco ou chouchou Ca se pète comme une go, ça se pète, ouvre dont le Dom Pérignon Chérie, crie I love very much quand j'roule des teuch' avec mes négros On rend même les lesbiennes chiennes hétéros, sexe, gros mots sodo, sperme sous les lolos Tu crois que ça te choque ? Les gars, les go hypocrites1</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>L’art de la guerre</t>
+          <t>Le monde nous appartient</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
+          <t>Quand j'rappe c'est l'message, assagi avec l'âge J'vais éviter aux frères de vivre dans l'mensonge Puisqu'il faut une voie, je servirai d'guide Moi j'ai pas eu cette chance d'avoir un leader J'm'implique parce que j'ai des p'tits frères Et quand j'kicke, c'est comme si j'leur donnais du bonheur sans fric On l'accepte pas mais ils nous prennent comme exemple En Afrique, t'imagins même pas l'déclic Demande à Bisso, t quand j'y pense On crée avec le cur c'qu'on voit et c'qu'on imagine J'ai pas l'bac, juste ma maîtrise de rimes J'suis p't-être mieux mais j'suis vierge dans l'crime Et c'est à ça qu'j'veux qu'on arrive tous Le ghetto j'connais, j'te parlerai pas d'ça Y a d'autres choses dans la vie qu'on connaît pas Comme vivre libre et voir autre chose que les flics Et des barreaux à travers lesquels on cherche la fuite Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un On aime dire qu'on est bannis de Dieu Mais on doit taffer deux fois plus pour s'imposer, vieux Te demande pas pourquoi, y a des problèmes de riches et des problèmes de pauvres Les différences existent Pour qu'on voie nos vies comme le monde, grandes Faut qu'on rêve, le paradis est immense On s'tape, qu'ce soit dans la zik ou sur un playground Faut qu'nos sueurs deviennent des flaques d'eau Pour pouvoir dire j'ai du fric qui coule des robinets Même là-faut, ils ont peur de nous parce qu'ils savent Que leur avenir dépend d'nous Et si les jeunes s'unissaient, tu crois qu'la pression, ils ne l'auraient pas L'ignorance tue, on a des têtes, des bras et des jambes Et tous ensemble, on forme un corps J'veux qu'tu m'écoutes et que tu m'comprennes S'unir sera la solution au problème Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un Ils disent que j'dois être Anelka, Wiltord ou Henry Avoir des disques d'or comme Neg' Marrons ou Pit Baccardi Aide-toi et l'Ciel fera l'reste Dans c'monde, si tu est boiteux, tu crèves J'vis pas caché mais dans mon crâne j'planque une gâchette Si tu m'emmerdes, j't'envoie chier Et si c'est un flic, j'passe mon frère Car mon combat est ailleurs Dans une bavure, on perd toujours, faut qu'vous l'sachiez J'suis venu pour être, pas pour paraître Cette image ghettoïsée du rap doit disparaître On est venu franchir les barrières, les laisser sur l'cul En cas d'malaise, y a tout c'qui faut à l'intérieur Notre histoire commence quand la leur finit On est partout, dans l'sport, la pub, même au ciné On vient à la porte d'une France calcinée On a brûlé les étapes afin d'graver nos noms dans la pierre Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un</t>
         </is>
       </c>
     </row>
@@ -1512,12 +1512,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>La Rue</t>
+          <t>Le poids des maux</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>La rue a fait de moi ce que je suis x2 La rue c'est gris et bleu Le rêve, l'ambition, les cris et pleurs Une rue sans rebondissements c'est comme le Père-Lachaise sans mort C'est mort le shit, chiotte les stups avaient le chic D'avoir le contact avec certains de nos types Pour nos mères, le choc en apprenant le train de vie de chacun On deale c'est comme marcher sur un champ de mines les yeux bandés Notre hymne sexe, pouvoir et biftons, ça te choque, faut pas Pourtant on sait qu'ils sont là à chaque coin de rue À chaque coin son clan, à chaque clan son chef Et pour chaque chef un petit teigneux pour prendre sa relève Frère par ci, soss par là Beaucoup préfèrent les ennemis car avec eux on sait où on en est Mon son dans les caisses et on me dit Pit tu pèses Suffit pas d'être à table et dire qu'on mange pour avoir l'assiette pleine Nirvana, qu'on nous vire là-bas On se pane à vouloir être des Dieux dans cet impur Paname On crame un joint, on crâne en jouant aux plus maquereaux L'enjeu, montrer au monde que ça paie le crime Du drame au comique, des places à La Muette Des gaches à benzèle, dans tous les halls le même chant des mouettes Tous la même direction mais pas le même itinéraire Tous la même guerre mais pas les mêmes armes Tous les mêmes envies mais pas la même soif Pour montrer qu'on est tous différents mais de la même race x2 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits Ouais je me suis proclamé ghetto ambianceur On danse avec les anciens, les ex-taulards et même les exclus Mon texte tue les innocents coupables de trahison Chez nous mon sexe sue quand j'mets couilles sur table Pour quelconques disputes Si on se dit potes, laisse moi te mater de profil Je me mets dans la fosse exprès pour voir si tu vas me recouvrir de boue Le vent souffle, les branches tombent, les arbres restent de marbre Mais violente est leur mort, par la racine on vient les sabrer Branche comme dealer, arbre comme grossiste Je t'explique au risque d'être incompris dédié aux absents par l'amour du risque Ma rue c'est mon Platoon, mon film de guerre, mon cartoon Y'a pas que malédiction et amertume qui errent L'air de rien nous sommes des riens qui voulons tout C'est tout ou rien on vit de rien et il s'en faut de peu pour vivre de rien Vivre en attendant de mourir, courir derrière les chimères Quand il y a plus de fait c'est ce qu'il faut on le fait Mais il faut parfois en tirer des leçons La mienne jamais commencer sa vie par sa fin, négro L'homme n'est que le résultat de ses actes On pactise avec le diable ici en croyant que tout ça est éternel Chez l'éternel, celui du haut je me souviens pas du reste Et si je pouvais faire le destin, je mettrais un lumière à la face cachée de la rue Pour chasser l'ombre et transformer nos ruelles en avenues x4 Je crois à la peur, à la vengeance et au châtiment Honneur aux gens qui font peu de place aux sentiments Malgré tout ça je renie pas l'endroit où j'ai grandit Dans ce monde fait d'oufs, de cons et de bandits La rue a fait de moi ce que je suis x61</t>
+          <t>Chaque mot a son importance Chaque mot a son sens Ne jamais sous-estimer le poids d'un mot Et tu l'sais Chaque rime est millimétrée J'm'exprime même pour les illettrés On m'félicite, on m'respecte pour mes écrits Je crée, et j'parle pour l'peuple J'viens apaiser les vies, j'mens pas C'est sincère, c'est cru, les mots blessent Au monde j'écris mes lettres de noblesse J'rassemble les égarés comme à la messe et prie Que le monde soit bercé par l'chant des mouettes J'écris Pour apaiser les âmes J'gaspille d'l'encre J'me torture le ventre vide J'plane Pour atterrir dans l'cur des gens Tant qu'y a d'l'âme y a d'la vie Tant qu'y a la vie, j'ai mon arme Mon arme, c'est le poids de mes écrits J'fais rire, j'fais pleurer, j'fais même pleurer d'rire J'fais partie de ton avenir Les mots sont le commencement des actes Je berce vos songes, avec ma voix tu signes un pacte Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai cette image de mec triste Parce que mes mots pleurent Et qu'j'ai la rime désenchantée C'est quand j'ai du mal à supporter le poids des mots Que j'm'abats sur la feuille Un mot bien placé Redonne une vie à un couple Les mots mal placés Entraînent des guerres de peuple et l'souk Dans l'éducation des mioches, les mots Ont des répercussions qu'on n'maîtrise pas J'assume mes dires, j'ai appris à lire et à comprendre Si j'te dis va chier, c'est qu'tu l'mérites Chaque rime a son sens, chaque rime a sa vie Chaque rime a son importance Chaque rime est pesée, pensée Combien d'fois j'ai blessé Avec des paroles déplacées Combien d'fois j'ai baissé la garde Lorsqu'avec des mots, on a brisé mes songes Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai d'la haine à revendre, d'l'amour à donner J'veux m'faire comprendre pour être pardonné Par ceux qui m'aimaient À qui j'ai pas su rendre J'ignore le geste, m'exprime avec des mots J'vais rendre mon âme aux cieux Quand j'me serai bien fait entendre C'est la paix que j'veux répandre Il pleut, abrite-toi sous ma vérité J'ai la rime imperméable Le poids d'un je t'aime d'une mère à son gosse en cellule D'un va chier d'Baccardi aux ploucs de l'industrie D'un aidez-moi d'un Somalien au monde Les mots pèsent, les mots m'ont fait, m'ont défait d'mes maux On bâtit nos empires dans la benne On parle de crimes quand nos écrits sont bafoués Chaque mot est un souffle Chaque mot est une période de ma vie Et tu l'sais Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes</t>
         </is>
       </c>
     </row>
@@ -1529,12 +1529,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Le bal des meurtriers</t>
+          <t>Le public respecte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>C'est l'bal des meurtriers !</t>
+          <t>Ici Secteur Ä Pour les années deux-triple-zéro Message aux équipes en pole-position Aux troupes sur les lignes de front Message à ceux qui ensemble, sont restés forts Et à ceux qui sont morts En changeant d'bord Ouais j'reviens avec mon équipe C'est pas un solo, mais j'dis c'que j'veux Quand j'débute en Preum's et kiffe sur le beat Avec Jacky et Pit, Ben-J Lino Janik On vient foutre le zbeul ou la panique, tout remettre sur orbite La route est dure elle est sinueuse Et c'est près d'elle que j'habite En deux-triple, perds pas ton temps à t'grattrer la bite Secteur Ä acceptés à nouveau, blessés mais pas morts Pera encore plus fort, un noyau plus dur encore Donne-leur la bonne musique et le public respecte Pourquoi le taire, Secteur Ä n'est pas une secte Quand sur le tréma plane une atmosphère suspecte Un nouveau son, c'est c'que répètent tous ceux qui nous inspectent Ceux qui persistent à nous dire qu'c'est pas clair, donc pas net Ceux qui tiennent les commandes, y a ceux qui tiennent les manettes Pour eux un trip collectif, plusieurs stylos d'un même texte Une graine de résistance on glisse mais faut qu'elle germe dans nos textes Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs Ici on fait pas d'comédie on est passés dans l'satellite On va pas en faire une tragédie même si on agit en équipe réduite Encore plus de rage dans nos écrits purs bandits sarcelites Que d'la tuerie dans mon écurie on est là et on milite Qu'est-ce tu dis? J'ai du siècle à m'en remettre de ce cycle espiègle Ce disciple m'harcèle putain l'diable veut des parcelles de notre cercle J'vois ça d'un il glauque L'eau qui tombe goutte à goutte Brise le dur rocher mais l'Noyau Dur est infracturable La famille A tréma trime et s'voit méprisée On a autant d'amis qu'il y a d'Noirs à l'Élysée On vous parle morse Regarde mon torse XXX, téma ils veulent nous mettre XXX demande à Cky-Ja ça s'corse Mais trop d'fierté, trop d'honneur pour verser une larme Le Noyau Dur resserre les rangs et pour l'avenir on s'arme Noir comme ces accords, j'exprime ma rancur Cur encore plus dur et froid qu'un diable au grand cur Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs En deux-triple-zéro, c'est toujours la même clique Noirs super-héros stars contre l'État et ses flics Trip en costard triques dans l'falzar Holsters au sommet on tire, ils s'agenouillent devant nos posters Ils ont voulu tricard notre beat Le tier-quar ils disent un noir au top, c'est un loup dans la bergerie Nous on gamberge des plans d'dingue Invasion d'la France en clan, Secteur Action colle à ton flingue C'est pas d'chance pour ceux qui pensaient pas nous revoir si vite Il en faut plus pour nous mettre hors service La rime paie mais cette réussite les dérange, ça les irrite Ils ont l'vice mais moi j'ai l'tournevis Fidèles à la base, on s'mobilise Quoi qu'ils disent, non le Noyau Dur lâchera pas prise On reste soudés tant que le taf se concrétise On avance ensemble et c'est comme ça qu'on s'organise Ben-J vient chanter! Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs</t>
         </is>
       </c>
     </row>
@@ -1546,12 +1546,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Le club des millionnaires</t>
+          <t>Les évadés</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Dans ce pays, il faut d'abord faire le fric et quand tu as le pognon, tu as le pouvoir et quand tu as le pouvoir, tu as toute les bonnes femmes Pit au mic, 360, Thibaud aux manettes, Issa aux platines Je suis le fuck master sex des bitchs, de Paris à Beach Miami Encaisse mon style et kiffe ma face lady On a notre propre école de fan Façon barbare, j'te montre ma barre, style Tarzan string léopard Écris le nom d'ma clique, Time Bomb, Malka, Pit Du 19e au 20e, en passant par ma cave mec Les mecs de Time Bomb ne boostent pas d'épaves On n'fait pas de chichi, enlève ton soutif et ton caleçon Whisky, Coca, Baccardi, saoule-toi chérie Puis on joue à Jacques a dit, des petits mouvements saccadés Dans mon sac à dos, y a pas de potes-ca, si t'es mon pote gars Passe-moi une négro pour que j'la vaille-tra Les bitchs m'aiment, comme les X-Men aiment les femmes Si ton lascar tombe en panne Fais un tour dans ma cabane d'Ali Baba T'inquiète pas les 40 voleurs n'y sont pas Mais le trésor y est, c'est parti pour la salsa J'ai ma propre école de école, filles, rates et drôles de dames Style des 4 coins du monde et mes potes font la ronde ?????, des gos qu't'imagines man J'ai l'feeling, et les meufs finissent par craquer Pour mon hip-hop de quartier, 1010 Les putes, elle m'ont notées pour mes tennis Et mon but, cartonner Pas d'flûte chez Kenobi Mon crew Jedi, Sky n'oublie pas d'cartonner Six heures et quart mardi, gare du nord Mon steak arrive en retard et m'dit, qu'elle esquivait son lascar Baby, j'ai mis de côté mes beaux toutous Mis mes boots neuves et l'même slip léopard que Mobutu Quand un gars m'interpelle et m'dit Hé c'est ma go moi Eddy, mes gars vont te tabass' jusqu'à samedi J'lui dis Tu sais pas qui j'suis, si tu m'touches, tu vas tellement transpirer qu'tes potes vont tappeler douche Tout de suite, j'prends 110 kilos Mes sapes craquent et mes crocs grandissent illico J'pousse un bad cri, sale trip, mes bras triplent Les gars flippent, trop tard faut qu'je les étripe J'en attrape 2, j'les attache par les lacets Ils m'servent de nunchaku et 12 tombent à chaque coup Chope le coup d'Eddy et tape jusqu'à fatiguer Une longue longue patate le balance jusqu'à Hong Kong Mon coup de boule dans le sol est si destructeur Qu'il faut 2 échelles de Richter pour calculer le choc Mais il en reste un, je l'suis jusque dans le RER C'est sûr personne n'échappe au super, justicier sans pitié Black mafioso mac, le pote à Mars Vlavo, jamais de taf bâclé Arrivé à Saint-Michel je l'bloque J'prends mon élan pour l'cogner et manque le motherfuck J'crois que j'ai fais une grosse bêtise Explosion, érosion accélérée un tas de morts en nombre Ils n'ont jamais su qui c'était mais bon, toi tu sais maintenant Pourquoi notre nom c'est Time Bomb, Black Mafia Passe Passe, 360 degrés, Thibaud, 9.7, rap comme un mac X-Men, stars du X, Ill Vient on ken chérie, on lime, du sexe sauvage devant la glace encore en âge hystérie Ventilo, clim', glace Ben Jerry's, prend le stylo faut le tel illico tang band série Alors on va à lhôtel, au tel-ho cinq étoiles, des tops-modèles, tape un mélodrame comme si je m'appelais Othello Puis un sein se dévoile enfin l'string Elle vous dit qu'elle porte ou du slim Dis donc on lui explose le cul quatre pattes, moi plus dix potes au dada on lui fait bobo Sous la jupe puis dodo alors nana, t'as néné ? Comme un bédo d'popo Quand c'était chaud sans chichi, tu nous a appeler coco ou chouchou Ca se pète comme une go, ça se pète, ouvre dont le Dom Pérignon Chérie, crie I love very much quand j'roule des teuch' avec mes négros On rend même les lesbiennes chiennes hétéros, sexe, gros mots sodo, sperme sous les lolos Tu crois que ça te choque ? Les gars, les go hypocrites1</t>
+          <t>Diagnostic j'suis qu'un voyou suicidaire comme le Hamas T'as le choix c'est Gaza ou une menace au Kalash Vingt-deux ans fermes dans le même horizon j'ai pris une longue peine Donc j'ai droit à cinq minutes d'évasion Moi j'ai pas eu mon bac mais toujours la BAC au cul J'ai violé les bacs et j'ai fait un tas d'cocus Y a qu'a voir les bancs du commissariat Pas d'étude, pas de carrière, trop de parias, trop de barrières Nique sa mère, tricard traqué comme dans mon six titres Faut qu'on m'acquitte qu'on soit quitte Rim-K et Pit C'est sordide, la vie est triste, mais mon corps me guide J'ai plus rien à foutre j'ai pas peur de tomber dans le vide Banlieusard, c'est pas un hasard, mon peuple en chien Je montre pas quand j'suis mal, j'suis comme devant un chien Quoi de neuf poto? Rien, le boss c'est l'franc C'est dramatique comme une grenade dans un jardin d'enfants On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites À chaque crime c'est un mec qu'on enferme, à chaque rime c'est un frère qui s'évade À chaque cri, c'est qu'il y a un soss qu'on enterre La terre tourne et j'fais du surplace Je franchis les barrières écris des rimes noires sur papier glacé Cette vie m'fait chier, sachez Que j'viens me lâcher pas mâcher les mots Vas chier si mon faciès taché t'empêche de valser J'rappe pour que mes négros fassent yes Là j'ai d'un jet craché cette haine qui me motive Fais chier putain J'voulais vivre dans la paix, pas dans le péché Le truc c'est s'repentir avant l'arrivée de la Faucheuse On vient d'là où la haine s'exprime par l'sourire Du pire je viens bâtir un empire et dire au monde Que j'aspire à la paix, pas à la guerre comme on a pu le lire Tant que j'respire j'espère On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites Rim' K du 113 sors d'ton blockhaus, deux feuilles, une clope J'suis avec mes blackos, mes bicots, y a aucune kheb Entre nous on s'aime gros, mon équipe c'est du seum Tu sais c'qu'on sème et quand j'mourrai j'serai seul J'serai seul comme quand je flanche sur ma feuille, seul Comme face à ces tas d'flics qui m'en veulent, seul Comme quand je suis venu Seul j'm'évade, seul j'marche car j'finirai seul dans mon cercueil J'suis à 113 degrés dans l'baromètre Grillé à cinq kilomètres, j'essaye d'être honnête Mais ils en font trop mec et ça faut l'reconnaître Citation à comparaître dans toutes nos boîtes aux lettres Toujours aussi froid le cur empli de gros cris Le monde m'a trahi ma couille, nos vies c'est pas les tropiques On craque parce que c'est l'gnouf dans nos crânes J'veux pas finir crade ou shooté dans l'crack On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites</t>
         </is>
       </c>
     </row>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Le monde nous appartient</t>
+          <t>Le Titulaire</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Quand j'rappe c'est l'message, assagi avec l'âge J'vais éviter aux frères de vivre dans l'mensonge Puisqu'il faut une voie, je servirai d'guide Moi j'ai pas eu cette chance d'avoir un leader J'm'implique parce que j'ai des p'tits frères Et quand j'kicke, c'est comme si j'leur donnais du bonheur sans fric On l'accepte pas mais ils nous prennent comme exemple En Afrique, t'imagins même pas l'déclic Demande à Bisso, t quand j'y pense On crée avec le cur c'qu'on voit et c'qu'on imagine J'ai pas l'bac, juste ma maîtrise de rimes J'suis p't-être mieux mais j'suis vierge dans l'crime Et c'est à ça qu'j'veux qu'on arrive tous Le ghetto j'connais, j'te parlerai pas d'ça Y a d'autres choses dans la vie qu'on connaît pas Comme vivre libre et voir autre chose que les flics Et des barreaux à travers lesquels on cherche la fuite Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un On aime dire qu'on est bannis de Dieu Mais on doit taffer deux fois plus pour s'imposer, vieux Te demande pas pourquoi, y a des problèmes de riches et des problèmes de pauvres Les différences existent Pour qu'on voie nos vies comme le monde, grandes Faut qu'on rêve, le paradis est immense On s'tape, qu'ce soit dans la zik ou sur un playground Faut qu'nos sueurs deviennent des flaques d'eau Pour pouvoir dire j'ai du fric qui coule des robinets Même là-faut, ils ont peur de nous parce qu'ils savent Que leur avenir dépend d'nous Et si les jeunes s'unissaient, tu crois qu'la pression, ils ne l'auraient pas L'ignorance tue, on a des têtes, des bras et des jambes Et tous ensemble, on forme un corps J'veux qu'tu m'écoutes et que tu m'comprennes S'unir sera la solution au problème Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un Ils disent que j'dois être Anelka, Wiltord ou Henry Avoir des disques d'or comme Neg' Marrons ou Pit Baccardi Aide-toi et l'Ciel fera l'reste Dans c'monde, si tu est boiteux, tu crèves J'vis pas caché mais dans mon crâne j'planque une gâchette Si tu m'emmerdes, j't'envoie chier Et si c'est un flic, j'passe mon frère Car mon combat est ailleurs Dans une bavure, on perd toujours, faut qu'vous l'sachiez J'suis venu pour être, pas pour paraître Cette image ghettoïsée du rap doit disparaître On est venu franchir les barrières, les laisser sur l'cul En cas d'malaise, y a tout c'qui faut à l'intérieur Notre histoire commence quand la leur finit On est partout, dans l'sport, la pub, même au ciné On vient à la porte d'une France calcinée On a brûlé les étapes afin d'graver nos noms dans la pierre Aujourd'hui, le monde nous appartient Dans nos joies, dans nos peines, on ne forme qu'un</t>
+          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
         </is>
       </c>
     </row>
@@ -1580,12 +1580,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Le poids des maux</t>
+          <t>L’histoire continue</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Chaque mot a son importance Chaque mot a son sens Ne jamais sous-estimer le poids d'un mot Et tu l'sais Chaque rime est millimétrée J'm'exprime même pour les illettrés On m'félicite, on m'respecte pour mes écrits Je crée, et j'parle pour l'peuple J'viens apaiser les vies, j'mens pas C'est sincère, c'est cru, les mots blessent Au monde j'écris mes lettres de noblesse J'rassemble les égarés comme à la messe et prie Que le monde soit bercé par l'chant des mouettes J'écris Pour apaiser les âmes J'gaspille d'l'encre J'me torture le ventre vide J'plane Pour atterrir dans l'cur des gens Tant qu'y a d'l'âme y a d'la vie Tant qu'y a la vie, j'ai mon arme Mon arme, c'est le poids de mes écrits J'fais rire, j'fais pleurer, j'fais même pleurer d'rire J'fais partie de ton avenir Les mots sont le commencement des actes Je berce vos songes, avec ma voix tu signes un pacte Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai cette image de mec triste Parce que mes mots pleurent Et qu'j'ai la rime désenchantée C'est quand j'ai du mal à supporter le poids des mots Que j'm'abats sur la feuille Un mot bien placé Redonne une vie à un couple Les mots mal placés Entraînent des guerres de peuple et l'souk Dans l'éducation des mioches, les mots Ont des répercussions qu'on n'maîtrise pas J'assume mes dires, j'ai appris à lire et à comprendre Si j'te dis va chier, c'est qu'tu l'mérites Chaque rime a son sens, chaque rime a sa vie Chaque rime a son importance Chaque rime est pesée, pensée Combien d'fois j'ai blessé Avec des paroles déplacées Combien d'fois j'ai baissé la garde Lorsqu'avec des mots, on a brisé mes songes Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes J'ai d'la haine à revendre, d'l'amour à donner J'veux m'faire comprendre pour être pardonné Par ceux qui m'aimaient À qui j'ai pas su rendre J'ignore le geste, m'exprime avec des mots J'vais rendre mon âme aux cieux Quand j'me serai bien fait entendre C'est la paix que j'veux répandre Il pleut, abrite-toi sous ma vérité J'ai la rime imperméable Le poids d'un je t'aime d'une mère à son gosse en cellule D'un va chier d'Baccardi aux ploucs de l'industrie D'un aidez-moi d'un Somalien au monde Les mots pèsent, les mots m'ont fait, m'ont défait d'mes maux On bâtit nos empires dans la benne On parle de crimes quand nos écrits sont bafoués Chaque mot est un souffle Chaque mot est une période de ma vie Et tu l'sais Les mots blessent, saignent, pèsent trop Les mots, le commencement des actes</t>
+          <t>Eh, y a des fois y a des galères mais on n'flanche pas Non, non, non Hey, t'entends pas ou quoi ? Le Noyau reste Dur même quand il pleut des coups durs Calbo, Janik MC, Pit Baccardi et Jacky On était plein au départ, toujours plein à l'arrivée Mec tu en as rêvé donc Secteur Ä l'a fait On s'réunit en famille pour une tuerie musicale Noyau Dur, un album à classer dans les annales Quoi qu'on en dise, on a marqué la musique de France De par notre talent, beaucoup d'taf et un peu d'chance Et malgré tout ça, parfois l'envie me vient de tout arrêter Regarder mon histoire dans l'rétro et tirer un trait sur ce passé Et puis boum! J'redémarre au quart de tour Y a pas d'victoire sans défaite, pas de haine sans amour Tant qu'vous serez là, le combat continue On est venus, on a vu et on a vaincu C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Eh, marquer l'temps c'est l'but, eh, on a l'groove Poussés par l'envie d'changer l'monde, foutre le souk On a pris un pas sur l'doute, on continue la route Comme le 22 mai à l'Olympia, donner la chair de poule Une nouvelle page s'ouvre, chez nous pas d'losers On sait encaisser et c'qu'on fait d'mieux c'est rendre les coups Même si on a pris du poids et d'l'âge Le talent reste le même, alors goûte au nouveau cru On était plein et on sera plein, couz Parfois blasés mais tu t'doutes bien qu'on va pas tomber dans l'trou Secteur Ä, l'histoire de p'tits mecs qui ont fait flipper avec leur succès Avant qu'ne succède le déclin Et puis boum! On redémarre au quart de tour Pas d'fumée sans feu, si ça brûle cherche pas, c'est nous Et puis boum! On refait l'histoire même si l'malheur fait des croche-pieds Sur le chemin d'la victoire C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure C'est tout réfléchi, on revient faire chier l'industrie On a juste fléchi parce que trop d'merde s'est incrustée dans l'biz C'est parti en couilles, on revient ajuster l'tir Faire un pur tri, impossible à insulter On était plein au départ, encore plein à l'arrivée Revenus réclamer notre part et faire saliver les frustrés Ceux qui croyaient plus au truc Noyau Dur, à la tienne, encore un morceau à déguster Tout c'qui s'passe a une raison Faire péter l'réseau, c'est tout c'qui compte pour nos reufs en prison On lâchera rien, donne toujours la bonne zik Pour le respect, on rappe pour nos blocs toujours présents Et puis boum! J'repars au quart de tour T'as cru qu'tu nous l'avais faite comme Et puis boum! Le combat continue À la mort, rester fidèle au hip-hop tant qu'il est lourd, négro C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Alors donne-moi l'microphone que je parte en mission Fais tourner l'instru que j'le transforme en version Presse-le en vinyle et on pull-up la sélection Allez leur dire que j'représente tous ceux qui sont sous pression La musique n'est pas un jeu donc je n'serai pas leur pion never Si c'est une compétition j'suis pas leur champion J'veux ma prod, ma distrib, je veux mes éditions Tu connais ma position, je représente la nation Et puis boum! Laisse-moi big-up Garges Sarcelles Laisse-moi big-up Villiers-le-Bel, big-up Porte de la Chapelle Et puis boum! Laisse-moi big-up tous les réels J'leur donne plein d'bons décibels C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Baccardi Calbo Lino, Cky-Ja, Ben-J Janik MC</t>
         </is>
       </c>
     </row>
@@ -1597,12 +1597,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Le public respecte</t>
+          <t>Mai 97</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Ici Secteur Ä Pour les années deux-triple-zéro Message aux équipes en pole-position Aux troupes sur les lignes de front Message à ceux qui ensemble, sont restés forts Et à ceux qui sont morts En changeant d'bord Ouais j'reviens avec mon équipe C'est pas un solo, mais j'dis c'que j'veux Quand j'débute en Preum's et kiffe sur le beat Avec Jacky et Pit, Ben-J Lino Janik On vient foutre le zbeul ou la panique, tout remettre sur orbite La route est dure elle est sinueuse Et c'est près d'elle que j'habite En deux-triple, perds pas ton temps à t'grattrer la bite Secteur Ä acceptés à nouveau, blessés mais pas morts Pera encore plus fort, un noyau plus dur encore Donne-leur la bonne musique et le public respecte Pourquoi le taire, Secteur Ä n'est pas une secte Quand sur le tréma plane une atmosphère suspecte Un nouveau son, c'est c'que répètent tous ceux qui nous inspectent Ceux qui persistent à nous dire qu'c'est pas clair, donc pas net Ceux qui tiennent les commandes, y a ceux qui tiennent les manettes Pour eux un trip collectif, plusieurs stylos d'un même texte Une graine de résistance on glisse mais faut qu'elle germe dans nos textes Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs Ici on fait pas d'comédie on est passés dans l'satellite On va pas en faire une tragédie même si on agit en équipe réduite Encore plus de rage dans nos écrits purs bandits sarcelites Que d'la tuerie dans mon écurie on est là et on milite Qu'est-ce tu dis? J'ai du siècle à m'en remettre de ce cycle espiègle Ce disciple m'harcèle putain l'diable veut des parcelles de notre cercle J'vois ça d'un il glauque L'eau qui tombe goutte à goutte Brise le dur rocher mais l'Noyau Dur est infracturable La famille A tréma trime et s'voit méprisée On a autant d'amis qu'il y a d'Noirs à l'Élysée On vous parle morse Regarde mon torse XXX, téma ils veulent nous mettre XXX demande à Cky-Ja ça s'corse Mais trop d'fierté, trop d'honneur pour verser une larme Le Noyau Dur resserre les rangs et pour l'avenir on s'arme Noir comme ces accords, j'exprime ma rancur Cur encore plus dur et froid qu'un diable au grand cur Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs En deux-triple-zéro, c'est toujours la même clique Noirs super-héros stars contre l'État et ses flics Trip en costard triques dans l'falzar Holsters au sommet on tire, ils s'agenouillent devant nos posters Ils ont voulu tricard notre beat Le tier-quar ils disent un noir au top, c'est un loup dans la bergerie Nous on gamberge des plans d'dingue Invasion d'la France en clan, Secteur Action colle à ton flingue C'est pas d'chance pour ceux qui pensaient pas nous revoir si vite Il en faut plus pour nous mettre hors service La rime paie mais cette réussite les dérange, ça les irrite Ils ont l'vice mais moi j'ai l'tournevis Fidèles à la base, on s'mobilise Quoi qu'ils disent, non le Noyau Dur lâchera pas prise On reste soudés tant que le taf se concrétise On avance ensemble et c'est comme ça qu'on s'organise Ben-J vient chanter! Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs le Noyau Dur garde la tête haute Donne-leur la bonne musique et le public respecte Quand on chante pour le peuple rien ni personne nous arrête Donne-leur la bonne musique et le public respecte Même quand il pleut des coups durs</t>
+          <t>Oxmo Puccino l'black mafieux, Bridge, Lunatic, Time Bomb J'attends qu'le beat commence Danube, le 19, 93, 92, 95, Mars Vlavo Pourquoi tu dis qu'j'suis noir ? J'ai la peau vert dollar J'en ai pas l'air connard, j'espère êt' millionnaire sans êt' tolard Black Superman, j'arrive de London, à Lens ou ici J'te mets une patate à Paris et t'atterries à Hong Kong Mon rap crame la stratosphère, craque le sol des Champs-Elysées Le Bridge élisez-le au top et figez-le J'suis l'plastiqueur, le plaqu astiqueur de gun Vengance élastique, selon l'offre faiseur d'orphelins Oxmo alias Moe Greene, en français plus de tas d'liasses Tant qu'y aura d'la tune, trop de rimes Super-héros au pieu Hétérosexuel, même si j'suis d'ces hommes Qui aime les sommes attirées par mon textuel Trop de matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Puis parlent sur le crew Quand j'lève mon gun comme Tom Cruise Ils parlent de paix et s'la jouent zulu Écoute mec joue pas les héros Car un héros c'est un homme mort Et qu'un homme mort c'est qu'un zéro Un garçon discret Faut dire c'qui est j'suis d'corpulence svelte Mais cependant j'reste le principal suspect Comme Lee Harvey Oswald Les miens s'révoltent, agrippent leurs Colt Mais se sentent galvanisés par la récolte Que leur apporte leur business Mais d'là naissent des générations d'gosses Dont toutes les données s'faussent C'est l'idéal, créer des filiales par milliers Et filer à l'anglaise dès qu'les flics veulent t'humilier Où est Cassidy ? Il est àl avec le crew Herbe et cool-al, loin des gos aux cols sales Tu vois le tableau ? Style macro crari gros bras La taule comme bras droit Des gars droits comme des rails de coke Des ambiances glauques où les lascars sont comme des loques Et smoke, en disant on s'moque du lendemain Je reste fier, mais pour avoir le cash j'ai d'grandes mains Les frères se masturbent sous la couette Fouettent sous les sweatshirts Rêvent de filles aux belles silhouettes Dans des belles îles, d'ssus volent des mouettes Mais c'est plutôt Belleville Donc chope cette chipie d'chance avant qu'elle file On m'appelle Hill dans quelle ville ? Paris Maint'nant tu sais l'deal, nique l'inspecteur Harry J'reste tel quel et quel style C'est l'quel Hill ? Celui qui a le shit et la liqueur Qui nique les lois en vigueur X-Men, businessman connections Réflexion, flow dissection, zéro déception Négros dites-leur c'est quoi not' nom, hein Cassidy et Hill Pit Baccardi pour le Bridge C'est la dream team bomb Bambin j'étais au pays du manioc Maint'nant j'manie le mic Hoche ta main, ta tête, tes p'tites loches Tu flanches pas, tu t'déhanches toujours J'lance à haute voix Time Bomb explose Tu connais l'refrain n'est-ce pas gars ? J'ai oublié mon texte, j'reprends comme ça Texte carré, c'est Pit Baccardi, IAM, say yo my man Pit, IAM, tu connais les mêmes La Black Mafia c'est auch', les cons s'couchent S'cachent quand j'crache c'que j'ai dans la bouche Paré pour le match ? Les X n'embauchent que les bons J'suis l'coach, Bushmaster cigares en poche Le Don King des affaires louches C'est Cassidy Butch À deux on possède plus de 20 000 cartouches Le rap, une garre-ba de chefs yes Et si j't'attaque de face, j'te laisse une trace sur l'crâne Comme Mikhaïl Gorbatchev J'te jure qu'c'est vrai c'qu'il dit donc crois-le C'est moi le mec pas dur, non dur pas moelleux Dédicace à Didier, Ali, Booba, Kassim, Kamal, Étienne, ma fille Géraldo, Dibi, next</t>
         </is>
       </c>
     </row>
@@ -1614,12 +1614,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Les évadés</t>
+          <t>Mode guerre</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Diagnostic j'suis qu'un voyou suicidaire comme le Hamas T'as le choix c'est Gaza ou une menace au Kalash Vingt-deux ans fermes dans le même horizon j'ai pris une longue peine Donc j'ai droit à cinq minutes d'évasion Moi j'ai pas eu mon bac mais toujours la BAC au cul J'ai violé les bacs et j'ai fait un tas d'cocus Y a qu'a voir les bancs du commissariat Pas d'étude, pas de carrière, trop de parias, trop de barrières Nique sa mère, tricard traqué comme dans mon six titres Faut qu'on m'acquitte qu'on soit quitte Rim-K et Pit C'est sordide, la vie est triste, mais mon corps me guide J'ai plus rien à foutre j'ai pas peur de tomber dans le vide Banlieusard, c'est pas un hasard, mon peuple en chien Je montre pas quand j'suis mal, j'suis comme devant un chien Quoi de neuf poto? Rien, le boss c'est l'franc C'est dramatique comme une grenade dans un jardin d'enfants On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites À chaque crime c'est un mec qu'on enferme, à chaque rime c'est un frère qui s'évade À chaque cri, c'est qu'il y a un soss qu'on enterre La terre tourne et j'fais du surplace Je franchis les barrières écris des rimes noires sur papier glacé Cette vie m'fait chier, sachez Que j'viens me lâcher pas mâcher les mots Vas chier si mon faciès taché t'empêche de valser J'rappe pour que mes négros fassent yes Là j'ai d'un jet craché cette haine qui me motive Fais chier putain J'voulais vivre dans la paix, pas dans le péché Le truc c'est s'repentir avant l'arrivée de la Faucheuse On vient d'là où la haine s'exprime par l'sourire Du pire je viens bâtir un empire et dire au monde Que j'aspire à la paix, pas à la guerre comme on a pu le lire Tant que j'respire j'espère On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites Rim' K du 113 sors d'ton blockhaus, deux feuilles, une clope J'suis avec mes blackos, mes bicots, y a aucune kheb Entre nous on s'aime gros, mon équipe c'est du seum Tu sais c'qu'on sème et quand j'mourrai j'serai seul J'serai seul comme quand je flanche sur ma feuille, seul Comme face à ces tas d'flics qui m'en veulent, seul Comme quand je suis venu Seul j'm'évade, seul j'marche car j'finirai seul dans mon cercueil J'suis à 113 degrés dans l'baromètre Grillé à cinq kilomètres, j'essaye d'être honnête Mais ils en font trop mec et ça faut l'reconnaître Citation à comparaître dans toutes nos boîtes aux lettres Toujours aussi froid le cur empli de gros cris Le monde m'a trahi ma couille, nos vies c'est pas les tropiques On craque parce que c'est l'gnouf dans nos crânes J'veux pas finir crade ou shooté dans l'crack On s'évade par nos voix magiques On s'ouvre au monde dans nos voix négro tu sens l'tragique Dans les halls, dans les blocks tous les coeurs s'agitent Vitry-sur-Seine, 19ème la même peine et les mêmes parasites</t>
+          <t>Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Laisse-moi donner l'ton, j'vais écorcher l'beat du haut d'mon pupitre Le futur s'annonce triste pour les pauvres types Qui croyaient qu'l'équipe était sur orbite, eh p'tit Retourne te planquer, Noyau Dur débarque, le rap est victime d'une secousse sismique J'clarifie la situation en douze rimes, j'terrifie Modifie les plans d'l'ennemi, j'contre-attaque dans ta chaîne hifi Pas d'flip, j't'explique, ma clique s'impose Le déclic s'est fait, sur nous quand j'prends l'mic ça fait clic clic Baccardi Pit, le best, toujours intestable, cousin qu'est-ce t'as ? Ta meuf m'a cé-s' man, c'est ça qu't'encaisses pas Lyrical bombe comme Dosseh, ici c'est un avant-goût corsé, eh En mode guerre cousin, y a trop d'décès Et tu l'sais C'est Pit au mic Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Ici c'est B.E.N.J.A.C.K.Y Le duo d'choc, les douilles sont chargées pour une nouvelle offensive Woy, pousse-toi petit car sur ma route on coupe des têtes Faut péter des portes, éclater des carreaux pour imposer l'ragga hip-hop À l'ombre de la haine on a fait c'putain d'album Loin des gyrophares et des bâtards qui m'croient au funérarium Vous êtes tous dead, dead, dead On revient choquer la France, mon Noyau Dur est wanted Woy, vous êtes tous dead, dead, dead Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Donc reste pas là, nous on écrase tout sur notre passage Reste pas là, c'est Noyau Dur pour un nouveau carnage Reste pas là T'entends pas ou quoi, Jacky Ben-J Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Noyau putain d'Dur, avec les putes on coupe les ponts En groupe on les bute, tire pas les Fusil à pompe musique, y a Pit Ärsenik, les Neg', on répond à l'appel microphone scalpel, les plombs sautent On débite, c'est Bors', Calbo et l'démon s'abrite dans la chapelle Ouais, ça s'appelle Noyau putain d'Dur et tu l'sais On l'a trop poussé, maintenant c'est àl goz Dédié aux refrés expulsés On a rentré les mics et t'as kiffé ces cons-là C'est sûr, quand on a pas c'qu'on aime, on aime c'qu'on a Avec des putain d'tueurs on a fait une bombe Pour qu'ces merdes tombent et qu'on cesse enfin d'en abuser Tu sais Ärsenik Noyau Dur Destruction massive Ärsenik Baccardi Pit En mission Assassinat verbal En mode guerre cousin Le boulot on va l'faire Noyau Dur Noyau Dur, Noyau Dur, Noyau Dur</t>
         </is>
       </c>
     </row>
@@ -1631,12 +1631,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Le son des loups</t>
+          <t>Né pour prouver</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Discographie - Dosseh Album Studio - 20161104 Dosseh - Yuri - 20180706 Dosseh - VIDALOA - 20190412 Dosseh - VIDALOA 4.5 - 20220930 Dosseh - Trop tôt pour mourir EP - 20220128 Dosseh - Yuri Negrowski Mixtape - 20041029 Dosseh - Bolide Vol. 1 - 20081118 Dosseh - Bolide Vol. 2 - 20110117 Dosseh DJ Medi Med - Desperadoss - 20110729 Dosseh DJ Moon - Summer Crack, Vol. 1 - 20120722 Dosseh DJ Skut - Summer Crack, Vol. 2 - 20150316 Dosseh - Perestroïka - 20150731 Dosseh - Summer Crack, Vol. 3 - 20190712 Dosseh - Summer Crack 4 Soundtrack - 20130624 Dosseh - Karma Autre - 20141118 Dosseh - YuriNegrowski Hors-Série Single - 20060306 Dosseh - Banlieusard de province - 20061003 Dosseh - La mort pour seule limit - 20070117 Dosseh - 16 mesures d haine - 20070206 Dosseh - Chienne de vie - 20070312 Dosseh - Ennemi - 20071126 Dosseh - Je suis - 20071129 Dosseh - Parce que - 20080531 Dosseh - Prototype - 20081118 Dosseh - Pharaonique - 20090117 Dosseh - Aigle royal - 20090421 Dosseh - Frères d'armes - 20090615 Dosseh - Jour de paye - 20090629 Dosseh - Non stop - 20100413 Dosseh - Freestyle Desperadoss Part. 1 - 20100528 Dosseh - Freestyle Desperadoss Part. 2 - 20100613 Dosseh - Pour ma voyoucratie Remix insolent - 20100703 Dosseh - Matrix - 20100723 Dosseh - Tu connais nos codes - 20101123 Dosseh - Freestyle Desperadoss Part. 3 - 20110103 Dosseh - Full Contact - 20110224 Dosseh - Desperadoss - 20110806 Dosseh - Nique-toi, paye-moi - 20120309 Dosseh - OK - 20120509 Dosseh - Casque intégral - 20120706 Dosseh - Summer Crack Intro - 20120720 Dosseh - Mon gang - 20130518 Dosseh - BM Audi Merco Benz - 20130527 Dosseh - Gangnam Style Trap Remix - 20130616 Dosseh - IGO - 20130621 Dosseh - La boum 3 - 20130704 Dosseh - Booskarma - 20130708 Dosseh - Holy Water Freestyle - 20130819 Dosseh - Promesses - 20131103 Dosseh - Adios - 20131127 Dosseh - Yin Yang - 20140311 Dosseh - Freestyle Parlez-vous Cefran - 20140611 Dosseh - En balle Freestyle - 20140806 Dosseh - La dose Freestyle - 20141009 Dosseh - Illuminati - 20141018 Dosseh - YuriNegrowski 1 - 20141018 Dosseh - YuriNegrowski 2 - 20141018 Dosseh - YuriNegrowski 3 - 20141023 Dosseh - Boyscout - 20141110 Dosseh - Faut qu'ça chie YuriNegrowski 4 - 20141208 Dosseh - Le coup du patron - 20150116 Dosseh - Le dehors - 20150217 Dosseh - Bouteilles et glocks - 20150224 Dosseh - Nirvana YuriNegrowski 5 - 20150304 Dosseh - Hors-Série YuriNegrowski 6 - 20150312 Dosseh - 30 millions d'ennemis YuriNegrowski 7 - 20150406 Dosseh - Que d'la D YuriNegrowski 8 - 20150430 Dosseh - Bando - 20150430 Dosseh - Scarla - 20150702 Dosseh - Été au tieks - 20150711 Dosseh - Brolyk - 20150718 Dosseh - Booska Summer Crack - 20150730 Dosseh - Oublier - 20151231 Dosseh - Je suis Yuri YuriNegrowski 9 - 20160613 Dosseh - Milliers d'euros - 20160704 Dosseh - T'as pas compris - 20160909 Dosseh - Afrikan History X - 20160916 Dosseh - Là-haut - 20160923 Dosseh - Freestyle BarbaRossa1 - 20160930 Dosseh - Myah Bay - 20160930 Dosseh - Abel Caïn - 20161024 Dosseh - Infréquentables - 20161121 Dosseh - Putain d'époque - 20170106 Dosseh - Solo - 20170206 Dosseh - J'suis qu'un Loa YuriNegrowski 10 - 20170303 Dosseh - Bad and Boujee Remix - 20170721 Dosseh - PDCV Pas dans cette vie - 20180112 Dosseh - Tout est neuf - 20180216 Dosseh - KFC - 20180316 Dosseh - Papillon - 20180511 Dosseh - Habitué - 20180705 Dosseh - VLT - 20180720 Dosseh - MQTB - 20181116 Dosseh - À chaque jour... - 20190201 Dosseh - Superhéro - 20190321 Dosseh - Habitué Italian Remix - 20190329 Dosseh - Flux - 20190412 Dosseh - Le bruit du silence - 20190419 Dosseh - OKLM Freestyle - 20190607 Dosseh - Boîte à Shoes - 20190614 Dosseh - MQTB Version solo - 20190628 Dosseh - Les histoires - 20190628 Dosseh - L'odeur du charbon - 20190807 Dosseh - Canal - 20190823 Dosseh - Thaïlande - 20200221 Dosseh - L'odeur du charbon Remix - 20200503 Dosseh - Milli' - 20200902 Dosseh - A45 - 20200924 Dosseh - Place de l'Étoile - 20201216 Dosseh - Famiglia è Grande - 20210302 Dosseh - Cardio - 20210408 Dosseh - Doaveli 1 - 20210415 Dosseh - La vie d'avant - 20210502 Dosseh - Doaveli 2 - 20220629 Dosseh - A.K.A - 20220719 Dosseh - RS-28 - 20220804 Dosseh - Amsterdam - 20220915 Dosseh - Branché - 20220919 Dosseh - PERIODT - 20221007 Dosseh - Mode S - 20230113 Dosseh - Haï Featuring - 20040514 Sinik - Urbaine poésie - 20040630 K.Ommando Toxik - C'est le trio - 20041116 Pit Baccardi - Le son de la street - 20050517 Pit Baccardi - C'est dead ! - 20051219 Noyau Dur - Le son des loups - 20070116 Pit Baccardi - Come Back Remix - 20070315 Heckel Geckel - On ne sait pas abandonner - 20070417 Smoker - Geez Up - 20080404 Futur Proche - Va leur dire - 20090922 Alain 2 L'Ombre - Qui veut la peau d'Alain 2 L'Ombre - 20100301 Seth Gueko - C'est la merde - 20101018 Nakk Mendosa - J'suis un lion - 20101122 Booba - 45 Scientific - 20101201 Escobar Macson - Tout le monde d'accord - 20101213 Ol' Kainry - Clac clac - 20110409 Lalcko - Tradition du combat - 20110516 Still Fresh - Mise en garde - 20111021 28 Zaheef - État brut - 20120319 Nakk Mendosa - La sentence Remix - 20120503 Smoker - Zbeul dans ta soirée - 20120618 Niro - Dans ton kwaah Remix - 20120625 Kennedy - Blue Magic - 20121019 Pit Baccardi - Les frères flingueurs - 20130422 Ghetto Fabulous Gang - Expandables - 20130617 Sofiane - Boxe avec les mots Remix - 20131118 Ppros - Calité - 20131220 Joke - Miley - 20131222 wagg - All I Gotta Say - 20140629 Rock Blood - Panamera - 20140915 Bassirou - Le score - 20150130 Boysaf - Y'a du bizz dans mon block - 20181115 Titai - BET Cypher 2018 4 - 20190125 Seth Gueko - Barry White Trash - 20190208 NAAR - Kssiri - 20190215 T.Killa - Marécage - 20190301 Jorja Smith - Blue Lights French Remix - 20190426 Toma - Hypersensible - 20191004 Lefa - Spécial - 20191108 TY1 - C'EST LA VIE - 20191129 Dinos - Taciturne - 20191213 IZI - Cometa - 20200131 Mister V - Gang - 20200403 Twinsmatic - TRAP - 20200424 McKoy - Matchu Pitchu - 20200821 Sizlac - 45 - 20200911 KPoint - Choix de vie - 20201005 Popey - Imbécile - 20201112 TLZ Clan - C'est nous - 20201218 Negrito - Puh puh - 20210217 Jack Many - Ooooh...! - 20211001 Malik Montana - Click Clack Bang - 20220616 The New Orleans - Quatro Cinco - 20220617 The New Orleans - Les coups</t>
+          <t>J'ai l'impression qu'j'ai pas la même vie qu'vous J'me livre avant qu'les pages de ma vie s'ferment Artical Bad Boy, ressens la vibe Balafré depuis la naissance, j'suis sensible J'ai du mal à vous parler sans être sincère Sous mon bob s'cachent un millier d'malaises Un film, un drame, du sang, des larmes Et j'm'évade dans des sphères J'ai peur comme chaque homme Clique sur mon cur Tu verras c'est quoi la détresse Instable, incontrôlable, j'pète un câble Ça m'a tué d'être orphelin mais j'vais gravir les stades J'suis un lion, un chien en rage Fini le temps où juste avec un regard, on pouvait m'abattre J'suis l'espoir d'un peuple, ma zik sentira toujours la souffrance Et m'dis pas d'arrêter C'est comme demander à un enfant d'Soweto De plus parler d'apartheid Né pour prouver Impossible Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver Ma vie c'est l'épreuve J'suis brave et mon blaze circule Dans les hautes sphères jusqu'aux caves Et les étages sont durs à monter grave Malgré ça, négro, j'élargis mon champ d'vision J'veux construire, être quelqu'un Tous les héros sont morts au combat Et mon bonheur je sais où j'vais l'planquer Leader, pas suiveur J'entends les mômes dire j'veux être comme lui Tout c'que j'réponds, c'est qu'il est l'heure J'parle aux volcans et aux océans Quand j'brûle le mic, tout s'passe en profondeur Les choses changent, j'peux plus attendre Chaque jour est un pas vers la sortie L'ouragan est en train d's'étendre Je chante l'amour, la paix, l'union, la peur Quand ça va mal, des larmes amères je pleure Quoi qui s'passe j'serai au rendez-vous, jusqu'à la fin Compte avec moi négro, j'suis là pour prouver Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver J'ai douté d'moi, j'ai eu tort J'ai voulu tout changer, j'avais tort, j'suis moi, j'suis fort et j'vais l'prouver Tu m'aimeras tant que mon rap aura une âme J'suis celui qu'les ignorants blâment Et que le peuple acclame L'inattendu, du rap fresh alors qu'est-ce t'en dis? Je sais qu't'as une impression de déjà entendu La vie, c'est un recommencement Et moi j'suis pas on m'baise, non Touche ton cur, sens-tu les battements? 2002 manières de m'haïr ou d'm'aimer si t'es down J'ai aucune raison de trahir Ça vient du cur et des tripes J'en place une pour Willy, Manjao Thibaut l'boss et les ghettos di blow PC, Secteur Ä Et tout l'peuple qui m'suit depuis l'début dans l'son C'est pas des rapports de sous, mais un lien d'sang Sans souci, à cent pourcents Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver Né pour prouver Né pour prouver Né pour prouver Né pour prouver</t>
         </is>
       </c>
     </row>
@@ -1648,12 +1648,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Le Titulaire</t>
+          <t>Nouvelle époque</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
+          <t>Refrain On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores On balance des phrases en or On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores Hardcores sont les métaphores T-Sow Je reste original blue funk comme Busta Flex Au concert pleine puissance à la Das EFX, jme prends pas la tête, non Mais quest-ce qui fait marcher les sages, demande à Jimmy Jay Mc Solaar, Menelik, Sléo, les Démocrates D 1995, Befa surprend ses frères Contact Assassin pour lhomocide volontaire Psychose, Timide Et Sans Complexe Ce système ma fais comprendre que cest sexe violence rap Flooze On sample du jazz pour la voie du peuple Mafia Underground pr un Egotrip, porte ma Nautica Alliance Ethnik Jvous rassure La Base est 3x plus efficaces Quand elle connait son passé il ny a plus de menace Jétais en classe à lécole du micro dargent Le temps sefface, la vérité est toujours au dessus du mensonge Les derniers messagers pour le troupeau Et noublies jamais, qui sème le vent récolte le tempo Refrain Ri-k Méga fort en rap comme Pit Baccardi, ma Cliqua vise le sommet Je suis Lunatic, bestial pour de la monnaie Ill comme les X-men, IAM le lyrical Shurikn Une putain de tuerie digiBAM ! Fais péter les sons dans ta BM garçon, de Nidau jusquà Mâche je crache Mon Double H, lache des sacrés trucs de barge quand jen ai marre je fais mon argent dans la marge Je squatte avec mes crooks et mes Timberland boots Freestyle avec Big F dans le coin de rue Partage le même point de vue Ramènes les bouteilles mon gars tes bienvenu Vraiment rien à foutre enfoiré ici cest Bienne Pécho des lycéennes et fume la weed dans lICN À lancienne, mais aujourdhui cest qui le mythe ?! Ri-k retourne aux pyramides Balance un style monté de toutes pièces comme un braquage On ramène le coffre-fort, dégagez le passage ! Refrain Buds Penseur Protèges ta nuque comme le Wu-Tang la Base est Illmatic comme Nasty Nas Des disciples de la musique comme Shabazz Frèro, la vieille époque était si belle Je voyageais jusquà Harlem quand jécoutais lalbum de Big L Fais péter les décibels, balances le bon son La Base le potentiel tu le vois et tu prépares les pensements Infâmes, comme Havoc et Prodigy Jécoutais Mafia K1 Fry avec mon frère Mohi G Reposes en paix frolo Lamour que javais pour toi tu ne peux pas le comparer à la valeur des Polos La vie est brutale, le combat continue Comme Ideal J, check la répute quon a dans la rue Ravage partout où on passe, cest la base dans la place Les leaders de la nouvelle école Bus-a-Bus 2013, Connexion Tru Comers Comme la Time Bomb on explose tout le commerce Refrain</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>L’histoire continue</t>
+          <t>On Est Là Pour Longtemps</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Eh, y a des fois y a des galères mais on n'flanche pas Non, non, non Hey, t'entends pas ou quoi ? Le Noyau reste Dur même quand il pleut des coups durs Calbo, Janik MC, Pit Baccardi et Jacky On était plein au départ, toujours plein à l'arrivée Mec tu en as rêvé donc Secteur Ä l'a fait On s'réunit en famille pour une tuerie musicale Noyau Dur, un album à classer dans les annales Quoi qu'on en dise, on a marqué la musique de France De par notre talent, beaucoup d'taf et un peu d'chance Et malgré tout ça, parfois l'envie me vient de tout arrêter Regarder mon histoire dans l'rétro et tirer un trait sur ce passé Et puis boum! J'redémarre au quart de tour Y a pas d'victoire sans défaite, pas de haine sans amour Tant qu'vous serez là, le combat continue On est venus, on a vu et on a vaincu C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Eh, marquer l'temps c'est l'but, eh, on a l'groove Poussés par l'envie d'changer l'monde, foutre le souk On a pris un pas sur l'doute, on continue la route Comme le 22 mai à l'Olympia, donner la chair de poule Une nouvelle page s'ouvre, chez nous pas d'losers On sait encaisser et c'qu'on fait d'mieux c'est rendre les coups Même si on a pris du poids et d'l'âge Le talent reste le même, alors goûte au nouveau cru On était plein et on sera plein, couz Parfois blasés mais tu t'doutes bien qu'on va pas tomber dans l'trou Secteur Ä, l'histoire de p'tits mecs qui ont fait flipper avec leur succès Avant qu'ne succède le déclin Et puis boum! On redémarre au quart de tour Pas d'fumée sans feu, si ça brûle cherche pas, c'est nous Et puis boum! On refait l'histoire même si l'malheur fait des croche-pieds Sur le chemin d'la victoire C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure C'est tout réfléchi, on revient faire chier l'industrie On a juste fléchi parce que trop d'merde s'est incrustée dans l'biz C'est parti en couilles, on revient ajuster l'tir Faire un pur tri, impossible à insulter On était plein au départ, encore plein à l'arrivée Revenus réclamer notre part et faire saliver les frustrés Ceux qui croyaient plus au truc Noyau Dur, à la tienne, encore un morceau à déguster Tout c'qui s'passe a une raison Faire péter l'réseau, c'est tout c'qui compte pour nos reufs en prison On lâchera rien, donne toujours la bonne zik Pour le respect, on rappe pour nos blocs toujours présents Et puis boum! J'repars au quart de tour T'as cru qu'tu nous l'avais faite comme Et puis boum! Le combat continue À la mort, rester fidèle au hip-hop tant qu'il est lourd, négro C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Alors donne-moi l'microphone que je parte en mission Fais tourner l'instru que j'le transforme en version Presse-le en vinyle et on pull-up la sélection Allez leur dire que j'représente tous ceux qui sont sous pression La musique n'est pas un jeu donc je n'serai pas leur pion never Si c'est une compétition j'suis pas leur champion J'veux ma prod, ma distrib, je veux mes éditions Tu connais ma position, je représente la nation Et puis boum! Laisse-moi big-up Garges Sarcelles Laisse-moi big-up Villiers-le-Bel, big-up Porte de la Chapelle Et puis boum! Laisse-moi big-up tous les réels J'leur donne plein d'bons décibels C'est raide La musique c'est dur, mais la musique est bonne Et la bonne musique dure Baccardi Calbo Lino, Cky-Ja, Ben-J Janik MC</t>
+          <t>Baccardi Cameron Pour longtemps Dans ce mouvement Tu l'sais Pit Baccardi 2002 Cameron Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement Va dire aux mômes qu'on a écrit les mots Créé des villes, donné l'envie À des gens qui s'mourraient dans les halls On est là parce qu'y a une âme On a ressenti c'truc fat qui nous a sortis d'nos sentiers glauques Avis de vengeance, le blizzard Souffle et ma silhouette s'pavane à l'auve J'ai pensé solo mais pour le groupe J'suis passé de salaud à chef de troupe Lâche-moi la grappe, t'écoutes mes couplets J'suis dans l'trip, faut qu'on s'accouple Pour longtemps mes rimes survoleront les cieux J'suis béni de Dieu, sans être star j'ferai partie des astres Que coulent des larmes de joie d'vos yeux XXX par l'système j'suis la vie même quand y a mort J'me plie et c'est le monde qui m'acclame J'suis là pour longtemps, entre vous et moi, je sens monter la flamme Qu'il vente ou qu'il neige, jamais de désastre Le cur y est, ma rime est de marbre Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Garde la foi Ne baisse pas les bras Qu'on se fiche de savoir où ça mènera Ni le temps qu'ça prendra Pour garder la vie Que demeure l'envie J'irai puiser en moi la force et la rage Pour traverser les âges Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Regarde comme on est beaux Le ciel nous a donné une force, une peau, le show, du rythme sur l'tempo J'bloque plus, insaisissable Touche mon corps, j'suis un château d'poussière, j'anime ton humeur sale Pour longtemps, ces images de joie avec le peuple Quand on bondait les salles et qu'la chaleur venait du sol Pour longtemps, cette mélancolie festive Qui met du piment à notre époque assassine Pour longtemps, cette zik Entre zigzags avec les flics Aujourd'hui, regarde, j'm'en sors Pour longtemps, Baccardi Pit J'te l'ai dit, mes textes sont des testaments Pour longtemps, cette vie Qui m'contraint à réussir On a des femmes, des mômes et des familles On construit le monde avec nos mots Pour longtemps, pour le mouvement Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Prêt à verser tout mon sang Éternellement Notre mouvement On veut marquer, ouais pour longtemps Le cur des gens Traversent le temps Prêt à verser tout mon sang Pour que vive éternellement Baccardi Notre cause, notre mouvement Putain d'prod, tu le sais On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps</t>
         </is>
       </c>
     </row>
@@ -1682,12 +1682,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Mai 97</t>
+          <t>On fait les choses en 2.0.0.0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Oxmo Puccino l'black mafieux, Bridge, Lunatic, Time Bomb J'attends qu'le beat commence Danube, le 19, 93, 92, 95, Mars Vlavo Pourquoi tu dis qu'j'suis noir ? J'ai la peau vert dollar J'en ai pas l'air connard, j'espère êt' millionnaire sans êt' tolard Black Superman, j'arrive de London, à Lens ou ici J'te mets une patate à Paris et t'atterries à Hong Kong Mon rap crame la stratosphère, craque le sol des Champs-Elysées Le Bridge élisez-le au top et figez-le J'suis l'plastiqueur, le plaqu astiqueur de gun Vengance élastique, selon l'offre faiseur d'orphelins Oxmo alias Moe Greene, en français plus de tas d'liasses Tant qu'y aura d'la tune, trop de rimes Super-héros au pieu Hétérosexuel, même si j'suis d'ces hommes Qui aime les sommes attirées par mon textuel Trop de matière grasse et grise, aigris les négros m'disent Tu prends le métro ? T'es gros comme Biggie ! Puis parlent sur le crew Quand j'lève mon gun comme Tom Cruise Ils parlent de paix et s'la jouent zulu Écoute mec joue pas les héros Car un héros c'est un homme mort Et qu'un homme mort c'est qu'un zéro Un garçon discret Faut dire c'qui est j'suis d'corpulence svelte Mais cependant j'reste le principal suspect Comme Lee Harvey Oswald Les miens s'révoltent, agrippent leurs Colt Mais se sentent galvanisés par la récolte Que leur apporte leur business Mais d'là naissent des générations d'gosses Dont toutes les données s'faussent C'est l'idéal, créer des filiales par milliers Et filer à l'anglaise dès qu'les flics veulent t'humilier Où est Cassidy ? Il est àl avec le crew Herbe et cool-al, loin des gos aux cols sales Tu vois le tableau ? Style macro crari gros bras La taule comme bras droit Des gars droits comme des rails de coke Des ambiances glauques où les lascars sont comme des loques Et smoke, en disant on s'moque du lendemain Je reste fier, mais pour avoir le cash j'ai d'grandes mains Les frères se masturbent sous la couette Fouettent sous les sweatshirts Rêvent de filles aux belles silhouettes Dans des belles îles, d'ssus volent des mouettes Mais c'est plutôt Belleville Donc chope cette chipie d'chance avant qu'elle file On m'appelle Hill dans quelle ville ? Paris Maint'nant tu sais l'deal, nique l'inspecteur Harry J'reste tel quel et quel style C'est l'quel Hill ? Celui qui a le shit et la liqueur Qui nique les lois en vigueur X-Men, businessman connections Réflexion, flow dissection, zéro déception Négros dites-leur c'est quoi not' nom, hein Cassidy et Hill Pit Baccardi pour le Bridge C'est la dream team bomb Bambin j'étais au pays du manioc Maint'nant j'manie le mic Hoche ta main, ta tête, tes p'tites loches Tu flanches pas, tu t'déhanches toujours J'lance à haute voix Time Bomb explose Tu connais l'refrain n'est-ce pas gars ? J'ai oublié mon texte, j'reprends comme ça Texte carré, c'est Pit Baccardi, IAM, say yo my man Pit, IAM, tu connais les mêmes La Black Mafia c'est auch', les cons s'couchent S'cachent quand j'crache c'que j'ai dans la bouche Paré pour le match ? Les X n'embauchent que les bons J'suis l'coach, Bushmaster cigares en poche Le Don King des affaires louches C'est Cassidy Butch À deux on possède plus de 20 000 cartouches Le rap, une garre-ba de chefs yes Et si j't'attaque de face, j'te laisse une trace sur l'crâne Comme Mikhaïl Gorbatchev J'te jure qu'c'est vrai c'qu'il dit donc crois-le C'est moi le mec pas dur, non dur pas moelleux Dédicace à Didier, Ali, Booba, Kassim, Kamal, Étienne, ma fille Géraldo, Dibi, next</t>
+          <t>Calmement, hey he Nouvelle version pour ce nouveau millénaire Hé hé, cest en 2000 que ca spasse Pit Baccardi, Mystik, Rohff, Ben-J, Jacky On dit quoi ? Tentends pas ou quoi ? Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête, tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te ch... J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Moi j'suis le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Dans l'esprit mes mots vont teinter Sachez, fâché, deux triple zéro Mobebissi M.Y.S.T.I.K, pas dC enfoiré Le bled on fume la chose pire qu'un bedo blindé Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, jsuis toujours lmeilleur Épelle B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Pas fâché que machin ait pompé mon style Pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte, c'est pas des rimes au compte-goutte Qu'elles coupent toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon Tchuss la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des chbeb qu'ils produisaient Donc en tant qu'anti-chbeb, ton colon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas mon pedigree Je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Pour mes potos en cellule, ma voix traverse le ciel Y a pas dque-fri, que du potentiel, jen suis la crème Irrite 100 kilogrammes pour les clients fidèles Y a pas dchrome, de mire Et lnombre de rappeurs mis à l'a-de-men Y a ce qui faut derrière du de-mon Quand on mdemande Rohff ça va ? Pépèrement Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Écoute ce style, écoute ma voix Tu sais qui je suis, n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as 10 secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de mic mac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro</t>
         </is>
       </c>
     </row>
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Mode guerre</t>
+          <t>On lâchera pas l’affaire</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Laisse-moi donner l'ton, j'vais écorcher l'beat du haut d'mon pupitre Le futur s'annonce triste pour les pauvres types Qui croyaient qu'l'équipe était sur orbite, eh p'tit Retourne te planquer, Noyau Dur débarque, le rap est victime d'une secousse sismique J'clarifie la situation en douze rimes, j'terrifie Modifie les plans d'l'ennemi, j'contre-attaque dans ta chaîne hifi Pas d'flip, j't'explique, ma clique s'impose Le déclic s'est fait, sur nous quand j'prends l'mic ça fait clic clic Baccardi Pit, le best, toujours intestable, cousin qu'est-ce t'as ? Ta meuf m'a cé-s' man, c'est ça qu't'encaisses pas Lyrical bombe comme Dosseh, ici c'est un avant-goût corsé, eh En mode guerre cousin, y a trop d'décès Et tu l'sais C'est Pit au mic Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Ici c'est B.E.N.J.A.C.K.Y Le duo d'choc, les douilles sont chargées pour une nouvelle offensive Woy, pousse-toi petit car sur ma route on coupe des têtes Faut péter des portes, éclater des carreaux pour imposer l'ragga hip-hop À l'ombre de la haine on a fait c'putain d'album Loin des gyrophares et des bâtards qui m'croient au funérarium Vous êtes tous dead, dead, dead On revient choquer la France, mon Noyau Dur est wanted Woy, vous êtes tous dead, dead, dead Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide Donc reste pas là, nous on écrase tout sur notre passage Reste pas là, c'est Noyau Dur pour un nouveau carnage Reste pas là T'entends pas ou quoi, Jacky Ben-J Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit Tu connais l'blaze, négro Noyau putain d'Dur Pour un nouveau carnage Ça y est c'est reparti pour une nouvelle tuerie C'est Noyau Dur On est venu enfoncer les portes Ärsenik, les Neg' Baccardi Pit La sono crame Noyau putain d'Dur de destruction massive Noyau putain d'Dur, avec les putes on coupe les ponts En groupe on les bute, tire pas les Fusil à pompe musique, y a Pit Ärsenik, les Neg', on répond à l'appel microphone scalpel, les plombs sautent On débite, c'est Bors', Calbo et l'démon s'abrite dans la chapelle Ouais, ça s'appelle Noyau putain d'Dur et tu l'sais On l'a trop poussé, maintenant c'est àl goz Dédié aux refrés expulsés On a rentré les mics et t'as kiffé ces cons-là C'est sûr, quand on a pas c'qu'on aime, on aime c'qu'on a Avec des putain d'tueurs on a fait une bombe Pour qu'ces merdes tombent et qu'on cesse enfin d'en abuser Tu sais Ärsenik Noyau Dur Destruction massive Ärsenik Baccardi Pit En mission Assassinat verbal En mode guerre cousin Le boulot on va l'faire Noyau Dur Noyau Dur, Noyau Dur, Noyau Dur</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1716,12 +1716,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Né pour prouver</t>
+          <t>On lâchera pas l’affaire</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>J'ai l'impression qu'j'ai pas la même vie qu'vous J'me livre avant qu'les pages de ma vie s'ferment Artical Bad Boy, ressens la vibe Balafré depuis la naissance, j'suis sensible J'ai du mal à vous parler sans être sincère Sous mon bob s'cachent un millier d'malaises Un film, un drame, du sang, des larmes Et j'm'évade dans des sphères J'ai peur comme chaque homme Clique sur mon cur Tu verras c'est quoi la détresse Instable, incontrôlable, j'pète un câble Ça m'a tué d'être orphelin mais j'vais gravir les stades J'suis un lion, un chien en rage Fini le temps où juste avec un regard, on pouvait m'abattre J'suis l'espoir d'un peuple, ma zik sentira toujours la souffrance Et m'dis pas d'arrêter C'est comme demander à un enfant d'Soweto De plus parler d'apartheid Né pour prouver Impossible Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver Ma vie c'est l'épreuve J'suis brave et mon blaze circule Dans les hautes sphères jusqu'aux caves Et les étages sont durs à monter grave Malgré ça, négro, j'élargis mon champ d'vision J'veux construire, être quelqu'un Tous les héros sont morts au combat Et mon bonheur je sais où j'vais l'planquer Leader, pas suiveur J'entends les mômes dire j'veux être comme lui Tout c'que j'réponds, c'est qu'il est l'heure J'parle aux volcans et aux océans Quand j'brûle le mic, tout s'passe en profondeur Les choses changent, j'peux plus attendre Chaque jour est un pas vers la sortie L'ouragan est en train d's'étendre Je chante l'amour, la paix, l'union, la peur Quand ça va mal, des larmes amères je pleure Quoi qui s'passe j'serai au rendez-vous, jusqu'à la fin Compte avec moi négro, j'suis là pour prouver Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver J'ai douté d'moi, j'ai eu tort J'ai voulu tout changer, j'avais tort, j'suis moi, j'suis fort et j'vais l'prouver Tu m'aimeras tant que mon rap aura une âme J'suis celui qu'les ignorants blâment Et que le peuple acclame L'inattendu, du rap fresh alors qu'est-ce t'en dis? Je sais qu't'as une impression de déjà entendu La vie, c'est un recommencement Et moi j'suis pas on m'baise, non Touche ton cur, sens-tu les battements? 2002 manières de m'haïr ou d'm'aimer si t'es down J'ai aucune raison de trahir Ça vient du cur et des tripes J'en place une pour Willy, Manjao Thibaut l'boss et les ghettos di blow PC, Secteur Ä Et tout l'peuple qui m'suit depuis l'début dans l'son C'est pas des rapports de sous, mais un lien d'sang Sans souci, à cent pourcents Ma vie c'est l'épreuve J'espère m'en sortir bon élève Dieu m'guide Né pour prouver Dis au monde que j'arrive Deux fois plus gros et plus fort, encore Né pour prouver Dans mes yeux, l'envie d'vaincre L'envie d'être numéro un Passe-moi l'mic Né pour prouver Tout c'qui s'passe n'est qu'un affrontement Et j'me bats depuis l'commencement Né pour prouver Né pour prouver Né pour prouver Né pour prouver Né pour prouver</t>
+          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
         </is>
       </c>
     </row>
@@ -1733,12 +1733,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Nouvelle époque</t>
+          <t>On veut</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Refrain On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores On balance des phrases en or On est les spécialistes des rimes organisées Ma team est vaccinée contre les impuretés sonores Hardcores sont les métaphores T-Sow Je reste original blue funk comme Busta Flex Au concert pleine puissance à la Das EFX, jme prends pas la tête, non Mais quest-ce qui fait marcher les sages, demande à Jimmy Jay Mc Solaar, Menelik, Sléo, les Démocrates D 1995, Befa surprend ses frères Contact Assassin pour lhomocide volontaire Psychose, Timide Et Sans Complexe Ce système ma fais comprendre que cest sexe violence rap Flooze On sample du jazz pour la voie du peuple Mafia Underground pr un Egotrip, porte ma Nautica Alliance Ethnik Jvous rassure La Base est 3x plus efficaces Quand elle connait son passé il ny a plus de menace Jétais en classe à lécole du micro dargent Le temps sefface, la vérité est toujours au dessus du mensonge Les derniers messagers pour le troupeau Et noublies jamais, qui sème le vent récolte le tempo Refrain Ri-k Méga fort en rap comme Pit Baccardi, ma Cliqua vise le sommet Je suis Lunatic, bestial pour de la monnaie Ill comme les X-men, IAM le lyrical Shurikn Une putain de tuerie digiBAM ! Fais péter les sons dans ta BM garçon, de Nidau jusquà Mâche je crache Mon Double H, lache des sacrés trucs de barge quand jen ai marre je fais mon argent dans la marge Je squatte avec mes crooks et mes Timberland boots Freestyle avec Big F dans le coin de rue Partage le même point de vue Ramènes les bouteilles mon gars tes bienvenu Vraiment rien à foutre enfoiré ici cest Bienne Pécho des lycéennes et fume la weed dans lICN À lancienne, mais aujourdhui cest qui le mythe ?! Ri-k retourne aux pyramides Balance un style monté de toutes pièces comme un braquage On ramène le coffre-fort, dégagez le passage ! Refrain Buds Penseur Protèges ta nuque comme le Wu-Tang la Base est Illmatic comme Nasty Nas Des disciples de la musique comme Shabazz Frèro, la vieille époque était si belle Je voyageais jusquà Harlem quand jécoutais lalbum de Big L Fais péter les décibels, balances le bon son La Base le potentiel tu le vois et tu prépares les pensements Infâmes, comme Havoc et Prodigy Jécoutais Mafia K1 Fry avec mon frère Mohi G Reposes en paix frolo Lamour que javais pour toi tu ne peux pas le comparer à la valeur des Polos La vie est brutale, le combat continue Comme Ideal J, check la répute quon a dans la rue Ravage partout où on passe, cest la base dans la place Les leaders de la nouvelle école Bus-a-Bus 2013, Connexion Tru Comers Comme la Time Bomb on explose tout le commerce Refrain</t>
+          <t>Ça part d'un rêve qui devient cauchemar Dans une poche l'arme Devenu couche-tard Mariés à la rue, on veut divorcer Y a beaucoup d'drames C'est d'nos cités qu'les coups partent On rêve de finir ce gros flic à coup de lattes Dieu juge nos curs, les hommes jugent nos actes Si on saigne, c'est qu'on est blessé Si on blesse, c'est qu'on est stressé Trop d'procès laissés en suspens On a nos propres règles, où les bâtards se font crosser Si y a émeute, c'est qu'y a un problème Si y un a problème, c'est qu'y a une cause Pourquoi proposer après qu'tout soit explosé Ils disent que quand on brûle, nos idées partent en fumée, ok Venez on s'pose, nous ce qu'on veut depuis c'est causer Le monde s'divise, ceux qui ont le pistolet, ceux qui creusent Nous on préfère mourir au combat, les larmes aux yeux Chez nous y a pas de victimes Cainfri, rebeus ou pikti On veut vivre dignes, marre de cette vie en freestyle On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé On voulait qu'le pays d'Marianne soit une terre d'accueil Ça reste une terre sous laquelle on enterre nos cercueils On voulait des logements décents On est des mille et des cent à avoir vu ces immeubles être en feu et à sang On voulait des moyens pour arriver à nos fins Aujourd'hui on cherche le moyen pour pas crever d'faim On voulait être libres et s'tenir à carreau Ils disent la vraie place de l'immigré c'est derrière les barreaux On voulait la vie d'rêve Comme dit Sefyu, on a l'cauchemar qui va avec Ici c'est marche ou crève On voulait des grands postes L'ascenseur social est bloqué au sous-sol On a pris l'escalier et on se retrouve dans le hall On voulait la prévention, on a eu la répression Aujourd'hui ils s'étonnent que ces flics soient victimes d'agressions On voulait le respect, on nous a chié dessus Quand on arrive ça pue l'danger, le pays est sens dessus dessous On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé On veut du concret, que Marianne comprenne Faut pas qu'la rue crève Y a le choix des armes et le feu dans les congrès Des solutions au délit de faciès Pas s'étonner qu'on investisse dans la cess' Tant qu'on vit dans la dèche, on allumera la mèche On veut un cinq pièces pour deux et non le contraire Français quand on gagne, immigré quand on perd On veut qu'ça change ça On veut du fric, le moyen d'en faire légalement On choisit l'illicite, les issues sont minces généralement On veut l'pouvoir, y en a marre de devoir Même si c'est avec le feu, on l'fera savoir On veut s'en sortir, c'est simple Plus de discours La jungle c'est là où on nous a parqués Pour ça qu'nous on a l'instinct bestial On veut éduquer parce que c'est le départ de tout Enlevez les ZEP, mettez-nous dans le privé y aura moins d'échecs On veut le dialogue, c'est comme ça que les choses se règlent On est ouverts Marianne, la rue t'observe On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé Et tu l'sais 2006, 2007 Empire, Aker, Spike Killer Miller Oums, la famille Dosseh, Marginal Sosa, Baccardi Pit Empire, et tu l'sais</t>
         </is>
       </c>
     </row>
@@ -1750,12 +1750,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>On Est Là Pour Longtemps</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Baccardi Cameron Pour longtemps Dans ce mouvement Tu l'sais Pit Baccardi 2002 Cameron Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement Va dire aux mômes qu'on a écrit les mots Créé des villes, donné l'envie À des gens qui s'mourraient dans les halls On est là parce qu'y a une âme On a ressenti c'truc fat qui nous a sortis d'nos sentiers glauques Avis de vengeance, le blizzard Souffle et ma silhouette s'pavane à l'auve J'ai pensé solo mais pour le groupe J'suis passé de salaud à chef de troupe Lâche-moi la grappe, t'écoutes mes couplets J'suis dans l'trip, faut qu'on s'accouple Pour longtemps mes rimes survoleront les cieux J'suis béni de Dieu, sans être star j'ferai partie des astres Que coulent des larmes de joie d'vos yeux XXX par l'système j'suis la vie même quand y a mort J'me plie et c'est le monde qui m'acclame J'suis là pour longtemps, entre vous et moi, je sens monter la flamme Qu'il vente ou qu'il neige, jamais de désastre Le cur y est, ma rime est de marbre Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Garde la foi Ne baisse pas les bras Qu'on se fiche de savoir où ça mènera Ni le temps qu'ça prendra Pour garder la vie Que demeure l'envie J'irai puiser en moi la force et la rage Pour traverser les âges Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Regarde comme on est beaux Le ciel nous a donné une force, une peau, le show, du rythme sur l'tempo J'bloque plus, insaisissable Touche mon corps, j'suis un château d'poussière, j'anime ton humeur sale Pour longtemps, ces images de joie avec le peuple Quand on bondait les salles et qu'la chaleur venait du sol Pour longtemps, cette mélancolie festive Qui met du piment à notre époque assassine Pour longtemps, cette zik Entre zigzags avec les flics Aujourd'hui, regarde, j'm'en sors Pour longtemps, Baccardi Pit J'te l'ai dit, mes textes sont des testaments Pour longtemps, cette vie Qui m'contraint à réussir On a des femmes, des mômes et des familles On construit le monde avec nos mots Pour longtemps, pour le mouvement Prêt à verser tout mon sang Pour que vive éternellement Notre cause, notre mouvement On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps Prêt à verser tout mon sang Éternellement Notre mouvement On veut marquer, ouais pour longtemps Le cur des gens Traversent le temps Prêt à verser tout mon sang Pour que vive éternellement Baccardi Notre cause, notre mouvement Putain d'prod, tu le sais On veut marquer pour longtemps Les esprits, le cur des gens Comme ces monuments traversent le temps</t>
+          <t>Die shit is lovely Rol met mijn nigger Rocky Die bitch zuipt en ze stopt niet Dus geen wonder dat ze kotst G Shit is ugly als een mother-mother Mami mingel met je brada brother Jayh a.k.a. lover-lover Die shit is aan hier Zo van Oh my godfather, father Het is de A.A.-voorzitter, Jacky in mijn belly Doe een borrel met de afkickgekken van de Jellinek Ik houd van dikke tieten, een reet als missy Elliott En of ik jou wel zeker maak jazeker ik vertel het je Ey Hieperdepiep ik rol nog steeds niet in een Jeep Ik wil niet dood ik houd van bitches Dus mijn leven is me lief En we zijn wel carnivoren Maar we eten niet van beef Je zusje is d'r kutje kwijt En Biggie twee die is de dief, peace Ik ben een BN'er Ja een beruchte nigger Ik ben niet nuchter nigger Dus regel je zusje nigger Ik hou van lekkernijen En ik hou van lekker vrijen Met ho's met vette dijen Ja ze kunnen lekker rijden Ik ben een echte geile Kom dus bij me doe je mee Noem me een motherfucker Want ik neem je moeder mee Ik heb een goed idee Je weet wel van mij Een dikke joint in mijn bek met een cognacie erbij Een dikke joint in mijn bek met een cognacie erbij Ben aan het rellen in de club, geile dimp aan m'n zij Shit is leip, schreeuw het maar lekker uit We gaan nog niet naar huis Nee we gaan nog niet naar huis Een dikke joint in me bek met een cognacie erbij Ben aan het rellen in de club Geile dimp aan m'n zij Opzij, we vullen de glazen bij We gaan nog niet naar huis Nee, we gaan nog niet naar huis En ook al gaan we naar huis, space ik door in de buurt Ben zo high, zie alleen vliegende schotels in mijn buurt Het lijkt alsof ik zit in de twilight zone Dus zoek een alien, bitch geef d'r een twilight zo Ik ben tipsy en mix die Whiskey zeer risky Totdat mijn hoofd draait als een motherfucking frisbee Rook geen THC, bitch, ben ook geen THC-lid Maar effe voor de record wel THC Recordz Rechtstreeks uit de B, draaiend all the day 't Is je nigger Badboy, getekend THC We gaan nog niet naar huis Zeg de eigenaar spang je niet ik ga niet voor je kluis Ze weten van mijn verleden Met Djannie aan m'n zij wordt het rellen brada zeker Let mezelf pak die peper, ben een ster, ik ken geen recht Ik ken de hel, ik ken geen hemel Ik ben te helle-fucking-heet, beng Ik ben getrouwd en heb een kind Inderdaad dat klopt Maar ga nog steeds naar de klote met mijn homeboy Rocks Zet de klok een uurtje terug als het te laat word En steek je middelvinger op als er gehaat wordt Ik sta meestal aan een tafel met een fles met mijn naam erop De tyfus voor de crisis, geld moet rollen, wij staan er toch Dus gooi je handen in de lucht Zodat ik zie dat je niet speelt met je tieten of je kut Daar step, step ik weer is op Met die hip en die hop op die hit van de Rocks Transformer spit Transformeer je club, doe die shit uit me kop Tot nu draait alles Whiskey doe daar mijn melk maar in En cornflakes met rum Ik rap niet, die verse spit zichzelf wel in Feesten, spacen, blazen wrede j's en hete P's De T.H.C., de B, de P Nog steeds die emcee hey je weet Zwaar doorgedraaid Insane in de brain, vol met ruis Zit thuis op de bank voor de buis En schreeuw dagen later nog steeds Ik ga niet naar huis! Midden in de club met een jay in me smoel Top dubbel op top Ben nog steeds cool Met die Sterrenlaan grooves op die vloer Piep, weg, yes, gone, doei Ik wil niet naar huis want Ik heb nog Silver Haze en vloei Dus paas die liti voor een fikkie En kinnenleer op mijn smoel Yes, me rasta weg Me succes gaat nu tantoe ver Nou bounce 'em gek 't Is kemperveen van de mixtape 1 tot 3.2 Boerenvla die je dagelijks eet Mami kom en schudt die reet En rumble in de jungle voor mister kemper en cashis clay Oké, oké, de verdachte is terug Maar een dag of 7 geleden Ik word weer verdacht, ben berucht Ja de hele stad had weer lucht Ben een zachte zeg nuchter Zonder RB geen pakkies Zonder Djannie geen drugs meer Ja ik bracht wat je lustte Weet je hebt me gemist Maar zit ik even vast Ga je vreemd net als mijn bitch Voor al mijn homies in de bajes Dikke spliff draaiers, gajes, maaiers Ja de hittespitter heb een dikke Joint in me bek met een cognacje erbij Of niet dan ik pof van de wiet Maar ik pof tot ik niet kan staan Meer normaal in de zaal ik geniet van Tropical uppers, toppers we stoppen niet Brokkelen toppen grove wiet puff puff En pass de pit van tff tff Ikke blaze op, de shit die leeft op De chicks zijn heel hot Pak je lucht zo van tff tff Ikke Scotte de rij en ging van buiten naar binnen Keerde de club binnenstebuiten Breng het buiten naar binnen Nakker Dit is de party after the party De afterparty Ik heb een tree Gold vers en nog een fles Bacardi Alleen maar BN'ers zijn er, laat het feest beginnen Bekende Nederlanders, ik ben een Bekende Nigger Ik ben met de welbekende bende Ben bekend met de trend, bedenk en breng ze Mijn mensen zijn grenzeloos economisch De click, de crew, shows, ik spit en ik flow Ik show, ja ik doe role in mijn Futurola vloe Wie brengt die bangers naar je toe? Me, that's who</t>
         </is>
       </c>
     </row>
@@ -1767,12 +1767,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>On fait les choses en 2.0.0.0</t>
+          <t>Oublie</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Calmement, hey he Nouvelle version pour ce nouveau millénaire Hé hé, cest en 2000 que ca spasse Pit Baccardi, Mystik, Rohff, Ben-J, Jacky On dit quoi ? Tentends pas ou quoi ? Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Je suis le mec qu'on appelle Mystik, Mystikamenté Viens, il y a de la chaleur ici, c'est mucha caliente Arrête, tu sais pas feinter avec ton style emprunté J'te laisse même pas le temps de finir, je veux te ch... J'ai plus de dribbles qu'il n'y a de touches sur un synthé Sale chien t'es foutu dans ta tête et pinté Moi je fracasse tout à la télé, kiffe pas du tout Christine Ockrent N'aie crainte, c'est une touche d'ironie teintée Chaque passage au micro testé, tu sais qu'j'veux pointer Moi j'suis le petit noir, café très très noir Beaucoup me détestent, préfèrent un des 3T Donne plus que le quinté, dans Mystik y'a qu'un T Trinquez à la mienne santé à ma souveraineté dans ta montée Dans l'esprit mes mots vont teinter Sachez, fâché, deux triple zéro Mobebissi M.Y.S.T.I.K, pas dC enfoiré Le bled on fume la chose pire qu'un bedo blindé Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si le rap est un jeu appelle-moi player Si t'as l'oreille écoute ma rime bien, jsuis toujours lmeilleur Épelle B, le A, 2C, A.R.D.I., le B.A. BA du B. on rappe dans ta stéréo Bah tout le monde confond, le rap c'est un moyen pas une fin Ni un sprint mais une course de fond J'me focalise pas sur les histoires de meufs N'immortalise pas ces histoires de cité et d'keufs Je l'ouvre parce que la ferme c'est pour les cochons J'suis acteur quand j'ai mon rôle à jouer et pas un autre Lui veut être moi, elle veut être à moi Et moi j'voudrais être à l'affiche dans l'R.E.R. du mois Pas fâché que machin ait pompé mon style Pacha et peut-être cheum, mais j'ai léché plus de nichons que toi Baccardi juste pour le goût goûte, c'est pas des rimes au compte-goutte Qu'elles coupent toutes les têtes sur ma route putain ! Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Il est bien temps de concrétiser Bois à ma santé quand tu vas tiser Tout pour l'oseille dans Guet-Apens j'te l'disais Si t'es à poil c'est pas grave faut économiser L'union fait la force, toi et tes potes faut cotiser De mon Tchuss la jalousie j'm'en vais attiser Mon style mérite de faire la une du journal télévisé Mais on m'a dit qu'c'était des chbeb qu'ils produisaient Donc en tant qu'anti-chbeb, ton colon je viens briser Inutile c'est pas la peine de sympathiser C'n'est pas mon pedigree Je ne pense qu'à traumatiser Rohff excelle, de Vitry à Garges Sarcelles Pour mes potos en cellule, ma voix traverse le ciel Y a pas dque-fri, que du potentiel, jen suis la crème Irrite 100 kilogrammes pour les clients fidèles Y a pas dchrome, de mire Et lnombre de rappeurs mis à l'a-de-men Y a ce qui faut derrière du de-mon Quand on mdemande Rohff ça va ? Pépèrement Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Écoute ce style, écoute ma voix Tu sais qui je suis, n'est-ce pas ? L'homme qui dresse la rime et tchatche sec, ça tu le sais déjà J'atterris sur ce beat avec Mystik, Rohff et Pit Baccardi Jacky mon acolyte me court-circuite Clic clic. Ça défouraille et je ne vais pas faire de détail J'vais t'étriper, j'vais t'égorger et transpercer tes entrailles À coups de front kick, à coups high-kick, à coups de patates comme en boxe Thaï Mec, tu vas saigner c'est clair, j'ai un style qui cisaille Yes Aye, j'suis un vrai guerrier masaï J'terrorise mes ennemis partout où je passe j'fous la pagaille C'est Jacky que tu veux clash, qu'est-ce qui ce passe t'es chicktaille T'as 10 secondes pour t'excuser ou préparer tes funérailles Mais ma tactique c'est l'attaque, clair et net pas de mic mac Je ne vais pas jeter des fleurs a ceux qui méritent des claques Non, j'ai des lyrics en stock, des vannes et des blagues en bloc À la disposition de celui qui me provoque Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en deux triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en deux triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro Si je dois te lyncher, j'vais t'lyncher, t'auras beau crier à l'aide On fait les choses en 2 triple zéro Je vais te brûler comme du teuchi et te fumer comme un spliff de zèbe Toujours les mêmes mecs en 2 triple zéro</t>
+          <t>Baccardi 2003 Diam's DJ Kost Vitaa Hey J'arrive avec flow, tout dans l'textuel, tue dans l'textile Me fais pas d'bile, ça suis dans l'sexuel, j'dirais même excellent ha ha Ancien briscard, j'reste sexy, le bruit court que j'suis un brusqueur On m'jalouse, j'ai du succès Vas-y arrête Tu sais qu'c'est avec moi qu'il faut tester, tout c'qui est sexe sauvage J'défie celle qui veut protester Vitaa, hey Faut qu'j'lui explique sans la faire bisquer J'ai peur de rien, eh, j'kiffe grave quand y a du risque Chérie, tu veux qu'on s'mette dans l'contexte? Pour faire quoi? Moi j'kiffe pas les bandits J'te donne du plaisir, j'suis pas là pour te vexer Juste pour l'sexe, tu crois qu'j'ai pas compris? Relax, j'me rattrape, si j't'ai mal indexée Pour m'avoir il faudrait qu'tu m'supplies Juste toi et moi, viens qu'on parle un peu de sexe J'veux pas d'toi, laisse tomber oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Hey Vitaa, y a trop d'chiens dans l'coin Qui regarde ton body, qui veulent te aah dans l'coin Ils veulent ta bouche, tes seins, tes fesses, tes reins Et te disent bouge tes fesses sur le terrain Vas-y Vitaa, mets-lui un stop sur cette zik Stooooooop! Le genre de chien qui fait du lèche-vitrine en Belgique Elle sait qu'elle est sexy, elle sait comment les exciter Mais elle veut pas d'un mec qui a besoin d'aah pour exister Ooh ooh ooh Le gars s'approche de moi, me dit prends un verre Ooh ooh ooh Alors qu'y a trois secondes il insultait ma mère Ooh ooh ooh T'as pas compris tu veux p't-être que je réitère Vas-y Vitaa, te laisse pas faire J'te dis qu'j'suis pas pour toi, ferme les yeux mon frère Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Pourquoi t'insistes, tu vois bien c'est pas la même Envie qui m'anime Pourquoi t'insistes c'est pas la peine Sois gentil oublie Le genre de gars qui rêve de moi toute la nuit La serviette à coté d'son lit Il croit qu'avec sa Merco TDI Il pourra nous mettre comme ça dans son lit Je sais qu'tu veux mon body Tu crois qu'je sais pas qu'j'suis sexy Mais j'vois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Vitaa, Diams Baccardi Pit Family Brown Double Face 5 Tu l'sais DJ Kost Tu crois qu'tout est permis Quand tu vois son body J'crois qu't'as pas compris C'est elle qui choisit, remballe et oublie Ouais j'crois qu'c'est permis Quand j'vois son body Baccardi Et tu l'sais</t>
         </is>
       </c>
     </row>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>On lâchera pas l’affaire</t>
+          <t>Pas 2 limite</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>Abdulaï résurrection, le hip-hop a une érection Je veux tuer l'temps mais le temps veut ma peau On s'comprend entre criminels, on s'tire le chapeau Cinq litres de sang dans l'corps pour graver l'Histoire Les points sur les Ä, sur ta gueule, ta ratte sur l'trottoir Bavard en bastos, muet à l'interrogatoire Mon groupuscule t'encule jusqu'à la cervelle J't'ai lobotomisé, le rap vient d'Garges Sarcelles Cherche la vibe comme un tox', j'suis dopé J'suis un paradoxe, un calibre avec un message de paix La voie est libre, j'vise et shoote avant qu'les anges m'accueillent Des salopes surfent sur la vague avec une planche de cercueil Engreneur avec une bouteille, d'l'essence un chiffon Pardonne-leur, Seigneur, ils savent pas c'qu'ils font Moi j'donne l'heure, du fond, d'la bonne herbe, du son qui traumatise C'est comme la roulette russe avec un automatique C'est dead Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler On baise le buzz, toujours en biz, deuil, disque C'est mort pour nous c'est l'Christ Qui va nous mettre sous terre dans c'biz du disque Il risque d'y avoir des flaques de sang, la rue s'attriste Alors on pisse, le Ä pisse sur les langues de putes Hip-hop résistants Kamikazes, genre soldats d'Afghanistan Avec le traître aux dreadlocks on a mis la distance Assiste à la reconquête d'l'empire, le chemin est glissant La liste des victimes s'allonge, mec on reste puissants Une guerre, cest une vie pour une vie Lindustrie a rien compris Hamed Daye au micro Cest comme ce putain de Zarkaoui Evadé de Guantanamo Allah est avec les négros Toi avec les clitos J'vous excise avec mon stylo Jviens faire lintifada avec mon canon scié Prier, crier, trier Avec le démon jvous envoie griller Cest pas laïd pourtant ça va saigner Oualaye, tes une caille Au djihad viens tassocier Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler Une ogive dans ta tête gros, pour tout faire sauter Mec, ma Secte rentre sec mais personne peut stopper C.A.L. gangsta, ceux qui kiffent votez Quand ça baise, l'État, l'bleu, toujours opé Baskets blanches, bruit d'coupe-coupe, fly-jacket Traverse pas ma zone MC ou on t'rackette C'est chaud chaud, un yo-yo pour les frères au cachot Abdulaï à la mort, c'est d'la bonne t'inquiète Laisse-moi, ha Dé-délimiter l'périmètre de sécurité Déto-détonation verbale, j'ai la bouche dynamitée Avec un dé-débit direct, eux ont l'débit différé T'inquiète, ici ça kicke sec, mes cailles sont dé-déterminées Laisse passer mon G.A.N.G Au micro j'ai la haine, tu ressens le danger La donne va changer, les MC vont manger Le hip-hop on vient venger Ça dé-dé-défouraille, sur le beat c'est Abdulaï Sorti tout droit des ténèbres pour bénir la racaille Barbare popo, j'viens m'faire per-pom Trop sale, poto, la barre pour quer-cro Trop rap, trop fort, trop squale, trop gore J'ai un don d'Abdulaï, la kalash dans l'cerveau Kamikazes, on débarque et les balles parlent C'est l'bal des claques pour les baltringues, le ball-trap C'est l'banc d'touche, la machette, ta bande qui bataille Un pack de chiens entre potos On baise le biz putain d'bâtards Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>On lâchera pas l’affaire</t>
+          <t>Présentation</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Originaire de la terre mère Où les marmots dansent dans des marres d'eau Faut dire tous ces colons y'en a marre d'eux Regarde nos femmes et notre faune, j'en suis fan J'ai le feu au cur je te jure Notre historique n'est fait que de coups de fouets Kunta a fui, après avoir brisé les chaînes Il était noir, faut que ce soit significatif Pour nous les jeunes Afrique, Antilles, il n'y a pas de différences Si ce n'est qu'il y a une minorité Cupide qui y croit encore dur comme fouets Le silence tue le poète de Karukera à Yaoundé Je vous convie à un apéritif de cannes à sucre et vin de palme Si t'es blanc d'être noir nous on est fiers noirs d'être Une fleur qui perd ses pétales C'est un problème de racines peut-être Destination différente via les mêmes bateaux Des bordures de Kribi jusqu'à l'île aux belles eaux Doc qui sait si nos aïeux ont siroté ensemble Tous dans le même nid puis séparés tel un envol d'oiseau On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Il n'y a pas de meufs à poil dans mon salon Pas de pétasse que j'connais pas qui bronze sur ma terasse J'vais produire Cosette et la Schtroumphette On fera gagner leur disque à la Skyroulette Citer des noms et de toute manière Qu'est-ce que je risque ? Des maisons de disques, de lÉtat ou du fisc Tous on veut qué-ma la musique le cinéma J'ai trop mis de coups pour sortir de ce putain de coma Trop mis de coups, aux politiques et aux zoulous Ma pause préférée prendre la fille à quatre pattes Qu'après l'amour, elle me fasse chauffer des pâtes Comme tu le sais je suis 100 mulâtre On lâchera pas l'affaire et on continue à se battre Nous ne sommes pas les mêmes noirs Mais je le suis quand même On se laissera pas faire, on lâchera pas l'affaire Tout le monde attend l'album du Ministère A.M.E.R Un étranger avec ou sans papiers J'ai le sang trop chaud trop dur à tempérer Pas que des racistes en France Même le climat me fait chier Cette différence n'a pas lieu aux yeux des lle-fi Que les hommes changent du Kosovo jusqu'en Serbie... On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paire Tous dans le même bateau, le 22 mai à l'Olympia Noirs, Blancs, Jaunes On fumait le même haïa Et dans ce même bateau se cachait Abdoulaï Un clandé tout comme moi et les fayas On est dans le même bateau Dans le même bateau, je te jure En ce qui concerne la musique et le fric et le fric Prends tes 10 et laisse-toi faire Allez viens, on continue nos affaires On est dans le même bateau de Place des fêtes à la Chapelle Bougnoules ou goujats en nous interpellant, ils nous appellent Avec Pit, j'complote et préviens mes potes Vas-y kiffe, sirote et mets des capotes Avant-gardiste face aux maisons de disques On craint ce qu'on ignore mais crois-tu j'ignore Que le secteur est craint? Vu qu'ils ignorent pas qu'on gère notre biz chez eux ça craint L'humanité groupe de voyageurs sur le bateau terre On se laissera pas faire, on lâchera pas l'affaire On n'a pas le même destin mais nos galères sont les mêmes On se laissera pas faire, on lâchera pas l'affaire Première Classe Doc Communication font la paireParoles rédigées et annotées par la communauté française de Rap Genius</t>
+          <t>A musician wakes from a terrible nightmare. In his dream he finds himself in a society where music education has been made mandatory. We are helping our students become more competitive in an increasingly sound-filled world. Educators, school systems, and the state are put in charge of this vital project. Studies are commissioned, committees are formed, and decisions are madeall without the advice or participation of a single working musician or composer. Since musicians are known to set down their ideas in the form of sheet music, these curious black dots and lines must constitute the language of music. It is imperative that students become fluent in this language if they are to attain any degree of musical competence indeed, it would be ludicrous to expect a child to sing a song or play an instrument without having a thorough grounding in music notation and theory. Playing and listening to music, let alone composing an original piece, are considered very advanced topics and are generally put off until college, and more often graduate school. As for the primary and secondary schools, their mission is to train students to use this languageto jiggle symbols around according to a fixed set of rules Music class is where we take out our staff paper, our teacher puts some notes on the board, and we copy them or transpose them into a different key. We have to make sure to get the clefs and key signatures right, and our teacher is very picky about making sure we fill in our quarter-notes completely. One time we had a chromatic scale problem and I did it right, but the teacher gave me no credit because I had the stems pointing the wrong way. In their wisdom, educators soon realize that even very young children can be given this kind of musical instruction. In fact it is considered quite shameful if ones third-grader hasnt completely memorized his circle of fifths. Ill have to get my son a music tutor. He simply wont apply himself to his music homework. He says its boring. He just sits there staring out the window, humming tunes to himself and making up silly songs. In the higher grades the pressure is really on. After all, the students must be prepared for the standardized tests and college admissions exams. Students must take courses in Scales and Modes, Meter, Harmony, and Counterpoint. Its a lot for them to learn, but later in college when they finally get to hear all this stuff, theyll really appreciate all the work they did in high school. Of course, not many students actually go on to concentrate in music, so only a few will ever get to hear the sounds that the black dots represent. Nevertheless, it is important that every member of society be able to recognize a modulation or a fugal passage, regardless of the fact that they will never hear one. To tell you the truth, most students just arent very good at music. They are bored in class, their skills are terrible, and their homework is barely legible. Most of them couldnt care less about how important music is in todays world they just want to take the minimum number of music courses and be done with it. I guess there are just music people and non-music people. I had this one kid, though, man was she sensational! Her sheets were impeccableevery note in the right place, perfect calligraphy, sharps, flats, just beautiful. Shes going to make one hell of a musician someday. Waking up in a cold sweat, the musician realizes, gratefully, that it was all just a crazy dream. Of course! he reassures himself, No society would ever reduce such a beautiful and meaningful art form to something so mindless and trivial no culture could be so cruel to its children as to deprive them of such a natural, satisfying means of human expression. How absurd! Meanwhile, on the other side of town, a painter has just awakened from a similar nightmare... I was surprised to find myself in a regular school classroomno easels, no tubes of paint. Oh we dont actually apply paint until high school, I was told by the students. In seventh grade we mostly study colors and applicators. They showed me a worksheet. On one side were swatches of color with blank spaces next to them. They were told to write in the names. I like painting, one of them remarked, they tell me what to do and I do it. Its easy! After class I spoke with the teacher. So your students dont actually do any painting? I asked. Well, next year they take Pre-Paint-by-Numbers. That prepares them for the main Paint-by-Numbers sequence in high school. So theyll get to use what theyve learned here and apply it to real-life painting situationsdipping the brush into paint, wiping it off, stuff like that. Of course we track our students by ability. The really excellent paintersthe ones who know their colors and brushes backwards and forwardsthey get to the actual painting a little sooner, and some of them even take the Advanced Placement classes for college credit. But mostly were just trying to give these kids a good foundation in what painting is all about, so when they get out there in the real world and paint their kitchen they dont make a total mess of it. Um, these high school classes you mentioned... You mean Paint-by-Numbers? Were seeing much higher enrollments lately. I think its mostly coming from parents wanting to make sure their kid gets into a good college. Nothing looks better than Advanced Paint-by-Numbers on a high school transcript. Why do colleges care if you can fill in numbered regions with the corresponding color? Oh, well, you know, it shows clear-headed logical thinking. And of course if a student is planning to major in one of the visual sciences, like fashion or interior decorating, then its really a good idea to get your painting requirements out of the way in high school. I see. And when do students get to paint freely, on a blank canvas? You sound like one of my professors! They were always going on about expressing yourself and your feelings and things like thatreally way-out-there abstract stuff. Ive got a degree in Painting myself, but Ive never really worked much with blank canvasses. I just use the Paint-by-Numbers kits supplied by the school board.Sadly, our present system of mathematics education is precisely this kind of nightmare. In fact, if I had to design a mechanism for the express purpose of destroying a childs natural curiosity and love of pattern-making, I couldnt possibly do as good a job as is currently being doneI simply wouldnt have the imagination to come up with the kind of senseless, soul- crushing ideas that constitute contemporary mathematics education. Everyone knows that something is wrong. The politicians say, we need higher standards. The schools say, we need more money and equipment. Educators say one thing, and teachers say another. They are all wrong. The only people who understand what is going on are the ones most often blamed and least often heard the students. They say, math class is stupid and boring, and they are right.Mathematics and CultureThe first thing to understand is that mathematics is an art. The difference between math and the other arts, such as music and painting, is that our culture does not recognize it as such. Everyone understands that poets, painters, and musicians create works of art, and are expressing themselves in word, image, and sound. In fact, our society is rather generous when it comes to creative expression architects, chefs, and even television directors are considered to be working artists. So why not mathematicians? Part of the problem is that nobody has the faintest idea what it is that mathematicians do. The common perception seems to be that mathematicians are somehow connected with scienceperhaps they help the scientists with their formulas, or feed big numbers into computers for some reason or other. There is no question that if the world had to be divided into the poetic dreamers and the rational thinkers most people would place mathematicians in the latter category. Nevertheless, the fact is that there is nothing as dreamy and poetic, nothing as radical, subversive, and psychedelic, as mathematics. It is every bit as mind blowing as cosmology or physics mathematicians conceived of black holes long before astronomers actually found any, and allows more freedom of expression than poetry, art, or music which depend heavily on properties of the physical universe. Mathematics is the purest of the arts, as well as the most misunderstood. So let me try to explain what mathematics is, and what mathematicians do. I can hardly do better than to begin with G.H. Hardys excellent descriptionA mathematician, like a painter or poet, is a maker of patterns. If his patterns are more permanent than theirs, it is because they are made with ideas.So mathematicians sit around making patterns of ideas. What sort of patterns? What sort of ideas? Ideas about the rhinoceros? No, those we leave to the biologists. Ideas about language and culture? No, not usually. These things are all far too complicated for most mathematicians taste. If there is anything like a unifying aesthetic principle in mathematics, it is this simple is beautiful. Mathematicians enjoy thinking about the simplest possible things, and the simplest possible things are imaginary. For example, if Im in the mood to think about shapesand I often amI might imagine a triangle inside a rectangular boxI wonder how much of the box the triangle takes up? Two-thirds maybe? The important thing to understand is that Im not talking about this drawing of a triangle in a box. Nor am I talking about some metal triangle forming part of a girder system for a bridge. Theres no ulterior practical purpose here. Im just playing. Thats what math iswondering, playing, amusing yourself with your imagination. For one thing, the question of how much of the box the triangle takes up doesnt even make any sense for real, physical objects. Even the most carefully made physical triangle is still a hopelessly complicated collection of jiggling atoms it changes its size from one minute to the next. That is, unless you want to talk about some sort of approximate measurements. Well, thats where the aesthetic comes in. Thats just not simple, and consequently it is an ugly question which depends on all sorts of real-world details. Lets leave that to the scientists. The mathematical question is about an imaginary triangle inside an imaginary box. The edges are perfect because I want them to bethat is the sort of object I prefer to think about. This is a major theme in mathematics things are what you want them to be. You have endless choices there is no reality to get in your way. On the other hand, once you have made your choices for example I might choose to make my triangle symmetrical, or not then your new creations do what they do, whether you like it or not. This is the amazing thing about making imaginary patterns they talk back! The triangle takes up a certain amount of its box, and I dont have any control over what that amount is. There is a number out there, maybe its two-thirds, maybe it isnt, but I dont get to say what it is. I have to find out what it is. So we get to play and imagine whatever we want and make patterns and ask questions about them. But how do we answer these questions? Its not at all like science. Theres no experiment I can do with test tubes and equipment and whatnot that will tell me the truth about a figment of my imagination. The only way to get at the truth about our imaginations is to use our imaginations, and that is hard work. In the case of the triangle in its box, I do see something simple and prettyIf I chop the rectangle into two pieces like this, I can see that each piece is cut diagonally in half by the sides of the triangle. So there is just as much space inside the triangle as outside. That means that the triangle must take up exactly half the box! This is what a piece of mathematics looks and feels like. That little narrative is an example of the mathematicians art asking simple and elegant questions about our imaginary creations, and crafting satisfying and beautiful explanations. There is really nothing else quite like this realm of pure idea its fascinating, its fun, and its free! Now where did this idea of mine come from? How did I know to draw that line? How does a painter know where to put his brush? Inspiration, experience, trial and error, dumb luck. Thats the art of it, creating these beautiful little poems of thought, these sonnets of pure reason. There is something so wonderfully transformational about this art form. The relationship between the triangle and the rectangle was a mystery, and then that one little line made it obvious. I couldnt see, and then all of a sudden I could. Somehow, I was able to create a profound simple beauty out of nothing, and change myself in the process. Isnt that what art is all about? This is why it is so heartbreaking to see what is being done to mathematics in school. This rich and fascinating adventure of the imagination has been reduced to a sterile set of facts to be memorized and procedures to be followed. In place of a simple and natural question about shapes, and a creative and rewarding process of invention and discovery, students are treated to thisThe area of a triangle is equal to one-half its base times its height. Students are asked to memorize this formula and then apply it over and over in the exercises. Gone is the thrill, the joy, even the pain and frustration of the creative act. There is not even a problem anymore. The question has been asked and answered at the same timethere is nothing left for the student to do. Now let me be clear about what Im objecting to. Its not about formulas, or memorizing interesting facts. Thats fine in context, and has its place just as learning a vocabulary doesit helps you to create richer, more nuanced works of art. But its not the fact that triangles take up half their box that matters. What matters is the beautiful idea of chopping it with the line, and how that might inspire other beautiful ideas and lead to creative breakthroughs in other problemssomething a mere statement of fact can never give you. By removing the creative process and leaving only the results of that process, you virtually guarantee that no one will have any real engagement with the subject. It is like saying that Michelangelo created a beautiful sculpture, without letting me see it. How am I supposed to be inspired by that? And of course its actually much worse than thisat least its understood that there is an art of sculpture that I am being prevented from appreciating. By concentrating on what, and leaving out why, mathematics is reduced to an empty shell. The art is not in the truth but in the explanation, the argument. It is the argument itself which gives the truth its context, and determines what is really being said and meant. Mathematics is the art of explanation. If you deny students the opportunity to engage in this activityto pose their own problems, make their own conjectures and discoveries, to be wrong, to be creatively frustrated, to have an inspiration, and to cobble together their own explanations and proofsyou deny them mathematics itself. So no, Im not complaining about the presence of facts and formulas in our mathematics classes, Im complaining about the lack of mathematics in our mathematics classes.If your art teacher were to tell you that painting is all about filling in numbered regions, you would know that something was wrong. The culture informs youthere are museums and galleries, as well as the art in your own home. Painting is well understood by society as a medium of human expression. Likewise, if your science teacher tried to convince you that astronomy is about predicting a persons future based on their date of birth, you would know she was crazyscience has seeped into the culture to such an extent that almost everyone knows about atoms and galaxies and laws of nature. But if your math teacher gives you the impression, either expressly or by default, that mathematics is about formulas and definitions and memorizing algorithms, who will set you straight? The cultural problem is a self-perpetuating monster students learn about math from their teachers, and teachers learn about it from their teachers, so this lack of understanding and appreciation for mathematics in our culture replicates itself indefinitely. Worse, the perpetuation of this pseudo-mathematics, this emphasis on the accurate yet mindless manipulation of symbols, creates its own culture and its own set of values. Those who have become adept at it derive a great deal of self-esteem from their success. The last thing they want to hear is that math is really about raw creativity and aesthetic sensitivity. Many a graduate student has come to grief when they discover, after a decade of being told they were good at math, that in fact they have no real mathematical talent and are just very good at following directions. Math is not about following directions, its about making new directions. And I havent even mentioned the lack of mathematical criticism in school. At no time are students let in on the secret that mathematics, like any literature, is created by human beings for their own amusement that works of mathematics are subject to critical appraisal that one can have and develop mathematical taste. A piece of mathematics is like a poem, and we can ask if it satisfies our aesthetic criteria Is this argument sound? Does it make sense? Is it simple and elegant? Does it get me closer to the heart of the matter? Of course theres no criticism going on in schooltheres no art being done to criticize! Why dont we want our children to learn to do mathematics? Is it that we dont trust them, that we think its too hard? We seem to feel that they are capable of making arguments and coming to their own conclusions about Napoleon, why not about triangles? I think its simply that we as a culture dont know what mathematics is. The impression we are given is of something very cold and highly technical, that no one could possibly understanda self- fulfilling prophesy if there ever was one. It would be bad enough if the culture were merely ignorant of mathematics, but what is far worse is that people actually think they do know what math is aboutand are apparently under the gross misconception that mathematics is somehow useful to society! This is already a huge difference between mathematics and the other arts. Mathematics is viewed by the culture as some sort of tool for science and technology. Everyone knows that poetry and music are for pure enjoyment and for uplifting and ennobling the human spirit hence their virtual elimination from the public school curriculum but no, math is important. SIMPLICIO Are you really trying to claim that mathematics offers no useful or practical applications to society? SALVIATI Of course not. Im merely suggesting that just because something happens to have practical consequences, doesnt mean thats what it is about. Music can lead armies into battle, but thats not why people write symphonies. Michelangelo decorated a ceiling, but Im sure he had loftier things on his mind. SIMPLICIO But dont we need people to learn those useful consequences of math? Dont we need accountants and carpenters and such? SALVIATI How many people actually use any of this practical math they supposedly learn in school? Do you think carpenters are out there using trigonometry? How many adults remember how to divide fractions, or solve a quadratic equation? Obviously the current practical training program isnt working, and for good reason it is excruciatingly boring, and nobody ever uses it anyway. So why do people think its so important? I dont see how its doing society any good to have its members walking around with vague memories of algebraic formulas and geometric diagrams, and clear memories of hating them. It might do some good, though, to show them something beautiful and give them an opportunity to enjoy being creative, flexible, open-minded thinkersthe kind of thing a real mathematical education might provide. SIMPLICIO But people need to be able to balance their checkbooks, dont they? SALVIATI Im sure most people use a calculator for everyday arithmetic. And why not? Its certainly easier and more reliable. But my point is not just that the current system is so terribly bad, its that what its missing is so wonderfully good! Mathematics should be taught as art for arts sake. These mundane useful aspects would follow naturally as a trivial by-product. Beethoven could easily write an advertising jingle, but his motivation for learning music was to create something beautiful. SIMPLICIO But not everyone is cut out to be an artist. What about the kids who arent math people? How would they fit into your scheme? SALVIATI If everyone were exposed to mathematics in its natural state, with all the challenging fun and surprises that that entails, I think we would see a dramatic change both in the attitude of students toward mathematics, and in our conception of what it means to be good at math. We are losing so many potentially gifted mathematicianscreative, intelligent people who rightly reject what appears to be a meaningless and sterile subject. They are simply too smart to waste their time on such piffle. SIMPLICIO But dont you think that if math class were made more like art class that a lot of kids just wouldnt learn anything? SALVIATI Theyre not learning anything now! Better to not have math classes at all than to do what is currently being done. At least some people might have a chance to discover something beautiful on their own. SIMPLICIO So you would remove mathematics from the school curriculum? SALVIATI The mathematics has already been removed! The only question is what to do with the vapid, hollow shell that remains. Of course I would prefer to replace it with an active and joyful engagement with mathematical ideas. SIMPLICIO But how many math teachers know enough about their subject to teach it that way? SALVIATI Very few. And thats just the tip of the iceberg...Mathematics in SchoolThere is surely no more reliable way to kill enthusiasm and interest in a subject than to make it a mandatory part of the school curriculum. Include it as a major component of standardized testing and you virtually guarantee that the education establishment will suck the life out of it. School boards do not understand what math is, neither do educators, textbook authors, publishing companies, and sadly, neither do most of our math teachers. The scope of the problem is so enormous, I hardly know where to begin. Lets start with the math reform debacle. For many years there has been a growing awareness that something is rotten in the state of mathematics education. Studies have been commissioned, conferences assembled, and countless committees of teachers, textbook publishers, and educators whatever they are have been formed to fix the problem. Quite apart from the self-serving interest paid to reform by the textbook industry which profits from any minute political fluctuation by offering up new editions of their unreadable monstrosities, the entire reform movement has always missed the point. The mathematics curriculum doesnt need to be reformed, it needs to be scrapped. All this fussing and primping about which topics should be taught in what order, or the use of this notation instead of that notation, or which make and model of calculator to use, for gods sakeits like rearranging the deck chairs on the Titanic! Mathematics is the music of reason. To do mathematics is to engage in an act of discovery and conjecture, intuition and inspiration to be in a state of confusionnot because it makes no sense to you, but because you gave it sense and you still dont understand what your creation is up to to have a breakthrough idea to be frustrated as an artist to be awed and overwhelmed by an almost painful beauty to be alive, damn it. Remove this from mathematics and you can have all the conferences you like it wont matter. Operate all you want, doctors your patient is already dead. The saddest part of all this reform are the attempts to make math interesting and relevant to kids lives. You dont need to make math interestingits already more interesting than we can handle! And the glory of it is its complete irrelevance to our lives. Thats why its so fun! Attempts to present mathematics as relevant to daily life inevitably appear forced and contrived You see kids, if you know algebra then you can figure out how old Maria is if we know that she is two years older than twice her age seven years ago! As if anyone would ever have access to that ridiculous kind of information, and not her age. Algebra is not about daily life, its about numbers and symmetryand this is a valid pursuit in and of itselfSuppose I am given the sum and difference of two numbers. How can I figure out what the numbers are themselves?Here is a simple and elegant question, and it requires no effort to be made appealing. The ancient Babylonians enjoyed working on such problems, and so do our students. And I hope you will enjoy thinking about it too! We dont need to bend over backwards to give mathematics relevance. It has relevance in the same way that any art does that of being a meaningful human experience. In any case, do you really think kids even want something that is relevant to their daily lives? You think something practical like compound interest is going to get them excited? People enjoy fantasy, and that is just what mathematics can providea relief from daily life, an anodyne to the practical workaday world. A similar problem occurs when teachers or textbooks succumb to cutesyness. This is where, in an attempt to combat so-called math anxiety one of the panoply of diseases which are actually caused by school, math is made to seem friendly. To help your students memorize formulas for the area and circumference of a circle, for example, you might invent this whole story about Mr. C, who drives around Mrs. A and tells her how nice his two pies are C 2r and how her pies are square A r2 or some such nonsense. But what about the real story? The one about mankinds struggle with the problem of measuring curves about Eudoxus and Archimedes and the method of exhaustion about the transcendence of pi? Which is more interestingmeasuring the rough dimensions of a circular piece of graph paper, using a formula that someone handed you without explanation and made you memorize and practice over and over or hearing the story of one of the most beautiful, fascinating problems, and one of the most brilliant and powerful ideas in human history? Were killing peoples interest in circles for gods sake! Why arent we giving our students a chance to even hear about these things, let alone giving them an opportunity to actually do some mathematics, and to come up with their own ideas, opinions, and reactions? What other subject is routinely taught without any mention of its history, philosophy, thematic development, aesthetic criteria, and current status? What other subject shuns its primary sourcesbeautiful works of art by some of the most creative minds in historyin favor of third-rate textbook bastardizations? The main problem with school mathematics is that there are no problems. Oh, I know what passes for problems in math classes, these insipid exercises. Here is a type of problem. Here is how to solve it. Yes it will be on the test. Do exercises 1-35 odd for homework. What a sad way to learn mathematics to be a trained chimpanzee. But a problem, a genuine honest-to-goodness natural human questionthats another thing. How long is the diagonal of a cube? Do prime numbers keep going on forever? Is infinity a number? How many ways can I symmetrically tile a surface? The history of mathematics is the history of mankinds engagement with questions like these, not the mindless regurgitation of formulas and algorithms together with contrived exercises designed to make use of them. A good problem is something you dont know how to solve. Thats what makes it a good puzzle, and a good opportunity. A good problem does not just sit there in isolation, but serves as a springboard to other interesting questions. A triangle takes up half its box. What about a pyramid inside its three-dimensional box? Can we handle this problem in a similar way? I can understand the idea of training students to master certain techniquesI do that too. But not as an end in itself. Technique in mathematics, as in any art, should be learned in context. The great problems, their history, the creative processthat is the proper setting. Give your students a good problem, let them struggle and get frustrated. See what they come up with. Wait until they are dying for an idea, then give them some technique. But not too much. So put away your lesson plans and your overhead projectors, your full-color textbook abominations, your CD-ROMs and the whole rest of the traveling circus freak show of contemporary education, and simply do mathematics with your students! Art teachers dont waste their time with textbooks and rote training in specific techniques. They do what is natural to their subjectthey get the kids painting. They go around from easel to easel, making suggestions and offering guidance I was thinking about our triangle problem, and I noticed something. If the triangle is really slanted then it doesnt take up half its box! See, lookExcellent observation! Our chopping argument assumes that the tip of the triangle lies directly over the base. Now we need a new idea. Should I try chopping it a different way? Absolutely. Try all sorts of ideas. Let me know what you come up with!So how do we teach our students to do mathematics? By choosing engaging and natural problems suitable to their tastes, personalities, and level of experience. By giving them time to make discoveries and formulate conjectures. By helping them to refine their arguments and creating an atmosphere of healthy and vibrant mathematical criticism. By being flexible and open to sudden changes in direction to which their curiosity may lead. In short, by having an honest intellectual relationship with our students and our subject. Of course what Im suggesting is impossible for a number of reasons. Even putting aside the fact that statewide curricula and standardized tests virtually eliminate teacher autonomy, I doubt that most teachers even want to have such an intense relationship with their students. It requires too much vulnerability and too much responsibilityin short, its too much work! It is far easier to be a passive conduit of some publishers materials and to follow the shampoo-bottle instruction lecture, test, repeat than to think deeply and thoughtfully about the meaning of ones subject and how best to convey that meaning directly and honestly to ones students. We are encouraged to forego the difficult task of making decisions based on our individual wisdom and conscience, and to get with the program. It is simply the path of least resistanceTEXTBOOK PUBLISHERS TEACHERS A pharmaceutical companies doctors B record companies disk jockeys C corporations congressmen D all of the aboveThe trouble is that math, like painting or poetry, is hard creative work. That makes it very difficult to teach. Mathematics is a slow, contemplative process. It takes time to produce a work of art, and it takes a skilled teacher to recognize one. Of course its easier to post a set of rules than to guide aspiring young artists, and its easier to write a VCR manual than to write an actual book with a point of view. Mathematics is an art, and art should be taught by working artists, or if not, at least by people who appreciate the art form and can recognize it when they see it. It is not necessary that you learn music from a professional composer, but would you want yourself or your child to be taught by someone who doesnt even play an instrument, and has never listened to a piece of music in their lives? Would you accept as an art teacher someone who has never picked up a pencil or stepped foot in a museum? Why is it that we accept math teachers who have never produced an original piece of mathematics, know nothing of the history and philosophy of the subject, nothing about recent developments, nothing in fact beyond what they are expected to present to their unfortunate students? What kind of a teacher is that? How can someone teach something that they themselves dont do? I cant dance, and consequently I would never presume to think that I could teach a dance class I could try, but it wouldnt be pretty. The difference is I k</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>On ne sera jamais pareils</t>
+          <t>Prise De Conscience</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>6 Alors ? Qui nest-ce vous cet nul, mademoisive et monsieur ? L'écho est où dans les bas des bois appelle à savancer ! Shaun Mac Irewick, drague-bref, pour les intérêts de MM.Jhon Jhamieson et Song, noté cent fin hundrick par ceuntrepôt sur ce quisquiquock nuiteux des douze apostrophes, mis par Jockit Mic Ereweak. Il mécomprick et aim pour am ollo du nombre trois d'eux et laissa ses libres ripostes naturelles à quatre d'eux dans leur propre désordre beauzartistique. 1. Quel insecondable formythe et recteur et maximoste faiseur de ponts fut le premier à s'élever plus grand par sa rame à pois que le bouaboababbaou bleugomme ou le gigantieux Séquoia Wellingtonia, vint en nudibottes avec des truissardes dans une liffeyette alors qu'elle était à peinue dans ses années de rigoulinures était bien connu pour clauder une chape de conciliation par dessus l'eiscir de son klax capot se silhouette un albert de chiourme seulenellement par dessus l'épulence de son bol en D pensait peser une nue tonne quand lui tomba là lap remière pomme, donna à chaque avalier de la nuit l'hideusesse du choix cointre les hiérectes et les deux mainries eut sept quelques filles sérébaines colorées successives sur le même grand rague blanc de jeval de penderrie est un Willbeforce en puissance à cette heure à la maison tel qu'il était païe en bruyère pompa le gverrue catholèche et choqua la boyne prodestugne hongra à sa propre faim dans un gri de jeune homme fouina fourrage à finq quand la rose à toute marchise alla s'inonder avec des tuteurs Hiriais ça rend le p 127 Corniais easé un vouchier de rotables, tribut de la route éleva beaucoup de beaux-fils à beaucoup de têtes pour une seule dautre bise se sexe t'il est trop poilant pour un poisson et a trop d'externe pour un insecte comme un cristal heptagone nous emprisome trues et fausses est d'un chic infini dans des induments malfichus une fois fut-il pelleté et une fois fut-il incendié et une fois fut-il inondré et elle le pendit dehors à la balie du bec a un cadran dans la tuile pour dire au cadet Toler gal oc'heure est-il offre des chances à Long encore mais se redresse pour Legge d'abord trouve du charbon au bout de sa herse des roses de mousse derrière les coutures fit un fart de sa posterne et écrivit F.E.R.T. sur son bucklier est maître-échappe-en-chef de toutes sortes d'houdineries s'il s'exharrode contre des barkers, avec l'élevé d'école il agit en whiteley fut évacué à la simple apparition de trois germhuns et deux fois assiégé par un essuisse de la zoomorphologie à l'omnianimalisme, il est broché par le tournis d'un coin de monnaie fait la tour, eddistoune parmi les délampés, jetant des rais cygnés sur la profondeur menace tonnerre sur les malefacteurs et envoie des murmures dans les froufrous des fraufraus quand Dook Hookbackcrook desseoit son cul aux bossoirs de beuverie ils se moquent et banquettent mais ils le huent de oos et baas son aas là quand ne servélut que Hunkett Plunkett, par sosannos et recherche une party chez une lady de cette cité business, lire des journaux, fumer le cigare, arranger des gobelets sur une table, manger des repas, plaisir, etcetera, etcetera, etcetera, plaisir, manger des repas, arranger des gobelets, fumer le cigare, lire des journaux, business, minéraux, laver et brosser, vues locales, toffee de juju, cartes comiques et d'anniversaire tels étaient les jours et il était leur héros averse rose dans le couchant, nuage rouge couché, sorrow du Sahara, déprouille de buf repasse Irène arraigné et atteinté, listé et lecté, plaidé et prouvé prencaisse son chèque au banc d'Indelétère et endouce son dostin à l'exit de chapelle cerveau des francs, main du chrétien, langue du nord commande à diner et appelle le bluff, a un blocage chez Morgen et un mal au chapeau tout l'après-nidi joue gehamerat quand il est ernst mais démisse mausey quand il est lustyg a marché aussi loin que la Tête où il s'assit en l'état comme le Crompion montre des traces de marques d'Anglais Primitif et une fenêtre de marigold avec des lumières de maniguiltes, un myrioscope, deux piscines remarquables et trois ambries qui valent bien d'être vues, des arches 128 toutes porticullisées et sa nef date des dartres est une horologe instoppable et la Benn de toutes les belles cloches fuit, isst et herit et bien qu'il soit mildiu souillu il est moulu caillu est un quercuss dans la forêt mais un membre de plein plan pour Mégalopolis puissant comme un monton, faunon à flotte fpied, planche dans notre plate-forme, blanche dans notre scouturne, cachetau, en carucats hi l'est énuméré, hantient comme un earl, il comte, phrase en esquisse d'esquif de mots au look de bug avec une forme comme les moments aisants d'un graminivore à nos dooms apporta loi, nos manoirs il en fit son vill, était un sursaumuré au sous-sol et acquedoucé pour les gorges ardentes envoie des garçons en socques toussant de coqueluche bafouilleuse quand il vaisse s'apuancer son coxyde de carbone et des chaussettes de soie montrent les formes de celle dont il abat le bas sur sa bine stocke de la pudre sèche pour les malades de l'Ill et des pellettes de pingkun pour tout le Pale lui donna son pied mondieux à Misérius, elle son pinçon à Anna Livia, la queue de cochon superfine là à Cérisia Cérosia et quid rides à Titius, Caius et Sempronius fit sentir à l'homme qui n'avait aucune notion des boutiquiers qu'il jouerait mieux le duc que le gentilhomme tira deux rieines et secoua trois châtonneaux quand il gagna au jeu de nains fumace à l'intérieur comme un stromboliste jusqu'à fumer par les deux bouts grain d'homme, semifier de lui, féhumanité, pietad ! montre une trainée blanche de neige parmi lexcrhowthance d'escourgeons de sa couronne et un chaperon de repentance sur ça doù coule sang, pause et quies, triple bulle alla en métro par la polis et puis plana au dessus aux trouveurs, ohé ! Oua, toi qui cherche ! que l'universaleté a rempleinie, chère pauvrie, dévorée hock mène du Rhin, cacao vient ensuite, emeri tente le drapeau peut danser la passe polière d'O'Bruine chez Noolahn sur l'accompaniment de son propre orchistrusse prit place devant la convention internaturelle des sages femmes catholiques et trouva strade devant le congrès pour l'étude des calamités endonationales fait une entrée délictueuse et finit tout le plat entre les douceurs et les savouries se défile des flounostics, flaire les fiftons et le fun de la frite sur le champ de foire enleva trois cent soixante cinq indoles pour qu'il installe un seul khalassal poules les hanives de l'espoir d'avoir des mâles l'hoolagh du déflaw, çui qui saisit, allumeur du feu paschal nous interdit nos traverseurs puisque nous l'avons entrée vé le phoenix soit son pyre, les cinères son sire ! empile du gros pelium sur les petits ossas comme les pilluls de hirculeads a un complexe didipus 129 et une aberration boislalie viandes à wurst pour les bouchés et cocardelaus pour les godillons quand il rame pour notre faveur il est trollement nôtre deux épousailles psychiques et trois désertions peut-être maintenant un metteur en fact, mais était alors un fouteur de magd Cattermole Hill, ex-montagne de chair fut élevée par le stress et coulée sous la strainte refile lui le tank, remercie le bien dank, tel le tailleur émaillant son fourgue-tout entoutcas pour un homme, mais brin de dé pour une cousette, culotte de peau, hurlotte de mots lettre muertte, un chante chant, une sylble un mot de traverse, une phrase avec surcesse tant que tient son levoitu les frêles failliront fut couvé chez Cellbridge mais éjoculé à l'étrange nicher tel qu'il put aux biguinnengues ainsi fini en une bataille de Boss Roderick, Roderick, Roderick, O, t'as pris la voie des Danes catalogué varieusement, regroupé régulièrement un jour de vacuance des enfants de la brousse, une réunissance de charlatin, un sabbableux de sorcerelles le même vise à perte d'uf homobruyéreux que quand sollyoeiy t'explosa avec légeaireté détonation réelle mais faux rapport spa mad mais inn saine demi émillien via bogus census mais un hausmann sans rue quand allphagannd est le mieur mhandieur de tous les andys et un point très alléghant pour te tomberle bombé met sa sécession hand main du nouveau patricius mais se plompe plebmatiquement sur les sacrés vieux siècles mange les huis ouverts et rute les porches clos certains le surnomment Rotshield et davantage le liminent Rockyfellow se montre mouche à chacun des demifoires mais réussaie à couvrir ceux qui le retracent sept colombiers couclament avoir été le pigeonheim de son homer, Smerrnion, Rhoebok Kolonsreagh, Seapoint, Quayhowth, Ashtown, Ratheny independant de la seigneurie de chamberlain, recknownedgeant la règle de Rome nous avons vu Ta ferme au Prine Utile, Domhnall, Domhnall remugle kif Illbelpaese et poriolèche kif l'ouïe d'Islande s'est logé à quot endroits, a vécu tot règnes prend un szumbath le weekend et pionce un wassarnap en rafreskement après un bon accès de balle au tabouret goûte Giroflée Giroflàa ce que Nevermore a manqué et Colomb a trouvé croit en chaque homme son propre goldien de but et en Afrique pour les noirrières l'arc de sa conduite était un plein quarante et ses moignons tirés à huitante le vante aux suc-en-ruisées la créatre la plus ancienne en Aryanie et regarde de haut la famille Suiss des Colleson qu'il appelle les nouvelles roches bien que son cur, âme et esprit se tourne vers les temps pharaoph éloignés, son amour, foi 130 et espoir colle au futuerisme de légères lève-la-jambe l'encensent souriantes depuis devant tandis que de rustres fronce le sourcil l'enjurent grommelants à son ultime arrière entre vouloutes et toilouloultime regare d'Éven même le Lug son pic a, le Luc sa pile boit tharr et wodhar pour son asama et mange l'imparoissable truie pour conjyrer le réglair rac les mendiants les mantellent reclins auprès de son tabourré de paddy, les plustituées lui faiblent de l'il en marchant de leur côté Christienmas à Loge de l'Avent, Nouvel ZélAn, après une carèmeuse maladie le roeverand Mr Easterling de pentecostite, sans suivants par requête, fanfare toute privée Autant l'y Attende la Gloire Balle, bulletiste mais Pas Encore Ici Maxwell, clerc a commédi sous des articles mais a phoeni un borgiesse de la cuve sur la bière par la bure asseyée de noir jusqu'à la butille de l'aubraille est A1 si haut mais Roh git sa racine s'est senti fil de fin myrtil dacrebaries là où tout lui était à pile ou bouffe comme petit jeunster de faillir fou de hoquets de beuverie où il avait jaugé l'ujage du raijon surréclame d'alimaux, das doles, rappe rustique, tam le trouble sas graine assez pour une simination mais poursuit les slips à la ruse apprit à parler de la main à la bouche jusqu'à ce qu'il puisse toquer l'oreille landée les yeux fermés a haqué sa route avec ses hichechocs m'aide il s'en est pendu dans l'ensuivi rialtos, annesleyg, binn et bals pour ne rien dire dit tout le cas de Neuf Comyn le luit de la lueur du brille du soleil à travers le sale de la crasse sur le rouge de la brique de la vile ville de Barnehum marronne saturné en file, certeints sont morts pour le tartaner, racine de rue, algue, fougère, cardère, cendre à savon, rossolis et cresson long gun mais pas pour coton tint l'assaut aigu de la famine mais crût de son corps de plus en plus l'anse il avait vingt quatre et quelques cousins germinant aux Etats-Unis d'Amérique et un homonyme avec une différence initiale dans le ci-devant royaume de Pologne son premier est une prime rose et son second Franco-Egyptien et son tout signifie un marasme chez Christie fors sa partie percée vint la femme de ses rêves, du sang épaissi puis de l'eau dernier négoce outremer épispécule de Clin de Look, orle dHoed toi et moi larniment surrentouré de brwns bldns Eline se flit polt flanc peut-êtle mais Hwang Chang ételnel lui celui fit l'un de vos boysd de la hautuyaute mais pipe l'imaginer fumer des clopes tout son ar temps de 131 vie Mont Mish, Mell de Moy eut deux aventures cardinales et trois capitoles sombrés, a l'épie dans son livre de poche et un paquebout quin à la patte V.B.H., B.L.G., P.P.M., T.D.S., V.D.B., T.C.H., S.D.N. lest Pète des jeunets, Longeur, Diener et Soupier comme les rues étaient pavées de froid il sentit son topperaire s'enseigna à patiner et apprit à tomber distinctement douteux mais plutôt désiré hisse cheftains éwehrtués, avec mordre Ostman Effendi, Serge Paddishaw baase d'ouble ccessif, expriame tous ses parisites premier des fenians, roi des fainéants sa Tiara de scones fut tenue pour une défaille emplissable jusqu'à ce qu'un Liam Fail l'afallât à Westmunster fut ébattu de son sittième alors qu'il râmait saulement à nous damasquer et à notre emprêchement appaulant apporta autant de plaies de Buddapest mit une tête d'allumette sur une vibre andonnée et mit le vivoir en feu garda lance du gourdin et gâcha l'éclair se maria en gâteaux et se remit punk avec plaisir jusqu'à ce qu'il soit enseveli comme il fut heureux et il fit résonner les welkines de Haut le Micawbre ! dieu en haut de l'escalier, charogne sur la paillasse la fausse capuche d'une toile d'échalas obstrue l'orée de la caverne de son invisibilité mais les oisillons qui animent l'écran de ses feuilles lui chantent un amour d'arbousies nous serrons les mains au dessus de son drap de guerre ensanglanté mais nous sommes entièrement liés par serment à son manteau vert notre ami viceloyal, notre foua sva râjyal sous les quatre pierres prêt de ses gaves qui évanissèrent le bol de wassail à la joie des écailles Mora et Lora ont une sacrée butte de bon temps à regarder de haut sa confusion jusqu'à ce que regard ferme de détermination, lance en avant et le pied de vent du curach éparpillassent le brumelac de Lego sur le dernier de ses champs nous avons assombri pour toi, trouveur de faute, l'année du deuil mais nous allons violoner la faible pétille de ceux que la fluante lumière morvine appele au trait du soleil ses pantalunes rayées, sa démarche plutôt étrange hereditatis columna recta, hagion chiton eraphon hoche val de tête pour le nonce, mais croasse ciao quand ils se montrent de lécunimitié est un équateur simultané dintegras élimbiné quand trois sur un est impropre par inspection a la pièce de capuche la plus conique de lhéronime confusianiste et cette achinechine tout tchufoueux quil a est comme un kungolou fourci aubourbe de Taishanboulé il est aussi gloptatif quun gazomètre de lithium et de luridité et il a fallu trois fois dix années annulaires 132 avant quil se saule autour du Circos Raggéant la pierre de cabas qui se cope de sa cavanie est une constante canine mais seul un émir ricain pourrait apparoximer lapeupréciosité de son alongement atlastique tatillonna droits et reliefts aux Dunes du Méchoir dans sa chasse de la wehrité tourse crue mais se finit avec les modéraides qui vinrent à lui dans Camlenstrete une hannibal en conflit exhaustif, un otho de retour corps brûlant à lair aigre sur la montagne mollissante dans la vague mugissante on entre en lui enfants endormis, on en sort batillonneurs à vie il se divestit pour sauver des Mmes Noyade leurs reines rivales tandis que Lugubre Bosquet, Fanfaron Bosquet et Course Bosquet se la faisaient avec ses habits dérobés on le taxe et on limpose, avec licence et imphase sa tête de pierre à trois faces a été trouvée sur colhillne white horse on en voit lempreinte de ses pieds costelleux au cercle dherbe du bouc tire laveuglette, péage le cher et appelle muet, piste svelte et pose saine Miraculone, Monstrucceline duploia la Création et du siffle shissa un charmeur de serpents doù elle avait ses séjours de hound se déchiéna en hanteur, hunter fut chiassé en fox harrier, marrieur, terrier, tav Olaph lHomme dOx, Thorker le Tourable tu sens quil est Vespasien pourtant tu penses à lui comme Aurélius whugamore, tradertory, socianiste, communiseur fit une attaque dété sur nos côtes et foudieu en eut tout son saouble, il descendit dabord Raglan Road et puis il abattit Marlborough Place le haut du Cromlech et la hill de Crommal étaient ses repose-pieds bien connus lorsque notre embardée comme butor se donna libre cours dans le Lubar quilaimé marescanalisa ses douves et délimita la conduite principale, réselée avant mordillage, esquisse à peine le tour de la scale, mais, grossé après les repas, pèse une tonne en ville-même Banba a prié pour sa conversion, Beurla regretté cette grande voix ancienne un Colosse parmi des choux, le Mélarancitron des fruits plus grand que la vie, plus preux que la mort Gran Turco, orege forment lachsembulger, leperléen létincelle de sa géniale fantaisie, la profondeur de sa calme sagacité, la clarté de son honneur sans tache, le flot de sa bienveillance sans limite notre fourbir de famille, le terniquet péagé de notre tribu de quelle louche était il invinciblé et cur fut-il burké a partitionné Irskaholm, uni les Irish prit un svig de son propre méthyre mais il avait le test un peu gorky et quant au saumon il lui remontait dessus toute sa vie comm, eilerdich, heclebruy et sawyer tu, wardien silent quabeille en miel, 133 raide comme souffle sur fhawckon, Costello, Kinsella, Mahony, Moran, bien que tu espères de toute corde Amrique ton autonhome rule glementeur est Dan sa figure à droite, il est treuillé par lescourbe de son cou hérissé, sa figuère à gauche, il est rationné en patties isobariques parmi léquipage on demande a til été emploisonné, on pense combien a til laissé ex-jardinier Riesengebirger, ajusté à de plantureuses existenciées à rendre Roseoogreedy dun tantinet petit tuyhose toiles tendues et dalots inondés mais la moirée noire au mack Liebsterpet fait mick de son aquascutum la joie quil prit aux femmes kaisses, le poids quil donna aux hommes guis sponsor dune scouade de pierceurs, allié à une horde de bleusailles à gueigneste léclair, lexplosion, le feu, la terremue, linondat, le tourbillon, la cambriole, le tiers parti, le pourri, la perte dencaisse, la perte de crédit, limpact de véhicules peut tempêter aussi grave que soupe à laqueue démie buf et désinvoleter aussi gai quun porto flip et inhésitant dans son unionisme et pourtant piggot nationaliste Sylviacola est effièrée de lui, Matrosenhosens nase la vanne exnibe les sinus de paix dans son coffre à tire-gloires fief ouf home, neuf cent trentuneuf ans de porte copie est toutidiennement ouvert au nom de la polémipolitique quand il nest pas fermé par fois solaires pour lamour de Janus suce léleaxir de la vie aux petits oignons aigres de la Juicive, et ruoulle en bouderies si un popelin décourt sur les Huguenots Boomsaport, Walleslee, Ubermeerschall Blowcher et Supercharger, Monsieur Ducrow, Mister Mudson, maistre gardinier pour lun il nest que panse et judex, pour lautre pète le feuyot et les johens hallucination, cauchman, ectoplasme passa pour le mouton noir de baabaa jusquà ce quil devienne blanc plein complaint complainement fut jouet drummatique par la fille de Mac Milligan et mis en musique par un grolle de barde tous les fitzpatrick de son émirat se souviennent de lui, les garçons de wetford le hailent babu sest indanifié au bour hommage et on la schenkt publiquement à brigstoll lui a donné la lumière dans des drises puièces dhorte et entumulé dans des triplex son similaire est en Terrecuite et il railla le reste à larqué en ciel lébriété, flouternité et qualité, son inverse fait vertu de nécessité tandis que son obverse a marre dune mère par invention arôda son plat-bord et il est le second impérial, dénoue les points, désécartèle et il est latte et plâtre invoque Toutchos quand il peut pas en appeler à Chacondnos basidens, ardree, kingsemma, rexregulorum se tint Dee dans la bouche, 134 puis recula à large bord sur Baulacleeva soit eldorado ou tholé ultime un kraal de fuadrufles feux, un crawl de finq pubs disposa des flagetitudes de laveries pour rech hausser ses ancêtres de famille et le double trouble plaidé ou des quittes quick pour faire chut aux rueurs jeta des galonnets de bon sort par dessus une épaule détrempée et dragonna les peoplades armées jusquaux dents le peps comme Gaudio Gambrinus, la grimabre comme Potter la Tombe as darts, deux des dés du damimonde, trouble de trèples, couartre de crueureau cumbrum, cumbrum, doubdoucinourcie, avant tamboum mais tré té uno penche la balance roula le rôle titre face à un embrasse de guirlandes en Argent sur lEcran mais fut séquencé de la pièce comme Croulebacq par les encore plus titulaires, Rick, Dave et Barry il peut y être aussi tôt que le vingt deux Mars mais à loccasion il ne sort pas avant le Virgintiquinque Germinal son nom indien est Hapapoosiesabjibway et son chiffre en arithmosophie est les étoiles de la charrue prit arme dans la province du pic et laissa lancer sa ligne sur lwickoute de langueel se meut en cicles viceux mais remiaue pareil les rats dégout blénissent ses abats tandis que les oiseaux du parc maudissent ses projecteurs Portobello, Equadocta, Therecocta Percorello il verse chez le borne mol habille le dur argent gagné rue Watling sa naissance se prouva accidentelle et montre à sa mort sa grave méprise nous amena une ivygne géante du pays des younkers et enflétrit Apostopolos à légaye de son gaël tout en étant satisfait que de douces brillantes filles pleines de jeunesse et sans parti sépanichonnent en belles jeunes femmes vétues de soie joyeuses et florissantes nest pas si ravi que des hommes lourds juronneurs sentant fort et les formes irrégulières extirpent des garçons actifs élégants bien mis et lil franc héraud de la foire féérie, à dismiche du blé marie ta tante et dote ton népos prête oreille mais fais chut, écrane le et vois le temps est, une archpiscoprique, le temps fut, une entrée de négociants la veilleuse bruisselée de quouate, léchelle échocottée par le chaland sa chute de pluie est dune paire de hauteurs de genou tandis que sa plus moyenne température dherbe marquait trois à lombre est le point de fonte de la neige et lendroit de bubblition de lalcool lutte touseul avec les trulles et puis se fait lui-même justice allusé dans les chapitres eschatologiques de Justesse des Jaipéralistes de Humphrey et pourchassé par les recenseurs thébains qui reniflent quil y a quelque chose derrière le Larve des Murés le roi était dans 135 son cornier revallé remelkant marc si muarrant, la reine était raide au port de bras se sentant faine et foirante, les maydelines cétait parmi les hawthours nà faire show de leur chausse, épimpreneller les arriètre gardes pompe ! et au fusil à pumpe eux va à tous ses prédicteurs il arrièrigea une pierre et pour tous ses comèteurs il planta un arbre quarante acres, soixante milles, bande blanche, bande rouge, mouille ses escadripodes dans lannacrwatter quoui a manqué la porter alors quo quil va faire car il voulait sasseoir pour Pimploco mais ils lont pris pour soutenir Sue ? Dutchlord, Dutchlord, nous surimpresse Headmound, roi et martyr, éclabousé du Levint, Pitre-le-Pore en Pétrin, Barth le Gret à lExchange se hestend vers les dames faisant vu et main noçante comme le prince dOrange et Nassau tandis quil a trinité lhissée derrière lui tel Bolbègre Bill le Bustoneux sourcil de coudrier flaque dobscur change les souffles bloqués en siffles blagués et un puits dArtésie en un oiseau dArabie lécrit à la main sur sa façade, les cryptyocondhoidsiphonotomata de ses exprussiens son point de naissance sétend au delà de lhérospont et son lopin dinhumance dans le plaisant petit champ est le plus vieyld kiosque sur la pléninsule et lhostel le plus dépansionné à Saint Scolarland a marché bien des centaines et bien des vingtaines de miles de rues et allumé mille et une lumières de nuit sur des hectares de fenêtres son grand manteau large recouvre quinze acres et ses petits chevaux blancs parent nos portes par douzaines O afflige la voile et maudis la barre qui ont été installées pour Mairie Quail ! soleil levun des huns va dare dare aux tartares, il y en a plein ici aujourdhui lequel répulsa de son éclarissement les bomboudres dOstenton et falchiona chaque flash en plongée soudaine profonde problème apersonnel, une énigme locative un qui est dressé, véhicule darcanisation dans les champs, gars gisant, fournisseur de crues de céliculation à travers ebblanes une part du tout comme un port to à cétacé Cher Hewitt Castello Ecuyer, sommes réjouris de notre sortie et nous appelons de nos regrets les étés indus de si tôt, de Rhoda Dundrums est au dessus du niveau du pépin et hors de la zone léguminifère quand des liens plus vieux vérouilleront des curs plus vieux alors il ressemblera elle peut être construit avec de la colle et des agrafes, gribouillé ou évidé sur un contrefort lexpress chante son histoire dans la nuit, le chant de notes dhirondelle sur sa portée de fils il rampe sur la vermine, il grouille de saggarts est aussi tranquille quune 136 mursquée, mais peut être aussi bruyant quune sonogogue fut Dilmun quand il eut un rendez-vous à la palme, et Mudlin quand fut tranchée la noix de son problème suce la saise, lappe laudes à laise, une lippe sur lap ouatrine et un cousselin sa glaise son porter a une étreinte puissante et ses baxters le boom du blanc large aussi loin que sèche le vent et mange la pluie et tourne le soleil et bondit leau, il est exalté et déprimé, rassemblé et écartelé va ten, nous sommes délusionnés, reviens, nous sommes disghostés forasa lOstrov, traversa dun bond lInferus, à la nage le Maboul et en volire la Moyle comme gras, comme suif à gras dhuililité, si fait dhuililité dégoulinante ne dit pas vieux au vieux, ni ne dit scorbutique au scorbutique il a fonduyé une maison, Uru, une maison à quoi il a assigné son sort porte un hraave geulant duiv sur fjeld éruza le halo de son varlet lorquil apparut à sa maîtresse-queue en Haycock, Emmet, Boaro, Toaro, Osterich, Mangy et Skunk pressa la bière dâge alé hors des orties de limpétuosité impute un toit à la cabane pour Hymne et un coq au pot pro home fut dapifère, puis pancircensor puis fortifex magnus les picoles qui rigolent sur lui, les copiles qui dégringolent de lui lève encore nos lièvres mais porte nos boucs paquebot de pochebook, coché de trafiacre darmes, lumière d'autredi, dur et déroutant dédable notre affreux père, Timour de Tortur puzzlant, choquant, même, perturbant alla en haletant du brugh du roi aux neuves customes, shôtant le gibbeux à chaque offense de toute taille avec le nouveau soupois de Pa et le nouveau levier de Papa il est le vieux coutelas de Papapa que Papapapa nous laissa quand vieux à jeune tête épaula et col moyenneux sâgea un peu, chaphéleur hareng équitodiennement, turgide tarpon la nuit voir Loryon le comaléon qui changea lhistoire endocrine en fermichant sa miche de quarante bannocks elle le rendit surdingue jusquà ce quil lui édrive ces cités les colombs pigeons soient perchant partout sur lui un jour sur le pont Basle et les plombs corbeaux lancent leurs sombres filets sur lui la nuit daprès derrière lArvre de Koenigstein tronf du rep comf du priv, prosp du pub son bois lhuisis est ideal si ses pieds sont en bourg belés glaise il sest créché dans le creux du park, à arbres abattus, en sessoarant dans le vaguum du phoenix, à pierres levées a lair dun verru de muantagne et le son dun gros mot la vue sur la moon taen, un peu de lumin pâle 137 autour dune lampe de succar en eau boinyne trois coups par patrickot en haut de blop à la selle fit des avances à Miss MacCormack Ni Lacarthy qui fit retraite avec Darly Dermod, brun esbrouffeur autrefois le diamant taillait le grenat aujourdhui le dammat taille le groanion tu peux le trouver au Florence mais guette le à lHôtel Wynns yaa là son arche et houy est sa voie deau et ciy gît son couïrbillard accalmé, proofondy Swed Albiony, le plus probable méchant de lendroit Hennery Canterel Cockran, eggotistres, limitisés nous thégustons notre taie et mute nos mites autour du pied monté de sadurne bâtit la kirk de Lund et détruisit la terre de la church qui devine son titre regripe ses faits chairche et jolies, rate rape et gars lhabile Juc de Wilysly Hugglebelly se Funniraille Kukkuk Kallikak entendu in camera et excrucié bon butin quand il est billetté de bancs, banni sil est brisé à la bucoupretourbique heavengendré, chaosfoedté, earthené son père le laboura présomptivement en profond surtemps et sa mère en toute évinçualité a dû faire sa part tue riante de travail une emprince du Mégacène, hetman éputé des cavales par Sablecautère honoraire capitaine de lextemporisée brigade du feu, quon rapporte quil est ami de la police la porte est encore ouverte, le collet de vieux stock revient sans oublier la fois où tu as ri des pantalons blantille-canard dElder Charterhouse et la façon que tu as dit que toute la ville pouvait voir ses jambes poilues par le vol du fichu lalbatresse quelle jurait en poupe à sa nuque à lui pendait quand sa bouilloire devint un âtresculdus nos thorstyites y mettaient leur lymphemphyre sa lettre annuelle concoctée par des mains de maître des essais, son poinçon imposé par le standard du plat ouvré une paire de pectoraux et un triple écran pour avoir in vent bobinard allume sa pipe avec un arbre à rosine et loue un cheval de touage pour haler ses chaussures est cure du scorbut de lesclavine, brise les bols des barons fut appelé à vendre de la poloche et fut trouvé plus tard dans une chambre à coucher a son siège de justice, sa maison de grâce, ses rès cornues copieuses et ses ryes en rangées prospecteur il a eu un rauque sache, rétrospecteur, il tient le halpon striqué gagna le joug de la liberté à nud york pour les esprits jougosclaves agit actif, démarche en passivisme et est un gorgon dauto-satisfrigidité verse la valeur dun rire de son illformation sur la valeur dune larme de sel entendit à demi le singule discours fiançaugurail que La Belle fila à son Grand Monte et entiéra sa vie durante 138 près de son âtre ain, se demandant sil était hébrieu mis aux himmeltons ou le chant vif argent des qwaternions ses problèmes sont peut-être finis mais ses doublèmes sont encore à venir le casier à homards qui a encrabé notre quille, le caninet de jardin qui a gaché nos pois coincés il se tient dans un parc charmant, la mer nest pas loin, les bourgs importuns de X,Y, et Z sont aisément outre atteints est une excroissance de lhumanité civilisée et quune verrue sur lEurope chansignes volonfaires au son sens é portante i vo rende tous ses mottes en fliche nuemaine vraiment pruraux et plusibles a des anneaux excisivement grands et est incoutumièrement parfumé sexcite pax il excoute le cléah xoupih dune thémix est un prince de la fingallienne en une hiberniade de hoolises a une mêle pour époù et un franchouilli pour le curriyer et un brabanson pour sa betteravière et un fritz quand il switch fut laissé sur le chemin dun parker et béshooté par un buckeley tire les lentilles quand il est tassi et lance les radiques flèches de Jacob, piécette après piécette, aux pauvres enfandonnés de la périsse lit les charmes de H.C.Endersen tous les seminimes du soir et les crimes dIvaun le Taurrible tous les durmanches matins te suavone le visage et se donne des claques quand il est badend possède le barril à bitures le plus massif qui ait jamais été tapis en perce dans le privace de lInn Mullingar est né avec une langue dargent nua dans la bouche et fit le tour de la côte dIrone à main hauche de la scène ne leva que deux doigts mais fusibla quil journerait pour lequel il est plus aisi de fonder un haut séant à Ebblannah que pour je ou tu de fendre un dubbelpaie à Dampsterdamp vivre avec quel est un gauchemaire à vie et connaître quel une éducation libérale fut plongé dans les Sointes Olives et chrêmé en Scentes Otooles houït cricket sur leterre mais ennoise la vie des prédikants tourne encore loreille du durc de Darius à celui qui est maintenant linfurioté de Dieu fit lHomme avec des saillies qui saccadent et mania la monnaie en maintes mains aime le pudding au sixop quand il rentre chez quui dans son doux chassoi a travenu toutes les ères de livaventure depuis la brandelune et la descente shampayée jusquaux clouts et à la porter en pouteille ouilaine prunier, hahnreich te althe, charge le sacant, trichard le tortième si une mandragore urlait aux convultures survivant enfin à sa naissance la cane savache sera lamente bitternelée à la résurrection du pourrieur perd poids dans la nuit lunique mais guirle la guirlande devend laube solaire avec une touche 139 de naturel mit en sourire un monde voilé et arriva à une feuille près de papier de soi de loption à trois geôles qui put voir dun blick un saumon pris à la lance, des chasseurs poursuivant un doeim, une nef de gorge à toutes voiles, une probe lange élevant une hostie fit face à la folle des années tel le vieux roi Cnut et volte face comme Cincinnatus est un</t>
+          <t>J'fais pas de politique mais d'la zique mec T'entends ce sifflotement c'est moi quand j'marche seul en m'demandant comment changer les choses J'veux la jeunesse derrière moi quand je braille Depuis l'début on fait les choses nous j'passe les détails Les mecs ont besoin de repères, se sentent trahis quand les MCs s'perdent Faut arrêter de s'leurrer les mecs qu'écoutent ce texte Un mélange de malaise de nos rues de notre musique et de nos vies Le combat continue j'reviens trois piges plus tard Quel changement les petits me demandent Baccardi donne-nous du bon sens dans ce bordel La pression est là, le rap est l'identité pour beaucoup Je l'ai ressenti pendant mon petit tour du monde Ils veulent danser chanter s'balancer Réfléchir car ce qu'on dit de bien les motive La musique est triste et les paroles lourdes de sens Le titre c'est prise de conscience J'ressens une humeur triste dans les halls Les mecs brûlent la vie et s'enfoncent dans l'blizzard ils ont pris le choix des armes Que Dieu seul juge j'assiste à ce déclin Tout ce qui m'reste c'est un micro et j'attends le déclic Je ne suis pas ce rappeur de plus qui dira j'emmerde l'État Un milliers l'ont fait et aujourd'hui je constate Que les choses empirent Là-haut personne n'écoute et faut viser quand on tire Notre révolte c'est pas de brûler la ville on a besoin de soldats Faut qu'on reste massif, unis entre nous, obligé L'ennemi attaque quand il sent une faiblesse Mon QG c'est mon cerveau et ma parole pour vous servir J'prends le micro et dis à mon monde de penser à nos mômes à nos mères Au combat de nos pères face au système Prise de conscience c'est ça le thème Qui prétend faire du rap sens prendre position Je me dis tout peut s'arrêter demain mais j'm'en voudrais Si avec les opportunités qu'on a aujourd'hui y'a rien de concret Certains d'entre nous ont des gosses d'autres se marient On est à l'heure du changement On veut fonder des familles Et réunir des villes Donner la force à nos pays En Afrique Laisser des biens à nos mômes Faire vivre notre musique C'est ça la mélodie Elle parle seule et réchauffe le cur et donne envie de créer On a bâti nos vies dans le rêve Et se bat encore pour qu'à nos réveils il n'y ait plus de cauchemars</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>On veut</t>
+          <t>Professionnels</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ça part d'un rêve qui devient cauchemar Dans une poche l'arme Devenu couche-tard Mariés à la rue, on veut divorcer Y a beaucoup d'drames C'est d'nos cités qu'les coups partent On rêve de finir ce gros flic à coup de lattes Dieu juge nos curs, les hommes jugent nos actes Si on saigne, c'est qu'on est blessé Si on blesse, c'est qu'on est stressé Trop d'procès laissés en suspens On a nos propres règles, où les bâtards se font crosser Si y a émeute, c'est qu'y a un problème Si y un a problème, c'est qu'y a une cause Pourquoi proposer après qu'tout soit explosé Ils disent que quand on brûle, nos idées partent en fumée, ok Venez on s'pose, nous ce qu'on veut depuis c'est causer Le monde s'divise, ceux qui ont le pistolet, ceux qui creusent Nous on préfère mourir au combat, les larmes aux yeux Chez nous y a pas de victimes Cainfri, rebeus ou pikti On veut vivre dignes, marre de cette vie en freestyle On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé On voulait qu'le pays d'Marianne soit une terre d'accueil Ça reste une terre sous laquelle on enterre nos cercueils On voulait des logements décents On est des mille et des cent à avoir vu ces immeubles être en feu et à sang On voulait des moyens pour arriver à nos fins Aujourd'hui on cherche le moyen pour pas crever d'faim On voulait être libres et s'tenir à carreau Ils disent la vraie place de l'immigré c'est derrière les barreaux On voulait la vie d'rêve Comme dit Sefyu, on a l'cauchemar qui va avec Ici c'est marche ou crève On voulait des grands postes L'ascenseur social est bloqué au sous-sol On a pris l'escalier et on se retrouve dans le hall On voulait la prévention, on a eu la répression Aujourd'hui ils s'étonnent que ces flics soient victimes d'agressions On voulait le respect, on nous a chié dessus Quand on arrive ça pue l'danger, le pays est sens dessus dessous On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé On veut du concret, que Marianne comprenne Faut pas qu'la rue crève Y a le choix des armes et le feu dans les congrès Des solutions au délit de faciès Pas s'étonner qu'on investisse dans la cess' Tant qu'on vit dans la dèche, on allumera la mèche On veut un cinq pièces pour deux et non le contraire Français quand on gagne, immigré quand on perd On veut qu'ça change ça On veut du fric, le moyen d'en faire légalement On choisit l'illicite, les issues sont minces généralement On veut l'pouvoir, y en a marre de devoir Même si c'est avec le feu, on l'fera savoir On veut s'en sortir, c'est simple Plus de discours La jungle c'est là où on nous a parqués Pour ça qu'nous on a l'instinct bestial On veut éduquer parce que c'est le départ de tout Enlevez les ZEP, mettez-nous dans le privé y aura moins d'échecs On veut le dialogue, c'est comme ça que les choses se règlent On est ouverts Marianne, la rue t'observe On veut exister Obliger l'État à nous écouter Sinon le pays sera traumatisé On est venu aviser, marre d'être méprisés On fera la une du journal télévisé Et tu l'sais 2006, 2007 Empire, Aker, Spike Killer Miller Oums, la famille Dosseh, Marginal Sosa, Baccardi Pit Empire, et tu l'sais</t>
+          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>Renaissance</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Die shit is lovely Rol met mijn nigger Rocky Die bitch zuipt en ze stopt niet Dus geen wonder dat ze kotst G Shit is ugly als een mother-mother Mami mingel met je brada brother Jayh a.k.a. lover-lover Die shit is aan hier Zo van Oh my godfather, father Het is de A.A.-voorzitter, Jacky in mijn belly Doe een borrel met de afkickgekken van de Jellinek Ik houd van dikke tieten, een reet als missy Elliott En of ik jou wel zeker maak jazeker ik vertel het je Ey Hieperdepiep ik rol nog steeds niet in een Jeep Ik wil niet dood ik houd van bitches Dus mijn leven is me lief En we zijn wel carnivoren Maar we eten niet van beef Je zusje is d'r kutje kwijt En Biggie twee die is de dief, peace Ik ben een BN'er Ja een beruchte nigger Ik ben niet nuchter nigger Dus regel je zusje nigger Ik hou van lekkernijen En ik hou van lekker vrijen Met ho's met vette dijen Ja ze kunnen lekker rijden Ik ben een echte geile Kom dus bij me doe je mee Noem me een motherfucker Want ik neem je moeder mee Ik heb een goed idee Je weet wel van mij Een dikke joint in mijn bek met een cognacie erbij Een dikke joint in mijn bek met een cognacie erbij Ben aan het rellen in de club, geile dimp aan m'n zij Shit is leip, schreeuw het maar lekker uit We gaan nog niet naar huis Nee we gaan nog niet naar huis Een dikke joint in me bek met een cognacie erbij Ben aan het rellen in de club Geile dimp aan m'n zij Opzij, we vullen de glazen bij We gaan nog niet naar huis Nee, we gaan nog niet naar huis En ook al gaan we naar huis, space ik door in de buurt Ben zo high, zie alleen vliegende schotels in mijn buurt Het lijkt alsof ik zit in de twilight zone Dus zoek een alien, bitch geef d'r een twilight zo Ik ben tipsy en mix die Whiskey zeer risky Totdat mijn hoofd draait als een motherfucking frisbee Rook geen THC, bitch, ben ook geen THC-lid Maar effe voor de record wel THC Recordz Rechtstreeks uit de B, draaiend all the day 't Is je nigger Badboy, getekend THC We gaan nog niet naar huis Zeg de eigenaar spang je niet ik ga niet voor je kluis Ze weten van mijn verleden Met Djannie aan m'n zij wordt het rellen brada zeker Let mezelf pak die peper, ben een ster, ik ken geen recht Ik ken de hel, ik ken geen hemel Ik ben te helle-fucking-heet, beng Ik ben getrouwd en heb een kind Inderdaad dat klopt Maar ga nog steeds naar de klote met mijn homeboy Rocks Zet de klok een uurtje terug als het te laat word En steek je middelvinger op als er gehaat wordt Ik sta meestal aan een tafel met een fles met mijn naam erop De tyfus voor de crisis, geld moet rollen, wij staan er toch Dus gooi je handen in de lucht Zodat ik zie dat je niet speelt met je tieten of je kut Daar step, step ik weer is op Met die hip en die hop op die hit van de Rocks Transformer spit Transformeer je club, doe die shit uit me kop Tot nu draait alles Whiskey doe daar mijn melk maar in En cornflakes met rum Ik rap niet, die verse spit zichzelf wel in Feesten, spacen, blazen wrede j's en hete P's De T.H.C., de B, de P Nog steeds die emcee hey je weet Zwaar doorgedraaid Insane in de brain, vol met ruis Zit thuis op de bank voor de buis En schreeuw dagen later nog steeds Ik ga niet naar huis! Midden in de club met een jay in me smoel Top dubbel op top Ben nog steeds cool Met die Sterrenlaan grooves op die vloer Piep, weg, yes, gone, doei Ik wil niet naar huis want Ik heb nog Silver Haze en vloei Dus paas die liti voor een fikkie En kinnenleer op mijn smoel Yes, me rasta weg Me succes gaat nu tantoe ver Nou bounce 'em gek 't Is kemperveen van de mixtape 1 tot 3.2 Boerenvla die je dagelijks eet Mami kom en schudt die reet En rumble in de jungle voor mister kemper en cashis clay Oké, oké, de verdachte is terug Maar een dag of 7 geleden Ik word weer verdacht, ben berucht Ja de hele stad had weer lucht Ben een zachte zeg nuchter Zonder RB geen pakkies Zonder Djannie geen drugs meer Ja ik bracht wat je lustte Weet je hebt me gemist Maar zit ik even vast Ga je vreemd net als mijn bitch Voor al mijn homies in de bajes Dikke spliff draaiers, gajes, maaiers Ja de hittespitter heb een dikke Joint in me bek met een cognacje erbij Of niet dan ik pof van de wiet Maar ik pof tot ik niet kan staan Meer normaal in de zaal ik geniet van Tropical uppers, toppers we stoppen niet Brokkelen toppen grove wiet puff puff En pass de pit van tff tff Ikke blaze op, de shit die leeft op De chicks zijn heel hot Pak je lucht zo van tff tff Ikke Scotte de rij en ging van buiten naar binnen Keerde de club binnenstebuiten Breng het buiten naar binnen Nakker Dit is de party after the party De afterparty Ik heb een tree Gold vers en nog een fles Bacardi Alleen maar BN'ers zijn er, laat het feest beginnen Bekende Nederlanders, ik ben een Bekende Nigger Ik ben met de welbekende bende Ben bekend met de trend, bedenk en breng ze Mijn mensen zijn grenzeloos economisch De click, de crew, shows, ik spit en ik flow Ik show, ja ik doe role in mijn Futurola vloe Wie brengt die bangers naar je toe? Me, that's who</t>
+          <t>Brrrt 2002 Brrrt Pit au mic, Sosä Ouais ouais, 2002 Hey Sosa ouais, 2002, l'année du pèze, la consécration Mets-toi à l'aise, on tient l'biz négro On envoie chier cette marmaille de lèche-bottes Et on file à l'anglaise s'la couler douce sur une île C'est vrai, j'ai la rage qui crache la foudre Et plein d'merdeux qui m'narguent Et c'problème, j'les résoudre ah ouais J'gratte, j't'en suis reconnaissant Sur ton album négro, sonne ma renaissance C'est rien, on est ensemble négro La famille Brown est derrière, ça va brûler dans tous les sens Retour d'un mort-né, tueur-né Même pas vérifié si j'étais mort, bande de bornés Vos têtes comme trophées pour orner mon tableau d'chasse Cornes et griffes quand j'balafre de mon empreinte C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance Une carte à jouer, faut pas qu'j'rate le coche Rimes dures j'décoche même si vif j'écorche Laisse-moi sonner les cloches Eh, j'te sens fâché enfoiré C'est ça qu'il faut, faut fermer des gueules Vas-y prends le mic J'viens lâcher la purée, j'en ai plein les couilles Appelle-moi Glock, j'vais lâcher les douilles boum Ça t'choque de voir des dépouilles Un tas d'putes dans leur string mouillent Y a d'quoi avoir la trouille Pas de calibre, tout est dans l'style Damn! D'où tu sors ces rimes de salaud? De mon putain d'crâne Les mots pèsent, ça vient du cur Ouais, tout est dans l'style, pile poil à l'heure La foule frôle la crise, on a l'monopole et on l'dit J'lis dans vos yeux la joie, ce mouvement fait revivre Lâche-moi la grappe, donne-moi l'mic que j'l'abîme C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance À c'qu'il paraît des mecs attendent au tournant C'est c'qu'on dit dans les blocs Couvrez-vous ça va être glauque Coup d'pare-choc c'est pas des blagues Du gros son pour les sans sous 2002 soupapes, c'est bolide, y a des cadavres sur l'boulevard Paraît-il paraît-il que dans la ville que dans la ville Des débiles des débiles veulent nous finir veulent nous finir Allez leur dire allez leur dire Qu'en allumant la mèche, ils n'pourront pas l'éteindre Un flow d'barge, des rimes larges Qui feraient prendre à n'importe quel MC le large Ouais, toujours aussi classe, un mec efficace dans les placements Sosä avance lentement mais sûrement C'est ça, avise la France qu'y a des OVNI sur les ondes Mon rap vise le monde C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Oublie</t>
+          <t>Retour au bercail</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Baccardi 2003 Diam's DJ Kost Vitaa Hey J'arrive avec flow, tout dans l'textuel, tue dans l'textile Me fais pas d'bile, ça suis dans l'sexuel, j'dirais même excellent ha ha Ancien briscard, j'reste sexy, le bruit court que j'suis un brusqueur On m'jalouse, j'ai du succès Vas-y arrête Tu sais qu'c'est avec moi qu'il faut tester, tout c'qui est sexe sauvage J'défie celle qui veut protester Vitaa, hey Faut qu'j'lui explique sans la faire bisquer J'ai peur de rien, eh, j'kiffe grave quand y a du risque Chérie, tu veux qu'on s'mette dans l'contexte? Pour faire quoi? Moi j'kiffe pas les bandits J'te donne du plaisir, j'suis pas là pour te vexer Juste pour l'sexe, tu crois qu'j'ai pas compris? Relax, j'me rattrape, si j't'ai mal indexée Pour m'avoir il faudrait qu'tu m'supplies Juste toi et moi, viens qu'on parle un peu de sexe J'veux pas d'toi, laisse tomber oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Hey Vitaa, y a trop d'chiens dans l'coin Qui regarde ton body, qui veulent te aah dans l'coin Ils veulent ta bouche, tes seins, tes fesses, tes reins Et te disent bouge tes fesses sur le terrain Vas-y Vitaa, mets-lui un stop sur cette zik Stooooooop! Le genre de chien qui fait du lèche-vitrine en Belgique Elle sait qu'elle est sexy, elle sait comment les exciter Mais elle veut pas d'un mec qui a besoin d'aah pour exister Ooh ooh ooh Le gars s'approche de moi, me dit prends un verre Ooh ooh ooh Alors qu'y a trois secondes il insultait ma mère Ooh ooh ooh T'as pas compris tu veux p't-être que je réitère Vas-y Vitaa, te laisse pas faire J'te dis qu'j'suis pas pour toi, ferme les yeux mon frère Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Pourquoi t'insistes, tu vois bien c'est pas la même Envie qui m'anime Pourquoi t'insistes c'est pas la peine Sois gentil oublie Le genre de gars qui rêve de moi toute la nuit La serviette à coté d'son lit Il croit qu'avec sa Merco TDI Il pourra nous mettre comme ça dans son lit Je sais qu'tu veux mon body Tu crois qu'je sais pas qu'j'suis sexy Mais j'vois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Vitaa, Diams Baccardi Pit Family Brown Double Face 5 Tu l'sais DJ Kost Tu crois qu'tout est permis Quand tu vois son body J'crois qu't'as pas compris C'est elle qui choisit, remballe et oublie Ouais j'crois qu'c'est permis Quand j'vois son body Baccardi Et tu l'sais</t>
+          <t>Mystik Inghi C'est Pit au mic Ritmo Ma mémoire encore éclairée par les projecteurs, puissants tel une Primus Retour au bercail, ma brousse La nuit est tombée, j'retrouve les sensations, les impressions, mes semblables Viva la routine, leurs souffrances embrassent ma rétine Dans mes yeux l'feu, l'enfer dans la foule dans l'envers du décor Revenir au regard premier, d'autres rapports Renouveler les vux, bisous aux vieux, tremper les pieds dans l'eau Passer de l'eau sur le front, nos gestes en arrière C'est comme la vie, des jours souillés durant ma p'tite guerre Revenir comme les tontons valises pleines, un teint clair Revenir, c'est accomplir une vraie démarche d'homme Après plus d'dix ans d'conditionnement comme une pomme Ô Cameroun, Congo, berceau de nos ancêtres Allez debout et jaloux de votre liberté comme Un symbole, vos drapeaux fiers doivent être Un symbole ardent de joie et d'unité À Paris, mon train d'vie prenait une voie d'garage J'ai rangé l'wagon, rendu les clés et j'ai plié bagage La gorge sèche, au bord des larmes, pourtant fortiche Réputé, sois fort Pit, ta famille t'attend, un cortège À l'aéroport, j'aère mon corps On y voit encore mes blessures de l'Occident, j'ai besoin d'renforts Forts de nos expériences passées sur ces champs d'bataille Mystik et Pit, pour un retour au bercail Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles Attendu comme une libération, sous ce ciel j'me libère à fond Fuyant cette réalité, j'suis mal vu là-bas L'affront avec les flics, les huissiers Les types du deuxième qui disent Que chez moi c'est une plaque tournante de shit et XXX j'abdique Mystik, ils nous attendent au pays Même les moustiques voudront faire la fête pour notre retour, astigmate Non, c'était mes p'tites surs qu'maintenant les types matent J'me rappelle avec leur bave dans l'nez et leurs p'tites nattes Retour au bercail, j'mets mes écailles, un chapeau d'paille Essaye de tailler l'bambou, en faire XXX Ail et piment Dans l'seau y a l'chef, de l'arôme Maggi express Un top orange pour déguster avec Mama, c'est dans mon bled le vrai makossa J'oublie l'boléro, l'jerk, le twist Haoussa, Bamilékés, ewondo, Douala T'as palré d'bigarrure, les seins pointus comme les fessiers J'mate, nos femmes ont fière allure Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles J'connais pas l'crawl ni XXX alors j'brasse Dans ma brousse, charger ma conscience, retrouver les traces Hélas, c'est la zone sous l'pont t'sais Faut s'ressourcer Penser aux plaies mal pansées Au bled on m'attendra, on parlera d'moi comme un scoop, au moins Je n'débarquerai pas tel un cheveu dans la soupe en France J'ai troqué mes nsuiteke contre des framboises La vie un poker, dans la moustiquaire, c'est d'autres gens que j'croise J'ai su leurs combines, je les ai vus bloquer leur pouvoir Pour un Oscar, ils font semblant de s'émouvoir Traitez-moi d'cafteur, j'ai capté vos manèges Je l'dis haut et fort même si mes lettres sont ouvertes par vos facteurs Sorti des décombres, des guerres, des douleurs Ma maison d'enfance, mon pays, un supplément d'vie Halte, c'est pas l'écriture qui m'exalte, mais si t'as parlé ainsi Tout simplement j'aime mon beau pays La bigarrure de sa foule, partout tout bouge et vit Malgré les misères, les contraintes qu'on voit partout ici Grandioses sont les fêtes quand y a tam-tam et mbongi Autour du feu je danse le XXX Sauvagerie dans nos retrouvailles même s'il a fallu que j'taille Je retrouve la mille-fa au bercail Et les cousins chantent ah ah, moustique Quand j'leur dis qu'mon nom d'rappeur, c'est Mystik Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles1</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Partis de rien</t>
+          <t>Sentier lumineux</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Janvier 1001 Sterna - Paie le Prix - 2201 Booba - Autopsie Vol.2 Mixtape 2901 Ades - Un degré de plus 2901 Artistes Multiples - Compilation Rap R'and'B 2901 Black Marché - Au quart 2 Tour - 2901 Mafia K'1 Fry - Jusqu'à la mort - 2901 Flynt - 1 pour la plume EP Février 0502 Kamelancien - Le Charme en Personne 0502 Vitaa - À fleur de toi 1202 Artistes Multiples - B.O TAXI 4 1202 Faf Larage - Rap Stories 1202 IAM - Official Mixtape - 1702 Soprano - Puisqu'il Faut Vivre - 2602 Hocus Pocus - Du sable sur les paupières Maxi Mars 0503 Compilation Beat de Boul - Dans un autre monde 0503 Seth Gueko - Patate de Forain 1203 Anfalsh - Représailles chapitre 1 1203 Ärsenik - S'il en reste Quelque Chose Best-Of 1203 Artistes Multiples - Compilation Ecoute la rue Marianne 1203 Artistes Multiples - Compilation Get On The Floor - 1203 La Fouine - Aller-Retour - 1903 Youssoupha - À Chaque Frère 2603 Artistes multiples - Compilation Menace sur la planète rap vol.3 2603 L'Algerino - Mentalité Pirate 2603 - Octobre Rouge - Votez pour Nous 2603 Tony Parker - Tony Parker - XX03 Haroun - Sur Scène Maxi Avril - 0204 IAM - Saison 5 0204 Passi - Révolution - 1604 Haroun - Au Front 1604 Rohff - Au-Delà De Mes Limites Classics Réédition 1704 Smoker - La roue tourne 2304 Artistes Multiples - Compilation Chroniques de Mars Vol.2 2304 Enigmatik - Un Nouveau Souffle - 2304 La Rumeur - Du Cur à l'Outrage - 3004 Salif - Boulogne Boy Street Album XX04 Artistes Multiples - Compilation Délepenisons Mai 0205 Artistes multiples - Compilation Opinion sur rue Vol.3 0205 Psykick Lyrikah - Acte 0705 Dabaaz - Moi, Ma Gueule Et Ma Propre Personne 0705 Les Grandes Gueules - On ne peut pas plaire à tout le monde vol.2 1405 Brigade des mineurs - Brigade des mineurs 1405 Expression Direkt - D.Terminé 2105 Artistes Multiples - Compilation Traffic - 2105 Tar-One - À la première personne - 2805 Flynt - J'éclaire ma ville - 2805 Fatal Bazooka - T'as vu ? - 2805 Kamini - Psychostar World 2905 Manu Key - Prolifique Part 2 3105 Smoker - La roue tourne Juin 0406 Artistes Multiples - Compilation Il faut sauver le rap Francais 2 - 0406 Idir - La France des couleurs 1106 ATK - Silence Radio 1106 Mokobe - Mon Afrique 1106 Wouilo - Nouvelle Generation 1806 LIM - Délinquant Maxi - 1806 Mc Solaar - Chapitre 7 1906 MAF - Interdit d'illusion 2506 Artistes Multiples - Compilation Tetes Brulees Vol 4 2506 Demon One - Mon Rap 2506 Samm Coloquinte - Plus rien à foutre Juillet 0207 Rohff - Le cauchemar du rap Francais 1407 Many - Nerfs à vif Août 0208 Ahmad - Le môme qui voulut être roi 2708 James Delleck - Le cri du papillon 2808 Stomy Bugsy - Rimes Passionnelles Septembre 0309 Leeroy - Open Bar 0309 Oxmo Puccino - La réconciliation 1009 Alibi Montana - Inspiration guerrière 1009 El Matador - Parti de rien - 1809 VII - Lettre Morte 2409 Fat Cap - A l'arrache Octobre 0110 Artistes multiples - Marseille connexion Vol. 2 - 0110 TSR Crew - A quoi ça rime ? 0110 Bakar - Rose du béton - 0110 Hocus Pocus - Place 54 0810 Monsieur R - Ché guevara, Une braise qui brule encore 1510 Passi - Evolution 1510 Rockin Squat - Too hot for TV 2110 Smoker - Gangsta Music vol.1 2210 Alpha 5.20 - 3025 avant Rakailles 4 - 2210 Don Choa - Jungle de béton 2210 Jeff Le Nerf - Tout ce que j'ai 2510 Rouda - Musique des lettres 2710 LIM - Délinquant Double album 2910 Dontcha - Maxi Calibre - 2910 Enz - Ma Boutique 2910 Kamelancien - Le Charme En Personne Réedition Novembre 0511 Ol Kainry - Demolition Man 0511 Zakariens - Avenir en suspens 1211 Soprano - Puisqu'il Faut Vivre Réedition 1911 Aketo - Cracheur 2 Venin 1911 Idjal - Tiré d'histoires vraies 1911 Mc Arabica - L'Egalité dans la différence - 1911 Mino - Il était une fois 1911 TLF - Rêves de rue 2611 NTM - Best Of 2611 Rim K - Famille Nombreuse 2711 Sofiane - Première Claque Décembre 0112 Karlito - Ozas - 1012 Sinik - Le toit du monde 1112 Bouchées Doubles - Collector - 3112 T.I.S - La Petite Voiture Dates non connues Artistes Multiples - B.O Scorpion 2Bal - Mapassa Carpe Diem - En Temps Voulu Chodo - Sans règles Eech - Get Eech Stop Crying Kalash L'Afro - Cracheur de flammes La Spirale - Ni Dieu Ni Maître La Swija - Track One Tv L'Hexaler - Démo Mysa - Les poésies du chaos Pit Baccardi - Collector 1997-2007 mixtape Stress - Renaissance Artistes multiples - Compilation Neochrome hall stars X-Men - X-Story Zaho - Zaho La Mixtape2</t>
+          <t>Ouais, tu le sais D'où on vient, on t'sert Pit au mic', Paris à Marseille Sur Sad Hill Yak, Chill, 2 triple 0 Kheops, Marseille Malgré mes sourires et mon air fier, je n'suis qu'un triste poète Sombre comme un temps d'pluie, mon visage caché par mes mains moites Je souhaite que ces mecs ne croient plus que j'sors d'mon berceau Au hip-hop j'reste fidèle comme cette fillette et son cerceau Que j'perce, au fond n'est pas l'important J'veux qu'ces mecs sachent quoi qu'il arrive que j'étais partant J'représente c'que j'suis et j't'assure qu'j'laisserai dégun Mempêcher d'exceller, d'brûler, d'devenir quelqu'un J'fais c'que j'fais par amour, merde, je bosse dur pendant qu'la thune Elle m'a dit te casse, on s'verra sûrement à la sortie d'ce tunnel J'suis à la conquête d'un nouveau monde où il faut avoir du succès Pour qu'on t'donne cette chance d'avoir le succès Y'a les miens et les autres, ceux qui jactent parce qu'ils s'vautrent Normal, un homme qui s'noie ne meurt pas en silence J'ai fait mon baptême et dans l'fond, tout c'qui brûle c'est l'feu Et l'fait d'être une tête grainée me fait swinguer sur les flammes J'ai décoiffé des crépus, laissé les traitres sur le qui-vive Leur châtiment, leur faire part d'mes sentiments Je sais qu'ma haine vous aime J'mène la danse sur des rythmes saccadés Et faut qu'à deux pas d'la mort, j'ai déjà laissé de quoi m'succéder Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux Je suis c'poète sur feuilles mortes Qui fait couler des larmes aux âmes sèches Encore gai, même si le deuil je porte ouais tu le sais J'ai tué ma délinquance, ex-fugitif J'suis v'nu dans le rap en charter, sans faf et demandé une CNI J'suis cette poussière devenue marbre Je suis cette racine devenue arbre Le noyau dur reste malgré qu'le fruit éclate Ma vie c'est un stylo, une feuille, un carnet Une mélodie, triste ou gaie, amère ou plus On ressent mon karma J'expose mes faits, m'inspire d'la foule Et des folles nuits à attendre la venue de mon messie Et moi j'voulais qu'l'on m'prévienne, que l'on m'dise qu'il n'y avait qu'des requins J'aurais pu jouer les durs d'oreille, dérailler comme toutes ces putains Pétard on perce tard, dur d'savoir qu'ils veulent qu'on finisse par s'taire Cul par terre, j'm'étonne qu'ils disent déjà qu'j'vais m'prendre pour une star eh Mais qu'est-ce qu'ils ont à s'marrer ? Trop jaloux à c'qu'il parait, j'voulais qu'tout soit carré Et d'ces cons, j'en avais rien à carrer J'veux faire partie d'ces mecs qui marquent une génération Moi j'suis un nouveau et j't'assure j'ferai partie des anciens Les mecs, chez moi l'idée partait d'délire entre amis et amour Mais aujourd'hui j'crois qu'l'on vient jusqu'à m'envier à mort x2 Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux2</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Pas 2 limite</t>
+          <t>Sexcitations</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Abdulaï résurrection, le hip-hop a une érection Je veux tuer l'temps mais le temps veut ma peau On s'comprend entre criminels, on s'tire le chapeau Cinq litres de sang dans l'corps pour graver l'Histoire Les points sur les Ä, sur ta gueule, ta ratte sur l'trottoir Bavard en bastos, muet à l'interrogatoire Mon groupuscule t'encule jusqu'à la cervelle J't'ai lobotomisé, le rap vient d'Garges Sarcelles Cherche la vibe comme un tox', j'suis dopé J'suis un paradoxe, un calibre avec un message de paix La voie est libre, j'vise et shoote avant qu'les anges m'accueillent Des salopes surfent sur la vague avec une planche de cercueil Engreneur avec une bouteille, d'l'essence un chiffon Pardonne-leur, Seigneur, ils savent pas c'qu'ils font Moi j'donne l'heure, du fond, d'la bonne herbe, du son qui traumatise C'est comme la roulette russe avec un automatique C'est dead Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler On baise le buzz, toujours en biz, deuil, disque C'est mort pour nous c'est l'Christ Qui va nous mettre sous terre dans c'biz du disque Il risque d'y avoir des flaques de sang, la rue s'attriste Alors on pisse, le Ä pisse sur les langues de putes Hip-hop résistants Kamikazes, genre soldats d'Afghanistan Avec le traître aux dreadlocks on a mis la distance Assiste à la reconquête d'l'empire, le chemin est glissant La liste des victimes s'allonge, mec on reste puissants Une guerre, cest une vie pour une vie Lindustrie a rien compris Hamed Daye au micro Cest comme ce putain de Zarkaoui Evadé de Guantanamo Allah est avec les négros Toi avec les clitos J'vous excise avec mon stylo Jviens faire lintifada avec mon canon scié Prier, crier, trier Avec le démon jvous envoie griller Cest pas laïd pourtant ça va saigner Oualaye, tes une caille Au djihad viens tassocier Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler Une ogive dans ta tête gros, pour tout faire sauter Mec, ma Secte rentre sec mais personne peut stopper C.A.L. gangsta, ceux qui kiffent votez Quand ça baise, l'État, l'bleu, toujours opé Baskets blanches, bruit d'coupe-coupe, fly-jacket Traverse pas ma zone MC ou on t'rackette C'est chaud chaud, un yo-yo pour les frères au cachot Abdulaï à la mort, c'est d'la bonne t'inquiète Laisse-moi, ha Dé-délimiter l'périmètre de sécurité Déto-détonation verbale, j'ai la bouche dynamitée Avec un dé-débit direct, eux ont l'débit différé T'inquiète, ici ça kicke sec, mes cailles sont dé-déterminées Laisse passer mon G.A.N.G Au micro j'ai la haine, tu ressens le danger La donne va changer, les MC vont manger Le hip-hop on vient venger Ça dé-dé-défouraille, sur le beat c'est Abdulaï Sorti tout droit des ténèbres pour bénir la racaille Barbare popo, j'viens m'faire per-pom Trop sale, poto, la barre pour quer-cro Trop rap, trop fort, trop squale, trop gore J'ai un don d'Abdulaï, la kalash dans l'cerveau Kamikazes, on débarque et les balles parlent C'est l'bal des claques pour les baltringues, le ball-trap C'est l'banc d'touche, la machette, ta bande qui bataille Un pack de chiens entre potos On baise le biz putain d'bâtards Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler</t>
+          <t>Ouais ouais Au pays d'la Gaule seule la fente est reine Le roi dans l'arène règne Dans les coulisses perd toujours son rôle J'ai exploré des caves et des forêts vierges Dans des forêts en perdait même sa langue J'peux t'dire ça en a bavé Ouais buvez du Baccardi Pit pour une bonne excitation Ça c'est juste un extrait de mes sexcitations Ça palpite quand j'culbute à ce moment J'demande des nouvelles du sexe Et devine un endurcissement de la situation J'suis un alcool mais si on m'secoue trop J'deviens mousseux au risque d'être dégradant Quand je joue à Jacadi avec mes mouvements saccadés Elles disent on dirait qu'il est en chien ce Baccardi Mais j'en suis un justement J'suis un Pit élevé au prostit Qui mord quand on lui caresse pas la queue Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit t'assures comme Rocco Sifredi Ah ouais cette meuf-là elle jouera D'mes boules comme des dés Des boules, elle kiffe à deux sur elle Pour assouvir ses désirs d'ados Deux sur le sol chez nous Avec une mélodie facile à chanter Pour elle quand en majeur j'lui mets Elle préfère les hommes qui la prennent sans la comprendre Aux hommes qui la comprennent sans la prendre Elle est tombée sur l'homme qui comprend juste qu'il doit la prendre J'suis le chef d'orchestre J'ai la baguette et aime frapper sur les grosses caisses J'dois donner du rythme Faut manier la trique j'lui dis Elle m'dis ça s'sent qu'tu viens d'Afrique toi J'pose mes lèvres sur ses troisième et quatrième lèvres Me livre à ce mouvement de tout bon caniche envers sa maitresse Ma tête elle agrippe quand j'veux tirer deux trois taffes de be-her D'or et déjà j'ai pigé qu'c'est l'genre de fille qui a pour meilleures Amies ses deux jambes Et qui a compris qu'dans la vie ses meilleures amies faut les écarter Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit Mon jeu préféré c'est le billard Y'a des boules et une queue Et l'objectif c'est de tout foutre dans les trous Faut pas m'traiter d'cochon Tu manges de l'ail Ça m'étonnerait qu'elle mange du porc à l'ail Vu qu'j'suis l'homme qui n'arrive pas à tout Mais à qui tout arrive Si jamais un jour j'suis sourd J'ai déjà songé à tout J'ferai gynécologue Dans c'taff y'a rien à entendre Il faut juste savoir lire sur les lèvres Grève de semence, les bourses demandent une diminution de taffe Et le zizou parle en leader Quand j'donnerai la dot ça sera pour introduire la fille Si c'est pour faire avec la main j'ai la mienne pour ça Sais-tu quelle différence il y a entre haaan et hmmmmm ? Environ cinq centimètres... Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Présentation</t>
+          <t>Si J’étais</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>A musician wakes from a terrible nightmare. In his dream he finds himself in a society where music education has been made mandatory. We are helping our students become more competitive in an increasingly sound-filled world. Educators, school systems, and the state are put in charge of this vital project. Studies are commissioned, committees are formed, and decisions are madeall without the advice or participation of a single working musician or composer. Since musicians are known to set down their ideas in the form of sheet music, these curious black dots and lines must constitute the language of music. It is imperative that students become fluent in this language if they are to attain any degree of musical competence indeed, it would be ludicrous to expect a child to sing a song or play an instrument without having a thorough grounding in music notation and theory. Playing and listening to music, let alone composing an original piece, are considered very advanced topics and are generally put off until college, and more often graduate school. As for the primary and secondary schools, their mission is to train students to use this languageto jiggle symbols around according to a fixed set of rules Music class is where we take out our staff paper, our teacher puts some notes on the board, and we copy them or transpose them into a different key. We have to make sure to get the clefs and key signatures right, and our teacher is very picky about making sure we fill in our quarter-notes completely. One time we had a chromatic scale problem and I did it right, but the teacher gave me no credit because I had the stems pointing the wrong way. In their wisdom, educators soon realize that even very young children can be given this kind of musical instruction. In fact it is considered quite shameful if ones third-grader hasnt completely memorized his circle of fifths. Ill have to get my son a music tutor. He simply wont apply himself to his music homework. He says its boring. He just sits there staring out the window, humming tunes to himself and making up silly songs. In the higher grades the pressure is really on. After all, the students must be prepared for the standardized tests and college admissions exams. Students must take courses in Scales and Modes, Meter, Harmony, and Counterpoint. Its a lot for them to learn, but later in college when they finally get to hear all this stuff, theyll really appreciate all the work they did in high school. Of course, not many students actually go on to concentrate in music, so only a few will ever get to hear the sounds that the black dots represent. Nevertheless, it is important that every member of society be able to recognize a modulation or a fugal passage, regardless of the fact that they will never hear one. To tell you the truth, most students just arent very good at music. They are bored in class, their skills are terrible, and their homework is barely legible. Most of them couldnt care less about how important music is in todays world they just want to take the minimum number of music courses and be done with it. I guess there are just music people and non-music people. I had this one kid, though, man was she sensational! Her sheets were impeccableevery note in the right place, perfect calligraphy, sharps, flats, just beautiful. Shes going to make one hell of a musician someday. Waking up in a cold sweat, the musician realizes, gratefully, that it was all just a crazy dream. Of course! he reassures himself, No society would ever reduce such a beautiful and meaningful art form to something so mindless and trivial no culture could be so cruel to its children as to deprive them of such a natural, satisfying means of human expression. How absurd! Meanwhile, on the other side of town, a painter has just awakened from a similar nightmare... I was surprised to find myself in a regular school classroomno easels, no tubes of paint. Oh we dont actually apply paint until high school, I was told by the students. In seventh grade we mostly study colors and applicators. They showed me a worksheet. On one side were swatches of color with blank spaces next to them. They were told to write in the names. I like painting, one of them remarked, they tell me what to do and I do it. Its easy! After class I spoke with the teacher. So your students dont actually do any painting? I asked. Well, next year they take Pre-Paint-by-Numbers. That prepares them for the main Paint-by-Numbers sequence in high school. So theyll get to use what theyve learned here and apply it to real-life painting situationsdipping the brush into paint, wiping it off, stuff like that. Of course we track our students by ability. The really excellent paintersthe ones who know their colors and brushes backwards and forwardsthey get to the actual painting a little sooner, and some of them even take the Advanced Placement classes for college credit. But mostly were just trying to give these kids a good foundation in what painting is all about, so when they get out there in the real world and paint their kitchen they dont make a total mess of it. Um, these high school classes you mentioned... You mean Paint-by-Numbers? Were seeing much higher enrollments lately. I think its mostly coming from parents wanting to make sure their kid gets into a good college. Nothing looks better than Advanced Paint-by-Numbers on a high school transcript. Why do colleges care if you can fill in numbered regions with the corresponding color? Oh, well, you know, it shows clear-headed logical thinking. And of course if a student is planning to major in one of the visual sciences, like fashion or interior decorating, then its really a good idea to get your painting requirements out of the way in high school. I see. And when do students get to paint freely, on a blank canvas? You sound like one of my professors! They were always going on about expressing yourself and your feelings and things like thatreally way-out-there abstract stuff. Ive got a degree in Painting myself, but Ive never really worked much with blank canvasses. I just use the Paint-by-Numbers kits supplied by the school board.Sadly, our present system of mathematics education is precisely this kind of nightmare. In fact, if I had to design a mechanism for the express purpose of destroying a childs natural curiosity and love of pattern-making, I couldnt possibly do as good a job as is currently being doneI simply wouldnt have the imagination to come up with the kind of senseless, soul- crushing ideas that constitute contemporary mathematics education. Everyone knows that something is wrong. The politicians say, we need higher standards. The schools say, we need more money and equipment. Educators say one thing, and teachers say another. They are all wrong. The only people who understand what is going on are the ones most often blamed and least often heard the students. They say, math class is stupid and boring, and they are right.Mathematics and CultureThe first thing to understand is that mathematics is an art. The difference between math and the other arts, such as music and painting, is that our culture does not recognize it as such. Everyone understands that poets, painters, and musicians create works of art, and are expressing themselves in word, image, and sound. In fact, our society is rather generous when it comes to creative expression architects, chefs, and even television directors are considered to be working artists. So why not mathematicians? Part of the problem is that nobody has the faintest idea what it is that mathematicians do. The common perception seems to be that mathematicians are somehow connected with scienceperhaps they help the scientists with their formulas, or feed big numbers into computers for some reason or other. There is no question that if the world had to be divided into the poetic dreamers and the rational thinkers most people would place mathematicians in the latter category. Nevertheless, the fact is that there is nothing as dreamy and poetic, nothing as radical, subversive, and psychedelic, as mathematics. It is every bit as mind blowing as cosmology or physics mathematicians conceived of black holes long before astronomers actually found any, and allows more freedom of expression than poetry, art, or music which depend heavily on properties of the physical universe. Mathematics is the purest of the arts, as well as the most misunderstood. So let me try to explain what mathematics is, and what mathematicians do. I can hardly do better than to begin with G.H. Hardys excellent descriptionA mathematician, like a painter or poet, is a maker of patterns. If his patterns are more permanent than theirs, it is because they are made with ideas.So mathematicians sit around making patterns of ideas. What sort of patterns? What sort of ideas? Ideas about the rhinoceros? No, those we leave to the biologists. Ideas about language and culture? No, not usually. These things are all far too complicated for most mathematicians taste. If there is anything like a unifying aesthetic principle in mathematics, it is this simple is beautiful. Mathematicians enjoy thinking about the simplest possible things, and the simplest possible things are imaginary. For example, if Im in the mood to think about shapesand I often amI might imagine a triangle inside a rectangular boxI wonder how much of the box the triangle takes up? Two-thirds maybe? The important thing to understand is that Im not talking about this drawing of a triangle in a box. Nor am I talking about some metal triangle forming part of a girder system for a bridge. Theres no ulterior practical purpose here. Im just playing. Thats what math iswondering, playing, amusing yourself with your imagination. For one thing, the question of how much of the box the triangle takes up doesnt even make any sense for real, physical objects. Even the most carefully made physical triangle is still a hopelessly complicated collection of jiggling atoms it changes its size from one minute to the next. That is, unless you want to talk about some sort of approximate measurements. Well, thats where the aesthetic comes in. Thats just not simple, and consequently it is an ugly question which depends on all sorts of real-world details. Lets leave that to the scientists. The mathematical question is about an imaginary triangle inside an imaginary box. The edges are perfect because I want them to bethat is the sort of object I prefer to think about. This is a major theme in mathematics things are what you want them to be. You have endless choices there is no reality to get in your way. On the other hand, once you have made your choices for example I might choose to make my triangle symmetrical, or not then your new creations do what they do, whether you like it or not. This is the amazing thing about making imaginary patterns they talk back! The triangle takes up a certain amount of its box, and I dont have any control over what that amount is. There is a number out there, maybe its two-thirds, maybe it isnt, but I dont get to say what it is. I have to find out what it is. So we get to play and imagine whatever we want and make patterns and ask questions about them. But how do we answer these questions? Its not at all like science. Theres no experiment I can do with test tubes and equipment and whatnot that will tell me the truth about a figment of my imagination. The only way to get at the truth about our imaginations is to use our imaginations, and that is hard work. In the case of the triangle in its box, I do see something simple and prettyIf I chop the rectangle into two pieces like this, I can see that each piece is cut diagonally in half by the sides of the triangle. So there is just as much space inside the triangle as outside. That means that the triangle must take up exactly half the box! This is what a piece of mathematics looks and feels like. That little narrative is an example of the mathematicians art asking simple and elegant questions about our imaginary creations, and crafting satisfying and beautiful explanations. There is really nothing else quite like this realm of pure idea its fascinating, its fun, and its free! Now where did this idea of mine come from? How did I know to draw that line? How does a painter know where to put his brush? Inspiration, experience, trial and error, dumb luck. Thats the art of it, creating these beautiful little poems of thought, these sonnets of pure reason. There is something so wonderfully transformational about this art form. The relationship between the triangle and the rectangle was a mystery, and then that one little line made it obvious. I couldnt see, and then all of a sudden I could. Somehow, I was able to create a profound simple beauty out of nothing, and change myself in the process. Isnt that what art is all about? This is why it is so heartbreaking to see what is being done to mathematics in school. This rich and fascinating adventure of the imagination has been reduced to a sterile set of facts to be memorized and procedures to be followed. In place of a simple and natural question about shapes, and a creative and rewarding process of invention and discovery, students are treated to thisThe area of a triangle is equal to one-half its base times its height. Students are asked to memorize this formula and then apply it over and over in the exercises. Gone is the thrill, the joy, even the pain and frustration of the creative act. There is not even a problem anymore. The question has been asked and answered at the same timethere is nothing left for the student to do. Now let me be clear about what Im objecting to. Its not about formulas, or memorizing interesting facts. Thats fine in context, and has its place just as learning a vocabulary doesit helps you to create richer, more nuanced works of art. But its not the fact that triangles take up half their box that matters. What matters is the beautiful idea of chopping it with the line, and how that might inspire other beautiful ideas and lead to creative breakthroughs in other problemssomething a mere statement of fact can never give you. By removing the creative process and leaving only the results of that process, you virtually guarantee that no one will have any real engagement with the subject. It is like saying that Michelangelo created a beautiful sculpture, without letting me see it. How am I supposed to be inspired by that? And of course its actually much worse than thisat least its understood that there is an art of sculpture that I am being prevented from appreciating. By concentrating on what, and leaving out why, mathematics is reduced to an empty shell. The art is not in the truth but in the explanation, the argument. It is the argument itself which gives the truth its context, and determines what is really being said and meant. Mathematics is the art of explanation. If you deny students the opportunity to engage in this activityto pose their own problems, make their own conjectures and discoveries, to be wrong, to be creatively frustrated, to have an inspiration, and to cobble together their own explanations and proofsyou deny them mathematics itself. So no, Im not complaining about the presence of facts and formulas in our mathematics classes, Im complaining about the lack of mathematics in our mathematics classes.If your art teacher were to tell you that painting is all about filling in numbered regions, you would know that something was wrong. The culture informs youthere are museums and galleries, as well as the art in your own home. Painting is well understood by society as a medium of human expression. Likewise, if your science teacher tried to convince you that astronomy is about predicting a persons future based on their date of birth, you would know she was crazyscience has seeped into the culture to such an extent that almost everyone knows about atoms and galaxies and laws of nature. But if your math teacher gives you the impression, either expressly or by default, that mathematics is about formulas and definitions and memorizing algorithms, who will set you straight? The cultural problem is a self-perpetuating monster students learn about math from their teachers, and teachers learn about it from their teachers, so this lack of understanding and appreciation for mathematics in our culture replicates itself indefinitely. Worse, the perpetuation of this pseudo-mathematics, this emphasis on the accurate yet mindless manipulation of symbols, creates its own culture and its own set of values. Those who have become adept at it derive a great deal of self-esteem from their success. The last thing they want to hear is that math is really about raw creativity and aesthetic sensitivity. Many a graduate student has come to grief when they discover, after a decade of being told they were good at math, that in fact they have no real mathematical talent and are just very good at following directions. Math is not about following directions, its about making new directions. And I havent even mentioned the lack of mathematical criticism in school. At no time are students let in on the secret that mathematics, like any literature, is created by human beings for their own amusement that works of mathematics are subject to critical appraisal that one can have and develop mathematical taste. A piece of mathematics is like a poem, and we can ask if it satisfies our aesthetic criteria Is this argument sound? Does it make sense? Is it simple and elegant? Does it get me closer to the heart of the matter? Of course theres no criticism going on in schooltheres no art being done to criticize! Why dont we want our children to learn to do mathematics? Is it that we dont trust them, that we think its too hard? We seem to feel that they are capable of making arguments and coming to their own conclusions about Napoleon, why not about triangles? I think its simply that we as a culture dont know what mathematics is. The impression we are given is of something very cold and highly technical, that no one could possibly understanda self- fulfilling prophesy if there ever was one. It would be bad enough if the culture were merely ignorant of mathematics, but what is far worse is that people actually think they do know what math is aboutand are apparently under the gross misconception that mathematics is somehow useful to society! This is already a huge difference between mathematics and the other arts. Mathematics is viewed by the culture as some sort of tool for science and technology. Everyone knows that poetry and music are for pure enjoyment and for uplifting and ennobling the human spirit hence their virtual elimination from the public school curriculum but no, math is important. SIMPLICIO Are you really trying to claim that mathematics offers no useful or practical applications to society? SALVIATI Of course not. Im merely suggesting that just because something happens to have practical consequences, doesnt mean thats what it is about. Music can lead armies into battle, but thats not why people write symphonies. Michelangelo decorated a ceiling, but Im sure he had loftier things on his mind. SIMPLICIO But dont we need people to learn those useful consequences of math? Dont we need accountants and carpenters and such? SALVIATI How many people actually use any of this practical math they supposedly learn in school? Do you think carpenters are out there using trigonometry? How many adults remember how to divide fractions, or solve a quadratic equation? Obviously the current practical training program isnt working, and for good reason it is excruciatingly boring, and nobody ever uses it anyway. So why do people think its so important? I dont see how its doing society any good to have its members walking around with vague memories of algebraic formulas and geometric diagrams, and clear memories of hating them. It might do some good, though, to show them something beautiful and give them an opportunity to enjoy being creative, flexible, open-minded thinkersthe kind of thing a real mathematical education might provide. SIMPLICIO But people need to be able to balance their checkbooks, dont they? SALVIATI Im sure most people use a calculator for everyday arithmetic. And why not? Its certainly easier and more reliable. But my point is not just that the current system is so terribly bad, its that what its missing is so wonderfully good! Mathematics should be taught as art for arts sake. These mundane useful aspects would follow naturally as a trivial by-product. Beethoven could easily write an advertising jingle, but his motivation for learning music was to create something beautiful. SIMPLICIO But not everyone is cut out to be an artist. What about the kids who arent math people? How would they fit into your scheme? SALVIATI If everyone were exposed to mathematics in its natural state, with all the challenging fun and surprises that that entails, I think we would see a dramatic change both in the attitude of students toward mathematics, and in our conception of what it means to be good at math. We are losing so many potentially gifted mathematicianscreative, intelligent people who rightly reject what appears to be a meaningless and sterile subject. They are simply too smart to waste their time on such piffle. SIMPLICIO But dont you think that if math class were made more like art class that a lot of kids just wouldnt learn anything? SALVIATI Theyre not learning anything now! Better to not have math classes at all than to do what is currently being done. At least some people might have a chance to discover something beautiful on their own. SIMPLICIO So you would remove mathematics from the school curriculum? SALVIATI The mathematics has already been removed! The only question is what to do with the vapid, hollow shell that remains. Of course I would prefer to replace it with an active and joyful engagement with mathematical ideas. SIMPLICIO But how many math teachers know enough about their subject to teach it that way? SALVIATI Very few. And thats just the tip of the iceberg...Mathematics in SchoolThere is surely no more reliable way to kill enthusiasm and interest in a subject than to make it a mandatory part of the school curriculum. Include it as a major component of standardized testing and you virtually guarantee that the education establishment will suck the life out of it. School boards do not understand what math is, neither do educators, textbook authors, publishing companies, and sadly, neither do most of our math teachers. The scope of the problem is so enormous, I hardly know where to begin. Lets start with the math reform debacle. For many years there has been a growing awareness that something is rotten in the state of mathematics education. Studies have been commissioned, conferences assembled, and countless committees of teachers, textbook publishers, and educators whatever they are have been formed to fix the problem. Quite apart from the self-serving interest paid to reform by the textbook industry which profits from any minute political fluctuation by offering up new editions of their unreadable monstrosities, the entire reform movement has always missed the point. The mathematics curriculum doesnt need to be reformed, it needs to be scrapped. All this fussing and primping about which topics should be taught in what order, or the use of this notation instead of that notation, or which make and model of calculator to use, for gods sakeits like rearranging the deck chairs on the Titanic! Mathematics is the music of reason. To do mathematics is to engage in an act of discovery and conjecture, intuition and inspiration to be in a state of confusionnot because it makes no sense to you, but because you gave it sense and you still dont understand what your creation is up to to have a breakthrough idea to be frustrated as an artist to be awed and overwhelmed by an almost painful beauty to be alive, damn it. Remove this from mathematics and you can have all the conferences you like it wont matter. Operate all you want, doctors your patient is already dead. The saddest part of all this reform are the attempts to make math interesting and relevant to kids lives. You dont need to make math interestingits already more interesting than we can handle! And the glory of it is its complete irrelevance to our lives. Thats why its so fun! Attempts to present mathematics as relevant to daily life inevitably appear forced and contrived You see kids, if you know algebra then you can figure out how old Maria is if we know that she is two years older than twice her age seven years ago! As if anyone would ever have access to that ridiculous kind of information, and not her age. Algebra is not about daily life, its about numbers and symmetryand this is a valid pursuit in and of itselfSuppose I am given the sum and difference of two numbers. How can I figure out what the numbers are themselves?Here is a simple and elegant question, and it requires no effort to be made appealing. The ancient Babylonians enjoyed working on such problems, and so do our students. And I hope you will enjoy thinking about it too! We dont need to bend over backwards to give mathematics relevance. It has relevance in the same way that any art does that of being a meaningful human experience. In any case, do you really think kids even want something that is relevant to their daily lives? You think something practical like compound interest is going to get them excited? People enjoy fantasy, and that is just what mathematics can providea relief from daily life, an anodyne to the practical workaday world. A similar problem occurs when teachers or textbooks succumb to cutesyness. This is where, in an attempt to combat so-called math anxiety one of the panoply of diseases which are actually caused by school, math is made to seem friendly. To help your students memorize formulas for the area and circumference of a circle, for example, you might invent this whole story about Mr. C, who drives around Mrs. A and tells her how nice his two pies are C 2r and how her pies are square A r2 or some such nonsense. But what about the real story? The one about mankinds struggle with the problem of measuring curves about Eudoxus and Archimedes and the method of exhaustion about the transcendence of pi? Which is more interestingmeasuring the rough dimensions of a circular piece of graph paper, using a formula that someone handed you without explanation and made you memorize and practice over and over or hearing the story of one of the most beautiful, fascinating problems, and one of the most brilliant and powerful ideas in human history? Were killing peoples interest in circles for gods sake! Why arent we giving our students a chance to even hear about these things, let alone giving them an opportunity to actually do some mathematics, and to come up with their own ideas, opinions, and reactions? What other subject is routinely taught without any mention of its history, philosophy, thematic development, aesthetic criteria, and current status? What other subject shuns its primary sourcesbeautiful works of art by some of the most creative minds in historyin favor of third-rate textbook bastardizations? The main problem with school mathematics is that there are no problems. Oh, I know what passes for problems in math classes, these insipid exercises. Here is a type of problem. Here is how to solve it. Yes it will be on the test. Do exercises 1-35 odd for homework. What a sad way to learn mathematics to be a trained chimpanzee. But a problem, a genuine honest-to-goodness natural human questionthats another thing. How long is the diagonal of a cube? Do prime numbers keep going on forever? Is infinity a number? How many ways can I symmetrically tile a surface? The history of mathematics is the history of mankinds engagement with questions like these, not the mindless regurgitation of formulas and algorithms together with contrived exercises designed to make use of them. A good problem is something you dont know how to solve. Thats what makes it a good puzzle, and a good opportunity. A good problem does not just sit there in isolation, but serves as a springboard to other interesting questions. A triangle takes up half its box. What about a pyramid inside its three-dimensional box? Can we handle this problem in a similar way? I can understand the idea of training students to master certain techniquesI do that too. But not as an end in itself. Technique in mathematics, as in any art, should be learned in context. The great problems, their history, the creative processthat is the proper setting. Give your students a good problem, let them struggle and get frustrated. See what they come up with. Wait until they are dying for an idea, then give them some technique. But not too much. So put away your lesson plans and your overhead projectors, your full-color textbook abominations, your CD-ROMs and the whole rest of the traveling circus freak show of contemporary education, and simply do mathematics with your students! Art teachers dont waste their time with textbooks and rote training in specific techniques. They do what is natural to their subjectthey get the kids painting. They go around from easel to easel, making suggestions and offering guidance I was thinking about our triangle problem, and I noticed something. If the triangle is really slanted then it doesnt take up half its box! See, lookExcellent observation! Our chopping argument assumes that the tip of the triangle lies directly over the base. Now we need a new idea. Should I try chopping it a different way? Absolutely. Try all sorts of ideas. Let me know what you come up with!So how do we teach our students to do mathematics? By choosing engaging and natural problems suitable to their tastes, personalities, and level of experience. By giving them time to make discoveries and formulate conjectures. By helping them to refine their arguments and creating an atmosphere of healthy and vibrant mathematical criticism. By being flexible and open to sudden changes in direction to which their curiosity may lead. In short, by having an honest intellectual relationship with our students and our subject. Of course what Im suggesting is impossible for a number of reasons. Even putting aside the fact that statewide curricula and standardized tests virtually eliminate teacher autonomy, I doubt that most teachers even want to have such an intense relationship with their students. It requires too much vulnerability and too much responsibilityin short, its too much work! It is far easier to be a passive conduit of some publishers materials and to follow the shampoo-bottle instruction lecture, test, repeat than to think deeply and thoughtfully about the meaning of ones subject and how best to convey that meaning directly and honestly to ones students. We are encouraged to forego the difficult task of making decisions based on our individual wisdom and conscience, and to get with the program. It is simply the path of least resistanceTEXTBOOK PUBLISHERS TEACHERS A pharmaceutical companies doctors B record companies disk jockeys C corporations congressmen D all of the aboveThe trouble is that math, like painting or poetry, is hard creative work. That makes it very difficult to teach. Mathematics is a slow, contemplative process. It takes time to produce a work of art, and it takes a skilled teacher to recognize one. Of course its easier to post a set of rules than to guide aspiring young artists, and its easier to write a VCR manual than to write an actual book with a point of view. Mathematics is an art, and art should be taught by working artists, or if not, at least by people who appreciate the art form and can recognize it when they see it. It is not necessary that you learn music from a professional composer, but would you want yourself or your child to be taught by someone who doesnt even play an instrument, and has never listened to a piece of music in their lives? Would you accept as an art teacher someone who has never picked up a pencil or stepped foot in a museum? Why is it that we accept math teachers who have never produced an original piece of mathematics, know nothing of the history and philosophy of the subject, nothing about recent developments, nothing in fact beyond what they are expected to present to their unfortunate students? What kind of a teacher is that? How can someone teach something that they themselves dont do? I cant dance, and consequently I would never presume to think that I could teach a dance class I could try, but it wouldnt be pretty. The difference is I k</t>
+          <t>Si j'étais flic et toi Rodney King La matraque en main toi au sol sur ce parking Si j'étais flic est-ce j'accepterais les pots-de-vin Après une saisie de coke détourner ma part du butin Si j'étais flic noir est-ce que je voudrais le malheur d'un frère Lui disant que sa mort ça fait une racaille en moins Si j'étais flic est-ce que je voudrais être criminel comme Broussard Avoir la légion d'honneur ou le statut de star Soutenir mon collègue après cette bavure dans le 18 Tenter le suicide en me regardant après une bonne cuite Est-ce que je suis flic parce que j'aime ça Quand j'ai la trouille devant ces jeunes est-ce que ça se sent Est-ce que je suis en confiance juste parce que j'ai mon arme Car je sais qu'au moindre geste je les allume tous Est-ce que j'accepterais que des négros chantent Sacrifice de poulet ? Vu que je ne suis pas je cautionne en plus qu'on les sanctionne Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Si j'étais La loi serait la même pour toi comme pour moi Si j'étais Je serais une femme digne de porter ce nom Si j'étais Je suis un noir pacifiste et fier de l'être Couplet Si j'étais femme aurais-je conscience que je suis nombril du monde Qu'avortement signifie assassinat d'un môme Avec ce que j'ai qu'ils n'ont pas je peux anéantir le monde Et vu que je ne suis pas je regarde ce que Monica a fait à Clinton Si j'étais femme je voudrais être Rosa Parks ou Néfertiti Mais on peut même devenir femme regarde RuPaul Est-ce que je serais mariée à un alcoolique qui frappe mes fils Amoureux de lui malgré le fait qu'il soit récidiviste Est-ce que j'accepterais de ken avec Jacky Pit le pote à Jacky Ben-J le pote à Pit donc le pote à Jacky Avoir une bite comme logo ou être la go la plus ken du coin C'est sale comme un mec qui baise sa sur Heureusement que je ne suis pas cette chienne Qui aime se faire ken Qui pleure et s'plaint quand je lui dis qui elle est Je suis un mâle un chien bâtard buté et insolent dans mes propos Normal je suis Pit Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Couplet Si j'étais blanc bleu blanc rouge Bleu pour ma gueule après les patates d'un nègre Blanc pour la soi-disante pureté de cette race Rouge je deviens quand je suis seul à minuit avec des bicots Si j'étais blanc est-ce que j'aurais peur du ghetto français Parce que je sais que dans ces cités j'en ai offensé Est-ce que je me reconnaîtrais dans le front national Est-ce que je penserais que les autres races sont inférieures Est-ce que je dirais que ça pue à l'étage supérieur Est-ce que j'accepterais d'avoir un noir comme patron Est-ce que j'accepterais comme gendre Abdelkrim Criminel par sa peau couleur café crème Si j'étais skin comment savourer les deux buts de Zinedine Si j'étais blanc non je suis noir ça se voit noir sur blanc Et pour la peine je finis salement par un blanc Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Prise De Conscience</t>
+          <t>Si loin de toi</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>J'fais pas de politique mais d'la zique mec T'entends ce sifflotement c'est moi quand j'marche seul en m'demandant comment changer les choses J'veux la jeunesse derrière moi quand je braille Depuis l'début on fait les choses nous j'passe les détails Les mecs ont besoin de repères, se sentent trahis quand les MCs s'perdent Faut arrêter de s'leurrer les mecs qu'écoutent ce texte Un mélange de malaise de nos rues de notre musique et de nos vies Le combat continue j'reviens trois piges plus tard Quel changement les petits me demandent Baccardi donne-nous du bon sens dans ce bordel La pression est là, le rap est l'identité pour beaucoup Je l'ai ressenti pendant mon petit tour du monde Ils veulent danser chanter s'balancer Réfléchir car ce qu'on dit de bien les motive La musique est triste et les paroles lourdes de sens Le titre c'est prise de conscience J'ressens une humeur triste dans les halls Les mecs brûlent la vie et s'enfoncent dans l'blizzard ils ont pris le choix des armes Que Dieu seul juge j'assiste à ce déclin Tout ce qui m'reste c'est un micro et j'attends le déclic Je ne suis pas ce rappeur de plus qui dira j'emmerde l'État Un milliers l'ont fait et aujourd'hui je constate Que les choses empirent Là-haut personne n'écoute et faut viser quand on tire Notre révolte c'est pas de brûler la ville on a besoin de soldats Faut qu'on reste massif, unis entre nous, obligé L'ennemi attaque quand il sent une faiblesse Mon QG c'est mon cerveau et ma parole pour vous servir J'prends le micro et dis à mon monde de penser à nos mômes à nos mères Au combat de nos pères face au système Prise de conscience c'est ça le thème Qui prétend faire du rap sens prendre position Je me dis tout peut s'arrêter demain mais j'm'en voudrais Si avec les opportunités qu'on a aujourd'hui y'a rien de concret Certains d'entre nous ont des gosses d'autres se marient On est à l'heure du changement On veut fonder des familles Et réunir des villes Donner la force à nos pays En Afrique Laisser des biens à nos mômes Faire vivre notre musique C'est ça la mélodie Elle parle seule et réchauffe le cur et donne envie de créer On a bâti nos vies dans le rêve Et se bat encore pour qu'à nos réveils il n'y ait plus de cauchemars</t>
+          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Professionnels</t>
+          <t>Sous les spots</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Elles aiment Pit pour son style, son flow, son accent de plouc Sa manière de manier les mots qui leur enlève leurs mots à toutes Peut-être chère je n'attends autre chose que les flutes Un flirt sur mon son tant ce morceau se fait en chantant c'est fou Elles disent que je sais rire du joker sans même lancer mes cartes J'acquière leur cur mon karma universel époux Du verre seul du Baccardi pour demoiselle seule Qu'elle soit camer mon jack peule, arav' beaucoup à c'qu'elles veulent Ville en larmes paré, tient mon mouchoir tarif réduit pour célibataires J'arrive gratuit pour toutes pour ce voyage en première classe Texte en velours et atmosphère qui classe Je suis avec toi partout sur K7 ou sur disque Ou tu veux je te dis même aux endroits les plus discrets Je suis exceptionnel, je suis sexationnel Professionnel, expert en amour sans crimes passionnels Refrain Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... De l'amie à son amie, il est l'amant Déshabillez-vous, ta beauté intérieure je trouve mieux Il préfère l'autre fille car tous les mecs matent Mais en fait elle flâne avec le temps doit respire pas besoin de ces mic macs Aujourd'hui il fuit devant celle qui lui court après Demain il courra derrière celle qui le fuit Quand rentrant du taff il faut que tu te trouves dans ton pieu Qui t'escorte quand dans ce parc tu marches à pied Quand il frappe et que dans la rue tes amies Soph' et Becky te confortent en te ramenant chez tes parents, hein En son absence qui a le rôle de l'amant, ami Mari par amour comme toujours Baccardi j'ai la rime Qui te fera oublier le célibat, finis les soucis si t'en as, on s'associe miss Kiss, bon baiser d'un ancien briscard Ancien brisque qu'aujourd'hui tu aimes fort Refrain Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace le par moi Laisse moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas... Sonnerie de téléphone - Je suis pas là, laisse un message - Ouais Pit c'est moi, écoute faut que je te parle, j'en peux plus Je vais craquer, j'ai trop besoin de toi T'as le mal d'amour, marre de ton mâle, ce débi-L Je n'interviens pas j'attends juste la fin de vos démêlés Bella t'es la nuit, bella, c'est l'ennui qui te ronge Hola t'énerve pas quand je t'parle, je suis juste un bel ami Ta mine me parle, ce sont nos yeux qui discutent, dispute avec ton mec qu'ils me disent On veut que le couple se disloque Toc à ma porte et entre prends la plume si tu ne peux dire un mot Jette l'ancre, je serais là sur le port à t'attendre, intéressant Baccardi Pit attendrissant pour ton mal d'amour, je suis le remède effervescent Présent jusque dans ton subconscient Être à la hauteur, faire mieux que les autres, ça j'en suis conscient Refrain x2 Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas remplace-le par moi Laisse-moi remplacer ce mec qui te frappe Ce mec qui n'est jamais là Ce mec qui te trompe avec une amie à toi Laisse-moi chambouler ta vie de célibat Ce mec qui te mérite pas Vas-y n'hésite pas...</t>
+          <t>Ooh! 2002 Mike Impetto Baccardi Pit Dans les dancehalls c'est la merde Mate le bougre, électrocute comme la foudre J't'en mets plein les yeux, ma zik c'est d'la poudre Pour les filles en manque de plaisir, j'viens recoudre Les déchireurs de cur, toujours à la coule Elles ont dit cool, on veut danser J'ai pris ma voix, un micro, j'ai fait un sound check, affaire classée Baccardi, de Première Classe, un choix d'qualité supérieure XXX dans les charts, déplace C'est nouvelle ère, deux gentlemen, un B Sur toutes les poitrines et sur mes jantes, man Un classique, quand j'débarque y a du changement Les mecs veulent me ressembler, revoient leur plastique tu l'sais J'suis une machine de guerre, donne-moi une platine, je gère J'accélère, j'ai l'art et la manière Le style, j'suis né avec J'cause des dégâts, j'peux pas m'en défaire Hein, regarde c'que j'fais Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls J'suis sous les spots, quand y a un problème j'la joue sport Reste sobre, j'ai créé un empire avec mes potes Complote pas contre mes assos' de malfaitaz Qui carburent à l'essence, vite Ça bloque car c'sont des Blacks changent le système Et veulent donner la force aux mecs des blocs Génération Young Gunz, on vient t'faire danser Chanter, te balancer Entre les flashes et les lights, ooh Mais pas les femmes et les fights Ceux qui font zouker les Beurs Valser les Blacks et smurfer les Whites Sur la tête, XXX, sur l'côté Dans la main j'ai l'cigare et je pète le champagne Peu importent les regards, les sourires, les égards Si j'dois repartir avec ta compagne Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Quand j'rappe ces mélodies, de ta meuf j'suis l'idole Hey, mate pas comme ça, c'est pas moi qui l'ai dit J'fais mon truc dosé, posé, classe, aisé Au-dessus d'la moyenne dans les stat' J'éclate, kicke sur un beat dansant J'ai une histoire, un parcours Ton crâne suit la cadence, non? Mon rap, c'est un truc de feeling Flow, fringues, charisme, damn! D'où il sort ce boss? De Yaoundé, place des fêtes Et l'Afrique, y a du monde qui m'soutient Hey, c'est pas d'ma faute C'est trop gros, trop flow, trop chaud C'est Pit au mic, et M-Pio 2002, pour les ghettos d'France, du 7-8 au 1-9 Mike Impetto, Baccardi Pit, dans les dancehalls c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Dans les dancehalls Toutes les mains en l'air Fous l'bordel Pit au mic, Impetto, les dancehalls, c'est la merde Pit au mic, Impetto, les dancehalls, c'est la merde Jacky Brown, c'est la merde Première Classe, c'est la merde Cris aux manettes, c'est la merde Et tu l'sais Qu'c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Réconciliation</t>
+          <t>Tapage Nocturne (version 2008)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Janvier 1001 Sterna - Paie le Prix - 2201 Booba - Autopsie Vol.2 Mixtape 2901 Ades - Un degré de plus 2901 Artistes Multiples - Compilation Rap R'and'B 2901 Black Marché - Au quart 2 Tour - 2901 Mafia K'1 Fry - Jusqu'à la mort - 2901 Flynt - 1 pour la plume EP Février 0502 Kamelancien - Le Charme en Personne 0502 Vitaa - À fleur de toi 1202 Artistes Multiples - B.O TAXI 4 1202 Faf Larage - Rap Stories 1202 IAM - Official Mixtape - 1702 Soprano - Puisqu'il Faut Vivre - 2602 Hocus Pocus - Du sable sur les paupières Maxi Mars 0503 Compilation Beat de Boul - Dans un autre monde 0503 Seth Gueko - Patate de Forain 1203 Anfalsh - Représailles chapitre 1 1203 Ärsenik - S'il en reste Quelque Chose Best-Of 1203 Artistes Multiples - Compilation Ecoute la rue Marianne 1203 Artistes Multiples - Compilation Get On The Floor - 1203 La Fouine - Aller-Retour - 1903 Youssoupha - À Chaque Frère 2603 Artistes multiples - Compilation Menace sur la planète rap vol.3 2603 L'Algerino - Mentalité Pirate 2603 - Octobre Rouge - Votez pour Nous 2603 Tony Parker - Tony Parker - XX03 Haroun - Sur Scène Maxi Avril - 0204 IAM - Saison 5 0204 Passi - Révolution - 1604 Haroun - Au Front 1604 Rohff - Au-Delà De Mes Limites Classics Réédition 1704 Smoker - La roue tourne 2304 Artistes Multiples - Compilation Chroniques de Mars Vol.2 2304 Enigmatik - Un Nouveau Souffle - 2304 La Rumeur - Du Cur à l'Outrage - 3004 Salif - Boulogne Boy Street Album XX04 Artistes Multiples - Compilation Délepenisons Mai 0205 Artistes multiples - Compilation Opinion sur rue Vol.3 0205 Psykick Lyrikah - Acte 0705 Dabaaz - Moi, Ma Gueule Et Ma Propre Personne 0705 Les Grandes Gueules - On ne peut pas plaire à tout le monde vol.2 1405 Brigade des mineurs - Brigade des mineurs 1405 Expression Direkt - D.Terminé 2105 Artistes Multiples - Compilation Traffic - 2105 Tar-One - À la première personne - 2805 Flynt - J'éclaire ma ville - 2805 Fatal Bazooka - T'as vu ? - 2805 Kamini - Psychostar World 2905 Manu Key - Prolifique Part 2 3105 Smoker - La roue tourne Juin 0406 Artistes Multiples - Compilation Il faut sauver le rap Francais 2 - 0406 Idir - La France des couleurs 1106 ATK - Silence Radio 1106 Mokobe - Mon Afrique 1106 Wouilo - Nouvelle Generation 1806 LIM - Délinquant Maxi - 1806 Mc Solaar - Chapitre 7 1906 MAF - Interdit d'illusion 2506 Artistes Multiples - Compilation Tetes Brulees Vol 4 2506 Demon One - Mon Rap 2506 Samm Coloquinte - Plus rien à foutre Juillet 0207 Rohff - Le cauchemar du rap Francais 1407 Many - Nerfs à vif Août 0208 Ahmad - Le môme qui voulut être roi 2708 James Delleck - Le cri du papillon 2808 Stomy Bugsy - Rimes Passionnelles Septembre 0309 Leeroy - Open Bar 0309 Oxmo Puccino - La réconciliation 1009 Alibi Montana - Inspiration guerrière 1009 El Matador - Parti de rien - 1809 VII - Lettre Morte 2409 Fat Cap - A l'arrache Octobre 0110 Artistes multiples - Marseille connexion Vol. 2 - 0110 TSR Crew - A quoi ça rime ? 0110 Bakar - Rose du béton - 0110 Hocus Pocus - Place 54 0810 Monsieur R - Ché guevara, Une braise qui brule encore 1510 Passi - Evolution 1510 Rockin Squat - Too hot for TV 2110 Smoker - Gangsta Music vol.1 2210 Alpha 5.20 - 3025 avant Rakailles 4 - 2210 Don Choa - Jungle de béton 2210 Jeff Le Nerf - Tout ce que j'ai 2510 Rouda - Musique des lettres 2710 LIM - Délinquant Double album 2910 Dontcha - Maxi Calibre - 2910 Enz - Ma Boutique 2910 Kamelancien - Le Charme En Personne Réedition Novembre 0511 Ol Kainry - Demolition Man 0511 Zakariens - Avenir en suspens 1211 Soprano - Puisqu'il Faut Vivre Réedition 1911 Aketo - Cracheur 2 Venin 1911 Idjal - Tiré d'histoires vraies 1911 Mc Arabica - L'Egalité dans la différence - 1911 Mino - Il était une fois 1911 TLF - Rêves de rue 2611 NTM - Best Of 2611 Rim K - Famille Nombreuse 2711 Sofiane - Première Claque Décembre 0112 Karlito - Ozas - 1012 Sinik - Le toit du monde 1112 Bouchées Doubles - Collector - 3112 T.I.S - La Petite Voiture Dates non connues Artistes Multiples - B.O Scorpion 2Bal - Mapassa Carpe Diem - En Temps Voulu Chodo - Sans règles Eech - Get Eech Stop Crying Kalash L'Afro - Cracheur de flammes La Spirale - Ni Dieu Ni Maître La Swija - Track One Tv L'Hexaler - Démo Mysa - Les poésies du chaos Pit Baccardi - Collector 1997-2007 mixtape Stress - Renaissance Artistes multiples - Compilation Neochrome hall stars X-Men - X-Story Zaho - Zaho La Mixtape2</t>
+          <t>C'est ma ville la nuit El Matador Brasco Bombattak crew si si Marseille Centre-ville Paname, frère C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Minuit passé, y a que des putes et plus d'Cendrillon Investis sur l'album, écoute la délinquance en échantillon Y a des p'tits, des grands qui montent dans c'pays où la violence triomphe Les règlements de comptes au vingt heures en disent long C'est pour nos secteurs, les environs Dédié aux coupables innocents en taule à cause d'une balance qui s'trompe Ici ça trafique shit, coke, ecsta ou champignons Parce que plus personne compte sur l'Euromillion Y a c'côté chaud et froid qui fait qu'on s'tue à la vodka et au Dillon Demande si c'est la merde, mes khos te diront D'la maternité à la morgue, crois pas qu'le chemin soit aussi long Mon son, les groupies l'ont, au bec un gros pilon C'est pour les mecs de zones d'ombre qui traînent en p'tit nombre Ça part en couilles car le manque de conscience, la folie comble J'esquive l'ambulance et l'commico, mon flow est au niveau C'est du Processus Verbal, Brasco, minot C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes J'voulais une vie de rêve sans réaliser mes cauchemars J'ai connu l'argent sale, à cause d'elle j'ai les poches noires Elle en fait des couche-tard, des apprentis gangsters Plein d'oseille pendant qu'mon taf me paye au lance-pierre On s'perd dans la drogue et l'alcool Mes p'tits frères braquent ta diligence comme les Dalton, c'est hardcore La rue nous tue à p'tit feu, ça blague pas Mate la génération, dormir dehors sans matelas Y a la télé-réalité, près d'chez moi c'est la folie Lascar Academy, le gagnant finit à Fleury Putain j'viens de loin et toi tu viens de quel coin J'ai fait comme toi, quitter mon bled pour devenir quelqu'un Ici c'est une autre galère, le mal n'a pas d'heure L'État n'a que d'la gueule et sa justice n'a pas d'il J'te parle de la banlieue Nord, Sud, Est et Ouest Et Paris la nuit, on fait c'qu'on peut même si c'est pas Miami C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Pour la réussite on est trop peu, l'échec nous a embauchés à temps plein C'qu'on fait c'est casser ou crier misère sur le tempo J't'emmène faire un tour dans nos ruelles Pas besoin de permis j't'ai dit, on brave les interdits Tout c'qui est droit est synonyme de bouffonnerie Alors on s'fait dans l'négatif cousin, et sur les murs on urine Dans nos rêves profonds, chaque nuit un keuf on surine On fait péter les serrures et on s'ruine dans les transacs pour le coupé sport de série Le monde on l'voit comme Mesrine, bafouer l'ordre établi S'casser d'ici avant qu'ces mômes de putes nous liquident Coupables d'être misérables même le 25 décembre Si homicide, les portes sont fermées vu d'ici Alors on brise la glace, on signe des contrats avec du sang sur les mains C'est l'idéal pour l'insigne Débarqué du bled, j'avais l'instinct humain, pas animal L'étau se resserre sur les gueules Les poings s'ferment, le langage se limite à nique ta mère</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Renaissance</t>
+          <t>Trafic d’influence</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Brrrt 2002 Brrrt Pit au mic, Sosä Ouais ouais, 2002 Hey Sosa ouais, 2002, l'année du pèze, la consécration Mets-toi à l'aise, on tient l'biz négro On envoie chier cette marmaille de lèche-bottes Et on file à l'anglaise s'la couler douce sur une île C'est vrai, j'ai la rage qui crache la foudre Et plein d'merdeux qui m'narguent Et c'problème, j'les résoudre ah ouais J'gratte, j't'en suis reconnaissant Sur ton album négro, sonne ma renaissance C'est rien, on est ensemble négro La famille Brown est derrière, ça va brûler dans tous les sens Retour d'un mort-né, tueur-né Même pas vérifié si j'étais mort, bande de bornés Vos têtes comme trophées pour orner mon tableau d'chasse Cornes et griffes quand j'balafre de mon empreinte C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance Une carte à jouer, faut pas qu'j'rate le coche Rimes dures j'décoche même si vif j'écorche Laisse-moi sonner les cloches Eh, j'te sens fâché enfoiré C'est ça qu'il faut, faut fermer des gueules Vas-y prends le mic J'viens lâcher la purée, j'en ai plein les couilles Appelle-moi Glock, j'vais lâcher les douilles boum Ça t'choque de voir des dépouilles Un tas d'putes dans leur string mouillent Y a d'quoi avoir la trouille Pas de calibre, tout est dans l'style Damn! D'où tu sors ces rimes de salaud? De mon putain d'crâne Les mots pèsent, ça vient du cur Ouais, tout est dans l'style, pile poil à l'heure La foule frôle la crise, on a l'monopole et on l'dit J'lis dans vos yeux la joie, ce mouvement fait revivre Lâche-moi la grappe, donne-moi l'mic que j'l'abîme C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance À c'qu'il paraît des mecs attendent au tournant C'est c'qu'on dit dans les blocs Couvrez-vous ça va être glauque Coup d'pare-choc c'est pas des blagues Du gros son pour les sans sous 2002 soupapes, c'est bolide, y a des cadavres sur l'boulevard Paraît-il paraît-il que dans la ville que dans la ville Des débiles des débiles veulent nous finir veulent nous finir Allez leur dire allez leur dire Qu'en allumant la mèche, ils n'pourront pas l'éteindre Un flow d'barge, des rimes larges Qui feraient prendre à n'importe quel MC le large Ouais, toujours aussi classe, un mec efficace dans les placements Sosä avance lentement mais sûrement C'est ça, avise la France qu'y a des OVNI sur les ondes Mon rap vise le monde C'est trop gros trop gros Trop chaud trop chaud En 2002, ça brûle dans tous les sens C'est trop gros trop gros Trop chaud trop chaud Sur l'album de Pit sonne ma renaissance</t>
+          <t>J'entends le clic clic des glocks en joue pour mettre le souk L'atmosphère est crade, les flics sont aux aguets, je suis l'émissaire bouc Vous dites être justes pour être innocents A mon sens les innocents sont souvent les plus coupables Et moi je suis juste coupable d'être innocent Est-ce que ça se sent que j'ai la frousse ? Et comment ! Je fais la Une de la presse Pion sur cet échiquier, le jeu est truqué Reste plus qu'à savoir quelles règles restent dans mon coin Echec, mate ma chute, ça chuchote dans la peine J'ai la pupille qui brille et perd mon oeil du tigre J'ai la trouille je suis mouillé jusqu'aux couilles Louanges au Seigneur, la fouille est faite putain Grosse perquis' dans mon poulailler J'ai été fou de m'allier à eux En cas de mort, les coupables seront les premiers sur mon palier Fugitif ou ennemi d'état, je suis dans l'impasse L'état des lieux est grave, on croirait avoir affaire à une vendetta Je suis dans la ligne de mire, mort aux vifs On me veut et quand je rebiffe, mon propre sang je renifle mon Dieu Le chiffre de plainte s'accroit et je crie au Judas Et je sais déjà que je vais finir comme Jésus sur croix Je ne veux plus croire en l'Homme quand ces ex m'en veulent à mort Mais je crois en la haine car comme beaucoup elle me fait subsister Et ouais, je suis comme une aiguille j'habille les autres et je demeure nu En plus de la couronne de coin ils veulent m'orner Refrain x4 Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent Je suis assassiné à coup de langue Clame sans cesse mon innocence Recrudescence d'ennemi, je suis haï dans tous les sens Ca bifurque là où ça pue la sentence Sans puissance je suis une alumette dans un bidon d'essence Mortel, à moi tout seul bah y a le cheptel Dans un pêle-mêle tel quel, le vrai coupable c'est lequel ? Spacieux est le chemin et large est la porte qui mènent à la perdition Fric et pouvoir vont me tuer, mais vous restez libres Je vis dans ce brouhaha Je m'imbibe des versets de la Bible mais je vais finir comme un chien mort dans ce trou à rat Si pour avoir été dans l'inaccessible Ne pas vouloir être dans ce putain de cercle pour eux c'est inacceptable Voilà comment on me voit comme une brebis parmis les loups Je n'ai jamais été aussi proche des égouts de l'Enfer J'ai tort de me taire, je suis terre à terre Et que Dieu bénisse tous les traitres qui m'entourent La fierté fleure empoisonnée dans le jardin de ma haine Vu que mort d'homme il y a, si je ferme ma gueule c'est la merde Faut que le monde sache que je suis victime d'influence Que je ne suis pas coupable de ces trafics d'influence Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent3</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Retour au bercail</t>
+          <t>Un rep qui fait reup</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Mystik Inghi C'est Pit au mic Ritmo Ma mémoire encore éclairée par les projecteurs, puissants tel une Primus Retour au bercail, ma brousse La nuit est tombée, j'retrouve les sensations, les impressions, mes semblables Viva la routine, leurs souffrances embrassent ma rétine Dans mes yeux l'feu, l'enfer dans la foule dans l'envers du décor Revenir au regard premier, d'autres rapports Renouveler les vux, bisous aux vieux, tremper les pieds dans l'eau Passer de l'eau sur le front, nos gestes en arrière C'est comme la vie, des jours souillés durant ma p'tite guerre Revenir comme les tontons valises pleines, un teint clair Revenir, c'est accomplir une vraie démarche d'homme Après plus d'dix ans d'conditionnement comme une pomme Ô Cameroun, Congo, berceau de nos ancêtres Allez debout et jaloux de votre liberté comme Un symbole, vos drapeaux fiers doivent être Un symbole ardent de joie et d'unité À Paris, mon train d'vie prenait une voie d'garage J'ai rangé l'wagon, rendu les clés et j'ai plié bagage La gorge sèche, au bord des larmes, pourtant fortiche Réputé, sois fort Pit, ta famille t'attend, un cortège À l'aéroport, j'aère mon corps On y voit encore mes blessures de l'Occident, j'ai besoin d'renforts Forts de nos expériences passées sur ces champs d'bataille Mystik et Pit, pour un retour au bercail Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles Attendu comme une libération, sous ce ciel j'me libère à fond Fuyant cette réalité, j'suis mal vu là-bas L'affront avec les flics, les huissiers Les types du deuxième qui disent Que chez moi c'est une plaque tournante de shit et XXX j'abdique Mystik, ils nous attendent au pays Même les moustiques voudront faire la fête pour notre retour, astigmate Non, c'était mes p'tites surs qu'maintenant les types matent J'me rappelle avec leur bave dans l'nez et leurs p'tites nattes Retour au bercail, j'mets mes écailles, un chapeau d'paille Essaye de tailler l'bambou, en faire XXX Ail et piment Dans l'seau y a l'chef, de l'arôme Maggi express Un top orange pour déguster avec Mama, c'est dans mon bled le vrai makossa J'oublie l'boléro, l'jerk, le twist Haoussa, Bamilékés, ewondo, Douala T'as palré d'bigarrure, les seins pointus comme les fessiers J'mate, nos femmes ont fière allure Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles J'connais pas l'crawl ni XXX alors j'brasse Dans ma brousse, charger ma conscience, retrouver les traces Hélas, c'est la zone sous l'pont t'sais Faut s'ressourcer Penser aux plaies mal pansées Au bled on m'attendra, on parlera d'moi comme un scoop, au moins Je n'débarquerai pas tel un cheveu dans la soupe en France J'ai troqué mes nsuiteke contre des framboises La vie un poker, dans la moustiquaire, c'est d'autres gens que j'croise J'ai su leurs combines, je les ai vus bloquer leur pouvoir Pour un Oscar, ils font semblant de s'émouvoir Traitez-moi d'cafteur, j'ai capté vos manèges Je l'dis haut et fort même si mes lettres sont ouvertes par vos facteurs Sorti des décombres, des guerres, des douleurs Ma maison d'enfance, mon pays, un supplément d'vie Halte, c'est pas l'écriture qui m'exalte, mais si t'as parlé ainsi Tout simplement j'aime mon beau pays La bigarrure de sa foule, partout tout bouge et vit Malgré les misères, les contraintes qu'on voit partout ici Grandioses sont les fêtes quand y a tam-tam et mbongi Autour du feu je danse le XXX Sauvagerie dans nos retrouvailles même s'il a fallu que j'taille Je retrouve la mille-fa au bercail Et les cousins chantent ah ah, moustique Quand j'leur dis qu'mon nom d'rappeur, c'est Mystik Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente On s'entraide comme on peut pour avancer les poings liés Même si c'est nos jambes que vous pliez Retour au bercail parmi les frères et la mille-fa au bled Vers la terre natale on s'oriente Coûte que coûte, on aura tous nos parcelles Ici les kilomètres sont comptés sous nos semelles1</t>
+          <t>Super Chaud sur Show Lapin FM Shooow Lapiiin !!! Ouais, ouais, ouais, ouais... Mon papa à moi... remix Mon papa à moi c'est un gan... chhh Le genre de gangster qui bouge en silence Manigance en douce dans la douce Franchté Entame son plat de riz avec les mains vésquis S'essuie la bouche avec la manche de son costume acheté à Tati Un peigne afro dans la poche gauche Dans l'autre une fausse feuille d 'embauche En guise de couverture pour les flics auche Mais il sait dire oui oui Missié, tout de suite Missié Pour qu'on l'laisse circuler puis après il continue à faire son business et Arrivé au foyer y m'dit de tailler, me lâche des billets À peine la porte fermée, j'me mets à mater Par le trou d'la serrure mais ce que j'vois jamais j'le dévoilerai Parce que j'balancerai jamais celui qui m'donne à manger Même si mon papa marche la tête baissée dehors Pour moi et pour la famille au bled il reste le plus fort Mon papa manigance mais il sait s'taire Le genre de gangster que t'enverras jamais par terre Payé en Dollars, Sterling on leur donne l'heure précise Comme les profs j'utilise des strophes pour décrire les catastrophes, Imagine Une prime, une vermine qui faut que j'extermine L'atmosphère musicale, les mines, les rimes mais ça se termine Primo mon nom Passi Deuzio Ministère Tertio un gangster en cachemire pas en polyester Une bonne Chester, champagne, Magnum dans le holster Dans mon hystérique Western, j'ai le rôle de Winchester Un hostile gangster qui vient des mystères de l'Ouest Qui vise à Rio, à Manchester et s'terre à Palerme Pour qui la terre entière n'est juste qu'une cage pour un hamster Un gangster qui rêve même de niquer le système stellaire Faire de la vendetta Une façon de communiquer Papa et relations publiques, au micro un expert Papa gangster, maman doit s'taire Pleure pas, un jour petit tu prendras la place de ton père Son rep à lui c'est un vrai Un rep qui fait reup Un putain de daron Un pacha, un caid, un baron Si tu te demandes d'où viennent nos paroles meurtrières C'est héréditaire Y'a rien à faire Mon père est un gangster Papa c'est pas un gangster c'est Zorro Il met sa fausse barbe rose Son masque, à la banque, la tune tombe des arbres Après on joue à Starsky et Hutch Parce qu'il roule aussi speed, casse plus de caisses, et met les même Nikes À l'école, pire que Tom Sawyer J'ai les meilleures notes sans l'vouloir, ni l'pouvoir, et les plus bonnes profs Jamais on m'a collé, chuis fier de mon Pops C'est l'meilleur, les juges l'appellent monsieur, Oxmo Puccino Dans les News, j'ai vu ce keuf qui m'a foutu le blues occisé Dans une flaque de sang, boxon, on aurait dit par 12 toxs Papa est revenu avec un cuir marron, le même Que ce même civil, quelle coïncidence, c'est marrant C'est pas un gangster, qui roule en Holster Je reste le chéri de sa voisine Une meuf terrible et papa il a le poster A classe du biz le papa d'Pit brise coeurs Sur les disques et on parle de lui et on dit qu'c'est un mythe Lino Pas de blagues, pas de bag is rough Levis ras les couilles Au boogie gangster Aux aguets et même pris en flag Il nie et drague les jupes mini-zig-zag Avec les stups fini toujours ses jobs du métal sous son Tacchini bob Sur le crane comme jamais la couleuvre ça fera lou'velouse ça fait une partouze une putain d'heure La savane son royaume il traine ses shoes la zep son médicament XL Quand maman fils sans maman fixe... Calbo Ce mec là n'a pas d'principe, kiffe surtout ce qui rapporte Exporte son vice, vif le soir, le matin t'approche pas de sa porte Forte poitrine, grosse paire de cojones au mont des moisis Bourrés de saisie en tout genre et cette fois ci à Roissy Il s'envole couche une liasse avant d'se vésau Ne dit même pas au'revoir à tout moment sa vie peut tésau Respect, j'irai jamais trainer tout près d'ses vestons Mais où est son caisson, dedans je sais qu'j'y trouverai du bon Mon Paps j'le connaît trop pas trop pape sans pour être honnête Trop pro pour mettre du sang sur sa gourmette Comme dit le raggae un tocou dans la poche Même pour les enterrements il emmène sûrement un pompe dans le BM Un il sur sa bague où ils sont comme en limousine L'autre sur ses cousines Pas d'religion, pas d'prêtres, pas d'rabbins Il se confesse qu'à la teillbout Père Labat Prend jamais l'un d'ses gamins par la main J'sais qu'il a tellement semé sa semence en France Que quand j't'appelle refré c'est pour d'vrai Si tu lui dois beaucoup d'sous il t'fout un coup d'coupe-coupe sous l'cou Daron fiancé au Tiercé, tu veux niquer sa maille aux dominos Y'a des filles comme au Bobino Vengeance y'a plus d'jeux plus y'a d'gens genre Et n'y'a qu'deux potes car y'a moins d'Rhum Et d'ganja plus y'a d'gens Mal Negre foncedé Faut toujours qu'on finisse par battre nos femmes et chaque fois plus pire qu'nos pères, imagine nos fils Dring, Dring, papa c'est les flics casse toi Depuis qu'chuis tout petit c'est ce que j'lui répète à chaque fois Les huissiers les impôts, le fisc au cul Il leur met dans l'cul, prend leur femme et les fait devenir cocu... leurs cornes poussent Wanted alors il se barre au bled en douce Quand il repart il a trop d'gosses et il les connaît même pas tous Toutes les femmes lui disent qu'il finira malheureux Il répond Salope, Salope j'ai mon fils au monde y'a pas mieux La seule qu'il respecte c'est ma mère mais elle se laisse pas faire Et elle lui jette un verre points d'suture à l'arcade sourcilière Et on peut rien y faire sinon lui et moi c'est la guerre Si un inspecteur jacte dans le haut-parleur Rend toi Il lui dit nique toi J'dirais pas qu'toutes les polices le recherchent En tout cas celle de Paris j'te parie qu'ils se cachent dans une brèche... cchh N'essaie pas d'reconnaître ma voix chuis enrhumé à force de l'chercher Et quand chuis bien Stomy... chhh Chaud lapin comme mon père et son père à lui</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Sentier lumineux</t>
+          <t>Urbaine poésie</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ouais, tu le sais D'où on vient, on t'sert Pit au mic', Paris à Marseille Sur Sad Hill Yak, Chill, 2 triple 0 Kheops, Marseille Malgré mes sourires et mon air fier, je n'suis qu'un triste poète Sombre comme un temps d'pluie, mon visage caché par mes mains moites Je souhaite que ces mecs ne croient plus que j'sors d'mon berceau Au hip-hop j'reste fidèle comme cette fillette et son cerceau Que j'perce, au fond n'est pas l'important J'veux qu'ces mecs sachent quoi qu'il arrive que j'étais partant J'représente c'que j'suis et j't'assure qu'j'laisserai dégun Mempêcher d'exceller, d'brûler, d'devenir quelqu'un J'fais c'que j'fais par amour, merde, je bosse dur pendant qu'la thune Elle m'a dit te casse, on s'verra sûrement à la sortie d'ce tunnel J'suis à la conquête d'un nouveau monde où il faut avoir du succès Pour qu'on t'donne cette chance d'avoir le succès Y'a les miens et les autres, ceux qui jactent parce qu'ils s'vautrent Normal, un homme qui s'noie ne meurt pas en silence J'ai fait mon baptême et dans l'fond, tout c'qui brûle c'est l'feu Et l'fait d'être une tête grainée me fait swinguer sur les flammes J'ai décoiffé des crépus, laissé les traitres sur le qui-vive Leur châtiment, leur faire part d'mes sentiments Je sais qu'ma haine vous aime J'mène la danse sur des rythmes saccadés Et faut qu'à deux pas d'la mort, j'ai déjà laissé de quoi m'succéder Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux Je suis c'poète sur feuilles mortes Qui fait couler des larmes aux âmes sèches Encore gai, même si le deuil je porte ouais tu le sais J'ai tué ma délinquance, ex-fugitif J'suis v'nu dans le rap en charter, sans faf et demandé une CNI J'suis cette poussière devenue marbre Je suis cette racine devenue arbre Le noyau dur reste malgré qu'le fruit éclate Ma vie c'est un stylo, une feuille, un carnet Une mélodie, triste ou gaie, amère ou plus On ressent mon karma J'expose mes faits, m'inspire d'la foule Et des folles nuits à attendre la venue de mon messie Et moi j'voulais qu'l'on m'prévienne, que l'on m'dise qu'il n'y avait qu'des requins J'aurais pu jouer les durs d'oreille, dérailler comme toutes ces putains Pétard on perce tard, dur d'savoir qu'ils veulent qu'on finisse par s'taire Cul par terre, j'm'étonne qu'ils disent déjà qu'j'vais m'prendre pour une star eh Mais qu'est-ce qu'ils ont à s'marrer ? Trop jaloux à c'qu'il parait, j'voulais qu'tout soit carré Et d'ces cons, j'en avais rien à carrer J'veux faire partie d'ces mecs qui marquent une génération Moi j'suis un nouveau et j't'assure j'ferai partie des anciens Les mecs, chez moi l'idée partait d'délire entre amis et amour Mais aujourd'hui j'crois qu'l'on vient jusqu'à m'envier à mort x2 Sur son, j'ai ça, une once de rap Sursaut de maîtrise, au fond c'est ça Enfonce le cap, lyrics durables Sans ressac, juste pour le fun J'me pointe au mic', c'est dans l'sac Tape recrun et c'track joue comme Spyke Dans les salles, Ultimate Fight Toujours obscur et sans xessal Smoking sans faille Portant d'la base un méga beat Sur un G3 plein d'megabytes MC erratique, espace étroit, une mégavibe Et l'sable va, comme les hommes voguent sur une barque Bled sans monarque Monologue le long d'ma langue mon arc Sur le sentier lumineux J'l'ai voulu, donc j'évolue sur kick volumineux2</t>
+          <t>Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'suis bon qu'à foutre le bordel sur des sons sanglants Rêver d'gros comptes en banque ou du boule à Dolly Golden en m'frottant l'gland J'suis bon qu'à avec mes délires d'ado A pleurer mes partenaires qui sont partis d'ici sans m'dire adieu La vie ça a rien de bandant et qu'est-ce tu m'parles d'indépendance ? Parce qu'en plus les ancêtres, ils ont baisé leur descendance J'voulais savoir pourquoi mon hémisphère connaissait une telle misère ? Mais on m'a dit de fermer ma gueule que tout est question d'épiderme Des terres d'Afrique originaire, j'suis de ces jeunes gens Qui veulent niquer la vie sans faire de préliminaires Ici y'a trop d'délits mineurs jugés comme actes criminels Parce qu'ils ont mis en place un p'tit enfoiré d'forcené au ministère Allez remballe tes Peace, Love Unity, c'est trop has been Aussi vrai que Babylone nous l'a mis sans vaseline Alors t'étonnes pas de ma sale mine, passe-moi l'mic' j'ai la rime assassine Comme cette putain d'époque où vivre n'est pas une tâche facile Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'ai seulement 23 ans, j'arrive du block, j'veux le magot Même si les condés veulent ma dope, Même si l'Etat se pé-ta pour ma peau J'ai la pression depuis que le seum est dans l'école Parce que les guns sont dans les halls, pour eux les jeunes c'est dans les geôles Parole d'MC, j'me ferai jamais baiser par le stème-sy Ils n'auront ni mon fric, ni mon équipe, ni mon rap de té-ci Parce qu'on m'accuse, parce que le juge veut nous mettre aux petits soins Chirac ne voit queue dalle, politicien rime avec opticien Dilapidés mes frères sont morts à coup de vitesse Sans appuie-têtes parce que c'est mort l'époque de Happy Days Devant ta mère, ils veulent ta mort et tu t'en souviendras Froidement et subitement, et soudainement te voilà sous un drap Tu diras quoi ? T'as des histoires alors raconte Toujours poussé à bloc, mon meilleur pote s'appelle fusil à pompe Donc laisse tombé c'est Dosseh qui te parle C'est Baccardi qui te baffe, c'est Malsain qui te braque Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Paris s'éveille, mes rêves s'envolent, j'écris mes pensées Combien se comptent en blackout ? Prends ma rime comme pansement c'est la guerre cérébrale, les faibles ne verront pas Y'a rien de funky dans c'que je raconte, j'veux qu'les porcs en chient Si j'suis ici dans les tracas, rappelle-toi racine J'avais une chaîne au pied et quand je l'ouvrais, je finissais L'assassin est rouge de peur et bleu après les coups Loin de la jungle depuis la course, c'est l'instinct animal dans les couplets Sur l'instru mec, j'fais le ralliement des troupes J'ai rendez-vous avec la mort, quoi qu'il s'passe, pour ma part c'est cool C'que je dénonce, c'est qu'aujourd'hui encore l'esclavage existe Sauf qu'il est mental d'Afrique à outre-Atlantique bien et mal, j'suis armé jusqu'au cou J'ai l'savoir, rappelle-toi c'que disait Ministère Amer On veut m'faire croire que comme j'suis black j'ai pas l'droit aux premières places C'est dans l'bon sens pas dans l'sang que j'voulais faire mes classes Négro, j'viens me libérer d'mes chaines dans mes couplets J'veux voir droit et c'est ta mère que tu vas inculper J'suis sous l'emprise de la vengeance, tuons-les tous Et Dieu reconnaîtra les siens, brûlés par l'essence J'ai prié pour que le volcan d'haine se noie dans un fleuve de tranquillité Mais j'crois que l'Homme pour la paix n'est pas habilité Sourcils froncés, j'avance dans cette France Qui n'oublie pas de rappeler que j'suis pas d'la bonne couleur Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait1</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Sexcitations</t>
+          <t>Viens Si Ça Te Tente</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Ouais ouais Au pays d'la Gaule seule la fente est reine Le roi dans l'arène règne Dans les coulisses perd toujours son rôle J'ai exploré des caves et des forêts vierges Dans des forêts en perdait même sa langue J'peux t'dire ça en a bavé Ouais buvez du Baccardi Pit pour une bonne excitation Ça c'est juste un extrait de mes sexcitations Ça palpite quand j'culbute à ce moment J'demande des nouvelles du sexe Et devine un endurcissement de la situation J'suis un alcool mais si on m'secoue trop J'deviens mousseux au risque d'être dégradant Quand je joue à Jacadi avec mes mouvements saccadés Elles disent on dirait qu'il est en chien ce Baccardi Mais j'en suis un justement J'suis un Pit élevé au prostit Qui mord quand on lui caresse pas la queue Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit t'assures comme Rocco Sifredi Ah ouais cette meuf-là elle jouera D'mes boules comme des dés Des boules, elle kiffe à deux sur elle Pour assouvir ses désirs d'ados Deux sur le sol chez nous Avec une mélodie facile à chanter Pour elle quand en majeur j'lui mets Elle préfère les hommes qui la prennent sans la comprendre Aux hommes qui la comprennent sans la prendre Elle est tombée sur l'homme qui comprend juste qu'il doit la prendre J'suis le chef d'orchestre J'ai la baguette et aime frapper sur les grosses caisses J'dois donner du rythme Faut manier la trique j'lui dis Elle m'dis ça s'sent qu'tu viens d'Afrique toi J'pose mes lèvres sur ses troisième et quatrième lèvres Me livre à ce mouvement de tout bon caniche envers sa maitresse Ma tête elle agrippe quand j'veux tirer deux trois taffes de be-her D'or et déjà j'ai pigé qu'c'est l'genre de fille qui a pour meilleures Amies ses deux jambes Et qui a compris qu'dans la vie ses meilleures amies faut les écarter Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit Mon jeu préféré c'est le billard Y'a des boules et une queue Et l'objectif c'est de tout foutre dans les trous Faut pas m'traiter d'cochon Tu manges de l'ail Ça m'étonnerait qu'elle mange du porc à l'ail Vu qu'j'suis l'homme qui n'arrive pas à tout Mais à qui tout arrive Si jamais un jour j'suis sourd J'ai déjà songé à tout J'ferai gynécologue Dans c'taff y'a rien à entendre Il faut juste savoir lire sur les lèvres Grève de semence, les bourses demandent une diminution de taffe Et le zizou parle en leader Quand j'donnerai la dot ça sera pour introduire la fille Si c'est pour faire avec la main j'ai la mienne pour ça Sais-tu quelle différence il y a entre haaan et hmmmmm ? Environ cinq centimètres... Refrain Sexcitations viens j't'explique Sexcitations mon sexeplicites Sexcitations viens j't'explique Sexcitations le sexcationnel Pit</t>
+          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
         </is>
       </c>
     </row>
@@ -2056,146 +2056,10 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Si J’étais</t>
+          <t>Viens (Tout est permis)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
-        <is>
-          <t>Si j'étais flic et toi Rodney King La matraque en main toi au sol sur ce parking Si j'étais flic est-ce j'accepterais les pots-de-vin Après une saisie de coke détourner ma part du butin Si j'étais flic noir est-ce que je voudrais le malheur d'un frère Lui disant que sa mort ça fait une racaille en moins Si j'étais flic est-ce que je voudrais être criminel comme Broussard Avoir la légion d'honneur ou le statut de star Soutenir mon collègue après cette bavure dans le 18 Tenter le suicide en me regardant après une bonne cuite Est-ce que je suis flic parce que j'aime ça Quand j'ai la trouille devant ces jeunes est-ce que ça se sent Est-ce que je suis en confiance juste parce que j'ai mon arme Car je sais qu'au moindre geste je les allume tous Est-ce que j'accepterais que des négros chantent Sacrifice de poulet ? Vu que je ne suis pas je cautionne en plus qu'on les sanctionne Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Si j'étais La loi serait la même pour toi comme pour moi Si j'étais Je serais une femme digne de porter ce nom Si j'étais Je suis un noir pacifiste et fier de l'être Couplet Si j'étais femme aurais-je conscience que je suis nombril du monde Qu'avortement signifie assassinat d'un môme Avec ce que j'ai qu'ils n'ont pas je peux anéantir le monde Et vu que je ne suis pas je regarde ce que Monica a fait à Clinton Si j'étais femme je voudrais être Rosa Parks ou Néfertiti Mais on peut même devenir femme regarde RuPaul Est-ce que je serais mariée à un alcoolique qui frappe mes fils Amoureux de lui malgré le fait qu'il soit récidiviste Est-ce que j'accepterais de ken avec Jacky Pit le pote à Jacky Ben-J le pote à Pit donc le pote à Jacky Avoir une bite comme logo ou être la go la plus ken du coin C'est sale comme un mec qui baise sa sur Heureusement que je ne suis pas cette chienne Qui aime se faire ken Qui pleure et s'plaint quand je lui dis qui elle est Je suis un mâle un chien bâtard buté et insolent dans mes propos Normal je suis Pit Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais Couplet Si j'étais blanc bleu blanc rouge Bleu pour ma gueule après les patates d'un nègre Blanc pour la soi-disante pureté de cette race Rouge je deviens quand je suis seul à minuit avec des bicots Si j'étais blanc est-ce que j'aurais peur du ghetto français Parce que je sais que dans ces cités j'en ai offensé Est-ce que je me reconnaîtrais dans le front national Est-ce que je penserais que les autres races sont inférieures Est-ce que je dirais que ça pue à l'étage supérieur Est-ce que j'accepterais d'avoir un noir comme patron Est-ce que j'accepterais comme gendre Abdelkrim Criminel par sa peau couleur café crème Si j'étais skin comment savourer les deux buts de Zinedine Si j'étais blanc non je suis noir ça se voit noir sur blanc Et pour la peine je finis salement par un blanc Refrain Si j'étais Heureusement que je ne suis pas flic moi Si j'étais Si je t'appelle pute c'est que tu le mérites toi Si j'étais Y'a-t-il un mal à ce que je sois anti-fasciste Si j'étais, si j'étais, si j'étais</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>Si loin de toi</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>J'ai pas eu besoin d'enlever la mer de la côte d'azur Je m'assierais plutôt au bord en l'admirant c'est sûr J'envie à l'être d'avoir avec lui ce qu'il a de plus cher Sans chercher à lui prendre car je sais ce que ça vaut L'absence est à l'amour ce qu'est au feu le vent attiseur Éteint le petit allume le grand tu me manques J'ai cherché à comprendre on m'a dit c'est ça la vie Envie de toi, envie d'émois parfois je me sens trahi Je suis cet arbre sans feuilles ce stylo sans encre C'est la sécheresse en moi-même en saison de pluie Je ne peux rien cultiver d'autre si ce n'est la tristesse Christ, est-ce une manière de me dire Que je n'ai pas le droit à tout ? C'est le cur qui parle, la main qui tremble Sur des feuilles mortes Et une tête qui pense toujours si t'étais en vie Si t'étais en vie Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Un soir tu m'as pris dans tes bras en me disant je t'aime fils J'ai plissé les yeux collé ma tête sur ton torse Qui sait ce que j'ai ressenti au moment Où du bruit au balcon me réveilla Ce n'était qu'un rêve à l'intérieur, c'est grève d'une minute Ville morte à minuit heure noire Pour une nuit blanche où je voyais rouge Dois-je en vouloir à la vie ou à Dieu Vu que c'est lui qui la propose et en dispose ? La vie me fait rire, me fait pleurer, me fait même pleurer de rire C'est juste un rêve dont la mort nous réveille 9 mois après ma naissance on t'apostrophe de là-haut Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman Mon cur était vierge, avait peur de saigner Mais le malheur a forcé et a percé Je suis en manque maman, je deviens fou, je n'ai pas d'asile Mais j'avance quand même mon asile le plus pur est ton sein Chaque pas que je fais dans la vie est juste un pas de plus vers toi J'ai songé au chemin le plus court mais est-ce vraiment un raccourci ? La vie me va mal, la mort m'ira peut être mieux Je suis jeune, flambant à leurs yeux Mais je commence à me faire vieux dans ma tête Toute ma vie, c'est le doute, les dettes Ce que je goûte m'embête Me dégoûte j'arrête tout je mets pause ou eject Carpe diem Je fais partie du cercle des poètes de la rue Mais je serais peut-être mieux mort que vivant maman J'ai le mal de vivre, pas mal que je t'enivre avec mes maux Ma vie un livre avec un tas de poussière dessus J'écris, mon bide est noué, j'ai peur L'avouer c'est hors mes principes Mais là c'est plus fort que moi Où est le diable ? plus je grandis plus Dieu est petit Je te rejoindrai au paradis dans un train d'enfer Tu me manques Si loin de toi je suis si seul tu me manques Si loin de toi je suis si seul tu me manques maman3</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>Sous les spots</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Ooh! 2002 Mike Impetto Baccardi Pit Dans les dancehalls c'est la merde Mate le bougre, électrocute comme la foudre J't'en mets plein les yeux, ma zik c'est d'la poudre Pour les filles en manque de plaisir, j'viens recoudre Les déchireurs de cur, toujours à la coule Elles ont dit cool, on veut danser J'ai pris ma voix, un micro, j'ai fait un sound check, affaire classée Baccardi, de Première Classe, un choix d'qualité supérieure XXX dans les charts, déplace C'est nouvelle ère, deux gentlemen, un B Sur toutes les poitrines et sur mes jantes, man Un classique, quand j'débarque y a du changement Les mecs veulent me ressembler, revoient leur plastique tu l'sais J'suis une machine de guerre, donne-moi une platine, je gère J'accélère, j'ai l'art et la manière Le style, j'suis né avec J'cause des dégâts, j'peux pas m'en défaire Hein, regarde c'que j'fais Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls J'suis sous les spots, quand y a un problème j'la joue sport Reste sobre, j'ai créé un empire avec mes potes Complote pas contre mes assos' de malfaitaz Qui carburent à l'essence, vite Ça bloque car c'sont des Blacks changent le système Et veulent donner la force aux mecs des blocs Génération Young Gunz, on vient t'faire danser Chanter, te balancer Entre les flashes et les lights, ooh Mais pas les femmes et les fights Ceux qui font zouker les Beurs Valser les Blacks et smurfer les Whites Sur la tête, XXX, sur l'côté Dans la main j'ai l'cigare et je pète le champagne Peu importent les regards, les sourires, les égards Si j'dois repartir avec ta compagne Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Quand j'rappe ces mélodies, de ta meuf j'suis l'idole Hey, mate pas comme ça, c'est pas moi qui l'ai dit J'fais mon truc dosé, posé, classe, aisé Au-dessus d'la moyenne dans les stat' J'éclate, kicke sur un beat dansant J'ai une histoire, un parcours Ton crâne suit la cadence, non? Mon rap, c'est un truc de feeling Flow, fringues, charisme, damn! D'où il sort ce boss? De Yaoundé, place des fêtes Et l'Afrique, y a du monde qui m'soutient Hey, c'est pas d'ma faute C'est trop gros, trop flow, trop chaud C'est Pit au mic, et M-Pio 2002, pour les ghettos d'France, du 7-8 au 1-9 Mike Impetto, Baccardi Pit, dans les dancehalls c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls Dans les dancehalls Toutes les mains en l'air Fous l'bordel Pit au mic, Impetto, les dancehalls, c'est la merde Pit au mic, Impetto, les dancehalls, c'est la merde Jacky Brown, c'est la merde Première Classe, c'est la merde Cris aux manettes, c'est la merde Et tu l'sais Qu'c'est la merde Entre les spots, les verres, les ladies, les frères Baccardi, M-Pio donnent le tempo Mec on donne ça pour le ghetto Faut qu'ça pète la bouteille dans les dancehalls</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>Tapage Nocturne (version 2008)</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>C'est ma ville la nuit El Matador Brasco Bombattak crew si si Marseille Centre-ville Paname, frère C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Minuit passé, y a que des putes et plus d'Cendrillon Investis sur l'album, écoute la délinquance en échantillon Y a des p'tits, des grands qui montent dans c'pays où la violence triomphe Les règlements de comptes au vingt heures en disent long C'est pour nos secteurs, les environs Dédié aux coupables innocents en taule à cause d'une balance qui s'trompe Ici ça trafique shit, coke, ecsta ou champignons Parce que plus personne compte sur l'Euromillion Y a c'côté chaud et froid qui fait qu'on s'tue à la vodka et au Dillon Demande si c'est la merde, mes khos te diront D'la maternité à la morgue, crois pas qu'le chemin soit aussi long Mon son, les groupies l'ont, au bec un gros pilon C'est pour les mecs de zones d'ombre qui traînent en p'tit nombre Ça part en couilles car le manque de conscience, la folie comble J'esquive l'ambulance et l'commico, mon flow est au niveau C'est du Processus Verbal, Brasco, minot C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes J'voulais une vie de rêve sans réaliser mes cauchemars J'ai connu l'argent sale, à cause d'elle j'ai les poches noires Elle en fait des couche-tard, des apprentis gangsters Plein d'oseille pendant qu'mon taf me paye au lance-pierre On s'perd dans la drogue et l'alcool Mes p'tits frères braquent ta diligence comme les Dalton, c'est hardcore La rue nous tue à p'tit feu, ça blague pas Mate la génération, dormir dehors sans matelas Y a la télé-réalité, près d'chez moi c'est la folie Lascar Academy, le gagnant finit à Fleury Putain j'viens de loin et toi tu viens de quel coin J'ai fait comme toi, quitter mon bled pour devenir quelqu'un Ici c'est une autre galère, le mal n'a pas d'heure L'État n'a que d'la gueule et sa justice n'a pas d'il J'te parle de la banlieue Nord, Sud, Est et Ouest Et Paris la nuit, on fait c'qu'on peut même si c'est pas Miami C'est ma ville la nuit, on rêve de belles sommes Partout c'est l'même sort Malgré tous ses défauts, c'est ma zone Et tu seras l'bienvenu chez moi Dans ma ville, la nuit, la haine nous dévore Mais ça nous rend plus forts On tue l'ennui dans l'shit au sous-sol Pour oublier c'que nous sommes Pour la réussite on est trop peu, l'échec nous a embauchés à temps plein C'qu'on fait c'est casser ou crier misère sur le tempo J't'emmène faire un tour dans nos ruelles Pas besoin de permis j't'ai dit, on brave les interdits Tout c'qui est droit est synonyme de bouffonnerie Alors on s'fait dans l'négatif cousin, et sur les murs on urine Dans nos rêves profonds, chaque nuit un keuf on surine On fait péter les serrures et on s'ruine dans les transacs pour le coupé sport de série Le monde on l'voit comme Mesrine, bafouer l'ordre établi S'casser d'ici avant qu'ces mômes de putes nous liquident Coupables d'être misérables même le 25 décembre Si homicide, les portes sont fermées vu d'ici Alors on brise la glace, on signe des contrats avec du sang sur les mains C'est l'idéal pour l'insigne Débarqué du bled, j'avais l'instinct humain, pas animal L'étau se resserre sur les gueules Les poings s'ferment, le langage se limite à nique ta mère</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>Trafic d’influence</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>J'entends le clic clic des glocks en joue pour mettre le souk L'atmosphère est crade, les flics sont aux aguets, je suis l'émissaire bouc Vous dites être justes pour être innocents A mon sens les innocents sont souvent les plus coupables Et moi je suis juste coupable d'être innocent Est-ce que ça se sent que j'ai la frousse ? Et comment ! Je fais la Une de la presse Pion sur cet échiquier, le jeu est truqué Reste plus qu'à savoir quelles règles restent dans mon coin Echec, mate ma chute, ça chuchote dans la peine J'ai la pupille qui brille et perd mon oeil du tigre J'ai la trouille je suis mouillé jusqu'aux couilles Louanges au Seigneur, la fouille est faite putain Grosse perquis' dans mon poulailler J'ai été fou de m'allier à eux En cas de mort, les coupables seront les premiers sur mon palier Fugitif ou ennemi d'état, je suis dans l'impasse L'état des lieux est grave, on croirait avoir affaire à une vendetta Je suis dans la ligne de mire, mort aux vifs On me veut et quand je rebiffe, mon propre sang je renifle mon Dieu Le chiffre de plainte s'accroit et je crie au Judas Et je sais déjà que je vais finir comme Jésus sur croix Je ne veux plus croire en l'Homme quand ces ex m'en veulent à mort Mais je crois en la haine car comme beaucoup elle me fait subsister Et ouais, je suis comme une aiguille j'habille les autres et je demeure nu En plus de la couronne de coin ils veulent m'orner Refrain x4 Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent Je suis assassiné à coup de langue Clame sans cesse mon innocence Recrudescence d'ennemi, je suis haï dans tous les sens Ca bifurque là où ça pue la sentence Sans puissance je suis une alumette dans un bidon d'essence Mortel, à moi tout seul bah y a le cheptel Dans un pêle-mêle tel quel, le vrai coupable c'est lequel ? Spacieux est le chemin et large est la porte qui mènent à la perdition Fric et pouvoir vont me tuer, mais vous restez libres Je vis dans ce brouhaha Je m'imbibe des versets de la Bible mais je vais finir comme un chien mort dans ce trou à rat Si pour avoir été dans l'inaccessible Ne pas vouloir être dans ce putain de cercle pour eux c'est inacceptable Voilà comment on me voit comme une brebis parmis les loups Je n'ai jamais été aussi proche des égouts de l'Enfer J'ai tort de me taire, je suis terre à terre Et que Dieu bénisse tous les traitres qui m'entourent La fierté fleure empoisonnée dans le jardin de ma haine Vu que mort d'homme il y a, si je ferme ma gueule c'est la merde Faut que le monde sache que je suis victime d'influence Que je ne suis pas coupable de ces trafics d'influence Trafic d'influence Sang, faire couler le sang Ils veulent me faire, me voir mort et ça se sent3</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>Un rep qui fait reup</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Super Chaud sur Show Lapin FM Shooow Lapiiin !!! Ouais, ouais, ouais, ouais... Mon papa à moi... remix Mon papa à moi c'est un gan... chhh Le genre de gangster qui bouge en silence Manigance en douce dans la douce Franchté Entame son plat de riz avec les mains vésquis S'essuie la bouche avec la manche de son costume acheté à Tati Un peigne afro dans la poche gauche Dans l'autre une fausse feuille d 'embauche En guise de couverture pour les flics auche Mais il sait dire oui oui Missié, tout de suite Missié Pour qu'on l'laisse circuler puis après il continue à faire son business et Arrivé au foyer y m'dit de tailler, me lâche des billets À peine la porte fermée, j'me mets à mater Par le trou d'la serrure mais ce que j'vois jamais j'le dévoilerai Parce que j'balancerai jamais celui qui m'donne à manger Même si mon papa marche la tête baissée dehors Pour moi et pour la famille au bled il reste le plus fort Mon papa manigance mais il sait s'taire Le genre de gangster que t'enverras jamais par terre Payé en Dollars, Sterling on leur donne l'heure précise Comme les profs j'utilise des strophes pour décrire les catastrophes, Imagine Une prime, une vermine qui faut que j'extermine L'atmosphère musicale, les mines, les rimes mais ça se termine Primo mon nom Passi Deuzio Ministère Tertio un gangster en cachemire pas en polyester Une bonne Chester, champagne, Magnum dans le holster Dans mon hystérique Western, j'ai le rôle de Winchester Un hostile gangster qui vient des mystères de l'Ouest Qui vise à Rio, à Manchester et s'terre à Palerme Pour qui la terre entière n'est juste qu'une cage pour un hamster Un gangster qui rêve même de niquer le système stellaire Faire de la vendetta Une façon de communiquer Papa et relations publiques, au micro un expert Papa gangster, maman doit s'taire Pleure pas, un jour petit tu prendras la place de ton père Son rep à lui c'est un vrai Un rep qui fait reup Un putain de daron Un pacha, un caid, un baron Si tu te demandes d'où viennent nos paroles meurtrières C'est héréditaire Y'a rien à faire Mon père est un gangster Papa c'est pas un gangster c'est Zorro Il met sa fausse barbe rose Son masque, à la banque, la tune tombe des arbres Après on joue à Starsky et Hutch Parce qu'il roule aussi speed, casse plus de caisses, et met les même Nikes À l'école, pire que Tom Sawyer J'ai les meilleures notes sans l'vouloir, ni l'pouvoir, et les plus bonnes profs Jamais on m'a collé, chuis fier de mon Pops C'est l'meilleur, les juges l'appellent monsieur, Oxmo Puccino Dans les News, j'ai vu ce keuf qui m'a foutu le blues occisé Dans une flaque de sang, boxon, on aurait dit par 12 toxs Papa est revenu avec un cuir marron, le même Que ce même civil, quelle coïncidence, c'est marrant C'est pas un gangster, qui roule en Holster Je reste le chéri de sa voisine Une meuf terrible et papa il a le poster A classe du biz le papa d'Pit brise coeurs Sur les disques et on parle de lui et on dit qu'c'est un mythe Lino Pas de blagues, pas de bag is rough Levis ras les couilles Au boogie gangster Aux aguets et même pris en flag Il nie et drague les jupes mini-zig-zag Avec les stups fini toujours ses jobs du métal sous son Tacchini bob Sur le crane comme jamais la couleuvre ça fera lou'velouse ça fait une partouze une putain d'heure La savane son royaume il traine ses shoes la zep son médicament XL Quand maman fils sans maman fixe... Calbo Ce mec là n'a pas d'principe, kiffe surtout ce qui rapporte Exporte son vice, vif le soir, le matin t'approche pas de sa porte Forte poitrine, grosse paire de cojones au mont des moisis Bourrés de saisie en tout genre et cette fois ci à Roissy Il s'envole couche une liasse avant d'se vésau Ne dit même pas au'revoir à tout moment sa vie peut tésau Respect, j'irai jamais trainer tout près d'ses vestons Mais où est son caisson, dedans je sais qu'j'y trouverai du bon Mon Paps j'le connaît trop pas trop pape sans pour être honnête Trop pro pour mettre du sang sur sa gourmette Comme dit le raggae un tocou dans la poche Même pour les enterrements il emmène sûrement un pompe dans le BM Un il sur sa bague où ils sont comme en limousine L'autre sur ses cousines Pas d'religion, pas d'prêtres, pas d'rabbins Il se confesse qu'à la teillbout Père Labat Prend jamais l'un d'ses gamins par la main J'sais qu'il a tellement semé sa semence en France Que quand j't'appelle refré c'est pour d'vrai Si tu lui dois beaucoup d'sous il t'fout un coup d'coupe-coupe sous l'cou Daron fiancé au Tiercé, tu veux niquer sa maille aux dominos Y'a des filles comme au Bobino Vengeance y'a plus d'jeux plus y'a d'gens genre Et n'y'a qu'deux potes car y'a moins d'Rhum Et d'ganja plus y'a d'gens Mal Negre foncedé Faut toujours qu'on finisse par battre nos femmes et chaque fois plus pire qu'nos pères, imagine nos fils Dring, Dring, papa c'est les flics casse toi Depuis qu'chuis tout petit c'est ce que j'lui répète à chaque fois Les huissiers les impôts, le fisc au cul Il leur met dans l'cul, prend leur femme et les fait devenir cocu... leurs cornes poussent Wanted alors il se barre au bled en douce Quand il repart il a trop d'gosses et il les connaît même pas tous Toutes les femmes lui disent qu'il finira malheureux Il répond Salope, Salope j'ai mon fils au monde y'a pas mieux La seule qu'il respecte c'est ma mère mais elle se laisse pas faire Et elle lui jette un verre points d'suture à l'arcade sourcilière Et on peut rien y faire sinon lui et moi c'est la guerre Si un inspecteur jacte dans le haut-parleur Rend toi Il lui dit nique toi J'dirais pas qu'toutes les polices le recherchent En tout cas celle de Paris j'te parie qu'ils se cachent dans une brèche... cchh N'essaie pas d'reconnaître ma voix chuis enrhumé à force de l'chercher Et quand chuis bien Stomy... chhh Chaud lapin comme mon père et son père à lui</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>Urbaine poésie</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'suis bon qu'à foutre le bordel sur des sons sanglants Rêver d'gros comptes en banque ou du boule à Dolly Golden en m'frottant l'gland J'suis bon qu'à avec mes délires d'ado A pleurer mes partenaires qui sont partis d'ici sans m'dire adieu La vie ça a rien de bandant et qu'est-ce tu m'parles d'indépendance ? Parce qu'en plus les ancêtres, ils ont baisé leur descendance J'voulais savoir pourquoi mon hémisphère connaissait une telle misère ? Mais on m'a dit de fermer ma gueule que tout est question d'épiderme Des terres d'Afrique originaire, j'suis de ces jeunes gens Qui veulent niquer la vie sans faire de préliminaires Ici y'a trop d'délits mineurs jugés comme actes criminels Parce qu'ils ont mis en place un p'tit enfoiré d'forcené au ministère Allez remballe tes Peace, Love Unity, c'est trop has been Aussi vrai que Babylone nous l'a mis sans vaseline Alors t'étonnes pas de ma sale mine, passe-moi l'mic' j'ai la rime assassine Comme cette putain d'époque où vivre n'est pas une tâche facile Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait J'ai seulement 23 ans, j'arrive du block, j'veux le magot Même si les condés veulent ma dope, Même si l'Etat se pé-ta pour ma peau J'ai la pression depuis que le seum est dans l'école Parce que les guns sont dans les halls, pour eux les jeunes c'est dans les geôles Parole d'MC, j'me ferai jamais baiser par le stème-sy Ils n'auront ni mon fric, ni mon équipe, ni mon rap de té-ci Parce qu'on m'accuse, parce que le juge veut nous mettre aux petits soins Chirac ne voit queue dalle, politicien rime avec opticien Dilapidés mes frères sont morts à coup de vitesse Sans appuie-têtes parce que c'est mort l'époque de Happy Days Devant ta mère, ils veulent ta mort et tu t'en souviendras Froidement et subitement, et soudainement te voilà sous un drap Tu diras quoi ? T'as des histoires alors raconte Toujours poussé à bloc, mon meilleur pote s'appelle fusil à pompe Donc laisse tombé c'est Dosseh qui te parle C'est Baccardi qui te baffe, c'est Malsain qui te braque Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Paris s'éveille, mes rêves s'envolent, j'écris mes pensées Combien se comptent en blackout ? Prends ma rime comme pansement c'est la guerre cérébrale, les faibles ne verront pas Y'a rien de funky dans c'que je raconte, j'veux qu'les porcs en chient Si j'suis ici dans les tracas, rappelle-toi racine J'avais une chaîne au pied et quand je l'ouvrais, je finissais L'assassin est rouge de peur et bleu après les coups Loin de la jungle depuis la course, c'est l'instinct animal dans les couplets Sur l'instru mec, j'fais le ralliement des troupes J'ai rendez-vous avec la mort, quoi qu'il s'passe, pour ma part c'est cool C'que je dénonce, c'est qu'aujourd'hui encore l'esclavage existe Sauf qu'il est mental d'Afrique à outre-Atlantique bien et mal, j'suis armé jusqu'au cou J'ai l'savoir, rappelle-toi c'que disait Ministère Amer On veut m'faire croire que comme j'suis black j'ai pas l'droit aux premières places C'est dans l'bon sens pas dans l'sang que j'voulais faire mes classes Négro, j'viens me libérer d'mes chaines dans mes couplets J'veux voir droit et c'est ta mère que tu vas inculper J'suis sous l'emprise de la vengeance, tuons-les tous Et Dieu reconnaîtra les siens, brûlés par l'essence J'ai prié pour que le volcan d'haine se noie dans un fleuve de tranquillité Mais j'crois que l'Homme pour la paix n'est pas habilité Sourcils froncés, j'avance dans cette France Qui n'oublie pas de rappeler que j'suis pas d'la bonne couleur Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait Pensées sombres, urbaine poésie, du sang versé Dans chaque verset on dénonce, le système veut notre peau ici Les âmes sont blessées, comme soutien on a la prophétie Le savoir est une arme maintenant on sait1</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>Viens Si Ça Te Tente</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Mesdames, messieurs, nous entrons dans une zone de fortes turbulences Pour votre sécurité, veuillez regagner votre siège, attacher et ajuster votre ceinture Ça pète net comme une roquette du F.L.N.C À quatre, on débarque un AK et de la NMC Couche tes narines sur la moquette On va lâcher la roquette Poser des euille-f et distribuer des gros pets On assume tout ce qu'on commet On cogne c'est tout ce qu'on connaît C'est comme au poker, on bluff pour gagner Gars, pas déconné avec notre argot Mais quand on balance un style, sur mon crâne ancestral Ärsenik, Chill, Pit, c'est de la balle Y'a du nerf dans le onss, je pense qu'on pionce pas Ça pue la souffrance, normal le stylo et le papier en bavent grave Y'a l'groove et grève dans les lycées On recense un millier de jeunes dans les rues clamant nos récits Sept jours sur sept, on cherche la tactique Jette l'il derrière, tout t'semble statique Mais non, les crânes de rimes toxiques crûment C'est l'art de la guerre, gare à l'orgie, dehors c'est cruel Si duel il y a c'est plus M.I.L.E., sur débiele., faut pas que tu cries au ciel Béton P.I.L.E., sans se faire de B.I.L.E Première attaque, Baccardi Pit, C.A.L.B.O Beat, je suis le genre de mec qui, de la télé, agite les ringos Et de sa clique fatiguée Je place des rimes comme des bingos Bessif, la concurrence fourbit des machinations C'est, envois mes skeuds, comme des machines à sous Méchants rmals que ces flics de la canine Nous on passe inaperçus, on signe au portique Sur le beat m'aligne Tu connais ma ligne Soudés pour se hisser au sommet, secouer le pommier Ma mère n'a jamais trouvé de cagoule sous le sommier Du Formule 1 moisi au Regency Hyatt Je rappe sur basse et rayate S'il faut j'foule la ayates, avec mes barbouzes C'est un baroud de 1ère Classe Genre tout le monde fuit en criant comme à l'époque de nos premières crasses Deux doigts de Baccardi, trois gouttes d'ärsenik Pour empoissonner ceux qui pour les lauriers de César se niquent J'emmerde le monde et sa vision étriquée Moi, armé d'un bic et d'un stick Mes rimes propos de Mars et de mon briquet C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici Je frappe comme au pugilat Avec les mots, on boxe, on rugit là foudre J'rase les villes, la menace te frôle comme Godzilla Vas-y mets la tête et elle saute net À la vôtre et cette fois, ces caves diront pas que c'est ma faute C'est pas honnête Les porcs ont balancé la kryptonite l'alarme sonne Et moi j'ai le doigt scotché à la sonnette On reste digne pour tous ceux qui daignent prêter l'oreille Jamais on ne badine, écumant le désert comme des Moudjahidin On signe nos actes avec la haine de l'insigne Si ça saigne, c'est que c'était écrit Ce qu'on sait, c'est que la rue qui l'enseigne Je m'indigne sur toutes les chaînes, alors je fais pleurer le feutre Que les désignés aillent se faire foutre et que les autres restent neutres ! Ce combat, c'est le nôtre, ici, je délivre ma stratégie C'est le secret de mon art de la guerre où je puise mon énergie C'est urgent, voilà pourquoi les bacs sont submergés Secteur Ä, Coté Obscur, voit notre drapeau émerger De Pit, d'Akhénaton, d'Ärsenik, Côté obscur, Särcelite J'imagine bizarre ta mort, comme imaginer des dards qui niquent On polémique, non, on aime la provoc' Boxons sur disque, on attend que le Sacem nous convoque Mais de rimes t'as le trou du cul pas rabougri, mais go bigre Laisse-moi reprendre du souffle Pit pour l'aspect, Baccardi Enfoiré, un point, un trait, une casquette toujours sur mon crâne Sur mon épaule, mon gilet, mon gicleur prêt à gicler, j'y vais Rien a foutre des flics qui filent et reluquent Les textes que je refile aux minos, qui dévergondent les minets Abîment les ondes et polluent l'écran tous les dynamiter ! En première Classe, je dîne, et en Première Classe, devinez Qui pose la première mine et éduque les frères déracinés C.A.L.B.O. c'est maintenant qu'elle tombe Tu viens d'allumer la mèche Moi je suis la bombe Refrain X2 C'est l'art de la guerre l'art de la guerre On déploie force et stratégie On n'a guère le temps de flaire, ici c'est l'enfer On fait nos affaires on fait nos affaires En secret on se crée des issues Jamais déçu Respect pour les MC's qui suent ici 98, c'est l'Art de la Guerre Borsalino, C.A.L.B.O C'est Pit au Mic L'homme qui valait six millions de barrettes, AK-Haschich, pas d'bakchic En Première Classe, en Première Classe</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Pit Baccardi</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>Viens (Tout est permis)</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>Baccardi 2003 Diam's DJ Kost Vitaa Hey J'arrive avec flow, tout dans l'textuel, tue dans l'textile Me fais pas d'bile, ça suis dans l'sexuel, j'dirais même excellent ha ha Ancien briscard, j'reste sexy, le bruit court que j'suis un brusqueur On m'jalouse, j'ai du succès Vas-y arrête Tu sais qu'c'est avec moi qu'il faut tester, tout c'qui est sexe sauvage J'défie celle qui veut protester Vitaa, hey Faut qu'j'lui explique sans la faire bisquer J'ai peur de rien, eh, j'kiffe grave quand y a du risque Chérie, tu veux qu'on s'mette dans l'contexte? Pour faire quoi? Moi j'kiffe pas les bandits J'te donne du plaisir, j'suis pas là pour te vexer Juste pour l'sexe, tu crois qu'j'ai pas compris? Relax, j'me rattrape, si j't'ai mal indexée Pour m'avoir il faudrait qu'tu m'supplies Juste toi et moi, viens qu'on parle un peu de sexe J'veux pas d'toi, laisse tomber oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Hey Vitaa, y a trop d'chiens dans l'coin Qui regarde ton body, qui veulent te aah dans l'coin Ils veulent ta bouche, tes seins, tes fesses, tes reins Et te disent bouge tes fesses sur le terrain Vas-y Vitaa, mets-lui un stop sur cette zik Stooooooop! Le genre de chien qui fait du lèche-vitrine en Belgique Elle sait qu'elle est sexy, elle sait comment les exciter Mais elle veut pas d'un mec qui a besoin d'aah pour exister Ooh ooh ooh Le gars s'approche de moi, me dit prends un verre Ooh ooh ooh Alors qu'y a trois secondes il insultait ma mère Ooh ooh ooh T'as pas compris tu veux p't-être que je réitère Vas-y Vitaa, te laisse pas faire J'te dis qu'j'suis pas pour toi, ferme les yeux mon frère Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Pourquoi t'insistes, tu vois bien c'est pas la même Envie qui m'anime Pourquoi t'insistes c'est pas la peine Sois gentil oublie Le genre de gars qui rêve de moi toute la nuit La serviette à coté d'son lit Il croit qu'avec sa Merco TDI Il pourra nous mettre comme ça dans son lit Je sais qu'tu veux mon body Tu crois qu'je sais pas qu'j'suis sexy Mais j'vois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Tu crois qu'tout est permis Quand tu vois mon body J't'appartiens pas, compris C'est moi qui choisis selon mes envies Tu crois qu'tout est permis Quand tu vois mon body J'crois qu'on s'est pas compris Si t'es chaud tant pis, remballe et oublie Vitaa, Diams Baccardi Pit Family Brown Double Face 5 Tu l'sais DJ Kost Tu crois qu'tout est permis Quand tu vois son body J'crois qu't'as pas compris C'est elle qui choisit, remballe et oublie Ouais j'crois qu'c'est permis Quand j'vois son body Baccardi Et tu l'sais</t>
         </is>
